--- a/SchemeHIBME/SchemeAnonymousME.xlsx
+++ b/SchemeHIBME/SchemeAnonymousME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T61"/>
+  <dimension ref="A1:U61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,82 +456,87 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>roundCount</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>isSystemValid</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isDeriverPassed</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>isSchemeCorrect</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Setup (s)</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>KGen (s)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>DerivedKGen (s)</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Enc (s)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Dec (s)</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Setup (B)</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>KGen (B)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>DerivedKGen (B)</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Enc (B)</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Dec (B)</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>SK (B)</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>SK' (B)</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>CT</t>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>CT (B)</t>
         </is>
       </c>
     </row>
@@ -550,58 +555,55 @@
       <c r="D2" t="n">
         <v>5</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E2" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2" t="n">
+        <v>20</v>
+      </c>
+      <c r="G2" t="n">
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0367339015007019</v>
+        <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08063572645187378</v>
+        <v>0.060224867</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1305766582489014</v>
+        <v>0.123708296</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02308776378631592</v>
+        <v>0.208131218</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01212517023086548</v>
+        <v>0.036070752</v>
       </c>
       <c r="M2" t="n">
-        <v>17656832</v>
+        <v>0.019000375</v>
       </c>
       <c r="N2" t="n">
-        <v>17656832</v>
+        <v>17794457.6</v>
       </c>
       <c r="O2" t="n">
-        <v>17656832</v>
+        <v>17794457.6</v>
       </c>
       <c r="P2" t="n">
-        <v>17699635.2</v>
+        <v>17794457.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>17699635.2</v>
+        <v>17801420.8</v>
       </c>
       <c r="R2" t="n">
-        <v>240</v>
+        <v>17845043.2</v>
       </c>
       <c r="S2" t="n">
         <v>240</v>
       </c>
       <c r="T2" t="n">
+        <v>240</v>
+      </c>
+      <c r="U2" t="n">
         <v>72</v>
       </c>
     </row>
@@ -620,58 +622,55 @@
       <c r="D3" t="n">
         <v>5</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E3" t="n">
+        <v>20</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" t="n">
+        <v>20</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05039989948272705</v>
+        <v>20</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1292293906211853</v>
+        <v>0.0826442</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2038037538528442</v>
+        <v>0.207151091</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02337931394577026</v>
+        <v>0.241724563</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01218243837356567</v>
+        <v>0.037394285</v>
       </c>
       <c r="M3" t="n">
-        <v>17719296</v>
+        <v>0.021101761</v>
       </c>
       <c r="N3" t="n">
-        <v>17719296</v>
+        <v>17866752</v>
       </c>
       <c r="O3" t="n">
-        <v>17719296</v>
+        <v>17866752</v>
       </c>
       <c r="P3" t="n">
-        <v>17719296</v>
+        <v>17866752</v>
       </c>
       <c r="Q3" t="n">
-        <v>17719296</v>
+        <v>17866752</v>
       </c>
       <c r="R3" t="n">
-        <v>400</v>
+        <v>17866752</v>
       </c>
       <c r="S3" t="n">
         <v>400</v>
       </c>
       <c r="T3" t="n">
+        <v>400</v>
+      </c>
+      <c r="U3" t="n">
         <v>72</v>
       </c>
     </row>
@@ -690,58 +689,55 @@
       <c r="D4" t="n">
         <v>10</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E4" t="n">
+        <v>20</v>
+      </c>
+      <c r="F4" t="n">
+        <v>20</v>
+      </c>
+      <c r="G4" t="n">
+        <v>20</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05882933139801026</v>
+        <v>20</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1073050975799561</v>
+        <v>0.07618346199999999</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1613680839538574</v>
+        <v>0.139504957</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03982946872711182</v>
+        <v>0.213090146</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01311838626861572</v>
+        <v>0.050637352</v>
       </c>
       <c r="M4" t="n">
-        <v>17719296</v>
+        <v>0.0177001</v>
       </c>
       <c r="N4" t="n">
-        <v>17719296</v>
+        <v>17866752</v>
       </c>
       <c r="O4" t="n">
-        <v>17719296</v>
+        <v>17866752</v>
       </c>
       <c r="P4" t="n">
-        <v>17719296</v>
+        <v>17866752</v>
       </c>
       <c r="Q4" t="n">
-        <v>17719296</v>
+        <v>17866752</v>
       </c>
       <c r="R4" t="n">
-        <v>240</v>
+        <v>17866752</v>
       </c>
       <c r="S4" t="n">
         <v>240</v>
       </c>
       <c r="T4" t="n">
+        <v>240</v>
+      </c>
+      <c r="U4" t="n">
         <v>72</v>
       </c>
     </row>
@@ -760,58 +756,55 @@
       <c r="D5" t="n">
         <v>5</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E5" t="n">
+        <v>20</v>
+      </c>
+      <c r="F5" t="n">
+        <v>20</v>
+      </c>
+      <c r="G5" t="n">
+        <v>20</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06508296728134155</v>
+        <v>20</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1887150168418884</v>
+        <v>0.021968889</v>
       </c>
       <c r="J5" t="n">
-        <v>0.29017813205719</v>
+        <v>0.283372414</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02369041442871094</v>
+        <v>0.425326788</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01229798793792725</v>
+        <v>0.037909472</v>
       </c>
       <c r="M5" t="n">
-        <v>17902182.4</v>
+        <v>0.018812478</v>
       </c>
       <c r="N5" t="n">
-        <v>17902182.4</v>
+        <v>18113126.4</v>
       </c>
       <c r="O5" t="n">
-        <v>17902182.4</v>
+        <v>18113126.4</v>
       </c>
       <c r="P5" t="n">
-        <v>17911603.2</v>
+        <v>18124800</v>
       </c>
       <c r="Q5" t="n">
-        <v>17911603.2</v>
+        <v>18132787.2</v>
       </c>
       <c r="R5" t="n">
-        <v>560</v>
+        <v>18132787.2</v>
       </c>
       <c r="S5" t="n">
         <v>560</v>
       </c>
       <c r="T5" t="n">
+        <v>560</v>
+      </c>
+      <c r="U5" t="n">
         <v>72</v>
       </c>
     </row>
@@ -830,58 +823,55 @@
       <c r="D6" t="n">
         <v>10</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E6" t="n">
+        <v>20</v>
+      </c>
+      <c r="F6" t="n">
+        <v>20</v>
+      </c>
+      <c r="G6" t="n">
+        <v>20</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06506052017211914</v>
+        <v>20</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1478109359741211</v>
+        <v>0.100122261</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2221588373184204</v>
+        <v>0.222894382</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03566327095031738</v>
+        <v>0.331007969</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01277948617935181</v>
+        <v>0.05509795</v>
       </c>
       <c r="M6" t="n">
-        <v>17911808</v>
+        <v>0.019649816</v>
       </c>
       <c r="N6" t="n">
-        <v>17911808</v>
+        <v>18352537.6</v>
       </c>
       <c r="O6" t="n">
-        <v>17911808</v>
+        <v>18352537.6</v>
       </c>
       <c r="P6" t="n">
-        <v>17911808</v>
+        <v>18352537.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>17911808</v>
+        <v>18352537.6</v>
       </c>
       <c r="R6" t="n">
-        <v>400</v>
+        <v>18352537.6</v>
       </c>
       <c r="S6" t="n">
         <v>400</v>
       </c>
       <c r="T6" t="n">
+        <v>400</v>
+      </c>
+      <c r="U6" t="n">
         <v>72</v>
       </c>
     </row>
@@ -900,58 +890,55 @@
       <c r="D7" t="n">
         <v>15</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E7" t="n">
+        <v>20</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20</v>
+      </c>
+      <c r="G7" t="n">
+        <v>20</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06268186569213867</v>
+        <v>20</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1029935002326965</v>
+        <v>0.096975374</v>
       </c>
       <c r="J7" t="n">
-        <v>0.153096342086792</v>
+        <v>0.160714853</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04665011167526245</v>
+        <v>0.242783594</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01184006929397583</v>
+        <v>0.070487797</v>
       </c>
       <c r="M7" t="n">
-        <v>17911808</v>
+        <v>0.01762687</v>
       </c>
       <c r="N7" t="n">
-        <v>17911808</v>
+        <v>18354176</v>
       </c>
       <c r="O7" t="n">
-        <v>17911808</v>
+        <v>18354176</v>
       </c>
       <c r="P7" t="n">
-        <v>17911808</v>
+        <v>18354176</v>
       </c>
       <c r="Q7" t="n">
-        <v>17911808</v>
+        <v>18354176</v>
       </c>
       <c r="R7" t="n">
-        <v>240</v>
+        <v>18354176</v>
       </c>
       <c r="S7" t="n">
         <v>240</v>
       </c>
       <c r="T7" t="n">
+        <v>240</v>
+      </c>
+      <c r="U7" t="n">
         <v>72</v>
       </c>
     </row>
@@ -970,58 +957,55 @@
       <c r="D8" t="n">
         <v>5</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E8" t="n">
+        <v>20</v>
+      </c>
+      <c r="F8" t="n">
+        <v>20</v>
+      </c>
+      <c r="G8" t="n">
+        <v>20</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08168144226074218</v>
+        <v>20</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2418399214744568</v>
+        <v>0.044065797</v>
       </c>
       <c r="J8" t="n">
-        <v>0.389175820350647</v>
+        <v>0.364218616</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02637773752212524</v>
+        <v>0.544293392</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01338654756546021</v>
+        <v>0.035593438</v>
       </c>
       <c r="M8" t="n">
-        <v>17938432</v>
+        <v>0.019980383</v>
       </c>
       <c r="N8" t="n">
-        <v>17938432</v>
+        <v>18354176</v>
       </c>
       <c r="O8" t="n">
-        <v>17951744</v>
+        <v>18354176</v>
       </c>
       <c r="P8" t="n">
-        <v>17951744</v>
+        <v>18354176</v>
       </c>
       <c r="Q8" t="n">
-        <v>17951744</v>
+        <v>18354176</v>
       </c>
       <c r="R8" t="n">
-        <v>720</v>
+        <v>18354176</v>
       </c>
       <c r="S8" t="n">
         <v>720</v>
       </c>
       <c r="T8" t="n">
+        <v>720</v>
+      </c>
+      <c r="U8" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1040,58 +1024,55 @@
       <c r="D9" t="n">
         <v>10</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E9" t="n">
+        <v>20</v>
+      </c>
+      <c r="F9" t="n">
+        <v>20</v>
+      </c>
+      <c r="G9" t="n">
+        <v>20</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07783145904541015</v>
+        <v>20</v>
       </c>
       <c r="I9" t="n">
-        <v>0.20001140832901</v>
+        <v>0.04869523</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2966970682144165</v>
+        <v>0.277501082</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03753511905670166</v>
+        <v>0.420484078</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0123607873916626</v>
+        <v>0.051669168</v>
       </c>
       <c r="M9" t="n">
-        <v>18190950.4</v>
+        <v>0.018531358</v>
       </c>
       <c r="N9" t="n">
-        <v>18192384</v>
+        <v>18354176</v>
       </c>
       <c r="O9" t="n">
-        <v>18192384</v>
+        <v>18354176</v>
       </c>
       <c r="P9" t="n">
-        <v>18192384</v>
+        <v>18354176</v>
       </c>
       <c r="Q9" t="n">
-        <v>18192384</v>
+        <v>18354176</v>
       </c>
       <c r="R9" t="n">
-        <v>560</v>
+        <v>18354176</v>
       </c>
       <c r="S9" t="n">
         <v>560</v>
       </c>
       <c r="T9" t="n">
+        <v>560</v>
+      </c>
+      <c r="U9" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1110,58 +1091,55 @@
       <c r="D10" t="n">
         <v>15</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E10" t="n">
+        <v>20</v>
+      </c>
+      <c r="F10" t="n">
+        <v>20</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07453420162200927</v>
+        <v>20</v>
       </c>
       <c r="I10" t="n">
-        <v>0.150512421131134</v>
+        <v>0.111712825</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2236349821090698</v>
+        <v>0.229529631</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04569540023803711</v>
+        <v>0.337837422</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01145728826522827</v>
+        <v>0.06813807500000001</v>
       </c>
       <c r="M10" t="n">
-        <v>18206720</v>
+        <v>0.016570735</v>
       </c>
       <c r="N10" t="n">
-        <v>18206720</v>
+        <v>18354176</v>
       </c>
       <c r="O10" t="n">
-        <v>18206720</v>
+        <v>18354176</v>
       </c>
       <c r="P10" t="n">
-        <v>18206720</v>
+        <v>18354176</v>
       </c>
       <c r="Q10" t="n">
-        <v>18206720</v>
+        <v>18354176</v>
       </c>
       <c r="R10" t="n">
-        <v>400</v>
+        <v>18354176</v>
       </c>
       <c r="S10" t="n">
         <v>400</v>
       </c>
       <c r="T10" t="n">
+        <v>400</v>
+      </c>
+      <c r="U10" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1180,58 +1158,55 @@
       <c r="D11" t="n">
         <v>20</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E11" t="n">
+        <v>20</v>
+      </c>
+      <c r="F11" t="n">
+        <v>20</v>
+      </c>
+      <c r="G11" t="n">
+        <v>20</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07882921695709229</v>
+        <v>20</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1240100383758545</v>
+        <v>0.105387163</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1794613599777222</v>
+        <v>0.166116452</v>
       </c>
       <c r="K11" t="n">
-        <v>0.06485002040863037</v>
+        <v>0.241423881</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01298803091049194</v>
+        <v>0.08909111</v>
       </c>
       <c r="M11" t="n">
-        <v>18206720</v>
+        <v>0.016483343</v>
       </c>
       <c r="N11" t="n">
-        <v>18206720</v>
+        <v>18367488</v>
       </c>
       <c r="O11" t="n">
-        <v>18206720</v>
+        <v>18367488</v>
       </c>
       <c r="P11" t="n">
-        <v>18206720</v>
+        <v>18367488</v>
       </c>
       <c r="Q11" t="n">
-        <v>18206720</v>
+        <v>18380800</v>
       </c>
       <c r="R11" t="n">
-        <v>240</v>
+        <v>18380800</v>
       </c>
       <c r="S11" t="n">
         <v>240</v>
       </c>
       <c r="T11" t="n">
+        <v>240</v>
+      </c>
+      <c r="U11" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1250,58 +1225,55 @@
       <c r="D12" t="n">
         <v>5</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E12" t="n">
+        <v>20</v>
+      </c>
+      <c r="F12" t="n">
+        <v>20</v>
+      </c>
+      <c r="G12" t="n">
+        <v>20</v>
       </c>
       <c r="H12" t="n">
-        <v>0.09322766065597535</v>
+        <v>20</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2950554609298706</v>
+        <v>0.131163907</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4556000947952271</v>
+        <v>0.330754209</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02366421222686767</v>
+        <v>0.61170578</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01257877349853516</v>
+        <v>0.031074226</v>
       </c>
       <c r="M12" t="n">
-        <v>18321408</v>
+        <v>0.016434026</v>
       </c>
       <c r="N12" t="n">
-        <v>18321408</v>
+        <v>18662809.6</v>
       </c>
       <c r="O12" t="n">
-        <v>18321408</v>
+        <v>18662809.6</v>
       </c>
       <c r="P12" t="n">
-        <v>18326118.4</v>
+        <v>18662809.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>18326118.4</v>
+        <v>18664243.2</v>
       </c>
       <c r="R12" t="n">
-        <v>880</v>
+        <v>18664243.2</v>
       </c>
       <c r="S12" t="n">
         <v>880</v>
       </c>
       <c r="T12" t="n">
+        <v>880</v>
+      </c>
+      <c r="U12" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1320,58 +1292,55 @@
       <c r="D13" t="n">
         <v>10</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E13" t="n">
+        <v>20</v>
+      </c>
+      <c r="F13" t="n">
+        <v>20</v>
+      </c>
+      <c r="G13" t="n">
+        <v>20</v>
       </c>
       <c r="H13" t="n">
-        <v>0.08897755146026612</v>
+        <v>20</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2504816651344299</v>
+        <v>0.126250839</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3805330753326416</v>
+        <v>0.282535911</v>
       </c>
       <c r="K13" t="n">
-        <v>0.03647549152374267</v>
+        <v>0.5315424560000001</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01243823766708374</v>
+        <v>0.051665449</v>
       </c>
       <c r="M13" t="n">
-        <v>18337792</v>
+        <v>0.017135954</v>
       </c>
       <c r="N13" t="n">
-        <v>18337792</v>
+        <v>18665472</v>
       </c>
       <c r="O13" t="n">
-        <v>18337792</v>
+        <v>18665472</v>
       </c>
       <c r="P13" t="n">
-        <v>18337792</v>
+        <v>18665472</v>
       </c>
       <c r="Q13" t="n">
-        <v>18337792</v>
+        <v>18665472</v>
       </c>
       <c r="R13" t="n">
-        <v>720</v>
+        <v>18665472</v>
       </c>
       <c r="S13" t="n">
         <v>720</v>
       </c>
       <c r="T13" t="n">
+        <v>720</v>
+      </c>
+      <c r="U13" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1390,58 +1359,55 @@
       <c r="D14" t="n">
         <v>15</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E14" t="n">
+        <v>20</v>
+      </c>
+      <c r="F14" t="n">
+        <v>20</v>
+      </c>
+      <c r="G14" t="n">
+        <v>20</v>
       </c>
       <c r="H14" t="n">
-        <v>0.09251371622085572</v>
+        <v>20</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2089908123016357</v>
+        <v>0.129307818</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3138163805007935</v>
+        <v>0.293814075</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0493003249168396</v>
+        <v>0.433626771</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01239387989044189</v>
+        <v>0.071278262</v>
       </c>
       <c r="M14" t="n">
-        <v>18337792</v>
+        <v>0.016709685</v>
       </c>
       <c r="N14" t="n">
-        <v>18337792</v>
+        <v>18665472</v>
       </c>
       <c r="O14" t="n">
-        <v>18337792</v>
+        <v>18665472</v>
       </c>
       <c r="P14" t="n">
-        <v>18337792</v>
+        <v>18665472</v>
       </c>
       <c r="Q14" t="n">
-        <v>18337792</v>
+        <v>18665472</v>
       </c>
       <c r="R14" t="n">
-        <v>560</v>
+        <v>18665472</v>
       </c>
       <c r="S14" t="n">
         <v>560</v>
       </c>
       <c r="T14" t="n">
+        <v>560</v>
+      </c>
+      <c r="U14" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1460,58 +1426,55 @@
       <c r="D15" t="n">
         <v>20</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E15" t="n">
+        <v>20</v>
+      </c>
+      <c r="F15" t="n">
+        <v>20</v>
+      </c>
+      <c r="G15" t="n">
+        <v>20</v>
       </c>
       <c r="H15" t="n">
-        <v>0.08796968460083007</v>
+        <v>20</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1680643439292908</v>
+        <v>0.13115983</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2468588232994079</v>
+        <v>0.177996647</v>
       </c>
       <c r="K15" t="n">
-        <v>0.06056375503540039</v>
+        <v>0.349463177</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01216733455657959</v>
+        <v>0.084414554</v>
       </c>
       <c r="M15" t="n">
-        <v>18337792</v>
+        <v>0.016618574</v>
       </c>
       <c r="N15" t="n">
-        <v>18337792</v>
+        <v>18665472</v>
       </c>
       <c r="O15" t="n">
-        <v>18337792</v>
+        <v>18665472</v>
       </c>
       <c r="P15" t="n">
-        <v>18337792</v>
+        <v>18665472</v>
       </c>
       <c r="Q15" t="n">
-        <v>18337792</v>
+        <v>18665472</v>
       </c>
       <c r="R15" t="n">
-        <v>400</v>
+        <v>18665472</v>
       </c>
       <c r="S15" t="n">
         <v>400</v>
       </c>
       <c r="T15" t="n">
+        <v>400</v>
+      </c>
+      <c r="U15" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1530,58 +1493,55 @@
       <c r="D16" t="n">
         <v>25</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E16" t="n">
+        <v>20</v>
+      </c>
+      <c r="F16" t="n">
+        <v>20</v>
+      </c>
+      <c r="G16" t="n">
+        <v>20</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1039847254753113</v>
+        <v>20</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1532626748085022</v>
+        <v>0.128974068</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2155045986175537</v>
+        <v>0.187581062</v>
       </c>
       <c r="K16" t="n">
-        <v>0.08198639154434204</v>
+        <v>0.264101541</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01379082202911377</v>
+        <v>0.105945325</v>
       </c>
       <c r="M16" t="n">
-        <v>18337792</v>
+        <v>0.016751087</v>
       </c>
       <c r="N16" t="n">
-        <v>18337792</v>
+        <v>18665472</v>
       </c>
       <c r="O16" t="n">
-        <v>18337792</v>
+        <v>18665472</v>
       </c>
       <c r="P16" t="n">
-        <v>18337792</v>
+        <v>18665472</v>
       </c>
       <c r="Q16" t="n">
-        <v>18337792</v>
+        <v>18665472</v>
       </c>
       <c r="R16" t="n">
-        <v>240</v>
+        <v>18665472</v>
       </c>
       <c r="S16" t="n">
         <v>240</v>
       </c>
       <c r="T16" t="n">
+        <v>240</v>
+      </c>
+      <c r="U16" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1600,58 +1560,55 @@
       <c r="D17" t="n">
         <v>5</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E17" t="n">
+        <v>20</v>
+      </c>
+      <c r="F17" t="n">
+        <v>20</v>
+      </c>
+      <c r="G17" t="n">
+        <v>20</v>
       </c>
       <c r="H17" t="n">
-        <v>0.05946723222732544</v>
+        <v>20</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1213364005088806</v>
+        <v>0.071405816</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1990334391593933</v>
+        <v>0.153120136</v>
       </c>
       <c r="K17" t="n">
-        <v>0.03486162424087524</v>
+        <v>0.249252164</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01850594282150269</v>
+        <v>0.04188199</v>
       </c>
       <c r="M17" t="n">
-        <v>18337792</v>
+        <v>0.02116915</v>
       </c>
       <c r="N17" t="n">
-        <v>18337792</v>
+        <v>18665472</v>
       </c>
       <c r="O17" t="n">
-        <v>18337792</v>
+        <v>18665472</v>
       </c>
       <c r="P17" t="n">
-        <v>18337792</v>
+        <v>18665472</v>
       </c>
       <c r="Q17" t="n">
-        <v>18337792</v>
+        <v>18665472</v>
       </c>
       <c r="R17" t="n">
-        <v>240</v>
+        <v>18665472</v>
       </c>
       <c r="S17" t="n">
         <v>240</v>
       </c>
       <c r="T17" t="n">
+        <v>240</v>
+      </c>
+      <c r="U17" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1670,58 +1627,55 @@
       <c r="D18" t="n">
         <v>5</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E18" t="n">
+        <v>20</v>
+      </c>
+      <c r="F18" t="n">
+        <v>20</v>
+      </c>
+      <c r="G18" t="n">
+        <v>20</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07668552398681641</v>
+        <v>20</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1981217265129089</v>
+        <v>0.100566959</v>
       </c>
       <c r="J18" t="n">
-        <v>0.304185140132904</v>
+        <v>0.24227854</v>
       </c>
       <c r="K18" t="n">
-        <v>0.03524998426437378</v>
+        <v>0.383123088</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01835851669311523</v>
+        <v>0.043554008</v>
       </c>
       <c r="M18" t="n">
-        <v>18337792</v>
+        <v>0.021632814</v>
       </c>
       <c r="N18" t="n">
-        <v>18337792</v>
+        <v>18665472</v>
       </c>
       <c r="O18" t="n">
-        <v>18337792</v>
+        <v>18665472</v>
       </c>
       <c r="P18" t="n">
-        <v>18337792</v>
+        <v>18665472</v>
       </c>
       <c r="Q18" t="n">
-        <v>18337792</v>
+        <v>18665472</v>
       </c>
       <c r="R18" t="n">
-        <v>400</v>
+        <v>18665472</v>
       </c>
       <c r="S18" t="n">
         <v>400</v>
       </c>
       <c r="T18" t="n">
+        <v>400</v>
+      </c>
+      <c r="U18" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1740,58 +1694,55 @@
       <c r="D19" t="n">
         <v>10</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E19" t="n">
+        <v>20</v>
+      </c>
+      <c r="F19" t="n">
+        <v>20</v>
+      </c>
+      <c r="G19" t="n">
+        <v>20</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09674761295318604</v>
+        <v>20</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1835088491439819</v>
+        <v>0.030847287</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2800214171409607</v>
+        <v>0.171707714</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0689129114151001</v>
+        <v>0.27204659</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02473577260971069</v>
+        <v>0.062461948</v>
       </c>
       <c r="M19" t="n">
-        <v>18337792</v>
+        <v>0.022934508</v>
       </c>
       <c r="N19" t="n">
-        <v>18337792</v>
+        <v>18665472</v>
       </c>
       <c r="O19" t="n">
-        <v>18337792</v>
+        <v>18665472</v>
       </c>
       <c r="P19" t="n">
-        <v>18337792</v>
+        <v>18665472</v>
       </c>
       <c r="Q19" t="n">
-        <v>18337792</v>
+        <v>18665472</v>
       </c>
       <c r="R19" t="n">
-        <v>240</v>
+        <v>18665472</v>
       </c>
       <c r="S19" t="n">
         <v>240</v>
       </c>
       <c r="T19" t="n">
+        <v>240</v>
+      </c>
+      <c r="U19" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1810,58 +1761,55 @@
       <c r="D20" t="n">
         <v>5</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E20" t="n">
+        <v>20</v>
+      </c>
+      <c r="F20" t="n">
+        <v>20</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09385038614273071</v>
+        <v>20</v>
       </c>
       <c r="I20" t="n">
-        <v>0.274681544303894</v>
+        <v>0.1217278</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4276818156242371</v>
+        <v>0.319179261</v>
       </c>
       <c r="K20" t="n">
-        <v>0.03708211183547973</v>
+        <v>0.500777769</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01950980424880982</v>
+        <v>0.045616889</v>
       </c>
       <c r="M20" t="n">
-        <v>18404352</v>
+        <v>0.023264146</v>
       </c>
       <c r="N20" t="n">
-        <v>18404352</v>
+        <v>18851840</v>
       </c>
       <c r="O20" t="n">
-        <v>18417664</v>
+        <v>18851840</v>
       </c>
       <c r="P20" t="n">
-        <v>18417664</v>
+        <v>18851840</v>
       </c>
       <c r="Q20" t="n">
-        <v>18417664</v>
+        <v>18865152</v>
       </c>
       <c r="R20" t="n">
-        <v>560</v>
+        <v>18865152</v>
       </c>
       <c r="S20" t="n">
         <v>560</v>
       </c>
       <c r="T20" t="n">
+        <v>560</v>
+      </c>
+      <c r="U20" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1880,58 +1828,55 @@
       <c r="D21" t="n">
         <v>10</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E21" t="n">
+        <v>20</v>
+      </c>
+      <c r="F21" t="n">
+        <v>20</v>
+      </c>
+      <c r="G21" t="n">
+        <v>20</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1099920749664307</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2470425724983215</v>
+        <v>0.119960701</v>
       </c>
       <c r="J21" t="n">
-        <v>0.382733142375946</v>
+        <v>0.26638062</v>
       </c>
       <c r="K21" t="n">
-        <v>0.06040880680084228</v>
+        <v>0.3423666</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02056401968002319</v>
+        <v>0.06700162899999999</v>
       </c>
       <c r="M21" t="n">
-        <v>18604032</v>
+        <v>0.023623145</v>
       </c>
       <c r="N21" t="n">
-        <v>18604032</v>
+        <v>18931712</v>
       </c>
       <c r="O21" t="n">
-        <v>18604032</v>
+        <v>18931712</v>
       </c>
       <c r="P21" t="n">
-        <v>18604032</v>
+        <v>18931712</v>
       </c>
       <c r="Q21" t="n">
-        <v>18604032</v>
+        <v>18931712</v>
       </c>
       <c r="R21" t="n">
-        <v>400</v>
+        <v>18931712</v>
       </c>
       <c r="S21" t="n">
         <v>400</v>
       </c>
       <c r="T21" t="n">
+        <v>400</v>
+      </c>
+      <c r="U21" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1950,58 +1895,55 @@
       <c r="D22" t="n">
         <v>15</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E22" t="n">
+        <v>20</v>
+      </c>
+      <c r="F22" t="n">
+        <v>20</v>
+      </c>
+      <c r="G22" t="n">
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1047858715057373</v>
+        <v>20</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1755781054496765</v>
+        <v>0.117091894</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2579486012458801</v>
+        <v>0.201574838</v>
       </c>
       <c r="K22" t="n">
-        <v>0.07808884382247924</v>
+        <v>0.298051584</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02011759281158447</v>
+        <v>0.08658185</v>
       </c>
       <c r="M22" t="n">
-        <v>18604032</v>
+        <v>0.023424947</v>
       </c>
       <c r="N22" t="n">
-        <v>18604032</v>
+        <v>18931712</v>
       </c>
       <c r="O22" t="n">
-        <v>18604032</v>
+        <v>18931712</v>
       </c>
       <c r="P22" t="n">
-        <v>18604032</v>
+        <v>18931712</v>
       </c>
       <c r="Q22" t="n">
-        <v>18604032</v>
+        <v>18931712</v>
       </c>
       <c r="R22" t="n">
-        <v>240</v>
+        <v>18931712</v>
       </c>
       <c r="S22" t="n">
         <v>240</v>
       </c>
       <c r="T22" t="n">
+        <v>240</v>
+      </c>
+      <c r="U22" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2020,58 +1962,55 @@
       <c r="D23" t="n">
         <v>5</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E23" t="n">
+        <v>20</v>
+      </c>
+      <c r="F23" t="n">
+        <v>20</v>
+      </c>
+      <c r="G23" t="n">
+        <v>20</v>
       </c>
       <c r="H23" t="n">
-        <v>0.105179762840271</v>
+        <v>20</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3223245859146118</v>
+        <v>0.146613264</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4916605114936828</v>
+        <v>0.420406651</v>
       </c>
       <c r="K23" t="n">
-        <v>0.03218903541564942</v>
+        <v>0.573198688</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01695438623428345</v>
+        <v>0.041561294</v>
       </c>
       <c r="M23" t="n">
-        <v>18604032</v>
+        <v>0.022378397</v>
       </c>
       <c r="N23" t="n">
-        <v>18604032</v>
+        <v>18931712</v>
       </c>
       <c r="O23" t="n">
-        <v>18604032</v>
+        <v>18931712</v>
       </c>
       <c r="P23" t="n">
-        <v>18604032</v>
+        <v>18931712</v>
       </c>
       <c r="Q23" t="n">
-        <v>18604032</v>
+        <v>18931712</v>
       </c>
       <c r="R23" t="n">
-        <v>720</v>
+        <v>18931712</v>
       </c>
       <c r="S23" t="n">
         <v>720</v>
       </c>
       <c r="T23" t="n">
+        <v>720</v>
+      </c>
+      <c r="U23" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2090,58 +2029,55 @@
       <c r="D24" t="n">
         <v>10</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E24" t="n">
+        <v>20</v>
+      </c>
+      <c r="F24" t="n">
+        <v>20</v>
+      </c>
+      <c r="G24" t="n">
+        <v>20</v>
       </c>
       <c r="H24" t="n">
-        <v>0.107642924785614</v>
+        <v>20</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2775044322013855</v>
+        <v>0.143483615</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4175960540771484</v>
+        <v>0.280336785</v>
       </c>
       <c r="K24" t="n">
-        <v>0.05123828649520874</v>
+        <v>0.5288179160000001</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0172677755355835</v>
+        <v>0.06365362400000001</v>
       </c>
       <c r="M24" t="n">
-        <v>18604032</v>
+        <v>0.021238315</v>
       </c>
       <c r="N24" t="n">
-        <v>18604032</v>
+        <v>18931712</v>
       </c>
       <c r="O24" t="n">
-        <v>18604032</v>
+        <v>18931712</v>
       </c>
       <c r="P24" t="n">
-        <v>18604032</v>
+        <v>18931712</v>
       </c>
       <c r="Q24" t="n">
-        <v>18604032</v>
+        <v>18931712</v>
       </c>
       <c r="R24" t="n">
-        <v>560</v>
+        <v>18931712</v>
       </c>
       <c r="S24" t="n">
         <v>560</v>
       </c>
       <c r="T24" t="n">
+        <v>560</v>
+      </c>
+      <c r="U24" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2160,58 +2096,55 @@
       <c r="D25" t="n">
         <v>15</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E25" t="n">
+        <v>20</v>
+      </c>
+      <c r="F25" t="n">
+        <v>20</v>
+      </c>
+      <c r="G25" t="n">
+        <v>20</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1076707482337952</v>
+        <v>20</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2271607041358948</v>
+        <v>0.144479001</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3296603083610535</v>
+        <v>0.289104223</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0685010552406311</v>
+        <v>0.407356131</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01736488342285156</v>
+        <v>0.024570441</v>
       </c>
       <c r="M25" t="n">
-        <v>18654003.2</v>
+        <v>0.0210675</v>
       </c>
       <c r="N25" t="n">
-        <v>18666496</v>
+        <v>18931712</v>
       </c>
       <c r="O25" t="n">
-        <v>18666496</v>
+        <v>18931712</v>
       </c>
       <c r="P25" t="n">
-        <v>18666496</v>
+        <v>18931712</v>
       </c>
       <c r="Q25" t="n">
-        <v>18666496</v>
+        <v>18931712</v>
       </c>
       <c r="R25" t="n">
-        <v>400</v>
+        <v>18931712</v>
       </c>
       <c r="S25" t="n">
         <v>400</v>
       </c>
       <c r="T25" t="n">
+        <v>400</v>
+      </c>
+      <c r="U25" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2230,58 +2163,55 @@
       <c r="D26" t="n">
         <v>20</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E26" t="n">
+        <v>20</v>
+      </c>
+      <c r="F26" t="n">
+        <v>20</v>
+      </c>
+      <c r="G26" t="n">
+        <v>20</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1001065492630005</v>
+        <v>20</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1546342849731445</v>
+        <v>0.144009006</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2247519969940185</v>
+        <v>0.224735653</v>
       </c>
       <c r="K26" t="n">
-        <v>0.07897720336914063</v>
+        <v>0.299758923</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01620776653289795</v>
+        <v>0.112886524</v>
       </c>
       <c r="M26" t="n">
-        <v>18853888</v>
+        <v>0.021781957</v>
       </c>
       <c r="N26" t="n">
-        <v>18853888</v>
+        <v>19012812.8</v>
       </c>
       <c r="O26" t="n">
-        <v>18853888</v>
+        <v>19012812.8</v>
       </c>
       <c r="P26" t="n">
-        <v>18853888</v>
+        <v>19026329.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>18853888</v>
+        <v>19026329.6</v>
       </c>
       <c r="R26" t="n">
-        <v>240</v>
+        <v>19026329.6</v>
       </c>
       <c r="S26" t="n">
         <v>240</v>
       </c>
       <c r="T26" t="n">
+        <v>240</v>
+      </c>
+      <c r="U26" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2300,58 +2230,55 @@
       <c r="D27" t="n">
         <v>5</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E27" t="n">
+        <v>20</v>
+      </c>
+      <c r="F27" t="n">
+        <v>20</v>
+      </c>
+      <c r="G27" t="n">
+        <v>20</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1142964720726013</v>
+        <v>20</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3608212471008301</v>
+        <v>0.06462594300000001</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5535493612289428</v>
+        <v>0.518128395</v>
       </c>
       <c r="K27" t="n">
-        <v>0.02956264019012451</v>
+        <v>0.801219225</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01535626649856567</v>
+        <v>0.045253646</v>
       </c>
       <c r="M27" t="n">
-        <v>19110707.2</v>
+        <v>0.024764216</v>
       </c>
       <c r="N27" t="n">
-        <v>19110707.2</v>
+        <v>19202048</v>
       </c>
       <c r="O27" t="n">
-        <v>19124224</v>
+        <v>19202048</v>
       </c>
       <c r="P27" t="n">
-        <v>19124224</v>
+        <v>19202048</v>
       </c>
       <c r="Q27" t="n">
-        <v>19124224</v>
+        <v>19202048</v>
       </c>
       <c r="R27" t="n">
-        <v>880</v>
+        <v>19202048</v>
       </c>
       <c r="S27" t="n">
         <v>880</v>
       </c>
       <c r="T27" t="n">
+        <v>880</v>
+      </c>
+      <c r="U27" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2370,58 +2297,55 @@
       <c r="D28" t="n">
         <v>10</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E28" t="n">
+        <v>20</v>
+      </c>
+      <c r="F28" t="n">
+        <v>20</v>
+      </c>
+      <c r="G28" t="n">
+        <v>20</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1152455925941467</v>
+        <v>20</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3159857869148254</v>
+        <v>0.171488464</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4767257332801819</v>
+        <v>0.467851913</v>
       </c>
       <c r="K28" t="n">
-        <v>0.04632618427276611</v>
+        <v>0.594037044</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01561827659606934</v>
+        <v>0.062485445</v>
       </c>
       <c r="M28" t="n">
-        <v>19124224</v>
+        <v>0.022389352</v>
       </c>
       <c r="N28" t="n">
-        <v>19124224</v>
+        <v>19202048</v>
       </c>
       <c r="O28" t="n">
-        <v>19124224</v>
+        <v>19202048</v>
       </c>
       <c r="P28" t="n">
-        <v>19124224</v>
+        <v>19202048</v>
       </c>
       <c r="Q28" t="n">
-        <v>19124224</v>
+        <v>19202048</v>
       </c>
       <c r="R28" t="n">
-        <v>720</v>
+        <v>19202048</v>
       </c>
       <c r="S28" t="n">
         <v>720</v>
       </c>
       <c r="T28" t="n">
+        <v>720</v>
+      </c>
+      <c r="U28" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2440,58 +2364,55 @@
       <c r="D29" t="n">
         <v>15</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E29" t="n">
+        <v>20</v>
+      </c>
+      <c r="F29" t="n">
+        <v>20</v>
+      </c>
+      <c r="G29" t="n">
+        <v>20</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1180888652801514</v>
+        <v>20</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2716135501861572</v>
+        <v>0.159921467</v>
       </c>
       <c r="J29" t="n">
-        <v>0.4024532675743103</v>
+        <v>0.28769803</v>
       </c>
       <c r="K29" t="n">
-        <v>0.06301521062850952</v>
+        <v>0.56572746</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01612441539764404</v>
+        <v>0.08776830400000001</v>
       </c>
       <c r="M29" t="n">
-        <v>19124224</v>
+        <v>0.023143983</v>
       </c>
       <c r="N29" t="n">
-        <v>19124224</v>
+        <v>19202048</v>
       </c>
       <c r="O29" t="n">
-        <v>19124224</v>
+        <v>19202048</v>
       </c>
       <c r="P29" t="n">
-        <v>19124224</v>
+        <v>19202048</v>
       </c>
       <c r="Q29" t="n">
-        <v>19124224</v>
+        <v>19202048</v>
       </c>
       <c r="R29" t="n">
-        <v>560</v>
+        <v>19202048</v>
       </c>
       <c r="S29" t="n">
         <v>560</v>
       </c>
       <c r="T29" t="n">
+        <v>560</v>
+      </c>
+      <c r="U29" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2510,58 +2431,55 @@
       <c r="D30" t="n">
         <v>20</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E30" t="n">
+        <v>20</v>
+      </c>
+      <c r="F30" t="n">
+        <v>20</v>
+      </c>
+      <c r="G30" t="n">
+        <v>20</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1287038445472717</v>
+        <v>20</v>
       </c>
       <c r="I30" t="n">
-        <v>0.239437472820282</v>
+        <v>0.17338804</v>
       </c>
       <c r="J30" t="n">
-        <v>0.3437360167503357</v>
+        <v>0.316761744</v>
       </c>
       <c r="K30" t="n">
-        <v>0.08530415296554565</v>
+        <v>0.430788875</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01765717267990112</v>
+        <v>0.106608343</v>
       </c>
       <c r="M30" t="n">
-        <v>19124224</v>
+        <v>0.02147373</v>
       </c>
       <c r="N30" t="n">
-        <v>19124224</v>
+        <v>19202048</v>
       </c>
       <c r="O30" t="n">
-        <v>19124224</v>
+        <v>19202048</v>
       </c>
       <c r="P30" t="n">
-        <v>19124224</v>
+        <v>19202048</v>
       </c>
       <c r="Q30" t="n">
-        <v>19124224</v>
+        <v>19202048</v>
       </c>
       <c r="R30" t="n">
-        <v>400</v>
+        <v>19202048</v>
       </c>
       <c r="S30" t="n">
         <v>400</v>
       </c>
       <c r="T30" t="n">
+        <v>400</v>
+      </c>
+      <c r="U30" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2580,58 +2498,55 @@
       <c r="D31" t="n">
         <v>25</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E31" t="n">
+        <v>20</v>
+      </c>
+      <c r="F31" t="n">
+        <v>20</v>
+      </c>
+      <c r="G31" t="n">
+        <v>20</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1158992290496826</v>
+        <v>20</v>
       </c>
       <c r="I31" t="n">
-        <v>0.174722170829773</v>
+        <v>0.165672195</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2407952427864075</v>
+        <v>0.244852602</v>
       </c>
       <c r="K31" t="n">
-        <v>0.09776142835617066</v>
+        <v>0.249170613</v>
       </c>
       <c r="L31" t="n">
-        <v>0.01680673360824585</v>
+        <v>0.130807972</v>
       </c>
       <c r="M31" t="n">
-        <v>19124224</v>
+        <v>0.022798586</v>
       </c>
       <c r="N31" t="n">
-        <v>19124224</v>
+        <v>19202048</v>
       </c>
       <c r="O31" t="n">
-        <v>19124224</v>
+        <v>19202048</v>
       </c>
       <c r="P31" t="n">
-        <v>19124224</v>
+        <v>19202048</v>
       </c>
       <c r="Q31" t="n">
-        <v>19124224</v>
+        <v>19202048</v>
       </c>
       <c r="R31" t="n">
-        <v>240</v>
+        <v>19202048</v>
       </c>
       <c r="S31" t="n">
         <v>240</v>
       </c>
       <c r="T31" t="n">
+        <v>240</v>
+      </c>
+      <c r="U31" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2650,58 +2565,55 @@
       <c r="D32" t="n">
         <v>5</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E32" t="n">
+        <v>20</v>
+      </c>
+      <c r="F32" t="n">
+        <v>20</v>
+      </c>
+      <c r="G32" t="n">
+        <v>20</v>
       </c>
       <c r="H32" t="n">
-        <v>0.06243250370025635</v>
+        <v>20</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1341633677482605</v>
+        <v>0.093306732</v>
       </c>
       <c r="J32" t="n">
-        <v>0.2173745274543762</v>
+        <v>0.189631414</v>
       </c>
       <c r="K32" t="n">
-        <v>0.03948818445205689</v>
+        <v>0.304676473</v>
       </c>
       <c r="L32" t="n">
-        <v>0.01981182098388672</v>
+        <v>0.05543375</v>
       </c>
       <c r="M32" t="n">
-        <v>19124224</v>
+        <v>0.028762615</v>
       </c>
       <c r="N32" t="n">
-        <v>19124224</v>
+        <v>19202048</v>
       </c>
       <c r="O32" t="n">
-        <v>19124224</v>
+        <v>19202048</v>
       </c>
       <c r="P32" t="n">
-        <v>19124224</v>
+        <v>19202048</v>
       </c>
       <c r="Q32" t="n">
-        <v>19124224</v>
+        <v>19202048</v>
       </c>
       <c r="R32" t="n">
-        <v>240</v>
+        <v>19202048</v>
       </c>
       <c r="S32" t="n">
         <v>240</v>
       </c>
       <c r="T32" t="n">
+        <v>240</v>
+      </c>
+      <c r="U32" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2720,58 +2632,55 @@
       <c r="D33" t="n">
         <v>5</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E33" t="n">
+        <v>20</v>
+      </c>
+      <c r="F33" t="n">
+        <v>20</v>
+      </c>
+      <c r="G33" t="n">
+        <v>20</v>
       </c>
       <c r="H33" t="n">
-        <v>0.08265970945358277</v>
+        <v>20</v>
       </c>
       <c r="I33" t="n">
-        <v>0.213209867477417</v>
+        <v>0.122098768</v>
       </c>
       <c r="J33" t="n">
-        <v>0.3367933034896851</v>
+        <v>0.307599235</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0377953052520752</v>
+        <v>0.484358573</v>
       </c>
       <c r="L33" t="n">
-        <v>0.01939318180084228</v>
+        <v>0.054189003</v>
       </c>
       <c r="M33" t="n">
-        <v>19124224</v>
+        <v>0.027133679</v>
       </c>
       <c r="N33" t="n">
-        <v>19124224</v>
+        <v>19202048</v>
       </c>
       <c r="O33" t="n">
-        <v>19124224</v>
+        <v>19202048</v>
       </c>
       <c r="P33" t="n">
-        <v>19124224</v>
+        <v>19202048</v>
       </c>
       <c r="Q33" t="n">
-        <v>19124224</v>
+        <v>19202048</v>
       </c>
       <c r="R33" t="n">
-        <v>400</v>
+        <v>19202048</v>
       </c>
       <c r="S33" t="n">
         <v>400</v>
       </c>
       <c r="T33" t="n">
+        <v>400</v>
+      </c>
+      <c r="U33" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2790,58 +2699,55 @@
       <c r="D34" t="n">
         <v>10</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E34" t="n">
+        <v>20</v>
+      </c>
+      <c r="F34" t="n">
+        <v>20</v>
+      </c>
+      <c r="G34" t="n">
+        <v>20</v>
       </c>
       <c r="H34" t="n">
-        <v>0.08101761341094971</v>
+        <v>20</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1537386775016785</v>
+        <v>0.121553135</v>
       </c>
       <c r="J34" t="n">
-        <v>0.234113883972168</v>
+        <v>0.21540339</v>
       </c>
       <c r="K34" t="n">
-        <v>0.057292640209198</v>
+        <v>0.248948193</v>
       </c>
       <c r="L34" t="n">
-        <v>0.01927464008331299</v>
+        <v>0.080731487</v>
       </c>
       <c r="M34" t="n">
-        <v>19124224</v>
+        <v>0.026796734</v>
       </c>
       <c r="N34" t="n">
-        <v>19124224</v>
+        <v>19202048</v>
       </c>
       <c r="O34" t="n">
-        <v>19124224</v>
+        <v>19202048</v>
       </c>
       <c r="P34" t="n">
-        <v>19124224</v>
+        <v>19202048</v>
       </c>
       <c r="Q34" t="n">
-        <v>19124224</v>
+        <v>19202048</v>
       </c>
       <c r="R34" t="n">
-        <v>240</v>
+        <v>19202048</v>
       </c>
       <c r="S34" t="n">
         <v>240</v>
       </c>
       <c r="T34" t="n">
+        <v>240</v>
+      </c>
+      <c r="U34" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2860,58 +2766,55 @@
       <c r="D35" t="n">
         <v>5</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E35" t="n">
+        <v>20</v>
+      </c>
+      <c r="F35" t="n">
+        <v>20</v>
+      </c>
+      <c r="G35" t="n">
+        <v>20</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1093554019927978</v>
+        <v>20</v>
       </c>
       <c r="I35" t="n">
-        <v>0.3152581453323364</v>
+        <v>0.148320234</v>
       </c>
       <c r="J35" t="n">
-        <v>0.4910878300666809</v>
+        <v>0.417797625</v>
       </c>
       <c r="K35" t="n">
-        <v>0.03957144021987915</v>
+        <v>0.666785121</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0200809121131897</v>
+        <v>0.054648256</v>
       </c>
       <c r="M35" t="n">
-        <v>19124224</v>
+        <v>0.026576889</v>
       </c>
       <c r="N35" t="n">
-        <v>19124224</v>
+        <v>19202048</v>
       </c>
       <c r="O35" t="n">
-        <v>19124224</v>
+        <v>19202048</v>
       </c>
       <c r="P35" t="n">
-        <v>19124224</v>
+        <v>19202048</v>
       </c>
       <c r="Q35" t="n">
-        <v>19124224</v>
+        <v>19202048</v>
       </c>
       <c r="R35" t="n">
-        <v>560</v>
+        <v>19202048</v>
       </c>
       <c r="S35" t="n">
         <v>560</v>
       </c>
       <c r="T35" t="n">
+        <v>560</v>
+      </c>
+      <c r="U35" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2930,58 +2833,55 @@
       <c r="D36" t="n">
         <v>10</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E36" t="n">
+        <v>20</v>
+      </c>
+      <c r="F36" t="n">
+        <v>20</v>
+      </c>
+      <c r="G36" t="n">
+        <v>20</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1208145022392273</v>
+        <v>20</v>
       </c>
       <c r="I36" t="n">
-        <v>0.2785121321678162</v>
+        <v>0.152842355</v>
       </c>
       <c r="J36" t="n">
-        <v>0.4250149488449096</v>
+        <v>0.334569752</v>
       </c>
       <c r="K36" t="n">
-        <v>0.06680200099945069</v>
+        <v>0.421627009</v>
       </c>
       <c r="L36" t="n">
-        <v>0.02255395650863647</v>
+        <v>0.08322288999999999</v>
       </c>
       <c r="M36" t="n">
-        <v>19164774.4</v>
+        <v>0.026966286</v>
       </c>
       <c r="N36" t="n">
-        <v>19164774.4</v>
+        <v>19404800</v>
       </c>
       <c r="O36" t="n">
-        <v>19164774.4</v>
+        <v>19404800</v>
       </c>
       <c r="P36" t="n">
-        <v>19164774.4</v>
+        <v>19418316.8</v>
       </c>
       <c r="Q36" t="n">
-        <v>19178291.2</v>
+        <v>19418316.8</v>
       </c>
       <c r="R36" t="n">
-        <v>400</v>
+        <v>19418316.8</v>
       </c>
       <c r="S36" t="n">
         <v>400</v>
       </c>
       <c r="T36" t="n">
+        <v>400</v>
+      </c>
+      <c r="U36" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3000,58 +2900,55 @@
       <c r="D37" t="n">
         <v>15</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E37" t="n">
+        <v>20</v>
+      </c>
+      <c r="F37" t="n">
+        <v>20</v>
+      </c>
+      <c r="G37" t="n">
+        <v>20</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1214551568031311</v>
+        <v>20</v>
       </c>
       <c r="I37" t="n">
-        <v>0.2028339862823486</v>
+        <v>0.1471614</v>
       </c>
       <c r="J37" t="n">
-        <v>0.3047905445098877</v>
+        <v>0.25928961</v>
       </c>
       <c r="K37" t="n">
-        <v>0.09377752542495728</v>
+        <v>0.358465397</v>
       </c>
       <c r="L37" t="n">
-        <v>0.02332079410552979</v>
+        <v>0.021630073</v>
       </c>
       <c r="M37" t="n">
-        <v>19394560</v>
+        <v>0.027692616</v>
       </c>
       <c r="N37" t="n">
-        <v>19394560</v>
+        <v>19472384</v>
       </c>
       <c r="O37" t="n">
-        <v>19394560</v>
+        <v>19472384</v>
       </c>
       <c r="P37" t="n">
-        <v>19394560</v>
+        <v>19472384</v>
       </c>
       <c r="Q37" t="n">
-        <v>19394560</v>
+        <v>19472384</v>
       </c>
       <c r="R37" t="n">
-        <v>240</v>
+        <v>19472384</v>
       </c>
       <c r="S37" t="n">
         <v>240</v>
       </c>
       <c r="T37" t="n">
+        <v>240</v>
+      </c>
+      <c r="U37" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3070,58 +2967,55 @@
       <c r="D38" t="n">
         <v>5</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E38" t="n">
+        <v>20</v>
+      </c>
+      <c r="F38" t="n">
+        <v>20</v>
+      </c>
+      <c r="G38" t="n">
+        <v>20</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1437835216522217</v>
+        <v>20</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4383977174758911</v>
+        <v>0.177518833</v>
       </c>
       <c r="J38" t="n">
-        <v>0.6712340831756591</v>
+        <v>0.545177889</v>
       </c>
       <c r="K38" t="n">
-        <v>0.04421367645263672</v>
+        <v>0.723242164</v>
       </c>
       <c r="L38" t="n">
-        <v>0.02268054485321045</v>
+        <v>0.053776836</v>
       </c>
       <c r="M38" t="n">
-        <v>19394560</v>
+        <v>0.027343524</v>
       </c>
       <c r="N38" t="n">
-        <v>19394560</v>
+        <v>19472384</v>
       </c>
       <c r="O38" t="n">
-        <v>19394560</v>
+        <v>19472384</v>
       </c>
       <c r="P38" t="n">
-        <v>19394560</v>
+        <v>19472384</v>
       </c>
       <c r="Q38" t="n">
-        <v>19394560</v>
+        <v>19472384</v>
       </c>
       <c r="R38" t="n">
-        <v>720</v>
+        <v>19472384</v>
       </c>
       <c r="S38" t="n">
         <v>720</v>
       </c>
       <c r="T38" t="n">
+        <v>720</v>
+      </c>
+      <c r="U38" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3140,58 +3034,55 @@
       <c r="D39" t="n">
         <v>10</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E39" t="n">
+        <v>20</v>
+      </c>
+      <c r="F39" t="n">
+        <v>20</v>
+      </c>
+      <c r="G39" t="n">
+        <v>20</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1402965307235718</v>
+        <v>20</v>
       </c>
       <c r="I39" t="n">
-        <v>0.3711750984191894</v>
+        <v>0.177681661</v>
       </c>
       <c r="J39" t="n">
-        <v>0.5616520643234253</v>
+        <v>0.380236769</v>
       </c>
       <c r="K39" t="n">
-        <v>0.06635434627532959</v>
+        <v>0.6874154689999999</v>
       </c>
       <c r="L39" t="n">
-        <v>0.02290749549865723</v>
+        <v>0.086330712</v>
       </c>
       <c r="M39" t="n">
-        <v>19394560</v>
+        <v>0.02779007</v>
       </c>
       <c r="N39" t="n">
-        <v>19394560</v>
+        <v>19472384</v>
       </c>
       <c r="O39" t="n">
-        <v>19394560</v>
+        <v>19472384</v>
       </c>
       <c r="P39" t="n">
-        <v>19394560</v>
+        <v>19472384</v>
       </c>
       <c r="Q39" t="n">
-        <v>19394560</v>
+        <v>19472384</v>
       </c>
       <c r="R39" t="n">
-        <v>560</v>
+        <v>19472384</v>
       </c>
       <c r="S39" t="n">
         <v>560</v>
       </c>
       <c r="T39" t="n">
+        <v>560</v>
+      </c>
+      <c r="U39" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3210,58 +3101,55 @@
       <c r="D40" t="n">
         <v>15</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E40" t="n">
+        <v>20</v>
+      </c>
+      <c r="F40" t="n">
+        <v>20</v>
+      </c>
+      <c r="G40" t="n">
+        <v>20</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1469321727752685</v>
+        <v>20</v>
       </c>
       <c r="I40" t="n">
-        <v>0.2921832919120789</v>
+        <v>0.176324689</v>
       </c>
       <c r="J40" t="n">
-        <v>0.42149178981781</v>
+        <v>0.377183342</v>
       </c>
       <c r="K40" t="n">
-        <v>0.08780857324600219</v>
+        <v>0.549577236</v>
       </c>
       <c r="L40" t="n">
-        <v>0.02235878705978394</v>
+        <v>0.108316183</v>
       </c>
       <c r="M40" t="n">
-        <v>19394560</v>
+        <v>0.02982105</v>
       </c>
       <c r="N40" t="n">
-        <v>19394560</v>
+        <v>19472384</v>
       </c>
       <c r="O40" t="n">
-        <v>19394560</v>
+        <v>19472384</v>
       </c>
       <c r="P40" t="n">
-        <v>19394560</v>
+        <v>19472384</v>
       </c>
       <c r="Q40" t="n">
-        <v>19394560</v>
+        <v>19472384</v>
       </c>
       <c r="R40" t="n">
-        <v>400</v>
+        <v>19472384</v>
       </c>
       <c r="S40" t="n">
         <v>400</v>
       </c>
       <c r="T40" t="n">
+        <v>400</v>
+      </c>
+      <c r="U40" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3280,58 +3168,55 @@
       <c r="D41" t="n">
         <v>20</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E41" t="n">
+        <v>20</v>
+      </c>
+      <c r="F41" t="n">
+        <v>20</v>
+      </c>
+      <c r="G41" t="n">
+        <v>20</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1301594376564026</v>
+        <v>20</v>
       </c>
       <c r="I41" t="n">
-        <v>0.2033175706863403</v>
+        <v>0.182871997</v>
       </c>
       <c r="J41" t="n">
-        <v>0.2889176607131958</v>
+        <v>0.181386936</v>
       </c>
       <c r="K41" t="n">
-        <v>0.1020374655723572</v>
+        <v>0.409709299</v>
       </c>
       <c r="L41" t="n">
-        <v>0.02060320377349854</v>
+        <v>0.141287935</v>
       </c>
       <c r="M41" t="n">
-        <v>19394560</v>
+        <v>0.027542531</v>
       </c>
       <c r="N41" t="n">
-        <v>19394560</v>
+        <v>19472384</v>
       </c>
       <c r="O41" t="n">
-        <v>19394560</v>
+        <v>19472384</v>
       </c>
       <c r="P41" t="n">
-        <v>19394560</v>
+        <v>19472384</v>
       </c>
       <c r="Q41" t="n">
-        <v>19394560</v>
+        <v>19472384</v>
       </c>
       <c r="R41" t="n">
-        <v>240</v>
+        <v>19472384</v>
       </c>
       <c r="S41" t="n">
         <v>240</v>
       </c>
       <c r="T41" t="n">
+        <v>240</v>
+      </c>
+      <c r="U41" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3350,58 +3235,55 @@
       <c r="D42" t="n">
         <v>5</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E42" t="n">
+        <v>20</v>
+      </c>
+      <c r="F42" t="n">
+        <v>20</v>
+      </c>
+      <c r="G42" t="n">
+        <v>20</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1479146003723145</v>
+        <v>20</v>
       </c>
       <c r="I42" t="n">
-        <v>0.4662618041038513</v>
+        <v>0.203381097</v>
       </c>
       <c r="J42" t="n">
-        <v>0.702602994441986</v>
+        <v>0.549580407</v>
       </c>
       <c r="K42" t="n">
-        <v>0.03888847827911377</v>
+        <v>0.98649075</v>
       </c>
       <c r="L42" t="n">
-        <v>0.02021470069885254</v>
+        <v>0.052308464</v>
       </c>
       <c r="M42" t="n">
-        <v>19394560</v>
+        <v>0.025916767</v>
       </c>
       <c r="N42" t="n">
-        <v>19394560</v>
+        <v>19472384</v>
       </c>
       <c r="O42" t="n">
-        <v>19394560</v>
+        <v>19472384</v>
       </c>
       <c r="P42" t="n">
-        <v>19394560</v>
+        <v>19472384</v>
       </c>
       <c r="Q42" t="n">
-        <v>19394560</v>
+        <v>19472384</v>
       </c>
       <c r="R42" t="n">
-        <v>880</v>
+        <v>19472384</v>
       </c>
       <c r="S42" t="n">
         <v>880</v>
       </c>
       <c r="T42" t="n">
+        <v>880</v>
+      </c>
+      <c r="U42" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3420,58 +3302,55 @@
       <c r="D43" t="n">
         <v>10</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E43" t="n">
+        <v>20</v>
+      </c>
+      <c r="F43" t="n">
+        <v>20</v>
+      </c>
+      <c r="G43" t="n">
+        <v>20</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1429599642753601</v>
+        <v>20</v>
       </c>
       <c r="I43" t="n">
-        <v>0.3919374227523804</v>
+        <v>0.206635809</v>
       </c>
       <c r="J43" t="n">
-        <v>0.6014142990112304</v>
+        <v>0.481856453</v>
       </c>
       <c r="K43" t="n">
-        <v>0.05669611692428589</v>
+        <v>0.862576008</v>
       </c>
       <c r="L43" t="n">
-        <v>0.01896828413009644</v>
+        <v>0.08494054099999999</v>
       </c>
       <c r="M43" t="n">
-        <v>19394560</v>
+        <v>0.029007185</v>
       </c>
       <c r="N43" t="n">
-        <v>19394560</v>
+        <v>19472384</v>
       </c>
       <c r="O43" t="n">
-        <v>19394560</v>
+        <v>19472384</v>
       </c>
       <c r="P43" t="n">
-        <v>19394560</v>
+        <v>19472384</v>
       </c>
       <c r="Q43" t="n">
-        <v>19394560</v>
+        <v>19472384</v>
       </c>
       <c r="R43" t="n">
-        <v>720</v>
+        <v>19472384</v>
       </c>
       <c r="S43" t="n">
         <v>720</v>
       </c>
       <c r="T43" t="n">
+        <v>720</v>
+      </c>
+      <c r="U43" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3490,58 +3369,55 @@
       <c r="D44" t="n">
         <v>15</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E44" t="n">
+        <v>20</v>
+      </c>
+      <c r="F44" t="n">
+        <v>20</v>
+      </c>
+      <c r="G44" t="n">
+        <v>20</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1502915143966675</v>
+        <v>20</v>
       </c>
       <c r="I44" t="n">
-        <v>0.3578578948974609</v>
+        <v>0.210906649</v>
       </c>
       <c r="J44" t="n">
-        <v>0.524132251739502</v>
+        <v>0.473504651</v>
       </c>
       <c r="K44" t="n">
-        <v>0.08429034948348998</v>
+        <v>0.616035056</v>
       </c>
       <c r="L44" t="n">
-        <v>0.02046597003936768</v>
+        <v>0.109743869</v>
       </c>
       <c r="M44" t="n">
-        <v>19394560</v>
+        <v>0.027239513</v>
       </c>
       <c r="N44" t="n">
-        <v>19394560</v>
+        <v>19472384</v>
       </c>
       <c r="O44" t="n">
-        <v>19394560</v>
+        <v>19472384</v>
       </c>
       <c r="P44" t="n">
-        <v>19394560</v>
+        <v>19472384</v>
       </c>
       <c r="Q44" t="n">
-        <v>19394560</v>
+        <v>19472384</v>
       </c>
       <c r="R44" t="n">
-        <v>560</v>
+        <v>19472384</v>
       </c>
       <c r="S44" t="n">
         <v>560</v>
       </c>
       <c r="T44" t="n">
+        <v>560</v>
+      </c>
+      <c r="U44" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3560,58 +3436,55 @@
       <c r="D45" t="n">
         <v>20</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E45" t="n">
+        <v>20</v>
+      </c>
+      <c r="F45" t="n">
+        <v>20</v>
+      </c>
+      <c r="G45" t="n">
+        <v>20</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1616171598434448</v>
+        <v>20</v>
       </c>
       <c r="I45" t="n">
-        <v>0.3060907006263733</v>
+        <v>0.205575609</v>
       </c>
       <c r="J45" t="n">
-        <v>0.4422235012054443</v>
+        <v>0.385116076</v>
       </c>
       <c r="K45" t="n">
-        <v>0.1046018242835998</v>
+        <v>0.468514597</v>
       </c>
       <c r="L45" t="n">
-        <v>0.02110477685928345</v>
+        <v>0.143250406</v>
       </c>
       <c r="M45" t="n">
-        <v>19394560</v>
+        <v>0.027929318</v>
       </c>
       <c r="N45" t="n">
-        <v>19394560</v>
+        <v>19499417.6</v>
       </c>
       <c r="O45" t="n">
-        <v>19394560</v>
+        <v>19499417.6</v>
       </c>
       <c r="P45" t="n">
-        <v>19394560</v>
+        <v>19512934.4</v>
       </c>
       <c r="Q45" t="n">
-        <v>19394560</v>
+        <v>19512934.4</v>
       </c>
       <c r="R45" t="n">
-        <v>400</v>
+        <v>19512934.4</v>
       </c>
       <c r="S45" t="n">
         <v>400</v>
       </c>
       <c r="T45" t="n">
+        <v>400</v>
+      </c>
+      <c r="U45" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3630,58 +3503,55 @@
       <c r="D46" t="n">
         <v>25</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E46" t="n">
+        <v>20</v>
+      </c>
+      <c r="F46" t="n">
+        <v>20</v>
+      </c>
+      <c r="G46" t="n">
+        <v>20</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1691434025764465</v>
+        <v>20</v>
       </c>
       <c r="I46" t="n">
-        <v>0.2471073150634766</v>
+        <v>0.212430751</v>
       </c>
       <c r="J46" t="n">
-        <v>0.3420640707015991</v>
+        <v>0.311992395</v>
       </c>
       <c r="K46" t="n">
-        <v>0.1371071219444275</v>
+        <v>0.436512125</v>
       </c>
       <c r="L46" t="n">
-        <v>0.02182925939559937</v>
+        <v>0.08692884400000001</v>
       </c>
       <c r="M46" t="n">
-        <v>19394560</v>
+        <v>0.027001083</v>
       </c>
       <c r="N46" t="n">
-        <v>19394560</v>
+        <v>19742720</v>
       </c>
       <c r="O46" t="n">
-        <v>19394560</v>
+        <v>19742720</v>
       </c>
       <c r="P46" t="n">
-        <v>19394560</v>
+        <v>19742720</v>
       </c>
       <c r="Q46" t="n">
-        <v>19394560</v>
+        <v>19742720</v>
       </c>
       <c r="R46" t="n">
-        <v>240</v>
+        <v>19742720</v>
       </c>
       <c r="S46" t="n">
         <v>240</v>
       </c>
       <c r="T46" t="n">
+        <v>240</v>
+      </c>
+      <c r="U46" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3700,58 +3570,55 @@
       <c r="D47" t="n">
         <v>5</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E47" t="n">
+        <v>20</v>
+      </c>
+      <c r="F47" t="n">
+        <v>20</v>
+      </c>
+      <c r="G47" t="n">
+        <v>20</v>
       </c>
       <c r="H47" t="n">
-        <v>0.01503472328186035</v>
+        <v>20</v>
       </c>
       <c r="I47" t="n">
-        <v>0.02751694917678833</v>
+        <v>0.023523951</v>
       </c>
       <c r="J47" t="n">
-        <v>0.04741954803466797</v>
+        <v>0.040601742</v>
       </c>
       <c r="K47" t="n">
-        <v>0.009642660617828369</v>
+        <v>0.073944545</v>
       </c>
       <c r="L47" t="n">
-        <v>0.003726685047149658</v>
+        <v>0.014450538</v>
       </c>
       <c r="M47" t="n">
-        <v>19750707.2</v>
+        <v>0.005521953</v>
       </c>
       <c r="N47" t="n">
-        <v>19764224</v>
+        <v>19840819.2</v>
       </c>
       <c r="O47" t="n">
-        <v>19760947.2</v>
+        <v>19843072</v>
       </c>
       <c r="P47" t="n">
-        <v>19772006.4</v>
+        <v>19843276.8</v>
       </c>
       <c r="Q47" t="n">
-        <v>19772006.4</v>
+        <v>19850854.4</v>
       </c>
       <c r="R47" t="n">
-        <v>240</v>
+        <v>19850854.4</v>
       </c>
       <c r="S47" t="n">
         <v>240</v>
       </c>
       <c r="T47" t="n">
+        <v>240</v>
+      </c>
+      <c r="U47" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3770,58 +3637,55 @@
       <c r="D48" t="n">
         <v>5</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E48" t="n">
+        <v>20</v>
+      </c>
+      <c r="F48" t="n">
+        <v>20</v>
+      </c>
+      <c r="G48" t="n">
+        <v>20</v>
       </c>
       <c r="H48" t="n">
-        <v>0.01973831653594971</v>
+        <v>20</v>
       </c>
       <c r="I48" t="n">
-        <v>0.04410938024520874</v>
+        <v>0.03005681</v>
       </c>
       <c r="J48" t="n">
-        <v>0.06904522180557252</v>
+        <v>0.066997504</v>
       </c>
       <c r="K48" t="n">
-        <v>0.009415996074676514</v>
+        <v>0.111864579</v>
       </c>
       <c r="L48" t="n">
-        <v>0.003759229183197022</v>
+        <v>0.015776479</v>
       </c>
       <c r="M48" t="n">
-        <v>19866624</v>
+        <v>0.005426598</v>
       </c>
       <c r="N48" t="n">
-        <v>19860889.6</v>
+        <v>19930726.4</v>
       </c>
       <c r="O48" t="n">
-        <v>19862937.6</v>
+        <v>19928064</v>
       </c>
       <c r="P48" t="n">
-        <v>19929088</v>
+        <v>19936256</v>
       </c>
       <c r="Q48" t="n">
-        <v>19929088</v>
+        <v>19995238.4</v>
       </c>
       <c r="R48" t="n">
-        <v>400</v>
+        <v>19995238.4</v>
       </c>
       <c r="S48" t="n">
         <v>400</v>
       </c>
       <c r="T48" t="n">
+        <v>400</v>
+      </c>
+      <c r="U48" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3840,58 +3704,55 @@
       <c r="D49" t="n">
         <v>10</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E49" t="n">
+        <v>20</v>
+      </c>
+      <c r="F49" t="n">
+        <v>20</v>
+      </c>
+      <c r="G49" t="n">
+        <v>20</v>
       </c>
       <c r="H49" t="n">
-        <v>0.01883512735366821</v>
+        <v>20</v>
       </c>
       <c r="I49" t="n">
-        <v>0.03014795780181885</v>
+        <v>0.029209554</v>
       </c>
       <c r="J49" t="n">
-        <v>0.04733798503875732</v>
+        <v>0.045784652</v>
       </c>
       <c r="K49" t="n">
-        <v>0.01329410076141357</v>
+        <v>0.07831294499999999</v>
       </c>
       <c r="L49" t="n">
-        <v>0.00360713005065918</v>
+        <v>0.021700525</v>
       </c>
       <c r="M49" t="n">
-        <v>19801907.2</v>
+        <v>0.005975699</v>
       </c>
       <c r="N49" t="n">
-        <v>19803750.4</v>
+        <v>19894681.6</v>
       </c>
       <c r="O49" t="n">
-        <v>19799244.8</v>
+        <v>19894681.6</v>
       </c>
       <c r="P49" t="n">
-        <v>19800678.4</v>
+        <v>19893657.6</v>
       </c>
       <c r="Q49" t="n">
-        <v>19800883.2</v>
+        <v>19904102.4</v>
       </c>
       <c r="R49" t="n">
-        <v>240</v>
+        <v>19904102.4</v>
       </c>
       <c r="S49" t="n">
         <v>240</v>
       </c>
       <c r="T49" t="n">
+        <v>240</v>
+      </c>
+      <c r="U49" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3910,58 +3771,55 @@
       <c r="D50" t="n">
         <v>5</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E50" t="n">
+        <v>20</v>
+      </c>
+      <c r="F50" t="n">
+        <v>20</v>
+      </c>
+      <c r="G50" t="n">
+        <v>20</v>
       </c>
       <c r="H50" t="n">
-        <v>0.02299025058746338</v>
+        <v>20</v>
       </c>
       <c r="I50" t="n">
-        <v>0.05730196237564087</v>
+        <v>0.035739374</v>
       </c>
       <c r="J50" t="n">
-        <v>0.09047547578811646</v>
+        <v>0.09466764900000001</v>
       </c>
       <c r="K50" t="n">
-        <v>0.009319603443145752</v>
+        <v>0.13794961</v>
       </c>
       <c r="L50" t="n">
-        <v>0.003735661506652832</v>
+        <v>0.014969969</v>
       </c>
       <c r="M50" t="n">
-        <v>19920281.6</v>
+        <v>0.005536699</v>
       </c>
       <c r="N50" t="n">
-        <v>19910860.8</v>
+        <v>20000972.8</v>
       </c>
       <c r="O50" t="n">
-        <v>19923763.2</v>
+        <v>19994828.8</v>
       </c>
       <c r="P50" t="n">
-        <v>19982131.2</v>
+        <v>19991142.4</v>
       </c>
       <c r="Q50" t="n">
-        <v>19982131.2</v>
+        <v>20030873.6</v>
       </c>
       <c r="R50" t="n">
-        <v>560</v>
+        <v>20031078.4</v>
       </c>
       <c r="S50" t="n">
         <v>560</v>
       </c>
       <c r="T50" t="n">
+        <v>560</v>
+      </c>
+      <c r="U50" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3980,58 +3838,55 @@
       <c r="D51" t="n">
         <v>10</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E51" t="n">
+        <v>20</v>
+      </c>
+      <c r="F51" t="n">
+        <v>20</v>
+      </c>
+      <c r="G51" t="n">
+        <v>20</v>
       </c>
       <c r="H51" t="n">
-        <v>0.022829270362854</v>
+        <v>20</v>
       </c>
       <c r="I51" t="n">
-        <v>0.04623415470123291</v>
+        <v>0.040035903</v>
       </c>
       <c r="J51" t="n">
-        <v>0.07222166061401367</v>
+        <v>0.06776434200000001</v>
       </c>
       <c r="K51" t="n">
-        <v>0.01315805912017822</v>
+        <v>0.112684882</v>
       </c>
       <c r="L51" t="n">
-        <v>0.003590631484985352</v>
+        <v>0.021571684</v>
       </c>
       <c r="M51" t="n">
-        <v>20024524.8</v>
+        <v>0.0061517</v>
       </c>
       <c r="N51" t="n">
-        <v>20022681.6</v>
+        <v>20000768</v>
       </c>
       <c r="O51" t="n">
-        <v>20017356.8</v>
+        <v>20000768</v>
       </c>
       <c r="P51" t="n">
-        <v>20048691.2</v>
+        <v>20000768</v>
       </c>
       <c r="Q51" t="n">
-        <v>20048691.2</v>
+        <v>20000768</v>
       </c>
       <c r="R51" t="n">
-        <v>400</v>
+        <v>20000768</v>
       </c>
       <c r="S51" t="n">
         <v>400</v>
       </c>
       <c r="T51" t="n">
+        <v>400</v>
+      </c>
+      <c r="U51" t="n">
         <v>72</v>
       </c>
     </row>
@@ -4050,58 +3905,55 @@
       <c r="D52" t="n">
         <v>15</v>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E52" t="n">
+        <v>20</v>
+      </c>
+      <c r="F52" t="n">
+        <v>20</v>
+      </c>
+      <c r="G52" t="n">
+        <v>20</v>
       </c>
       <c r="H52" t="n">
-        <v>0.02406072616577148</v>
+        <v>20</v>
       </c>
       <c r="I52" t="n">
-        <v>0.03683487176895141</v>
+        <v>0.035509789</v>
       </c>
       <c r="J52" t="n">
-        <v>0.05586227178573609</v>
+        <v>0.052262986</v>
       </c>
       <c r="K52" t="n">
-        <v>0.01798831224441528</v>
+        <v>-0.012353802</v>
       </c>
       <c r="L52" t="n">
-        <v>0.003763806819915771</v>
+        <v>0.025064945</v>
       </c>
       <c r="M52" t="n">
-        <v>19845120</v>
+        <v>0.005193782</v>
       </c>
       <c r="N52" t="n">
-        <v>19845120</v>
+        <v>20000768</v>
       </c>
       <c r="O52" t="n">
-        <v>19844710.4</v>
+        <v>20000768</v>
       </c>
       <c r="P52" t="n">
-        <v>19850240</v>
+        <v>20000768</v>
       </c>
       <c r="Q52" t="n">
-        <v>19850444.8</v>
+        <v>20000768</v>
       </c>
       <c r="R52" t="n">
-        <v>240</v>
+        <v>20000768</v>
       </c>
       <c r="S52" t="n">
         <v>240</v>
       </c>
       <c r="T52" t="n">
+        <v>240</v>
+      </c>
+      <c r="U52" t="n">
         <v>72</v>
       </c>
     </row>
@@ -4120,58 +3972,55 @@
       <c r="D53" t="n">
         <v>5</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E53" t="n">
+        <v>20</v>
+      </c>
+      <c r="F53" t="n">
+        <v>20</v>
+      </c>
+      <c r="G53" t="n">
+        <v>20</v>
       </c>
       <c r="H53" t="n">
-        <v>0.02685002088546753</v>
+        <v>20</v>
       </c>
       <c r="I53" t="n">
-        <v>0.07253999710083008</v>
+        <v>0.041313946</v>
       </c>
       <c r="J53" t="n">
-        <v>0.1132491707801819</v>
+        <v>0.106743574</v>
       </c>
       <c r="K53" t="n">
-        <v>0.009508430957794189</v>
+        <v>0.168625653</v>
       </c>
       <c r="L53" t="n">
-        <v>0.003703737258911133</v>
+        <v>0.013858259</v>
       </c>
       <c r="M53" t="n">
-        <v>19992576</v>
+        <v>0.005730557</v>
       </c>
       <c r="N53" t="n">
-        <v>19979468.8</v>
+        <v>20000768</v>
       </c>
       <c r="O53" t="n">
-        <v>19973120</v>
+        <v>20000768</v>
       </c>
       <c r="P53" t="n">
-        <v>20019609.6</v>
+        <v>20000768</v>
       </c>
       <c r="Q53" t="n">
-        <v>20019609.6</v>
+        <v>20000768</v>
       </c>
       <c r="R53" t="n">
-        <v>720</v>
+        <v>20000768</v>
       </c>
       <c r="S53" t="n">
         <v>720</v>
       </c>
       <c r="T53" t="n">
+        <v>720</v>
+      </c>
+      <c r="U53" t="n">
         <v>72</v>
       </c>
     </row>
@@ -4190,58 +4039,55 @@
       <c r="D54" t="n">
         <v>10</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E54" t="n">
+        <v>20</v>
+      </c>
+      <c r="F54" t="n">
+        <v>20</v>
+      </c>
+      <c r="G54" t="n">
+        <v>20</v>
       </c>
       <c r="H54" t="n">
-        <v>0.02779370546340942</v>
+        <v>20</v>
       </c>
       <c r="I54" t="n">
-        <v>0.064087975025177</v>
+        <v>0.042129695</v>
       </c>
       <c r="J54" t="n">
-        <v>0.09660513401031494</v>
+        <v>0.096929157</v>
       </c>
       <c r="K54" t="n">
-        <v>0.01323542594909668</v>
+        <v>0.149084425</v>
       </c>
       <c r="L54" t="n">
-        <v>0.003675973415374756</v>
+        <v>0.018696797</v>
       </c>
       <c r="M54" t="n">
-        <v>19942604.8</v>
+        <v>0.005098128</v>
       </c>
       <c r="N54" t="n">
-        <v>19926630.4</v>
+        <v>20058521.6</v>
       </c>
       <c r="O54" t="n">
-        <v>19932160</v>
+        <v>20050124.8</v>
       </c>
       <c r="P54" t="n">
-        <v>19971891.2</v>
+        <v>20063232</v>
       </c>
       <c r="Q54" t="n">
-        <v>19971891.2</v>
+        <v>20103577.6</v>
       </c>
       <c r="R54" t="n">
-        <v>560</v>
+        <v>20103577.6</v>
       </c>
       <c r="S54" t="n">
         <v>560</v>
       </c>
       <c r="T54" t="n">
+        <v>560</v>
+      </c>
+      <c r="U54" t="n">
         <v>72</v>
       </c>
     </row>
@@ -4260,58 +4106,55 @@
       <c r="D55" t="n">
         <v>15</v>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E55" t="n">
+        <v>20</v>
+      </c>
+      <c r="F55" t="n">
+        <v>20</v>
+      </c>
+      <c r="G55" t="n">
+        <v>20</v>
       </c>
       <c r="H55" t="n">
-        <v>0.02697200775146484</v>
+        <v>20</v>
       </c>
       <c r="I55" t="n">
-        <v>0.05155637264251709</v>
+        <v>0.040404296</v>
       </c>
       <c r="J55" t="n">
-        <v>0.07696155309677125</v>
+        <v>0.074601161</v>
       </c>
       <c r="K55" t="n">
-        <v>0.01733307838439941</v>
+        <v>0.110639453</v>
       </c>
       <c r="L55" t="n">
-        <v>0.003623998165130615</v>
+        <v>0.025816262</v>
       </c>
       <c r="M55" t="n">
-        <v>19993395.2</v>
+        <v>0.005337107</v>
       </c>
       <c r="N55" t="n">
-        <v>19988889.6</v>
+        <v>20164608</v>
       </c>
       <c r="O55" t="n">
-        <v>19984384</v>
+        <v>20164608</v>
       </c>
       <c r="P55" t="n">
-        <v>20043776</v>
+        <v>20164608</v>
       </c>
       <c r="Q55" t="n">
-        <v>20043776</v>
+        <v>20164608</v>
       </c>
       <c r="R55" t="n">
-        <v>400</v>
+        <v>20164608</v>
       </c>
       <c r="S55" t="n">
         <v>400</v>
       </c>
       <c r="T55" t="n">
+        <v>400</v>
+      </c>
+      <c r="U55" t="n">
         <v>72</v>
       </c>
     </row>
@@ -4330,58 +4173,55 @@
       <c r="D56" t="n">
         <v>20</v>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E56" t="n">
+        <v>20</v>
+      </c>
+      <c r="F56" t="n">
+        <v>20</v>
+      </c>
+      <c r="G56" t="n">
+        <v>20</v>
       </c>
       <c r="H56" t="n">
-        <v>0.02806419134140015</v>
+        <v>20</v>
       </c>
       <c r="I56" t="n">
-        <v>0.04028106927871704</v>
+        <v>0.04106791</v>
       </c>
       <c r="J56" t="n">
-        <v>0.06113026142120361</v>
+        <v>0.057056665</v>
       </c>
       <c r="K56" t="n">
-        <v>0.02377778291702271</v>
+        <v>0.08799578</v>
       </c>
       <c r="L56" t="n">
-        <v>0.004003143310546875</v>
+        <v>0.032719362</v>
       </c>
       <c r="M56" t="n">
-        <v>19856998.4</v>
+        <v>0.006066597</v>
       </c>
       <c r="N56" t="n">
-        <v>19856998.4</v>
+        <v>20164608</v>
       </c>
       <c r="O56" t="n">
-        <v>19862528</v>
+        <v>20164608</v>
       </c>
       <c r="P56" t="n">
-        <v>19867443.2</v>
+        <v>20164608</v>
       </c>
       <c r="Q56" t="n">
-        <v>19867443.2</v>
+        <v>20164608</v>
       </c>
       <c r="R56" t="n">
-        <v>240</v>
+        <v>20164608</v>
       </c>
       <c r="S56" t="n">
         <v>240</v>
       </c>
       <c r="T56" t="n">
+        <v>240</v>
+      </c>
+      <c r="U56" t="n">
         <v>72</v>
       </c>
     </row>
@@ -4400,58 +4240,55 @@
       <c r="D57" t="n">
         <v>5</v>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E57" t="n">
+        <v>20</v>
+      </c>
+      <c r="F57" t="n">
+        <v>20</v>
+      </c>
+      <c r="G57" t="n">
+        <v>20</v>
       </c>
       <c r="H57" t="n">
-        <v>0.03234379291534424</v>
+        <v>20</v>
       </c>
       <c r="I57" t="n">
-        <v>0.09466118812561035</v>
+        <v>0.044423366</v>
       </c>
       <c r="J57" t="n">
-        <v>0.1451639413833618</v>
+        <v>0.131464052</v>
       </c>
       <c r="K57" t="n">
-        <v>0.009687864780426025</v>
+        <v>0.11094892</v>
       </c>
       <c r="L57" t="n">
-        <v>0.003805804252624512</v>
+        <v>0.01393466</v>
       </c>
       <c r="M57" t="n">
-        <v>19973120</v>
+        <v>0.005314541</v>
       </c>
       <c r="N57" t="n">
-        <v>19971072</v>
+        <v>20164608</v>
       </c>
       <c r="O57" t="n">
-        <v>19986227.2</v>
+        <v>20164608</v>
       </c>
       <c r="P57" t="n">
-        <v>20045619.2</v>
+        <v>20164608</v>
       </c>
       <c r="Q57" t="n">
-        <v>20045619.2</v>
+        <v>20164608</v>
       </c>
       <c r="R57" t="n">
-        <v>880</v>
+        <v>20164608</v>
       </c>
       <c r="S57" t="n">
         <v>880</v>
       </c>
       <c r="T57" t="n">
+        <v>880</v>
+      </c>
+      <c r="U57" t="n">
         <v>72</v>
       </c>
     </row>
@@ -4470,58 +4307,55 @@
       <c r="D58" t="n">
         <v>10</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E58" t="n">
+        <v>20</v>
+      </c>
+      <c r="F58" t="n">
+        <v>20</v>
+      </c>
+      <c r="G58" t="n">
+        <v>20</v>
       </c>
       <c r="H58" t="n">
-        <v>0.03310520648956299</v>
+        <v>20</v>
       </c>
       <c r="I58" t="n">
-        <v>0.08108760118484497</v>
+        <v>0.047838748</v>
       </c>
       <c r="J58" t="n">
-        <v>0.1225238084793091</v>
+        <v>0.122935688</v>
       </c>
       <c r="K58" t="n">
-        <v>0.01418712139129639</v>
+        <v>0.183110332</v>
       </c>
       <c r="L58" t="n">
-        <v>0.003976845741271972</v>
+        <v>0.020189869</v>
       </c>
       <c r="M58" t="n">
-        <v>20083507.2</v>
+        <v>0.005790639</v>
       </c>
       <c r="N58" t="n">
-        <v>20083507.2</v>
+        <v>20182016</v>
       </c>
       <c r="O58" t="n">
-        <v>20083507.2</v>
+        <v>20183040</v>
       </c>
       <c r="P58" t="n">
-        <v>20083507.2</v>
+        <v>20183040</v>
       </c>
       <c r="Q58" t="n">
-        <v>20083507.2</v>
+        <v>20183040</v>
       </c>
       <c r="R58" t="n">
-        <v>720</v>
+        <v>20183040</v>
       </c>
       <c r="S58" t="n">
         <v>720</v>
       </c>
       <c r="T58" t="n">
+        <v>720</v>
+      </c>
+      <c r="U58" t="n">
         <v>72</v>
       </c>
     </row>
@@ -4540,58 +4374,55 @@
       <c r="D59" t="n">
         <v>15</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E59" t="n">
+        <v>20</v>
+      </c>
+      <c r="F59" t="n">
+        <v>20</v>
+      </c>
+      <c r="G59" t="n">
+        <v>20</v>
       </c>
       <c r="H59" t="n">
-        <v>0.03184126615524292</v>
+        <v>20</v>
       </c>
       <c r="I59" t="n">
-        <v>0.06771748065948487</v>
+        <v>0.047409558</v>
       </c>
       <c r="J59" t="n">
-        <v>0.1024841547012329</v>
+        <v>0.099581409</v>
       </c>
       <c r="K59" t="n">
-        <v>0.01802098751068115</v>
+        <v>0.145213389</v>
       </c>
       <c r="L59" t="n">
-        <v>0.003810024261474609</v>
+        <v>0.024906838</v>
       </c>
       <c r="M59" t="n">
-        <v>20074496</v>
+        <v>0.005371594</v>
       </c>
       <c r="N59" t="n">
-        <v>20074496</v>
+        <v>20068352</v>
       </c>
       <c r="O59" t="n">
-        <v>20074496</v>
+        <v>20060979.2</v>
       </c>
       <c r="P59" t="n">
-        <v>20074496</v>
+        <v>20054630.4</v>
       </c>
       <c r="Q59" t="n">
-        <v>20074496</v>
+        <v>20074905.6</v>
       </c>
       <c r="R59" t="n">
-        <v>560</v>
+        <v>20074905.6</v>
       </c>
       <c r="S59" t="n">
         <v>560</v>
       </c>
       <c r="T59" t="n">
+        <v>560</v>
+      </c>
+      <c r="U59" t="n">
         <v>72</v>
       </c>
     </row>
@@ -4610,58 +4441,55 @@
       <c r="D60" t="n">
         <v>20</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E60" t="n">
+        <v>20</v>
+      </c>
+      <c r="F60" t="n">
+        <v>20</v>
+      </c>
+      <c r="G60" t="n">
+        <v>20</v>
       </c>
       <c r="H60" t="n">
-        <v>0.03170219659805298</v>
+        <v>20</v>
       </c>
       <c r="I60" t="n">
-        <v>0.05527273416519165</v>
+        <v>0.046874821</v>
       </c>
       <c r="J60" t="n">
-        <v>0.07880138158798218</v>
+        <v>0.086675823</v>
       </c>
       <c r="K60" t="n">
-        <v>0.02130311727523804</v>
+        <v>0.117728901</v>
       </c>
       <c r="L60" t="n">
-        <v>0.003653180599212646</v>
+        <v>0.033290851</v>
       </c>
       <c r="M60" t="n">
-        <v>20074496</v>
+        <v>0.005524528</v>
       </c>
       <c r="N60" t="n">
-        <v>20074496</v>
+        <v>20017152</v>
       </c>
       <c r="O60" t="n">
-        <v>20074496</v>
+        <v>20017152</v>
       </c>
       <c r="P60" t="n">
-        <v>20074496</v>
+        <v>20017152</v>
       </c>
       <c r="Q60" t="n">
-        <v>20074496</v>
+        <v>20017152</v>
       </c>
       <c r="R60" t="n">
-        <v>400</v>
+        <v>20017152</v>
       </c>
       <c r="S60" t="n">
         <v>400</v>
       </c>
       <c r="T60" t="n">
+        <v>400</v>
+      </c>
+      <c r="U60" t="n">
         <v>72</v>
       </c>
     </row>
@@ -4680,58 +4508,55 @@
       <c r="D61" t="n">
         <v>25</v>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="E61" t="n">
+        <v>20</v>
+      </c>
+      <c r="F61" t="n">
+        <v>20</v>
+      </c>
+      <c r="G61" t="n">
+        <v>20</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0327491044998169</v>
+        <v>20</v>
       </c>
       <c r="I61" t="n">
-        <v>0.04400302171707153</v>
+        <v>0.04540323</v>
       </c>
       <c r="J61" t="n">
-        <v>0.05978735685348511</v>
+        <v>0.061028206</v>
       </c>
       <c r="K61" t="n">
-        <v>0.0255954384803772</v>
+        <v>0.088090205</v>
       </c>
       <c r="L61" t="n">
-        <v>0.003868937492370605</v>
+        <v>0.036093879</v>
       </c>
       <c r="M61" t="n">
-        <v>20074496</v>
+        <v>0.005675745</v>
       </c>
       <c r="N61" t="n">
-        <v>20074496</v>
+        <v>20017152</v>
       </c>
       <c r="O61" t="n">
-        <v>20074496</v>
+        <v>20017152</v>
       </c>
       <c r="P61" t="n">
-        <v>20074496</v>
+        <v>20017152</v>
       </c>
       <c r="Q61" t="n">
-        <v>20074496</v>
+        <v>20017152</v>
       </c>
       <c r="R61" t="n">
-        <v>240</v>
+        <v>20017152</v>
       </c>
       <c r="S61" t="n">
         <v>240</v>
       </c>
       <c r="T61" t="n">
+        <v>240</v>
+      </c>
+      <c r="U61" t="n">
         <v>72</v>
       </c>
     </row>

--- a/SchemeHIBME/SchemeAnonymousME.xlsx
+++ b/SchemeHIBME/SchemeAnonymousME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U61"/>
+  <dimension ref="A1:W61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,15 +526,25 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>mpk (B)</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>msk (B)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>SK (B)</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>SK' (B)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>CT (B)</t>
         </is>
@@ -568,42 +578,48 @@
         <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>0.060224867</v>
+        <v>0.042560875</v>
       </c>
       <c r="J2" t="n">
-        <v>0.123708296</v>
+        <v>0.09228626500000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.208131218</v>
+        <v>0.14904778</v>
       </c>
       <c r="L2" t="n">
-        <v>0.036070752</v>
+        <v>0.026744604</v>
       </c>
       <c r="M2" t="n">
-        <v>0.019000375</v>
+        <v>0.013668931</v>
       </c>
       <c r="N2" t="n">
-        <v>17794457.6</v>
+        <v>17816780.8</v>
       </c>
       <c r="O2" t="n">
-        <v>17794457.6</v>
+        <v>17816780.8</v>
       </c>
       <c r="P2" t="n">
-        <v>17794457.6</v>
+        <v>17816780.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>17801420.8</v>
+        <v>17869209.6</v>
       </c>
       <c r="R2" t="n">
-        <v>17845043.2</v>
+        <v>17869209.6</v>
       </c>
       <c r="S2" t="n">
+        <v>184</v>
+      </c>
+      <c r="T2" t="n">
+        <v>64</v>
+      </c>
+      <c r="U2" t="n">
         <v>240</v>
       </c>
-      <c r="T2" t="n">
+      <c r="V2" t="n">
         <v>240</v>
       </c>
-      <c r="U2" t="n">
+      <c r="W2" t="n">
         <v>72</v>
       </c>
     </row>
@@ -635,42 +651,48 @@
         <v>20</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0826442</v>
+        <v>0.061187661</v>
       </c>
       <c r="J3" t="n">
-        <v>0.207151091</v>
+        <v>0.15801295</v>
       </c>
       <c r="K3" t="n">
-        <v>0.241724563</v>
+        <v>0.240021944</v>
       </c>
       <c r="L3" t="n">
-        <v>0.037394285</v>
+        <v>-1</v>
       </c>
       <c r="M3" t="n">
-        <v>0.021101761</v>
+        <v>0.014574575</v>
       </c>
       <c r="N3" t="n">
-        <v>17866752</v>
+        <v>17887232</v>
       </c>
       <c r="O3" t="n">
-        <v>17866752</v>
+        <v>17887232</v>
       </c>
       <c r="P3" t="n">
-        <v>17866752</v>
+        <v>17887232</v>
       </c>
       <c r="Q3" t="n">
-        <v>17866752</v>
+        <v>17887232</v>
       </c>
       <c r="R3" t="n">
-        <v>17866752</v>
+        <v>17887232</v>
       </c>
       <c r="S3" t="n">
+        <v>224</v>
+      </c>
+      <c r="T3" t="n">
+        <v>64</v>
+      </c>
+      <c r="U3" t="n">
         <v>400</v>
       </c>
-      <c r="T3" t="n">
+      <c r="V3" t="n">
         <v>400</v>
       </c>
-      <c r="U3" t="n">
+      <c r="W3" t="n">
         <v>72</v>
       </c>
     </row>
@@ -702,42 +724,48 @@
         <v>20</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07618346199999999</v>
+        <v>0.059063649</v>
       </c>
       <c r="J4" t="n">
-        <v>0.139504957</v>
+        <v>0.110676527</v>
       </c>
       <c r="K4" t="n">
-        <v>0.213090146</v>
+        <v>0.166945815</v>
       </c>
       <c r="L4" t="n">
-        <v>0.050637352</v>
+        <v>0.039640176</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0177001</v>
+        <v>0.013647485</v>
       </c>
       <c r="N4" t="n">
-        <v>17866752</v>
+        <v>17887232</v>
       </c>
       <c r="O4" t="n">
-        <v>17866752</v>
+        <v>17887232</v>
       </c>
       <c r="P4" t="n">
-        <v>17866752</v>
+        <v>17887232</v>
       </c>
       <c r="Q4" t="n">
-        <v>17866752</v>
+        <v>17887232</v>
       </c>
       <c r="R4" t="n">
-        <v>17866752</v>
+        <v>17887232</v>
       </c>
       <c r="S4" t="n">
+        <v>224</v>
+      </c>
+      <c r="T4" t="n">
+        <v>64</v>
+      </c>
+      <c r="U4" t="n">
         <v>240</v>
       </c>
-      <c r="T4" t="n">
+      <c r="V4" t="n">
         <v>240</v>
       </c>
-      <c r="U4" t="n">
+      <c r="W4" t="n">
         <v>72</v>
       </c>
     </row>
@@ -769,42 +797,48 @@
         <v>20</v>
       </c>
       <c r="I5" t="n">
-        <v>0.021968889</v>
+        <v>0.0731475</v>
       </c>
       <c r="J5" t="n">
-        <v>0.283372414</v>
+        <v>0.202747202</v>
       </c>
       <c r="K5" t="n">
-        <v>0.425326788</v>
+        <v>0.318856835</v>
       </c>
       <c r="L5" t="n">
-        <v>0.037909472</v>
+        <v>0.026816618</v>
       </c>
       <c r="M5" t="n">
-        <v>0.018812478</v>
+        <v>0.013934076</v>
       </c>
       <c r="N5" t="n">
-        <v>18113126.4</v>
+        <v>18086912</v>
       </c>
       <c r="O5" t="n">
-        <v>18113126.4</v>
+        <v>18086912</v>
       </c>
       <c r="P5" t="n">
-        <v>18124800</v>
+        <v>18086912</v>
       </c>
       <c r="Q5" t="n">
-        <v>18132787.2</v>
+        <v>18095513.6</v>
       </c>
       <c r="R5" t="n">
-        <v>18132787.2</v>
+        <v>18095513.6</v>
       </c>
       <c r="S5" t="n">
+        <v>264</v>
+      </c>
+      <c r="T5" t="n">
+        <v>64</v>
+      </c>
+      <c r="U5" t="n">
         <v>560</v>
       </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
         <v>560</v>
       </c>
-      <c r="U5" t="n">
+      <c r="W5" t="n">
         <v>72</v>
       </c>
     </row>
@@ -836,42 +870,48 @@
         <v>20</v>
       </c>
       <c r="I6" t="n">
-        <v>0.100122261</v>
+        <v>-1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.222894382</v>
+        <v>0.162342966</v>
       </c>
       <c r="K6" t="n">
-        <v>0.331007969</v>
+        <v>0.241489375</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05509795</v>
+        <v>0.038636899</v>
       </c>
       <c r="M6" t="n">
-        <v>0.019649816</v>
+        <v>0.013269842</v>
       </c>
       <c r="N6" t="n">
-        <v>18352537.6</v>
+        <v>18167193.6</v>
       </c>
       <c r="O6" t="n">
-        <v>18352537.6</v>
+        <v>18167193.6</v>
       </c>
       <c r="P6" t="n">
-        <v>18352537.6</v>
+        <v>18167193.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>18352537.6</v>
+        <v>18167193.6</v>
       </c>
       <c r="R6" t="n">
-        <v>18352537.6</v>
+        <v>18167193.6</v>
       </c>
       <c r="S6" t="n">
+        <v>264</v>
+      </c>
+      <c r="T6" t="n">
+        <v>64</v>
+      </c>
+      <c r="U6" t="n">
         <v>400</v>
       </c>
-      <c r="T6" t="n">
+      <c r="V6" t="n">
         <v>400</v>
       </c>
-      <c r="U6" t="n">
+      <c r="W6" t="n">
         <v>72</v>
       </c>
     </row>
@@ -903,42 +943,48 @@
         <v>20</v>
       </c>
       <c r="I7" t="n">
-        <v>0.096975374</v>
+        <v>0.07026331399999999</v>
       </c>
       <c r="J7" t="n">
-        <v>0.160714853</v>
+        <v>0.119081771</v>
       </c>
       <c r="K7" t="n">
-        <v>0.242783594</v>
+        <v>0.177346456</v>
       </c>
       <c r="L7" t="n">
-        <v>0.070487797</v>
+        <v>0.054080927</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01762687</v>
+        <v>0.013696706</v>
       </c>
       <c r="N7" t="n">
-        <v>18354176</v>
+        <v>18205286.4</v>
       </c>
       <c r="O7" t="n">
-        <v>18354176</v>
+        <v>18205286.4</v>
       </c>
       <c r="P7" t="n">
-        <v>18354176</v>
+        <v>18205286.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>18354176</v>
+        <v>18205286.4</v>
       </c>
       <c r="R7" t="n">
-        <v>18354176</v>
+        <v>18205286.4</v>
       </c>
       <c r="S7" t="n">
+        <v>264</v>
+      </c>
+      <c r="T7" t="n">
+        <v>64</v>
+      </c>
+      <c r="U7" t="n">
         <v>240</v>
       </c>
-      <c r="T7" t="n">
+      <c r="V7" t="n">
         <v>240</v>
       </c>
-      <c r="U7" t="n">
+      <c r="W7" t="n">
         <v>72</v>
       </c>
     </row>
@@ -970,42 +1016,48 @@
         <v>20</v>
       </c>
       <c r="I8" t="n">
-        <v>0.044065797</v>
+        <v>0.086397445</v>
       </c>
       <c r="J8" t="n">
-        <v>0.364218616</v>
+        <v>0.258961022</v>
       </c>
       <c r="K8" t="n">
-        <v>0.544293392</v>
+        <v>0.400944364</v>
       </c>
       <c r="L8" t="n">
-        <v>0.035593438</v>
+        <v>0.026091754</v>
       </c>
       <c r="M8" t="n">
-        <v>0.019980383</v>
+        <v>0.013752091</v>
       </c>
       <c r="N8" t="n">
-        <v>18354176</v>
+        <v>18242355.2</v>
       </c>
       <c r="O8" t="n">
-        <v>18354176</v>
+        <v>18242355.2</v>
       </c>
       <c r="P8" t="n">
-        <v>18354176</v>
+        <v>18242355.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>18354176</v>
+        <v>18248089.6</v>
       </c>
       <c r="R8" t="n">
-        <v>18354176</v>
+        <v>18248089.6</v>
       </c>
       <c r="S8" t="n">
+        <v>304</v>
+      </c>
+      <c r="T8" t="n">
+        <v>64</v>
+      </c>
+      <c r="U8" t="n">
         <v>720</v>
       </c>
-      <c r="T8" t="n">
+      <c r="V8" t="n">
         <v>720</v>
       </c>
-      <c r="U8" t="n">
+      <c r="W8" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1037,42 +1089,48 @@
         <v>20</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04869523</v>
+        <v>0.084767461</v>
       </c>
       <c r="J9" t="n">
-        <v>0.277501082</v>
+        <v>0.212970674</v>
       </c>
       <c r="K9" t="n">
-        <v>0.420484078</v>
+        <v>0.318098152</v>
       </c>
       <c r="L9" t="n">
-        <v>0.051669168</v>
+        <v>-1</v>
       </c>
       <c r="M9" t="n">
-        <v>0.018531358</v>
+        <v>0.013346398</v>
       </c>
       <c r="N9" t="n">
-        <v>18354176</v>
+        <v>18345574.4</v>
       </c>
       <c r="O9" t="n">
-        <v>18354176</v>
+        <v>18345574.4</v>
       </c>
       <c r="P9" t="n">
-        <v>18354176</v>
+        <v>18345574.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>18354176</v>
+        <v>18345574.4</v>
       </c>
       <c r="R9" t="n">
-        <v>18354176</v>
+        <v>18345574.4</v>
       </c>
       <c r="S9" t="n">
+        <v>304</v>
+      </c>
+      <c r="T9" t="n">
+        <v>64</v>
+      </c>
+      <c r="U9" t="n">
         <v>560</v>
       </c>
-      <c r="T9" t="n">
+      <c r="V9" t="n">
         <v>560</v>
       </c>
-      <c r="U9" t="n">
+      <c r="W9" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1104,42 +1162,48 @@
         <v>20</v>
       </c>
       <c r="I10" t="n">
-        <v>0.111712825</v>
+        <v>0.083429801</v>
       </c>
       <c r="J10" t="n">
-        <v>0.229529631</v>
+        <v>0.171930289</v>
       </c>
       <c r="K10" t="n">
-        <v>0.337837422</v>
+        <v>0.256697536</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06813807500000001</v>
+        <v>0.052877975</v>
       </c>
       <c r="M10" t="n">
-        <v>0.016570735</v>
+        <v>0.013476431</v>
       </c>
       <c r="N10" t="n">
-        <v>18354176</v>
+        <v>18345984</v>
       </c>
       <c r="O10" t="n">
-        <v>18354176</v>
+        <v>18345984</v>
       </c>
       <c r="P10" t="n">
-        <v>18354176</v>
+        <v>18345984</v>
       </c>
       <c r="Q10" t="n">
-        <v>18354176</v>
+        <v>18345984</v>
       </c>
       <c r="R10" t="n">
-        <v>18354176</v>
+        <v>18345984</v>
       </c>
       <c r="S10" t="n">
+        <v>304</v>
+      </c>
+      <c r="T10" t="n">
+        <v>64</v>
+      </c>
+      <c r="U10" t="n">
         <v>400</v>
       </c>
-      <c r="T10" t="n">
+      <c r="V10" t="n">
         <v>400</v>
       </c>
-      <c r="U10" t="n">
+      <c r="W10" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1171,42 +1235,48 @@
         <v>20</v>
       </c>
       <c r="I11" t="n">
-        <v>0.105387163</v>
+        <v>0.087164032</v>
       </c>
       <c r="J11" t="n">
-        <v>0.166116452</v>
+        <v>0.1342152</v>
       </c>
       <c r="K11" t="n">
-        <v>0.241423881</v>
+        <v>0.194260085</v>
       </c>
       <c r="L11" t="n">
-        <v>0.08909111</v>
+        <v>0.06723712699999999</v>
       </c>
       <c r="M11" t="n">
-        <v>0.016483343</v>
+        <v>0.01334089</v>
       </c>
       <c r="N11" t="n">
-        <v>18367488</v>
+        <v>18345984</v>
       </c>
       <c r="O11" t="n">
-        <v>18367488</v>
+        <v>18345984</v>
       </c>
       <c r="P11" t="n">
-        <v>18367488</v>
+        <v>18345984</v>
       </c>
       <c r="Q11" t="n">
-        <v>18380800</v>
+        <v>18345984</v>
       </c>
       <c r="R11" t="n">
-        <v>18380800</v>
+        <v>18345984</v>
       </c>
       <c r="S11" t="n">
+        <v>304</v>
+      </c>
+      <c r="T11" t="n">
+        <v>64</v>
+      </c>
+      <c r="U11" t="n">
         <v>240</v>
       </c>
-      <c r="T11" t="n">
+      <c r="V11" t="n">
         <v>240</v>
       </c>
-      <c r="U11" t="n">
+      <c r="W11" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1238,42 +1308,48 @@
         <v>20</v>
       </c>
       <c r="I12" t="n">
-        <v>0.131163907</v>
+        <v>0.103213918</v>
       </c>
       <c r="J12" t="n">
-        <v>0.330754209</v>
+        <v>0.32897476</v>
       </c>
       <c r="K12" t="n">
-        <v>0.61170578</v>
+        <v>0.498027205</v>
       </c>
       <c r="L12" t="n">
-        <v>0.031074226</v>
+        <v>0.027624774</v>
       </c>
       <c r="M12" t="n">
-        <v>0.016434026</v>
+        <v>0.014681208</v>
       </c>
       <c r="N12" t="n">
-        <v>18662809.6</v>
+        <v>18345984</v>
       </c>
       <c r="O12" t="n">
-        <v>18662809.6</v>
+        <v>18345984</v>
       </c>
       <c r="P12" t="n">
-        <v>18662809.6</v>
+        <v>18345984</v>
       </c>
       <c r="Q12" t="n">
-        <v>18664243.2</v>
+        <v>18345984</v>
       </c>
       <c r="R12" t="n">
-        <v>18664243.2</v>
+        <v>18345984</v>
       </c>
       <c r="S12" t="n">
+        <v>344</v>
+      </c>
+      <c r="T12" t="n">
+        <v>64</v>
+      </c>
+      <c r="U12" t="n">
         <v>880</v>
       </c>
-      <c r="T12" t="n">
+      <c r="V12" t="n">
         <v>880</v>
       </c>
-      <c r="U12" t="n">
+      <c r="W12" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1305,42 +1381,48 @@
         <v>20</v>
       </c>
       <c r="I13" t="n">
-        <v>0.126250839</v>
+        <v>0.103080273</v>
       </c>
       <c r="J13" t="n">
-        <v>0.282535911</v>
+        <v>0.28005507</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5315424560000001</v>
+        <v>-1</v>
       </c>
       <c r="L13" t="n">
-        <v>0.051665449</v>
+        <v>0.041707063</v>
       </c>
       <c r="M13" t="n">
-        <v>0.017135954</v>
+        <v>0.014127719</v>
       </c>
       <c r="N13" t="n">
-        <v>18665472</v>
+        <v>18345984</v>
       </c>
       <c r="O13" t="n">
-        <v>18665472</v>
+        <v>18345984</v>
       </c>
       <c r="P13" t="n">
-        <v>18665472</v>
+        <v>18345984</v>
       </c>
       <c r="Q13" t="n">
-        <v>18665472</v>
+        <v>18345984</v>
       </c>
       <c r="R13" t="n">
-        <v>18665472</v>
+        <v>18345984</v>
       </c>
       <c r="S13" t="n">
+        <v>344</v>
+      </c>
+      <c r="T13" t="n">
+        <v>64</v>
+      </c>
+      <c r="U13" t="n">
         <v>720</v>
       </c>
-      <c r="T13" t="n">
+      <c r="V13" t="n">
         <v>720</v>
       </c>
-      <c r="U13" t="n">
+      <c r="W13" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1372,42 +1454,48 @@
         <v>20</v>
       </c>
       <c r="I14" t="n">
-        <v>0.129307818</v>
+        <v>0.099408078</v>
       </c>
       <c r="J14" t="n">
-        <v>0.293814075</v>
+        <v>0.231049049</v>
       </c>
       <c r="K14" t="n">
-        <v>0.433626771</v>
+        <v>0.344168973</v>
       </c>
       <c r="L14" t="n">
-        <v>0.071278262</v>
+        <v>0.053383601</v>
       </c>
       <c r="M14" t="n">
-        <v>0.016709685</v>
+        <v>0.013353872</v>
       </c>
       <c r="N14" t="n">
-        <v>18665472</v>
+        <v>18552217.6</v>
       </c>
       <c r="O14" t="n">
-        <v>18665472</v>
+        <v>18552217.6</v>
       </c>
       <c r="P14" t="n">
-        <v>18665472</v>
+        <v>18552217.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>18665472</v>
+        <v>18552217.6</v>
       </c>
       <c r="R14" t="n">
-        <v>18665472</v>
+        <v>18552217.6</v>
       </c>
       <c r="S14" t="n">
+        <v>344</v>
+      </c>
+      <c r="T14" t="n">
+        <v>64</v>
+      </c>
+      <c r="U14" t="n">
         <v>560</v>
       </c>
-      <c r="T14" t="n">
+      <c r="V14" t="n">
         <v>560</v>
       </c>
-      <c r="U14" t="n">
+      <c r="W14" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1439,42 +1527,48 @@
         <v>20</v>
       </c>
       <c r="I15" t="n">
-        <v>0.13115983</v>
+        <v>0.096753109</v>
       </c>
       <c r="J15" t="n">
-        <v>0.177996647</v>
+        <v>0.191816497</v>
       </c>
       <c r="K15" t="n">
-        <v>0.349463177</v>
+        <v>-1</v>
       </c>
       <c r="L15" t="n">
-        <v>0.084414554</v>
+        <v>0.06766994</v>
       </c>
       <c r="M15" t="n">
-        <v>0.016618574</v>
+        <v>0.013394237</v>
       </c>
       <c r="N15" t="n">
-        <v>18665472</v>
+        <v>18563072</v>
       </c>
       <c r="O15" t="n">
-        <v>18665472</v>
+        <v>18563072</v>
       </c>
       <c r="P15" t="n">
-        <v>18665472</v>
+        <v>18563072</v>
       </c>
       <c r="Q15" t="n">
-        <v>18665472</v>
+        <v>18563072</v>
       </c>
       <c r="R15" t="n">
-        <v>18665472</v>
+        <v>18563072</v>
       </c>
       <c r="S15" t="n">
+        <v>344</v>
+      </c>
+      <c r="T15" t="n">
+        <v>64</v>
+      </c>
+      <c r="U15" t="n">
         <v>400</v>
       </c>
-      <c r="T15" t="n">
+      <c r="V15" t="n">
         <v>400</v>
       </c>
-      <c r="U15" t="n">
+      <c r="W15" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1506,42 +1600,48 @@
         <v>20</v>
       </c>
       <c r="I16" t="n">
-        <v>0.128974068</v>
+        <v>0.09758965999999999</v>
       </c>
       <c r="J16" t="n">
-        <v>0.187581062</v>
+        <v>0.146545732</v>
       </c>
       <c r="K16" t="n">
-        <v>0.264101541</v>
+        <v>0.203830385</v>
       </c>
       <c r="L16" t="n">
-        <v>0.105945325</v>
+        <v>0.07866295600000001</v>
       </c>
       <c r="M16" t="n">
-        <v>0.016751087</v>
+        <v>0.013660157</v>
       </c>
       <c r="N16" t="n">
-        <v>18665472</v>
+        <v>18563072</v>
       </c>
       <c r="O16" t="n">
-        <v>18665472</v>
+        <v>18563072</v>
       </c>
       <c r="P16" t="n">
-        <v>18665472</v>
+        <v>18563072</v>
       </c>
       <c r="Q16" t="n">
-        <v>18665472</v>
+        <v>18563072</v>
       </c>
       <c r="R16" t="n">
-        <v>18665472</v>
+        <v>18563072</v>
       </c>
       <c r="S16" t="n">
+        <v>344</v>
+      </c>
+      <c r="T16" t="n">
+        <v>64</v>
+      </c>
+      <c r="U16" t="n">
         <v>240</v>
       </c>
-      <c r="T16" t="n">
+      <c r="V16" t="n">
         <v>240</v>
       </c>
-      <c r="U16" t="n">
+      <c r="W16" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1573,42 +1673,48 @@
         <v>20</v>
       </c>
       <c r="I17" t="n">
-        <v>0.071405816</v>
+        <v>0.058295703</v>
       </c>
       <c r="J17" t="n">
-        <v>0.153120136</v>
+        <v>0.121079886</v>
       </c>
       <c r="K17" t="n">
-        <v>0.249252164</v>
+        <v>0.196241474</v>
       </c>
       <c r="L17" t="n">
-        <v>0.04188199</v>
+        <v>0.035546207</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02116915</v>
+        <v>0.018778968</v>
       </c>
       <c r="N17" t="n">
-        <v>18665472</v>
+        <v>18563072</v>
       </c>
       <c r="O17" t="n">
-        <v>18665472</v>
+        <v>18563072</v>
       </c>
       <c r="P17" t="n">
-        <v>18665472</v>
+        <v>18563072</v>
       </c>
       <c r="Q17" t="n">
-        <v>18665472</v>
+        <v>18563072</v>
       </c>
       <c r="R17" t="n">
-        <v>18665472</v>
+        <v>18563072</v>
       </c>
       <c r="S17" t="n">
+        <v>184</v>
+      </c>
+      <c r="T17" t="n">
+        <v>64</v>
+      </c>
+      <c r="U17" t="n">
         <v>240</v>
       </c>
-      <c r="T17" t="n">
+      <c r="V17" t="n">
         <v>240</v>
       </c>
-      <c r="U17" t="n">
+      <c r="W17" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1640,42 +1746,48 @@
         <v>20</v>
       </c>
       <c r="I18" t="n">
-        <v>0.100566959</v>
+        <v>0.07927455899999999</v>
       </c>
       <c r="J18" t="n">
-        <v>0.24227854</v>
+        <v>0.205050468</v>
       </c>
       <c r="K18" t="n">
-        <v>0.383123088</v>
+        <v>0.319724298</v>
       </c>
       <c r="L18" t="n">
-        <v>0.043554008</v>
+        <v>-1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.021632814</v>
+        <v>0.018238378</v>
       </c>
       <c r="N18" t="n">
-        <v>18665472</v>
+        <v>18563072</v>
       </c>
       <c r="O18" t="n">
-        <v>18665472</v>
+        <v>18563072</v>
       </c>
       <c r="P18" t="n">
-        <v>18665472</v>
+        <v>18563072</v>
       </c>
       <c r="Q18" t="n">
-        <v>18665472</v>
+        <v>18563072</v>
       </c>
       <c r="R18" t="n">
-        <v>18665472</v>
+        <v>18563072</v>
       </c>
       <c r="S18" t="n">
+        <v>224</v>
+      </c>
+      <c r="T18" t="n">
+        <v>64</v>
+      </c>
+      <c r="U18" t="n">
         <v>400</v>
       </c>
-      <c r="T18" t="n">
+      <c r="V18" t="n">
         <v>400</v>
       </c>
-      <c r="U18" t="n">
+      <c r="W18" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1707,42 +1819,48 @@
         <v>20</v>
       </c>
       <c r="I19" t="n">
-        <v>0.030847287</v>
+        <v>0.07543273</v>
       </c>
       <c r="J19" t="n">
-        <v>0.171707714</v>
+        <v>0.1406057</v>
       </c>
       <c r="K19" t="n">
-        <v>0.27204659</v>
+        <v>0.227930534</v>
       </c>
       <c r="L19" t="n">
-        <v>0.062461948</v>
+        <v>0.054494417</v>
       </c>
       <c r="M19" t="n">
-        <v>0.022934508</v>
+        <v>0.018054163</v>
       </c>
       <c r="N19" t="n">
-        <v>18665472</v>
+        <v>18563072</v>
       </c>
       <c r="O19" t="n">
-        <v>18665472</v>
+        <v>18563072</v>
       </c>
       <c r="P19" t="n">
-        <v>18665472</v>
+        <v>18563072</v>
       </c>
       <c r="Q19" t="n">
-        <v>18665472</v>
+        <v>18563072</v>
       </c>
       <c r="R19" t="n">
-        <v>18665472</v>
+        <v>18563072</v>
       </c>
       <c r="S19" t="n">
+        <v>224</v>
+      </c>
+      <c r="T19" t="n">
+        <v>64</v>
+      </c>
+      <c r="U19" t="n">
         <v>240</v>
       </c>
-      <c r="T19" t="n">
+      <c r="V19" t="n">
         <v>240</v>
       </c>
-      <c r="U19" t="n">
+      <c r="W19" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1774,42 +1892,48 @@
         <v>20</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1217278</v>
+        <v>0.094723845</v>
       </c>
       <c r="J20" t="n">
-        <v>0.319179261</v>
+        <v>0.26711756</v>
       </c>
       <c r="K20" t="n">
-        <v>0.500777769</v>
+        <v>0.413160384</v>
       </c>
       <c r="L20" t="n">
-        <v>0.045616889</v>
+        <v>0.03496393</v>
       </c>
       <c r="M20" t="n">
-        <v>0.023264146</v>
+        <v>0.01838181</v>
       </c>
       <c r="N20" t="n">
-        <v>18851840</v>
+        <v>18563072</v>
       </c>
       <c r="O20" t="n">
-        <v>18851840</v>
+        <v>18563072</v>
       </c>
       <c r="P20" t="n">
-        <v>18851840</v>
+        <v>18563072</v>
       </c>
       <c r="Q20" t="n">
-        <v>18865152</v>
+        <v>18563072</v>
       </c>
       <c r="R20" t="n">
-        <v>18865152</v>
+        <v>18563072</v>
       </c>
       <c r="S20" t="n">
+        <v>264</v>
+      </c>
+      <c r="T20" t="n">
+        <v>64</v>
+      </c>
+      <c r="U20" t="n">
         <v>560</v>
       </c>
-      <c r="T20" t="n">
+      <c r="V20" t="n">
         <v>560</v>
       </c>
-      <c r="U20" t="n">
+      <c r="W20" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1841,42 +1965,48 @@
         <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>0.119960701</v>
+        <v>0.096762526</v>
       </c>
       <c r="J21" t="n">
-        <v>0.26638062</v>
+        <v>0.210658813</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3423666</v>
+        <v>0.325779879</v>
       </c>
       <c r="L21" t="n">
-        <v>0.06700162899999999</v>
+        <v>-1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.023623145</v>
+        <v>0.017841268</v>
       </c>
       <c r="N21" t="n">
-        <v>18931712</v>
+        <v>18563072</v>
       </c>
       <c r="O21" t="n">
-        <v>18931712</v>
+        <v>18563072</v>
       </c>
       <c r="P21" t="n">
-        <v>18931712</v>
+        <v>18563072</v>
       </c>
       <c r="Q21" t="n">
-        <v>18931712</v>
+        <v>18563072</v>
       </c>
       <c r="R21" t="n">
-        <v>18931712</v>
+        <v>18563072</v>
       </c>
       <c r="S21" t="n">
+        <v>264</v>
+      </c>
+      <c r="T21" t="n">
+        <v>64</v>
+      </c>
+      <c r="U21" t="n">
         <v>400</v>
       </c>
-      <c r="T21" t="n">
+      <c r="V21" t="n">
         <v>400</v>
       </c>
-      <c r="U21" t="n">
+      <c r="W21" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1908,42 +2038,48 @@
         <v>20</v>
       </c>
       <c r="I22" t="n">
-        <v>0.117091894</v>
+        <v>0.094358909</v>
       </c>
       <c r="J22" t="n">
-        <v>0.201574838</v>
+        <v>0.160655069</v>
       </c>
       <c r="K22" t="n">
-        <v>0.298051584</v>
+        <v>0.23907268</v>
       </c>
       <c r="L22" t="n">
-        <v>0.08658185</v>
+        <v>0.07210986599999999</v>
       </c>
       <c r="M22" t="n">
-        <v>0.023424947</v>
+        <v>0.018355954</v>
       </c>
       <c r="N22" t="n">
-        <v>18931712</v>
+        <v>18762752</v>
       </c>
       <c r="O22" t="n">
-        <v>18931712</v>
+        <v>18762752</v>
       </c>
       <c r="P22" t="n">
-        <v>18931712</v>
+        <v>18762752</v>
       </c>
       <c r="Q22" t="n">
-        <v>18931712</v>
+        <v>18762752</v>
       </c>
       <c r="R22" t="n">
-        <v>18931712</v>
+        <v>18776064</v>
       </c>
       <c r="S22" t="n">
+        <v>264</v>
+      </c>
+      <c r="T22" t="n">
+        <v>64</v>
+      </c>
+      <c r="U22" t="n">
         <v>240</v>
       </c>
-      <c r="T22" t="n">
+      <c r="V22" t="n">
         <v>240</v>
       </c>
-      <c r="U22" t="n">
+      <c r="W22" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1975,42 +2111,48 @@
         <v>20</v>
       </c>
       <c r="I23" t="n">
-        <v>0.146613264</v>
+        <v>0.114280987</v>
       </c>
       <c r="J23" t="n">
-        <v>0.420406651</v>
+        <v>0.35210799</v>
       </c>
       <c r="K23" t="n">
-        <v>0.573198688</v>
+        <v>0.536162913</v>
       </c>
       <c r="L23" t="n">
-        <v>0.041561294</v>
+        <v>0.036031806</v>
       </c>
       <c r="M23" t="n">
-        <v>0.022378397</v>
+        <v>0.019330728</v>
       </c>
       <c r="N23" t="n">
-        <v>18931712</v>
+        <v>18829312</v>
       </c>
       <c r="O23" t="n">
-        <v>18931712</v>
+        <v>18829312</v>
       </c>
       <c r="P23" t="n">
-        <v>18931712</v>
+        <v>18829312</v>
       </c>
       <c r="Q23" t="n">
-        <v>18931712</v>
+        <v>18829312</v>
       </c>
       <c r="R23" t="n">
-        <v>18931712</v>
+        <v>18829312</v>
       </c>
       <c r="S23" t="n">
+        <v>304</v>
+      </c>
+      <c r="T23" t="n">
+        <v>64</v>
+      </c>
+      <c r="U23" t="n">
         <v>720</v>
       </c>
-      <c r="T23" t="n">
+      <c r="V23" t="n">
         <v>720</v>
       </c>
-      <c r="U23" t="n">
+      <c r="W23" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2042,42 +2184,48 @@
         <v>20</v>
       </c>
       <c r="I24" t="n">
-        <v>0.143483615</v>
+        <v>0.107782865</v>
       </c>
       <c r="J24" t="n">
-        <v>0.280336785</v>
+        <v>-1</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5288179160000001</v>
+        <v>0.424109542</v>
       </c>
       <c r="L24" t="n">
-        <v>0.06365362400000001</v>
+        <v>0.052881265</v>
       </c>
       <c r="M24" t="n">
-        <v>0.021238315</v>
+        <v>0.018612492</v>
       </c>
       <c r="N24" t="n">
-        <v>18931712</v>
+        <v>18937856</v>
       </c>
       <c r="O24" t="n">
-        <v>18931712</v>
+        <v>18937856</v>
       </c>
       <c r="P24" t="n">
-        <v>18931712</v>
+        <v>18959564.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>18931712</v>
+        <v>18959564.8</v>
       </c>
       <c r="R24" t="n">
-        <v>18931712</v>
+        <v>18959564.8</v>
       </c>
       <c r="S24" t="n">
+        <v>304</v>
+      </c>
+      <c r="T24" t="n">
+        <v>64</v>
+      </c>
+      <c r="U24" t="n">
         <v>560</v>
       </c>
-      <c r="T24" t="n">
+      <c r="V24" t="n">
         <v>560</v>
       </c>
-      <c r="U24" t="n">
+      <c r="W24" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2109,42 +2257,48 @@
         <v>20</v>
       </c>
       <c r="I25" t="n">
-        <v>0.144479001</v>
+        <v>0.112138557</v>
       </c>
       <c r="J25" t="n">
-        <v>0.289104223</v>
+        <v>0.231660783</v>
       </c>
       <c r="K25" t="n">
-        <v>0.407356131</v>
+        <v>0.337724841</v>
       </c>
       <c r="L25" t="n">
-        <v>0.024570441</v>
+        <v>0.07198795099999999</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0210675</v>
+        <v>0.017985463</v>
       </c>
       <c r="N25" t="n">
-        <v>18931712</v>
+        <v>19263488</v>
       </c>
       <c r="O25" t="n">
-        <v>18931712</v>
+        <v>19263488</v>
       </c>
       <c r="P25" t="n">
-        <v>18931712</v>
+        <v>19263488</v>
       </c>
       <c r="Q25" t="n">
-        <v>18931712</v>
+        <v>19263488</v>
       </c>
       <c r="R25" t="n">
-        <v>18931712</v>
+        <v>19263488</v>
       </c>
       <c r="S25" t="n">
+        <v>304</v>
+      </c>
+      <c r="T25" t="n">
+        <v>64</v>
+      </c>
+      <c r="U25" t="n">
         <v>400</v>
       </c>
-      <c r="T25" t="n">
+      <c r="V25" t="n">
         <v>400</v>
       </c>
-      <c r="U25" t="n">
+      <c r="W25" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2176,42 +2330,48 @@
         <v>20</v>
       </c>
       <c r="I26" t="n">
-        <v>0.144009006</v>
+        <v>-1</v>
       </c>
       <c r="J26" t="n">
-        <v>0.224735653</v>
+        <v>0.184573734</v>
       </c>
       <c r="K26" t="n">
-        <v>0.299758923</v>
+        <v>0.258569002</v>
       </c>
       <c r="L26" t="n">
-        <v>0.112886524</v>
+        <v>0.093358552</v>
       </c>
       <c r="M26" t="n">
-        <v>0.021781957</v>
+        <v>0.018384373</v>
       </c>
       <c r="N26" t="n">
-        <v>19012812.8</v>
+        <v>19263488</v>
       </c>
       <c r="O26" t="n">
-        <v>19012812.8</v>
+        <v>19263488</v>
       </c>
       <c r="P26" t="n">
-        <v>19026329.6</v>
+        <v>19263488</v>
       </c>
       <c r="Q26" t="n">
-        <v>19026329.6</v>
+        <v>19263488</v>
       </c>
       <c r="R26" t="n">
-        <v>19026329.6</v>
+        <v>19263488</v>
       </c>
       <c r="S26" t="n">
+        <v>304</v>
+      </c>
+      <c r="T26" t="n">
+        <v>64</v>
+      </c>
+      <c r="U26" t="n">
         <v>240</v>
       </c>
-      <c r="T26" t="n">
+      <c r="V26" t="n">
         <v>240</v>
       </c>
-      <c r="U26" t="n">
+      <c r="W26" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2243,42 +2403,48 @@
         <v>20</v>
       </c>
       <c r="I27" t="n">
-        <v>0.06462594300000001</v>
+        <v>0.131698716</v>
       </c>
       <c r="J27" t="n">
-        <v>0.518128395</v>
+        <v>0.418412936</v>
       </c>
       <c r="K27" t="n">
-        <v>0.801219225</v>
+        <v>-1</v>
       </c>
       <c r="L27" t="n">
-        <v>0.045253646</v>
+        <v>0.035153067</v>
       </c>
       <c r="M27" t="n">
-        <v>0.024764216</v>
+        <v>0.018235755</v>
       </c>
       <c r="N27" t="n">
-        <v>19202048</v>
+        <v>19263488</v>
       </c>
       <c r="O27" t="n">
-        <v>19202048</v>
+        <v>19263488</v>
       </c>
       <c r="P27" t="n">
-        <v>19202048</v>
+        <v>19263488</v>
       </c>
       <c r="Q27" t="n">
-        <v>19202048</v>
+        <v>19263488</v>
       </c>
       <c r="R27" t="n">
-        <v>19202048</v>
+        <v>19263488</v>
       </c>
       <c r="S27" t="n">
+        <v>344</v>
+      </c>
+      <c r="T27" t="n">
+        <v>64</v>
+      </c>
+      <c r="U27" t="n">
         <v>880</v>
       </c>
-      <c r="T27" t="n">
+      <c r="V27" t="n">
         <v>880</v>
       </c>
-      <c r="U27" t="n">
+      <c r="W27" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2310,42 +2476,48 @@
         <v>20</v>
       </c>
       <c r="I28" t="n">
-        <v>0.171488464</v>
+        <v>0.12931968</v>
       </c>
       <c r="J28" t="n">
-        <v>0.467851913</v>
+        <v>0.351170003</v>
       </c>
       <c r="K28" t="n">
-        <v>0.594037044</v>
+        <v>0.538998699</v>
       </c>
       <c r="L28" t="n">
-        <v>0.062485445</v>
+        <v>0.050560606</v>
       </c>
       <c r="M28" t="n">
-        <v>0.022389352</v>
+        <v>0.017583537</v>
       </c>
       <c r="N28" t="n">
-        <v>19202048</v>
+        <v>19263488</v>
       </c>
       <c r="O28" t="n">
-        <v>19202048</v>
+        <v>19263488</v>
       </c>
       <c r="P28" t="n">
-        <v>19202048</v>
+        <v>19263488</v>
       </c>
       <c r="Q28" t="n">
-        <v>19202048</v>
+        <v>19263488</v>
       </c>
       <c r="R28" t="n">
-        <v>19202048</v>
+        <v>19263488</v>
       </c>
       <c r="S28" t="n">
+        <v>344</v>
+      </c>
+      <c r="T28" t="n">
+        <v>64</v>
+      </c>
+      <c r="U28" t="n">
         <v>720</v>
       </c>
-      <c r="T28" t="n">
+      <c r="V28" t="n">
         <v>720</v>
       </c>
-      <c r="U28" t="n">
+      <c r="W28" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2377,42 +2549,48 @@
         <v>20</v>
       </c>
       <c r="I29" t="n">
-        <v>0.159921467</v>
+        <v>0.126311469</v>
       </c>
       <c r="J29" t="n">
-        <v>0.28769803</v>
+        <v>0.297781992</v>
       </c>
       <c r="K29" t="n">
-        <v>0.56572746</v>
+        <v>-1</v>
       </c>
       <c r="L29" t="n">
-        <v>0.08776830400000001</v>
+        <v>0.06811133599999999</v>
       </c>
       <c r="M29" t="n">
-        <v>0.023143983</v>
+        <v>0.01769762</v>
       </c>
       <c r="N29" t="n">
-        <v>19202048</v>
+        <v>19452723.2</v>
       </c>
       <c r="O29" t="n">
-        <v>19202048</v>
+        <v>19466240</v>
       </c>
       <c r="P29" t="n">
-        <v>19202048</v>
+        <v>19466240</v>
       </c>
       <c r="Q29" t="n">
-        <v>19202048</v>
+        <v>19466240</v>
       </c>
       <c r="R29" t="n">
-        <v>19202048</v>
+        <v>19466240</v>
       </c>
       <c r="S29" t="n">
+        <v>344</v>
+      </c>
+      <c r="T29" t="n">
+        <v>64</v>
+      </c>
+      <c r="U29" t="n">
         <v>560</v>
       </c>
-      <c r="T29" t="n">
+      <c r="V29" t="n">
         <v>560</v>
       </c>
-      <c r="U29" t="n">
+      <c r="W29" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2444,42 +2622,48 @@
         <v>20</v>
       </c>
       <c r="I30" t="n">
-        <v>0.17338804</v>
+        <v>0.129985368</v>
       </c>
       <c r="J30" t="n">
-        <v>0.316761744</v>
+        <v>0.252439809</v>
       </c>
       <c r="K30" t="n">
-        <v>0.430788875</v>
+        <v>0.358508778</v>
       </c>
       <c r="L30" t="n">
-        <v>0.106608343</v>
+        <v>0.09164198599999999</v>
       </c>
       <c r="M30" t="n">
-        <v>0.02147373</v>
+        <v>0.017839026</v>
       </c>
       <c r="N30" t="n">
-        <v>19202048</v>
+        <v>19533824</v>
       </c>
       <c r="O30" t="n">
-        <v>19202048</v>
+        <v>19533824</v>
       </c>
       <c r="P30" t="n">
-        <v>19202048</v>
+        <v>19533824</v>
       </c>
       <c r="Q30" t="n">
-        <v>19202048</v>
+        <v>19533824</v>
       </c>
       <c r="R30" t="n">
-        <v>19202048</v>
+        <v>19533824</v>
       </c>
       <c r="S30" t="n">
+        <v>344</v>
+      </c>
+      <c r="T30" t="n">
+        <v>64</v>
+      </c>
+      <c r="U30" t="n">
         <v>400</v>
       </c>
-      <c r="T30" t="n">
+      <c r="V30" t="n">
         <v>400</v>
       </c>
-      <c r="U30" t="n">
+      <c r="W30" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2511,42 +2695,48 @@
         <v>20</v>
       </c>
       <c r="I31" t="n">
-        <v>0.165672195</v>
+        <v>0.131991482</v>
       </c>
       <c r="J31" t="n">
-        <v>0.244852602</v>
+        <v>0.194027185</v>
       </c>
       <c r="K31" t="n">
-        <v>0.249170613</v>
+        <v>-1</v>
       </c>
       <c r="L31" t="n">
-        <v>0.130807972</v>
+        <v>0.104772997</v>
       </c>
       <c r="M31" t="n">
-        <v>0.022798586</v>
+        <v>0.017906213</v>
       </c>
       <c r="N31" t="n">
-        <v>19202048</v>
+        <v>19533824</v>
       </c>
       <c r="O31" t="n">
-        <v>19202048</v>
+        <v>19533824</v>
       </c>
       <c r="P31" t="n">
-        <v>19202048</v>
+        <v>19533824</v>
       </c>
       <c r="Q31" t="n">
-        <v>19202048</v>
+        <v>19533824</v>
       </c>
       <c r="R31" t="n">
-        <v>19202048</v>
+        <v>19533824</v>
       </c>
       <c r="S31" t="n">
+        <v>344</v>
+      </c>
+      <c r="T31" t="n">
+        <v>64</v>
+      </c>
+      <c r="U31" t="n">
         <v>240</v>
       </c>
-      <c r="T31" t="n">
+      <c r="V31" t="n">
         <v>240</v>
       </c>
-      <c r="U31" t="n">
+      <c r="W31" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2578,42 +2768,48 @@
         <v>20</v>
       </c>
       <c r="I32" t="n">
-        <v>0.093306732</v>
+        <v>0.069989491</v>
       </c>
       <c r="J32" t="n">
-        <v>0.189631414</v>
+        <v>0.149360561</v>
       </c>
       <c r="K32" t="n">
-        <v>0.304676473</v>
+        <v>0.24290868</v>
       </c>
       <c r="L32" t="n">
-        <v>0.05543375</v>
+        <v>0.041476238</v>
       </c>
       <c r="M32" t="n">
-        <v>0.028762615</v>
+        <v>0.021597123</v>
       </c>
       <c r="N32" t="n">
-        <v>19202048</v>
+        <v>19533824</v>
       </c>
       <c r="O32" t="n">
-        <v>19202048</v>
+        <v>19533824</v>
       </c>
       <c r="P32" t="n">
-        <v>19202048</v>
+        <v>19533824</v>
       </c>
       <c r="Q32" t="n">
-        <v>19202048</v>
+        <v>19533824</v>
       </c>
       <c r="R32" t="n">
-        <v>19202048</v>
+        <v>19533824</v>
       </c>
       <c r="S32" t="n">
+        <v>184</v>
+      </c>
+      <c r="T32" t="n">
+        <v>64</v>
+      </c>
+      <c r="U32" t="n">
         <v>240</v>
       </c>
-      <c r="T32" t="n">
+      <c r="V32" t="n">
         <v>240</v>
       </c>
-      <c r="U32" t="n">
+      <c r="W32" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2645,42 +2841,48 @@
         <v>20</v>
       </c>
       <c r="I33" t="n">
-        <v>0.122098768</v>
+        <v>0.094458747</v>
       </c>
       <c r="J33" t="n">
-        <v>0.307599235</v>
+        <v>0.241742003</v>
       </c>
       <c r="K33" t="n">
-        <v>0.484358573</v>
+        <v>-1</v>
       </c>
       <c r="L33" t="n">
-        <v>0.054189003</v>
+        <v>0.040709388</v>
       </c>
       <c r="M33" t="n">
-        <v>0.027133679</v>
+        <v>0.022086382</v>
       </c>
       <c r="N33" t="n">
-        <v>19202048</v>
+        <v>19533824</v>
       </c>
       <c r="O33" t="n">
-        <v>19202048</v>
+        <v>19533824</v>
       </c>
       <c r="P33" t="n">
-        <v>19202048</v>
+        <v>19533824</v>
       </c>
       <c r="Q33" t="n">
-        <v>19202048</v>
+        <v>19533824</v>
       </c>
       <c r="R33" t="n">
-        <v>19202048</v>
+        <v>19533824</v>
       </c>
       <c r="S33" t="n">
+        <v>224</v>
+      </c>
+      <c r="T33" t="n">
+        <v>64</v>
+      </c>
+      <c r="U33" t="n">
         <v>400</v>
       </c>
-      <c r="T33" t="n">
+      <c r="V33" t="n">
         <v>400</v>
       </c>
-      <c r="U33" t="n">
+      <c r="W33" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2712,42 +2914,48 @@
         <v>20</v>
       </c>
       <c r="I34" t="n">
-        <v>0.121553135</v>
+        <v>0.09263234100000001</v>
       </c>
       <c r="J34" t="n">
-        <v>0.21540339</v>
+        <v>0.173782361</v>
       </c>
       <c r="K34" t="n">
-        <v>0.248948193</v>
+        <v>0.265935767</v>
       </c>
       <c r="L34" t="n">
-        <v>0.080731487</v>
+        <v>0.06647075400000001</v>
       </c>
       <c r="M34" t="n">
-        <v>0.026796734</v>
+        <v>0.022624552</v>
       </c>
       <c r="N34" t="n">
-        <v>19202048</v>
+        <v>19533824</v>
       </c>
       <c r="O34" t="n">
-        <v>19202048</v>
+        <v>19533824</v>
       </c>
       <c r="P34" t="n">
-        <v>19202048</v>
+        <v>19533824</v>
       </c>
       <c r="Q34" t="n">
-        <v>19202048</v>
+        <v>19533824</v>
       </c>
       <c r="R34" t="n">
-        <v>19202048</v>
+        <v>19533824</v>
       </c>
       <c r="S34" t="n">
+        <v>224</v>
+      </c>
+      <c r="T34" t="n">
+        <v>64</v>
+      </c>
+      <c r="U34" t="n">
         <v>240</v>
       </c>
-      <c r="T34" t="n">
+      <c r="V34" t="n">
         <v>240</v>
       </c>
-      <c r="U34" t="n">
+      <c r="W34" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2779,42 +2987,48 @@
         <v>20</v>
       </c>
       <c r="I35" t="n">
-        <v>0.148320234</v>
+        <v>0.115780854</v>
       </c>
       <c r="J35" t="n">
-        <v>0.417797625</v>
+        <v>0.333579648</v>
       </c>
       <c r="K35" t="n">
-        <v>0.666785121</v>
+        <v>-1</v>
       </c>
       <c r="L35" t="n">
-        <v>0.054648256</v>
+        <v>0.04395808</v>
       </c>
       <c r="M35" t="n">
-        <v>0.026576889</v>
+        <v>0.022835934</v>
       </c>
       <c r="N35" t="n">
-        <v>19202048</v>
+        <v>19533824</v>
       </c>
       <c r="O35" t="n">
-        <v>19202048</v>
+        <v>19533824</v>
       </c>
       <c r="P35" t="n">
-        <v>19202048</v>
+        <v>19533824</v>
       </c>
       <c r="Q35" t="n">
-        <v>19202048</v>
+        <v>19533824</v>
       </c>
       <c r="R35" t="n">
-        <v>19202048</v>
+        <v>19533824</v>
       </c>
       <c r="S35" t="n">
+        <v>264</v>
+      </c>
+      <c r="T35" t="n">
+        <v>64</v>
+      </c>
+      <c r="U35" t="n">
         <v>560</v>
       </c>
-      <c r="T35" t="n">
+      <c r="V35" t="n">
         <v>560</v>
       </c>
-      <c r="U35" t="n">
+      <c r="W35" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2846,42 +3060,48 @@
         <v>20</v>
       </c>
       <c r="I36" t="n">
-        <v>0.152842355</v>
+        <v>0.116429698</v>
       </c>
       <c r="J36" t="n">
-        <v>0.334569752</v>
+        <v>0.263155901</v>
       </c>
       <c r="K36" t="n">
-        <v>0.421627009</v>
+        <v>0.404789865</v>
       </c>
       <c r="L36" t="n">
-        <v>0.08322288999999999</v>
+        <v>0.065184772</v>
       </c>
       <c r="M36" t="n">
-        <v>0.026966286</v>
+        <v>0.022407365</v>
       </c>
       <c r="N36" t="n">
-        <v>19404800</v>
+        <v>19533824</v>
       </c>
       <c r="O36" t="n">
-        <v>19404800</v>
+        <v>19533824</v>
       </c>
       <c r="P36" t="n">
-        <v>19418316.8</v>
+        <v>19533824</v>
       </c>
       <c r="Q36" t="n">
-        <v>19418316.8</v>
+        <v>19533824</v>
       </c>
       <c r="R36" t="n">
-        <v>19418316.8</v>
+        <v>19533824</v>
       </c>
       <c r="S36" t="n">
+        <v>264</v>
+      </c>
+      <c r="T36" t="n">
+        <v>64</v>
+      </c>
+      <c r="U36" t="n">
         <v>400</v>
       </c>
-      <c r="T36" t="n">
+      <c r="V36" t="n">
         <v>400</v>
       </c>
-      <c r="U36" t="n">
+      <c r="W36" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2913,42 +3133,48 @@
         <v>20</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1471614</v>
+        <v>0.126956224</v>
       </c>
       <c r="J37" t="n">
-        <v>0.25928961</v>
+        <v>0.202809191</v>
       </c>
       <c r="K37" t="n">
-        <v>0.358465397</v>
+        <v>0.310916579</v>
       </c>
       <c r="L37" t="n">
-        <v>0.021630073</v>
+        <v>-1</v>
       </c>
       <c r="M37" t="n">
-        <v>0.027692616</v>
+        <v>0.024650526</v>
       </c>
       <c r="N37" t="n">
-        <v>19472384</v>
+        <v>19533824</v>
       </c>
       <c r="O37" t="n">
-        <v>19472384</v>
+        <v>19533824</v>
       </c>
       <c r="P37" t="n">
-        <v>19472384</v>
+        <v>19533824</v>
       </c>
       <c r="Q37" t="n">
-        <v>19472384</v>
+        <v>19533824</v>
       </c>
       <c r="R37" t="n">
-        <v>19472384</v>
+        <v>19533824</v>
       </c>
       <c r="S37" t="n">
+        <v>264</v>
+      </c>
+      <c r="T37" t="n">
+        <v>64</v>
+      </c>
+      <c r="U37" t="n">
         <v>240</v>
       </c>
-      <c r="T37" t="n">
+      <c r="V37" t="n">
         <v>240</v>
       </c>
-      <c r="U37" t="n">
+      <c r="W37" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2980,42 +3206,48 @@
         <v>20</v>
       </c>
       <c r="I38" t="n">
-        <v>0.177518833</v>
+        <v>0.139952052</v>
       </c>
       <c r="J38" t="n">
-        <v>0.545177889</v>
+        <v>-1</v>
       </c>
       <c r="K38" t="n">
-        <v>0.723242164</v>
+        <v>0.644292021</v>
       </c>
       <c r="L38" t="n">
-        <v>0.053776836</v>
+        <v>0.043398869</v>
       </c>
       <c r="M38" t="n">
-        <v>0.027343524</v>
+        <v>0.022196043</v>
       </c>
       <c r="N38" t="n">
-        <v>19472384</v>
+        <v>19709542.4</v>
       </c>
       <c r="O38" t="n">
-        <v>19472384</v>
+        <v>19723059.2</v>
       </c>
       <c r="P38" t="n">
-        <v>19472384</v>
+        <v>19723059.2</v>
       </c>
       <c r="Q38" t="n">
-        <v>19472384</v>
+        <v>19723059.2</v>
       </c>
       <c r="R38" t="n">
-        <v>19472384</v>
+        <v>19723059.2</v>
       </c>
       <c r="S38" t="n">
+        <v>304</v>
+      </c>
+      <c r="T38" t="n">
+        <v>64</v>
+      </c>
+      <c r="U38" t="n">
         <v>720</v>
       </c>
-      <c r="T38" t="n">
+      <c r="V38" t="n">
         <v>720</v>
       </c>
-      <c r="U38" t="n">
+      <c r="W38" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3047,42 +3279,48 @@
         <v>20</v>
       </c>
       <c r="I39" t="n">
-        <v>0.177681661</v>
+        <v>0.139820158</v>
       </c>
       <c r="J39" t="n">
-        <v>0.380236769</v>
+        <v>0.353232718</v>
       </c>
       <c r="K39" t="n">
-        <v>0.6874154689999999</v>
+        <v>0.531492734</v>
       </c>
       <c r="L39" t="n">
-        <v>0.086330712</v>
+        <v>0.064111376</v>
       </c>
       <c r="M39" t="n">
-        <v>0.02779007</v>
+        <v>0.02212348</v>
       </c>
       <c r="N39" t="n">
-        <v>19472384</v>
+        <v>19804160</v>
       </c>
       <c r="O39" t="n">
-        <v>19472384</v>
+        <v>19804160</v>
       </c>
       <c r="P39" t="n">
-        <v>19472384</v>
+        <v>19804160</v>
       </c>
       <c r="Q39" t="n">
-        <v>19472384</v>
+        <v>19804160</v>
       </c>
       <c r="R39" t="n">
-        <v>19472384</v>
+        <v>19804160</v>
       </c>
       <c r="S39" t="n">
+        <v>304</v>
+      </c>
+      <c r="T39" t="n">
+        <v>64</v>
+      </c>
+      <c r="U39" t="n">
         <v>560</v>
       </c>
-      <c r="T39" t="n">
+      <c r="V39" t="n">
         <v>560</v>
       </c>
-      <c r="U39" t="n">
+      <c r="W39" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3114,42 +3352,48 @@
         <v>20</v>
       </c>
       <c r="I40" t="n">
-        <v>0.176324689</v>
+        <v>0.138295686</v>
       </c>
       <c r="J40" t="n">
-        <v>0.377183342</v>
+        <v>0.288209379</v>
       </c>
       <c r="K40" t="n">
-        <v>0.549577236</v>
+        <v>0.427900183</v>
       </c>
       <c r="L40" t="n">
-        <v>0.108316183</v>
+        <v>0.089581013</v>
       </c>
       <c r="M40" t="n">
-        <v>0.02982105</v>
+        <v>0.02251687</v>
       </c>
       <c r="N40" t="n">
-        <v>19472384</v>
+        <v>19804160</v>
       </c>
       <c r="O40" t="n">
-        <v>19472384</v>
+        <v>19804160</v>
       </c>
       <c r="P40" t="n">
-        <v>19472384</v>
+        <v>19804160</v>
       </c>
       <c r="Q40" t="n">
-        <v>19472384</v>
+        <v>19804160</v>
       </c>
       <c r="R40" t="n">
-        <v>19472384</v>
+        <v>19804160</v>
       </c>
       <c r="S40" t="n">
+        <v>304</v>
+      </c>
+      <c r="T40" t="n">
+        <v>64</v>
+      </c>
+      <c r="U40" t="n">
         <v>400</v>
       </c>
-      <c r="T40" t="n">
+      <c r="V40" t="n">
         <v>400</v>
       </c>
-      <c r="U40" t="n">
+      <c r="W40" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3181,42 +3425,48 @@
         <v>20</v>
       </c>
       <c r="I41" t="n">
-        <v>0.182871997</v>
+        <v>0.134791636</v>
       </c>
       <c r="J41" t="n">
-        <v>0.181386936</v>
+        <v>0.212472034</v>
       </c>
       <c r="K41" t="n">
-        <v>0.409709299</v>
+        <v>0.309570062</v>
       </c>
       <c r="L41" t="n">
-        <v>0.141287935</v>
+        <v>0.109932017</v>
       </c>
       <c r="M41" t="n">
-        <v>0.027542531</v>
+        <v>0.021897686</v>
       </c>
       <c r="N41" t="n">
-        <v>19472384</v>
+        <v>19804160</v>
       </c>
       <c r="O41" t="n">
-        <v>19472384</v>
+        <v>19804160</v>
       </c>
       <c r="P41" t="n">
-        <v>19472384</v>
+        <v>19804160</v>
       </c>
       <c r="Q41" t="n">
-        <v>19472384</v>
+        <v>19804160</v>
       </c>
       <c r="R41" t="n">
-        <v>19472384</v>
+        <v>19804160</v>
       </c>
       <c r="S41" t="n">
+        <v>304</v>
+      </c>
+      <c r="T41" t="n">
+        <v>64</v>
+      </c>
+      <c r="U41" t="n">
         <v>240</v>
       </c>
-      <c r="T41" t="n">
+      <c r="V41" t="n">
         <v>240</v>
       </c>
-      <c r="U41" t="n">
+      <c r="W41" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3248,42 +3498,48 @@
         <v>20</v>
       </c>
       <c r="I42" t="n">
-        <v>0.203381097</v>
+        <v>0.159960413</v>
       </c>
       <c r="J42" t="n">
-        <v>0.549580407</v>
+        <v>-1</v>
       </c>
       <c r="K42" t="n">
-        <v>0.98649075</v>
+        <v>0.807083428</v>
       </c>
       <c r="L42" t="n">
-        <v>0.052308464</v>
+        <v>0.044936061</v>
       </c>
       <c r="M42" t="n">
-        <v>0.025916767</v>
+        <v>0.022213686</v>
       </c>
       <c r="N42" t="n">
-        <v>19472384</v>
+        <v>19804160</v>
       </c>
       <c r="O42" t="n">
-        <v>19472384</v>
+        <v>19804160</v>
       </c>
       <c r="P42" t="n">
-        <v>19472384</v>
+        <v>19804160</v>
       </c>
       <c r="Q42" t="n">
-        <v>19472384</v>
+        <v>19804160</v>
       </c>
       <c r="R42" t="n">
-        <v>19472384</v>
+        <v>19804160</v>
       </c>
       <c r="S42" t="n">
+        <v>344</v>
+      </c>
+      <c r="T42" t="n">
+        <v>64</v>
+      </c>
+      <c r="U42" t="n">
         <v>880</v>
       </c>
-      <c r="T42" t="n">
+      <c r="V42" t="n">
         <v>880</v>
       </c>
-      <c r="U42" t="n">
+      <c r="W42" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3315,42 +3571,48 @@
         <v>20</v>
       </c>
       <c r="I43" t="n">
-        <v>0.206635809</v>
+        <v>-1</v>
       </c>
       <c r="J43" t="n">
-        <v>0.481856453</v>
+        <v>0.463889039</v>
       </c>
       <c r="K43" t="n">
-        <v>0.862576008</v>
+        <v>0.696174681</v>
       </c>
       <c r="L43" t="n">
-        <v>0.08494054099999999</v>
+        <v>0.067170644</v>
       </c>
       <c r="M43" t="n">
-        <v>0.029007185</v>
+        <v>0.023154759</v>
       </c>
       <c r="N43" t="n">
-        <v>19472384</v>
+        <v>19804160</v>
       </c>
       <c r="O43" t="n">
-        <v>19472384</v>
+        <v>19804160</v>
       </c>
       <c r="P43" t="n">
-        <v>19472384</v>
+        <v>19804160</v>
       </c>
       <c r="Q43" t="n">
-        <v>19472384</v>
+        <v>19804160</v>
       </c>
       <c r="R43" t="n">
-        <v>19472384</v>
+        <v>19804160</v>
       </c>
       <c r="S43" t="n">
+        <v>344</v>
+      </c>
+      <c r="T43" t="n">
+        <v>64</v>
+      </c>
+      <c r="U43" t="n">
         <v>720</v>
       </c>
-      <c r="T43" t="n">
+      <c r="V43" t="n">
         <v>720</v>
       </c>
-      <c r="U43" t="n">
+      <c r="W43" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3382,42 +3644,48 @@
         <v>20</v>
       </c>
       <c r="I44" t="n">
-        <v>0.210906649</v>
+        <v>0.16315912</v>
       </c>
       <c r="J44" t="n">
-        <v>0.473504651</v>
+        <v>0.382946169</v>
       </c>
       <c r="K44" t="n">
-        <v>0.616035056</v>
+        <v>-1</v>
       </c>
       <c r="L44" t="n">
-        <v>0.109743869</v>
+        <v>0.088135982</v>
       </c>
       <c r="M44" t="n">
-        <v>0.027239513</v>
+        <v>0.022369766</v>
       </c>
       <c r="N44" t="n">
-        <v>19472384</v>
+        <v>19804160</v>
       </c>
       <c r="O44" t="n">
-        <v>19472384</v>
+        <v>19804160</v>
       </c>
       <c r="P44" t="n">
-        <v>19472384</v>
+        <v>19804160</v>
       </c>
       <c r="Q44" t="n">
-        <v>19472384</v>
+        <v>19804160</v>
       </c>
       <c r="R44" t="n">
-        <v>19472384</v>
+        <v>19804160</v>
       </c>
       <c r="S44" t="n">
+        <v>344</v>
+      </c>
+      <c r="T44" t="n">
+        <v>64</v>
+      </c>
+      <c r="U44" t="n">
         <v>560</v>
       </c>
-      <c r="T44" t="n">
+      <c r="V44" t="n">
         <v>560</v>
       </c>
-      <c r="U44" t="n">
+      <c r="W44" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3449,42 +3717,48 @@
         <v>20</v>
       </c>
       <c r="I45" t="n">
-        <v>0.205575609</v>
+        <v>0.164552951</v>
       </c>
       <c r="J45" t="n">
-        <v>0.385116076</v>
+        <v>0.308933091</v>
       </c>
       <c r="K45" t="n">
-        <v>0.468514597</v>
+        <v>-1</v>
       </c>
       <c r="L45" t="n">
-        <v>0.143250406</v>
+        <v>0.110813498</v>
       </c>
       <c r="M45" t="n">
-        <v>0.027929318</v>
+        <v>0.021682107</v>
       </c>
       <c r="N45" t="n">
-        <v>19499417.6</v>
+        <v>19804160</v>
       </c>
       <c r="O45" t="n">
-        <v>19499417.6</v>
+        <v>19804160</v>
       </c>
       <c r="P45" t="n">
-        <v>19512934.4</v>
+        <v>19804160</v>
       </c>
       <c r="Q45" t="n">
-        <v>19512934.4</v>
+        <v>19804160</v>
       </c>
       <c r="R45" t="n">
-        <v>19512934.4</v>
+        <v>19804160</v>
       </c>
       <c r="S45" t="n">
+        <v>344</v>
+      </c>
+      <c r="T45" t="n">
+        <v>64</v>
+      </c>
+      <c r="U45" t="n">
         <v>400</v>
       </c>
-      <c r="T45" t="n">
+      <c r="V45" t="n">
         <v>400</v>
       </c>
-      <c r="U45" t="n">
+      <c r="W45" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3516,42 +3790,48 @@
         <v>20</v>
       </c>
       <c r="I46" t="n">
-        <v>0.212430751</v>
+        <v>0.162270522</v>
       </c>
       <c r="J46" t="n">
-        <v>0.311992395</v>
+        <v>0.24390626</v>
       </c>
       <c r="K46" t="n">
-        <v>0.436512125</v>
+        <v>0.339310443</v>
       </c>
       <c r="L46" t="n">
-        <v>0.08692884400000001</v>
+        <v>0.130001664</v>
       </c>
       <c r="M46" t="n">
-        <v>0.027001083</v>
+        <v>0.021892762</v>
       </c>
       <c r="N46" t="n">
-        <v>19742720</v>
+        <v>19804160</v>
       </c>
       <c r="O46" t="n">
-        <v>19742720</v>
+        <v>19804160</v>
       </c>
       <c r="P46" t="n">
-        <v>19742720</v>
+        <v>19804160</v>
       </c>
       <c r="Q46" t="n">
-        <v>19742720</v>
+        <v>19804160</v>
       </c>
       <c r="R46" t="n">
-        <v>19742720</v>
+        <v>19804160</v>
       </c>
       <c r="S46" t="n">
+        <v>344</v>
+      </c>
+      <c r="T46" t="n">
+        <v>64</v>
+      </c>
+      <c r="U46" t="n">
         <v>240</v>
       </c>
-      <c r="T46" t="n">
+      <c r="V46" t="n">
         <v>240</v>
       </c>
-      <c r="U46" t="n">
+      <c r="W46" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3583,42 +3863,48 @@
         <v>20</v>
       </c>
       <c r="I47" t="n">
-        <v>0.023523951</v>
+        <v>0.018078613</v>
       </c>
       <c r="J47" t="n">
-        <v>0.040601742</v>
+        <v>0.03141191</v>
       </c>
       <c r="K47" t="n">
-        <v>0.073944545</v>
+        <v>0.052767646</v>
       </c>
       <c r="L47" t="n">
-        <v>0.014450538</v>
+        <v>0.011289537</v>
       </c>
       <c r="M47" t="n">
-        <v>0.005521953</v>
+        <v>0.004395759</v>
       </c>
       <c r="N47" t="n">
-        <v>19840819.2</v>
+        <v>20070809.6</v>
       </c>
       <c r="O47" t="n">
-        <v>19843072</v>
+        <v>20067532.8</v>
       </c>
       <c r="P47" t="n">
-        <v>19843276.8</v>
+        <v>20068556.8</v>
       </c>
       <c r="Q47" t="n">
-        <v>19850854.4</v>
+        <v>20093337.6</v>
       </c>
       <c r="R47" t="n">
-        <v>19850854.4</v>
+        <v>20093337.6</v>
       </c>
       <c r="S47" t="n">
+        <v>184</v>
+      </c>
+      <c r="T47" t="n">
+        <v>64</v>
+      </c>
+      <c r="U47" t="n">
         <v>240</v>
       </c>
-      <c r="T47" t="n">
+      <c r="V47" t="n">
         <v>240</v>
       </c>
-      <c r="U47" t="n">
+      <c r="W47" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3650,42 +3936,48 @@
         <v>20</v>
       </c>
       <c r="I48" t="n">
-        <v>0.03005681</v>
+        <v>0.024060941</v>
       </c>
       <c r="J48" t="n">
-        <v>0.066997504</v>
+        <v>0.053278863</v>
       </c>
       <c r="K48" t="n">
-        <v>0.111864579</v>
+        <v>0.085241699</v>
       </c>
       <c r="L48" t="n">
-        <v>0.015776479</v>
+        <v>0.011845779</v>
       </c>
       <c r="M48" t="n">
-        <v>0.005426598</v>
+        <v>0.004615867</v>
       </c>
       <c r="N48" t="n">
-        <v>19930726.4</v>
+        <v>20149248</v>
       </c>
       <c r="O48" t="n">
-        <v>19928064</v>
+        <v>20147200</v>
       </c>
       <c r="P48" t="n">
-        <v>19936256</v>
+        <v>20157644.8</v>
       </c>
       <c r="Q48" t="n">
-        <v>19995238.4</v>
+        <v>20169728</v>
       </c>
       <c r="R48" t="n">
-        <v>19995238.4</v>
+        <v>20169728</v>
       </c>
       <c r="S48" t="n">
+        <v>224</v>
+      </c>
+      <c r="T48" t="n">
+        <v>64</v>
+      </c>
+      <c r="U48" t="n">
         <v>400</v>
       </c>
-      <c r="T48" t="n">
+      <c r="V48" t="n">
         <v>400</v>
       </c>
-      <c r="U48" t="n">
+      <c r="W48" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3717,42 +4009,48 @@
         <v>20</v>
       </c>
       <c r="I49" t="n">
-        <v>0.029209554</v>
+        <v>0.021610594</v>
       </c>
       <c r="J49" t="n">
-        <v>0.045784652</v>
+        <v>0.034252024</v>
       </c>
       <c r="K49" t="n">
-        <v>0.07831294499999999</v>
+        <v>0.053491533</v>
       </c>
       <c r="L49" t="n">
-        <v>0.021700525</v>
+        <v>0.015146852</v>
       </c>
       <c r="M49" t="n">
-        <v>0.005975699</v>
+        <v>0.004367507</v>
       </c>
       <c r="N49" t="n">
-        <v>19894681.6</v>
+        <v>20108697.6</v>
       </c>
       <c r="O49" t="n">
-        <v>19894681.6</v>
+        <v>20108697.6</v>
       </c>
       <c r="P49" t="n">
-        <v>19893657.6</v>
+        <v>20109721.6</v>
       </c>
       <c r="Q49" t="n">
-        <v>19904102.4</v>
+        <v>20120371.2</v>
       </c>
       <c r="R49" t="n">
-        <v>19904102.4</v>
+        <v>20120371.2</v>
       </c>
       <c r="S49" t="n">
+        <v>224</v>
+      </c>
+      <c r="T49" t="n">
+        <v>64</v>
+      </c>
+      <c r="U49" t="n">
         <v>240</v>
       </c>
-      <c r="T49" t="n">
+      <c r="V49" t="n">
         <v>240</v>
       </c>
-      <c r="U49" t="n">
+      <c r="W49" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3784,42 +4082,48 @@
         <v>20</v>
       </c>
       <c r="I50" t="n">
-        <v>0.035739374</v>
+        <v>0.026995432</v>
       </c>
       <c r="J50" t="n">
-        <v>0.09466764900000001</v>
+        <v>0.067740893</v>
       </c>
       <c r="K50" t="n">
-        <v>0.13794961</v>
+        <v>-1</v>
       </c>
       <c r="L50" t="n">
-        <v>0.014969969</v>
+        <v>0.010733545</v>
       </c>
       <c r="M50" t="n">
-        <v>0.005536699</v>
+        <v>0.00443126</v>
       </c>
       <c r="N50" t="n">
-        <v>20000972.8</v>
+        <v>20262297.6</v>
       </c>
       <c r="O50" t="n">
-        <v>19994828.8</v>
+        <v>20247347.2</v>
       </c>
       <c r="P50" t="n">
-        <v>19991142.4</v>
+        <v>20248780.8</v>
       </c>
       <c r="Q50" t="n">
-        <v>20030873.6</v>
+        <v>20282368</v>
       </c>
       <c r="R50" t="n">
-        <v>20031078.4</v>
+        <v>20282368</v>
       </c>
       <c r="S50" t="n">
+        <v>264</v>
+      </c>
+      <c r="T50" t="n">
+        <v>64</v>
+      </c>
+      <c r="U50" t="n">
         <v>560</v>
       </c>
-      <c r="T50" t="n">
+      <c r="V50" t="n">
         <v>560</v>
       </c>
-      <c r="U50" t="n">
+      <c r="W50" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3851,42 +4155,48 @@
         <v>20</v>
       </c>
       <c r="I51" t="n">
-        <v>0.040035903</v>
+        <v>0.026913452</v>
       </c>
       <c r="J51" t="n">
-        <v>0.06776434200000001</v>
+        <v>0.052624273</v>
       </c>
       <c r="K51" t="n">
-        <v>0.112684882</v>
+        <v>0.08249363899999999</v>
       </c>
       <c r="L51" t="n">
-        <v>0.021571684</v>
+        <v>0.015578163</v>
       </c>
       <c r="M51" t="n">
-        <v>0.0061517</v>
+        <v>0.004334795</v>
       </c>
       <c r="N51" t="n">
-        <v>20000768</v>
+        <v>20349542.4</v>
       </c>
       <c r="O51" t="n">
-        <v>20000768</v>
+        <v>20349542.4</v>
       </c>
       <c r="P51" t="n">
-        <v>20000768</v>
+        <v>20349542.4</v>
       </c>
       <c r="Q51" t="n">
-        <v>20000768</v>
+        <v>20349542.4</v>
       </c>
       <c r="R51" t="n">
-        <v>20000768</v>
+        <v>20349542.4</v>
       </c>
       <c r="S51" t="n">
+        <v>264</v>
+      </c>
+      <c r="T51" t="n">
+        <v>64</v>
+      </c>
+      <c r="U51" t="n">
         <v>400</v>
       </c>
-      <c r="T51" t="n">
+      <c r="V51" t="n">
         <v>400</v>
       </c>
-      <c r="U51" t="n">
+      <c r="W51" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3918,42 +4228,48 @@
         <v>20</v>
       </c>
       <c r="I52" t="n">
-        <v>0.035509789</v>
+        <v>0.026800644</v>
       </c>
       <c r="J52" t="n">
-        <v>0.052262986</v>
+        <v>0.040512502</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.012353802</v>
+        <v>0.060314012</v>
       </c>
       <c r="L52" t="n">
-        <v>0.025064945</v>
+        <v>0.019696498</v>
       </c>
       <c r="M52" t="n">
-        <v>0.005193782</v>
+        <v>0.004300869</v>
       </c>
       <c r="N52" t="n">
-        <v>20000768</v>
+        <v>20348928</v>
       </c>
       <c r="O52" t="n">
-        <v>20000768</v>
+        <v>20348928</v>
       </c>
       <c r="P52" t="n">
-        <v>20000768</v>
+        <v>20348928</v>
       </c>
       <c r="Q52" t="n">
-        <v>20000768</v>
+        <v>20348928</v>
       </c>
       <c r="R52" t="n">
-        <v>20000768</v>
+        <v>20348928</v>
       </c>
       <c r="S52" t="n">
+        <v>264</v>
+      </c>
+      <c r="T52" t="n">
+        <v>64</v>
+      </c>
+      <c r="U52" t="n">
         <v>240</v>
       </c>
-      <c r="T52" t="n">
+      <c r="V52" t="n">
         <v>240</v>
       </c>
-      <c r="U52" t="n">
+      <c r="W52" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3985,42 +4301,48 @@
         <v>20</v>
       </c>
       <c r="I53" t="n">
-        <v>0.041313946</v>
+        <v>0.031090355</v>
       </c>
       <c r="J53" t="n">
-        <v>0.106743574</v>
+        <v>0.085234511</v>
       </c>
       <c r="K53" t="n">
-        <v>0.168625653</v>
+        <v>0.13571018</v>
       </c>
       <c r="L53" t="n">
-        <v>0.013858259</v>
+        <v>0.010516989</v>
       </c>
       <c r="M53" t="n">
-        <v>0.005730557</v>
+        <v>0.004175365</v>
       </c>
       <c r="N53" t="n">
-        <v>20000768</v>
+        <v>20327833.6</v>
       </c>
       <c r="O53" t="n">
-        <v>20000768</v>
+        <v>20310630.4</v>
       </c>
       <c r="P53" t="n">
-        <v>20000768</v>
+        <v>20327219.2</v>
       </c>
       <c r="Q53" t="n">
-        <v>20000768</v>
+        <v>20347289.6</v>
       </c>
       <c r="R53" t="n">
-        <v>20000768</v>
+        <v>20347289.6</v>
       </c>
       <c r="S53" t="n">
+        <v>304</v>
+      </c>
+      <c r="T53" t="n">
+        <v>64</v>
+      </c>
+      <c r="U53" t="n">
         <v>720</v>
       </c>
-      <c r="T53" t="n">
+      <c r="V53" t="n">
         <v>720</v>
       </c>
-      <c r="U53" t="n">
+      <c r="W53" t="n">
         <v>72</v>
       </c>
     </row>
@@ -4052,42 +4374,48 @@
         <v>20</v>
       </c>
       <c r="I54" t="n">
-        <v>0.042129695</v>
+        <v>0.031044722</v>
       </c>
       <c r="J54" t="n">
-        <v>0.096929157</v>
+        <v>0.07113760700000001</v>
       </c>
       <c r="K54" t="n">
-        <v>0.149084425</v>
+        <v>0.108101082</v>
       </c>
       <c r="L54" t="n">
-        <v>0.018696797</v>
+        <v>0.015240622</v>
       </c>
       <c r="M54" t="n">
-        <v>0.005098128</v>
+        <v>0.004218292</v>
       </c>
       <c r="N54" t="n">
-        <v>20058521.6</v>
+        <v>20289945.6</v>
       </c>
       <c r="O54" t="n">
-        <v>20050124.8</v>
+        <v>20294451.2</v>
       </c>
       <c r="P54" t="n">
-        <v>20063232</v>
+        <v>20301619.2</v>
       </c>
       <c r="Q54" t="n">
-        <v>20103577.6</v>
+        <v>20328857.6</v>
       </c>
       <c r="R54" t="n">
-        <v>20103577.6</v>
+        <v>20328857.6</v>
       </c>
       <c r="S54" t="n">
+        <v>304</v>
+      </c>
+      <c r="T54" t="n">
+        <v>64</v>
+      </c>
+      <c r="U54" t="n">
         <v>560</v>
       </c>
-      <c r="T54" t="n">
+      <c r="V54" t="n">
         <v>560</v>
       </c>
-      <c r="U54" t="n">
+      <c r="W54" t="n">
         <v>72</v>
       </c>
     </row>
@@ -4119,42 +4447,48 @@
         <v>20</v>
       </c>
       <c r="I55" t="n">
-        <v>0.040404296</v>
+        <v>0.031859267</v>
       </c>
       <c r="J55" t="n">
-        <v>0.074601161</v>
+        <v>0.056788063</v>
       </c>
       <c r="K55" t="n">
-        <v>0.110639453</v>
+        <v>0.086132324</v>
       </c>
       <c r="L55" t="n">
-        <v>0.025816262</v>
+        <v>0.019652951</v>
       </c>
       <c r="M55" t="n">
-        <v>0.005337107</v>
+        <v>0.004324555</v>
       </c>
       <c r="N55" t="n">
-        <v>20164608</v>
+        <v>20394188.8</v>
       </c>
       <c r="O55" t="n">
-        <v>20164608</v>
+        <v>20394188.8</v>
       </c>
       <c r="P55" t="n">
-        <v>20164608</v>
+        <v>20394188.8</v>
       </c>
       <c r="Q55" t="n">
-        <v>20164608</v>
+        <v>20406886.4</v>
       </c>
       <c r="R55" t="n">
-        <v>20164608</v>
+        <v>20406886.4</v>
       </c>
       <c r="S55" t="n">
+        <v>304</v>
+      </c>
+      <c r="T55" t="n">
+        <v>64</v>
+      </c>
+      <c r="U55" t="n">
         <v>400</v>
       </c>
-      <c r="T55" t="n">
+      <c r="V55" t="n">
         <v>400</v>
       </c>
-      <c r="U55" t="n">
+      <c r="W55" t="n">
         <v>72</v>
       </c>
     </row>
@@ -4186,42 +4520,48 @@
         <v>20</v>
       </c>
       <c r="I56" t="n">
-        <v>0.04106791</v>
+        <v>0.030666971</v>
       </c>
       <c r="J56" t="n">
-        <v>0.057056665</v>
+        <v>0.044125605</v>
       </c>
       <c r="K56" t="n">
-        <v>0.08799578</v>
+        <v>0.063730288</v>
       </c>
       <c r="L56" t="n">
-        <v>0.032719362</v>
+        <v>0.023893476</v>
       </c>
       <c r="M56" t="n">
-        <v>0.006066597</v>
+        <v>0.004124701</v>
       </c>
       <c r="N56" t="n">
-        <v>20164608</v>
+        <v>20406272</v>
       </c>
       <c r="O56" t="n">
-        <v>20164608</v>
+        <v>20406272</v>
       </c>
       <c r="P56" t="n">
-        <v>20164608</v>
+        <v>20406272</v>
       </c>
       <c r="Q56" t="n">
-        <v>20164608</v>
+        <v>20406272</v>
       </c>
       <c r="R56" t="n">
-        <v>20164608</v>
+        <v>20406272</v>
       </c>
       <c r="S56" t="n">
+        <v>304</v>
+      </c>
+      <c r="T56" t="n">
+        <v>64</v>
+      </c>
+      <c r="U56" t="n">
         <v>240</v>
       </c>
-      <c r="T56" t="n">
+      <c r="V56" t="n">
         <v>240</v>
       </c>
-      <c r="U56" t="n">
+      <c r="W56" t="n">
         <v>72</v>
       </c>
     </row>
@@ -4253,42 +4593,48 @@
         <v>20</v>
       </c>
       <c r="I57" t="n">
-        <v>0.044423366</v>
+        <v>0.036224651</v>
       </c>
       <c r="J57" t="n">
-        <v>0.131464052</v>
+        <v>-1</v>
       </c>
       <c r="K57" t="n">
-        <v>0.11094892</v>
+        <v>0.15816586</v>
       </c>
       <c r="L57" t="n">
-        <v>0.01393466</v>
+        <v>0.010738933</v>
       </c>
       <c r="M57" t="n">
-        <v>0.005314541</v>
+        <v>0.004273784</v>
       </c>
       <c r="N57" t="n">
-        <v>20164608</v>
+        <v>20406272</v>
       </c>
       <c r="O57" t="n">
-        <v>20164608</v>
+        <v>20406272</v>
       </c>
       <c r="P57" t="n">
-        <v>20164608</v>
+        <v>20406272</v>
       </c>
       <c r="Q57" t="n">
-        <v>20164608</v>
+        <v>20406272</v>
       </c>
       <c r="R57" t="n">
-        <v>20164608</v>
+        <v>20406272</v>
       </c>
       <c r="S57" t="n">
+        <v>344</v>
+      </c>
+      <c r="T57" t="n">
+        <v>64</v>
+      </c>
+      <c r="U57" t="n">
         <v>880</v>
       </c>
-      <c r="T57" t="n">
+      <c r="V57" t="n">
         <v>880</v>
       </c>
-      <c r="U57" t="n">
+      <c r="W57" t="n">
         <v>72</v>
       </c>
     </row>
@@ -4320,42 +4666,48 @@
         <v>20</v>
       </c>
       <c r="I58" t="n">
-        <v>0.047838748</v>
+        <v>0.035219514</v>
       </c>
       <c r="J58" t="n">
-        <v>0.122935688</v>
+        <v>0.086094165</v>
       </c>
       <c r="K58" t="n">
-        <v>0.183110332</v>
+        <v>0.13395319</v>
       </c>
       <c r="L58" t="n">
-        <v>0.020189869</v>
+        <v>0.015587068</v>
       </c>
       <c r="M58" t="n">
-        <v>0.005790639</v>
+        <v>0.0043015</v>
       </c>
       <c r="N58" t="n">
-        <v>20182016</v>
+        <v>20406272</v>
       </c>
       <c r="O58" t="n">
-        <v>20183040</v>
+        <v>20406272</v>
       </c>
       <c r="P58" t="n">
-        <v>20183040</v>
+        <v>20406272</v>
       </c>
       <c r="Q58" t="n">
-        <v>20183040</v>
+        <v>20406272</v>
       </c>
       <c r="R58" t="n">
-        <v>20183040</v>
+        <v>20406272</v>
       </c>
       <c r="S58" t="n">
+        <v>344</v>
+      </c>
+      <c r="T58" t="n">
+        <v>64</v>
+      </c>
+      <c r="U58" t="n">
         <v>720</v>
       </c>
-      <c r="T58" t="n">
+      <c r="V58" t="n">
         <v>720</v>
       </c>
-      <c r="U58" t="n">
+      <c r="W58" t="n">
         <v>72</v>
       </c>
     </row>
@@ -4387,42 +4739,48 @@
         <v>20</v>
       </c>
       <c r="I59" t="n">
-        <v>0.047409558</v>
+        <v>0.035983217</v>
       </c>
       <c r="J59" t="n">
-        <v>0.099581409</v>
+        <v>0.074097025</v>
       </c>
       <c r="K59" t="n">
-        <v>0.145213389</v>
+        <v>0.110918081</v>
       </c>
       <c r="L59" t="n">
-        <v>0.024906838</v>
+        <v>0.020174921</v>
       </c>
       <c r="M59" t="n">
-        <v>0.005371594</v>
+        <v>0.004347265</v>
       </c>
       <c r="N59" t="n">
-        <v>20068352</v>
+        <v>20275200</v>
       </c>
       <c r="O59" t="n">
-        <v>20060979.2</v>
+        <v>20267212.8</v>
       </c>
       <c r="P59" t="n">
-        <v>20054630.4</v>
+        <v>20267622.4</v>
       </c>
       <c r="Q59" t="n">
-        <v>20074905.6</v>
+        <v>20281344</v>
       </c>
       <c r="R59" t="n">
-        <v>20074905.6</v>
+        <v>20281344</v>
       </c>
       <c r="S59" t="n">
+        <v>344</v>
+      </c>
+      <c r="T59" t="n">
+        <v>64</v>
+      </c>
+      <c r="U59" t="n">
         <v>560</v>
       </c>
-      <c r="T59" t="n">
+      <c r="V59" t="n">
         <v>560</v>
       </c>
-      <c r="U59" t="n">
+      <c r="W59" t="n">
         <v>72</v>
       </c>
     </row>
@@ -4454,42 +4812,48 @@
         <v>20</v>
       </c>
       <c r="I60" t="n">
-        <v>0.046874821</v>
+        <v>0.036433387</v>
       </c>
       <c r="J60" t="n">
-        <v>0.086675823</v>
+        <v>0.063802576</v>
       </c>
       <c r="K60" t="n">
-        <v>0.117728901</v>
+        <v>0.09342060100000001</v>
       </c>
       <c r="L60" t="n">
-        <v>0.033290851</v>
+        <v>0.024869192</v>
       </c>
       <c r="M60" t="n">
-        <v>0.005524528</v>
+        <v>0.004312313</v>
       </c>
       <c r="N60" t="n">
-        <v>20017152</v>
+        <v>20325990.4</v>
       </c>
       <c r="O60" t="n">
-        <v>20017152</v>
+        <v>20325990.4</v>
       </c>
       <c r="P60" t="n">
-        <v>20017152</v>
+        <v>20325990.4</v>
       </c>
       <c r="Q60" t="n">
-        <v>20017152</v>
+        <v>20325990.4</v>
       </c>
       <c r="R60" t="n">
-        <v>20017152</v>
+        <v>20325990.4</v>
       </c>
       <c r="S60" t="n">
+        <v>344</v>
+      </c>
+      <c r="T60" t="n">
+        <v>64</v>
+      </c>
+      <c r="U60" t="n">
         <v>400</v>
       </c>
-      <c r="T60" t="n">
+      <c r="V60" t="n">
         <v>400</v>
       </c>
-      <c r="U60" t="n">
+      <c r="W60" t="n">
         <v>72</v>
       </c>
     </row>
@@ -4521,42 +4885,48 @@
         <v>20</v>
       </c>
       <c r="I61" t="n">
-        <v>0.04540323</v>
+        <v>0.034396553</v>
       </c>
       <c r="J61" t="n">
-        <v>0.061028206</v>
+        <v>0.048517692</v>
       </c>
       <c r="K61" t="n">
-        <v>0.088090205</v>
+        <v>0.068866515</v>
       </c>
       <c r="L61" t="n">
-        <v>0.036093879</v>
+        <v>0.0288867</v>
       </c>
       <c r="M61" t="n">
-        <v>0.005675745</v>
+        <v>0.004243791</v>
       </c>
       <c r="N61" t="n">
-        <v>20017152</v>
+        <v>20320256</v>
       </c>
       <c r="O61" t="n">
-        <v>20017152</v>
+        <v>20320256</v>
       </c>
       <c r="P61" t="n">
-        <v>20017152</v>
+        <v>20320256</v>
       </c>
       <c r="Q61" t="n">
-        <v>20017152</v>
+        <v>20320256</v>
       </c>
       <c r="R61" t="n">
-        <v>20017152</v>
+        <v>20320256</v>
       </c>
       <c r="S61" t="n">
+        <v>344</v>
+      </c>
+      <c r="T61" t="n">
+        <v>64</v>
+      </c>
+      <c r="U61" t="n">
         <v>240</v>
       </c>
-      <c r="T61" t="n">
+      <c r="V61" t="n">
         <v>240</v>
       </c>
-      <c r="U61" t="n">
+      <c r="W61" t="n">
         <v>72</v>
       </c>
     </row>

--- a/SchemeHIBME/SchemeAnonymousME.xlsx
+++ b/SchemeHIBME/SchemeAnonymousME.xlsx
@@ -578,34 +578,34 @@
         <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>0.042560875</v>
+        <v>0.043066402</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09228626500000001</v>
+        <v>0.089342967</v>
       </c>
       <c r="K2" t="n">
-        <v>0.14904778</v>
+        <v>0.148344703</v>
       </c>
       <c r="L2" t="n">
-        <v>0.026744604</v>
+        <v>0.02673232</v>
       </c>
       <c r="M2" t="n">
-        <v>0.013668931</v>
+        <v>0.013028348</v>
       </c>
       <c r="N2" t="n">
-        <v>17816780.8</v>
+        <v>17621196.8</v>
       </c>
       <c r="O2" t="n">
-        <v>17816780.8</v>
+        <v>17621196.8</v>
       </c>
       <c r="P2" t="n">
-        <v>17816780.8</v>
+        <v>17621196.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>17869209.6</v>
+        <v>17665024</v>
       </c>
       <c r="R2" t="n">
-        <v>17869209.6</v>
+        <v>17665024</v>
       </c>
       <c r="S2" t="n">
         <v>184</v>
@@ -651,34 +651,34 @@
         <v>20</v>
       </c>
       <c r="I3" t="n">
-        <v>0.061187661</v>
+        <v>0.058104013</v>
       </c>
       <c r="J3" t="n">
-        <v>0.15801295</v>
+        <v>0.153372267</v>
       </c>
       <c r="K3" t="n">
-        <v>0.240021944</v>
+        <v>0.240293584</v>
       </c>
       <c r="L3" t="n">
-        <v>-1</v>
+        <v>0.026576409</v>
       </c>
       <c r="M3" t="n">
-        <v>0.014574575</v>
+        <v>0.014285317</v>
       </c>
       <c r="N3" t="n">
-        <v>17887232</v>
+        <v>17756160</v>
       </c>
       <c r="O3" t="n">
-        <v>17887232</v>
+        <v>17756160</v>
       </c>
       <c r="P3" t="n">
-        <v>17887232</v>
+        <v>17756160</v>
       </c>
       <c r="Q3" t="n">
-        <v>17887232</v>
+        <v>17756160</v>
       </c>
       <c r="R3" t="n">
-        <v>17887232</v>
+        <v>17756160</v>
       </c>
       <c r="S3" t="n">
         <v>224</v>
@@ -724,34 +724,34 @@
         <v>20</v>
       </c>
       <c r="I4" t="n">
-        <v>0.059063649</v>
+        <v>0.071172341</v>
       </c>
       <c r="J4" t="n">
-        <v>0.110676527</v>
+        <v>0.122279078</v>
       </c>
       <c r="K4" t="n">
-        <v>0.166945815</v>
+        <v>0.194293965</v>
       </c>
       <c r="L4" t="n">
-        <v>0.039640176</v>
+        <v>0.048291953</v>
       </c>
       <c r="M4" t="n">
-        <v>0.013647485</v>
+        <v>0.017292435</v>
       </c>
       <c r="N4" t="n">
-        <v>17887232</v>
+        <v>17756160</v>
       </c>
       <c r="O4" t="n">
-        <v>17887232</v>
+        <v>17756160</v>
       </c>
       <c r="P4" t="n">
-        <v>17887232</v>
+        <v>17756160</v>
       </c>
       <c r="Q4" t="n">
-        <v>17887232</v>
+        <v>17756160</v>
       </c>
       <c r="R4" t="n">
-        <v>17887232</v>
+        <v>17756160</v>
       </c>
       <c r="S4" t="n">
         <v>224</v>
@@ -797,34 +797,34 @@
         <v>20</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0731475</v>
+        <v>0.074439172</v>
       </c>
       <c r="J5" t="n">
-        <v>0.202747202</v>
+        <v>0.210061504</v>
       </c>
       <c r="K5" t="n">
-        <v>0.318856835</v>
+        <v>0.341190364</v>
       </c>
       <c r="L5" t="n">
-        <v>0.026816618</v>
+        <v>0.029054021</v>
       </c>
       <c r="M5" t="n">
-        <v>0.013934076</v>
+        <v>0.013551139</v>
       </c>
       <c r="N5" t="n">
-        <v>18086912</v>
+        <v>17756160</v>
       </c>
       <c r="O5" t="n">
-        <v>18086912</v>
+        <v>17756160</v>
       </c>
       <c r="P5" t="n">
-        <v>18086912</v>
+        <v>17756160</v>
       </c>
       <c r="Q5" t="n">
-        <v>18095513.6</v>
+        <v>17756160</v>
       </c>
       <c r="R5" t="n">
-        <v>18095513.6</v>
+        <v>17756160</v>
       </c>
       <c r="S5" t="n">
         <v>264</v>
@@ -870,34 +870,34 @@
         <v>20</v>
       </c>
       <c r="I6" t="n">
-        <v>-1</v>
+        <v>0.08941502</v>
       </c>
       <c r="J6" t="n">
-        <v>0.162342966</v>
+        <v>0.201969365</v>
       </c>
       <c r="K6" t="n">
-        <v>0.241489375</v>
+        <v>0.308069791</v>
       </c>
       <c r="L6" t="n">
-        <v>0.038636899</v>
+        <v>0.052448452</v>
       </c>
       <c r="M6" t="n">
-        <v>0.013269842</v>
+        <v>0.017940767</v>
       </c>
       <c r="N6" t="n">
-        <v>18167193.6</v>
+        <v>17756160</v>
       </c>
       <c r="O6" t="n">
-        <v>18167193.6</v>
+        <v>17756160</v>
       </c>
       <c r="P6" t="n">
-        <v>18167193.6</v>
+        <v>17756160</v>
       </c>
       <c r="Q6" t="n">
-        <v>18167193.6</v>
+        <v>17756160</v>
       </c>
       <c r="R6" t="n">
-        <v>18167193.6</v>
+        <v>17756160</v>
       </c>
       <c r="S6" t="n">
         <v>264</v>
@@ -943,34 +943,34 @@
         <v>20</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07026331399999999</v>
+        <v>0.07868668299999999</v>
       </c>
       <c r="J7" t="n">
-        <v>0.119081771</v>
+        <v>0.131385713</v>
       </c>
       <c r="K7" t="n">
-        <v>0.177346456</v>
+        <v>0.19740237</v>
       </c>
       <c r="L7" t="n">
-        <v>0.054080927</v>
+        <v>0.058356129</v>
       </c>
       <c r="M7" t="n">
-        <v>0.013696706</v>
+        <v>0.014616172</v>
       </c>
       <c r="N7" t="n">
-        <v>18205286.4</v>
+        <v>18009088</v>
       </c>
       <c r="O7" t="n">
-        <v>18205286.4</v>
+        <v>18009088</v>
       </c>
       <c r="P7" t="n">
-        <v>18205286.4</v>
+        <v>18022400</v>
       </c>
       <c r="Q7" t="n">
-        <v>18205286.4</v>
+        <v>18022400</v>
       </c>
       <c r="R7" t="n">
-        <v>18205286.4</v>
+        <v>18022400</v>
       </c>
       <c r="S7" t="n">
         <v>264</v>
@@ -1016,34 +1016,34 @@
         <v>20</v>
       </c>
       <c r="I8" t="n">
-        <v>0.086397445</v>
+        <v>0.087690534</v>
       </c>
       <c r="J8" t="n">
-        <v>0.258961022</v>
+        <v>0.258997521</v>
       </c>
       <c r="K8" t="n">
-        <v>0.400944364</v>
+        <v>0.40910727</v>
       </c>
       <c r="L8" t="n">
-        <v>0.026091754</v>
+        <v>0.027372572</v>
       </c>
       <c r="M8" t="n">
-        <v>0.013752091</v>
+        <v>0.013552323</v>
       </c>
       <c r="N8" t="n">
-        <v>18242355.2</v>
+        <v>18115379.2</v>
       </c>
       <c r="O8" t="n">
-        <v>18242355.2</v>
+        <v>18115379.2</v>
       </c>
       <c r="P8" t="n">
-        <v>18242355.2</v>
+        <v>18118246.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>18248089.6</v>
+        <v>18118246.4</v>
       </c>
       <c r="R8" t="n">
-        <v>18248089.6</v>
+        <v>18118246.4</v>
       </c>
       <c r="S8" t="n">
         <v>304</v>
@@ -1089,34 +1089,34 @@
         <v>20</v>
       </c>
       <c r="I9" t="n">
-        <v>0.084767461</v>
+        <v>0.09751365100000001</v>
       </c>
       <c r="J9" t="n">
-        <v>0.212970674</v>
+        <v>0.243419365</v>
       </c>
       <c r="K9" t="n">
-        <v>0.318098152</v>
+        <v>0.376226617</v>
       </c>
       <c r="L9" t="n">
-        <v>-1</v>
+        <v>0.045256167</v>
       </c>
       <c r="M9" t="n">
-        <v>0.013346398</v>
+        <v>0.0158509</v>
       </c>
       <c r="N9" t="n">
-        <v>18345574.4</v>
+        <v>18124800</v>
       </c>
       <c r="O9" t="n">
-        <v>18345574.4</v>
+        <v>18124800</v>
       </c>
       <c r="P9" t="n">
-        <v>18345574.4</v>
+        <v>18124800</v>
       </c>
       <c r="Q9" t="n">
-        <v>18345574.4</v>
+        <v>18124800</v>
       </c>
       <c r="R9" t="n">
-        <v>18345574.4</v>
+        <v>18124800</v>
       </c>
       <c r="S9" t="n">
         <v>304</v>
@@ -1162,34 +1162,34 @@
         <v>20</v>
       </c>
       <c r="I10" t="n">
-        <v>0.083429801</v>
+        <v>0.091033105</v>
       </c>
       <c r="J10" t="n">
-        <v>0.171930289</v>
+        <v>0.185968484</v>
       </c>
       <c r="K10" t="n">
-        <v>0.256697536</v>
+        <v>0.276579757</v>
       </c>
       <c r="L10" t="n">
-        <v>0.052877975</v>
+        <v>0.059462999</v>
       </c>
       <c r="M10" t="n">
-        <v>0.013476431</v>
+        <v>0.014730241</v>
       </c>
       <c r="N10" t="n">
-        <v>18345984</v>
+        <v>18124800</v>
       </c>
       <c r="O10" t="n">
-        <v>18345984</v>
+        <v>18124800</v>
       </c>
       <c r="P10" t="n">
-        <v>18345984</v>
+        <v>18124800</v>
       </c>
       <c r="Q10" t="n">
-        <v>18345984</v>
+        <v>18124800</v>
       </c>
       <c r="R10" t="n">
-        <v>18345984</v>
+        <v>18124800</v>
       </c>
       <c r="S10" t="n">
         <v>304</v>
@@ -1235,34 +1235,34 @@
         <v>20</v>
       </c>
       <c r="I11" t="n">
-        <v>0.087164032</v>
+        <v>0.088763886</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1342152</v>
+        <v>0.140325156</v>
       </c>
       <c r="K11" t="n">
-        <v>0.194260085</v>
+        <v>0.203454203</v>
       </c>
       <c r="L11" t="n">
-        <v>0.06723712699999999</v>
+        <v>0.069188233</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01334089</v>
+        <v>0.014653411</v>
       </c>
       <c r="N11" t="n">
-        <v>18345984</v>
+        <v>18124800</v>
       </c>
       <c r="O11" t="n">
-        <v>18345984</v>
+        <v>18124800</v>
       </c>
       <c r="P11" t="n">
-        <v>18345984</v>
+        <v>18124800</v>
       </c>
       <c r="Q11" t="n">
-        <v>18345984</v>
+        <v>18124800</v>
       </c>
       <c r="R11" t="n">
-        <v>18345984</v>
+        <v>18124800</v>
       </c>
       <c r="S11" t="n">
         <v>304</v>
@@ -1308,34 +1308,34 @@
         <v>20</v>
       </c>
       <c r="I12" t="n">
-        <v>0.103213918</v>
+        <v>0.101636395</v>
       </c>
       <c r="J12" t="n">
-        <v>0.32897476</v>
+        <v>0.320272801</v>
       </c>
       <c r="K12" t="n">
-        <v>0.498027205</v>
+        <v>0.497356672</v>
       </c>
       <c r="L12" t="n">
-        <v>0.027624774</v>
+        <v>0.027746323</v>
       </c>
       <c r="M12" t="n">
-        <v>0.014681208</v>
+        <v>0.013874539</v>
       </c>
       <c r="N12" t="n">
-        <v>18345984</v>
+        <v>18124800</v>
       </c>
       <c r="O12" t="n">
-        <v>18345984</v>
+        <v>18124800</v>
       </c>
       <c r="P12" t="n">
-        <v>18345984</v>
+        <v>18124800</v>
       </c>
       <c r="Q12" t="n">
-        <v>18345984</v>
+        <v>18124800</v>
       </c>
       <c r="R12" t="n">
-        <v>18345984</v>
+        <v>18124800</v>
       </c>
       <c r="S12" t="n">
         <v>344</v>
@@ -1381,34 +1381,34 @@
         <v>20</v>
       </c>
       <c r="I13" t="n">
-        <v>0.103080273</v>
+        <v>0.105009217</v>
       </c>
       <c r="J13" t="n">
-        <v>0.28005507</v>
+        <v>0.28676692</v>
       </c>
       <c r="K13" t="n">
-        <v>-1</v>
+        <v>0.433370184</v>
       </c>
       <c r="L13" t="n">
-        <v>0.041707063</v>
+        <v>0.041531224</v>
       </c>
       <c r="M13" t="n">
-        <v>0.014127719</v>
+        <v>0.014352771</v>
       </c>
       <c r="N13" t="n">
-        <v>18345984</v>
+        <v>18124800</v>
       </c>
       <c r="O13" t="n">
-        <v>18345984</v>
+        <v>18124800</v>
       </c>
       <c r="P13" t="n">
-        <v>18345984</v>
+        <v>18124800</v>
       </c>
       <c r="Q13" t="n">
-        <v>18345984</v>
+        <v>18124800</v>
       </c>
       <c r="R13" t="n">
-        <v>18345984</v>
+        <v>18124800</v>
       </c>
       <c r="S13" t="n">
         <v>344</v>
@@ -1454,34 +1454,34 @@
         <v>20</v>
       </c>
       <c r="I14" t="n">
-        <v>0.099408078</v>
+        <v>0.107171845</v>
       </c>
       <c r="J14" t="n">
-        <v>0.231049049</v>
+        <v>0.252140729</v>
       </c>
       <c r="K14" t="n">
-        <v>0.344168973</v>
+        <v>0.368092379</v>
       </c>
       <c r="L14" t="n">
-        <v>0.053383601</v>
+        <v>0.058356864</v>
       </c>
       <c r="M14" t="n">
-        <v>0.013353872</v>
+        <v>0.014735911</v>
       </c>
       <c r="N14" t="n">
-        <v>18552217.6</v>
+        <v>18297856</v>
       </c>
       <c r="O14" t="n">
-        <v>18552217.6</v>
+        <v>18297856</v>
       </c>
       <c r="P14" t="n">
-        <v>18552217.6</v>
+        <v>18311168</v>
       </c>
       <c r="Q14" t="n">
-        <v>18552217.6</v>
+        <v>18311168</v>
       </c>
       <c r="R14" t="n">
-        <v>18552217.6</v>
+        <v>18311168</v>
       </c>
       <c r="S14" t="n">
         <v>344</v>
@@ -1527,34 +1527,34 @@
         <v>20</v>
       </c>
       <c r="I15" t="n">
-        <v>0.096753109</v>
+        <v>0.119956921</v>
       </c>
       <c r="J15" t="n">
-        <v>0.191816497</v>
+        <v>0.232408505</v>
       </c>
       <c r="K15" t="n">
-        <v>-1</v>
+        <v>0.340633248</v>
       </c>
       <c r="L15" t="n">
-        <v>0.06766994</v>
+        <v>0.08326204700000001</v>
       </c>
       <c r="M15" t="n">
-        <v>0.013394237</v>
+        <v>0.015838412</v>
       </c>
       <c r="N15" t="n">
-        <v>18563072</v>
+        <v>18391040</v>
       </c>
       <c r="O15" t="n">
-        <v>18563072</v>
+        <v>18391040</v>
       </c>
       <c r="P15" t="n">
-        <v>18563072</v>
+        <v>18391040</v>
       </c>
       <c r="Q15" t="n">
-        <v>18563072</v>
+        <v>18391040</v>
       </c>
       <c r="R15" t="n">
-        <v>18563072</v>
+        <v>18391040</v>
       </c>
       <c r="S15" t="n">
         <v>344</v>
@@ -1600,34 +1600,34 @@
         <v>20</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09758965999999999</v>
+        <v>0.112600983</v>
       </c>
       <c r="J16" t="n">
-        <v>0.146545732</v>
+        <v>0.17145767</v>
       </c>
       <c r="K16" t="n">
-        <v>0.203830385</v>
+        <v>0.237504982</v>
       </c>
       <c r="L16" t="n">
-        <v>0.07866295600000001</v>
+        <v>0.085942976</v>
       </c>
       <c r="M16" t="n">
-        <v>0.013660157</v>
+        <v>0.014856602</v>
       </c>
       <c r="N16" t="n">
-        <v>18563072</v>
+        <v>18391040</v>
       </c>
       <c r="O16" t="n">
-        <v>18563072</v>
+        <v>18391040</v>
       </c>
       <c r="P16" t="n">
-        <v>18563072</v>
+        <v>18391040</v>
       </c>
       <c r="Q16" t="n">
-        <v>18563072</v>
+        <v>18391040</v>
       </c>
       <c r="R16" t="n">
-        <v>18563072</v>
+        <v>18391040</v>
       </c>
       <c r="S16" t="n">
         <v>344</v>
@@ -1673,34 +1673,34 @@
         <v>20</v>
       </c>
       <c r="I17" t="n">
-        <v>0.058295703</v>
+        <v>0.066292165</v>
       </c>
       <c r="J17" t="n">
-        <v>0.121079886</v>
+        <v>0.132276712</v>
       </c>
       <c r="K17" t="n">
-        <v>0.196241474</v>
+        <v>0.215837261</v>
       </c>
       <c r="L17" t="n">
-        <v>0.035546207</v>
+        <v>0.038556544</v>
       </c>
       <c r="M17" t="n">
-        <v>0.018778968</v>
+        <v>0.019212564</v>
       </c>
       <c r="N17" t="n">
-        <v>18563072</v>
+        <v>18391040</v>
       </c>
       <c r="O17" t="n">
-        <v>18563072</v>
+        <v>18391040</v>
       </c>
       <c r="P17" t="n">
-        <v>18563072</v>
+        <v>18391040</v>
       </c>
       <c r="Q17" t="n">
-        <v>18563072</v>
+        <v>18391040</v>
       </c>
       <c r="R17" t="n">
-        <v>18563072</v>
+        <v>18391040</v>
       </c>
       <c r="S17" t="n">
         <v>184</v>
@@ -1746,34 +1746,34 @@
         <v>20</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07927455899999999</v>
+        <v>0.078880644</v>
       </c>
       <c r="J18" t="n">
-        <v>0.205050468</v>
+        <v>0.206891068</v>
       </c>
       <c r="K18" t="n">
-        <v>0.319724298</v>
+        <v>0.316494542</v>
       </c>
       <c r="L18" t="n">
-        <v>-1</v>
+        <v>0.035905739</v>
       </c>
       <c r="M18" t="n">
-        <v>0.018238378</v>
+        <v>0.01887011</v>
       </c>
       <c r="N18" t="n">
-        <v>18563072</v>
+        <v>18391040</v>
       </c>
       <c r="O18" t="n">
-        <v>18563072</v>
+        <v>18391040</v>
       </c>
       <c r="P18" t="n">
-        <v>18563072</v>
+        <v>18391040</v>
       </c>
       <c r="Q18" t="n">
-        <v>18563072</v>
+        <v>18391040</v>
       </c>
       <c r="R18" t="n">
-        <v>18563072</v>
+        <v>18391040</v>
       </c>
       <c r="S18" t="n">
         <v>224</v>
@@ -1819,34 +1819,34 @@
         <v>20</v>
       </c>
       <c r="I19" t="n">
-        <v>0.07543273</v>
+        <v>0.07956089099999999</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1406057</v>
+        <v>0.140112336</v>
       </c>
       <c r="K19" t="n">
-        <v>0.227930534</v>
+        <v>0.222487491</v>
       </c>
       <c r="L19" t="n">
-        <v>0.054494417</v>
+        <v>0.054979336</v>
       </c>
       <c r="M19" t="n">
-        <v>0.018054163</v>
+        <v>0.018311762</v>
       </c>
       <c r="N19" t="n">
-        <v>18563072</v>
+        <v>18391040</v>
       </c>
       <c r="O19" t="n">
-        <v>18563072</v>
+        <v>18391040</v>
       </c>
       <c r="P19" t="n">
-        <v>18563072</v>
+        <v>18391040</v>
       </c>
       <c r="Q19" t="n">
-        <v>18563072</v>
+        <v>18391040</v>
       </c>
       <c r="R19" t="n">
-        <v>18563072</v>
+        <v>18391040</v>
       </c>
       <c r="S19" t="n">
         <v>224</v>
@@ -1892,34 +1892,34 @@
         <v>20</v>
       </c>
       <c r="I20" t="n">
-        <v>0.094723845</v>
+        <v>0.099756334</v>
       </c>
       <c r="J20" t="n">
-        <v>0.26711756</v>
+        <v>0.279946784</v>
       </c>
       <c r="K20" t="n">
-        <v>0.413160384</v>
+        <v>0.445799301</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03496393</v>
+        <v>0.037721518</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01838181</v>
+        <v>0.019189208</v>
       </c>
       <c r="N20" t="n">
-        <v>18563072</v>
+        <v>18391040</v>
       </c>
       <c r="O20" t="n">
-        <v>18563072</v>
+        <v>18391040</v>
       </c>
       <c r="P20" t="n">
-        <v>18563072</v>
+        <v>18391040</v>
       </c>
       <c r="Q20" t="n">
-        <v>18563072</v>
+        <v>18391040</v>
       </c>
       <c r="R20" t="n">
-        <v>18563072</v>
+        <v>18391040</v>
       </c>
       <c r="S20" t="n">
         <v>264</v>
@@ -1965,34 +1965,34 @@
         <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>0.096762526</v>
+        <v>0.09407370600000001</v>
       </c>
       <c r="J21" t="n">
-        <v>0.210658813</v>
+        <v>0.218563698</v>
       </c>
       <c r="K21" t="n">
-        <v>0.325779879</v>
+        <v>0.327804632</v>
       </c>
       <c r="L21" t="n">
-        <v>-1</v>
+        <v>0.053147238</v>
       </c>
       <c r="M21" t="n">
-        <v>0.017841268</v>
+        <v>0.018168483</v>
       </c>
       <c r="N21" t="n">
-        <v>18563072</v>
+        <v>18391040</v>
       </c>
       <c r="O21" t="n">
-        <v>18563072</v>
+        <v>18391040</v>
       </c>
       <c r="P21" t="n">
-        <v>18563072</v>
+        <v>18391040</v>
       </c>
       <c r="Q21" t="n">
-        <v>18563072</v>
+        <v>18391040</v>
       </c>
       <c r="R21" t="n">
-        <v>18563072</v>
+        <v>18391040</v>
       </c>
       <c r="S21" t="n">
         <v>264</v>
@@ -2038,34 +2038,34 @@
         <v>20</v>
       </c>
       <c r="I22" t="n">
-        <v>0.094358909</v>
+        <v>0.098379667</v>
       </c>
       <c r="J22" t="n">
-        <v>0.160655069</v>
+        <v>0.164138794</v>
       </c>
       <c r="K22" t="n">
-        <v>0.23907268</v>
+        <v>0.249227156</v>
       </c>
       <c r="L22" t="n">
-        <v>0.07210986599999999</v>
+        <v>0.07483318799999999</v>
       </c>
       <c r="M22" t="n">
-        <v>0.018355954</v>
+        <v>0.019661896</v>
       </c>
       <c r="N22" t="n">
-        <v>18762752</v>
+        <v>18566758.4</v>
       </c>
       <c r="O22" t="n">
-        <v>18762752</v>
+        <v>18566758.4</v>
       </c>
       <c r="P22" t="n">
-        <v>18762752</v>
+        <v>18580275.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>18762752</v>
+        <v>18580275.2</v>
       </c>
       <c r="R22" t="n">
-        <v>18776064</v>
+        <v>18580275.2</v>
       </c>
       <c r="S22" t="n">
         <v>264</v>
@@ -2111,34 +2111,34 @@
         <v>20</v>
       </c>
       <c r="I23" t="n">
-        <v>0.114280987</v>
+        <v>0.113138802</v>
       </c>
       <c r="J23" t="n">
-        <v>0.35210799</v>
+        <v>0.338561917</v>
       </c>
       <c r="K23" t="n">
-        <v>0.536162913</v>
+        <v>0.52228825</v>
       </c>
       <c r="L23" t="n">
-        <v>0.036031806</v>
+        <v>0.035413063</v>
       </c>
       <c r="M23" t="n">
-        <v>0.019330728</v>
+        <v>0.017723646</v>
       </c>
       <c r="N23" t="n">
-        <v>18829312</v>
+        <v>18676121.6</v>
       </c>
       <c r="O23" t="n">
-        <v>18829312</v>
+        <v>18676940.8</v>
       </c>
       <c r="P23" t="n">
-        <v>18829312</v>
+        <v>18676940.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>18829312</v>
+        <v>18676940.8</v>
       </c>
       <c r="R23" t="n">
-        <v>18829312</v>
+        <v>18676940.8</v>
       </c>
       <c r="S23" t="n">
         <v>304</v>
@@ -2184,34 +2184,34 @@
         <v>20</v>
       </c>
       <c r="I24" t="n">
-        <v>0.107782865</v>
+        <v>0.112984289</v>
       </c>
       <c r="J24" t="n">
-        <v>-1</v>
+        <v>0.28431089</v>
       </c>
       <c r="K24" t="n">
-        <v>0.424109542</v>
+        <v>0.436080529</v>
       </c>
       <c r="L24" t="n">
-        <v>0.052881265</v>
+        <v>0.052894841</v>
       </c>
       <c r="M24" t="n">
-        <v>0.018612492</v>
+        <v>0.01897675</v>
       </c>
       <c r="N24" t="n">
-        <v>18937856</v>
+        <v>18677760</v>
       </c>
       <c r="O24" t="n">
-        <v>18937856</v>
+        <v>18677760</v>
       </c>
       <c r="P24" t="n">
-        <v>18959564.8</v>
+        <v>18677760</v>
       </c>
       <c r="Q24" t="n">
-        <v>18959564.8</v>
+        <v>18677760</v>
       </c>
       <c r="R24" t="n">
-        <v>18959564.8</v>
+        <v>18677760</v>
       </c>
       <c r="S24" t="n">
         <v>304</v>
@@ -2257,34 +2257,34 @@
         <v>20</v>
       </c>
       <c r="I25" t="n">
-        <v>0.112138557</v>
+        <v>0.11197576</v>
       </c>
       <c r="J25" t="n">
-        <v>0.231660783</v>
+        <v>0.230860013</v>
       </c>
       <c r="K25" t="n">
-        <v>0.337724841</v>
+        <v>0.341244022</v>
       </c>
       <c r="L25" t="n">
-        <v>0.07198795099999999</v>
+        <v>0.07146888699999999</v>
       </c>
       <c r="M25" t="n">
-        <v>0.017985463</v>
+        <v>0.018180798</v>
       </c>
       <c r="N25" t="n">
-        <v>19263488</v>
+        <v>18677760</v>
       </c>
       <c r="O25" t="n">
-        <v>19263488</v>
+        <v>18677760</v>
       </c>
       <c r="P25" t="n">
-        <v>19263488</v>
+        <v>18677760</v>
       </c>
       <c r="Q25" t="n">
-        <v>19263488</v>
+        <v>18677760</v>
       </c>
       <c r="R25" t="n">
-        <v>19263488</v>
+        <v>18677760</v>
       </c>
       <c r="S25" t="n">
         <v>304</v>
@@ -2330,34 +2330,34 @@
         <v>20</v>
       </c>
       <c r="I26" t="n">
-        <v>-1</v>
+        <v>0.113098098</v>
       </c>
       <c r="J26" t="n">
-        <v>0.184573734</v>
+        <v>0.181994098</v>
       </c>
       <c r="K26" t="n">
-        <v>0.258569002</v>
+        <v>0.260328289</v>
       </c>
       <c r="L26" t="n">
-        <v>0.093358552</v>
+        <v>0.09434271800000001</v>
       </c>
       <c r="M26" t="n">
-        <v>0.018384373</v>
+        <v>0.018417244</v>
       </c>
       <c r="N26" t="n">
-        <v>19263488</v>
+        <v>18677760</v>
       </c>
       <c r="O26" t="n">
-        <v>19263488</v>
+        <v>18677760</v>
       </c>
       <c r="P26" t="n">
-        <v>19263488</v>
+        <v>18677760</v>
       </c>
       <c r="Q26" t="n">
-        <v>19263488</v>
+        <v>18677760</v>
       </c>
       <c r="R26" t="n">
-        <v>19263488</v>
+        <v>18677760</v>
       </c>
       <c r="S26" t="n">
         <v>304</v>
@@ -2403,34 +2403,34 @@
         <v>20</v>
       </c>
       <c r="I27" t="n">
-        <v>0.131698716</v>
+        <v>0.142468599</v>
       </c>
       <c r="J27" t="n">
-        <v>0.418412936</v>
+        <v>0.459489651</v>
       </c>
       <c r="K27" t="n">
-        <v>-1</v>
+        <v>0.688003836</v>
       </c>
       <c r="L27" t="n">
-        <v>0.035153067</v>
+        <v>0.035996322</v>
       </c>
       <c r="M27" t="n">
-        <v>0.018235755</v>
+        <v>0.018631479</v>
       </c>
       <c r="N27" t="n">
-        <v>19263488</v>
+        <v>18677760</v>
       </c>
       <c r="O27" t="n">
-        <v>19263488</v>
+        <v>18677760</v>
       </c>
       <c r="P27" t="n">
-        <v>19263488</v>
+        <v>18677760</v>
       </c>
       <c r="Q27" t="n">
-        <v>19263488</v>
+        <v>18677760</v>
       </c>
       <c r="R27" t="n">
-        <v>19263488</v>
+        <v>18677760</v>
       </c>
       <c r="S27" t="n">
         <v>344</v>
@@ -2476,34 +2476,34 @@
         <v>20</v>
       </c>
       <c r="I28" t="n">
-        <v>0.12931968</v>
+        <v>0.140719393</v>
       </c>
       <c r="J28" t="n">
-        <v>0.351170003</v>
+        <v>0.382354737</v>
       </c>
       <c r="K28" t="n">
-        <v>0.538998699</v>
+        <v>0.58151164</v>
       </c>
       <c r="L28" t="n">
-        <v>0.050560606</v>
+        <v>0.05618499</v>
       </c>
       <c r="M28" t="n">
-        <v>0.017583537</v>
+        <v>0.019258965</v>
       </c>
       <c r="N28" t="n">
-        <v>19263488</v>
+        <v>18677760</v>
       </c>
       <c r="O28" t="n">
-        <v>19263488</v>
+        <v>18677760</v>
       </c>
       <c r="P28" t="n">
-        <v>19263488</v>
+        <v>18677760</v>
       </c>
       <c r="Q28" t="n">
-        <v>19263488</v>
+        <v>18677760</v>
       </c>
       <c r="R28" t="n">
-        <v>19263488</v>
+        <v>18677760</v>
       </c>
       <c r="S28" t="n">
         <v>344</v>
@@ -2549,34 +2549,34 @@
         <v>20</v>
       </c>
       <c r="I29" t="n">
-        <v>0.126311469</v>
+        <v>0.131488069</v>
       </c>
       <c r="J29" t="n">
-        <v>0.297781992</v>
+        <v>0.304253263</v>
       </c>
       <c r="K29" t="n">
-        <v>-1</v>
+        <v>0.451971759</v>
       </c>
       <c r="L29" t="n">
-        <v>0.06811133599999999</v>
+        <v>0.071809548</v>
       </c>
       <c r="M29" t="n">
-        <v>0.01769762</v>
+        <v>0.017396856</v>
       </c>
       <c r="N29" t="n">
-        <v>19452723.2</v>
+        <v>18835046.4</v>
       </c>
       <c r="O29" t="n">
-        <v>19466240</v>
+        <v>18848153.6</v>
       </c>
       <c r="P29" t="n">
-        <v>19466240</v>
+        <v>18848153.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>19466240</v>
+        <v>18848153.6</v>
       </c>
       <c r="R29" t="n">
-        <v>19466240</v>
+        <v>18848153.6</v>
       </c>
       <c r="S29" t="n">
         <v>344</v>
@@ -2622,34 +2622,34 @@
         <v>20</v>
       </c>
       <c r="I30" t="n">
-        <v>0.129985368</v>
+        <v>0.13223476</v>
       </c>
       <c r="J30" t="n">
-        <v>0.252439809</v>
+        <v>0.251987319</v>
       </c>
       <c r="K30" t="n">
-        <v>0.358508778</v>
+        <v>0.362243933</v>
       </c>
       <c r="L30" t="n">
-        <v>0.09164198599999999</v>
+        <v>0.088501023</v>
       </c>
       <c r="M30" t="n">
-        <v>0.017839026</v>
+        <v>0.018308674</v>
       </c>
       <c r="N30" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="O30" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="P30" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="Q30" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="R30" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="S30" t="n">
         <v>344</v>
@@ -2695,34 +2695,34 @@
         <v>20</v>
       </c>
       <c r="I31" t="n">
-        <v>0.131991482</v>
+        <v>0.127816339</v>
       </c>
       <c r="J31" t="n">
-        <v>0.194027185</v>
+        <v>0.196243934</v>
       </c>
       <c r="K31" t="n">
-        <v>-1</v>
+        <v>0.268553234</v>
       </c>
       <c r="L31" t="n">
-        <v>0.104772997</v>
+        <v>0.106852072</v>
       </c>
       <c r="M31" t="n">
-        <v>0.017906213</v>
+        <v>0.017759049</v>
       </c>
       <c r="N31" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="O31" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="P31" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="Q31" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="R31" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="S31" t="n">
         <v>344</v>
@@ -2768,34 +2768,34 @@
         <v>20</v>
       </c>
       <c r="I32" t="n">
-        <v>0.069989491</v>
+        <v>0.070470386</v>
       </c>
       <c r="J32" t="n">
-        <v>0.149360561</v>
+        <v>0.14929075</v>
       </c>
       <c r="K32" t="n">
-        <v>0.24290868</v>
+        <v>0.242206368</v>
       </c>
       <c r="L32" t="n">
-        <v>0.041476238</v>
+        <v>0.043465565</v>
       </c>
       <c r="M32" t="n">
-        <v>0.021597123</v>
+        <v>0.023102039</v>
       </c>
       <c r="N32" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="O32" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="P32" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="Q32" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="R32" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="S32" t="n">
         <v>184</v>
@@ -2841,34 +2841,34 @@
         <v>20</v>
       </c>
       <c r="I33" t="n">
-        <v>0.094458747</v>
+        <v>0.093558567</v>
       </c>
       <c r="J33" t="n">
-        <v>0.241742003</v>
+        <v>0.237672234</v>
       </c>
       <c r="K33" t="n">
-        <v>-1</v>
+        <v>0.378912571</v>
       </c>
       <c r="L33" t="n">
-        <v>0.040709388</v>
+        <v>0.042816738</v>
       </c>
       <c r="M33" t="n">
-        <v>0.022086382</v>
+        <v>0.022511044</v>
       </c>
       <c r="N33" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="O33" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="P33" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="Q33" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="R33" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="S33" t="n">
         <v>224</v>
@@ -2914,34 +2914,34 @@
         <v>20</v>
       </c>
       <c r="I34" t="n">
-        <v>0.09263234100000001</v>
+        <v>0.09440696899999999</v>
       </c>
       <c r="J34" t="n">
-        <v>0.173782361</v>
+        <v>0.171662758</v>
       </c>
       <c r="K34" t="n">
-        <v>0.265935767</v>
+        <v>0.267692295</v>
       </c>
       <c r="L34" t="n">
-        <v>0.06647075400000001</v>
+        <v>0.064325783</v>
       </c>
       <c r="M34" t="n">
-        <v>0.022624552</v>
+        <v>0.021773144</v>
       </c>
       <c r="N34" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="O34" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="P34" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="Q34" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="R34" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="S34" t="n">
         <v>224</v>
@@ -2987,34 +2987,34 @@
         <v>20</v>
       </c>
       <c r="I35" t="n">
-        <v>0.115780854</v>
+        <v>0.11517613</v>
       </c>
       <c r="J35" t="n">
-        <v>0.333579648</v>
+        <v>0.33229515</v>
       </c>
       <c r="K35" t="n">
-        <v>-1</v>
+        <v>0.514067429</v>
       </c>
       <c r="L35" t="n">
-        <v>0.04395808</v>
+        <v>0.041608276</v>
       </c>
       <c r="M35" t="n">
-        <v>0.022835934</v>
+        <v>0.021850602</v>
       </c>
       <c r="N35" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="O35" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="P35" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="Q35" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="R35" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="S35" t="n">
         <v>264</v>
@@ -3060,34 +3060,34 @@
         <v>20</v>
       </c>
       <c r="I36" t="n">
-        <v>0.116429698</v>
+        <v>0.116640809</v>
       </c>
       <c r="J36" t="n">
-        <v>0.263155901</v>
+        <v>0.264005815</v>
       </c>
       <c r="K36" t="n">
-        <v>0.404789865</v>
+        <v>0.406735197</v>
       </c>
       <c r="L36" t="n">
-        <v>0.065184772</v>
+        <v>0.06681537</v>
       </c>
       <c r="M36" t="n">
-        <v>0.022407365</v>
+        <v>0.021571683</v>
       </c>
       <c r="N36" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="O36" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="P36" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="Q36" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="R36" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="S36" t="n">
         <v>264</v>
@@ -3133,34 +3133,34 @@
         <v>20</v>
       </c>
       <c r="I37" t="n">
-        <v>0.126956224</v>
+        <v>0.126684382</v>
       </c>
       <c r="J37" t="n">
-        <v>0.202809191</v>
+        <v>0.215454931</v>
       </c>
       <c r="K37" t="n">
-        <v>0.310916579</v>
+        <v>0.325379207</v>
       </c>
       <c r="L37" t="n">
-        <v>-1</v>
+        <v>0.098903779</v>
       </c>
       <c r="M37" t="n">
-        <v>0.024650526</v>
+        <v>0.024345008</v>
       </c>
       <c r="N37" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="O37" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="P37" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="Q37" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="R37" t="n">
-        <v>19533824</v>
+        <v>18939904</v>
       </c>
       <c r="S37" t="n">
         <v>264</v>
@@ -3206,34 +3206,34 @@
         <v>20</v>
       </c>
       <c r="I38" t="n">
-        <v>0.139952052</v>
+        <v>0.14237313</v>
       </c>
       <c r="J38" t="n">
-        <v>-1</v>
+        <v>0.435898611</v>
       </c>
       <c r="K38" t="n">
-        <v>0.644292021</v>
+        <v>0.671133678</v>
       </c>
       <c r="L38" t="n">
-        <v>0.043398869</v>
+        <v>0.043016669</v>
       </c>
       <c r="M38" t="n">
-        <v>0.022196043</v>
+        <v>0.022029213</v>
       </c>
       <c r="N38" t="n">
-        <v>19709542.4</v>
+        <v>19088588.8</v>
       </c>
       <c r="O38" t="n">
-        <v>19723059.2</v>
+        <v>19102105.6</v>
       </c>
       <c r="P38" t="n">
-        <v>19723059.2</v>
+        <v>19102105.6</v>
       </c>
       <c r="Q38" t="n">
-        <v>19723059.2</v>
+        <v>19102105.6</v>
       </c>
       <c r="R38" t="n">
-        <v>19723059.2</v>
+        <v>19102105.6</v>
       </c>
       <c r="S38" t="n">
         <v>304</v>
@@ -3279,34 +3279,34 @@
         <v>20</v>
       </c>
       <c r="I39" t="n">
-        <v>0.139820158</v>
+        <v>0.142881781</v>
       </c>
       <c r="J39" t="n">
-        <v>0.353232718</v>
+        <v>0.361953555</v>
       </c>
       <c r="K39" t="n">
-        <v>0.531492734</v>
+        <v>0.56029843</v>
       </c>
       <c r="L39" t="n">
-        <v>0.064111376</v>
+        <v>0.06909380800000001</v>
       </c>
       <c r="M39" t="n">
-        <v>0.02212348</v>
+        <v>0.022168502</v>
       </c>
       <c r="N39" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="O39" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="P39" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="Q39" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="R39" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="S39" t="n">
         <v>304</v>
@@ -3352,34 +3352,34 @@
         <v>20</v>
       </c>
       <c r="I40" t="n">
-        <v>0.138295686</v>
+        <v>0.157865089</v>
       </c>
       <c r="J40" t="n">
-        <v>0.288209379</v>
+        <v>0.36749566</v>
       </c>
       <c r="K40" t="n">
-        <v>0.427900183</v>
+        <v>0.5211632819999999</v>
       </c>
       <c r="L40" t="n">
-        <v>0.089581013</v>
+        <v>0.110519461</v>
       </c>
       <c r="M40" t="n">
-        <v>0.02251687</v>
+        <v>0.031963701</v>
       </c>
       <c r="N40" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="O40" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="P40" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="Q40" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="R40" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="S40" t="n">
         <v>304</v>
@@ -3425,34 +3425,34 @@
         <v>20</v>
       </c>
       <c r="I41" t="n">
-        <v>0.134791636</v>
+        <v>0.186750465</v>
       </c>
       <c r="J41" t="n">
-        <v>0.212472034</v>
+        <v>0.296460843</v>
       </c>
       <c r="K41" t="n">
-        <v>0.309570062</v>
+        <v>0.458618271</v>
       </c>
       <c r="L41" t="n">
-        <v>0.109932017</v>
+        <v>0.160466541</v>
       </c>
       <c r="M41" t="n">
-        <v>0.021897686</v>
+        <v>0.030997182</v>
       </c>
       <c r="N41" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="O41" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="P41" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="Q41" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="R41" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="S41" t="n">
         <v>304</v>
@@ -3498,34 +3498,34 @@
         <v>20</v>
       </c>
       <c r="I42" t="n">
-        <v>0.159960413</v>
+        <v>0.204886618</v>
       </c>
       <c r="J42" t="n">
-        <v>-1</v>
+        <v>0.651572597</v>
       </c>
       <c r="K42" t="n">
-        <v>0.807083428</v>
+        <v>0.975244471</v>
       </c>
       <c r="L42" t="n">
-        <v>0.044936061</v>
+        <v>0.051871664</v>
       </c>
       <c r="M42" t="n">
-        <v>0.022213686</v>
+        <v>0.028608462</v>
       </c>
       <c r="N42" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="O42" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="P42" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="Q42" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="R42" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="S42" t="n">
         <v>344</v>
@@ -3571,34 +3571,34 @@
         <v>20</v>
       </c>
       <c r="I43" t="n">
-        <v>-1</v>
+        <v>0.229247947</v>
       </c>
       <c r="J43" t="n">
-        <v>0.463889039</v>
+        <v>0.629759305</v>
       </c>
       <c r="K43" t="n">
-        <v>0.696174681</v>
+        <v>0.97097441</v>
       </c>
       <c r="L43" t="n">
-        <v>0.067170644</v>
+        <v>0.09241175</v>
       </c>
       <c r="M43" t="n">
-        <v>0.023154759</v>
+        <v>0.033365664</v>
       </c>
       <c r="N43" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="O43" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="P43" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="Q43" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="R43" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="S43" t="n">
         <v>344</v>
@@ -3644,34 +3644,34 @@
         <v>20</v>
       </c>
       <c r="I44" t="n">
-        <v>0.16315912</v>
+        <v>0.245703145</v>
       </c>
       <c r="J44" t="n">
-        <v>0.382946169</v>
+        <v>0.553623294</v>
       </c>
       <c r="K44" t="n">
-        <v>-1</v>
+        <v>0.8280626290000001</v>
       </c>
       <c r="L44" t="n">
-        <v>0.088135982</v>
+        <v>0.136470578</v>
       </c>
       <c r="M44" t="n">
-        <v>0.022369766</v>
+        <v>0.032877402</v>
       </c>
       <c r="N44" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="O44" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="P44" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="Q44" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="R44" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="S44" t="n">
         <v>344</v>
@@ -3717,34 +3717,34 @@
         <v>20</v>
       </c>
       <c r="I45" t="n">
-        <v>0.164552951</v>
+        <v>0.246144144</v>
       </c>
       <c r="J45" t="n">
-        <v>0.308933091</v>
+        <v>0.443992225</v>
       </c>
       <c r="K45" t="n">
-        <v>-1</v>
+        <v>0.6639419560000001</v>
       </c>
       <c r="L45" t="n">
-        <v>0.110813498</v>
+        <v>0.172857969</v>
       </c>
       <c r="M45" t="n">
-        <v>0.021682107</v>
+        <v>0.032966086</v>
       </c>
       <c r="N45" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="O45" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="P45" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="Q45" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="R45" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="S45" t="n">
         <v>344</v>
@@ -3790,34 +3790,34 @@
         <v>20</v>
       </c>
       <c r="I46" t="n">
-        <v>0.162270522</v>
+        <v>0.241656767</v>
       </c>
       <c r="J46" t="n">
-        <v>0.24390626</v>
+        <v>0.353464662</v>
       </c>
       <c r="K46" t="n">
-        <v>0.339310443</v>
+        <v>0.491214643</v>
       </c>
       <c r="L46" t="n">
-        <v>0.130001664</v>
+        <v>0.194897173</v>
       </c>
       <c r="M46" t="n">
-        <v>0.021892762</v>
+        <v>0.034121595</v>
       </c>
       <c r="N46" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="O46" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="P46" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="Q46" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="R46" t="n">
-        <v>19804160</v>
+        <v>19210240</v>
       </c>
       <c r="S46" t="n">
         <v>344</v>
@@ -3863,34 +3863,34 @@
         <v>20</v>
       </c>
       <c r="I47" t="n">
-        <v>0.018078613</v>
+        <v>0.028300993</v>
       </c>
       <c r="J47" t="n">
-        <v>0.03141191</v>
+        <v>0.047835968</v>
       </c>
       <c r="K47" t="n">
-        <v>0.052767646</v>
+        <v>0.074939231</v>
       </c>
       <c r="L47" t="n">
-        <v>0.011289537</v>
+        <v>0.015008981</v>
       </c>
       <c r="M47" t="n">
-        <v>0.004395759</v>
+        <v>0.006394217</v>
       </c>
       <c r="N47" t="n">
-        <v>20070809.6</v>
+        <v>19502080</v>
       </c>
       <c r="O47" t="n">
-        <v>20067532.8</v>
+        <v>19502080</v>
       </c>
       <c r="P47" t="n">
-        <v>20068556.8</v>
+        <v>19504537.6</v>
       </c>
       <c r="Q47" t="n">
-        <v>20093337.6</v>
+        <v>19529728</v>
       </c>
       <c r="R47" t="n">
-        <v>20093337.6</v>
+        <v>19529728</v>
       </c>
       <c r="S47" t="n">
         <v>184</v>
@@ -3936,34 +3936,34 @@
         <v>20</v>
       </c>
       <c r="I48" t="n">
-        <v>0.024060941</v>
+        <v>0.035538397</v>
       </c>
       <c r="J48" t="n">
-        <v>0.053278863</v>
+        <v>0.083542087</v>
       </c>
       <c r="K48" t="n">
-        <v>0.085241699</v>
+        <v>0.122959481</v>
       </c>
       <c r="L48" t="n">
-        <v>0.011845779</v>
+        <v>0.015205797</v>
       </c>
       <c r="M48" t="n">
-        <v>0.004615867</v>
+        <v>0.00623722</v>
       </c>
       <c r="N48" t="n">
-        <v>20149248</v>
+        <v>19634176</v>
       </c>
       <c r="O48" t="n">
-        <v>20147200</v>
+        <v>19628851.2</v>
       </c>
       <c r="P48" t="n">
-        <v>20157644.8</v>
+        <v>19635404.8</v>
       </c>
       <c r="Q48" t="n">
-        <v>20169728</v>
+        <v>19683942.4</v>
       </c>
       <c r="R48" t="n">
-        <v>20169728</v>
+        <v>19683942.4</v>
       </c>
       <c r="S48" t="n">
         <v>224</v>
@@ -4009,34 +4009,34 @@
         <v>20</v>
       </c>
       <c r="I49" t="n">
-        <v>0.021610594</v>
+        <v>0.032262818</v>
       </c>
       <c r="J49" t="n">
-        <v>0.034252024</v>
+        <v>0.054199249</v>
       </c>
       <c r="K49" t="n">
-        <v>0.053491533</v>
+        <v>0.090929079</v>
       </c>
       <c r="L49" t="n">
-        <v>0.015146852</v>
+        <v>0.024577423</v>
       </c>
       <c r="M49" t="n">
-        <v>0.004367507</v>
+        <v>0.006938103</v>
       </c>
       <c r="N49" t="n">
-        <v>20108697.6</v>
+        <v>19579494.4</v>
       </c>
       <c r="O49" t="n">
-        <v>20108697.6</v>
+        <v>19579494.4</v>
       </c>
       <c r="P49" t="n">
-        <v>20109721.6</v>
+        <v>19559219.2</v>
       </c>
       <c r="Q49" t="n">
-        <v>20120371.2</v>
+        <v>19569049.6</v>
       </c>
       <c r="R49" t="n">
-        <v>20120371.2</v>
+        <v>19569049.6</v>
       </c>
       <c r="S49" t="n">
         <v>224</v>
@@ -4082,34 +4082,34 @@
         <v>20</v>
       </c>
       <c r="I50" t="n">
-        <v>0.026995432</v>
+        <v>0.042173048</v>
       </c>
       <c r="J50" t="n">
-        <v>0.067740893</v>
+        <v>0.101729156</v>
       </c>
       <c r="K50" t="n">
-        <v>-1</v>
+        <v>0.158347179</v>
       </c>
       <c r="L50" t="n">
-        <v>0.010733545</v>
+        <v>0.015010437</v>
       </c>
       <c r="M50" t="n">
-        <v>0.00443126</v>
+        <v>0.005414304</v>
       </c>
       <c r="N50" t="n">
-        <v>20262297.6</v>
+        <v>19723673.6</v>
       </c>
       <c r="O50" t="n">
-        <v>20247347.2</v>
+        <v>19715276.8</v>
       </c>
       <c r="P50" t="n">
-        <v>20248780.8</v>
+        <v>19730022.4</v>
       </c>
       <c r="Q50" t="n">
-        <v>20282368</v>
+        <v>19782246.4</v>
       </c>
       <c r="R50" t="n">
-        <v>20282368</v>
+        <v>19782246.4</v>
       </c>
       <c r="S50" t="n">
         <v>264</v>
@@ -4155,34 +4155,34 @@
         <v>20</v>
       </c>
       <c r="I51" t="n">
-        <v>0.026913452</v>
+        <v>0.039972411</v>
       </c>
       <c r="J51" t="n">
-        <v>0.052624273</v>
+        <v>0.079226695</v>
       </c>
       <c r="K51" t="n">
-        <v>0.08249363899999999</v>
+        <v>0.123622346</v>
       </c>
       <c r="L51" t="n">
-        <v>0.015578163</v>
+        <v>0.022149465</v>
       </c>
       <c r="M51" t="n">
-        <v>0.004334795</v>
+        <v>0.006276247</v>
       </c>
       <c r="N51" t="n">
-        <v>20349542.4</v>
+        <v>19709747.2</v>
       </c>
       <c r="O51" t="n">
-        <v>20349542.4</v>
+        <v>19705446.4</v>
       </c>
       <c r="P51" t="n">
-        <v>20349542.4</v>
+        <v>19713843.2</v>
       </c>
       <c r="Q51" t="n">
-        <v>20349542.4</v>
+        <v>19745996.8</v>
       </c>
       <c r="R51" t="n">
-        <v>20349542.4</v>
+        <v>19745996.8</v>
       </c>
       <c r="S51" t="n">
         <v>264</v>
@@ -4228,34 +4228,34 @@
         <v>20</v>
       </c>
       <c r="I52" t="n">
-        <v>0.026800644</v>
+        <v>0.039104058</v>
       </c>
       <c r="J52" t="n">
-        <v>0.040512502</v>
+        <v>0.056724006</v>
       </c>
       <c r="K52" t="n">
-        <v>0.060314012</v>
+        <v>0.08717401599999999</v>
       </c>
       <c r="L52" t="n">
-        <v>0.019696498</v>
+        <v>0.026865825</v>
       </c>
       <c r="M52" t="n">
-        <v>0.004300869</v>
+        <v>0.005737054</v>
       </c>
       <c r="N52" t="n">
-        <v>20348928</v>
+        <v>19606323.2</v>
       </c>
       <c r="O52" t="n">
-        <v>20348928</v>
+        <v>19606323.2</v>
       </c>
       <c r="P52" t="n">
-        <v>20348928</v>
+        <v>19604684.8</v>
       </c>
       <c r="Q52" t="n">
-        <v>20348928</v>
+        <v>19591782.4</v>
       </c>
       <c r="R52" t="n">
-        <v>20348928</v>
+        <v>19591782.4</v>
       </c>
       <c r="S52" t="n">
         <v>264</v>
@@ -4301,34 +4301,34 @@
         <v>20</v>
       </c>
       <c r="I53" t="n">
-        <v>0.031090355</v>
+        <v>0.048719823</v>
       </c>
       <c r="J53" t="n">
-        <v>0.085234511</v>
+        <v>0.135000042</v>
       </c>
       <c r="K53" t="n">
-        <v>0.13571018</v>
+        <v>0.190404187</v>
       </c>
       <c r="L53" t="n">
-        <v>0.010516989</v>
+        <v>0.017325634</v>
       </c>
       <c r="M53" t="n">
-        <v>0.004175365</v>
+        <v>0.006710524</v>
       </c>
       <c r="N53" t="n">
-        <v>20327833.6</v>
+        <v>19759718.4</v>
       </c>
       <c r="O53" t="n">
-        <v>20310630.4</v>
+        <v>19753779.2</v>
       </c>
       <c r="P53" t="n">
-        <v>20327219.2</v>
+        <v>19756236.8</v>
       </c>
       <c r="Q53" t="n">
-        <v>20347289.6</v>
+        <v>19769548.8</v>
       </c>
       <c r="R53" t="n">
-        <v>20347289.6</v>
+        <v>19769548.8</v>
       </c>
       <c r="S53" t="n">
         <v>304</v>
@@ -4374,34 +4374,34 @@
         <v>20</v>
       </c>
       <c r="I54" t="n">
-        <v>0.031044722</v>
+        <v>0.052625618</v>
       </c>
       <c r="J54" t="n">
-        <v>0.07113760700000001</v>
+        <v>0.117464803</v>
       </c>
       <c r="K54" t="n">
-        <v>0.108101082</v>
+        <v>0.177975103</v>
       </c>
       <c r="L54" t="n">
-        <v>0.015240622</v>
+        <v>0.02274749</v>
       </c>
       <c r="M54" t="n">
-        <v>0.004218292</v>
+        <v>0.007193741</v>
       </c>
       <c r="N54" t="n">
-        <v>20289945.6</v>
+        <v>19750912</v>
       </c>
       <c r="O54" t="n">
-        <v>20294451.2</v>
+        <v>19750912</v>
       </c>
       <c r="P54" t="n">
-        <v>20301619.2</v>
+        <v>19750912</v>
       </c>
       <c r="Q54" t="n">
-        <v>20328857.6</v>
+        <v>19750912</v>
       </c>
       <c r="R54" t="n">
-        <v>20328857.6</v>
+        <v>19750912</v>
       </c>
       <c r="S54" t="n">
         <v>304</v>
@@ -4447,34 +4447,34 @@
         <v>20</v>
       </c>
       <c r="I55" t="n">
-        <v>0.031859267</v>
+        <v>0.044704841</v>
       </c>
       <c r="J55" t="n">
-        <v>0.056788063</v>
+        <v>0.091559407</v>
       </c>
       <c r="K55" t="n">
-        <v>0.086132324</v>
+        <v>0.132480896</v>
       </c>
       <c r="L55" t="n">
-        <v>0.019652951</v>
+        <v>0.030003293</v>
       </c>
       <c r="M55" t="n">
-        <v>0.004324555</v>
+        <v>0.006549337</v>
       </c>
       <c r="N55" t="n">
-        <v>20394188.8</v>
+        <v>19750912</v>
       </c>
       <c r="O55" t="n">
-        <v>20394188.8</v>
+        <v>19750912</v>
       </c>
       <c r="P55" t="n">
-        <v>20394188.8</v>
+        <v>19750912</v>
       </c>
       <c r="Q55" t="n">
-        <v>20406886.4</v>
+        <v>19750912</v>
       </c>
       <c r="R55" t="n">
-        <v>20406886.4</v>
+        <v>19750912</v>
       </c>
       <c r="S55" t="n">
         <v>304</v>
@@ -4520,34 +4520,34 @@
         <v>20</v>
       </c>
       <c r="I56" t="n">
-        <v>0.030666971</v>
+        <v>0.046013105</v>
       </c>
       <c r="J56" t="n">
-        <v>0.044125605</v>
+        <v>0.07171404300000001</v>
       </c>
       <c r="K56" t="n">
-        <v>0.063730288</v>
+        <v>0.09274252099999999</v>
       </c>
       <c r="L56" t="n">
-        <v>0.023893476</v>
+        <v>0.035193727</v>
       </c>
       <c r="M56" t="n">
-        <v>0.004124701</v>
+        <v>0.005865712</v>
       </c>
       <c r="N56" t="n">
-        <v>20406272</v>
+        <v>19750912</v>
       </c>
       <c r="O56" t="n">
-        <v>20406272</v>
+        <v>19750912</v>
       </c>
       <c r="P56" t="n">
-        <v>20406272</v>
+        <v>19750912</v>
       </c>
       <c r="Q56" t="n">
-        <v>20406272</v>
+        <v>19750912</v>
       </c>
       <c r="R56" t="n">
-        <v>20406272</v>
+        <v>19750912</v>
       </c>
       <c r="S56" t="n">
         <v>304</v>
@@ -4593,34 +4593,34 @@
         <v>20</v>
       </c>
       <c r="I57" t="n">
-        <v>0.036224651</v>
+        <v>0.051518771</v>
       </c>
       <c r="J57" t="n">
-        <v>-1</v>
+        <v>0.149529201</v>
       </c>
       <c r="K57" t="n">
-        <v>0.15816586</v>
+        <v>0.234881606</v>
       </c>
       <c r="L57" t="n">
-        <v>0.010738933</v>
+        <v>0.013666831</v>
       </c>
       <c r="M57" t="n">
-        <v>0.004273784</v>
+        <v>0.005099474</v>
       </c>
       <c r="N57" t="n">
-        <v>20406272</v>
+        <v>19750912</v>
       </c>
       <c r="O57" t="n">
-        <v>20406272</v>
+        <v>19750912</v>
       </c>
       <c r="P57" t="n">
-        <v>20406272</v>
+        <v>19750912</v>
       </c>
       <c r="Q57" t="n">
-        <v>20406272</v>
+        <v>19750912</v>
       </c>
       <c r="R57" t="n">
-        <v>20406272</v>
+        <v>19750912</v>
       </c>
       <c r="S57" t="n">
         <v>344</v>
@@ -4666,34 +4666,34 @@
         <v>20</v>
       </c>
       <c r="I58" t="n">
-        <v>0.035219514</v>
+        <v>0.054821711</v>
       </c>
       <c r="J58" t="n">
-        <v>0.086094165</v>
+        <v>0.130597003</v>
       </c>
       <c r="K58" t="n">
-        <v>0.13395319</v>
+        <v>0.196647282</v>
       </c>
       <c r="L58" t="n">
-        <v>0.015587068</v>
+        <v>0.023442238</v>
       </c>
       <c r="M58" t="n">
-        <v>0.0043015</v>
+        <v>0.00572425</v>
       </c>
       <c r="N58" t="n">
-        <v>20406272</v>
+        <v>19655680</v>
       </c>
       <c r="O58" t="n">
-        <v>20406272</v>
+        <v>19655680</v>
       </c>
       <c r="P58" t="n">
-        <v>20406272</v>
+        <v>19649331.2</v>
       </c>
       <c r="Q58" t="n">
-        <v>20406272</v>
+        <v>19649331.2</v>
       </c>
       <c r="R58" t="n">
-        <v>20406272</v>
+        <v>19649331.2</v>
       </c>
       <c r="S58" t="n">
         <v>344</v>
@@ -4739,34 +4739,34 @@
         <v>20</v>
       </c>
       <c r="I59" t="n">
-        <v>0.035983217</v>
+        <v>0.048381598</v>
       </c>
       <c r="J59" t="n">
-        <v>0.074097025</v>
+        <v>0.105311103</v>
       </c>
       <c r="K59" t="n">
-        <v>0.110918081</v>
+        <v>0.153751564</v>
       </c>
       <c r="L59" t="n">
-        <v>0.020174921</v>
+        <v>0.024867945</v>
       </c>
       <c r="M59" t="n">
-        <v>0.004347265</v>
+        <v>0.005420715</v>
       </c>
       <c r="N59" t="n">
-        <v>20275200</v>
+        <v>19623936</v>
       </c>
       <c r="O59" t="n">
-        <v>20267212.8</v>
+        <v>19623936</v>
       </c>
       <c r="P59" t="n">
-        <v>20267622.4</v>
+        <v>19623936</v>
       </c>
       <c r="Q59" t="n">
-        <v>20281344</v>
+        <v>19623936</v>
       </c>
       <c r="R59" t="n">
-        <v>20281344</v>
+        <v>19623936</v>
       </c>
       <c r="S59" t="n">
         <v>344</v>
@@ -4812,34 +4812,34 @@
         <v>20</v>
       </c>
       <c r="I60" t="n">
-        <v>0.036433387</v>
+        <v>0.059643045</v>
       </c>
       <c r="J60" t="n">
-        <v>0.063802576</v>
+        <v>0.093672198</v>
       </c>
       <c r="K60" t="n">
-        <v>0.09342060100000001</v>
+        <v>0.125807491</v>
       </c>
       <c r="L60" t="n">
-        <v>0.024869192</v>
+        <v>0.038564968</v>
       </c>
       <c r="M60" t="n">
-        <v>0.004312313</v>
+        <v>0.007344886</v>
       </c>
       <c r="N60" t="n">
-        <v>20325990.4</v>
+        <v>19623936</v>
       </c>
       <c r="O60" t="n">
-        <v>20325990.4</v>
+        <v>19623936</v>
       </c>
       <c r="P60" t="n">
-        <v>20325990.4</v>
+        <v>19623936</v>
       </c>
       <c r="Q60" t="n">
-        <v>20325990.4</v>
+        <v>19623936</v>
       </c>
       <c r="R60" t="n">
-        <v>20325990.4</v>
+        <v>19623936</v>
       </c>
       <c r="S60" t="n">
         <v>344</v>
@@ -4885,34 +4885,34 @@
         <v>20</v>
       </c>
       <c r="I61" t="n">
-        <v>0.034396553</v>
+        <v>0.054097796</v>
       </c>
       <c r="J61" t="n">
-        <v>0.048517692</v>
+        <v>0.071907578</v>
       </c>
       <c r="K61" t="n">
-        <v>0.068866515</v>
+        <v>0.09655992100000001</v>
       </c>
       <c r="L61" t="n">
-        <v>0.0288867</v>
+        <v>0.043476777</v>
       </c>
       <c r="M61" t="n">
-        <v>0.004243791</v>
+        <v>0.006307265</v>
       </c>
       <c r="N61" t="n">
-        <v>20320256</v>
+        <v>19623936</v>
       </c>
       <c r="O61" t="n">
-        <v>20320256</v>
+        <v>19623936</v>
       </c>
       <c r="P61" t="n">
-        <v>20320256</v>
+        <v>19623936</v>
       </c>
       <c r="Q61" t="n">
-        <v>20320256</v>
+        <v>19623936</v>
       </c>
       <c r="R61" t="n">
-        <v>20320256</v>
+        <v>19623936</v>
       </c>
       <c r="S61" t="n">
         <v>344</v>

--- a/SchemeHIBME/SchemeAnonymousME.xlsx
+++ b/SchemeHIBME/SchemeAnonymousME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W61"/>
+  <dimension ref="A1:AA61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,25 +526,45 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>elementOfZR (B)</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>elementOfG1 (B)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>elementOfG2 (B)</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>elementOfGT (B)</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
           <t>mpk (B)</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>msk (B)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>SK (B)</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>SK' (B)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>CT (B)</t>
         </is>
@@ -578,48 +598,60 @@
         <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>0.043066402</v>
+        <v>0.039610565</v>
       </c>
       <c r="J2" t="n">
-        <v>0.089342967</v>
+        <v>0.083803839</v>
       </c>
       <c r="K2" t="n">
-        <v>0.148344703</v>
+        <v>0.140269063</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02673232</v>
+        <v>0.023724676</v>
       </c>
       <c r="M2" t="n">
-        <v>0.013028348</v>
+        <v>0.012112097</v>
       </c>
       <c r="N2" t="n">
-        <v>17621196.8</v>
+        <v>17815347.2</v>
       </c>
       <c r="O2" t="n">
-        <v>17621196.8</v>
+        <v>17815347.2</v>
       </c>
       <c r="P2" t="n">
-        <v>17621196.8</v>
+        <v>17862041.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>17665024</v>
+        <v>17867980.8</v>
       </c>
       <c r="R2" t="n">
-        <v>17665024</v>
+        <v>17867980.8</v>
       </c>
       <c r="S2" t="n">
+        <v>72</v>
+      </c>
+      <c r="T2" t="n">
+        <v>72</v>
+      </c>
+      <c r="U2" t="n">
+        <v>72</v>
+      </c>
+      <c r="V2" t="n">
+        <v>72</v>
+      </c>
+      <c r="W2" t="n">
         <v>184</v>
       </c>
-      <c r="T2" t="n">
-        <v>64</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="X2" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y2" t="n">
         <v>240</v>
       </c>
-      <c r="V2" t="n">
+      <c r="Z2" t="n">
         <v>240</v>
       </c>
-      <c r="W2" t="n">
+      <c r="AA2" t="n">
         <v>72</v>
       </c>
     </row>
@@ -651,48 +683,60 @@
         <v>20</v>
       </c>
       <c r="I3" t="n">
-        <v>0.058104013</v>
+        <v>0.056030656</v>
       </c>
       <c r="J3" t="n">
-        <v>0.153372267</v>
+        <v>0.138642429</v>
       </c>
       <c r="K3" t="n">
-        <v>0.240293584</v>
+        <v>0.220421121</v>
       </c>
       <c r="L3" t="n">
-        <v>0.026576409</v>
+        <v>0.02532314</v>
       </c>
       <c r="M3" t="n">
-        <v>0.014285317</v>
+        <v>0.013005102</v>
       </c>
       <c r="N3" t="n">
-        <v>17756160</v>
+        <v>17940480</v>
       </c>
       <c r="O3" t="n">
-        <v>17756160</v>
+        <v>17940480</v>
       </c>
       <c r="P3" t="n">
-        <v>17756160</v>
+        <v>17940480</v>
       </c>
       <c r="Q3" t="n">
-        <v>17756160</v>
+        <v>17940480</v>
       </c>
       <c r="R3" t="n">
-        <v>17756160</v>
+        <v>17940480</v>
       </c>
       <c r="S3" t="n">
+        <v>72</v>
+      </c>
+      <c r="T3" t="n">
+        <v>72</v>
+      </c>
+      <c r="U3" t="n">
+        <v>72</v>
+      </c>
+      <c r="V3" t="n">
+        <v>72</v>
+      </c>
+      <c r="W3" t="n">
         <v>224</v>
       </c>
-      <c r="T3" t="n">
-        <v>64</v>
-      </c>
-      <c r="U3" t="n">
+      <c r="X3" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="n">
         <v>400</v>
       </c>
-      <c r="V3" t="n">
+      <c r="Z3" t="n">
         <v>400</v>
       </c>
-      <c r="W3" t="n">
+      <c r="AA3" t="n">
         <v>72</v>
       </c>
     </row>
@@ -724,48 +768,60 @@
         <v>20</v>
       </c>
       <c r="I4" t="n">
-        <v>0.071172341</v>
+        <v>0.054640929</v>
       </c>
       <c r="J4" t="n">
-        <v>0.122279078</v>
+        <v>0.100696274</v>
       </c>
       <c r="K4" t="n">
-        <v>0.194293965</v>
+        <v>0.160636857</v>
       </c>
       <c r="L4" t="n">
-        <v>0.048291953</v>
+        <v>0.039104391</v>
       </c>
       <c r="M4" t="n">
-        <v>0.017292435</v>
+        <v>0.013544381</v>
       </c>
       <c r="N4" t="n">
-        <v>17756160</v>
+        <v>17940480</v>
       </c>
       <c r="O4" t="n">
-        <v>17756160</v>
+        <v>17940480</v>
       </c>
       <c r="P4" t="n">
-        <v>17756160</v>
+        <v>17940480</v>
       </c>
       <c r="Q4" t="n">
-        <v>17756160</v>
+        <v>17940480</v>
       </c>
       <c r="R4" t="n">
-        <v>17756160</v>
+        <v>17940480</v>
       </c>
       <c r="S4" t="n">
+        <v>72</v>
+      </c>
+      <c r="T4" t="n">
+        <v>72</v>
+      </c>
+      <c r="U4" t="n">
+        <v>72</v>
+      </c>
+      <c r="V4" t="n">
+        <v>72</v>
+      </c>
+      <c r="W4" t="n">
         <v>224</v>
       </c>
-      <c r="T4" t="n">
-        <v>64</v>
-      </c>
-      <c r="U4" t="n">
+      <c r="X4" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="n">
         <v>240</v>
       </c>
-      <c r="V4" t="n">
+      <c r="Z4" t="n">
         <v>240</v>
       </c>
-      <c r="W4" t="n">
+      <c r="AA4" t="n">
         <v>72</v>
       </c>
     </row>
@@ -797,48 +853,60 @@
         <v>20</v>
       </c>
       <c r="I5" t="n">
-        <v>0.074439172</v>
+        <v>0.067432355</v>
       </c>
       <c r="J5" t="n">
-        <v>0.210061504</v>
+        <v>0.18535595</v>
       </c>
       <c r="K5" t="n">
-        <v>0.341190364</v>
+        <v>0.286052383</v>
       </c>
       <c r="L5" t="n">
-        <v>0.029054021</v>
+        <v>0.02392012</v>
       </c>
       <c r="M5" t="n">
-        <v>0.013551139</v>
+        <v>0.012509766</v>
       </c>
       <c r="N5" t="n">
-        <v>17756160</v>
+        <v>17940480</v>
       </c>
       <c r="O5" t="n">
-        <v>17756160</v>
+        <v>17940480</v>
       </c>
       <c r="P5" t="n">
-        <v>17756160</v>
+        <v>17940480</v>
       </c>
       <c r="Q5" t="n">
-        <v>17756160</v>
+        <v>17940480</v>
       </c>
       <c r="R5" t="n">
-        <v>17756160</v>
+        <v>17940480</v>
       </c>
       <c r="S5" t="n">
+        <v>72</v>
+      </c>
+      <c r="T5" t="n">
+        <v>72</v>
+      </c>
+      <c r="U5" t="n">
+        <v>72</v>
+      </c>
+      <c r="V5" t="n">
+        <v>72</v>
+      </c>
+      <c r="W5" t="n">
         <v>264</v>
       </c>
-      <c r="T5" t="n">
-        <v>64</v>
-      </c>
-      <c r="U5" t="n">
+      <c r="X5" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y5" t="n">
         <v>560</v>
       </c>
-      <c r="V5" t="n">
+      <c r="Z5" t="n">
         <v>560</v>
       </c>
-      <c r="W5" t="n">
+      <c r="AA5" t="n">
         <v>72</v>
       </c>
     </row>
@@ -870,48 +938,60 @@
         <v>20</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08941502</v>
+        <v>0.068090874</v>
       </c>
       <c r="J6" t="n">
-        <v>0.201969365</v>
+        <v>0.15504469</v>
       </c>
       <c r="K6" t="n">
-        <v>0.308069791</v>
+        <v>0.231829798</v>
       </c>
       <c r="L6" t="n">
-        <v>0.052448452</v>
+        <v>0.038295368</v>
       </c>
       <c r="M6" t="n">
-        <v>0.017940767</v>
+        <v>0.012967219</v>
       </c>
       <c r="N6" t="n">
-        <v>17756160</v>
+        <v>18007040</v>
       </c>
       <c r="O6" t="n">
-        <v>17756160</v>
+        <v>18007040</v>
       </c>
       <c r="P6" t="n">
-        <v>17756160</v>
+        <v>18020352</v>
       </c>
       <c r="Q6" t="n">
-        <v>17756160</v>
+        <v>18020352</v>
       </c>
       <c r="R6" t="n">
-        <v>17756160</v>
+        <v>18020352</v>
       </c>
       <c r="S6" t="n">
+        <v>72</v>
+      </c>
+      <c r="T6" t="n">
+        <v>72</v>
+      </c>
+      <c r="U6" t="n">
+        <v>72</v>
+      </c>
+      <c r="V6" t="n">
+        <v>72</v>
+      </c>
+      <c r="W6" t="n">
         <v>264</v>
       </c>
-      <c r="T6" t="n">
-        <v>64</v>
-      </c>
-      <c r="U6" t="n">
+      <c r="X6" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y6" t="n">
         <v>400</v>
       </c>
-      <c r="V6" t="n">
+      <c r="Z6" t="n">
         <v>400</v>
       </c>
-      <c r="W6" t="n">
+      <c r="AA6" t="n">
         <v>72</v>
       </c>
     </row>
@@ -943,48 +1023,60 @@
         <v>20</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07868668299999999</v>
+        <v>0.065530413</v>
       </c>
       <c r="J7" t="n">
-        <v>0.131385713</v>
+        <v>0.109680559</v>
       </c>
       <c r="K7" t="n">
-        <v>0.19740237</v>
+        <v>0.162514985</v>
       </c>
       <c r="L7" t="n">
-        <v>0.058356129</v>
+        <v>0.048077791</v>
       </c>
       <c r="M7" t="n">
-        <v>0.014616172</v>
+        <v>0.012249343</v>
       </c>
       <c r="N7" t="n">
-        <v>18009088</v>
+        <v>18206720</v>
       </c>
       <c r="O7" t="n">
-        <v>18009088</v>
+        <v>18206720</v>
       </c>
       <c r="P7" t="n">
-        <v>18022400</v>
+        <v>18206720</v>
       </c>
       <c r="Q7" t="n">
-        <v>18022400</v>
+        <v>18206720</v>
       </c>
       <c r="R7" t="n">
-        <v>18022400</v>
+        <v>18206720</v>
       </c>
       <c r="S7" t="n">
+        <v>72</v>
+      </c>
+      <c r="T7" t="n">
+        <v>72</v>
+      </c>
+      <c r="U7" t="n">
+        <v>72</v>
+      </c>
+      <c r="V7" t="n">
+        <v>72</v>
+      </c>
+      <c r="W7" t="n">
         <v>264</v>
       </c>
-      <c r="T7" t="n">
-        <v>64</v>
-      </c>
-      <c r="U7" t="n">
+      <c r="X7" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y7" t="n">
         <v>240</v>
       </c>
-      <c r="V7" t="n">
+      <c r="Z7" t="n">
         <v>240</v>
       </c>
-      <c r="W7" t="n">
+      <c r="AA7" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1016,48 +1108,60 @@
         <v>20</v>
       </c>
       <c r="I8" t="n">
-        <v>0.087690534</v>
+        <v>0.07805125</v>
       </c>
       <c r="J8" t="n">
-        <v>0.258997521</v>
+        <v>0.232897008</v>
       </c>
       <c r="K8" t="n">
-        <v>0.40910727</v>
+        <v>0.359566791</v>
       </c>
       <c r="L8" t="n">
-        <v>0.027372572</v>
+        <v>0.024219119</v>
       </c>
       <c r="M8" t="n">
-        <v>0.013552323</v>
+        <v>0.012340762</v>
       </c>
       <c r="N8" t="n">
-        <v>18115379.2</v>
+        <v>18314035.2</v>
       </c>
       <c r="O8" t="n">
-        <v>18115379.2</v>
+        <v>18314035.2</v>
       </c>
       <c r="P8" t="n">
-        <v>18118246.4</v>
+        <v>18314035.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>18118246.4</v>
+        <v>18318131.2</v>
       </c>
       <c r="R8" t="n">
-        <v>18118246.4</v>
+        <v>18318131.2</v>
       </c>
       <c r="S8" t="n">
+        <v>72</v>
+      </c>
+      <c r="T8" t="n">
+        <v>72</v>
+      </c>
+      <c r="U8" t="n">
+        <v>72</v>
+      </c>
+      <c r="V8" t="n">
+        <v>72</v>
+      </c>
+      <c r="W8" t="n">
         <v>304</v>
       </c>
-      <c r="T8" t="n">
-        <v>64</v>
-      </c>
-      <c r="U8" t="n">
+      <c r="X8" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y8" t="n">
         <v>720</v>
       </c>
-      <c r="V8" t="n">
+      <c r="Z8" t="n">
         <v>720</v>
       </c>
-      <c r="W8" t="n">
+      <c r="AA8" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1089,48 +1193,60 @@
         <v>20</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09751365100000001</v>
+        <v>0.078418234</v>
       </c>
       <c r="J9" t="n">
-        <v>0.243419365</v>
+        <v>0.201725093</v>
       </c>
       <c r="K9" t="n">
-        <v>0.376226617</v>
+        <v>0.304139304</v>
       </c>
       <c r="L9" t="n">
-        <v>0.045256167</v>
+        <v>0.037308254</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0158509</v>
+        <v>0.012805862</v>
       </c>
       <c r="N9" t="n">
-        <v>18124800</v>
+        <v>18911846.4</v>
       </c>
       <c r="O9" t="n">
-        <v>18124800</v>
+        <v>18911846.4</v>
       </c>
       <c r="P9" t="n">
-        <v>18124800</v>
+        <v>18911846.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>18124800</v>
+        <v>18949529.6</v>
       </c>
       <c r="R9" t="n">
-        <v>18124800</v>
+        <v>18949529.6</v>
       </c>
       <c r="S9" t="n">
+        <v>72</v>
+      </c>
+      <c r="T9" t="n">
+        <v>72</v>
+      </c>
+      <c r="U9" t="n">
+        <v>72</v>
+      </c>
+      <c r="V9" t="n">
+        <v>72</v>
+      </c>
+      <c r="W9" t="n">
         <v>304</v>
       </c>
-      <c r="T9" t="n">
-        <v>64</v>
-      </c>
-      <c r="U9" t="n">
+      <c r="X9" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y9" t="n">
         <v>560</v>
       </c>
-      <c r="V9" t="n">
+      <c r="Z9" t="n">
         <v>560</v>
       </c>
-      <c r="W9" t="n">
+      <c r="AA9" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1162,48 +1278,60 @@
         <v>20</v>
       </c>
       <c r="I10" t="n">
-        <v>0.091033105</v>
+        <v>0.077038774</v>
       </c>
       <c r="J10" t="n">
-        <v>0.185968484</v>
+        <v>0.15696985</v>
       </c>
       <c r="K10" t="n">
-        <v>0.276579757</v>
+        <v>0.234279464</v>
       </c>
       <c r="L10" t="n">
-        <v>0.059462999</v>
+        <v>0.04886226</v>
       </c>
       <c r="M10" t="n">
-        <v>0.014730241</v>
+        <v>0.012379243</v>
       </c>
       <c r="N10" t="n">
-        <v>18124800</v>
+        <v>19140608</v>
       </c>
       <c r="O10" t="n">
-        <v>18124800</v>
+        <v>19140608</v>
       </c>
       <c r="P10" t="n">
-        <v>18124800</v>
+        <v>19140608</v>
       </c>
       <c r="Q10" t="n">
-        <v>18124800</v>
+        <v>19140608</v>
       </c>
       <c r="R10" t="n">
-        <v>18124800</v>
+        <v>19140608</v>
       </c>
       <c r="S10" t="n">
+        <v>72</v>
+      </c>
+      <c r="T10" t="n">
+        <v>72</v>
+      </c>
+      <c r="U10" t="n">
+        <v>72</v>
+      </c>
+      <c r="V10" t="n">
+        <v>72</v>
+      </c>
+      <c r="W10" t="n">
         <v>304</v>
       </c>
-      <c r="T10" t="n">
-        <v>64</v>
-      </c>
-      <c r="U10" t="n">
+      <c r="X10" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y10" t="n">
         <v>400</v>
       </c>
-      <c r="V10" t="n">
+      <c r="Z10" t="n">
         <v>400</v>
       </c>
-      <c r="W10" t="n">
+      <c r="AA10" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1235,48 +1363,60 @@
         <v>20</v>
       </c>
       <c r="I11" t="n">
-        <v>0.088763886</v>
+        <v>0.077436193</v>
       </c>
       <c r="J11" t="n">
-        <v>0.140325156</v>
+        <v>0.120985135</v>
       </c>
       <c r="K11" t="n">
-        <v>0.203454203</v>
+        <v>0.174045764</v>
       </c>
       <c r="L11" t="n">
-        <v>0.069188233</v>
+        <v>0.059981952</v>
       </c>
       <c r="M11" t="n">
-        <v>0.014653411</v>
+        <v>0.012325704</v>
       </c>
       <c r="N11" t="n">
-        <v>18124800</v>
+        <v>19140608</v>
       </c>
       <c r="O11" t="n">
-        <v>18124800</v>
+        <v>19140608</v>
       </c>
       <c r="P11" t="n">
-        <v>18124800</v>
+        <v>19140608</v>
       </c>
       <c r="Q11" t="n">
-        <v>18124800</v>
+        <v>19140608</v>
       </c>
       <c r="R11" t="n">
-        <v>18124800</v>
+        <v>19140608</v>
       </c>
       <c r="S11" t="n">
+        <v>72</v>
+      </c>
+      <c r="T11" t="n">
+        <v>72</v>
+      </c>
+      <c r="U11" t="n">
+        <v>72</v>
+      </c>
+      <c r="V11" t="n">
+        <v>72</v>
+      </c>
+      <c r="W11" t="n">
         <v>304</v>
       </c>
-      <c r="T11" t="n">
-        <v>64</v>
-      </c>
-      <c r="U11" t="n">
+      <c r="X11" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y11" t="n">
         <v>240</v>
       </c>
-      <c r="V11" t="n">
+      <c r="Z11" t="n">
         <v>240</v>
       </c>
-      <c r="W11" t="n">
+      <c r="AA11" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1308,48 +1448,60 @@
         <v>20</v>
       </c>
       <c r="I12" t="n">
-        <v>0.101636395</v>
+        <v>0.09114546599999999</v>
       </c>
       <c r="J12" t="n">
-        <v>0.320272801</v>
+        <v>0.288847969</v>
       </c>
       <c r="K12" t="n">
-        <v>0.497356672</v>
+        <v>0.444344219</v>
       </c>
       <c r="L12" t="n">
-        <v>0.027746323</v>
+        <v>0.023883778</v>
       </c>
       <c r="M12" t="n">
-        <v>0.013874539</v>
+        <v>0.01246695</v>
       </c>
       <c r="N12" t="n">
-        <v>18124800</v>
+        <v>19140608</v>
       </c>
       <c r="O12" t="n">
-        <v>18124800</v>
+        <v>19140608</v>
       </c>
       <c r="P12" t="n">
-        <v>18124800</v>
+        <v>19140608</v>
       </c>
       <c r="Q12" t="n">
-        <v>18124800</v>
+        <v>19140608</v>
       </c>
       <c r="R12" t="n">
-        <v>18124800</v>
+        <v>19140608</v>
       </c>
       <c r="S12" t="n">
+        <v>72</v>
+      </c>
+      <c r="T12" t="n">
+        <v>72</v>
+      </c>
+      <c r="U12" t="n">
+        <v>72</v>
+      </c>
+      <c r="V12" t="n">
+        <v>72</v>
+      </c>
+      <c r="W12" t="n">
         <v>344</v>
       </c>
-      <c r="T12" t="n">
-        <v>64</v>
-      </c>
-      <c r="U12" t="n">
+      <c r="X12" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y12" t="n">
         <v>880</v>
       </c>
-      <c r="V12" t="n">
+      <c r="Z12" t="n">
         <v>880</v>
       </c>
-      <c r="W12" t="n">
+      <c r="AA12" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1381,48 +1533,60 @@
         <v>20</v>
       </c>
       <c r="I13" t="n">
-        <v>0.105009217</v>
+        <v>0.087640758</v>
       </c>
       <c r="J13" t="n">
-        <v>0.28676692</v>
+        <v>0.244902877</v>
       </c>
       <c r="K13" t="n">
-        <v>0.433370184</v>
+        <v>0.3823788</v>
       </c>
       <c r="L13" t="n">
-        <v>0.041531224</v>
+        <v>0.037161463</v>
       </c>
       <c r="M13" t="n">
-        <v>0.014352771</v>
+        <v>0.012191538</v>
       </c>
       <c r="N13" t="n">
-        <v>18124800</v>
+        <v>19140608</v>
       </c>
       <c r="O13" t="n">
-        <v>18124800</v>
+        <v>19140608</v>
       </c>
       <c r="P13" t="n">
-        <v>18124800</v>
+        <v>19140608</v>
       </c>
       <c r="Q13" t="n">
-        <v>18124800</v>
+        <v>19140608</v>
       </c>
       <c r="R13" t="n">
-        <v>18124800</v>
+        <v>19140608</v>
       </c>
       <c r="S13" t="n">
+        <v>72</v>
+      </c>
+      <c r="T13" t="n">
+        <v>72</v>
+      </c>
+      <c r="U13" t="n">
+        <v>72</v>
+      </c>
+      <c r="V13" t="n">
+        <v>72</v>
+      </c>
+      <c r="W13" t="n">
         <v>344</v>
       </c>
-      <c r="T13" t="n">
-        <v>64</v>
-      </c>
-      <c r="U13" t="n">
+      <c r="X13" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y13" t="n">
         <v>720</v>
       </c>
-      <c r="V13" t="n">
+      <c r="Z13" t="n">
         <v>720</v>
       </c>
-      <c r="W13" t="n">
+      <c r="AA13" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1454,48 +1618,60 @@
         <v>20</v>
       </c>
       <c r="I14" t="n">
-        <v>0.107171845</v>
+        <v>0.093637362</v>
       </c>
       <c r="J14" t="n">
-        <v>0.252140729</v>
+        <v>0.218450429</v>
       </c>
       <c r="K14" t="n">
-        <v>0.368092379</v>
+        <v>0.319875397</v>
       </c>
       <c r="L14" t="n">
-        <v>0.058356864</v>
+        <v>0.04999885</v>
       </c>
       <c r="M14" t="n">
-        <v>0.014735911</v>
+        <v>0.012920092</v>
       </c>
       <c r="N14" t="n">
-        <v>18297856</v>
+        <v>19140608</v>
       </c>
       <c r="O14" t="n">
-        <v>18297856</v>
+        <v>19140608</v>
       </c>
       <c r="P14" t="n">
-        <v>18311168</v>
+        <v>19140608</v>
       </c>
       <c r="Q14" t="n">
-        <v>18311168</v>
+        <v>19140608</v>
       </c>
       <c r="R14" t="n">
-        <v>18311168</v>
+        <v>19140608</v>
       </c>
       <c r="S14" t="n">
+        <v>72</v>
+      </c>
+      <c r="T14" t="n">
+        <v>72</v>
+      </c>
+      <c r="U14" t="n">
+        <v>72</v>
+      </c>
+      <c r="V14" t="n">
+        <v>72</v>
+      </c>
+      <c r="W14" t="n">
         <v>344</v>
       </c>
-      <c r="T14" t="n">
-        <v>64</v>
-      </c>
-      <c r="U14" t="n">
+      <c r="X14" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y14" t="n">
         <v>560</v>
       </c>
-      <c r="V14" t="n">
+      <c r="Z14" t="n">
         <v>560</v>
       </c>
-      <c r="W14" t="n">
+      <c r="AA14" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1527,48 +1703,60 @@
         <v>20</v>
       </c>
       <c r="I15" t="n">
-        <v>0.119956921</v>
+        <v>0.088269612</v>
       </c>
       <c r="J15" t="n">
-        <v>0.232408505</v>
+        <v>0.170222032</v>
       </c>
       <c r="K15" t="n">
-        <v>0.340633248</v>
+        <v>0.245321464</v>
       </c>
       <c r="L15" t="n">
-        <v>0.08326204700000001</v>
+        <v>0.060079914</v>
       </c>
       <c r="M15" t="n">
-        <v>0.015838412</v>
+        <v>0.012424889</v>
       </c>
       <c r="N15" t="n">
-        <v>18391040</v>
+        <v>19140608</v>
       </c>
       <c r="O15" t="n">
-        <v>18391040</v>
+        <v>19140608</v>
       </c>
       <c r="P15" t="n">
-        <v>18391040</v>
+        <v>19140608</v>
       </c>
       <c r="Q15" t="n">
-        <v>18391040</v>
+        <v>19140608</v>
       </c>
       <c r="R15" t="n">
-        <v>18391040</v>
+        <v>19140608</v>
       </c>
       <c r="S15" t="n">
+        <v>72</v>
+      </c>
+      <c r="T15" t="n">
+        <v>72</v>
+      </c>
+      <c r="U15" t="n">
+        <v>72</v>
+      </c>
+      <c r="V15" t="n">
+        <v>72</v>
+      </c>
+      <c r="W15" t="n">
         <v>344</v>
       </c>
-      <c r="T15" t="n">
-        <v>64</v>
-      </c>
-      <c r="U15" t="n">
+      <c r="X15" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y15" t="n">
         <v>400</v>
       </c>
-      <c r="V15" t="n">
+      <c r="Z15" t="n">
         <v>400</v>
       </c>
-      <c r="W15" t="n">
+      <c r="AA15" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1600,48 +1788,60 @@
         <v>20</v>
       </c>
       <c r="I16" t="n">
-        <v>0.112600983</v>
+        <v>0.090350502</v>
       </c>
       <c r="J16" t="n">
-        <v>0.17145767</v>
+        <v>0.132709249</v>
       </c>
       <c r="K16" t="n">
-        <v>0.237504982</v>
+        <v>0.188165118</v>
       </c>
       <c r="L16" t="n">
-        <v>0.085942976</v>
+        <v>0.07389874</v>
       </c>
       <c r="M16" t="n">
-        <v>0.014856602</v>
+        <v>0.01248108</v>
       </c>
       <c r="N16" t="n">
-        <v>18391040</v>
+        <v>19140608</v>
       </c>
       <c r="O16" t="n">
-        <v>18391040</v>
+        <v>19140608</v>
       </c>
       <c r="P16" t="n">
-        <v>18391040</v>
+        <v>19140608</v>
       </c>
       <c r="Q16" t="n">
-        <v>18391040</v>
+        <v>19140608</v>
       </c>
       <c r="R16" t="n">
-        <v>18391040</v>
+        <v>19140608</v>
       </c>
       <c r="S16" t="n">
+        <v>72</v>
+      </c>
+      <c r="T16" t="n">
+        <v>72</v>
+      </c>
+      <c r="U16" t="n">
+        <v>72</v>
+      </c>
+      <c r="V16" t="n">
+        <v>72</v>
+      </c>
+      <c r="W16" t="n">
         <v>344</v>
       </c>
-      <c r="T16" t="n">
-        <v>64</v>
-      </c>
-      <c r="U16" t="n">
+      <c r="X16" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y16" t="n">
         <v>240</v>
       </c>
-      <c r="V16" t="n">
+      <c r="Z16" t="n">
         <v>240</v>
       </c>
-      <c r="W16" t="n">
+      <c r="AA16" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1673,48 +1873,60 @@
         <v>20</v>
       </c>
       <c r="I17" t="n">
-        <v>0.066292165</v>
+        <v>0.051972491</v>
       </c>
       <c r="J17" t="n">
-        <v>0.132276712</v>
+        <v>0.111741624</v>
       </c>
       <c r="K17" t="n">
-        <v>0.215837261</v>
+        <v>0.177804962</v>
       </c>
       <c r="L17" t="n">
-        <v>0.038556544</v>
+        <v>0.031436957</v>
       </c>
       <c r="M17" t="n">
-        <v>0.019212564</v>
+        <v>0.016515744</v>
       </c>
       <c r="N17" t="n">
-        <v>18391040</v>
+        <v>19140608</v>
       </c>
       <c r="O17" t="n">
-        <v>18391040</v>
+        <v>19140608</v>
       </c>
       <c r="P17" t="n">
-        <v>18391040</v>
+        <v>19140608</v>
       </c>
       <c r="Q17" t="n">
-        <v>18391040</v>
+        <v>19140608</v>
       </c>
       <c r="R17" t="n">
-        <v>18391040</v>
+        <v>19140608</v>
       </c>
       <c r="S17" t="n">
+        <v>72</v>
+      </c>
+      <c r="T17" t="n">
+        <v>72</v>
+      </c>
+      <c r="U17" t="n">
+        <v>72</v>
+      </c>
+      <c r="V17" t="n">
+        <v>72</v>
+      </c>
+      <c r="W17" t="n">
         <v>184</v>
       </c>
-      <c r="T17" t="n">
-        <v>64</v>
-      </c>
-      <c r="U17" t="n">
+      <c r="X17" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y17" t="n">
         <v>240</v>
       </c>
-      <c r="V17" t="n">
+      <c r="Z17" t="n">
         <v>240</v>
       </c>
-      <c r="W17" t="n">
+      <c r="AA17" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1746,48 +1958,60 @@
         <v>20</v>
       </c>
       <c r="I18" t="n">
-        <v>0.078880644</v>
+        <v>0.068583726</v>
       </c>
       <c r="J18" t="n">
-        <v>0.206891068</v>
+        <v>0.175559318</v>
       </c>
       <c r="K18" t="n">
-        <v>0.316494542</v>
+        <v>0.281564695</v>
       </c>
       <c r="L18" t="n">
-        <v>0.035905739</v>
+        <v>0.03171513</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01887011</v>
+        <v>0.016922709</v>
       </c>
       <c r="N18" t="n">
-        <v>18391040</v>
+        <v>19140608</v>
       </c>
       <c r="O18" t="n">
-        <v>18391040</v>
+        <v>19140608</v>
       </c>
       <c r="P18" t="n">
-        <v>18391040</v>
+        <v>19140608</v>
       </c>
       <c r="Q18" t="n">
-        <v>18391040</v>
+        <v>19140608</v>
       </c>
       <c r="R18" t="n">
-        <v>18391040</v>
+        <v>19140608</v>
       </c>
       <c r="S18" t="n">
+        <v>72</v>
+      </c>
+      <c r="T18" t="n">
+        <v>72</v>
+      </c>
+      <c r="U18" t="n">
+        <v>72</v>
+      </c>
+      <c r="V18" t="n">
+        <v>72</v>
+      </c>
+      <c r="W18" t="n">
         <v>224</v>
       </c>
-      <c r="T18" t="n">
-        <v>64</v>
-      </c>
-      <c r="U18" t="n">
+      <c r="X18" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y18" t="n">
         <v>400</v>
       </c>
-      <c r="V18" t="n">
+      <c r="Z18" t="n">
         <v>400</v>
       </c>
-      <c r="W18" t="n">
+      <c r="AA18" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1819,48 +2043,60 @@
         <v>20</v>
       </c>
       <c r="I19" t="n">
-        <v>0.07956089099999999</v>
+        <v>0.069361278</v>
       </c>
       <c r="J19" t="n">
-        <v>0.140112336</v>
+        <v>0.128054303</v>
       </c>
       <c r="K19" t="n">
-        <v>0.222487491</v>
+        <v>0.199051175</v>
       </c>
       <c r="L19" t="n">
-        <v>0.054979336</v>
+        <v>0.048585983</v>
       </c>
       <c r="M19" t="n">
-        <v>0.018311762</v>
+        <v>0.016324925</v>
       </c>
       <c r="N19" t="n">
-        <v>18391040</v>
+        <v>19140608</v>
       </c>
       <c r="O19" t="n">
-        <v>18391040</v>
+        <v>19140608</v>
       </c>
       <c r="P19" t="n">
-        <v>18391040</v>
+        <v>19140608</v>
       </c>
       <c r="Q19" t="n">
-        <v>18391040</v>
+        <v>19140608</v>
       </c>
       <c r="R19" t="n">
-        <v>18391040</v>
+        <v>19140608</v>
       </c>
       <c r="S19" t="n">
+        <v>72</v>
+      </c>
+      <c r="T19" t="n">
+        <v>72</v>
+      </c>
+      <c r="U19" t="n">
+        <v>72</v>
+      </c>
+      <c r="V19" t="n">
+        <v>72</v>
+      </c>
+      <c r="W19" t="n">
         <v>224</v>
       </c>
-      <c r="T19" t="n">
-        <v>64</v>
-      </c>
-      <c r="U19" t="n">
+      <c r="X19" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y19" t="n">
         <v>240</v>
       </c>
-      <c r="V19" t="n">
+      <c r="Z19" t="n">
         <v>240</v>
       </c>
-      <c r="W19" t="n">
+      <c r="AA19" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1892,48 +2128,60 @@
         <v>20</v>
       </c>
       <c r="I20" t="n">
-        <v>0.099756334</v>
+        <v>0.087158769</v>
       </c>
       <c r="J20" t="n">
-        <v>0.279946784</v>
+        <v>0.250898927</v>
       </c>
       <c r="K20" t="n">
-        <v>0.445799301</v>
+        <v>0.393726629</v>
       </c>
       <c r="L20" t="n">
-        <v>0.037721518</v>
+        <v>0.03240111</v>
       </c>
       <c r="M20" t="n">
-        <v>0.019189208</v>
+        <v>0.016646493</v>
       </c>
       <c r="N20" t="n">
-        <v>18391040</v>
+        <v>19140608</v>
       </c>
       <c r="O20" t="n">
-        <v>18391040</v>
+        <v>19140608</v>
       </c>
       <c r="P20" t="n">
-        <v>18391040</v>
+        <v>19140608</v>
       </c>
       <c r="Q20" t="n">
-        <v>18391040</v>
+        <v>19140608</v>
       </c>
       <c r="R20" t="n">
-        <v>18391040</v>
+        <v>19140608</v>
       </c>
       <c r="S20" t="n">
+        <v>72</v>
+      </c>
+      <c r="T20" t="n">
+        <v>72</v>
+      </c>
+      <c r="U20" t="n">
+        <v>72</v>
+      </c>
+      <c r="V20" t="n">
+        <v>72</v>
+      </c>
+      <c r="W20" t="n">
         <v>264</v>
       </c>
-      <c r="T20" t="n">
-        <v>64</v>
-      </c>
-      <c r="U20" t="n">
+      <c r="X20" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y20" t="n">
         <v>560</v>
       </c>
-      <c r="V20" t="n">
+      <c r="Z20" t="n">
         <v>560</v>
       </c>
-      <c r="W20" t="n">
+      <c r="AA20" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1965,48 +2213,60 @@
         <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>0.09407370600000001</v>
+        <v>0.08901047400000001</v>
       </c>
       <c r="J21" t="n">
-        <v>0.218563698</v>
+        <v>0.193530247</v>
       </c>
       <c r="K21" t="n">
-        <v>0.327804632</v>
+        <v>0.303504123</v>
       </c>
       <c r="L21" t="n">
-        <v>0.053147238</v>
+        <v>0.04946379</v>
       </c>
       <c r="M21" t="n">
-        <v>0.018168483</v>
+        <v>0.016740164</v>
       </c>
       <c r="N21" t="n">
-        <v>18391040</v>
+        <v>19140608</v>
       </c>
       <c r="O21" t="n">
-        <v>18391040</v>
+        <v>19140608</v>
       </c>
       <c r="P21" t="n">
-        <v>18391040</v>
+        <v>19140608</v>
       </c>
       <c r="Q21" t="n">
-        <v>18391040</v>
+        <v>19140608</v>
       </c>
       <c r="R21" t="n">
-        <v>18391040</v>
+        <v>19140608</v>
       </c>
       <c r="S21" t="n">
+        <v>72</v>
+      </c>
+      <c r="T21" t="n">
+        <v>72</v>
+      </c>
+      <c r="U21" t="n">
+        <v>72</v>
+      </c>
+      <c r="V21" t="n">
+        <v>72</v>
+      </c>
+      <c r="W21" t="n">
         <v>264</v>
       </c>
-      <c r="T21" t="n">
-        <v>64</v>
-      </c>
-      <c r="U21" t="n">
+      <c r="X21" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y21" t="n">
         <v>400</v>
       </c>
-      <c r="V21" t="n">
+      <c r="Z21" t="n">
         <v>400</v>
       </c>
-      <c r="W21" t="n">
+      <c r="AA21" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2038,48 +2298,60 @@
         <v>20</v>
       </c>
       <c r="I22" t="n">
-        <v>0.098379667</v>
+        <v>0.08900649099999999</v>
       </c>
       <c r="J22" t="n">
-        <v>0.164138794</v>
+        <v>0.148689152</v>
       </c>
       <c r="K22" t="n">
-        <v>0.249227156</v>
+        <v>0.222362616</v>
       </c>
       <c r="L22" t="n">
-        <v>0.07483318799999999</v>
+        <v>0.070421972</v>
       </c>
       <c r="M22" t="n">
-        <v>0.019661896</v>
+        <v>0.017923038</v>
       </c>
       <c r="N22" t="n">
-        <v>18566758.4</v>
+        <v>19205120</v>
       </c>
       <c r="O22" t="n">
-        <v>18566758.4</v>
+        <v>19205120</v>
       </c>
       <c r="P22" t="n">
-        <v>18580275.2</v>
+        <v>19218022.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>18580275.2</v>
+        <v>19218022.4</v>
       </c>
       <c r="R22" t="n">
-        <v>18580275.2</v>
+        <v>19218022.4</v>
       </c>
       <c r="S22" t="n">
+        <v>72</v>
+      </c>
+      <c r="T22" t="n">
+        <v>72</v>
+      </c>
+      <c r="U22" t="n">
+        <v>72</v>
+      </c>
+      <c r="V22" t="n">
+        <v>72</v>
+      </c>
+      <c r="W22" t="n">
         <v>264</v>
       </c>
-      <c r="T22" t="n">
-        <v>64</v>
-      </c>
-      <c r="U22" t="n">
+      <c r="X22" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y22" t="n">
         <v>240</v>
       </c>
-      <c r="V22" t="n">
+      <c r="Z22" t="n">
         <v>240</v>
       </c>
-      <c r="W22" t="n">
+      <c r="AA22" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2111,48 +2383,60 @@
         <v>20</v>
       </c>
       <c r="I23" t="n">
-        <v>0.113138802</v>
+        <v>0.103974423</v>
       </c>
       <c r="J23" t="n">
-        <v>0.338561917</v>
+        <v>0.310272708</v>
       </c>
       <c r="K23" t="n">
-        <v>0.52228825</v>
+        <v>0.480782824</v>
       </c>
       <c r="L23" t="n">
-        <v>0.035413063</v>
+        <v>0.03101131</v>
       </c>
       <c r="M23" t="n">
-        <v>0.017723646</v>
+        <v>0.016659898</v>
       </c>
       <c r="N23" t="n">
-        <v>18676121.6</v>
+        <v>19398656</v>
       </c>
       <c r="O23" t="n">
-        <v>18676940.8</v>
+        <v>19398656</v>
       </c>
       <c r="P23" t="n">
-        <v>18676940.8</v>
+        <v>19398656</v>
       </c>
       <c r="Q23" t="n">
-        <v>18676940.8</v>
+        <v>19398656</v>
       </c>
       <c r="R23" t="n">
-        <v>18676940.8</v>
+        <v>19398656</v>
       </c>
       <c r="S23" t="n">
+        <v>72</v>
+      </c>
+      <c r="T23" t="n">
+        <v>72</v>
+      </c>
+      <c r="U23" t="n">
+        <v>72</v>
+      </c>
+      <c r="V23" t="n">
+        <v>72</v>
+      </c>
+      <c r="W23" t="n">
         <v>304</v>
       </c>
-      <c r="T23" t="n">
-        <v>64</v>
-      </c>
-      <c r="U23" t="n">
+      <c r="X23" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y23" t="n">
         <v>720</v>
       </c>
-      <c r="V23" t="n">
+      <c r="Z23" t="n">
         <v>720</v>
       </c>
-      <c r="W23" t="n">
+      <c r="AA23" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2184,48 +2468,60 @@
         <v>20</v>
       </c>
       <c r="I24" t="n">
-        <v>0.112984289</v>
+        <v>0.104787128</v>
       </c>
       <c r="J24" t="n">
-        <v>0.28431089</v>
+        <v>0.272616552</v>
       </c>
       <c r="K24" t="n">
-        <v>0.436080529</v>
+        <v>0.412566268</v>
       </c>
       <c r="L24" t="n">
-        <v>0.052894841</v>
+        <v>0.048008784</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01897675</v>
+        <v>0.016671602</v>
       </c>
       <c r="N24" t="n">
-        <v>18677760</v>
+        <v>19398656</v>
       </c>
       <c r="O24" t="n">
-        <v>18677760</v>
+        <v>19398656</v>
       </c>
       <c r="P24" t="n">
-        <v>18677760</v>
+        <v>19398656</v>
       </c>
       <c r="Q24" t="n">
-        <v>18677760</v>
+        <v>19398656</v>
       </c>
       <c r="R24" t="n">
-        <v>18677760</v>
+        <v>19398656</v>
       </c>
       <c r="S24" t="n">
+        <v>72</v>
+      </c>
+      <c r="T24" t="n">
+        <v>72</v>
+      </c>
+      <c r="U24" t="n">
+        <v>72</v>
+      </c>
+      <c r="V24" t="n">
+        <v>72</v>
+      </c>
+      <c r="W24" t="n">
         <v>304</v>
       </c>
-      <c r="T24" t="n">
-        <v>64</v>
-      </c>
-      <c r="U24" t="n">
+      <c r="X24" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y24" t="n">
         <v>560</v>
       </c>
-      <c r="V24" t="n">
+      <c r="Z24" t="n">
         <v>560</v>
       </c>
-      <c r="W24" t="n">
+      <c r="AA24" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2257,48 +2553,60 @@
         <v>20</v>
       </c>
       <c r="I25" t="n">
-        <v>0.11197576</v>
+        <v>0.105600717</v>
       </c>
       <c r="J25" t="n">
-        <v>0.230860013</v>
+        <v>0.213107459</v>
       </c>
       <c r="K25" t="n">
-        <v>0.341244022</v>
+        <v>0.317580492</v>
       </c>
       <c r="L25" t="n">
-        <v>0.07146888699999999</v>
+        <v>0.06653013300000001</v>
       </c>
       <c r="M25" t="n">
-        <v>0.018180798</v>
+        <v>0.017350999</v>
       </c>
       <c r="N25" t="n">
-        <v>18677760</v>
+        <v>19398656</v>
       </c>
       <c r="O25" t="n">
-        <v>18677760</v>
+        <v>19398656</v>
       </c>
       <c r="P25" t="n">
-        <v>18677760</v>
+        <v>19398656</v>
       </c>
       <c r="Q25" t="n">
-        <v>18677760</v>
+        <v>19398656</v>
       </c>
       <c r="R25" t="n">
-        <v>18677760</v>
+        <v>19398656</v>
       </c>
       <c r="S25" t="n">
+        <v>72</v>
+      </c>
+      <c r="T25" t="n">
+        <v>72</v>
+      </c>
+      <c r="U25" t="n">
+        <v>72</v>
+      </c>
+      <c r="V25" t="n">
+        <v>72</v>
+      </c>
+      <c r="W25" t="n">
         <v>304</v>
       </c>
-      <c r="T25" t="n">
-        <v>64</v>
-      </c>
-      <c r="U25" t="n">
+      <c r="X25" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y25" t="n">
         <v>400</v>
       </c>
-      <c r="V25" t="n">
+      <c r="Z25" t="n">
         <v>400</v>
       </c>
-      <c r="W25" t="n">
+      <c r="AA25" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2330,48 +2638,60 @@
         <v>20</v>
       </c>
       <c r="I26" t="n">
-        <v>0.113098098</v>
+        <v>0.102671178</v>
       </c>
       <c r="J26" t="n">
-        <v>0.181994098</v>
+        <v>0.159370824</v>
       </c>
       <c r="K26" t="n">
-        <v>0.260328289</v>
+        <v>0.233351956</v>
       </c>
       <c r="L26" t="n">
-        <v>0.09434271800000001</v>
+        <v>0.08298048700000001</v>
       </c>
       <c r="M26" t="n">
-        <v>0.018417244</v>
+        <v>0.016360533</v>
       </c>
       <c r="N26" t="n">
-        <v>18677760</v>
+        <v>19398656</v>
       </c>
       <c r="O26" t="n">
-        <v>18677760</v>
+        <v>19398656</v>
       </c>
       <c r="P26" t="n">
-        <v>18677760</v>
+        <v>19398656</v>
       </c>
       <c r="Q26" t="n">
-        <v>18677760</v>
+        <v>19398656</v>
       </c>
       <c r="R26" t="n">
-        <v>18677760</v>
+        <v>19398656</v>
       </c>
       <c r="S26" t="n">
+        <v>72</v>
+      </c>
+      <c r="T26" t="n">
+        <v>72</v>
+      </c>
+      <c r="U26" t="n">
+        <v>72</v>
+      </c>
+      <c r="V26" t="n">
+        <v>72</v>
+      </c>
+      <c r="W26" t="n">
         <v>304</v>
       </c>
-      <c r="T26" t="n">
-        <v>64</v>
-      </c>
-      <c r="U26" t="n">
+      <c r="X26" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y26" t="n">
         <v>240</v>
       </c>
-      <c r="V26" t="n">
+      <c r="Z26" t="n">
         <v>240</v>
       </c>
-      <c r="W26" t="n">
+      <c r="AA26" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2403,48 +2723,60 @@
         <v>20</v>
       </c>
       <c r="I27" t="n">
-        <v>0.142468599</v>
+        <v>0.120175036</v>
       </c>
       <c r="J27" t="n">
-        <v>0.459489651</v>
+        <v>0.378574467</v>
       </c>
       <c r="K27" t="n">
-        <v>0.688003836</v>
+        <v>0.579015666</v>
       </c>
       <c r="L27" t="n">
-        <v>0.035996322</v>
+        <v>0.032196465</v>
       </c>
       <c r="M27" t="n">
-        <v>0.018631479</v>
+        <v>0.016816798</v>
       </c>
       <c r="N27" t="n">
-        <v>18677760</v>
+        <v>19398656</v>
       </c>
       <c r="O27" t="n">
-        <v>18677760</v>
+        <v>19398656</v>
       </c>
       <c r="P27" t="n">
-        <v>18677760</v>
+        <v>19398656</v>
       </c>
       <c r="Q27" t="n">
-        <v>18677760</v>
+        <v>19398656</v>
       </c>
       <c r="R27" t="n">
-        <v>18677760</v>
+        <v>19398656</v>
       </c>
       <c r="S27" t="n">
+        <v>72</v>
+      </c>
+      <c r="T27" t="n">
+        <v>72</v>
+      </c>
+      <c r="U27" t="n">
+        <v>72</v>
+      </c>
+      <c r="V27" t="n">
+        <v>72</v>
+      </c>
+      <c r="W27" t="n">
         <v>344</v>
       </c>
-      <c r="T27" t="n">
-        <v>64</v>
-      </c>
-      <c r="U27" t="n">
+      <c r="X27" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y27" t="n">
         <v>880</v>
       </c>
-      <c r="V27" t="n">
+      <c r="Z27" t="n">
         <v>880</v>
       </c>
-      <c r="W27" t="n">
+      <c r="AA27" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2476,48 +2808,60 @@
         <v>20</v>
       </c>
       <c r="I28" t="n">
-        <v>0.140719393</v>
+        <v>0.1201247</v>
       </c>
       <c r="J28" t="n">
-        <v>0.382354737</v>
+        <v>0.328735997</v>
       </c>
       <c r="K28" t="n">
-        <v>0.58151164</v>
+        <v>0.499292067</v>
       </c>
       <c r="L28" t="n">
-        <v>0.05618499</v>
+        <v>0.049937106</v>
       </c>
       <c r="M28" t="n">
-        <v>0.019258965</v>
+        <v>0.016410371</v>
       </c>
       <c r="N28" t="n">
-        <v>18677760</v>
+        <v>19398656</v>
       </c>
       <c r="O28" t="n">
-        <v>18677760</v>
+        <v>19398656</v>
       </c>
       <c r="P28" t="n">
-        <v>18677760</v>
+        <v>19398656</v>
       </c>
       <c r="Q28" t="n">
-        <v>18677760</v>
+        <v>19398656</v>
       </c>
       <c r="R28" t="n">
-        <v>18677760</v>
+        <v>19398656</v>
       </c>
       <c r="S28" t="n">
+        <v>72</v>
+      </c>
+      <c r="T28" t="n">
+        <v>72</v>
+      </c>
+      <c r="U28" t="n">
+        <v>72</v>
+      </c>
+      <c r="V28" t="n">
+        <v>72</v>
+      </c>
+      <c r="W28" t="n">
         <v>344</v>
       </c>
-      <c r="T28" t="n">
-        <v>64</v>
-      </c>
-      <c r="U28" t="n">
+      <c r="X28" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y28" t="n">
         <v>720</v>
       </c>
-      <c r="V28" t="n">
+      <c r="Z28" t="n">
         <v>720</v>
       </c>
-      <c r="W28" t="n">
+      <c r="AA28" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2549,48 +2893,60 @@
         <v>20</v>
       </c>
       <c r="I29" t="n">
-        <v>0.131488069</v>
+        <v>0.119712287</v>
       </c>
       <c r="J29" t="n">
-        <v>0.304253263</v>
+        <v>0.275694551</v>
       </c>
       <c r="K29" t="n">
-        <v>0.451971759</v>
+        <v>0.411492286</v>
       </c>
       <c r="L29" t="n">
-        <v>0.071809548</v>
+        <v>0.064843658</v>
       </c>
       <c r="M29" t="n">
-        <v>0.017396856</v>
+        <v>0.016759631</v>
       </c>
       <c r="N29" t="n">
-        <v>18835046.4</v>
+        <v>19452723.2</v>
       </c>
       <c r="O29" t="n">
-        <v>18848153.6</v>
+        <v>19452723.2</v>
       </c>
       <c r="P29" t="n">
-        <v>18848153.6</v>
+        <v>19466240</v>
       </c>
       <c r="Q29" t="n">
-        <v>18848153.6</v>
+        <v>19466240</v>
       </c>
       <c r="R29" t="n">
-        <v>18848153.6</v>
+        <v>19466240</v>
       </c>
       <c r="S29" t="n">
+        <v>72</v>
+      </c>
+      <c r="T29" t="n">
+        <v>72</v>
+      </c>
+      <c r="U29" t="n">
+        <v>72</v>
+      </c>
+      <c r="V29" t="n">
+        <v>72</v>
+      </c>
+      <c r="W29" t="n">
         <v>344</v>
       </c>
-      <c r="T29" t="n">
-        <v>64</v>
-      </c>
-      <c r="U29" t="n">
+      <c r="X29" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y29" t="n">
         <v>560</v>
       </c>
-      <c r="V29" t="n">
+      <c r="Z29" t="n">
         <v>560</v>
       </c>
-      <c r="W29" t="n">
+      <c r="AA29" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2622,48 +2978,60 @@
         <v>20</v>
       </c>
       <c r="I30" t="n">
-        <v>0.13223476</v>
+        <v>0.120339101</v>
       </c>
       <c r="J30" t="n">
-        <v>0.251987319</v>
+        <v>0.226970565</v>
       </c>
       <c r="K30" t="n">
-        <v>0.362243933</v>
+        <v>0.338174728</v>
       </c>
       <c r="L30" t="n">
-        <v>0.088501023</v>
+        <v>0.084473772</v>
       </c>
       <c r="M30" t="n">
-        <v>0.018308674</v>
+        <v>0.016986905</v>
       </c>
       <c r="N30" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="O30" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="P30" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="Q30" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="R30" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="S30" t="n">
+        <v>72</v>
+      </c>
+      <c r="T30" t="n">
+        <v>72</v>
+      </c>
+      <c r="U30" t="n">
+        <v>72</v>
+      </c>
+      <c r="V30" t="n">
+        <v>72</v>
+      </c>
+      <c r="W30" t="n">
         <v>344</v>
       </c>
-      <c r="T30" t="n">
-        <v>64</v>
-      </c>
-      <c r="U30" t="n">
+      <c r="X30" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y30" t="n">
         <v>400</v>
       </c>
-      <c r="V30" t="n">
+      <c r="Z30" t="n">
         <v>400</v>
       </c>
-      <c r="W30" t="n">
+      <c r="AA30" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2695,48 +3063,60 @@
         <v>20</v>
       </c>
       <c r="I31" t="n">
-        <v>0.127816339</v>
+        <v>0.123945621</v>
       </c>
       <c r="J31" t="n">
-        <v>0.196243934</v>
+        <v>0.185779589</v>
       </c>
       <c r="K31" t="n">
-        <v>0.268553234</v>
+        <v>0.255783772</v>
       </c>
       <c r="L31" t="n">
-        <v>0.106852072</v>
+        <v>0.098970735</v>
       </c>
       <c r="M31" t="n">
-        <v>0.017759049</v>
+        <v>0.016764583</v>
       </c>
       <c r="N31" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="O31" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="P31" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="Q31" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="R31" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="S31" t="n">
+        <v>72</v>
+      </c>
+      <c r="T31" t="n">
+        <v>72</v>
+      </c>
+      <c r="U31" t="n">
+        <v>72</v>
+      </c>
+      <c r="V31" t="n">
+        <v>72</v>
+      </c>
+      <c r="W31" t="n">
         <v>344</v>
       </c>
-      <c r="T31" t="n">
-        <v>64</v>
-      </c>
-      <c r="U31" t="n">
+      <c r="X31" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y31" t="n">
         <v>240</v>
       </c>
-      <c r="V31" t="n">
+      <c r="Z31" t="n">
         <v>240</v>
       </c>
-      <c r="W31" t="n">
+      <c r="AA31" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2768,48 +3148,60 @@
         <v>20</v>
       </c>
       <c r="I32" t="n">
-        <v>0.070470386</v>
+        <v>0.06550114899999999</v>
       </c>
       <c r="J32" t="n">
-        <v>0.14929075</v>
+        <v>0.138630084</v>
       </c>
       <c r="K32" t="n">
-        <v>0.242206368</v>
+        <v>0.226438565</v>
       </c>
       <c r="L32" t="n">
-        <v>0.043465565</v>
+        <v>0.039722291</v>
       </c>
       <c r="M32" t="n">
-        <v>0.023102039</v>
+        <v>0.020444489</v>
       </c>
       <c r="N32" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="O32" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="P32" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="Q32" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="R32" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="S32" t="n">
+        <v>72</v>
+      </c>
+      <c r="T32" t="n">
+        <v>72</v>
+      </c>
+      <c r="U32" t="n">
+        <v>72</v>
+      </c>
+      <c r="V32" t="n">
+        <v>72</v>
+      </c>
+      <c r="W32" t="n">
         <v>184</v>
       </c>
-      <c r="T32" t="n">
-        <v>64</v>
-      </c>
-      <c r="U32" t="n">
+      <c r="X32" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y32" t="n">
         <v>240</v>
       </c>
-      <c r="V32" t="n">
+      <c r="Z32" t="n">
         <v>240</v>
       </c>
-      <c r="W32" t="n">
+      <c r="AA32" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2841,48 +3233,60 @@
         <v>20</v>
       </c>
       <c r="I33" t="n">
-        <v>0.093558567</v>
+        <v>0.08418200000000001</v>
       </c>
       <c r="J33" t="n">
-        <v>0.237672234</v>
+        <v>0.21774006</v>
       </c>
       <c r="K33" t="n">
-        <v>0.378912571</v>
+        <v>0.351212927</v>
       </c>
       <c r="L33" t="n">
-        <v>0.042816738</v>
+        <v>0.038859298</v>
       </c>
       <c r="M33" t="n">
-        <v>0.022511044</v>
+        <v>0.019770664</v>
       </c>
       <c r="N33" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="O33" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="P33" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="Q33" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="R33" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="S33" t="n">
+        <v>72</v>
+      </c>
+      <c r="T33" t="n">
+        <v>72</v>
+      </c>
+      <c r="U33" t="n">
+        <v>72</v>
+      </c>
+      <c r="V33" t="n">
+        <v>72</v>
+      </c>
+      <c r="W33" t="n">
         <v>224</v>
       </c>
-      <c r="T33" t="n">
-        <v>64</v>
-      </c>
-      <c r="U33" t="n">
+      <c r="X33" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y33" t="n">
         <v>400</v>
       </c>
-      <c r="V33" t="n">
+      <c r="Z33" t="n">
         <v>400</v>
       </c>
-      <c r="W33" t="n">
+      <c r="AA33" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2914,48 +3318,60 @@
         <v>20</v>
       </c>
       <c r="I34" t="n">
-        <v>0.09440696899999999</v>
+        <v>0.089544977</v>
       </c>
       <c r="J34" t="n">
-        <v>0.171662758</v>
+        <v>0.168283036</v>
       </c>
       <c r="K34" t="n">
-        <v>0.267692295</v>
+        <v>0.254834537</v>
       </c>
       <c r="L34" t="n">
-        <v>0.064325783</v>
+        <v>0.061221831</v>
       </c>
       <c r="M34" t="n">
-        <v>0.021773144</v>
+        <v>0.021194225</v>
       </c>
       <c r="N34" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="O34" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="P34" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="Q34" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="R34" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="S34" t="n">
+        <v>72</v>
+      </c>
+      <c r="T34" t="n">
+        <v>72</v>
+      </c>
+      <c r="U34" t="n">
+        <v>72</v>
+      </c>
+      <c r="V34" t="n">
+        <v>72</v>
+      </c>
+      <c r="W34" t="n">
         <v>224</v>
       </c>
-      <c r="T34" t="n">
-        <v>64</v>
-      </c>
-      <c r="U34" t="n">
+      <c r="X34" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y34" t="n">
         <v>240</v>
       </c>
-      <c r="V34" t="n">
+      <c r="Z34" t="n">
         <v>240</v>
       </c>
-      <c r="W34" t="n">
+      <c r="AA34" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2987,48 +3403,60 @@
         <v>20</v>
       </c>
       <c r="I35" t="n">
-        <v>0.11517613</v>
+        <v>0.107180051</v>
       </c>
       <c r="J35" t="n">
-        <v>0.33229515</v>
+        <v>0.304209748</v>
       </c>
       <c r="K35" t="n">
-        <v>0.514067429</v>
+        <v>0.469025057</v>
       </c>
       <c r="L35" t="n">
-        <v>0.041608276</v>
+        <v>0.04012364</v>
       </c>
       <c r="M35" t="n">
-        <v>0.021850602</v>
+        <v>0.020848487</v>
       </c>
       <c r="N35" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="O35" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="P35" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="Q35" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="R35" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="S35" t="n">
+        <v>72</v>
+      </c>
+      <c r="T35" t="n">
+        <v>72</v>
+      </c>
+      <c r="U35" t="n">
+        <v>72</v>
+      </c>
+      <c r="V35" t="n">
+        <v>72</v>
+      </c>
+      <c r="W35" t="n">
         <v>264</v>
       </c>
-      <c r="T35" t="n">
-        <v>64</v>
-      </c>
-      <c r="U35" t="n">
+      <c r="X35" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y35" t="n">
         <v>560</v>
       </c>
-      <c r="V35" t="n">
+      <c r="Z35" t="n">
         <v>560</v>
       </c>
-      <c r="W35" t="n">
+      <c r="AA35" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3060,48 +3488,60 @@
         <v>20</v>
       </c>
       <c r="I36" t="n">
-        <v>0.116640809</v>
+        <v>0.10800678</v>
       </c>
       <c r="J36" t="n">
-        <v>0.264005815</v>
+        <v>0.243732872</v>
       </c>
       <c r="K36" t="n">
-        <v>0.406735197</v>
+        <v>0.382098297</v>
       </c>
       <c r="L36" t="n">
-        <v>0.06681537</v>
+        <v>0.060817266</v>
       </c>
       <c r="M36" t="n">
-        <v>0.021571683</v>
+        <v>0.020602802</v>
       </c>
       <c r="N36" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="O36" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="P36" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="Q36" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="R36" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="S36" t="n">
+        <v>72</v>
+      </c>
+      <c r="T36" t="n">
+        <v>72</v>
+      </c>
+      <c r="U36" t="n">
+        <v>72</v>
+      </c>
+      <c r="V36" t="n">
+        <v>72</v>
+      </c>
+      <c r="W36" t="n">
         <v>264</v>
       </c>
-      <c r="T36" t="n">
-        <v>64</v>
-      </c>
-      <c r="U36" t="n">
+      <c r="X36" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y36" t="n">
         <v>400</v>
       </c>
-      <c r="V36" t="n">
+      <c r="Z36" t="n">
         <v>400</v>
       </c>
-      <c r="W36" t="n">
+      <c r="AA36" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3133,48 +3573,60 @@
         <v>20</v>
       </c>
       <c r="I37" t="n">
-        <v>0.126684382</v>
+        <v>0.107692424</v>
       </c>
       <c r="J37" t="n">
-        <v>0.215454931</v>
+        <v>0.181918541</v>
       </c>
       <c r="K37" t="n">
-        <v>0.325379207</v>
+        <v>0.273127978</v>
       </c>
       <c r="L37" t="n">
-        <v>0.098903779</v>
+        <v>0.083388817</v>
       </c>
       <c r="M37" t="n">
-        <v>0.024345008</v>
+        <v>0.020924212</v>
       </c>
       <c r="N37" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="O37" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="P37" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="Q37" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="R37" t="n">
-        <v>18939904</v>
+        <v>19668992</v>
       </c>
       <c r="S37" t="n">
+        <v>72</v>
+      </c>
+      <c r="T37" t="n">
+        <v>72</v>
+      </c>
+      <c r="U37" t="n">
+        <v>72</v>
+      </c>
+      <c r="V37" t="n">
+        <v>72</v>
+      </c>
+      <c r="W37" t="n">
         <v>264</v>
       </c>
-      <c r="T37" t="n">
-        <v>64</v>
-      </c>
-      <c r="U37" t="n">
+      <c r="X37" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y37" t="n">
         <v>240</v>
       </c>
-      <c r="V37" t="n">
+      <c r="Z37" t="n">
         <v>240</v>
       </c>
-      <c r="W37" t="n">
+      <c r="AA37" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3206,48 +3658,60 @@
         <v>20</v>
       </c>
       <c r="I38" t="n">
-        <v>0.14237313</v>
+        <v>0.126923033</v>
       </c>
       <c r="J38" t="n">
-        <v>0.435898611</v>
+        <v>0.389115097</v>
       </c>
       <c r="K38" t="n">
-        <v>0.671133678</v>
+        <v>0.600125047</v>
       </c>
       <c r="L38" t="n">
-        <v>0.043016669</v>
+        <v>0.039245213</v>
       </c>
       <c r="M38" t="n">
-        <v>0.022029213</v>
+        <v>0.020205508</v>
       </c>
       <c r="N38" t="n">
-        <v>19088588.8</v>
+        <v>19709542.4</v>
       </c>
       <c r="O38" t="n">
-        <v>19102105.6</v>
+        <v>19709542.4</v>
       </c>
       <c r="P38" t="n">
-        <v>19102105.6</v>
+        <v>19723059.2</v>
       </c>
       <c r="Q38" t="n">
-        <v>19102105.6</v>
+        <v>19723059.2</v>
       </c>
       <c r="R38" t="n">
-        <v>19102105.6</v>
+        <v>19723059.2</v>
       </c>
       <c r="S38" t="n">
+        <v>72</v>
+      </c>
+      <c r="T38" t="n">
+        <v>72</v>
+      </c>
+      <c r="U38" t="n">
+        <v>72</v>
+      </c>
+      <c r="V38" t="n">
+        <v>72</v>
+      </c>
+      <c r="W38" t="n">
         <v>304</v>
       </c>
-      <c r="T38" t="n">
-        <v>64</v>
-      </c>
-      <c r="U38" t="n">
+      <c r="X38" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y38" t="n">
         <v>720</v>
       </c>
-      <c r="V38" t="n">
+      <c r="Z38" t="n">
         <v>720</v>
       </c>
-      <c r="W38" t="n">
+      <c r="AA38" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3279,48 +3743,60 @@
         <v>20</v>
       </c>
       <c r="I39" t="n">
-        <v>0.142881781</v>
+        <v>0.128447547</v>
       </c>
       <c r="J39" t="n">
-        <v>0.361953555</v>
+        <v>0.326749018</v>
       </c>
       <c r="K39" t="n">
-        <v>0.56029843</v>
+        <v>0.490170948</v>
       </c>
       <c r="L39" t="n">
-        <v>0.06909380800000001</v>
+        <v>0.059249354</v>
       </c>
       <c r="M39" t="n">
-        <v>0.022168502</v>
+        <v>0.02021298</v>
       </c>
       <c r="N39" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="O39" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="P39" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="Q39" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="R39" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="S39" t="n">
+        <v>72</v>
+      </c>
+      <c r="T39" t="n">
+        <v>72</v>
+      </c>
+      <c r="U39" t="n">
+        <v>72</v>
+      </c>
+      <c r="V39" t="n">
+        <v>72</v>
+      </c>
+      <c r="W39" t="n">
         <v>304</v>
       </c>
-      <c r="T39" t="n">
-        <v>64</v>
-      </c>
-      <c r="U39" t="n">
+      <c r="X39" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y39" t="n">
         <v>560</v>
       </c>
-      <c r="V39" t="n">
+      <c r="Z39" t="n">
         <v>560</v>
       </c>
-      <c r="W39" t="n">
+      <c r="AA39" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3352,48 +3828,60 @@
         <v>20</v>
       </c>
       <c r="I40" t="n">
-        <v>0.157865089</v>
+        <v>0.12900263</v>
       </c>
       <c r="J40" t="n">
-        <v>0.36749566</v>
+        <v>0.269234665</v>
       </c>
       <c r="K40" t="n">
-        <v>0.5211632819999999</v>
+        <v>0.400701063</v>
       </c>
       <c r="L40" t="n">
-        <v>0.110519461</v>
+        <v>0.08323602500000001</v>
       </c>
       <c r="M40" t="n">
-        <v>0.031963701</v>
+        <v>0.020912436</v>
       </c>
       <c r="N40" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="O40" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="P40" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="Q40" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="R40" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="S40" t="n">
+        <v>72</v>
+      </c>
+      <c r="T40" t="n">
+        <v>72</v>
+      </c>
+      <c r="U40" t="n">
+        <v>72</v>
+      </c>
+      <c r="V40" t="n">
+        <v>72</v>
+      </c>
+      <c r="W40" t="n">
         <v>304</v>
       </c>
-      <c r="T40" t="n">
-        <v>64</v>
-      </c>
-      <c r="U40" t="n">
+      <c r="X40" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y40" t="n">
         <v>400</v>
       </c>
-      <c r="V40" t="n">
+      <c r="Z40" t="n">
         <v>400</v>
       </c>
-      <c r="W40" t="n">
+      <c r="AA40" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3425,48 +3913,60 @@
         <v>20</v>
       </c>
       <c r="I41" t="n">
-        <v>0.186750465</v>
+        <v>0.129017126</v>
       </c>
       <c r="J41" t="n">
-        <v>0.296460843</v>
+        <v>0.204319905</v>
       </c>
       <c r="K41" t="n">
-        <v>0.458618271</v>
+        <v>0.292841616</v>
       </c>
       <c r="L41" t="n">
-        <v>0.160466541</v>
+        <v>0.102318018</v>
       </c>
       <c r="M41" t="n">
-        <v>0.030997182</v>
+        <v>0.020442888</v>
       </c>
       <c r="N41" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="O41" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="P41" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="Q41" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="R41" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="S41" t="n">
+        <v>72</v>
+      </c>
+      <c r="T41" t="n">
+        <v>72</v>
+      </c>
+      <c r="U41" t="n">
+        <v>72</v>
+      </c>
+      <c r="V41" t="n">
+        <v>72</v>
+      </c>
+      <c r="W41" t="n">
         <v>304</v>
       </c>
-      <c r="T41" t="n">
-        <v>64</v>
-      </c>
-      <c r="U41" t="n">
+      <c r="X41" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y41" t="n">
         <v>240</v>
       </c>
-      <c r="V41" t="n">
+      <c r="Z41" t="n">
         <v>240</v>
       </c>
-      <c r="W41" t="n">
+      <c r="AA41" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3498,48 +3998,60 @@
         <v>20</v>
       </c>
       <c r="I42" t="n">
-        <v>0.204886618</v>
+        <v>0.149687849</v>
       </c>
       <c r="J42" t="n">
-        <v>0.651572597</v>
+        <v>0.469985734</v>
       </c>
       <c r="K42" t="n">
-        <v>0.975244471</v>
+        <v>0.72913303</v>
       </c>
       <c r="L42" t="n">
-        <v>0.051871664</v>
+        <v>0.039426265</v>
       </c>
       <c r="M42" t="n">
-        <v>0.028608462</v>
+        <v>0.02023624</v>
       </c>
       <c r="N42" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="O42" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="P42" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="Q42" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="R42" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="S42" t="n">
+        <v>72</v>
+      </c>
+      <c r="T42" t="n">
+        <v>72</v>
+      </c>
+      <c r="U42" t="n">
+        <v>72</v>
+      </c>
+      <c r="V42" t="n">
+        <v>72</v>
+      </c>
+      <c r="W42" t="n">
         <v>344</v>
       </c>
-      <c r="T42" t="n">
-        <v>64</v>
-      </c>
-      <c r="U42" t="n">
+      <c r="X42" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y42" t="n">
         <v>880</v>
       </c>
-      <c r="V42" t="n">
+      <c r="Z42" t="n">
         <v>880</v>
       </c>
-      <c r="W42" t="n">
+      <c r="AA42" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3571,48 +4083,60 @@
         <v>20</v>
       </c>
       <c r="I43" t="n">
-        <v>0.229247947</v>
+        <v>0.146530482</v>
       </c>
       <c r="J43" t="n">
-        <v>0.629759305</v>
+        <v>0.40551956</v>
       </c>
       <c r="K43" t="n">
-        <v>0.97097441</v>
+        <v>0.617943091</v>
       </c>
       <c r="L43" t="n">
-        <v>0.09241175</v>
+        <v>0.058889055</v>
       </c>
       <c r="M43" t="n">
-        <v>0.033365664</v>
+        <v>0.019991511</v>
       </c>
       <c r="N43" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="O43" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="P43" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="Q43" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="R43" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="S43" t="n">
+        <v>72</v>
+      </c>
+      <c r="T43" t="n">
+        <v>72</v>
+      </c>
+      <c r="U43" t="n">
+        <v>72</v>
+      </c>
+      <c r="V43" t="n">
+        <v>72</v>
+      </c>
+      <c r="W43" t="n">
         <v>344</v>
       </c>
-      <c r="T43" t="n">
-        <v>64</v>
-      </c>
-      <c r="U43" t="n">
+      <c r="X43" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y43" t="n">
         <v>720</v>
       </c>
-      <c r="V43" t="n">
+      <c r="Z43" t="n">
         <v>720</v>
       </c>
-      <c r="W43" t="n">
+      <c r="AA43" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3644,48 +4168,60 @@
         <v>20</v>
       </c>
       <c r="I44" t="n">
-        <v>0.245703145</v>
+        <v>0.153579279</v>
       </c>
       <c r="J44" t="n">
-        <v>0.553623294</v>
+        <v>0.351556742</v>
       </c>
       <c r="K44" t="n">
-        <v>0.8280626290000001</v>
+        <v>0.523745842</v>
       </c>
       <c r="L44" t="n">
-        <v>0.136470578</v>
+        <v>0.082049133</v>
       </c>
       <c r="M44" t="n">
-        <v>0.032877402</v>
+        <v>0.020598808</v>
       </c>
       <c r="N44" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="O44" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="P44" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="Q44" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="R44" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="S44" t="n">
+        <v>72</v>
+      </c>
+      <c r="T44" t="n">
+        <v>72</v>
+      </c>
+      <c r="U44" t="n">
+        <v>72</v>
+      </c>
+      <c r="V44" t="n">
+        <v>72</v>
+      </c>
+      <c r="W44" t="n">
         <v>344</v>
       </c>
-      <c r="T44" t="n">
-        <v>64</v>
-      </c>
-      <c r="U44" t="n">
+      <c r="X44" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y44" t="n">
         <v>560</v>
       </c>
-      <c r="V44" t="n">
+      <c r="Z44" t="n">
         <v>560</v>
       </c>
-      <c r="W44" t="n">
+      <c r="AA44" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3717,48 +4253,60 @@
         <v>20</v>
       </c>
       <c r="I45" t="n">
-        <v>0.246144144</v>
+        <v>0.152138842</v>
       </c>
       <c r="J45" t="n">
-        <v>0.443992225</v>
+        <v>0.28967252</v>
       </c>
       <c r="K45" t="n">
-        <v>0.6639419560000001</v>
+        <v>0.421398711</v>
       </c>
       <c r="L45" t="n">
-        <v>0.172857969</v>
+        <v>0.105446336</v>
       </c>
       <c r="M45" t="n">
-        <v>0.032966086</v>
+        <v>0.021249168</v>
       </c>
       <c r="N45" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="O45" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="P45" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="Q45" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="R45" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="S45" t="n">
+        <v>72</v>
+      </c>
+      <c r="T45" t="n">
+        <v>72</v>
+      </c>
+      <c r="U45" t="n">
+        <v>72</v>
+      </c>
+      <c r="V45" t="n">
+        <v>72</v>
+      </c>
+      <c r="W45" t="n">
         <v>344</v>
       </c>
-      <c r="T45" t="n">
-        <v>64</v>
-      </c>
-      <c r="U45" t="n">
+      <c r="X45" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y45" t="n">
         <v>400</v>
       </c>
-      <c r="V45" t="n">
+      <c r="Z45" t="n">
         <v>400</v>
       </c>
-      <c r="W45" t="n">
+      <c r="AA45" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3790,48 +4338,60 @@
         <v>20</v>
       </c>
       <c r="I46" t="n">
-        <v>0.241656767</v>
+        <v>0.154585404</v>
       </c>
       <c r="J46" t="n">
-        <v>0.353464662</v>
+        <v>0.231188945</v>
       </c>
       <c r="K46" t="n">
-        <v>0.491214643</v>
+        <v>0.324954874</v>
       </c>
       <c r="L46" t="n">
-        <v>0.194897173</v>
+        <v>0.130141132</v>
       </c>
       <c r="M46" t="n">
-        <v>0.034121595</v>
+        <v>0.021448927</v>
       </c>
       <c r="N46" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="O46" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="P46" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="Q46" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="R46" t="n">
-        <v>19210240</v>
+        <v>19939328</v>
       </c>
       <c r="S46" t="n">
+        <v>72</v>
+      </c>
+      <c r="T46" t="n">
+        <v>72</v>
+      </c>
+      <c r="U46" t="n">
+        <v>72</v>
+      </c>
+      <c r="V46" t="n">
+        <v>72</v>
+      </c>
+      <c r="W46" t="n">
         <v>344</v>
       </c>
-      <c r="T46" t="n">
-        <v>64</v>
-      </c>
-      <c r="U46" t="n">
+      <c r="X46" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y46" t="n">
         <v>240</v>
       </c>
-      <c r="V46" t="n">
+      <c r="Z46" t="n">
         <v>240</v>
       </c>
-      <c r="W46" t="n">
+      <c r="AA46" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3863,48 +4423,60 @@
         <v>20</v>
       </c>
       <c r="I47" t="n">
-        <v>0.028300993</v>
+        <v>0.019051392</v>
       </c>
       <c r="J47" t="n">
-        <v>0.047835968</v>
+        <v>0.031982606</v>
       </c>
       <c r="K47" t="n">
-        <v>0.074939231</v>
+        <v>0.055963103</v>
       </c>
       <c r="L47" t="n">
-        <v>0.015008981</v>
+        <v>0.011700916</v>
       </c>
       <c r="M47" t="n">
-        <v>0.006394217</v>
+        <v>0.004843533</v>
       </c>
       <c r="N47" t="n">
-        <v>19502080</v>
+        <v>20221952</v>
       </c>
       <c r="O47" t="n">
-        <v>19502080</v>
+        <v>20221952</v>
       </c>
       <c r="P47" t="n">
-        <v>19504537.6</v>
+        <v>20230553.6</v>
       </c>
       <c r="Q47" t="n">
-        <v>19529728</v>
+        <v>20243660.8</v>
       </c>
       <c r="R47" t="n">
-        <v>19529728</v>
+        <v>20243660.8</v>
       </c>
       <c r="S47" t="n">
+        <v>72</v>
+      </c>
+      <c r="T47" t="n">
+        <v>72</v>
+      </c>
+      <c r="U47" t="n">
+        <v>72</v>
+      </c>
+      <c r="V47" t="n">
+        <v>72</v>
+      </c>
+      <c r="W47" t="n">
         <v>184</v>
       </c>
-      <c r="T47" t="n">
-        <v>64</v>
-      </c>
-      <c r="U47" t="n">
+      <c r="X47" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y47" t="n">
         <v>240</v>
       </c>
-      <c r="V47" t="n">
+      <c r="Z47" t="n">
         <v>240</v>
       </c>
-      <c r="W47" t="n">
+      <c r="AA47" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3936,48 +4508,60 @@
         <v>20</v>
       </c>
       <c r="I48" t="n">
-        <v>0.035538397</v>
+        <v>0.022383422</v>
       </c>
       <c r="J48" t="n">
-        <v>0.083542087</v>
+        <v>0.04931425</v>
       </c>
       <c r="K48" t="n">
-        <v>0.122959481</v>
+        <v>0.078567361</v>
       </c>
       <c r="L48" t="n">
-        <v>0.015205797</v>
+        <v>0.010759791</v>
       </c>
       <c r="M48" t="n">
-        <v>0.00623722</v>
+        <v>0.004204906</v>
       </c>
       <c r="N48" t="n">
-        <v>19634176</v>
+        <v>20296294.4</v>
       </c>
       <c r="O48" t="n">
-        <v>19628851.2</v>
+        <v>20285849.6</v>
       </c>
       <c r="P48" t="n">
-        <v>19635404.8</v>
+        <v>20295270.4</v>
       </c>
       <c r="Q48" t="n">
-        <v>19683942.4</v>
+        <v>20370432</v>
       </c>
       <c r="R48" t="n">
-        <v>19683942.4</v>
+        <v>20370432</v>
       </c>
       <c r="S48" t="n">
+        <v>72</v>
+      </c>
+      <c r="T48" t="n">
+        <v>72</v>
+      </c>
+      <c r="U48" t="n">
+        <v>72</v>
+      </c>
+      <c r="V48" t="n">
+        <v>72</v>
+      </c>
+      <c r="W48" t="n">
         <v>224</v>
       </c>
-      <c r="T48" t="n">
-        <v>64</v>
-      </c>
-      <c r="U48" t="n">
+      <c r="X48" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y48" t="n">
         <v>400</v>
       </c>
-      <c r="V48" t="n">
+      <c r="Z48" t="n">
         <v>400</v>
       </c>
-      <c r="W48" t="n">
+      <c r="AA48" t="n">
         <v>72</v>
       </c>
     </row>
@@ -4009,48 +4593,60 @@
         <v>20</v>
       </c>
       <c r="I49" t="n">
-        <v>0.032262818</v>
+        <v>0.021230288</v>
       </c>
       <c r="J49" t="n">
-        <v>0.054199249</v>
+        <v>0.034480693</v>
       </c>
       <c r="K49" t="n">
-        <v>0.090929079</v>
+        <v>0.053030964</v>
       </c>
       <c r="L49" t="n">
-        <v>0.024577423</v>
+        <v>0.014250391</v>
       </c>
       <c r="M49" t="n">
-        <v>0.006938103</v>
+        <v>0.003900254</v>
       </c>
       <c r="N49" t="n">
-        <v>19579494.4</v>
+        <v>20240384</v>
       </c>
       <c r="O49" t="n">
-        <v>19579494.4</v>
+        <v>20240384</v>
       </c>
       <c r="P49" t="n">
-        <v>19559219.2</v>
+        <v>20240588.8</v>
       </c>
       <c r="Q49" t="n">
-        <v>19569049.6</v>
+        <v>20242636.8</v>
       </c>
       <c r="R49" t="n">
-        <v>19569049.6</v>
+        <v>20242636.8</v>
       </c>
       <c r="S49" t="n">
+        <v>72</v>
+      </c>
+      <c r="T49" t="n">
+        <v>72</v>
+      </c>
+      <c r="U49" t="n">
+        <v>72</v>
+      </c>
+      <c r="V49" t="n">
+        <v>72</v>
+      </c>
+      <c r="W49" t="n">
         <v>224</v>
       </c>
-      <c r="T49" t="n">
-        <v>64</v>
-      </c>
-      <c r="U49" t="n">
+      <c r="X49" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y49" t="n">
         <v>240</v>
       </c>
-      <c r="V49" t="n">
+      <c r="Z49" t="n">
         <v>240</v>
       </c>
-      <c r="W49" t="n">
+      <c r="AA49" t="n">
         <v>72</v>
       </c>
     </row>
@@ -4082,48 +4678,60 @@
         <v>20</v>
       </c>
       <c r="I50" t="n">
-        <v>0.042173048</v>
+        <v>0.024042514</v>
       </c>
       <c r="J50" t="n">
-        <v>0.101729156</v>
+        <v>0.06039569</v>
       </c>
       <c r="K50" t="n">
-        <v>0.158347179</v>
+        <v>0.09608541800000001</v>
       </c>
       <c r="L50" t="n">
-        <v>0.015010437</v>
+        <v>0.009663615</v>
       </c>
       <c r="M50" t="n">
-        <v>0.005414304</v>
+        <v>0.003848397</v>
       </c>
       <c r="N50" t="n">
-        <v>19723673.6</v>
+        <v>20314931.2</v>
       </c>
       <c r="O50" t="n">
-        <v>19715276.8</v>
+        <v>20308172.8</v>
       </c>
       <c r="P50" t="n">
-        <v>19730022.4</v>
+        <v>20310835.2</v>
       </c>
       <c r="Q50" t="n">
-        <v>19782246.4</v>
+        <v>20363673.6</v>
       </c>
       <c r="R50" t="n">
-        <v>19782246.4</v>
+        <v>20363878.4</v>
       </c>
       <c r="S50" t="n">
+        <v>72</v>
+      </c>
+      <c r="T50" t="n">
+        <v>72</v>
+      </c>
+      <c r="U50" t="n">
+        <v>72</v>
+      </c>
+      <c r="V50" t="n">
+        <v>72</v>
+      </c>
+      <c r="W50" t="n">
         <v>264</v>
       </c>
-      <c r="T50" t="n">
-        <v>64</v>
-      </c>
-      <c r="U50" t="n">
+      <c r="X50" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y50" t="n">
         <v>560</v>
       </c>
-      <c r="V50" t="n">
+      <c r="Z50" t="n">
         <v>560</v>
       </c>
-      <c r="W50" t="n">
+      <c r="AA50" t="n">
         <v>72</v>
       </c>
     </row>
@@ -4155,48 +4763,60 @@
         <v>20</v>
       </c>
       <c r="I51" t="n">
-        <v>0.039972411</v>
+        <v>0.024079731</v>
       </c>
       <c r="J51" t="n">
-        <v>0.079226695</v>
+        <v>0.048143044</v>
       </c>
       <c r="K51" t="n">
-        <v>0.123622346</v>
+        <v>0.07338892700000001</v>
       </c>
       <c r="L51" t="n">
-        <v>0.022149465</v>
+        <v>0.013601001</v>
       </c>
       <c r="M51" t="n">
-        <v>0.006276247</v>
+        <v>0.003806911</v>
       </c>
       <c r="N51" t="n">
-        <v>19709747.2</v>
+        <v>20463616</v>
       </c>
       <c r="O51" t="n">
-        <v>19705446.4</v>
+        <v>20463616</v>
       </c>
       <c r="P51" t="n">
-        <v>19713843.2</v>
+        <v>20463616</v>
       </c>
       <c r="Q51" t="n">
-        <v>19745996.8</v>
+        <v>20463616</v>
       </c>
       <c r="R51" t="n">
-        <v>19745996.8</v>
+        <v>20463616</v>
       </c>
       <c r="S51" t="n">
+        <v>72</v>
+      </c>
+      <c r="T51" t="n">
+        <v>72</v>
+      </c>
+      <c r="U51" t="n">
+        <v>72</v>
+      </c>
+      <c r="V51" t="n">
+        <v>72</v>
+      </c>
+      <c r="W51" t="n">
         <v>264</v>
       </c>
-      <c r="T51" t="n">
-        <v>64</v>
-      </c>
-      <c r="U51" t="n">
+      <c r="X51" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y51" t="n">
         <v>400</v>
       </c>
-      <c r="V51" t="n">
+      <c r="Z51" t="n">
         <v>400</v>
       </c>
-      <c r="W51" t="n">
+      <c r="AA51" t="n">
         <v>72</v>
       </c>
     </row>
@@ -4228,48 +4848,60 @@
         <v>20</v>
       </c>
       <c r="I52" t="n">
-        <v>0.039104058</v>
+        <v>0.025310056</v>
       </c>
       <c r="J52" t="n">
-        <v>0.056724006</v>
+        <v>0.037799024</v>
       </c>
       <c r="K52" t="n">
-        <v>0.08717401599999999</v>
+        <v>0.058182424</v>
       </c>
       <c r="L52" t="n">
-        <v>0.026865825</v>
+        <v>0.018728162</v>
       </c>
       <c r="M52" t="n">
-        <v>0.005737054</v>
+        <v>0.00398083</v>
       </c>
       <c r="N52" t="n">
-        <v>19606323.2</v>
+        <v>20463616</v>
       </c>
       <c r="O52" t="n">
-        <v>19606323.2</v>
+        <v>20463616</v>
       </c>
       <c r="P52" t="n">
-        <v>19604684.8</v>
+        <v>20463616</v>
       </c>
       <c r="Q52" t="n">
-        <v>19591782.4</v>
+        <v>20463616</v>
       </c>
       <c r="R52" t="n">
-        <v>19591782.4</v>
+        <v>20463616</v>
       </c>
       <c r="S52" t="n">
+        <v>72</v>
+      </c>
+      <c r="T52" t="n">
+        <v>72</v>
+      </c>
+      <c r="U52" t="n">
+        <v>72</v>
+      </c>
+      <c r="V52" t="n">
+        <v>72</v>
+      </c>
+      <c r="W52" t="n">
         <v>264</v>
       </c>
-      <c r="T52" t="n">
-        <v>64</v>
-      </c>
-      <c r="U52" t="n">
+      <c r="X52" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y52" t="n">
         <v>240</v>
       </c>
-      <c r="V52" t="n">
+      <c r="Z52" t="n">
         <v>240</v>
       </c>
-      <c r="W52" t="n">
+      <c r="AA52" t="n">
         <v>72</v>
       </c>
     </row>
@@ -4301,48 +4933,60 @@
         <v>20</v>
       </c>
       <c r="I53" t="n">
-        <v>0.048719823</v>
+        <v>0.027808886</v>
       </c>
       <c r="J53" t="n">
-        <v>0.135000042</v>
+        <v>0.075828163</v>
       </c>
       <c r="K53" t="n">
-        <v>0.190404187</v>
+        <v>0.117970384</v>
       </c>
       <c r="L53" t="n">
-        <v>0.017325634</v>
+        <v>0.009670297</v>
       </c>
       <c r="M53" t="n">
-        <v>0.006710524</v>
+        <v>0.003720766</v>
       </c>
       <c r="N53" t="n">
-        <v>19759718.4</v>
+        <v>20463616</v>
       </c>
       <c r="O53" t="n">
-        <v>19753779.2</v>
+        <v>20463616</v>
       </c>
       <c r="P53" t="n">
-        <v>19756236.8</v>
+        <v>20463616</v>
       </c>
       <c r="Q53" t="n">
-        <v>19769548.8</v>
+        <v>20463616</v>
       </c>
       <c r="R53" t="n">
-        <v>19769548.8</v>
+        <v>20463616</v>
       </c>
       <c r="S53" t="n">
+        <v>72</v>
+      </c>
+      <c r="T53" t="n">
+        <v>72</v>
+      </c>
+      <c r="U53" t="n">
+        <v>72</v>
+      </c>
+      <c r="V53" t="n">
+        <v>72</v>
+      </c>
+      <c r="W53" t="n">
         <v>304</v>
       </c>
-      <c r="T53" t="n">
-        <v>64</v>
-      </c>
-      <c r="U53" t="n">
+      <c r="X53" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y53" t="n">
         <v>720</v>
       </c>
-      <c r="V53" t="n">
+      <c r="Z53" t="n">
         <v>720</v>
       </c>
-      <c r="W53" t="n">
+      <c r="AA53" t="n">
         <v>72</v>
       </c>
     </row>
@@ -4374,48 +5018,60 @@
         <v>20</v>
       </c>
       <c r="I54" t="n">
-        <v>0.052625618</v>
+        <v>0.028212145</v>
       </c>
       <c r="J54" t="n">
-        <v>0.117464803</v>
+        <v>0.066952947</v>
       </c>
       <c r="K54" t="n">
-        <v>0.177975103</v>
+        <v>0.103529153</v>
       </c>
       <c r="L54" t="n">
-        <v>0.02274749</v>
+        <v>0.014236934</v>
       </c>
       <c r="M54" t="n">
-        <v>0.007193741</v>
+        <v>0.003838223</v>
       </c>
       <c r="N54" t="n">
-        <v>19750912</v>
+        <v>20459110.4</v>
       </c>
       <c r="O54" t="n">
-        <v>19750912</v>
+        <v>20446412.8</v>
       </c>
       <c r="P54" t="n">
-        <v>19750912</v>
+        <v>20454809.6</v>
       </c>
       <c r="Q54" t="n">
-        <v>19750912</v>
+        <v>20507648</v>
       </c>
       <c r="R54" t="n">
-        <v>19750912</v>
+        <v>20507648</v>
       </c>
       <c r="S54" t="n">
+        <v>72</v>
+      </c>
+      <c r="T54" t="n">
+        <v>72</v>
+      </c>
+      <c r="U54" t="n">
+        <v>72</v>
+      </c>
+      <c r="V54" t="n">
+        <v>72</v>
+      </c>
+      <c r="W54" t="n">
         <v>304</v>
       </c>
-      <c r="T54" t="n">
-        <v>64</v>
-      </c>
-      <c r="U54" t="n">
+      <c r="X54" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y54" t="n">
         <v>560</v>
       </c>
-      <c r="V54" t="n">
+      <c r="Z54" t="n">
         <v>560</v>
       </c>
-      <c r="W54" t="n">
+      <c r="AA54" t="n">
         <v>72</v>
       </c>
     </row>
@@ -4447,48 +5103,60 @@
         <v>20</v>
       </c>
       <c r="I55" t="n">
-        <v>0.044704841</v>
+        <v>0.030010983</v>
       </c>
       <c r="J55" t="n">
-        <v>0.091559407</v>
+        <v>0.05458163</v>
       </c>
       <c r="K55" t="n">
-        <v>0.132480896</v>
+        <v>0.081298091</v>
       </c>
       <c r="L55" t="n">
-        <v>0.030003293</v>
+        <v>0.018365343</v>
       </c>
       <c r="M55" t="n">
-        <v>0.006549337</v>
+        <v>0.003975432</v>
       </c>
       <c r="N55" t="n">
-        <v>19750912</v>
+        <v>20546764.8</v>
       </c>
       <c r="O55" t="n">
-        <v>19750912</v>
+        <v>20538777.6</v>
       </c>
       <c r="P55" t="n">
-        <v>19750912</v>
+        <v>20540620.8</v>
       </c>
       <c r="Q55" t="n">
-        <v>19750912</v>
+        <v>20576460.8</v>
       </c>
       <c r="R55" t="n">
-        <v>19750912</v>
+        <v>20576665.6</v>
       </c>
       <c r="S55" t="n">
+        <v>72</v>
+      </c>
+      <c r="T55" t="n">
+        <v>72</v>
+      </c>
+      <c r="U55" t="n">
+        <v>72</v>
+      </c>
+      <c r="V55" t="n">
+        <v>72</v>
+      </c>
+      <c r="W55" t="n">
         <v>304</v>
       </c>
-      <c r="T55" t="n">
-        <v>64</v>
-      </c>
-      <c r="U55" t="n">
+      <c r="X55" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y55" t="n">
         <v>400</v>
       </c>
-      <c r="V55" t="n">
+      <c r="Z55" t="n">
         <v>400</v>
       </c>
-      <c r="W55" t="n">
+      <c r="AA55" t="n">
         <v>72</v>
       </c>
     </row>
@@ -4520,48 +5188,60 @@
         <v>20</v>
       </c>
       <c r="I56" t="n">
-        <v>0.046013105</v>
+        <v>0.028129175</v>
       </c>
       <c r="J56" t="n">
-        <v>0.07171404300000001</v>
+        <v>0.040114259</v>
       </c>
       <c r="K56" t="n">
-        <v>0.09274252099999999</v>
+        <v>0.058244418</v>
       </c>
       <c r="L56" t="n">
-        <v>0.035193727</v>
+        <v>0.022153938</v>
       </c>
       <c r="M56" t="n">
-        <v>0.005865712</v>
+        <v>0.003912586</v>
       </c>
       <c r="N56" t="n">
-        <v>19750912</v>
+        <v>20379033.6</v>
       </c>
       <c r="O56" t="n">
-        <v>19750912</v>
+        <v>20379033.6</v>
       </c>
       <c r="P56" t="n">
-        <v>19750912</v>
+        <v>20373708.8</v>
       </c>
       <c r="Q56" t="n">
-        <v>19750912</v>
+        <v>20375961.6</v>
       </c>
       <c r="R56" t="n">
-        <v>19750912</v>
+        <v>20375961.6</v>
       </c>
       <c r="S56" t="n">
+        <v>72</v>
+      </c>
+      <c r="T56" t="n">
+        <v>72</v>
+      </c>
+      <c r="U56" t="n">
+        <v>72</v>
+      </c>
+      <c r="V56" t="n">
+        <v>72</v>
+      </c>
+      <c r="W56" t="n">
         <v>304</v>
       </c>
-      <c r="T56" t="n">
-        <v>64</v>
-      </c>
-      <c r="U56" t="n">
+      <c r="X56" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y56" t="n">
         <v>240</v>
       </c>
-      <c r="V56" t="n">
+      <c r="Z56" t="n">
         <v>240</v>
       </c>
-      <c r="W56" t="n">
+      <c r="AA56" t="n">
         <v>72</v>
       </c>
     </row>
@@ -4593,48 +5273,60 @@
         <v>20</v>
       </c>
       <c r="I57" t="n">
-        <v>0.051518771</v>
+        <v>0.033108379</v>
       </c>
       <c r="J57" t="n">
-        <v>0.149529201</v>
+        <v>0.095407596</v>
       </c>
       <c r="K57" t="n">
-        <v>0.234881606</v>
+        <v>0.148513302</v>
       </c>
       <c r="L57" t="n">
-        <v>0.013666831</v>
+        <v>0.010109985</v>
       </c>
       <c r="M57" t="n">
-        <v>0.005099474</v>
+        <v>0.004020741</v>
       </c>
       <c r="N57" t="n">
-        <v>19750912</v>
+        <v>20569497.6</v>
       </c>
       <c r="O57" t="n">
-        <v>19750912</v>
+        <v>20548403.2</v>
       </c>
       <c r="P57" t="n">
-        <v>19750912</v>
+        <v>20562329.6</v>
       </c>
       <c r="Q57" t="n">
-        <v>19750912</v>
+        <v>20602675.2</v>
       </c>
       <c r="R57" t="n">
-        <v>19750912</v>
+        <v>20602675.2</v>
       </c>
       <c r="S57" t="n">
+        <v>72</v>
+      </c>
+      <c r="T57" t="n">
+        <v>72</v>
+      </c>
+      <c r="U57" t="n">
+        <v>72</v>
+      </c>
+      <c r="V57" t="n">
+        <v>72</v>
+      </c>
+      <c r="W57" t="n">
         <v>344</v>
       </c>
-      <c r="T57" t="n">
-        <v>64</v>
-      </c>
-      <c r="U57" t="n">
+      <c r="X57" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y57" t="n">
         <v>880</v>
       </c>
-      <c r="V57" t="n">
+      <c r="Z57" t="n">
         <v>880</v>
       </c>
-      <c r="W57" t="n">
+      <c r="AA57" t="n">
         <v>72</v>
       </c>
     </row>
@@ -4666,48 +5358,60 @@
         <v>20</v>
       </c>
       <c r="I58" t="n">
-        <v>0.054821711</v>
+        <v>0.033355348</v>
       </c>
       <c r="J58" t="n">
-        <v>0.130597003</v>
+        <v>0.08519312</v>
       </c>
       <c r="K58" t="n">
-        <v>0.196647282</v>
+        <v>0.127804086</v>
       </c>
       <c r="L58" t="n">
-        <v>0.023442238</v>
+        <v>0.014256862</v>
       </c>
       <c r="M58" t="n">
-        <v>0.00572425</v>
+        <v>0.003942353</v>
       </c>
       <c r="N58" t="n">
-        <v>19655680</v>
+        <v>20635443.2</v>
       </c>
       <c r="O58" t="n">
-        <v>19655680</v>
+        <v>20631552</v>
       </c>
       <c r="P58" t="n">
-        <v>19649331.2</v>
+        <v>20631552</v>
       </c>
       <c r="Q58" t="n">
-        <v>19649331.2</v>
+        <v>20631552</v>
       </c>
       <c r="R58" t="n">
-        <v>19649331.2</v>
+        <v>20631552</v>
       </c>
       <c r="S58" t="n">
+        <v>72</v>
+      </c>
+      <c r="T58" t="n">
+        <v>72</v>
+      </c>
+      <c r="U58" t="n">
+        <v>72</v>
+      </c>
+      <c r="V58" t="n">
+        <v>72</v>
+      </c>
+      <c r="W58" t="n">
         <v>344</v>
       </c>
-      <c r="T58" t="n">
-        <v>64</v>
-      </c>
-      <c r="U58" t="n">
+      <c r="X58" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y58" t="n">
         <v>720</v>
       </c>
-      <c r="V58" t="n">
+      <c r="Z58" t="n">
         <v>720</v>
       </c>
-      <c r="W58" t="n">
+      <c r="AA58" t="n">
         <v>72</v>
       </c>
     </row>
@@ -4739,48 +5443,60 @@
         <v>20</v>
       </c>
       <c r="I59" t="n">
-        <v>0.048381598</v>
+        <v>0.031290047</v>
       </c>
       <c r="J59" t="n">
-        <v>0.105311103</v>
+        <v>0.06781164100000001</v>
       </c>
       <c r="K59" t="n">
-        <v>0.153751564</v>
+        <v>0.101844439</v>
       </c>
       <c r="L59" t="n">
-        <v>0.024867945</v>
+        <v>0.017751337</v>
       </c>
       <c r="M59" t="n">
-        <v>0.005420715</v>
+        <v>0.003885565</v>
       </c>
       <c r="N59" t="n">
-        <v>19623936</v>
+        <v>20631552</v>
       </c>
       <c r="O59" t="n">
-        <v>19623936</v>
+        <v>20631552</v>
       </c>
       <c r="P59" t="n">
-        <v>19623936</v>
+        <v>20631552</v>
       </c>
       <c r="Q59" t="n">
-        <v>19623936</v>
+        <v>20631552</v>
       </c>
       <c r="R59" t="n">
-        <v>19623936</v>
+        <v>20631552</v>
       </c>
       <c r="S59" t="n">
+        <v>72</v>
+      </c>
+      <c r="T59" t="n">
+        <v>72</v>
+      </c>
+      <c r="U59" t="n">
+        <v>72</v>
+      </c>
+      <c r="V59" t="n">
+        <v>72</v>
+      </c>
+      <c r="W59" t="n">
         <v>344</v>
       </c>
-      <c r="T59" t="n">
-        <v>64</v>
-      </c>
-      <c r="U59" t="n">
+      <c r="X59" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y59" t="n">
         <v>560</v>
       </c>
-      <c r="V59" t="n">
+      <c r="Z59" t="n">
         <v>560</v>
       </c>
-      <c r="W59" t="n">
+      <c r="AA59" t="n">
         <v>72</v>
       </c>
     </row>
@@ -4812,48 +5528,60 @@
         <v>20</v>
       </c>
       <c r="I60" t="n">
-        <v>0.059643045</v>
+        <v>0.03391259</v>
       </c>
       <c r="J60" t="n">
-        <v>0.093672198</v>
+        <v>0.058393942</v>
       </c>
       <c r="K60" t="n">
-        <v>0.125807491</v>
+        <v>0.084367844</v>
       </c>
       <c r="L60" t="n">
-        <v>0.038564968</v>
+        <v>0.023125904</v>
       </c>
       <c r="M60" t="n">
-        <v>0.007344886</v>
+        <v>0.003984693</v>
       </c>
       <c r="N60" t="n">
-        <v>19623936</v>
+        <v>20631552</v>
       </c>
       <c r="O60" t="n">
-        <v>19623936</v>
+        <v>20631552</v>
       </c>
       <c r="P60" t="n">
-        <v>19623936</v>
+        <v>20631552</v>
       </c>
       <c r="Q60" t="n">
-        <v>19623936</v>
+        <v>20631552</v>
       </c>
       <c r="R60" t="n">
-        <v>19623936</v>
+        <v>20631552</v>
       </c>
       <c r="S60" t="n">
+        <v>72</v>
+      </c>
+      <c r="T60" t="n">
+        <v>72</v>
+      </c>
+      <c r="U60" t="n">
+        <v>72</v>
+      </c>
+      <c r="V60" t="n">
+        <v>72</v>
+      </c>
+      <c r="W60" t="n">
         <v>344</v>
       </c>
-      <c r="T60" t="n">
-        <v>64</v>
-      </c>
-      <c r="U60" t="n">
+      <c r="X60" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y60" t="n">
         <v>400</v>
       </c>
-      <c r="V60" t="n">
+      <c r="Z60" t="n">
         <v>400</v>
       </c>
-      <c r="W60" t="n">
+      <c r="AA60" t="n">
         <v>72</v>
       </c>
     </row>
@@ -4885,48 +5613,60 @@
         <v>20</v>
       </c>
       <c r="I61" t="n">
-        <v>0.054097796</v>
+        <v>0.033263634</v>
       </c>
       <c r="J61" t="n">
-        <v>0.071907578</v>
+        <v>0.04517921</v>
       </c>
       <c r="K61" t="n">
-        <v>0.09655992100000001</v>
+        <v>0.062472653</v>
       </c>
       <c r="L61" t="n">
-        <v>0.043476777</v>
+        <v>0.026581338</v>
       </c>
       <c r="M61" t="n">
-        <v>0.006307265</v>
+        <v>0.003883257</v>
       </c>
       <c r="N61" t="n">
-        <v>19623936</v>
+        <v>20631552</v>
       </c>
       <c r="O61" t="n">
-        <v>19623936</v>
+        <v>20631552</v>
       </c>
       <c r="P61" t="n">
-        <v>19623936</v>
+        <v>20631552</v>
       </c>
       <c r="Q61" t="n">
-        <v>19623936</v>
+        <v>20631552</v>
       </c>
       <c r="R61" t="n">
-        <v>19623936</v>
+        <v>20631552</v>
       </c>
       <c r="S61" t="n">
+        <v>72</v>
+      </c>
+      <c r="T61" t="n">
+        <v>72</v>
+      </c>
+      <c r="U61" t="n">
+        <v>72</v>
+      </c>
+      <c r="V61" t="n">
+        <v>72</v>
+      </c>
+      <c r="W61" t="n">
         <v>344</v>
       </c>
-      <c r="T61" t="n">
-        <v>64</v>
-      </c>
-      <c r="U61" t="n">
+      <c r="X61" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y61" t="n">
         <v>240</v>
       </c>
-      <c r="V61" t="n">
+      <c r="Z61" t="n">
         <v>240</v>
       </c>
-      <c r="W61" t="n">
+      <c r="AA61" t="n">
         <v>72</v>
       </c>
     </row>

--- a/SchemeHIBME/SchemeAnonymousME.xlsx
+++ b/SchemeHIBME/SchemeAnonymousME.xlsx
@@ -598,61 +598,61 @@
         <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>0.039610565</v>
+        <v>0.039334544</v>
       </c>
       <c r="J2" t="n">
-        <v>0.083803839</v>
+        <v>0.081952621</v>
       </c>
       <c r="K2" t="n">
-        <v>0.140269063</v>
+        <v>0.133049998</v>
       </c>
       <c r="L2" t="n">
-        <v>0.023724676</v>
+        <v>0.023172068</v>
       </c>
       <c r="M2" t="n">
-        <v>0.012112097</v>
+        <v>0.01251327</v>
       </c>
       <c r="N2" t="n">
-        <v>17815347.2</v>
+        <v>17874124.8</v>
       </c>
       <c r="O2" t="n">
-        <v>17815347.2</v>
+        <v>17874124.8</v>
       </c>
       <c r="P2" t="n">
-        <v>17862041.6</v>
+        <v>17874124.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>17867980.8</v>
+        <v>17880064</v>
       </c>
       <c r="R2" t="n">
-        <v>17867980.8</v>
+        <v>17926758.4</v>
       </c>
       <c r="S2" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="T2" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="U2" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="V2" t="n">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="W2" t="n">
-        <v>184</v>
+        <v>1324</v>
       </c>
       <c r="X2" t="n">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="Y2" t="n">
-        <v>240</v>
+        <v>2094</v>
       </c>
       <c r="Z2" t="n">
-        <v>240</v>
+        <v>2094</v>
       </c>
       <c r="AA2" t="n">
-        <v>72</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3">
@@ -683,61 +683,61 @@
         <v>20</v>
       </c>
       <c r="I3" t="n">
-        <v>0.056030656</v>
+        <v>0.05279556</v>
       </c>
       <c r="J3" t="n">
-        <v>0.138642429</v>
+        <v>0.133292056</v>
       </c>
       <c r="K3" t="n">
-        <v>0.220421121</v>
+        <v>0.210559168</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02532314</v>
+        <v>0.024125527</v>
       </c>
       <c r="M3" t="n">
-        <v>0.013005102</v>
+        <v>0.012403744</v>
       </c>
       <c r="N3" t="n">
-        <v>17940480</v>
+        <v>17944576</v>
       </c>
       <c r="O3" t="n">
-        <v>17940480</v>
+        <v>17944576</v>
       </c>
       <c r="P3" t="n">
-        <v>17940480</v>
+        <v>17944576</v>
       </c>
       <c r="Q3" t="n">
-        <v>17940480</v>
+        <v>17944576</v>
       </c>
       <c r="R3" t="n">
-        <v>17940480</v>
+        <v>17944576</v>
       </c>
       <c r="S3" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="T3" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="U3" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="V3" t="n">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="W3" t="n">
-        <v>224</v>
+        <v>1754</v>
       </c>
       <c r="X3" t="n">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="Y3" t="n">
-        <v>400</v>
+        <v>3814</v>
       </c>
       <c r="Z3" t="n">
-        <v>400</v>
+        <v>3814</v>
       </c>
       <c r="AA3" t="n">
-        <v>72</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4">
@@ -768,61 +768,61 @@
         <v>20</v>
       </c>
       <c r="I4" t="n">
-        <v>0.054640929</v>
+        <v>0.051321396</v>
       </c>
       <c r="J4" t="n">
-        <v>0.100696274</v>
+        <v>0.09648014000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.160636857</v>
+        <v>0.148812479</v>
       </c>
       <c r="L4" t="n">
-        <v>0.039104391</v>
+        <v>0.03642871</v>
       </c>
       <c r="M4" t="n">
-        <v>0.013544381</v>
+        <v>0.012202983</v>
       </c>
       <c r="N4" t="n">
-        <v>17940480</v>
+        <v>17944576</v>
       </c>
       <c r="O4" t="n">
-        <v>17940480</v>
+        <v>17944576</v>
       </c>
       <c r="P4" t="n">
-        <v>17940480</v>
+        <v>17944576</v>
       </c>
       <c r="Q4" t="n">
-        <v>17940480</v>
+        <v>17944576</v>
       </c>
       <c r="R4" t="n">
-        <v>17940480</v>
+        <v>17944576</v>
       </c>
       <c r="S4" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="T4" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="U4" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="V4" t="n">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="W4" t="n">
-        <v>224</v>
+        <v>1754</v>
       </c>
       <c r="X4" t="n">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="Y4" t="n">
-        <v>240</v>
+        <v>2094</v>
       </c>
       <c r="Z4" t="n">
-        <v>240</v>
+        <v>2094</v>
       </c>
       <c r="AA4" t="n">
-        <v>72</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5">
@@ -853,61 +853,61 @@
         <v>20</v>
       </c>
       <c r="I5" t="n">
-        <v>0.067432355</v>
+        <v>0.064665809</v>
       </c>
       <c r="J5" t="n">
-        <v>0.18535595</v>
+        <v>0.182890712</v>
       </c>
       <c r="K5" t="n">
-        <v>0.286052383</v>
+        <v>0.29063937</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02392012</v>
+        <v>0.023697903</v>
       </c>
       <c r="M5" t="n">
-        <v>0.012509766</v>
+        <v>0.012464068</v>
       </c>
       <c r="N5" t="n">
-        <v>17940480</v>
+        <v>18158796.8</v>
       </c>
       <c r="O5" t="n">
-        <v>17940480</v>
+        <v>18158796.8</v>
       </c>
       <c r="P5" t="n">
-        <v>17940480</v>
+        <v>18158796.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>17940480</v>
+        <v>18168832</v>
       </c>
       <c r="R5" t="n">
-        <v>17940480</v>
+        <v>18168832</v>
       </c>
       <c r="S5" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="T5" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="U5" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="V5" t="n">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="W5" t="n">
-        <v>264</v>
+        <v>2184</v>
       </c>
       <c r="X5" t="n">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="Y5" t="n">
-        <v>560</v>
+        <v>5534</v>
       </c>
       <c r="Z5" t="n">
-        <v>560</v>
+        <v>5534</v>
       </c>
       <c r="AA5" t="n">
-        <v>72</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6">
@@ -938,61 +938,61 @@
         <v>20</v>
       </c>
       <c r="I6" t="n">
-        <v>0.068090874</v>
+        <v>0.065261337</v>
       </c>
       <c r="J6" t="n">
-        <v>0.15504469</v>
+        <v>0.144259799</v>
       </c>
       <c r="K6" t="n">
-        <v>0.231829798</v>
+        <v>0.223161233</v>
       </c>
       <c r="L6" t="n">
-        <v>0.038295368</v>
+        <v>0.036608278</v>
       </c>
       <c r="M6" t="n">
-        <v>0.012967219</v>
+        <v>0.011818162</v>
       </c>
       <c r="N6" t="n">
-        <v>18007040</v>
+        <v>18173952</v>
       </c>
       <c r="O6" t="n">
-        <v>18007040</v>
+        <v>18173952</v>
       </c>
       <c r="P6" t="n">
-        <v>18020352</v>
+        <v>18173952</v>
       </c>
       <c r="Q6" t="n">
-        <v>18020352</v>
+        <v>18173952</v>
       </c>
       <c r="R6" t="n">
-        <v>18020352</v>
+        <v>18173952</v>
       </c>
       <c r="S6" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="T6" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="U6" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="V6" t="n">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="W6" t="n">
-        <v>264</v>
+        <v>2184</v>
       </c>
       <c r="X6" t="n">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="Y6" t="n">
-        <v>400</v>
+        <v>3814</v>
       </c>
       <c r="Z6" t="n">
-        <v>400</v>
+        <v>3814</v>
       </c>
       <c r="AA6" t="n">
-        <v>72</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7">
@@ -1023,61 +1023,61 @@
         <v>20</v>
       </c>
       <c r="I7" t="n">
-        <v>0.065530413</v>
+        <v>0.06423023899999999</v>
       </c>
       <c r="J7" t="n">
-        <v>0.109680559</v>
+        <v>0.107287024</v>
       </c>
       <c r="K7" t="n">
-        <v>0.162514985</v>
+        <v>0.157375841</v>
       </c>
       <c r="L7" t="n">
-        <v>0.048077791</v>
+        <v>0.047520286</v>
       </c>
       <c r="M7" t="n">
-        <v>0.012249343</v>
+        <v>0.012455564</v>
       </c>
       <c r="N7" t="n">
-        <v>18206720</v>
+        <v>18173952</v>
       </c>
       <c r="O7" t="n">
-        <v>18206720</v>
+        <v>18173952</v>
       </c>
       <c r="P7" t="n">
-        <v>18206720</v>
+        <v>18173952</v>
       </c>
       <c r="Q7" t="n">
-        <v>18206720</v>
+        <v>18173952</v>
       </c>
       <c r="R7" t="n">
-        <v>18206720</v>
+        <v>18173952</v>
       </c>
       <c r="S7" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="T7" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="U7" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="V7" t="n">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="W7" t="n">
-        <v>264</v>
+        <v>2184</v>
       </c>
       <c r="X7" t="n">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="Y7" t="n">
-        <v>240</v>
+        <v>2094</v>
       </c>
       <c r="Z7" t="n">
-        <v>240</v>
+        <v>2094</v>
       </c>
       <c r="AA7" t="n">
-        <v>72</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8">
@@ -1108,61 +1108,61 @@
         <v>20</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07805125</v>
+        <v>0.077926369</v>
       </c>
       <c r="J8" t="n">
-        <v>0.232897008</v>
+        <v>0.239171616</v>
       </c>
       <c r="K8" t="n">
-        <v>0.359566791</v>
+        <v>0.366894122</v>
       </c>
       <c r="L8" t="n">
-        <v>0.024219119</v>
+        <v>0.024232923</v>
       </c>
       <c r="M8" t="n">
-        <v>0.012340762</v>
+        <v>0.011886451</v>
       </c>
       <c r="N8" t="n">
-        <v>18314035.2</v>
+        <v>18173952</v>
       </c>
       <c r="O8" t="n">
-        <v>18314035.2</v>
+        <v>18173952</v>
       </c>
       <c r="P8" t="n">
-        <v>18314035.2</v>
+        <v>18173952</v>
       </c>
       <c r="Q8" t="n">
-        <v>18318131.2</v>
+        <v>18173952</v>
       </c>
       <c r="R8" t="n">
-        <v>18318131.2</v>
+        <v>18173952</v>
       </c>
       <c r="S8" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="T8" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="U8" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="V8" t="n">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="W8" t="n">
-        <v>304</v>
+        <v>2614</v>
       </c>
       <c r="X8" t="n">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="Y8" t="n">
-        <v>720</v>
+        <v>7254</v>
       </c>
       <c r="Z8" t="n">
-        <v>720</v>
+        <v>7254</v>
       </c>
       <c r="AA8" t="n">
-        <v>72</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9">
@@ -1193,61 +1193,61 @@
         <v>20</v>
       </c>
       <c r="I9" t="n">
-        <v>0.078418234</v>
+        <v>0.078485967</v>
       </c>
       <c r="J9" t="n">
-        <v>0.201725093</v>
+        <v>0.197715069</v>
       </c>
       <c r="K9" t="n">
-        <v>0.304139304</v>
+        <v>0.30130999</v>
       </c>
       <c r="L9" t="n">
-        <v>0.037308254</v>
+        <v>0.036421935</v>
       </c>
       <c r="M9" t="n">
-        <v>0.012805862</v>
+        <v>0.01226366</v>
       </c>
       <c r="N9" t="n">
-        <v>18911846.4</v>
+        <v>18413568</v>
       </c>
       <c r="O9" t="n">
-        <v>18911846.4</v>
+        <v>18413568</v>
       </c>
       <c r="P9" t="n">
-        <v>18911846.4</v>
+        <v>18426880</v>
       </c>
       <c r="Q9" t="n">
-        <v>18949529.6</v>
+        <v>18426880</v>
       </c>
       <c r="R9" t="n">
-        <v>18949529.6</v>
+        <v>18426880</v>
       </c>
       <c r="S9" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="T9" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="U9" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="V9" t="n">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="W9" t="n">
-        <v>304</v>
+        <v>2614</v>
       </c>
       <c r="X9" t="n">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="Y9" t="n">
-        <v>560</v>
+        <v>5534</v>
       </c>
       <c r="Z9" t="n">
-        <v>560</v>
+        <v>5534</v>
       </c>
       <c r="AA9" t="n">
-        <v>72</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10">
@@ -1278,61 +1278,61 @@
         <v>20</v>
       </c>
       <c r="I10" t="n">
-        <v>0.077038774</v>
+        <v>0.08581580699999999</v>
       </c>
       <c r="J10" t="n">
-        <v>0.15696985</v>
+        <v>0.172983038</v>
       </c>
       <c r="K10" t="n">
-        <v>0.234279464</v>
+        <v>0.259716725</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04886226</v>
+        <v>0.055046083</v>
       </c>
       <c r="M10" t="n">
-        <v>0.012379243</v>
+        <v>0.013558009</v>
       </c>
       <c r="N10" t="n">
-        <v>19140608</v>
+        <v>18440192</v>
       </c>
       <c r="O10" t="n">
-        <v>19140608</v>
+        <v>18440192</v>
       </c>
       <c r="P10" t="n">
-        <v>19140608</v>
+        <v>18440192</v>
       </c>
       <c r="Q10" t="n">
-        <v>19140608</v>
+        <v>18440192</v>
       </c>
       <c r="R10" t="n">
-        <v>19140608</v>
+        <v>18440192</v>
       </c>
       <c r="S10" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="T10" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="U10" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="V10" t="n">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="W10" t="n">
-        <v>304</v>
+        <v>2614</v>
       </c>
       <c r="X10" t="n">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="Y10" t="n">
-        <v>400</v>
+        <v>3814</v>
       </c>
       <c r="Z10" t="n">
-        <v>400</v>
+        <v>3814</v>
       </c>
       <c r="AA10" t="n">
-        <v>72</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11">
@@ -1363,61 +1363,61 @@
         <v>20</v>
       </c>
       <c r="I11" t="n">
-        <v>0.077436193</v>
+        <v>0.092172436</v>
       </c>
       <c r="J11" t="n">
-        <v>0.120985135</v>
+        <v>0.145182388</v>
       </c>
       <c r="K11" t="n">
-        <v>0.174045764</v>
+        <v>0.210632249</v>
       </c>
       <c r="L11" t="n">
-        <v>0.059981952</v>
+        <v>0.073279778</v>
       </c>
       <c r="M11" t="n">
-        <v>0.012325704</v>
+        <v>0.014818589</v>
       </c>
       <c r="N11" t="n">
-        <v>19140608</v>
+        <v>18440192</v>
       </c>
       <c r="O11" t="n">
-        <v>19140608</v>
+        <v>18440192</v>
       </c>
       <c r="P11" t="n">
-        <v>19140608</v>
+        <v>18440192</v>
       </c>
       <c r="Q11" t="n">
-        <v>19140608</v>
+        <v>18440192</v>
       </c>
       <c r="R11" t="n">
-        <v>19140608</v>
+        <v>18440192</v>
       </c>
       <c r="S11" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="T11" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="U11" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="V11" t="n">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="W11" t="n">
-        <v>304</v>
+        <v>2614</v>
       </c>
       <c r="X11" t="n">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="Y11" t="n">
-        <v>240</v>
+        <v>2094</v>
       </c>
       <c r="Z11" t="n">
-        <v>240</v>
+        <v>2094</v>
       </c>
       <c r="AA11" t="n">
-        <v>72</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12">
@@ -1448,61 +1448,61 @@
         <v>20</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09114546599999999</v>
+        <v>0.106065302</v>
       </c>
       <c r="J12" t="n">
-        <v>0.288847969</v>
+        <v>0.329492622</v>
       </c>
       <c r="K12" t="n">
-        <v>0.444344219</v>
+        <v>0.512111104</v>
       </c>
       <c r="L12" t="n">
-        <v>0.023883778</v>
+        <v>0.02865401</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01246695</v>
+        <v>0.014713373</v>
       </c>
       <c r="N12" t="n">
-        <v>19140608</v>
+        <v>18556518.4</v>
       </c>
       <c r="O12" t="n">
-        <v>19140608</v>
+        <v>18556518.4</v>
       </c>
       <c r="P12" t="n">
-        <v>19140608</v>
+        <v>18556518.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>19140608</v>
+        <v>18562662.4</v>
       </c>
       <c r="R12" t="n">
-        <v>19140608</v>
+        <v>18562662.4</v>
       </c>
       <c r="S12" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="T12" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="U12" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="V12" t="n">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="W12" t="n">
-        <v>344</v>
+        <v>3044</v>
       </c>
       <c r="X12" t="n">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="Y12" t="n">
-        <v>880</v>
+        <v>8974</v>
       </c>
       <c r="Z12" t="n">
-        <v>880</v>
+        <v>8974</v>
       </c>
       <c r="AA12" t="n">
-        <v>72</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13">
@@ -1533,61 +1533,61 @@
         <v>20</v>
       </c>
       <c r="I13" t="n">
-        <v>0.087640758</v>
+        <v>0.10282083</v>
       </c>
       <c r="J13" t="n">
-        <v>0.244902877</v>
+        <v>0.283558631</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3823788</v>
+        <v>0.436837071</v>
       </c>
       <c r="L13" t="n">
-        <v>0.037161463</v>
+        <v>0.041940173</v>
       </c>
       <c r="M13" t="n">
-        <v>0.012191538</v>
+        <v>0.014293885</v>
       </c>
       <c r="N13" t="n">
-        <v>19140608</v>
+        <v>18624307.2</v>
       </c>
       <c r="O13" t="n">
-        <v>19140608</v>
+        <v>18640486.4</v>
       </c>
       <c r="P13" t="n">
-        <v>19140608</v>
+        <v>18640486.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>19140608</v>
+        <v>18640486.4</v>
       </c>
       <c r="R13" t="n">
-        <v>19140608</v>
+        <v>18640486.4</v>
       </c>
       <c r="S13" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="T13" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="U13" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="V13" t="n">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="W13" t="n">
-        <v>344</v>
+        <v>3044</v>
       </c>
       <c r="X13" t="n">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="Y13" t="n">
-        <v>720</v>
+        <v>7254</v>
       </c>
       <c r="Z13" t="n">
-        <v>720</v>
+        <v>7254</v>
       </c>
       <c r="AA13" t="n">
-        <v>72</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14">
@@ -1618,61 +1618,61 @@
         <v>20</v>
       </c>
       <c r="I14" t="n">
-        <v>0.093637362</v>
+        <v>0.114066868</v>
       </c>
       <c r="J14" t="n">
-        <v>0.218450429</v>
+        <v>0.263204302</v>
       </c>
       <c r="K14" t="n">
-        <v>0.319875397</v>
+        <v>0.389078208</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04999885</v>
+        <v>0.06384258800000001</v>
       </c>
       <c r="M14" t="n">
-        <v>0.012920092</v>
+        <v>0.016429588</v>
       </c>
       <c r="N14" t="n">
-        <v>19140608</v>
+        <v>18931712</v>
       </c>
       <c r="O14" t="n">
-        <v>19140608</v>
+        <v>18931712</v>
       </c>
       <c r="P14" t="n">
-        <v>19140608</v>
+        <v>18931712</v>
       </c>
       <c r="Q14" t="n">
-        <v>19140608</v>
+        <v>18931712</v>
       </c>
       <c r="R14" t="n">
-        <v>19140608</v>
+        <v>18931712</v>
       </c>
       <c r="S14" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="T14" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="U14" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="V14" t="n">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="W14" t="n">
-        <v>344</v>
+        <v>3044</v>
       </c>
       <c r="X14" t="n">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="Y14" t="n">
-        <v>560</v>
+        <v>5534</v>
       </c>
       <c r="Z14" t="n">
-        <v>560</v>
+        <v>5534</v>
       </c>
       <c r="AA14" t="n">
-        <v>72</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15">
@@ -1703,61 +1703,61 @@
         <v>20</v>
       </c>
       <c r="I15" t="n">
-        <v>0.088269612</v>
+        <v>0.107703808</v>
       </c>
       <c r="J15" t="n">
-        <v>0.170222032</v>
+        <v>0.208639058</v>
       </c>
       <c r="K15" t="n">
-        <v>0.245321464</v>
+        <v>0.305571974</v>
       </c>
       <c r="L15" t="n">
-        <v>0.060079914</v>
+        <v>0.07478203999999999</v>
       </c>
       <c r="M15" t="n">
-        <v>0.012424889</v>
+        <v>0.01519101</v>
       </c>
       <c r="N15" t="n">
-        <v>19140608</v>
+        <v>18931712</v>
       </c>
       <c r="O15" t="n">
-        <v>19140608</v>
+        <v>18931712</v>
       </c>
       <c r="P15" t="n">
-        <v>19140608</v>
+        <v>18931712</v>
       </c>
       <c r="Q15" t="n">
-        <v>19140608</v>
+        <v>18931712</v>
       </c>
       <c r="R15" t="n">
-        <v>19140608</v>
+        <v>18931712</v>
       </c>
       <c r="S15" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="T15" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="U15" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="V15" t="n">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="W15" t="n">
-        <v>344</v>
+        <v>3044</v>
       </c>
       <c r="X15" t="n">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="Y15" t="n">
-        <v>400</v>
+        <v>3814</v>
       </c>
       <c r="Z15" t="n">
-        <v>400</v>
+        <v>3814</v>
       </c>
       <c r="AA15" t="n">
-        <v>72</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16">
@@ -1788,61 +1788,61 @@
         <v>20</v>
       </c>
       <c r="I16" t="n">
-        <v>0.090350502</v>
+        <v>0.106238759</v>
       </c>
       <c r="J16" t="n">
-        <v>0.132709249</v>
+        <v>0.155505625</v>
       </c>
       <c r="K16" t="n">
-        <v>0.188165118</v>
+        <v>0.216904811</v>
       </c>
       <c r="L16" t="n">
-        <v>0.07389874</v>
+        <v>0.086581699</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01248108</v>
+        <v>0.014901628</v>
       </c>
       <c r="N16" t="n">
-        <v>19140608</v>
+        <v>18931712</v>
       </c>
       <c r="O16" t="n">
-        <v>19140608</v>
+        <v>18931712</v>
       </c>
       <c r="P16" t="n">
-        <v>19140608</v>
+        <v>18931712</v>
       </c>
       <c r="Q16" t="n">
-        <v>19140608</v>
+        <v>18931712</v>
       </c>
       <c r="R16" t="n">
-        <v>19140608</v>
+        <v>18931712</v>
       </c>
       <c r="S16" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="T16" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="U16" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="V16" t="n">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="W16" t="n">
-        <v>344</v>
+        <v>3044</v>
       </c>
       <c r="X16" t="n">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="Y16" t="n">
-        <v>240</v>
+        <v>2094</v>
       </c>
       <c r="Z16" t="n">
-        <v>240</v>
+        <v>2094</v>
       </c>
       <c r="AA16" t="n">
-        <v>72</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17">
@@ -1873,61 +1873,61 @@
         <v>20</v>
       </c>
       <c r="I17" t="n">
-        <v>0.051972491</v>
+        <v>0.061821404</v>
       </c>
       <c r="J17" t="n">
-        <v>0.111741624</v>
+        <v>0.126842228</v>
       </c>
       <c r="K17" t="n">
-        <v>0.177804962</v>
+        <v>0.210613143</v>
       </c>
       <c r="L17" t="n">
-        <v>0.031436957</v>
+        <v>0.037151348</v>
       </c>
       <c r="M17" t="n">
-        <v>0.016515744</v>
+        <v>0.01960719</v>
       </c>
       <c r="N17" t="n">
-        <v>19140608</v>
+        <v>18931712</v>
       </c>
       <c r="O17" t="n">
-        <v>19140608</v>
+        <v>18931712</v>
       </c>
       <c r="P17" t="n">
-        <v>19140608</v>
+        <v>18931712</v>
       </c>
       <c r="Q17" t="n">
-        <v>19140608</v>
+        <v>18931712</v>
       </c>
       <c r="R17" t="n">
-        <v>19140608</v>
+        <v>18931712</v>
       </c>
       <c r="S17" t="n">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="T17" t="n">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="U17" t="n">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="V17" t="n">
-        <v>72</v>
+        <v>210</v>
       </c>
       <c r="W17" t="n">
-        <v>184</v>
+        <v>1692</v>
       </c>
       <c r="X17" t="n">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="Y17" t="n">
-        <v>240</v>
+        <v>2678</v>
       </c>
       <c r="Z17" t="n">
-        <v>240</v>
+        <v>2678</v>
       </c>
       <c r="AA17" t="n">
-        <v>72</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18">
@@ -1958,61 +1958,61 @@
         <v>20</v>
       </c>
       <c r="I18" t="n">
-        <v>0.068583726</v>
+        <v>0.07944496500000001</v>
       </c>
       <c r="J18" t="n">
-        <v>0.175559318</v>
+        <v>0.203895347</v>
       </c>
       <c r="K18" t="n">
-        <v>0.281564695</v>
+        <v>0.322534313</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03171513</v>
+        <v>0.037213721</v>
       </c>
       <c r="M18" t="n">
-        <v>0.016922709</v>
+        <v>0.018785554</v>
       </c>
       <c r="N18" t="n">
-        <v>19140608</v>
+        <v>18931712</v>
       </c>
       <c r="O18" t="n">
-        <v>19140608</v>
+        <v>18931712</v>
       </c>
       <c r="P18" t="n">
-        <v>19140608</v>
+        <v>18931712</v>
       </c>
       <c r="Q18" t="n">
-        <v>19140608</v>
+        <v>18931712</v>
       </c>
       <c r="R18" t="n">
-        <v>19140608</v>
+        <v>18931712</v>
       </c>
       <c r="S18" t="n">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="T18" t="n">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="U18" t="n">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="V18" t="n">
-        <v>72</v>
+        <v>210</v>
       </c>
       <c r="W18" t="n">
-        <v>224</v>
+        <v>2242</v>
       </c>
       <c r="X18" t="n">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="Y18" t="n">
-        <v>400</v>
+        <v>4878</v>
       </c>
       <c r="Z18" t="n">
-        <v>400</v>
+        <v>4878</v>
       </c>
       <c r="AA18" t="n">
-        <v>72</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19">
@@ -2043,61 +2043,61 @@
         <v>20</v>
       </c>
       <c r="I19" t="n">
-        <v>0.069361278</v>
+        <v>0.079448451</v>
       </c>
       <c r="J19" t="n">
-        <v>0.128054303</v>
+        <v>0.147215922</v>
       </c>
       <c r="K19" t="n">
-        <v>0.199051175</v>
+        <v>0.227427548</v>
       </c>
       <c r="L19" t="n">
-        <v>0.048585983</v>
+        <v>0.055518935</v>
       </c>
       <c r="M19" t="n">
-        <v>0.016324925</v>
+        <v>0.019249689</v>
       </c>
       <c r="N19" t="n">
-        <v>19140608</v>
+        <v>18931712</v>
       </c>
       <c r="O19" t="n">
-        <v>19140608</v>
+        <v>18931712</v>
       </c>
       <c r="P19" t="n">
-        <v>19140608</v>
+        <v>18931712</v>
       </c>
       <c r="Q19" t="n">
-        <v>19140608</v>
+        <v>18931712</v>
       </c>
       <c r="R19" t="n">
-        <v>19140608</v>
+        <v>18931712</v>
       </c>
       <c r="S19" t="n">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="T19" t="n">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="U19" t="n">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="V19" t="n">
-        <v>72</v>
+        <v>210</v>
       </c>
       <c r="W19" t="n">
-        <v>224</v>
+        <v>2242</v>
       </c>
       <c r="X19" t="n">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="Y19" t="n">
-        <v>240</v>
+        <v>2678</v>
       </c>
       <c r="Z19" t="n">
-        <v>240</v>
+        <v>2678</v>
       </c>
       <c r="AA19" t="n">
-        <v>72</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20">
@@ -2128,61 +2128,61 @@
         <v>20</v>
       </c>
       <c r="I20" t="n">
-        <v>0.087158769</v>
+        <v>0.098604715</v>
       </c>
       <c r="J20" t="n">
-        <v>0.250898927</v>
+        <v>0.276268353</v>
       </c>
       <c r="K20" t="n">
-        <v>0.393726629</v>
+        <v>0.42401748</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03240111</v>
+        <v>0.03575518</v>
       </c>
       <c r="M20" t="n">
-        <v>0.016646493</v>
+        <v>0.018225084</v>
       </c>
       <c r="N20" t="n">
-        <v>19140608</v>
+        <v>19091456</v>
       </c>
       <c r="O20" t="n">
-        <v>19140608</v>
+        <v>19104768</v>
       </c>
       <c r="P20" t="n">
-        <v>19140608</v>
+        <v>19104768</v>
       </c>
       <c r="Q20" t="n">
-        <v>19140608</v>
+        <v>19104768</v>
       </c>
       <c r="R20" t="n">
-        <v>19140608</v>
+        <v>19104768</v>
       </c>
       <c r="S20" t="n">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="T20" t="n">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="U20" t="n">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="V20" t="n">
-        <v>72</v>
+        <v>210</v>
       </c>
       <c r="W20" t="n">
-        <v>264</v>
+        <v>2792</v>
       </c>
       <c r="X20" t="n">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="Y20" t="n">
-        <v>560</v>
+        <v>7078</v>
       </c>
       <c r="Z20" t="n">
-        <v>560</v>
+        <v>7078</v>
       </c>
       <c r="AA20" t="n">
-        <v>72</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21">
@@ -2213,61 +2213,61 @@
         <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>0.08901047400000001</v>
+        <v>0.094917431</v>
       </c>
       <c r="J21" t="n">
-        <v>0.193530247</v>
+        <v>0.214571848</v>
       </c>
       <c r="K21" t="n">
-        <v>0.303504123</v>
+        <v>0.328506213</v>
       </c>
       <c r="L21" t="n">
-        <v>0.04946379</v>
+        <v>0.053239176</v>
       </c>
       <c r="M21" t="n">
-        <v>0.016740164</v>
+        <v>0.018360169</v>
       </c>
       <c r="N21" t="n">
-        <v>19140608</v>
+        <v>19197952</v>
       </c>
       <c r="O21" t="n">
-        <v>19140608</v>
+        <v>19197952</v>
       </c>
       <c r="P21" t="n">
-        <v>19140608</v>
+        <v>19197952</v>
       </c>
       <c r="Q21" t="n">
-        <v>19140608</v>
+        <v>19197952</v>
       </c>
       <c r="R21" t="n">
-        <v>19140608</v>
+        <v>19197952</v>
       </c>
       <c r="S21" t="n">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="T21" t="n">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="U21" t="n">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="V21" t="n">
-        <v>72</v>
+        <v>210</v>
       </c>
       <c r="W21" t="n">
-        <v>264</v>
+        <v>2792</v>
       </c>
       <c r="X21" t="n">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="Y21" t="n">
-        <v>400</v>
+        <v>4878</v>
       </c>
       <c r="Z21" t="n">
-        <v>400</v>
+        <v>4878</v>
       </c>
       <c r="AA21" t="n">
-        <v>72</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22">
@@ -2298,61 +2298,61 @@
         <v>20</v>
       </c>
       <c r="I22" t="n">
-        <v>0.08900649099999999</v>
+        <v>0.096495096</v>
       </c>
       <c r="J22" t="n">
-        <v>0.148689152</v>
+        <v>0.162300044</v>
       </c>
       <c r="K22" t="n">
-        <v>0.222362616</v>
+        <v>0.240088865</v>
       </c>
       <c r="L22" t="n">
-        <v>0.070421972</v>
+        <v>0.074444239</v>
       </c>
       <c r="M22" t="n">
-        <v>0.017923038</v>
+        <v>0.01790202</v>
       </c>
       <c r="N22" t="n">
-        <v>19205120</v>
+        <v>19197952</v>
       </c>
       <c r="O22" t="n">
-        <v>19205120</v>
+        <v>19197952</v>
       </c>
       <c r="P22" t="n">
-        <v>19218022.4</v>
+        <v>19197952</v>
       </c>
       <c r="Q22" t="n">
-        <v>19218022.4</v>
+        <v>19197952</v>
       </c>
       <c r="R22" t="n">
-        <v>19218022.4</v>
+        <v>19197952</v>
       </c>
       <c r="S22" t="n">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="T22" t="n">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="U22" t="n">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="V22" t="n">
-        <v>72</v>
+        <v>210</v>
       </c>
       <c r="W22" t="n">
-        <v>264</v>
+        <v>2792</v>
       </c>
       <c r="X22" t="n">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="Y22" t="n">
-        <v>240</v>
+        <v>2678</v>
       </c>
       <c r="Z22" t="n">
-        <v>240</v>
+        <v>2678</v>
       </c>
       <c r="AA22" t="n">
-        <v>72</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23">
@@ -2383,61 +2383,61 @@
         <v>20</v>
       </c>
       <c r="I23" t="n">
-        <v>0.103974423</v>
+        <v>0.128917527</v>
       </c>
       <c r="J23" t="n">
-        <v>0.310272708</v>
+        <v>0.384627329</v>
       </c>
       <c r="K23" t="n">
-        <v>0.480782824</v>
+        <v>0.5963122789999999</v>
       </c>
       <c r="L23" t="n">
-        <v>0.03101131</v>
+        <v>0.039762744</v>
       </c>
       <c r="M23" t="n">
-        <v>0.016659898</v>
+        <v>0.020800084</v>
       </c>
       <c r="N23" t="n">
-        <v>19398656</v>
+        <v>19197952</v>
       </c>
       <c r="O23" t="n">
-        <v>19398656</v>
+        <v>19197952</v>
       </c>
       <c r="P23" t="n">
-        <v>19398656</v>
+        <v>19197952</v>
       </c>
       <c r="Q23" t="n">
-        <v>19398656</v>
+        <v>19197952</v>
       </c>
       <c r="R23" t="n">
-        <v>19398656</v>
+        <v>19197952</v>
       </c>
       <c r="S23" t="n">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="T23" t="n">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="U23" t="n">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="V23" t="n">
-        <v>72</v>
+        <v>210</v>
       </c>
       <c r="W23" t="n">
-        <v>304</v>
+        <v>3342</v>
       </c>
       <c r="X23" t="n">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="Y23" t="n">
-        <v>720</v>
+        <v>9278</v>
       </c>
       <c r="Z23" t="n">
-        <v>720</v>
+        <v>9278</v>
       </c>
       <c r="AA23" t="n">
-        <v>72</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24">
@@ -2468,61 +2468,61 @@
         <v>20</v>
       </c>
       <c r="I24" t="n">
-        <v>0.104787128</v>
+        <v>0.112314877</v>
       </c>
       <c r="J24" t="n">
-        <v>0.272616552</v>
+        <v>0.289059735</v>
       </c>
       <c r="K24" t="n">
-        <v>0.412566268</v>
+        <v>0.435444461</v>
       </c>
       <c r="L24" t="n">
-        <v>0.048008784</v>
+        <v>0.052482031</v>
       </c>
       <c r="M24" t="n">
-        <v>0.016671602</v>
+        <v>0.017579298</v>
       </c>
       <c r="N24" t="n">
-        <v>19398656</v>
+        <v>19197952</v>
       </c>
       <c r="O24" t="n">
-        <v>19398656</v>
+        <v>19197952</v>
       </c>
       <c r="P24" t="n">
-        <v>19398656</v>
+        <v>19197952</v>
       </c>
       <c r="Q24" t="n">
-        <v>19398656</v>
+        <v>19197952</v>
       </c>
       <c r="R24" t="n">
-        <v>19398656</v>
+        <v>19197952</v>
       </c>
       <c r="S24" t="n">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="T24" t="n">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="U24" t="n">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="V24" t="n">
-        <v>72</v>
+        <v>210</v>
       </c>
       <c r="W24" t="n">
-        <v>304</v>
+        <v>3342</v>
       </c>
       <c r="X24" t="n">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="Y24" t="n">
-        <v>560</v>
+        <v>7078</v>
       </c>
       <c r="Z24" t="n">
-        <v>560</v>
+        <v>7078</v>
       </c>
       <c r="AA24" t="n">
-        <v>72</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25">
@@ -2553,61 +2553,61 @@
         <v>20</v>
       </c>
       <c r="I25" t="n">
-        <v>0.105600717</v>
+        <v>0.113252815</v>
       </c>
       <c r="J25" t="n">
-        <v>0.213107459</v>
+        <v>0.226390272</v>
       </c>
       <c r="K25" t="n">
-        <v>0.317580492</v>
+        <v>0.339282732</v>
       </c>
       <c r="L25" t="n">
-        <v>0.06653013300000001</v>
+        <v>0.07171667399999999</v>
       </c>
       <c r="M25" t="n">
-        <v>0.017350999</v>
+        <v>0.018551006</v>
       </c>
       <c r="N25" t="n">
-        <v>19398656</v>
+        <v>19252019.2</v>
       </c>
       <c r="O25" t="n">
-        <v>19398656</v>
+        <v>19252019.2</v>
       </c>
       <c r="P25" t="n">
-        <v>19398656</v>
+        <v>19265536</v>
       </c>
       <c r="Q25" t="n">
-        <v>19398656</v>
+        <v>19265536</v>
       </c>
       <c r="R25" t="n">
-        <v>19398656</v>
+        <v>19265536</v>
       </c>
       <c r="S25" t="n">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="T25" t="n">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="U25" t="n">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="V25" t="n">
-        <v>72</v>
+        <v>210</v>
       </c>
       <c r="W25" t="n">
-        <v>304</v>
+        <v>3342</v>
       </c>
       <c r="X25" t="n">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="Y25" t="n">
-        <v>400</v>
+        <v>4878</v>
       </c>
       <c r="Z25" t="n">
-        <v>400</v>
+        <v>4878</v>
       </c>
       <c r="AA25" t="n">
-        <v>72</v>
+        <v>396</v>
       </c>
     </row>
     <row r="26">
@@ -2638,61 +2638,61 @@
         <v>20</v>
       </c>
       <c r="I26" t="n">
-        <v>0.102671178</v>
+        <v>0.117651305</v>
       </c>
       <c r="J26" t="n">
-        <v>0.159370824</v>
+        <v>0.179144203</v>
       </c>
       <c r="K26" t="n">
-        <v>0.233351956</v>
+        <v>0.252179137</v>
       </c>
       <c r="L26" t="n">
-        <v>0.08298048700000001</v>
+        <v>0.09059721599999999</v>
       </c>
       <c r="M26" t="n">
-        <v>0.016360533</v>
+        <v>0.017927505</v>
       </c>
       <c r="N26" t="n">
-        <v>19398656</v>
+        <v>19468288</v>
       </c>
       <c r="O26" t="n">
-        <v>19398656</v>
+        <v>19468288</v>
       </c>
       <c r="P26" t="n">
-        <v>19398656</v>
+        <v>19468288</v>
       </c>
       <c r="Q26" t="n">
-        <v>19398656</v>
+        <v>19468288</v>
       </c>
       <c r="R26" t="n">
-        <v>19398656</v>
+        <v>19468288</v>
       </c>
       <c r="S26" t="n">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="T26" t="n">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="U26" t="n">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="V26" t="n">
-        <v>72</v>
+        <v>210</v>
       </c>
       <c r="W26" t="n">
-        <v>304</v>
+        <v>3342</v>
       </c>
       <c r="X26" t="n">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="Y26" t="n">
-        <v>240</v>
+        <v>2678</v>
       </c>
       <c r="Z26" t="n">
-        <v>240</v>
+        <v>2678</v>
       </c>
       <c r="AA26" t="n">
-        <v>72</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27">
@@ -2723,61 +2723,61 @@
         <v>20</v>
       </c>
       <c r="I27" t="n">
-        <v>0.120175036</v>
+        <v>0.135006208</v>
       </c>
       <c r="J27" t="n">
-        <v>0.378574467</v>
+        <v>0.420042712</v>
       </c>
       <c r="K27" t="n">
-        <v>0.579015666</v>
+        <v>0.652046715</v>
       </c>
       <c r="L27" t="n">
-        <v>0.032196465</v>
+        <v>0.035902783</v>
       </c>
       <c r="M27" t="n">
-        <v>0.016816798</v>
+        <v>0.017996453</v>
       </c>
       <c r="N27" t="n">
-        <v>19398656</v>
+        <v>19468288</v>
       </c>
       <c r="O27" t="n">
-        <v>19398656</v>
+        <v>19468288</v>
       </c>
       <c r="P27" t="n">
-        <v>19398656</v>
+        <v>19468288</v>
       </c>
       <c r="Q27" t="n">
-        <v>19398656</v>
+        <v>19468288</v>
       </c>
       <c r="R27" t="n">
-        <v>19398656</v>
+        <v>19468288</v>
       </c>
       <c r="S27" t="n">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="T27" t="n">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="U27" t="n">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="V27" t="n">
-        <v>72</v>
+        <v>210</v>
       </c>
       <c r="W27" t="n">
-        <v>344</v>
+        <v>3892</v>
       </c>
       <c r="X27" t="n">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="Y27" t="n">
-        <v>880</v>
+        <v>11478</v>
       </c>
       <c r="Z27" t="n">
-        <v>880</v>
+        <v>11478</v>
       </c>
       <c r="AA27" t="n">
-        <v>72</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28">
@@ -2808,61 +2808,61 @@
         <v>20</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1201247</v>
+        <v>0.125339729</v>
       </c>
       <c r="J28" t="n">
-        <v>0.328735997</v>
+        <v>0.338167648</v>
       </c>
       <c r="K28" t="n">
-        <v>0.499292067</v>
+        <v>0.516394716</v>
       </c>
       <c r="L28" t="n">
-        <v>0.049937106</v>
+        <v>0.050407796</v>
       </c>
       <c r="M28" t="n">
-        <v>0.016410371</v>
+        <v>0.017633017</v>
       </c>
       <c r="N28" t="n">
-        <v>19398656</v>
+        <v>19468288</v>
       </c>
       <c r="O28" t="n">
-        <v>19398656</v>
+        <v>19468288</v>
       </c>
       <c r="P28" t="n">
-        <v>19398656</v>
+        <v>19468288</v>
       </c>
       <c r="Q28" t="n">
-        <v>19398656</v>
+        <v>19468288</v>
       </c>
       <c r="R28" t="n">
-        <v>19398656</v>
+        <v>19468288</v>
       </c>
       <c r="S28" t="n">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="T28" t="n">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="U28" t="n">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="V28" t="n">
-        <v>72</v>
+        <v>210</v>
       </c>
       <c r="W28" t="n">
-        <v>344</v>
+        <v>3892</v>
       </c>
       <c r="X28" t="n">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="Y28" t="n">
-        <v>720</v>
+        <v>9278</v>
       </c>
       <c r="Z28" t="n">
-        <v>720</v>
+        <v>9278</v>
       </c>
       <c r="AA28" t="n">
-        <v>72</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29">
@@ -2893,61 +2893,61 @@
         <v>20</v>
       </c>
       <c r="I29" t="n">
-        <v>0.119712287</v>
+        <v>0.12945953</v>
       </c>
       <c r="J29" t="n">
-        <v>0.275694551</v>
+        <v>0.293358521</v>
       </c>
       <c r="K29" t="n">
-        <v>0.411492286</v>
+        <v>0.436607112</v>
       </c>
       <c r="L29" t="n">
-        <v>0.064843658</v>
+        <v>0.06860832</v>
       </c>
       <c r="M29" t="n">
-        <v>0.016759631</v>
+        <v>0.017432771</v>
       </c>
       <c r="N29" t="n">
-        <v>19452723.2</v>
+        <v>19468288</v>
       </c>
       <c r="O29" t="n">
-        <v>19452723.2</v>
+        <v>19468288</v>
       </c>
       <c r="P29" t="n">
-        <v>19466240</v>
+        <v>19468288</v>
       </c>
       <c r="Q29" t="n">
-        <v>19466240</v>
+        <v>19468288</v>
       </c>
       <c r="R29" t="n">
-        <v>19466240</v>
+        <v>19468288</v>
       </c>
       <c r="S29" t="n">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="T29" t="n">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="U29" t="n">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="V29" t="n">
-        <v>72</v>
+        <v>210</v>
       </c>
       <c r="W29" t="n">
-        <v>344</v>
+        <v>3892</v>
       </c>
       <c r="X29" t="n">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="Y29" t="n">
-        <v>560</v>
+        <v>7078</v>
       </c>
       <c r="Z29" t="n">
-        <v>560</v>
+        <v>7078</v>
       </c>
       <c r="AA29" t="n">
-        <v>72</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30">
@@ -2978,61 +2978,61 @@
         <v>20</v>
       </c>
       <c r="I30" t="n">
-        <v>0.120339101</v>
+        <v>0.129408427</v>
       </c>
       <c r="J30" t="n">
-        <v>0.226970565</v>
+        <v>0.256161485</v>
       </c>
       <c r="K30" t="n">
-        <v>0.338174728</v>
+        <v>0.366997674</v>
       </c>
       <c r="L30" t="n">
-        <v>0.084473772</v>
+        <v>0.09183364300000001</v>
       </c>
       <c r="M30" t="n">
-        <v>0.016986905</v>
+        <v>0.017426026</v>
       </c>
       <c r="N30" t="n">
-        <v>19668992</v>
+        <v>19611033.6</v>
       </c>
       <c r="O30" t="n">
-        <v>19668992</v>
+        <v>19611033.6</v>
       </c>
       <c r="P30" t="n">
-        <v>19668992</v>
+        <v>19611033.6</v>
       </c>
       <c r="Q30" t="n">
-        <v>19668992</v>
+        <v>19611033.6</v>
       </c>
       <c r="R30" t="n">
-        <v>19668992</v>
+        <v>19611033.6</v>
       </c>
       <c r="S30" t="n">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="T30" t="n">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="U30" t="n">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="V30" t="n">
-        <v>72</v>
+        <v>210</v>
       </c>
       <c r="W30" t="n">
-        <v>344</v>
+        <v>3892</v>
       </c>
       <c r="X30" t="n">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="Y30" t="n">
-        <v>400</v>
+        <v>4878</v>
       </c>
       <c r="Z30" t="n">
-        <v>400</v>
+        <v>4878</v>
       </c>
       <c r="AA30" t="n">
-        <v>72</v>
+        <v>396</v>
       </c>
     </row>
     <row r="31">
@@ -3063,61 +3063,61 @@
         <v>20</v>
       </c>
       <c r="I31" t="n">
-        <v>0.123945621</v>
+        <v>0.137959172</v>
       </c>
       <c r="J31" t="n">
-        <v>0.185779589</v>
+        <v>0.207161774</v>
       </c>
       <c r="K31" t="n">
-        <v>0.255783772</v>
+        <v>0.281484538</v>
       </c>
       <c r="L31" t="n">
-        <v>0.098970735</v>
+        <v>0.112851715</v>
       </c>
       <c r="M31" t="n">
-        <v>0.016764583</v>
+        <v>0.017938045</v>
       </c>
       <c r="N31" t="n">
-        <v>19668992</v>
+        <v>19636224</v>
       </c>
       <c r="O31" t="n">
-        <v>19668992</v>
+        <v>19636224</v>
       </c>
       <c r="P31" t="n">
-        <v>19668992</v>
+        <v>19636224</v>
       </c>
       <c r="Q31" t="n">
-        <v>19668992</v>
+        <v>19636224</v>
       </c>
       <c r="R31" t="n">
-        <v>19668992</v>
+        <v>19636224</v>
       </c>
       <c r="S31" t="n">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="T31" t="n">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="U31" t="n">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="V31" t="n">
-        <v>72</v>
+        <v>210</v>
       </c>
       <c r="W31" t="n">
-        <v>344</v>
+        <v>3892</v>
       </c>
       <c r="X31" t="n">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="Y31" t="n">
-        <v>240</v>
+        <v>2678</v>
       </c>
       <c r="Z31" t="n">
-        <v>240</v>
+        <v>2678</v>
       </c>
       <c r="AA31" t="n">
-        <v>72</v>
+        <v>396</v>
       </c>
     </row>
     <row r="32">
@@ -3148,61 +3148,61 @@
         <v>20</v>
       </c>
       <c r="I32" t="n">
-        <v>0.06550114899999999</v>
+        <v>0.076017786</v>
       </c>
       <c r="J32" t="n">
-        <v>0.138630084</v>
+        <v>0.162883642</v>
       </c>
       <c r="K32" t="n">
-        <v>0.226438565</v>
+        <v>0.26184499</v>
       </c>
       <c r="L32" t="n">
-        <v>0.039722291</v>
+        <v>0.043258605</v>
       </c>
       <c r="M32" t="n">
-        <v>0.020444489</v>
+        <v>0.022217408</v>
       </c>
       <c r="N32" t="n">
-        <v>19668992</v>
+        <v>19636224</v>
       </c>
       <c r="O32" t="n">
-        <v>19668992</v>
+        <v>19636224</v>
       </c>
       <c r="P32" t="n">
-        <v>19668992</v>
+        <v>19636224</v>
       </c>
       <c r="Q32" t="n">
-        <v>19668992</v>
+        <v>19636224</v>
       </c>
       <c r="R32" t="n">
-        <v>19668992</v>
+        <v>19636224</v>
       </c>
       <c r="S32" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="T32" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="U32" t="n">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="V32" t="n">
-        <v>72</v>
+        <v>226</v>
       </c>
       <c r="W32" t="n">
-        <v>184</v>
+        <v>1820</v>
       </c>
       <c r="X32" t="n">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="Y32" t="n">
-        <v>240</v>
+        <v>2874</v>
       </c>
       <c r="Z32" t="n">
-        <v>240</v>
+        <v>2874</v>
       </c>
       <c r="AA32" t="n">
-        <v>72</v>
+        <v>428</v>
       </c>
     </row>
     <row r="33">
@@ -3233,61 +3233,61 @@
         <v>20</v>
       </c>
       <c r="I33" t="n">
-        <v>0.08418200000000001</v>
+        <v>0.094699037</v>
       </c>
       <c r="J33" t="n">
-        <v>0.21774006</v>
+        <v>0.245660348</v>
       </c>
       <c r="K33" t="n">
-        <v>0.351212927</v>
+        <v>0.379694056</v>
       </c>
       <c r="L33" t="n">
-        <v>0.038859298</v>
+        <v>0.042490493</v>
       </c>
       <c r="M33" t="n">
-        <v>0.019770664</v>
+        <v>0.02421549</v>
       </c>
       <c r="N33" t="n">
-        <v>19668992</v>
+        <v>19636224</v>
       </c>
       <c r="O33" t="n">
-        <v>19668992</v>
+        <v>19636224</v>
       </c>
       <c r="P33" t="n">
-        <v>19668992</v>
+        <v>19636224</v>
       </c>
       <c r="Q33" t="n">
-        <v>19668992</v>
+        <v>19636224</v>
       </c>
       <c r="R33" t="n">
-        <v>19668992</v>
+        <v>19636224</v>
       </c>
       <c r="S33" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="T33" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="U33" t="n">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="V33" t="n">
-        <v>72</v>
+        <v>226</v>
       </c>
       <c r="W33" t="n">
-        <v>224</v>
+        <v>2410</v>
       </c>
       <c r="X33" t="n">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="Y33" t="n">
-        <v>400</v>
+        <v>5234</v>
       </c>
       <c r="Z33" t="n">
-        <v>400</v>
+        <v>5234</v>
       </c>
       <c r="AA33" t="n">
-        <v>72</v>
+        <v>428</v>
       </c>
     </row>
     <row r="34">
@@ -3318,61 +3318,61 @@
         <v>20</v>
       </c>
       <c r="I34" t="n">
-        <v>0.089544977</v>
+        <v>0.09408135500000001</v>
       </c>
       <c r="J34" t="n">
-        <v>0.168283036</v>
+        <v>0.177677769</v>
       </c>
       <c r="K34" t="n">
-        <v>0.254834537</v>
+        <v>0.27268017</v>
       </c>
       <c r="L34" t="n">
-        <v>0.061221831</v>
+        <v>0.063967384</v>
       </c>
       <c r="M34" t="n">
-        <v>0.021194225</v>
+        <v>0.021749238</v>
       </c>
       <c r="N34" t="n">
-        <v>19668992</v>
+        <v>19636224</v>
       </c>
       <c r="O34" t="n">
-        <v>19668992</v>
+        <v>19636224</v>
       </c>
       <c r="P34" t="n">
-        <v>19668992</v>
+        <v>19636224</v>
       </c>
       <c r="Q34" t="n">
-        <v>19668992</v>
+        <v>19636224</v>
       </c>
       <c r="R34" t="n">
-        <v>19668992</v>
+        <v>19636224</v>
       </c>
       <c r="S34" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="T34" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="U34" t="n">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="V34" t="n">
-        <v>72</v>
+        <v>226</v>
       </c>
       <c r="W34" t="n">
-        <v>224</v>
+        <v>2410</v>
       </c>
       <c r="X34" t="n">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="Y34" t="n">
-        <v>240</v>
+        <v>2874</v>
       </c>
       <c r="Z34" t="n">
-        <v>240</v>
+        <v>2874</v>
       </c>
       <c r="AA34" t="n">
-        <v>72</v>
+        <v>428</v>
       </c>
     </row>
     <row r="35">
@@ -3403,61 +3403,61 @@
         <v>20</v>
       </c>
       <c r="I35" t="n">
-        <v>0.107180051</v>
+        <v>0.112664567</v>
       </c>
       <c r="J35" t="n">
-        <v>0.304209748</v>
+        <v>0.321655074</v>
       </c>
       <c r="K35" t="n">
-        <v>0.469025057</v>
+        <v>0.500030571</v>
       </c>
       <c r="L35" t="n">
-        <v>0.04012364</v>
+        <v>0.04096204</v>
       </c>
       <c r="M35" t="n">
-        <v>0.020848487</v>
+        <v>0.021866826</v>
       </c>
       <c r="N35" t="n">
-        <v>19668992</v>
+        <v>19636224</v>
       </c>
       <c r="O35" t="n">
-        <v>19668992</v>
+        <v>19636224</v>
       </c>
       <c r="P35" t="n">
-        <v>19668992</v>
+        <v>19636224</v>
       </c>
       <c r="Q35" t="n">
-        <v>19668992</v>
+        <v>19636224</v>
       </c>
       <c r="R35" t="n">
-        <v>19668992</v>
+        <v>19636224</v>
       </c>
       <c r="S35" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="T35" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="U35" t="n">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="V35" t="n">
-        <v>72</v>
+        <v>226</v>
       </c>
       <c r="W35" t="n">
-        <v>264</v>
+        <v>3000</v>
       </c>
       <c r="X35" t="n">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="Y35" t="n">
-        <v>560</v>
+        <v>7594</v>
       </c>
       <c r="Z35" t="n">
-        <v>560</v>
+        <v>7594</v>
       </c>
       <c r="AA35" t="n">
-        <v>72</v>
+        <v>428</v>
       </c>
     </row>
     <row r="36">
@@ -3488,61 +3488,61 @@
         <v>20</v>
       </c>
       <c r="I36" t="n">
-        <v>0.10800678</v>
+        <v>0.111388021</v>
       </c>
       <c r="J36" t="n">
-        <v>0.243732872</v>
+        <v>0.250118521</v>
       </c>
       <c r="K36" t="n">
-        <v>0.382098297</v>
+        <v>0.385144197</v>
       </c>
       <c r="L36" t="n">
-        <v>0.060817266</v>
+        <v>0.061708675</v>
       </c>
       <c r="M36" t="n">
-        <v>0.020602802</v>
+        <v>0.021547339</v>
       </c>
       <c r="N36" t="n">
-        <v>19668992</v>
+        <v>19636224</v>
       </c>
       <c r="O36" t="n">
-        <v>19668992</v>
+        <v>19636224</v>
       </c>
       <c r="P36" t="n">
-        <v>19668992</v>
+        <v>19636224</v>
       </c>
       <c r="Q36" t="n">
-        <v>19668992</v>
+        <v>19636224</v>
       </c>
       <c r="R36" t="n">
-        <v>19668992</v>
+        <v>19636224</v>
       </c>
       <c r="S36" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="T36" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="U36" t="n">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="V36" t="n">
-        <v>72</v>
+        <v>226</v>
       </c>
       <c r="W36" t="n">
-        <v>264</v>
+        <v>3000</v>
       </c>
       <c r="X36" t="n">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="Y36" t="n">
-        <v>400</v>
+        <v>5234</v>
       </c>
       <c r="Z36" t="n">
-        <v>400</v>
+        <v>5234</v>
       </c>
       <c r="AA36" t="n">
-        <v>72</v>
+        <v>428</v>
       </c>
     </row>
     <row r="37">
@@ -3573,61 +3573,61 @@
         <v>20</v>
       </c>
       <c r="I37" t="n">
-        <v>0.107692424</v>
+        <v>0.111693015</v>
       </c>
       <c r="J37" t="n">
-        <v>0.181918541</v>
+        <v>0.190264345</v>
       </c>
       <c r="K37" t="n">
-        <v>0.273127978</v>
+        <v>0.279114412</v>
       </c>
       <c r="L37" t="n">
-        <v>0.083388817</v>
+        <v>0.08486326299999999</v>
       </c>
       <c r="M37" t="n">
-        <v>0.020924212</v>
+        <v>0.020598684</v>
       </c>
       <c r="N37" t="n">
-        <v>19668992</v>
+        <v>19636224</v>
       </c>
       <c r="O37" t="n">
-        <v>19668992</v>
+        <v>19636224</v>
       </c>
       <c r="P37" t="n">
-        <v>19668992</v>
+        <v>19636224</v>
       </c>
       <c r="Q37" t="n">
-        <v>19668992</v>
+        <v>19636224</v>
       </c>
       <c r="R37" t="n">
-        <v>19668992</v>
+        <v>19636224</v>
       </c>
       <c r="S37" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="T37" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="U37" t="n">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="V37" t="n">
-        <v>72</v>
+        <v>226</v>
       </c>
       <c r="W37" t="n">
-        <v>264</v>
+        <v>3000</v>
       </c>
       <c r="X37" t="n">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="Y37" t="n">
-        <v>240</v>
+        <v>2874</v>
       </c>
       <c r="Z37" t="n">
-        <v>240</v>
+        <v>2874</v>
       </c>
       <c r="AA37" t="n">
-        <v>72</v>
+        <v>428</v>
       </c>
     </row>
     <row r="38">
@@ -3658,61 +3658,61 @@
         <v>20</v>
       </c>
       <c r="I38" t="n">
-        <v>0.126923033</v>
+        <v>0.13513819</v>
       </c>
       <c r="J38" t="n">
-        <v>0.389115097</v>
+        <v>0.405969128</v>
       </c>
       <c r="K38" t="n">
-        <v>0.600125047</v>
+        <v>0.617817579</v>
       </c>
       <c r="L38" t="n">
-        <v>0.039245213</v>
+        <v>0.041883243</v>
       </c>
       <c r="M38" t="n">
-        <v>0.020205508</v>
+        <v>0.020778528</v>
       </c>
       <c r="N38" t="n">
-        <v>19709542.4</v>
+        <v>19716096</v>
       </c>
       <c r="O38" t="n">
-        <v>19709542.4</v>
+        <v>19716096</v>
       </c>
       <c r="P38" t="n">
-        <v>19723059.2</v>
+        <v>19729408</v>
       </c>
       <c r="Q38" t="n">
-        <v>19723059.2</v>
+        <v>19729408</v>
       </c>
       <c r="R38" t="n">
-        <v>19723059.2</v>
+        <v>19729408</v>
       </c>
       <c r="S38" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="T38" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="U38" t="n">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="V38" t="n">
-        <v>72</v>
+        <v>226</v>
       </c>
       <c r="W38" t="n">
-        <v>304</v>
+        <v>3590</v>
       </c>
       <c r="X38" t="n">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="Y38" t="n">
-        <v>720</v>
+        <v>9954</v>
       </c>
       <c r="Z38" t="n">
-        <v>720</v>
+        <v>9954</v>
       </c>
       <c r="AA38" t="n">
-        <v>72</v>
+        <v>428</v>
       </c>
     </row>
     <row r="39">
@@ -3743,61 +3743,61 @@
         <v>20</v>
       </c>
       <c r="I39" t="n">
-        <v>0.128447547</v>
+        <v>0.13396983</v>
       </c>
       <c r="J39" t="n">
-        <v>0.326749018</v>
+        <v>0.337512731</v>
       </c>
       <c r="K39" t="n">
-        <v>0.490170948</v>
+        <v>0.515108341</v>
       </c>
       <c r="L39" t="n">
-        <v>0.059249354</v>
+        <v>0.06331867200000001</v>
       </c>
       <c r="M39" t="n">
-        <v>0.02021298</v>
+        <v>0.021095949</v>
       </c>
       <c r="N39" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="O39" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="P39" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="Q39" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="R39" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="S39" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="T39" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="U39" t="n">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="V39" t="n">
-        <v>72</v>
+        <v>226</v>
       </c>
       <c r="W39" t="n">
-        <v>304</v>
+        <v>3590</v>
       </c>
       <c r="X39" t="n">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="Y39" t="n">
-        <v>560</v>
+        <v>7594</v>
       </c>
       <c r="Z39" t="n">
-        <v>560</v>
+        <v>7594</v>
       </c>
       <c r="AA39" t="n">
-        <v>72</v>
+        <v>428</v>
       </c>
     </row>
     <row r="40">
@@ -3828,61 +3828,61 @@
         <v>20</v>
       </c>
       <c r="I40" t="n">
-        <v>0.12900263</v>
+        <v>0.134743201</v>
       </c>
       <c r="J40" t="n">
-        <v>0.269234665</v>
+        <v>0.273157947</v>
       </c>
       <c r="K40" t="n">
-        <v>0.400701063</v>
+        <v>0.407452725</v>
       </c>
       <c r="L40" t="n">
-        <v>0.08323602500000001</v>
+        <v>0.08411795</v>
       </c>
       <c r="M40" t="n">
-        <v>0.020912436</v>
+        <v>0.021061707</v>
       </c>
       <c r="N40" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="O40" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="P40" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="Q40" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="R40" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="S40" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="T40" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="U40" t="n">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="V40" t="n">
-        <v>72</v>
+        <v>226</v>
       </c>
       <c r="W40" t="n">
-        <v>304</v>
+        <v>3590</v>
       </c>
       <c r="X40" t="n">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="Y40" t="n">
-        <v>400</v>
+        <v>5234</v>
       </c>
       <c r="Z40" t="n">
-        <v>400</v>
+        <v>5234</v>
       </c>
       <c r="AA40" t="n">
-        <v>72</v>
+        <v>428</v>
       </c>
     </row>
     <row r="41">
@@ -3913,61 +3913,61 @@
         <v>20</v>
       </c>
       <c r="I41" t="n">
-        <v>0.129017126</v>
+        <v>0.140727821</v>
       </c>
       <c r="J41" t="n">
-        <v>0.204319905</v>
+        <v>0.21773158</v>
       </c>
       <c r="K41" t="n">
-        <v>0.292841616</v>
+        <v>0.311112913</v>
       </c>
       <c r="L41" t="n">
-        <v>0.102318018</v>
+        <v>0.110207096</v>
       </c>
       <c r="M41" t="n">
-        <v>0.020442888</v>
+        <v>0.022416522</v>
       </c>
       <c r="N41" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="O41" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="P41" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="Q41" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="R41" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="S41" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="T41" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="U41" t="n">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="V41" t="n">
-        <v>72</v>
+        <v>226</v>
       </c>
       <c r="W41" t="n">
-        <v>304</v>
+        <v>3590</v>
       </c>
       <c r="X41" t="n">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="Y41" t="n">
-        <v>240</v>
+        <v>2874</v>
       </c>
       <c r="Z41" t="n">
-        <v>240</v>
+        <v>2874</v>
       </c>
       <c r="AA41" t="n">
-        <v>72</v>
+        <v>428</v>
       </c>
     </row>
     <row r="42">
@@ -3998,61 +3998,61 @@
         <v>20</v>
       </c>
       <c r="I42" t="n">
-        <v>0.149687849</v>
+        <v>0.160675196</v>
       </c>
       <c r="J42" t="n">
-        <v>0.469985734</v>
+        <v>0.515381752</v>
       </c>
       <c r="K42" t="n">
-        <v>0.72913303</v>
+        <v>0.782208456</v>
       </c>
       <c r="L42" t="n">
-        <v>0.039426265</v>
+        <v>0.040809586</v>
       </c>
       <c r="M42" t="n">
-        <v>0.02023624</v>
+        <v>0.021753355</v>
       </c>
       <c r="N42" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="O42" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="P42" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="Q42" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="R42" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="S42" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="T42" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="U42" t="n">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="V42" t="n">
-        <v>72</v>
+        <v>226</v>
       </c>
       <c r="W42" t="n">
-        <v>344</v>
+        <v>4180</v>
       </c>
       <c r="X42" t="n">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="Y42" t="n">
-        <v>880</v>
+        <v>12314</v>
       </c>
       <c r="Z42" t="n">
-        <v>880</v>
+        <v>12314</v>
       </c>
       <c r="AA42" t="n">
-        <v>72</v>
+        <v>428</v>
       </c>
     </row>
     <row r="43">
@@ -4083,61 +4083,61 @@
         <v>20</v>
       </c>
       <c r="I43" t="n">
-        <v>0.146530482</v>
+        <v>0.162644058</v>
       </c>
       <c r="J43" t="n">
-        <v>0.40551956</v>
+        <v>0.435275406</v>
       </c>
       <c r="K43" t="n">
-        <v>0.617943091</v>
+        <v>0.661037976</v>
       </c>
       <c r="L43" t="n">
-        <v>0.058889055</v>
+        <v>0.063285328</v>
       </c>
       <c r="M43" t="n">
-        <v>0.019991511</v>
+        <v>0.021839853</v>
       </c>
       <c r="N43" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="O43" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="P43" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="Q43" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="R43" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="S43" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="T43" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="U43" t="n">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="V43" t="n">
-        <v>72</v>
+        <v>226</v>
       </c>
       <c r="W43" t="n">
-        <v>344</v>
+        <v>4180</v>
       </c>
       <c r="X43" t="n">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="Y43" t="n">
-        <v>720</v>
+        <v>9954</v>
       </c>
       <c r="Z43" t="n">
-        <v>720</v>
+        <v>9954</v>
       </c>
       <c r="AA43" t="n">
-        <v>72</v>
+        <v>428</v>
       </c>
     </row>
     <row r="44">
@@ -4168,61 +4168,61 @@
         <v>20</v>
       </c>
       <c r="I44" t="n">
-        <v>0.153579279</v>
+        <v>0.167189618</v>
       </c>
       <c r="J44" t="n">
-        <v>0.351556742</v>
+        <v>0.382166402</v>
       </c>
       <c r="K44" t="n">
-        <v>0.523745842</v>
+        <v>0.563381444</v>
       </c>
       <c r="L44" t="n">
-        <v>0.082049133</v>
+        <v>0.08671037199999999</v>
       </c>
       <c r="M44" t="n">
-        <v>0.020598808</v>
+        <v>0.021792188</v>
       </c>
       <c r="N44" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="O44" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="P44" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="Q44" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="R44" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="S44" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="T44" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="U44" t="n">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="V44" t="n">
-        <v>72</v>
+        <v>226</v>
       </c>
       <c r="W44" t="n">
-        <v>344</v>
+        <v>4180</v>
       </c>
       <c r="X44" t="n">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="Y44" t="n">
-        <v>560</v>
+        <v>7594</v>
       </c>
       <c r="Z44" t="n">
-        <v>560</v>
+        <v>7594</v>
       </c>
       <c r="AA44" t="n">
-        <v>72</v>
+        <v>428</v>
       </c>
     </row>
     <row r="45">
@@ -4253,61 +4253,61 @@
         <v>20</v>
       </c>
       <c r="I45" t="n">
-        <v>0.152138842</v>
+        <v>0.163976847</v>
       </c>
       <c r="J45" t="n">
-        <v>0.28967252</v>
+        <v>0.30703896</v>
       </c>
       <c r="K45" t="n">
-        <v>0.421398711</v>
+        <v>0.446289478</v>
       </c>
       <c r="L45" t="n">
-        <v>0.105446336</v>
+        <v>0.111481907</v>
       </c>
       <c r="M45" t="n">
-        <v>0.021249168</v>
+        <v>0.021567944</v>
       </c>
       <c r="N45" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="O45" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="P45" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="Q45" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="R45" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="S45" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="T45" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="U45" t="n">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="V45" t="n">
-        <v>72</v>
+        <v>226</v>
       </c>
       <c r="W45" t="n">
-        <v>344</v>
+        <v>4180</v>
       </c>
       <c r="X45" t="n">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="Y45" t="n">
-        <v>400</v>
+        <v>5234</v>
       </c>
       <c r="Z45" t="n">
-        <v>400</v>
+        <v>5234</v>
       </c>
       <c r="AA45" t="n">
-        <v>72</v>
+        <v>428</v>
       </c>
     </row>
     <row r="46">
@@ -4338,61 +4338,61 @@
         <v>20</v>
       </c>
       <c r="I46" t="n">
-        <v>0.154585404</v>
+        <v>0.161146016</v>
       </c>
       <c r="J46" t="n">
-        <v>0.231188945</v>
+        <v>0.237610856</v>
       </c>
       <c r="K46" t="n">
-        <v>0.324954874</v>
+        <v>0.32839943</v>
       </c>
       <c r="L46" t="n">
-        <v>0.130141132</v>
+        <v>0.128903978</v>
       </c>
       <c r="M46" t="n">
-        <v>0.021448927</v>
+        <v>0.022070129</v>
       </c>
       <c r="N46" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="O46" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="P46" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="Q46" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="R46" t="n">
-        <v>19939328</v>
+        <v>19902464</v>
       </c>
       <c r="S46" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="T46" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="U46" t="n">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="V46" t="n">
-        <v>72</v>
+        <v>226</v>
       </c>
       <c r="W46" t="n">
-        <v>344</v>
+        <v>4180</v>
       </c>
       <c r="X46" t="n">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="Y46" t="n">
-        <v>240</v>
+        <v>2874</v>
       </c>
       <c r="Z46" t="n">
-        <v>240</v>
+        <v>2874</v>
       </c>
       <c r="AA46" t="n">
-        <v>72</v>
+        <v>428</v>
       </c>
     </row>
     <row r="47">
@@ -4423,61 +4423,61 @@
         <v>20</v>
       </c>
       <c r="I47" t="n">
-        <v>0.019051392</v>
+        <v>0.017447842</v>
       </c>
       <c r="J47" t="n">
-        <v>0.031982606</v>
+        <v>0.029935388</v>
       </c>
       <c r="K47" t="n">
-        <v>0.055963103</v>
+        <v>0.049103918</v>
       </c>
       <c r="L47" t="n">
-        <v>0.011700916</v>
+        <v>0.010716949</v>
       </c>
       <c r="M47" t="n">
-        <v>0.004843533</v>
+        <v>0.004091773</v>
       </c>
       <c r="N47" t="n">
-        <v>20221952</v>
+        <v>20156620.8</v>
       </c>
       <c r="O47" t="n">
-        <v>20221952</v>
+        <v>20156416</v>
       </c>
       <c r="P47" t="n">
-        <v>20230553.6</v>
+        <v>20179763.2</v>
       </c>
       <c r="Q47" t="n">
-        <v>20243660.8</v>
+        <v>20186316.8</v>
       </c>
       <c r="R47" t="n">
-        <v>20243660.8</v>
+        <v>20186316.8</v>
       </c>
       <c r="S47" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="T47" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="U47" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="V47" t="n">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="W47" t="n">
-        <v>184</v>
+        <v>1620</v>
       </c>
       <c r="X47" t="n">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="Y47" t="n">
-        <v>240</v>
+        <v>2250</v>
       </c>
       <c r="Z47" t="n">
-        <v>240</v>
+        <v>2250</v>
       </c>
       <c r="AA47" t="n">
-        <v>72</v>
+        <v>444</v>
       </c>
     </row>
     <row r="48">
@@ -4508,61 +4508,61 @@
         <v>20</v>
       </c>
       <c r="I48" t="n">
-        <v>0.022383422</v>
+        <v>0.022080018</v>
       </c>
       <c r="J48" t="n">
-        <v>0.04931425</v>
+        <v>0.04807098</v>
       </c>
       <c r="K48" t="n">
-        <v>0.078567361</v>
+        <v>0.076329968</v>
       </c>
       <c r="L48" t="n">
-        <v>0.010759791</v>
+        <v>0.009964626000000001</v>
       </c>
       <c r="M48" t="n">
-        <v>0.004204906</v>
+        <v>0.003893941</v>
       </c>
       <c r="N48" t="n">
-        <v>20296294.4</v>
+        <v>20211302.4</v>
       </c>
       <c r="O48" t="n">
-        <v>20285849.6</v>
+        <v>20215193.6</v>
       </c>
       <c r="P48" t="n">
-        <v>20295270.4</v>
+        <v>20217036.8</v>
       </c>
       <c r="Q48" t="n">
-        <v>20370432</v>
+        <v>20295680</v>
       </c>
       <c r="R48" t="n">
-        <v>20370432</v>
+        <v>20296089.6</v>
       </c>
       <c r="S48" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="T48" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="U48" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="V48" t="n">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="W48" t="n">
-        <v>224</v>
+        <v>2070</v>
       </c>
       <c r="X48" t="n">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="Y48" t="n">
-        <v>400</v>
+        <v>4050</v>
       </c>
       <c r="Z48" t="n">
-        <v>400</v>
+        <v>4050</v>
       </c>
       <c r="AA48" t="n">
-        <v>72</v>
+        <v>444</v>
       </c>
     </row>
     <row r="49">
@@ -4593,61 +4593,61 @@
         <v>20</v>
       </c>
       <c r="I49" t="n">
-        <v>0.021230288</v>
+        <v>0.022077858</v>
       </c>
       <c r="J49" t="n">
-        <v>0.034480693</v>
+        <v>0.034512565</v>
       </c>
       <c r="K49" t="n">
-        <v>0.053030964</v>
+        <v>0.053141583</v>
       </c>
       <c r="L49" t="n">
-        <v>0.014250391</v>
+        <v>0.01465793</v>
       </c>
       <c r="M49" t="n">
-        <v>0.003900254</v>
+        <v>0.004059454</v>
       </c>
       <c r="N49" t="n">
-        <v>20240384</v>
+        <v>20203315.2</v>
       </c>
       <c r="O49" t="n">
-        <v>20240384</v>
+        <v>20209868.8</v>
       </c>
       <c r="P49" t="n">
-        <v>20240588.8</v>
+        <v>20206592</v>
       </c>
       <c r="Q49" t="n">
-        <v>20242636.8</v>
+        <v>20211302.4</v>
       </c>
       <c r="R49" t="n">
-        <v>20242636.8</v>
+        <v>20211302.4</v>
       </c>
       <c r="S49" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="T49" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="U49" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="V49" t="n">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="W49" t="n">
-        <v>224</v>
+        <v>2070</v>
       </c>
       <c r="X49" t="n">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="Y49" t="n">
-        <v>240</v>
+        <v>2250</v>
       </c>
       <c r="Z49" t="n">
-        <v>240</v>
+        <v>2250</v>
       </c>
       <c r="AA49" t="n">
-        <v>72</v>
+        <v>444</v>
       </c>
     </row>
     <row r="50">
@@ -4678,61 +4678,61 @@
         <v>20</v>
       </c>
       <c r="I50" t="n">
-        <v>0.024042514</v>
+        <v>0.027880969</v>
       </c>
       <c r="J50" t="n">
-        <v>0.06039569</v>
+        <v>0.06307850800000001</v>
       </c>
       <c r="K50" t="n">
-        <v>0.09608541800000001</v>
+        <v>0.101350615</v>
       </c>
       <c r="L50" t="n">
-        <v>0.009663615</v>
+        <v>0.010521551</v>
       </c>
       <c r="M50" t="n">
-        <v>0.003848397</v>
+        <v>0.004080903</v>
       </c>
       <c r="N50" t="n">
-        <v>20314931.2</v>
+        <v>20294246.4</v>
       </c>
       <c r="O50" t="n">
-        <v>20308172.8</v>
+        <v>20291788.8</v>
       </c>
       <c r="P50" t="n">
-        <v>20310835.2</v>
+        <v>20292812.8</v>
       </c>
       <c r="Q50" t="n">
-        <v>20363673.6</v>
+        <v>20352614.4</v>
       </c>
       <c r="R50" t="n">
-        <v>20363878.4</v>
+        <v>20352614.4</v>
       </c>
       <c r="S50" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="T50" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="U50" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="V50" t="n">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="W50" t="n">
-        <v>264</v>
+        <v>2520</v>
       </c>
       <c r="X50" t="n">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="Y50" t="n">
-        <v>560</v>
+        <v>5850</v>
       </c>
       <c r="Z50" t="n">
-        <v>560</v>
+        <v>5850</v>
       </c>
       <c r="AA50" t="n">
-        <v>72</v>
+        <v>444</v>
       </c>
     </row>
     <row r="51">
@@ -4763,61 +4763,61 @@
         <v>20</v>
       </c>
       <c r="I51" t="n">
-        <v>0.024079731</v>
+        <v>0.02727556</v>
       </c>
       <c r="J51" t="n">
-        <v>0.048143044</v>
+        <v>0.051295283</v>
       </c>
       <c r="K51" t="n">
-        <v>0.07338892700000001</v>
+        <v>0.0804589</v>
       </c>
       <c r="L51" t="n">
-        <v>0.013601001</v>
+        <v>0.015154034</v>
       </c>
       <c r="M51" t="n">
-        <v>0.003806911</v>
+        <v>0.004381756</v>
       </c>
       <c r="N51" t="n">
-        <v>20463616</v>
+        <v>20295884.8</v>
       </c>
       <c r="O51" t="n">
-        <v>20463616</v>
+        <v>20290560</v>
       </c>
       <c r="P51" t="n">
-        <v>20463616</v>
+        <v>20317798.4</v>
       </c>
       <c r="Q51" t="n">
-        <v>20463616</v>
+        <v>20376985.6</v>
       </c>
       <c r="R51" t="n">
-        <v>20463616</v>
+        <v>20377395.2</v>
       </c>
       <c r="S51" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="T51" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="U51" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="V51" t="n">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="W51" t="n">
-        <v>264</v>
+        <v>2520</v>
       </c>
       <c r="X51" t="n">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="Y51" t="n">
-        <v>400</v>
+        <v>4050</v>
       </c>
       <c r="Z51" t="n">
-        <v>400</v>
+        <v>4050</v>
       </c>
       <c r="AA51" t="n">
-        <v>72</v>
+        <v>444</v>
       </c>
     </row>
     <row r="52">
@@ -4848,61 +4848,61 @@
         <v>20</v>
       </c>
       <c r="I52" t="n">
-        <v>0.025310056</v>
+        <v>0.026624064</v>
       </c>
       <c r="J52" t="n">
-        <v>0.037799024</v>
+        <v>0.038860309</v>
       </c>
       <c r="K52" t="n">
-        <v>0.058182424</v>
+        <v>0.056217581</v>
       </c>
       <c r="L52" t="n">
-        <v>0.018728162</v>
+        <v>0.018793568</v>
       </c>
       <c r="M52" t="n">
-        <v>0.00398083</v>
+        <v>0.004074801</v>
       </c>
       <c r="N52" t="n">
-        <v>20463616</v>
+        <v>20266803.2</v>
       </c>
       <c r="O52" t="n">
-        <v>20463616</v>
+        <v>20266803.2</v>
       </c>
       <c r="P52" t="n">
-        <v>20463616</v>
+        <v>20264550.4</v>
       </c>
       <c r="Q52" t="n">
-        <v>20463616</v>
+        <v>20271513.6</v>
       </c>
       <c r="R52" t="n">
-        <v>20463616</v>
+        <v>20271513.6</v>
       </c>
       <c r="S52" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="T52" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="U52" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="V52" t="n">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="W52" t="n">
-        <v>264</v>
+        <v>2520</v>
       </c>
       <c r="X52" t="n">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="Y52" t="n">
-        <v>240</v>
+        <v>2250</v>
       </c>
       <c r="Z52" t="n">
-        <v>240</v>
+        <v>2250</v>
       </c>
       <c r="AA52" t="n">
-        <v>72</v>
+        <v>444</v>
       </c>
     </row>
     <row r="53">
@@ -4933,61 +4933,61 @@
         <v>20</v>
       </c>
       <c r="I53" t="n">
-        <v>0.027808886</v>
+        <v>0.032424564</v>
       </c>
       <c r="J53" t="n">
-        <v>0.075828163</v>
+        <v>0.083781825</v>
       </c>
       <c r="K53" t="n">
-        <v>0.117970384</v>
+        <v>0.12579752</v>
       </c>
       <c r="L53" t="n">
-        <v>0.009670297</v>
+        <v>0.010095932</v>
       </c>
       <c r="M53" t="n">
-        <v>0.003720766</v>
+        <v>0.00399641</v>
       </c>
       <c r="N53" t="n">
-        <v>20463616</v>
+        <v>20389068.8</v>
       </c>
       <c r="O53" t="n">
-        <v>20463616</v>
+        <v>20386816</v>
       </c>
       <c r="P53" t="n">
-        <v>20463616</v>
+        <v>20388044.8</v>
       </c>
       <c r="Q53" t="n">
-        <v>20463616</v>
+        <v>20415078.4</v>
       </c>
       <c r="R53" t="n">
-        <v>20463616</v>
+        <v>20415078.4</v>
       </c>
       <c r="S53" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="T53" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="U53" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="V53" t="n">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="W53" t="n">
-        <v>304</v>
+        <v>2970</v>
       </c>
       <c r="X53" t="n">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="Y53" t="n">
-        <v>720</v>
+        <v>7650</v>
       </c>
       <c r="Z53" t="n">
-        <v>720</v>
+        <v>7650</v>
       </c>
       <c r="AA53" t="n">
-        <v>72</v>
+        <v>444</v>
       </c>
     </row>
     <row r="54">
@@ -5018,61 +5018,61 @@
         <v>20</v>
       </c>
       <c r="I54" t="n">
-        <v>0.028212145</v>
+        <v>0.031169846</v>
       </c>
       <c r="J54" t="n">
-        <v>0.066952947</v>
+        <v>0.070408026</v>
       </c>
       <c r="K54" t="n">
-        <v>0.103529153</v>
+        <v>0.107439618</v>
       </c>
       <c r="L54" t="n">
-        <v>0.014236934</v>
+        <v>0.015426134</v>
       </c>
       <c r="M54" t="n">
-        <v>0.003838223</v>
+        <v>0.004068822</v>
       </c>
       <c r="N54" t="n">
-        <v>20459110.4</v>
+        <v>20418560</v>
       </c>
       <c r="O54" t="n">
-        <v>20446412.8</v>
+        <v>20418560</v>
       </c>
       <c r="P54" t="n">
-        <v>20454809.6</v>
+        <v>20418560</v>
       </c>
       <c r="Q54" t="n">
-        <v>20507648</v>
+        <v>20418560</v>
       </c>
       <c r="R54" t="n">
-        <v>20507648</v>
+        <v>20418560</v>
       </c>
       <c r="S54" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="T54" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="U54" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="V54" t="n">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="W54" t="n">
-        <v>304</v>
+        <v>2970</v>
       </c>
       <c r="X54" t="n">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="Y54" t="n">
-        <v>560</v>
+        <v>5850</v>
       </c>
       <c r="Z54" t="n">
-        <v>560</v>
+        <v>5850</v>
       </c>
       <c r="AA54" t="n">
-        <v>72</v>
+        <v>444</v>
       </c>
     </row>
     <row r="55">
@@ -5103,61 +5103,61 @@
         <v>20</v>
       </c>
       <c r="I55" t="n">
-        <v>0.030010983</v>
+        <v>0.034598179</v>
       </c>
       <c r="J55" t="n">
-        <v>0.05458163</v>
+        <v>0.062186328</v>
       </c>
       <c r="K55" t="n">
-        <v>0.081298091</v>
+        <v>0.09371183900000001</v>
       </c>
       <c r="L55" t="n">
-        <v>0.018365343</v>
+        <v>0.022359197</v>
       </c>
       <c r="M55" t="n">
-        <v>0.003975432</v>
+        <v>0.004525415</v>
       </c>
       <c r="N55" t="n">
-        <v>20546764.8</v>
+        <v>20418560</v>
       </c>
       <c r="O55" t="n">
-        <v>20538777.6</v>
+        <v>20418560</v>
       </c>
       <c r="P55" t="n">
-        <v>20540620.8</v>
+        <v>20418560</v>
       </c>
       <c r="Q55" t="n">
-        <v>20576460.8</v>
+        <v>20418560</v>
       </c>
       <c r="R55" t="n">
-        <v>20576665.6</v>
+        <v>20418560</v>
       </c>
       <c r="S55" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="T55" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="U55" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="V55" t="n">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="W55" t="n">
-        <v>304</v>
+        <v>2970</v>
       </c>
       <c r="X55" t="n">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="Y55" t="n">
-        <v>400</v>
+        <v>4050</v>
       </c>
       <c r="Z55" t="n">
-        <v>400</v>
+        <v>4050</v>
       </c>
       <c r="AA55" t="n">
-        <v>72</v>
+        <v>444</v>
       </c>
     </row>
     <row r="56">
@@ -5188,61 +5188,61 @@
         <v>20</v>
       </c>
       <c r="I56" t="n">
-        <v>0.028129175</v>
+        <v>0.031875509</v>
       </c>
       <c r="J56" t="n">
-        <v>0.040114259</v>
+        <v>0.043475041</v>
       </c>
       <c r="K56" t="n">
-        <v>0.058244418</v>
+        <v>0.064792935</v>
       </c>
       <c r="L56" t="n">
-        <v>0.022153938</v>
+        <v>0.024848288</v>
       </c>
       <c r="M56" t="n">
-        <v>0.003912586</v>
+        <v>0.004109091</v>
       </c>
       <c r="N56" t="n">
-        <v>20379033.6</v>
+        <v>20418560</v>
       </c>
       <c r="O56" t="n">
-        <v>20379033.6</v>
+        <v>20418560</v>
       </c>
       <c r="P56" t="n">
-        <v>20373708.8</v>
+        <v>20418560</v>
       </c>
       <c r="Q56" t="n">
-        <v>20375961.6</v>
+        <v>20418560</v>
       </c>
       <c r="R56" t="n">
-        <v>20375961.6</v>
+        <v>20418560</v>
       </c>
       <c r="S56" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="T56" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="U56" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="V56" t="n">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="W56" t="n">
-        <v>304</v>
+        <v>2970</v>
       </c>
       <c r="X56" t="n">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="Y56" t="n">
-        <v>240</v>
+        <v>2250</v>
       </c>
       <c r="Z56" t="n">
-        <v>240</v>
+        <v>2250</v>
       </c>
       <c r="AA56" t="n">
-        <v>72</v>
+        <v>444</v>
       </c>
     </row>
     <row r="57">
@@ -5273,61 +5273,61 @@
         <v>20</v>
       </c>
       <c r="I57" t="n">
-        <v>0.033108379</v>
+        <v>0.037408437</v>
       </c>
       <c r="J57" t="n">
-        <v>0.095407596</v>
+        <v>0.105644704</v>
       </c>
       <c r="K57" t="n">
-        <v>0.148513302</v>
+        <v>0.169703801</v>
       </c>
       <c r="L57" t="n">
-        <v>0.010109985</v>
+        <v>0.011376236</v>
       </c>
       <c r="M57" t="n">
-        <v>0.004020741</v>
+        <v>0.004567393</v>
       </c>
       <c r="N57" t="n">
-        <v>20569497.6</v>
+        <v>20418560</v>
       </c>
       <c r="O57" t="n">
-        <v>20548403.2</v>
+        <v>20418560</v>
       </c>
       <c r="P57" t="n">
-        <v>20562329.6</v>
+        <v>20418560</v>
       </c>
       <c r="Q57" t="n">
-        <v>20602675.2</v>
+        <v>20418560</v>
       </c>
       <c r="R57" t="n">
-        <v>20602675.2</v>
+        <v>20418560</v>
       </c>
       <c r="S57" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="T57" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="U57" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="V57" t="n">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="W57" t="n">
-        <v>344</v>
+        <v>3420</v>
       </c>
       <c r="X57" t="n">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="Y57" t="n">
-        <v>880</v>
+        <v>9450</v>
       </c>
       <c r="Z57" t="n">
-        <v>880</v>
+        <v>9450</v>
       </c>
       <c r="AA57" t="n">
-        <v>72</v>
+        <v>444</v>
       </c>
     </row>
     <row r="58">
@@ -5358,61 +5358,61 @@
         <v>20</v>
       </c>
       <c r="I58" t="n">
-        <v>0.033355348</v>
+        <v>0.038516086</v>
       </c>
       <c r="J58" t="n">
-        <v>0.08519312</v>
+        <v>0.091496072</v>
       </c>
       <c r="K58" t="n">
-        <v>0.127804086</v>
+        <v>0.135573377</v>
       </c>
       <c r="L58" t="n">
-        <v>0.014256862</v>
+        <v>0.015053752</v>
       </c>
       <c r="M58" t="n">
-        <v>0.003942353</v>
+        <v>0.004127179</v>
       </c>
       <c r="N58" t="n">
-        <v>20635443.2</v>
+        <v>20401561.6</v>
       </c>
       <c r="O58" t="n">
-        <v>20631552</v>
+        <v>20401561.6</v>
       </c>
       <c r="P58" t="n">
-        <v>20631552</v>
+        <v>20396032</v>
       </c>
       <c r="Q58" t="n">
-        <v>20631552</v>
+        <v>20396032</v>
       </c>
       <c r="R58" t="n">
-        <v>20631552</v>
+        <v>20396032</v>
       </c>
       <c r="S58" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="T58" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="U58" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="V58" t="n">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="W58" t="n">
-        <v>344</v>
+        <v>3420</v>
       </c>
       <c r="X58" t="n">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="Y58" t="n">
-        <v>720</v>
+        <v>7650</v>
       </c>
       <c r="Z58" t="n">
-        <v>720</v>
+        <v>7650</v>
       </c>
       <c r="AA58" t="n">
-        <v>72</v>
+        <v>444</v>
       </c>
     </row>
     <row r="59">
@@ -5443,61 +5443,61 @@
         <v>20</v>
       </c>
       <c r="I59" t="n">
-        <v>0.031290047</v>
+        <v>0.037640097</v>
       </c>
       <c r="J59" t="n">
-        <v>0.06781164100000001</v>
+        <v>0.079365768</v>
       </c>
       <c r="K59" t="n">
-        <v>0.101844439</v>
+        <v>0.120000528</v>
       </c>
       <c r="L59" t="n">
-        <v>0.017751337</v>
+        <v>0.020341214</v>
       </c>
       <c r="M59" t="n">
-        <v>0.003885565</v>
+        <v>0.004151655</v>
       </c>
       <c r="N59" t="n">
-        <v>20631552</v>
+        <v>20368179.2</v>
       </c>
       <c r="O59" t="n">
-        <v>20631552</v>
+        <v>20368179.2</v>
       </c>
       <c r="P59" t="n">
-        <v>20631552</v>
+        <v>20376780.8</v>
       </c>
       <c r="Q59" t="n">
-        <v>20631552</v>
+        <v>20404019.2</v>
       </c>
       <c r="R59" t="n">
-        <v>20631552</v>
+        <v>20404019.2</v>
       </c>
       <c r="S59" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="T59" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="U59" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="V59" t="n">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="W59" t="n">
-        <v>344</v>
+        <v>3420</v>
       </c>
       <c r="X59" t="n">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="Y59" t="n">
-        <v>560</v>
+        <v>5850</v>
       </c>
       <c r="Z59" t="n">
-        <v>560</v>
+        <v>5850</v>
       </c>
       <c r="AA59" t="n">
-        <v>72</v>
+        <v>444</v>
       </c>
     </row>
     <row r="60">
@@ -5528,61 +5528,61 @@
         <v>20</v>
       </c>
       <c r="I60" t="n">
-        <v>0.03391259</v>
+        <v>0.036433928</v>
       </c>
       <c r="J60" t="n">
-        <v>0.058393942</v>
+        <v>0.059246706</v>
       </c>
       <c r="K60" t="n">
-        <v>0.084367844</v>
+        <v>0.087065643</v>
       </c>
       <c r="L60" t="n">
-        <v>0.023125904</v>
+        <v>0.023274311</v>
       </c>
       <c r="M60" t="n">
-        <v>0.003984693</v>
+        <v>0.004165033</v>
       </c>
       <c r="N60" t="n">
-        <v>20631552</v>
+        <v>20439040</v>
       </c>
       <c r="O60" t="n">
-        <v>20631552</v>
+        <v>20439040</v>
       </c>
       <c r="P60" t="n">
-        <v>20631552</v>
+        <v>20439040</v>
       </c>
       <c r="Q60" t="n">
-        <v>20631552</v>
+        <v>20439040</v>
       </c>
       <c r="R60" t="n">
-        <v>20631552</v>
+        <v>20439040</v>
       </c>
       <c r="S60" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="T60" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="U60" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="V60" t="n">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="W60" t="n">
-        <v>344</v>
+        <v>3420</v>
       </c>
       <c r="X60" t="n">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="Y60" t="n">
-        <v>400</v>
+        <v>4050</v>
       </c>
       <c r="Z60" t="n">
-        <v>400</v>
+        <v>4050</v>
       </c>
       <c r="AA60" t="n">
-        <v>72</v>
+        <v>444</v>
       </c>
     </row>
     <row r="61">
@@ -5613,61 +5613,61 @@
         <v>20</v>
       </c>
       <c r="I61" t="n">
-        <v>0.033263634</v>
+        <v>0.035610187</v>
       </c>
       <c r="J61" t="n">
-        <v>0.04517921</v>
+        <v>0.04654718</v>
       </c>
       <c r="K61" t="n">
-        <v>0.062472653</v>
+        <v>0.06642585099999999</v>
       </c>
       <c r="L61" t="n">
-        <v>0.026581338</v>
+        <v>0.026561156</v>
       </c>
       <c r="M61" t="n">
-        <v>0.003883257</v>
+        <v>0.004172932</v>
       </c>
       <c r="N61" t="n">
-        <v>20631552</v>
+        <v>20439040</v>
       </c>
       <c r="O61" t="n">
-        <v>20631552</v>
+        <v>20439040</v>
       </c>
       <c r="P61" t="n">
-        <v>20631552</v>
+        <v>20439040</v>
       </c>
       <c r="Q61" t="n">
-        <v>20631552</v>
+        <v>20439040</v>
       </c>
       <c r="R61" t="n">
-        <v>20631552</v>
+        <v>20439040</v>
       </c>
       <c r="S61" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="T61" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="U61" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="V61" t="n">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="W61" t="n">
-        <v>344</v>
+        <v>3420</v>
       </c>
       <c r="X61" t="n">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="Y61" t="n">
-        <v>240</v>
+        <v>2250</v>
       </c>
       <c r="Z61" t="n">
-        <v>240</v>
+        <v>2250</v>
       </c>
       <c r="AA61" t="n">
-        <v>72</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>

--- a/SchemeHIBME/SchemeAnonymousME.xlsx
+++ b/SchemeHIBME/SchemeAnonymousME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA61"/>
+  <dimension ref="A1:V61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,70 +501,45 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Setup (B)</t>
+          <t>elementOfZR (B)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>KGen (B)</t>
+          <t>elementOfG1 (B)</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>DerivedKGen (B)</t>
+          <t>elementOfG2 (B)</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Enc (B)</t>
+          <t>elementOfGT (B)</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Dec (B)</t>
+          <t>mpk (B)</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>elementOfZR (B)</t>
+          <t>msk (B)</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>elementOfG1 (B)</t>
+          <t>SK (B)</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>elementOfG2 (B)</t>
+          <t>SK' (B)</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>elementOfGT (B)</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>mpk (B)</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>msk (B)</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>SK (B)</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>SK' (B)</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>CT (B)</t>
         </is>
@@ -598,60 +573,45 @@
         <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>0.039334544</v>
+        <v>0.038878854</v>
       </c>
       <c r="J2" t="n">
-        <v>0.081952621</v>
+        <v>0.081069237</v>
       </c>
       <c r="K2" t="n">
-        <v>0.133049998</v>
+        <v>0.134022723</v>
       </c>
       <c r="L2" t="n">
-        <v>0.023172068</v>
+        <v>0.024045199</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01251327</v>
+        <v>0.012342408</v>
       </c>
       <c r="N2" t="n">
-        <v>17874124.8</v>
+        <v>30</v>
       </c>
       <c r="O2" t="n">
-        <v>17874124.8</v>
+        <v>30</v>
       </c>
       <c r="P2" t="n">
-        <v>17874124.8</v>
+        <v>86</v>
       </c>
       <c r="Q2" t="n">
-        <v>17880064</v>
+        <v>162</v>
       </c>
       <c r="R2" t="n">
-        <v>17926758.4</v>
+        <v>1324</v>
       </c>
       <c r="S2" t="n">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="T2" t="n">
-        <v>30</v>
+        <v>2094</v>
       </c>
       <c r="U2" t="n">
-        <v>86</v>
+        <v>2094</v>
       </c>
       <c r="V2" t="n">
-        <v>162</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1324</v>
-      </c>
-      <c r="X2" t="n">
-        <v>146</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>2094</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>2094</v>
-      </c>
-      <c r="AA2" t="n">
         <v>308</v>
       </c>
     </row>
@@ -683,60 +643,45 @@
         <v>20</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05279556</v>
+        <v>0.050931762</v>
       </c>
       <c r="J3" t="n">
-        <v>0.133292056</v>
+        <v>0.131351091</v>
       </c>
       <c r="K3" t="n">
-        <v>0.210559168</v>
+        <v>0.21133871</v>
       </c>
       <c r="L3" t="n">
-        <v>0.024125527</v>
+        <v>0.023262143</v>
       </c>
       <c r="M3" t="n">
-        <v>0.012403744</v>
+        <v>0.012006803</v>
       </c>
       <c r="N3" t="n">
-        <v>17944576</v>
+        <v>30</v>
       </c>
       <c r="O3" t="n">
-        <v>17944576</v>
+        <v>30</v>
       </c>
       <c r="P3" t="n">
-        <v>17944576</v>
+        <v>86</v>
       </c>
       <c r="Q3" t="n">
-        <v>17944576</v>
+        <v>162</v>
       </c>
       <c r="R3" t="n">
-        <v>17944576</v>
+        <v>1754</v>
       </c>
       <c r="S3" t="n">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="T3" t="n">
-        <v>30</v>
+        <v>3814</v>
       </c>
       <c r="U3" t="n">
-        <v>86</v>
+        <v>3814</v>
       </c>
       <c r="V3" t="n">
-        <v>162</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1754</v>
-      </c>
-      <c r="X3" t="n">
-        <v>146</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>3814</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>3814</v>
-      </c>
-      <c r="AA3" t="n">
         <v>308</v>
       </c>
     </row>
@@ -768,60 +713,45 @@
         <v>20</v>
       </c>
       <c r="I4" t="n">
-        <v>0.051321396</v>
+        <v>0.055332356</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09648014000000001</v>
+        <v>0.100544719</v>
       </c>
       <c r="K4" t="n">
-        <v>0.148812479</v>
+        <v>0.157969828</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03642871</v>
+        <v>0.038302894</v>
       </c>
       <c r="M4" t="n">
-        <v>0.012202983</v>
+        <v>0.013057911</v>
       </c>
       <c r="N4" t="n">
-        <v>17944576</v>
+        <v>30</v>
       </c>
       <c r="O4" t="n">
-        <v>17944576</v>
+        <v>30</v>
       </c>
       <c r="P4" t="n">
-        <v>17944576</v>
+        <v>86</v>
       </c>
       <c r="Q4" t="n">
-        <v>17944576</v>
+        <v>162</v>
       </c>
       <c r="R4" t="n">
-        <v>17944576</v>
+        <v>1754</v>
       </c>
       <c r="S4" t="n">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="T4" t="n">
-        <v>30</v>
+        <v>2094</v>
       </c>
       <c r="U4" t="n">
-        <v>86</v>
+        <v>2094</v>
       </c>
       <c r="V4" t="n">
-        <v>162</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1754</v>
-      </c>
-      <c r="X4" t="n">
-        <v>146</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>2094</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>2094</v>
-      </c>
-      <c r="AA4" t="n">
         <v>308</v>
       </c>
     </row>
@@ -853,60 +783,45 @@
         <v>20</v>
       </c>
       <c r="I5" t="n">
-        <v>0.064665809</v>
+        <v>0.06620793799999999</v>
       </c>
       <c r="J5" t="n">
-        <v>0.182890712</v>
+        <v>0.184503289</v>
       </c>
       <c r="K5" t="n">
-        <v>0.29063937</v>
+        <v>0.289180688</v>
       </c>
       <c r="L5" t="n">
-        <v>0.023697903</v>
+        <v>0.024256564</v>
       </c>
       <c r="M5" t="n">
-        <v>0.012464068</v>
+        <v>0.012758481</v>
       </c>
       <c r="N5" t="n">
-        <v>18158796.8</v>
+        <v>30</v>
       </c>
       <c r="O5" t="n">
-        <v>18158796.8</v>
+        <v>30</v>
       </c>
       <c r="P5" t="n">
-        <v>18158796.8</v>
+        <v>86</v>
       </c>
       <c r="Q5" t="n">
-        <v>18168832</v>
+        <v>162</v>
       </c>
       <c r="R5" t="n">
-        <v>18168832</v>
+        <v>2184</v>
       </c>
       <c r="S5" t="n">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="T5" t="n">
-        <v>30</v>
+        <v>5534</v>
       </c>
       <c r="U5" t="n">
-        <v>86</v>
+        <v>5534</v>
       </c>
       <c r="V5" t="n">
-        <v>162</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2184</v>
-      </c>
-      <c r="X5" t="n">
-        <v>146</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>5534</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>5534</v>
-      </c>
-      <c r="AA5" t="n">
         <v>308</v>
       </c>
     </row>
@@ -938,60 +853,45 @@
         <v>20</v>
       </c>
       <c r="I6" t="n">
-        <v>0.065261337</v>
+        <v>0.065416988</v>
       </c>
       <c r="J6" t="n">
-        <v>0.144259799</v>
+        <v>0.145311383</v>
       </c>
       <c r="K6" t="n">
-        <v>0.223161233</v>
+        <v>0.226133874</v>
       </c>
       <c r="L6" t="n">
-        <v>0.036608278</v>
+        <v>0.036565842</v>
       </c>
       <c r="M6" t="n">
-        <v>0.011818162</v>
+        <v>0.012164765</v>
       </c>
       <c r="N6" t="n">
-        <v>18173952</v>
+        <v>30</v>
       </c>
       <c r="O6" t="n">
-        <v>18173952</v>
+        <v>30</v>
       </c>
       <c r="P6" t="n">
-        <v>18173952</v>
+        <v>86</v>
       </c>
       <c r="Q6" t="n">
-        <v>18173952</v>
+        <v>162</v>
       </c>
       <c r="R6" t="n">
-        <v>18173952</v>
+        <v>2184</v>
       </c>
       <c r="S6" t="n">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="T6" t="n">
-        <v>30</v>
+        <v>3814</v>
       </c>
       <c r="U6" t="n">
-        <v>86</v>
+        <v>3814</v>
       </c>
       <c r="V6" t="n">
-        <v>162</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2184</v>
-      </c>
-      <c r="X6" t="n">
-        <v>146</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>3814</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>3814</v>
-      </c>
-      <c r="AA6" t="n">
         <v>308</v>
       </c>
     </row>
@@ -1023,60 +923,45 @@
         <v>20</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06423023899999999</v>
+        <v>0.06363220999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>0.107287024</v>
+        <v>0.109704208</v>
       </c>
       <c r="K7" t="n">
-        <v>0.157375841</v>
+        <v>0.16349525</v>
       </c>
       <c r="L7" t="n">
-        <v>0.047520286</v>
+        <v>0.049493762</v>
       </c>
       <c r="M7" t="n">
-        <v>0.012455564</v>
+        <v>0.012553376</v>
       </c>
       <c r="N7" t="n">
-        <v>18173952</v>
+        <v>30</v>
       </c>
       <c r="O7" t="n">
-        <v>18173952</v>
+        <v>30</v>
       </c>
       <c r="P7" t="n">
-        <v>18173952</v>
+        <v>86</v>
       </c>
       <c r="Q7" t="n">
-        <v>18173952</v>
+        <v>162</v>
       </c>
       <c r="R7" t="n">
-        <v>18173952</v>
+        <v>2184</v>
       </c>
       <c r="S7" t="n">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="T7" t="n">
-        <v>30</v>
+        <v>2094</v>
       </c>
       <c r="U7" t="n">
-        <v>86</v>
+        <v>2094</v>
       </c>
       <c r="V7" t="n">
-        <v>162</v>
-      </c>
-      <c r="W7" t="n">
-        <v>2184</v>
-      </c>
-      <c r="X7" t="n">
-        <v>146</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>2094</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>2094</v>
-      </c>
-      <c r="AA7" t="n">
         <v>308</v>
       </c>
     </row>
@@ -1108,60 +993,45 @@
         <v>20</v>
       </c>
       <c r="I8" t="n">
-        <v>0.077926369</v>
+        <v>0.078797829</v>
       </c>
       <c r="J8" t="n">
-        <v>0.239171616</v>
+        <v>0.241681917</v>
       </c>
       <c r="K8" t="n">
-        <v>0.366894122</v>
+        <v>0.36922511</v>
       </c>
       <c r="L8" t="n">
-        <v>0.024232923</v>
+        <v>0.02461319</v>
       </c>
       <c r="M8" t="n">
-        <v>0.011886451</v>
+        <v>0.012268905</v>
       </c>
       <c r="N8" t="n">
-        <v>18173952</v>
+        <v>30</v>
       </c>
       <c r="O8" t="n">
-        <v>18173952</v>
+        <v>30</v>
       </c>
       <c r="P8" t="n">
-        <v>18173952</v>
+        <v>86</v>
       </c>
       <c r="Q8" t="n">
-        <v>18173952</v>
+        <v>162</v>
       </c>
       <c r="R8" t="n">
-        <v>18173952</v>
+        <v>2614</v>
       </c>
       <c r="S8" t="n">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="T8" t="n">
-        <v>30</v>
+        <v>7254</v>
       </c>
       <c r="U8" t="n">
-        <v>86</v>
+        <v>7254</v>
       </c>
       <c r="V8" t="n">
-        <v>162</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2614</v>
-      </c>
-      <c r="X8" t="n">
-        <v>146</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>7254</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>7254</v>
-      </c>
-      <c r="AA8" t="n">
         <v>308</v>
       </c>
     </row>
@@ -1193,60 +1063,45 @@
         <v>20</v>
       </c>
       <c r="I9" t="n">
-        <v>0.078485967</v>
+        <v>0.07434840600000001</v>
       </c>
       <c r="J9" t="n">
-        <v>0.197715069</v>
+        <v>0.195826694</v>
       </c>
       <c r="K9" t="n">
-        <v>0.30130999</v>
+        <v>0.290444819</v>
       </c>
       <c r="L9" t="n">
-        <v>0.036421935</v>
+        <v>0.034975813</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01226366</v>
+        <v>0.011823633</v>
       </c>
       <c r="N9" t="n">
-        <v>18413568</v>
+        <v>30</v>
       </c>
       <c r="O9" t="n">
-        <v>18413568</v>
+        <v>30</v>
       </c>
       <c r="P9" t="n">
-        <v>18426880</v>
+        <v>86</v>
       </c>
       <c r="Q9" t="n">
-        <v>18426880</v>
+        <v>162</v>
       </c>
       <c r="R9" t="n">
-        <v>18426880</v>
+        <v>2614</v>
       </c>
       <c r="S9" t="n">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="T9" t="n">
-        <v>30</v>
+        <v>5534</v>
       </c>
       <c r="U9" t="n">
-        <v>86</v>
+        <v>5534</v>
       </c>
       <c r="V9" t="n">
-        <v>162</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2614</v>
-      </c>
-      <c r="X9" t="n">
-        <v>146</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>5534</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>5534</v>
-      </c>
-      <c r="AA9" t="n">
         <v>308</v>
       </c>
     </row>
@@ -1278,60 +1133,45 @@
         <v>20</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08581580699999999</v>
+        <v>0.075994009</v>
       </c>
       <c r="J10" t="n">
-        <v>0.172983038</v>
+        <v>0.158759414</v>
       </c>
       <c r="K10" t="n">
-        <v>0.259716725</v>
+        <v>0.240861907</v>
       </c>
       <c r="L10" t="n">
-        <v>0.055046083</v>
+        <v>0.049477523</v>
       </c>
       <c r="M10" t="n">
-        <v>0.013558009</v>
+        <v>0.012318493</v>
       </c>
       <c r="N10" t="n">
-        <v>18440192</v>
+        <v>30</v>
       </c>
       <c r="O10" t="n">
-        <v>18440192</v>
+        <v>30</v>
       </c>
       <c r="P10" t="n">
-        <v>18440192</v>
+        <v>86</v>
       </c>
       <c r="Q10" t="n">
-        <v>18440192</v>
+        <v>162</v>
       </c>
       <c r="R10" t="n">
-        <v>18440192</v>
+        <v>2614</v>
       </c>
       <c r="S10" t="n">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="T10" t="n">
-        <v>30</v>
+        <v>3814</v>
       </c>
       <c r="U10" t="n">
-        <v>86</v>
+        <v>3814</v>
       </c>
       <c r="V10" t="n">
-        <v>162</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2614</v>
-      </c>
-      <c r="X10" t="n">
-        <v>146</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>3814</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>3814</v>
-      </c>
-      <c r="AA10" t="n">
         <v>308</v>
       </c>
     </row>
@@ -1363,60 +1203,45 @@
         <v>20</v>
       </c>
       <c r="I11" t="n">
-        <v>0.092172436</v>
+        <v>0.076214666</v>
       </c>
       <c r="J11" t="n">
-        <v>0.145182388</v>
+        <v>0.12045157</v>
       </c>
       <c r="K11" t="n">
-        <v>0.210632249</v>
+        <v>0.175187564</v>
       </c>
       <c r="L11" t="n">
-        <v>0.073279778</v>
+        <v>0.060459047</v>
       </c>
       <c r="M11" t="n">
-        <v>0.014818589</v>
+        <v>0.012070115</v>
       </c>
       <c r="N11" t="n">
-        <v>18440192</v>
+        <v>30</v>
       </c>
       <c r="O11" t="n">
-        <v>18440192</v>
+        <v>30</v>
       </c>
       <c r="P11" t="n">
-        <v>18440192</v>
+        <v>86</v>
       </c>
       <c r="Q11" t="n">
-        <v>18440192</v>
+        <v>162</v>
       </c>
       <c r="R11" t="n">
-        <v>18440192</v>
+        <v>2614</v>
       </c>
       <c r="S11" t="n">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="T11" t="n">
-        <v>30</v>
+        <v>2094</v>
       </c>
       <c r="U11" t="n">
-        <v>86</v>
+        <v>2094</v>
       </c>
       <c r="V11" t="n">
-        <v>162</v>
-      </c>
-      <c r="W11" t="n">
-        <v>2614</v>
-      </c>
-      <c r="X11" t="n">
-        <v>146</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>2094</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>2094</v>
-      </c>
-      <c r="AA11" t="n">
         <v>308</v>
       </c>
     </row>
@@ -1448,60 +1273,45 @@
         <v>20</v>
       </c>
       <c r="I12" t="n">
-        <v>0.106065302</v>
+        <v>0.092185139</v>
       </c>
       <c r="J12" t="n">
-        <v>0.329492622</v>
+        <v>0.291800587</v>
       </c>
       <c r="K12" t="n">
-        <v>0.512111104</v>
+        <v>0.445521471</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02865401</v>
+        <v>0.023829695</v>
       </c>
       <c r="M12" t="n">
-        <v>0.014713373</v>
+        <v>0.012425164</v>
       </c>
       <c r="N12" t="n">
-        <v>18556518.4</v>
+        <v>30</v>
       </c>
       <c r="O12" t="n">
-        <v>18556518.4</v>
+        <v>30</v>
       </c>
       <c r="P12" t="n">
-        <v>18556518.4</v>
+        <v>86</v>
       </c>
       <c r="Q12" t="n">
-        <v>18562662.4</v>
+        <v>162</v>
       </c>
       <c r="R12" t="n">
-        <v>18562662.4</v>
+        <v>3044</v>
       </c>
       <c r="S12" t="n">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="T12" t="n">
-        <v>30</v>
+        <v>8974</v>
       </c>
       <c r="U12" t="n">
-        <v>86</v>
+        <v>8974</v>
       </c>
       <c r="V12" t="n">
-        <v>162</v>
-      </c>
-      <c r="W12" t="n">
-        <v>3044</v>
-      </c>
-      <c r="X12" t="n">
-        <v>146</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>8974</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>8974</v>
-      </c>
-      <c r="AA12" t="n">
         <v>308</v>
       </c>
     </row>
@@ -1533,60 +1343,45 @@
         <v>20</v>
       </c>
       <c r="I13" t="n">
-        <v>0.10282083</v>
+        <v>0.094919746</v>
       </c>
       <c r="J13" t="n">
-        <v>0.283558631</v>
+        <v>0.257109592</v>
       </c>
       <c r="K13" t="n">
-        <v>0.436837071</v>
+        <v>0.390413876</v>
       </c>
       <c r="L13" t="n">
-        <v>0.041940173</v>
+        <v>0.039326445</v>
       </c>
       <c r="M13" t="n">
-        <v>0.014293885</v>
+        <v>0.01346326</v>
       </c>
       <c r="N13" t="n">
-        <v>18624307.2</v>
+        <v>30</v>
       </c>
       <c r="O13" t="n">
-        <v>18640486.4</v>
+        <v>30</v>
       </c>
       <c r="P13" t="n">
-        <v>18640486.4</v>
+        <v>86</v>
       </c>
       <c r="Q13" t="n">
-        <v>18640486.4</v>
+        <v>162</v>
       </c>
       <c r="R13" t="n">
-        <v>18640486.4</v>
+        <v>3044</v>
       </c>
       <c r="S13" t="n">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="T13" t="n">
-        <v>30</v>
+        <v>7254</v>
       </c>
       <c r="U13" t="n">
-        <v>86</v>
+        <v>7254</v>
       </c>
       <c r="V13" t="n">
-        <v>162</v>
-      </c>
-      <c r="W13" t="n">
-        <v>3044</v>
-      </c>
-      <c r="X13" t="n">
-        <v>146</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>7254</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>7254</v>
-      </c>
-      <c r="AA13" t="n">
         <v>308</v>
       </c>
     </row>
@@ -1618,60 +1413,45 @@
         <v>20</v>
       </c>
       <c r="I14" t="n">
-        <v>0.114066868</v>
+        <v>0.091063427</v>
       </c>
       <c r="J14" t="n">
-        <v>0.263204302</v>
+        <v>0.210503769</v>
       </c>
       <c r="K14" t="n">
-        <v>0.389078208</v>
+        <v>0.316279066</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06384258800000001</v>
+        <v>0.049305941</v>
       </c>
       <c r="M14" t="n">
-        <v>0.016429588</v>
+        <v>0.012611179</v>
       </c>
       <c r="N14" t="n">
-        <v>18931712</v>
+        <v>30</v>
       </c>
       <c r="O14" t="n">
-        <v>18931712</v>
+        <v>30</v>
       </c>
       <c r="P14" t="n">
-        <v>18931712</v>
+        <v>86</v>
       </c>
       <c r="Q14" t="n">
-        <v>18931712</v>
+        <v>162</v>
       </c>
       <c r="R14" t="n">
-        <v>18931712</v>
+        <v>3044</v>
       </c>
       <c r="S14" t="n">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="T14" t="n">
-        <v>30</v>
+        <v>5534</v>
       </c>
       <c r="U14" t="n">
-        <v>86</v>
+        <v>5534</v>
       </c>
       <c r="V14" t="n">
-        <v>162</v>
-      </c>
-      <c r="W14" t="n">
-        <v>3044</v>
-      </c>
-      <c r="X14" t="n">
-        <v>146</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>5534</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>5534</v>
-      </c>
-      <c r="AA14" t="n">
         <v>308</v>
       </c>
     </row>
@@ -1703,60 +1483,45 @@
         <v>20</v>
       </c>
       <c r="I15" t="n">
-        <v>0.107703808</v>
+        <v>0.091771876</v>
       </c>
       <c r="J15" t="n">
-        <v>0.208639058</v>
+        <v>0.173973771</v>
       </c>
       <c r="K15" t="n">
-        <v>0.305571974</v>
+        <v>0.25463121</v>
       </c>
       <c r="L15" t="n">
-        <v>0.07478203999999999</v>
+        <v>0.06492569300000001</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01519101</v>
+        <v>0.013039675</v>
       </c>
       <c r="N15" t="n">
-        <v>18931712</v>
+        <v>30</v>
       </c>
       <c r="O15" t="n">
-        <v>18931712</v>
+        <v>30</v>
       </c>
       <c r="P15" t="n">
-        <v>18931712</v>
+        <v>86</v>
       </c>
       <c r="Q15" t="n">
-        <v>18931712</v>
+        <v>162</v>
       </c>
       <c r="R15" t="n">
-        <v>18931712</v>
+        <v>3044</v>
       </c>
       <c r="S15" t="n">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="T15" t="n">
-        <v>30</v>
+        <v>3814</v>
       </c>
       <c r="U15" t="n">
-        <v>86</v>
+        <v>3814</v>
       </c>
       <c r="V15" t="n">
-        <v>162</v>
-      </c>
-      <c r="W15" t="n">
-        <v>3044</v>
-      </c>
-      <c r="X15" t="n">
-        <v>146</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>3814</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>3814</v>
-      </c>
-      <c r="AA15" t="n">
         <v>308</v>
       </c>
     </row>
@@ -1788,60 +1553,45 @@
         <v>20</v>
       </c>
       <c r="I16" t="n">
-        <v>0.106238759</v>
+        <v>0.090746774</v>
       </c>
       <c r="J16" t="n">
-        <v>0.155505625</v>
+        <v>0.136145079</v>
       </c>
       <c r="K16" t="n">
-        <v>0.216904811</v>
+        <v>0.193423689</v>
       </c>
       <c r="L16" t="n">
-        <v>0.086581699</v>
+        <v>0.07428757900000001</v>
       </c>
       <c r="M16" t="n">
-        <v>0.014901628</v>
+        <v>0.01207999</v>
       </c>
       <c r="N16" t="n">
-        <v>18931712</v>
+        <v>30</v>
       </c>
       <c r="O16" t="n">
-        <v>18931712</v>
+        <v>30</v>
       </c>
       <c r="P16" t="n">
-        <v>18931712</v>
+        <v>86</v>
       </c>
       <c r="Q16" t="n">
-        <v>18931712</v>
+        <v>162</v>
       </c>
       <c r="R16" t="n">
-        <v>18931712</v>
+        <v>3044</v>
       </c>
       <c r="S16" t="n">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="T16" t="n">
-        <v>30</v>
+        <v>2094</v>
       </c>
       <c r="U16" t="n">
-        <v>86</v>
+        <v>2094</v>
       </c>
       <c r="V16" t="n">
-        <v>162</v>
-      </c>
-      <c r="W16" t="n">
-        <v>3044</v>
-      </c>
-      <c r="X16" t="n">
-        <v>146</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>2094</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>2094</v>
-      </c>
-      <c r="AA16" t="n">
         <v>308</v>
       </c>
     </row>
@@ -1873,60 +1623,45 @@
         <v>20</v>
       </c>
       <c r="I17" t="n">
-        <v>0.061821404</v>
+        <v>0.051901048</v>
       </c>
       <c r="J17" t="n">
-        <v>0.126842228</v>
+        <v>0.11147283</v>
       </c>
       <c r="K17" t="n">
-        <v>0.210613143</v>
+        <v>0.17953678</v>
       </c>
       <c r="L17" t="n">
-        <v>0.037151348</v>
+        <v>0.0317225</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01960719</v>
+        <v>0.016331852</v>
       </c>
       <c r="N17" t="n">
-        <v>18931712</v>
+        <v>34</v>
       </c>
       <c r="O17" t="n">
-        <v>18931712</v>
+        <v>38</v>
       </c>
       <c r="P17" t="n">
-        <v>18931712</v>
+        <v>110</v>
       </c>
       <c r="Q17" t="n">
-        <v>18931712</v>
+        <v>210</v>
       </c>
       <c r="R17" t="n">
-        <v>18931712</v>
+        <v>1692</v>
       </c>
       <c r="S17" t="n">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="T17" t="n">
-        <v>38</v>
+        <v>2678</v>
       </c>
       <c r="U17" t="n">
-        <v>110</v>
+        <v>2678</v>
       </c>
       <c r="V17" t="n">
-        <v>210</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1692</v>
-      </c>
-      <c r="X17" t="n">
-        <v>178</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>2678</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>2678</v>
-      </c>
-      <c r="AA17" t="n">
         <v>396</v>
       </c>
     </row>
@@ -1958,60 +1693,45 @@
         <v>20</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07944496500000001</v>
+        <v>0.068511012</v>
       </c>
       <c r="J18" t="n">
-        <v>0.203895347</v>
+        <v>0.177399134</v>
       </c>
       <c r="K18" t="n">
-        <v>0.322534313</v>
+        <v>0.284808225</v>
       </c>
       <c r="L18" t="n">
-        <v>0.037213721</v>
+        <v>0.032289041</v>
       </c>
       <c r="M18" t="n">
-        <v>0.018785554</v>
+        <v>0.016534312</v>
       </c>
       <c r="N18" t="n">
-        <v>18931712</v>
+        <v>34</v>
       </c>
       <c r="O18" t="n">
-        <v>18931712</v>
+        <v>38</v>
       </c>
       <c r="P18" t="n">
-        <v>18931712</v>
+        <v>110</v>
       </c>
       <c r="Q18" t="n">
-        <v>18931712</v>
+        <v>210</v>
       </c>
       <c r="R18" t="n">
-        <v>18931712</v>
+        <v>2242</v>
       </c>
       <c r="S18" t="n">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="T18" t="n">
-        <v>38</v>
+        <v>4878</v>
       </c>
       <c r="U18" t="n">
-        <v>110</v>
+        <v>4878</v>
       </c>
       <c r="V18" t="n">
-        <v>210</v>
-      </c>
-      <c r="W18" t="n">
-        <v>2242</v>
-      </c>
-      <c r="X18" t="n">
-        <v>178</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>4878</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>4878</v>
-      </c>
-      <c r="AA18" t="n">
         <v>396</v>
       </c>
     </row>
@@ -2043,60 +1763,45 @@
         <v>20</v>
       </c>
       <c r="I19" t="n">
-        <v>0.079448451</v>
+        <v>0.073052268</v>
       </c>
       <c r="J19" t="n">
-        <v>0.147215922</v>
+        <v>0.138056779</v>
       </c>
       <c r="K19" t="n">
-        <v>0.227427548</v>
+        <v>0.212748455</v>
       </c>
       <c r="L19" t="n">
-        <v>0.055518935</v>
+        <v>0.052738977</v>
       </c>
       <c r="M19" t="n">
-        <v>0.019249689</v>
+        <v>0.017651153</v>
       </c>
       <c r="N19" t="n">
-        <v>18931712</v>
+        <v>34</v>
       </c>
       <c r="O19" t="n">
-        <v>18931712</v>
+        <v>38</v>
       </c>
       <c r="P19" t="n">
-        <v>18931712</v>
+        <v>110</v>
       </c>
       <c r="Q19" t="n">
-        <v>18931712</v>
+        <v>210</v>
       </c>
       <c r="R19" t="n">
-        <v>18931712</v>
+        <v>2242</v>
       </c>
       <c r="S19" t="n">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="T19" t="n">
-        <v>38</v>
+        <v>2678</v>
       </c>
       <c r="U19" t="n">
-        <v>110</v>
+        <v>2678</v>
       </c>
       <c r="V19" t="n">
-        <v>210</v>
-      </c>
-      <c r="W19" t="n">
-        <v>2242</v>
-      </c>
-      <c r="X19" t="n">
-        <v>178</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>2678</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>2678</v>
-      </c>
-      <c r="AA19" t="n">
         <v>396</v>
       </c>
     </row>
@@ -2128,60 +1833,45 @@
         <v>20</v>
       </c>
       <c r="I20" t="n">
-        <v>0.098604715</v>
+        <v>0.090997236</v>
       </c>
       <c r="J20" t="n">
-        <v>0.276268353</v>
+        <v>0.252241237</v>
       </c>
       <c r="K20" t="n">
-        <v>0.42401748</v>
+        <v>0.395623773</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03575518</v>
+        <v>0.033517001</v>
       </c>
       <c r="M20" t="n">
-        <v>0.018225084</v>
+        <v>0.017340017</v>
       </c>
       <c r="N20" t="n">
-        <v>19091456</v>
+        <v>34</v>
       </c>
       <c r="O20" t="n">
-        <v>19104768</v>
+        <v>38</v>
       </c>
       <c r="P20" t="n">
-        <v>19104768</v>
+        <v>110</v>
       </c>
       <c r="Q20" t="n">
-        <v>19104768</v>
+        <v>210</v>
       </c>
       <c r="R20" t="n">
-        <v>19104768</v>
+        <v>2792</v>
       </c>
       <c r="S20" t="n">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="T20" t="n">
-        <v>38</v>
+        <v>7078</v>
       </c>
       <c r="U20" t="n">
-        <v>110</v>
+        <v>7078</v>
       </c>
       <c r="V20" t="n">
-        <v>210</v>
-      </c>
-      <c r="W20" t="n">
-        <v>2792</v>
-      </c>
-      <c r="X20" t="n">
-        <v>178</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>7078</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>7078</v>
-      </c>
-      <c r="AA20" t="n">
         <v>396</v>
       </c>
     </row>
@@ -2213,60 +1903,45 @@
         <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>0.094917431</v>
+        <v>0.09016318199999999</v>
       </c>
       <c r="J21" t="n">
-        <v>0.214571848</v>
+        <v>0.20417634</v>
       </c>
       <c r="K21" t="n">
-        <v>0.328506213</v>
+        <v>0.310940177</v>
       </c>
       <c r="L21" t="n">
-        <v>0.053239176</v>
+        <v>0.050870122</v>
       </c>
       <c r="M21" t="n">
-        <v>0.018360169</v>
+        <v>0.01716938</v>
       </c>
       <c r="N21" t="n">
-        <v>19197952</v>
+        <v>34</v>
       </c>
       <c r="O21" t="n">
-        <v>19197952</v>
+        <v>38</v>
       </c>
       <c r="P21" t="n">
-        <v>19197952</v>
+        <v>110</v>
       </c>
       <c r="Q21" t="n">
-        <v>19197952</v>
+        <v>210</v>
       </c>
       <c r="R21" t="n">
-        <v>19197952</v>
+        <v>2792</v>
       </c>
       <c r="S21" t="n">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="T21" t="n">
-        <v>38</v>
+        <v>4878</v>
       </c>
       <c r="U21" t="n">
-        <v>110</v>
+        <v>4878</v>
       </c>
       <c r="V21" t="n">
-        <v>210</v>
-      </c>
-      <c r="W21" t="n">
-        <v>2792</v>
-      </c>
-      <c r="X21" t="n">
-        <v>178</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>4878</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>4878</v>
-      </c>
-      <c r="AA21" t="n">
         <v>396</v>
       </c>
     </row>
@@ -2298,60 +1973,45 @@
         <v>20</v>
       </c>
       <c r="I22" t="n">
-        <v>0.096495096</v>
+        <v>0.085711284</v>
       </c>
       <c r="J22" t="n">
-        <v>0.162300044</v>
+        <v>0.147368263</v>
       </c>
       <c r="K22" t="n">
-        <v>0.240088865</v>
+        <v>0.216174252</v>
       </c>
       <c r="L22" t="n">
-        <v>0.074444239</v>
+        <v>0.067125346</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01790202</v>
+        <v>0.017043824</v>
       </c>
       <c r="N22" t="n">
-        <v>19197952</v>
+        <v>34</v>
       </c>
       <c r="O22" t="n">
-        <v>19197952</v>
+        <v>38</v>
       </c>
       <c r="P22" t="n">
-        <v>19197952</v>
+        <v>110</v>
       </c>
       <c r="Q22" t="n">
-        <v>19197952</v>
+        <v>210</v>
       </c>
       <c r="R22" t="n">
-        <v>19197952</v>
+        <v>2792</v>
       </c>
       <c r="S22" t="n">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="T22" t="n">
-        <v>38</v>
+        <v>2678</v>
       </c>
       <c r="U22" t="n">
-        <v>110</v>
+        <v>2678</v>
       </c>
       <c r="V22" t="n">
-        <v>210</v>
-      </c>
-      <c r="W22" t="n">
-        <v>2792</v>
-      </c>
-      <c r="X22" t="n">
-        <v>178</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>2678</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>2678</v>
-      </c>
-      <c r="AA22" t="n">
         <v>396</v>
       </c>
     </row>
@@ -2383,60 +2043,45 @@
         <v>20</v>
       </c>
       <c r="I23" t="n">
-        <v>0.128917527</v>
+        <v>0.103625297</v>
       </c>
       <c r="J23" t="n">
-        <v>0.384627329</v>
+        <v>0.323009709</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5963122789999999</v>
+        <v>0.486667657</v>
       </c>
       <c r="L23" t="n">
-        <v>0.039762744</v>
+        <v>0.033118739</v>
       </c>
       <c r="M23" t="n">
-        <v>0.020800084</v>
+        <v>0.017538575</v>
       </c>
       <c r="N23" t="n">
-        <v>19197952</v>
+        <v>34</v>
       </c>
       <c r="O23" t="n">
-        <v>19197952</v>
+        <v>38</v>
       </c>
       <c r="P23" t="n">
-        <v>19197952</v>
+        <v>110</v>
       </c>
       <c r="Q23" t="n">
-        <v>19197952</v>
+        <v>210</v>
       </c>
       <c r="R23" t="n">
-        <v>19197952</v>
+        <v>3342</v>
       </c>
       <c r="S23" t="n">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="T23" t="n">
-        <v>38</v>
+        <v>9278</v>
       </c>
       <c r="U23" t="n">
-        <v>110</v>
+        <v>9278</v>
       </c>
       <c r="V23" t="n">
-        <v>210</v>
-      </c>
-      <c r="W23" t="n">
-        <v>3342</v>
-      </c>
-      <c r="X23" t="n">
-        <v>178</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>9278</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>9278</v>
-      </c>
-      <c r="AA23" t="n">
         <v>396</v>
       </c>
     </row>
@@ -2468,60 +2113,45 @@
         <v>20</v>
       </c>
       <c r="I24" t="n">
-        <v>0.112314877</v>
+        <v>0.102876529</v>
       </c>
       <c r="J24" t="n">
-        <v>0.289059735</v>
+        <v>0.265148767</v>
       </c>
       <c r="K24" t="n">
-        <v>0.435444461</v>
+        <v>0.401897314</v>
       </c>
       <c r="L24" t="n">
-        <v>0.052482031</v>
+        <v>0.048962665</v>
       </c>
       <c r="M24" t="n">
-        <v>0.017579298</v>
+        <v>0.01701154</v>
       </c>
       <c r="N24" t="n">
-        <v>19197952</v>
+        <v>34</v>
       </c>
       <c r="O24" t="n">
-        <v>19197952</v>
+        <v>38</v>
       </c>
       <c r="P24" t="n">
-        <v>19197952</v>
+        <v>110</v>
       </c>
       <c r="Q24" t="n">
-        <v>19197952</v>
+        <v>210</v>
       </c>
       <c r="R24" t="n">
-        <v>19197952</v>
+        <v>3342</v>
       </c>
       <c r="S24" t="n">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="T24" t="n">
-        <v>38</v>
+        <v>7078</v>
       </c>
       <c r="U24" t="n">
-        <v>110</v>
+        <v>7078</v>
       </c>
       <c r="V24" t="n">
-        <v>210</v>
-      </c>
-      <c r="W24" t="n">
-        <v>3342</v>
-      </c>
-      <c r="X24" t="n">
-        <v>178</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>7078</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>7078</v>
-      </c>
-      <c r="AA24" t="n">
         <v>396</v>
       </c>
     </row>
@@ -2553,60 +2183,45 @@
         <v>20</v>
       </c>
       <c r="I25" t="n">
-        <v>0.113252815</v>
+        <v>0.103571155</v>
       </c>
       <c r="J25" t="n">
-        <v>0.226390272</v>
+        <v>0.214118175</v>
       </c>
       <c r="K25" t="n">
-        <v>0.339282732</v>
+        <v>0.317655644</v>
       </c>
       <c r="L25" t="n">
-        <v>0.07171667399999999</v>
+        <v>0.065972451</v>
       </c>
       <c r="M25" t="n">
-        <v>0.018551006</v>
+        <v>0.01660843</v>
       </c>
       <c r="N25" t="n">
-        <v>19252019.2</v>
+        <v>34</v>
       </c>
       <c r="O25" t="n">
-        <v>19252019.2</v>
+        <v>38</v>
       </c>
       <c r="P25" t="n">
-        <v>19265536</v>
+        <v>110</v>
       </c>
       <c r="Q25" t="n">
-        <v>19265536</v>
+        <v>210</v>
       </c>
       <c r="R25" t="n">
-        <v>19265536</v>
+        <v>3342</v>
       </c>
       <c r="S25" t="n">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="T25" t="n">
-        <v>38</v>
+        <v>4878</v>
       </c>
       <c r="U25" t="n">
-        <v>110</v>
+        <v>4878</v>
       </c>
       <c r="V25" t="n">
-        <v>210</v>
-      </c>
-      <c r="W25" t="n">
-        <v>3342</v>
-      </c>
-      <c r="X25" t="n">
-        <v>178</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>4878</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>4878</v>
-      </c>
-      <c r="AA25" t="n">
         <v>396</v>
       </c>
     </row>
@@ -2638,60 +2253,45 @@
         <v>20</v>
       </c>
       <c r="I26" t="n">
-        <v>0.117651305</v>
+        <v>0.103915826</v>
       </c>
       <c r="J26" t="n">
-        <v>0.179144203</v>
+        <v>0.164154323</v>
       </c>
       <c r="K26" t="n">
-        <v>0.252179137</v>
+        <v>0.23509112</v>
       </c>
       <c r="L26" t="n">
-        <v>0.09059721599999999</v>
+        <v>0.08211874299999999</v>
       </c>
       <c r="M26" t="n">
-        <v>0.017927505</v>
+        <v>0.016607665</v>
       </c>
       <c r="N26" t="n">
-        <v>19468288</v>
+        <v>34</v>
       </c>
       <c r="O26" t="n">
-        <v>19468288</v>
+        <v>38</v>
       </c>
       <c r="P26" t="n">
-        <v>19468288</v>
+        <v>110</v>
       </c>
       <c r="Q26" t="n">
-        <v>19468288</v>
+        <v>210</v>
       </c>
       <c r="R26" t="n">
-        <v>19468288</v>
+        <v>3342</v>
       </c>
       <c r="S26" t="n">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="T26" t="n">
-        <v>38</v>
+        <v>2678</v>
       </c>
       <c r="U26" t="n">
-        <v>110</v>
+        <v>2678</v>
       </c>
       <c r="V26" t="n">
-        <v>210</v>
-      </c>
-      <c r="W26" t="n">
-        <v>3342</v>
-      </c>
-      <c r="X26" t="n">
-        <v>178</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>2678</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>2678</v>
-      </c>
-      <c r="AA26" t="n">
         <v>396</v>
       </c>
     </row>
@@ -2723,60 +2323,45 @@
         <v>20</v>
       </c>
       <c r="I27" t="n">
-        <v>0.135006208</v>
+        <v>0.121566214</v>
       </c>
       <c r="J27" t="n">
-        <v>0.420042712</v>
+        <v>0.37687142</v>
       </c>
       <c r="K27" t="n">
-        <v>0.652046715</v>
+        <v>0.575348097</v>
       </c>
       <c r="L27" t="n">
-        <v>0.035902783</v>
+        <v>0.032148357</v>
       </c>
       <c r="M27" t="n">
-        <v>0.017996453</v>
+        <v>0.016653412</v>
       </c>
       <c r="N27" t="n">
-        <v>19468288</v>
+        <v>34</v>
       </c>
       <c r="O27" t="n">
-        <v>19468288</v>
+        <v>38</v>
       </c>
       <c r="P27" t="n">
-        <v>19468288</v>
+        <v>110</v>
       </c>
       <c r="Q27" t="n">
-        <v>19468288</v>
+        <v>210</v>
       </c>
       <c r="R27" t="n">
-        <v>19468288</v>
+        <v>3892</v>
       </c>
       <c r="S27" t="n">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="T27" t="n">
-        <v>38</v>
+        <v>11478</v>
       </c>
       <c r="U27" t="n">
-        <v>110</v>
+        <v>11478</v>
       </c>
       <c r="V27" t="n">
-        <v>210</v>
-      </c>
-      <c r="W27" t="n">
-        <v>3892</v>
-      </c>
-      <c r="X27" t="n">
-        <v>178</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>11478</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>11478</v>
-      </c>
-      <c r="AA27" t="n">
         <v>396</v>
       </c>
     </row>
@@ -2808,60 +2393,45 @@
         <v>20</v>
       </c>
       <c r="I28" t="n">
-        <v>0.125339729</v>
+        <v>0.122812626</v>
       </c>
       <c r="J28" t="n">
-        <v>0.338167648</v>
+        <v>0.336112659</v>
       </c>
       <c r="K28" t="n">
-        <v>0.516394716</v>
+        <v>0.500654858</v>
       </c>
       <c r="L28" t="n">
-        <v>0.050407796</v>
+        <v>0.049148576</v>
       </c>
       <c r="M28" t="n">
-        <v>0.017633017</v>
+        <v>0.016670926</v>
       </c>
       <c r="N28" t="n">
-        <v>19468288</v>
+        <v>34</v>
       </c>
       <c r="O28" t="n">
-        <v>19468288</v>
+        <v>38</v>
       </c>
       <c r="P28" t="n">
-        <v>19468288</v>
+        <v>110</v>
       </c>
       <c r="Q28" t="n">
-        <v>19468288</v>
+        <v>210</v>
       </c>
       <c r="R28" t="n">
-        <v>19468288</v>
+        <v>3892</v>
       </c>
       <c r="S28" t="n">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="T28" t="n">
-        <v>38</v>
+        <v>9278</v>
       </c>
       <c r="U28" t="n">
-        <v>110</v>
+        <v>9278</v>
       </c>
       <c r="V28" t="n">
-        <v>210</v>
-      </c>
-      <c r="W28" t="n">
-        <v>3892</v>
-      </c>
-      <c r="X28" t="n">
-        <v>178</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>9278</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>9278</v>
-      </c>
-      <c r="AA28" t="n">
         <v>396</v>
       </c>
     </row>
@@ -2893,60 +2463,45 @@
         <v>20</v>
       </c>
       <c r="I29" t="n">
-        <v>0.12945953</v>
+        <v>0.120658695</v>
       </c>
       <c r="J29" t="n">
-        <v>0.293358521</v>
+        <v>0.282341664</v>
       </c>
       <c r="K29" t="n">
-        <v>0.436607112</v>
+        <v>0.420635814</v>
       </c>
       <c r="L29" t="n">
-        <v>0.06860832</v>
+        <v>0.06564661199999999</v>
       </c>
       <c r="M29" t="n">
-        <v>0.017432771</v>
+        <v>0.016156571</v>
       </c>
       <c r="N29" t="n">
-        <v>19468288</v>
+        <v>34</v>
       </c>
       <c r="O29" t="n">
-        <v>19468288</v>
+        <v>38</v>
       </c>
       <c r="P29" t="n">
-        <v>19468288</v>
+        <v>110</v>
       </c>
       <c r="Q29" t="n">
-        <v>19468288</v>
+        <v>210</v>
       </c>
       <c r="R29" t="n">
-        <v>19468288</v>
+        <v>3892</v>
       </c>
       <c r="S29" t="n">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="T29" t="n">
-        <v>38</v>
+        <v>7078</v>
       </c>
       <c r="U29" t="n">
-        <v>110</v>
+        <v>7078</v>
       </c>
       <c r="V29" t="n">
-        <v>210</v>
-      </c>
-      <c r="W29" t="n">
-        <v>3892</v>
-      </c>
-      <c r="X29" t="n">
-        <v>178</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>7078</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>7078</v>
-      </c>
-      <c r="AA29" t="n">
         <v>396</v>
       </c>
     </row>
@@ -2978,60 +2533,45 @@
         <v>20</v>
       </c>
       <c r="I30" t="n">
-        <v>0.129408427</v>
+        <v>0.121307693</v>
       </c>
       <c r="J30" t="n">
-        <v>0.256161485</v>
+        <v>0.230450208</v>
       </c>
       <c r="K30" t="n">
-        <v>0.366997674</v>
+        <v>0.337030793</v>
       </c>
       <c r="L30" t="n">
-        <v>0.09183364300000001</v>
+        <v>0.084387666</v>
       </c>
       <c r="M30" t="n">
-        <v>0.017426026</v>
+        <v>0.016508807</v>
       </c>
       <c r="N30" t="n">
-        <v>19611033.6</v>
+        <v>34</v>
       </c>
       <c r="O30" t="n">
-        <v>19611033.6</v>
+        <v>38</v>
       </c>
       <c r="P30" t="n">
-        <v>19611033.6</v>
+        <v>110</v>
       </c>
       <c r="Q30" t="n">
-        <v>19611033.6</v>
+        <v>210</v>
       </c>
       <c r="R30" t="n">
-        <v>19611033.6</v>
+        <v>3892</v>
       </c>
       <c r="S30" t="n">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="T30" t="n">
-        <v>38</v>
+        <v>4878</v>
       </c>
       <c r="U30" t="n">
-        <v>110</v>
+        <v>4878</v>
       </c>
       <c r="V30" t="n">
-        <v>210</v>
-      </c>
-      <c r="W30" t="n">
-        <v>3892</v>
-      </c>
-      <c r="X30" t="n">
-        <v>178</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>4878</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>4878</v>
-      </c>
-      <c r="AA30" t="n">
         <v>396</v>
       </c>
     </row>
@@ -3063,60 +2603,45 @@
         <v>20</v>
       </c>
       <c r="I31" t="n">
-        <v>0.137959172</v>
+        <v>0.121853602</v>
       </c>
       <c r="J31" t="n">
-        <v>0.207161774</v>
+        <v>0.184957807</v>
       </c>
       <c r="K31" t="n">
-        <v>0.281484538</v>
+        <v>0.254193614</v>
       </c>
       <c r="L31" t="n">
-        <v>0.112851715</v>
+        <v>0.100704729</v>
       </c>
       <c r="M31" t="n">
-        <v>0.017938045</v>
+        <v>0.017070649</v>
       </c>
       <c r="N31" t="n">
-        <v>19636224</v>
+        <v>34</v>
       </c>
       <c r="O31" t="n">
-        <v>19636224</v>
+        <v>38</v>
       </c>
       <c r="P31" t="n">
-        <v>19636224</v>
+        <v>110</v>
       </c>
       <c r="Q31" t="n">
-        <v>19636224</v>
+        <v>210</v>
       </c>
       <c r="R31" t="n">
-        <v>19636224</v>
+        <v>3892</v>
       </c>
       <c r="S31" t="n">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="T31" t="n">
-        <v>38</v>
+        <v>2678</v>
       </c>
       <c r="U31" t="n">
-        <v>110</v>
+        <v>2678</v>
       </c>
       <c r="V31" t="n">
-        <v>210</v>
-      </c>
-      <c r="W31" t="n">
-        <v>3892</v>
-      </c>
-      <c r="X31" t="n">
-        <v>178</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>2678</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>2678</v>
-      </c>
-      <c r="AA31" t="n">
         <v>396</v>
       </c>
     </row>
@@ -3148,60 +2673,45 @@
         <v>20</v>
       </c>
       <c r="I32" t="n">
-        <v>0.076017786</v>
+        <v>0.067189242</v>
       </c>
       <c r="J32" t="n">
-        <v>0.162883642</v>
+        <v>0.13948425</v>
       </c>
       <c r="K32" t="n">
-        <v>0.26184499</v>
+        <v>0.228209573</v>
       </c>
       <c r="L32" t="n">
-        <v>0.043258605</v>
+        <v>0.039886035</v>
       </c>
       <c r="M32" t="n">
-        <v>0.022217408</v>
+        <v>0.02025325</v>
       </c>
       <c r="N32" t="n">
-        <v>19636224</v>
+        <v>42</v>
       </c>
       <c r="O32" t="n">
-        <v>19636224</v>
+        <v>42</v>
       </c>
       <c r="P32" t="n">
-        <v>19636224</v>
+        <v>118</v>
       </c>
       <c r="Q32" t="n">
-        <v>19636224</v>
+        <v>226</v>
       </c>
       <c r="R32" t="n">
-        <v>19636224</v>
+        <v>1820</v>
       </c>
       <c r="S32" t="n">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="T32" t="n">
-        <v>42</v>
+        <v>2874</v>
       </c>
       <c r="U32" t="n">
-        <v>118</v>
+        <v>2874</v>
       </c>
       <c r="V32" t="n">
-        <v>226</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1820</v>
-      </c>
-      <c r="X32" t="n">
-        <v>202</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>2874</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>2874</v>
-      </c>
-      <c r="AA32" t="n">
         <v>428</v>
       </c>
     </row>
@@ -3233,60 +2743,45 @@
         <v>20</v>
       </c>
       <c r="I33" t="n">
-        <v>0.094699037</v>
+        <v>0.086303034</v>
       </c>
       <c r="J33" t="n">
-        <v>0.245660348</v>
+        <v>0.223262367</v>
       </c>
       <c r="K33" t="n">
-        <v>0.379694056</v>
+        <v>0.356823302</v>
       </c>
       <c r="L33" t="n">
-        <v>0.042490493</v>
+        <v>0.039768634</v>
       </c>
       <c r="M33" t="n">
-        <v>0.02421549</v>
+        <v>0.020328254</v>
       </c>
       <c r="N33" t="n">
-        <v>19636224</v>
+        <v>42</v>
       </c>
       <c r="O33" t="n">
-        <v>19636224</v>
+        <v>42</v>
       </c>
       <c r="P33" t="n">
-        <v>19636224</v>
+        <v>118</v>
       </c>
       <c r="Q33" t="n">
-        <v>19636224</v>
+        <v>226</v>
       </c>
       <c r="R33" t="n">
-        <v>19636224</v>
+        <v>2410</v>
       </c>
       <c r="S33" t="n">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="T33" t="n">
-        <v>42</v>
+        <v>5234</v>
       </c>
       <c r="U33" t="n">
-        <v>118</v>
+        <v>5234</v>
       </c>
       <c r="V33" t="n">
-        <v>226</v>
-      </c>
-      <c r="W33" t="n">
-        <v>2410</v>
-      </c>
-      <c r="X33" t="n">
-        <v>202</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>5234</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>5234</v>
-      </c>
-      <c r="AA33" t="n">
         <v>428</v>
       </c>
     </row>
@@ -3318,60 +2813,45 @@
         <v>20</v>
       </c>
       <c r="I34" t="n">
-        <v>0.09408135500000001</v>
+        <v>0.087149824</v>
       </c>
       <c r="J34" t="n">
-        <v>0.177677769</v>
+        <v>0.164762016</v>
       </c>
       <c r="K34" t="n">
-        <v>0.27268017</v>
+        <v>0.251824975</v>
       </c>
       <c r="L34" t="n">
-        <v>0.063967384</v>
+        <v>0.060507107</v>
       </c>
       <c r="M34" t="n">
-        <v>0.021749238</v>
+        <v>0.020746094</v>
       </c>
       <c r="N34" t="n">
-        <v>19636224</v>
+        <v>42</v>
       </c>
       <c r="O34" t="n">
-        <v>19636224</v>
+        <v>42</v>
       </c>
       <c r="P34" t="n">
-        <v>19636224</v>
+        <v>118</v>
       </c>
       <c r="Q34" t="n">
-        <v>19636224</v>
+        <v>226</v>
       </c>
       <c r="R34" t="n">
-        <v>19636224</v>
+        <v>2410</v>
       </c>
       <c r="S34" t="n">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="T34" t="n">
-        <v>42</v>
+        <v>2874</v>
       </c>
       <c r="U34" t="n">
-        <v>118</v>
+        <v>2874</v>
       </c>
       <c r="V34" t="n">
-        <v>226</v>
-      </c>
-      <c r="W34" t="n">
-        <v>2410</v>
-      </c>
-      <c r="X34" t="n">
-        <v>202</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>2874</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>2874</v>
-      </c>
-      <c r="AA34" t="n">
         <v>428</v>
       </c>
     </row>
@@ -3403,60 +2883,45 @@
         <v>20</v>
       </c>
       <c r="I35" t="n">
-        <v>0.112664567</v>
+        <v>0.109016772</v>
       </c>
       <c r="J35" t="n">
-        <v>0.321655074</v>
+        <v>0.313691206</v>
       </c>
       <c r="K35" t="n">
-        <v>0.500030571</v>
+        <v>0.486483178</v>
       </c>
       <c r="L35" t="n">
-        <v>0.04096204</v>
+        <v>0.040783618</v>
       </c>
       <c r="M35" t="n">
-        <v>0.021866826</v>
+        <v>0.020869432</v>
       </c>
       <c r="N35" t="n">
-        <v>19636224</v>
+        <v>42</v>
       </c>
       <c r="O35" t="n">
-        <v>19636224</v>
+        <v>42</v>
       </c>
       <c r="P35" t="n">
-        <v>19636224</v>
+        <v>118</v>
       </c>
       <c r="Q35" t="n">
-        <v>19636224</v>
+        <v>226</v>
       </c>
       <c r="R35" t="n">
-        <v>19636224</v>
+        <v>3000</v>
       </c>
       <c r="S35" t="n">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="T35" t="n">
-        <v>42</v>
+        <v>7594</v>
       </c>
       <c r="U35" t="n">
-        <v>118</v>
+        <v>7594</v>
       </c>
       <c r="V35" t="n">
-        <v>226</v>
-      </c>
-      <c r="W35" t="n">
-        <v>3000</v>
-      </c>
-      <c r="X35" t="n">
-        <v>202</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>7594</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>7594</v>
-      </c>
-      <c r="AA35" t="n">
         <v>428</v>
       </c>
     </row>
@@ -3488,60 +2953,45 @@
         <v>20</v>
       </c>
       <c r="I36" t="n">
-        <v>0.111388021</v>
+        <v>0.107491673</v>
       </c>
       <c r="J36" t="n">
-        <v>0.250118521</v>
+        <v>0.247422295</v>
       </c>
       <c r="K36" t="n">
-        <v>0.385144197</v>
+        <v>0.374762863</v>
       </c>
       <c r="L36" t="n">
-        <v>0.061708675</v>
+        <v>0.060349132</v>
       </c>
       <c r="M36" t="n">
-        <v>0.021547339</v>
+        <v>0.020188399</v>
       </c>
       <c r="N36" t="n">
-        <v>19636224</v>
+        <v>42</v>
       </c>
       <c r="O36" t="n">
-        <v>19636224</v>
+        <v>42</v>
       </c>
       <c r="P36" t="n">
-        <v>19636224</v>
+        <v>118</v>
       </c>
       <c r="Q36" t="n">
-        <v>19636224</v>
+        <v>226</v>
       </c>
       <c r="R36" t="n">
-        <v>19636224</v>
+        <v>3000</v>
       </c>
       <c r="S36" t="n">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="T36" t="n">
-        <v>42</v>
+        <v>5234</v>
       </c>
       <c r="U36" t="n">
-        <v>118</v>
+        <v>5234</v>
       </c>
       <c r="V36" t="n">
-        <v>226</v>
-      </c>
-      <c r="W36" t="n">
-        <v>3000</v>
-      </c>
-      <c r="X36" t="n">
-        <v>202</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>5234</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>5234</v>
-      </c>
-      <c r="AA36" t="n">
         <v>428</v>
       </c>
     </row>
@@ -3573,60 +3023,45 @@
         <v>20</v>
       </c>
       <c r="I37" t="n">
-        <v>0.111693015</v>
+        <v>0.10547498</v>
       </c>
       <c r="J37" t="n">
-        <v>0.190264345</v>
+        <v>0.182765196</v>
       </c>
       <c r="K37" t="n">
-        <v>0.279114412</v>
+        <v>0.269529934</v>
       </c>
       <c r="L37" t="n">
-        <v>0.08486326299999999</v>
+        <v>0.081917373</v>
       </c>
       <c r="M37" t="n">
-        <v>0.020598684</v>
+        <v>0.020763674</v>
       </c>
       <c r="N37" t="n">
-        <v>19636224</v>
+        <v>42</v>
       </c>
       <c r="O37" t="n">
-        <v>19636224</v>
+        <v>42</v>
       </c>
       <c r="P37" t="n">
-        <v>19636224</v>
+        <v>118</v>
       </c>
       <c r="Q37" t="n">
-        <v>19636224</v>
+        <v>226</v>
       </c>
       <c r="R37" t="n">
-        <v>19636224</v>
+        <v>3000</v>
       </c>
       <c r="S37" t="n">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="T37" t="n">
-        <v>42</v>
+        <v>2874</v>
       </c>
       <c r="U37" t="n">
-        <v>118</v>
+        <v>2874</v>
       </c>
       <c r="V37" t="n">
-        <v>226</v>
-      </c>
-      <c r="W37" t="n">
-        <v>3000</v>
-      </c>
-      <c r="X37" t="n">
-        <v>202</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>2874</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>2874</v>
-      </c>
-      <c r="AA37" t="n">
         <v>428</v>
       </c>
     </row>
@@ -3658,60 +3093,45 @@
         <v>20</v>
       </c>
       <c r="I38" t="n">
-        <v>0.13513819</v>
+        <v>0.128607018</v>
       </c>
       <c r="J38" t="n">
-        <v>0.405969128</v>
+        <v>0.389227989</v>
       </c>
       <c r="K38" t="n">
-        <v>0.617817579</v>
+        <v>0.59411832</v>
       </c>
       <c r="L38" t="n">
-        <v>0.041883243</v>
+        <v>0.039246156</v>
       </c>
       <c r="M38" t="n">
-        <v>0.020778528</v>
+        <v>0.020428751</v>
       </c>
       <c r="N38" t="n">
-        <v>19716096</v>
+        <v>42</v>
       </c>
       <c r="O38" t="n">
-        <v>19716096</v>
+        <v>42</v>
       </c>
       <c r="P38" t="n">
-        <v>19729408</v>
+        <v>118</v>
       </c>
       <c r="Q38" t="n">
-        <v>19729408</v>
+        <v>226</v>
       </c>
       <c r="R38" t="n">
-        <v>19729408</v>
+        <v>3590</v>
       </c>
       <c r="S38" t="n">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="T38" t="n">
-        <v>42</v>
+        <v>9954</v>
       </c>
       <c r="U38" t="n">
-        <v>118</v>
+        <v>9954</v>
       </c>
       <c r="V38" t="n">
-        <v>226</v>
-      </c>
-      <c r="W38" t="n">
-        <v>3590</v>
-      </c>
-      <c r="X38" t="n">
-        <v>202</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>9954</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>9954</v>
-      </c>
-      <c r="AA38" t="n">
         <v>428</v>
       </c>
     </row>
@@ -3743,60 +3163,45 @@
         <v>20</v>
       </c>
       <c r="I39" t="n">
-        <v>0.13396983</v>
+        <v>0.123491975</v>
       </c>
       <c r="J39" t="n">
-        <v>0.337512731</v>
+        <v>0.315577076</v>
       </c>
       <c r="K39" t="n">
-        <v>0.515108341</v>
+        <v>0.493369714</v>
       </c>
       <c r="L39" t="n">
-        <v>0.06331867200000001</v>
+        <v>0.058041736</v>
       </c>
       <c r="M39" t="n">
-        <v>0.021095949</v>
+        <v>0.019639139</v>
       </c>
       <c r="N39" t="n">
-        <v>19902464</v>
+        <v>42</v>
       </c>
       <c r="O39" t="n">
-        <v>19902464</v>
+        <v>42</v>
       </c>
       <c r="P39" t="n">
-        <v>19902464</v>
+        <v>118</v>
       </c>
       <c r="Q39" t="n">
-        <v>19902464</v>
+        <v>226</v>
       </c>
       <c r="R39" t="n">
-        <v>19902464</v>
+        <v>3590</v>
       </c>
       <c r="S39" t="n">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="T39" t="n">
-        <v>42</v>
+        <v>7594</v>
       </c>
       <c r="U39" t="n">
-        <v>118</v>
+        <v>7594</v>
       </c>
       <c r="V39" t="n">
-        <v>226</v>
-      </c>
-      <c r="W39" t="n">
-        <v>3590</v>
-      </c>
-      <c r="X39" t="n">
-        <v>202</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>7594</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>7594</v>
-      </c>
-      <c r="AA39" t="n">
         <v>428</v>
       </c>
     </row>
@@ -3828,60 +3233,45 @@
         <v>20</v>
       </c>
       <c r="I40" t="n">
-        <v>0.134743201</v>
+        <v>0.137849503</v>
       </c>
       <c r="J40" t="n">
-        <v>0.273157947</v>
+        <v>0.2849201</v>
       </c>
       <c r="K40" t="n">
-        <v>0.407452725</v>
+        <v>0.404878651</v>
       </c>
       <c r="L40" t="n">
-        <v>0.08411795</v>
+        <v>0.084481602</v>
       </c>
       <c r="M40" t="n">
-        <v>0.021061707</v>
+        <v>0.021431289</v>
       </c>
       <c r="N40" t="n">
-        <v>19902464</v>
+        <v>42</v>
       </c>
       <c r="O40" t="n">
-        <v>19902464</v>
+        <v>42</v>
       </c>
       <c r="P40" t="n">
-        <v>19902464</v>
+        <v>118</v>
       </c>
       <c r="Q40" t="n">
-        <v>19902464</v>
+        <v>226</v>
       </c>
       <c r="R40" t="n">
-        <v>19902464</v>
+        <v>3590</v>
       </c>
       <c r="S40" t="n">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="T40" t="n">
-        <v>42</v>
+        <v>5234</v>
       </c>
       <c r="U40" t="n">
-        <v>118</v>
+        <v>5234</v>
       </c>
       <c r="V40" t="n">
-        <v>226</v>
-      </c>
-      <c r="W40" t="n">
-        <v>3590</v>
-      </c>
-      <c r="X40" t="n">
-        <v>202</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>5234</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>5234</v>
-      </c>
-      <c r="AA40" t="n">
         <v>428</v>
       </c>
     </row>
@@ -3913,60 +3303,45 @@
         <v>20</v>
       </c>
       <c r="I41" t="n">
-        <v>0.140727821</v>
+        <v>0.13176274</v>
       </c>
       <c r="J41" t="n">
-        <v>0.21773158</v>
+        <v>0.205917623</v>
       </c>
       <c r="K41" t="n">
-        <v>0.311112913</v>
+        <v>0.298072212</v>
       </c>
       <c r="L41" t="n">
-        <v>0.110207096</v>
+        <v>0.10434382</v>
       </c>
       <c r="M41" t="n">
-        <v>0.022416522</v>
+        <v>0.020427078</v>
       </c>
       <c r="N41" t="n">
-        <v>19902464</v>
+        <v>42</v>
       </c>
       <c r="O41" t="n">
-        <v>19902464</v>
+        <v>42</v>
       </c>
       <c r="P41" t="n">
-        <v>19902464</v>
+        <v>118</v>
       </c>
       <c r="Q41" t="n">
-        <v>19902464</v>
+        <v>226</v>
       </c>
       <c r="R41" t="n">
-        <v>19902464</v>
+        <v>3590</v>
       </c>
       <c r="S41" t="n">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="T41" t="n">
-        <v>42</v>
+        <v>2874</v>
       </c>
       <c r="U41" t="n">
-        <v>118</v>
+        <v>2874</v>
       </c>
       <c r="V41" t="n">
-        <v>226</v>
-      </c>
-      <c r="W41" t="n">
-        <v>3590</v>
-      </c>
-      <c r="X41" t="n">
-        <v>202</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>2874</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>2874</v>
-      </c>
-      <c r="AA41" t="n">
         <v>428</v>
       </c>
     </row>
@@ -3998,60 +3373,45 @@
         <v>20</v>
       </c>
       <c r="I42" t="n">
-        <v>0.160675196</v>
+        <v>0.14888703</v>
       </c>
       <c r="J42" t="n">
-        <v>0.515381752</v>
+        <v>0.480028774</v>
       </c>
       <c r="K42" t="n">
-        <v>0.782208456</v>
+        <v>0.740322764</v>
       </c>
       <c r="L42" t="n">
-        <v>0.040809586</v>
+        <v>0.039734372</v>
       </c>
       <c r="M42" t="n">
-        <v>0.021753355</v>
+        <v>0.020846286</v>
       </c>
       <c r="N42" t="n">
-        <v>19902464</v>
+        <v>42</v>
       </c>
       <c r="O42" t="n">
-        <v>19902464</v>
+        <v>42</v>
       </c>
       <c r="P42" t="n">
-        <v>19902464</v>
+        <v>118</v>
       </c>
       <c r="Q42" t="n">
-        <v>19902464</v>
+        <v>226</v>
       </c>
       <c r="R42" t="n">
-        <v>19902464</v>
+        <v>4180</v>
       </c>
       <c r="S42" t="n">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="T42" t="n">
-        <v>42</v>
+        <v>12314</v>
       </c>
       <c r="U42" t="n">
-        <v>118</v>
+        <v>12314</v>
       </c>
       <c r="V42" t="n">
-        <v>226</v>
-      </c>
-      <c r="W42" t="n">
-        <v>4180</v>
-      </c>
-      <c r="X42" t="n">
-        <v>202</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>12314</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>12314</v>
-      </c>
-      <c r="AA42" t="n">
         <v>428</v>
       </c>
     </row>
@@ -4083,60 +3443,45 @@
         <v>20</v>
       </c>
       <c r="I43" t="n">
-        <v>0.162644058</v>
+        <v>0.151677314</v>
       </c>
       <c r="J43" t="n">
-        <v>0.435275406</v>
+        <v>0.420588421</v>
       </c>
       <c r="K43" t="n">
-        <v>0.661037976</v>
+        <v>0.641301119</v>
       </c>
       <c r="L43" t="n">
-        <v>0.063285328</v>
+        <v>0.059660157</v>
       </c>
       <c r="M43" t="n">
-        <v>0.021839853</v>
+        <v>0.020712815</v>
       </c>
       <c r="N43" t="n">
-        <v>19902464</v>
+        <v>42</v>
       </c>
       <c r="O43" t="n">
-        <v>19902464</v>
+        <v>42</v>
       </c>
       <c r="P43" t="n">
-        <v>19902464</v>
+        <v>118</v>
       </c>
       <c r="Q43" t="n">
-        <v>19902464</v>
+        <v>226</v>
       </c>
       <c r="R43" t="n">
-        <v>19902464</v>
+        <v>4180</v>
       </c>
       <c r="S43" t="n">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="T43" t="n">
-        <v>42</v>
+        <v>9954</v>
       </c>
       <c r="U43" t="n">
-        <v>118</v>
+        <v>9954</v>
       </c>
       <c r="V43" t="n">
-        <v>226</v>
-      </c>
-      <c r="W43" t="n">
-        <v>4180</v>
-      </c>
-      <c r="X43" t="n">
-        <v>202</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>9954</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>9954</v>
-      </c>
-      <c r="AA43" t="n">
         <v>428</v>
       </c>
     </row>
@@ -4168,60 +3513,45 @@
         <v>20</v>
       </c>
       <c r="I44" t="n">
-        <v>0.167189618</v>
+        <v>0.150257472</v>
       </c>
       <c r="J44" t="n">
-        <v>0.382166402</v>
+        <v>0.354604262</v>
       </c>
       <c r="K44" t="n">
-        <v>0.563381444</v>
+        <v>0.527056887</v>
       </c>
       <c r="L44" t="n">
-        <v>0.08671037199999999</v>
+        <v>0.08048559600000001</v>
       </c>
       <c r="M44" t="n">
-        <v>0.021792188</v>
+        <v>0.020626149</v>
       </c>
       <c r="N44" t="n">
-        <v>19902464</v>
+        <v>42</v>
       </c>
       <c r="O44" t="n">
-        <v>19902464</v>
+        <v>42</v>
       </c>
       <c r="P44" t="n">
-        <v>19902464</v>
+        <v>118</v>
       </c>
       <c r="Q44" t="n">
-        <v>19902464</v>
+        <v>226</v>
       </c>
       <c r="R44" t="n">
-        <v>19902464</v>
+        <v>4180</v>
       </c>
       <c r="S44" t="n">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="T44" t="n">
-        <v>42</v>
+        <v>7594</v>
       </c>
       <c r="U44" t="n">
-        <v>118</v>
+        <v>7594</v>
       </c>
       <c r="V44" t="n">
-        <v>226</v>
-      </c>
-      <c r="W44" t="n">
-        <v>4180</v>
-      </c>
-      <c r="X44" t="n">
-        <v>202</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>7594</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>7594</v>
-      </c>
-      <c r="AA44" t="n">
         <v>428</v>
       </c>
     </row>
@@ -4253,60 +3583,45 @@
         <v>20</v>
       </c>
       <c r="I45" t="n">
-        <v>0.163976847</v>
+        <v>0.154670768</v>
       </c>
       <c r="J45" t="n">
-        <v>0.30703896</v>
+        <v>0.289552487</v>
       </c>
       <c r="K45" t="n">
-        <v>0.446289478</v>
+        <v>0.422055345</v>
       </c>
       <c r="L45" t="n">
-        <v>0.111481907</v>
+        <v>0.105170552</v>
       </c>
       <c r="M45" t="n">
-        <v>0.021567944</v>
+        <v>0.021253105</v>
       </c>
       <c r="N45" t="n">
-        <v>19902464</v>
+        <v>42</v>
       </c>
       <c r="O45" t="n">
-        <v>19902464</v>
+        <v>42</v>
       </c>
       <c r="P45" t="n">
-        <v>19902464</v>
+        <v>118</v>
       </c>
       <c r="Q45" t="n">
-        <v>19902464</v>
+        <v>226</v>
       </c>
       <c r="R45" t="n">
-        <v>19902464</v>
+        <v>4180</v>
       </c>
       <c r="S45" t="n">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="T45" t="n">
-        <v>42</v>
+        <v>5234</v>
       </c>
       <c r="U45" t="n">
-        <v>118</v>
+        <v>5234</v>
       </c>
       <c r="V45" t="n">
-        <v>226</v>
-      </c>
-      <c r="W45" t="n">
-        <v>4180</v>
-      </c>
-      <c r="X45" t="n">
-        <v>202</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>5234</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>5234</v>
-      </c>
-      <c r="AA45" t="n">
         <v>428</v>
       </c>
     </row>
@@ -4338,60 +3653,45 @@
         <v>20</v>
       </c>
       <c r="I46" t="n">
-        <v>0.161146016</v>
+        <v>0.151728457</v>
       </c>
       <c r="J46" t="n">
-        <v>0.237610856</v>
+        <v>0.228717447</v>
       </c>
       <c r="K46" t="n">
-        <v>0.32839943</v>
+        <v>0.316103803</v>
       </c>
       <c r="L46" t="n">
-        <v>0.128903978</v>
+        <v>0.123342572</v>
       </c>
       <c r="M46" t="n">
-        <v>0.022070129</v>
+        <v>0.020128645</v>
       </c>
       <c r="N46" t="n">
-        <v>19902464</v>
+        <v>42</v>
       </c>
       <c r="O46" t="n">
-        <v>19902464</v>
+        <v>42</v>
       </c>
       <c r="P46" t="n">
-        <v>19902464</v>
+        <v>118</v>
       </c>
       <c r="Q46" t="n">
-        <v>19902464</v>
+        <v>226</v>
       </c>
       <c r="R46" t="n">
-        <v>19902464</v>
+        <v>4180</v>
       </c>
       <c r="S46" t="n">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="T46" t="n">
-        <v>42</v>
+        <v>2874</v>
       </c>
       <c r="U46" t="n">
-        <v>118</v>
+        <v>2874</v>
       </c>
       <c r="V46" t="n">
-        <v>226</v>
-      </c>
-      <c r="W46" t="n">
-        <v>4180</v>
-      </c>
-      <c r="X46" t="n">
-        <v>202</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>2874</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>2874</v>
-      </c>
-      <c r="AA46" t="n">
         <v>428</v>
       </c>
     </row>
@@ -4423,60 +3723,45 @@
         <v>20</v>
       </c>
       <c r="I47" t="n">
-        <v>0.017447842</v>
+        <v>0.016796289</v>
       </c>
       <c r="J47" t="n">
-        <v>0.029935388</v>
+        <v>0.029045458</v>
       </c>
       <c r="K47" t="n">
-        <v>0.049103918</v>
+        <v>0.047505434</v>
       </c>
       <c r="L47" t="n">
-        <v>0.010716949</v>
+        <v>0.010234057</v>
       </c>
       <c r="M47" t="n">
-        <v>0.004091773</v>
+        <v>0.004019263</v>
       </c>
       <c r="N47" t="n">
-        <v>20156620.8</v>
+        <v>30</v>
       </c>
       <c r="O47" t="n">
-        <v>20156416</v>
+        <v>90</v>
       </c>
       <c r="P47" t="n">
-        <v>20179763.2</v>
+        <v>90</v>
       </c>
       <c r="Q47" t="n">
-        <v>20186316.8</v>
+        <v>174</v>
       </c>
       <c r="R47" t="n">
-        <v>20186316.8</v>
+        <v>1620</v>
       </c>
       <c r="S47" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="T47" t="n">
-        <v>90</v>
+        <v>2250</v>
       </c>
       <c r="U47" t="n">
-        <v>90</v>
+        <v>2250</v>
       </c>
       <c r="V47" t="n">
-        <v>174</v>
-      </c>
-      <c r="W47" t="n">
-        <v>1620</v>
-      </c>
-      <c r="X47" t="n">
-        <v>150</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>2250</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>2250</v>
-      </c>
-      <c r="AA47" t="n">
         <v>444</v>
       </c>
     </row>
@@ -4508,60 +3793,45 @@
         <v>20</v>
       </c>
       <c r="I48" t="n">
-        <v>0.022080018</v>
+        <v>0.020399973</v>
       </c>
       <c r="J48" t="n">
-        <v>0.04807098</v>
+        <v>0.044405393</v>
       </c>
       <c r="K48" t="n">
-        <v>0.076329968</v>
+        <v>0.07220154099999999</v>
       </c>
       <c r="L48" t="n">
-        <v>0.009964626000000001</v>
+        <v>0.009916786</v>
       </c>
       <c r="M48" t="n">
-        <v>0.003893941</v>
+        <v>0.003923251</v>
       </c>
       <c r="N48" t="n">
-        <v>20211302.4</v>
+        <v>30</v>
       </c>
       <c r="O48" t="n">
-        <v>20215193.6</v>
+        <v>90</v>
       </c>
       <c r="P48" t="n">
-        <v>20217036.8</v>
+        <v>90</v>
       </c>
       <c r="Q48" t="n">
-        <v>20295680</v>
+        <v>174</v>
       </c>
       <c r="R48" t="n">
-        <v>20296089.6</v>
+        <v>2070</v>
       </c>
       <c r="S48" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="T48" t="n">
-        <v>90</v>
+        <v>4050</v>
       </c>
       <c r="U48" t="n">
-        <v>90</v>
+        <v>4050</v>
       </c>
       <c r="V48" t="n">
-        <v>174</v>
-      </c>
-      <c r="W48" t="n">
-        <v>2070</v>
-      </c>
-      <c r="X48" t="n">
-        <v>150</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>4050</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>4050</v>
-      </c>
-      <c r="AA48" t="n">
         <v>444</v>
       </c>
     </row>
@@ -4593,60 +3863,45 @@
         <v>20</v>
       </c>
       <c r="I49" t="n">
-        <v>0.022077858</v>
+        <v>0.020225592</v>
       </c>
       <c r="J49" t="n">
-        <v>0.034512565</v>
+        <v>0.032270943</v>
       </c>
       <c r="K49" t="n">
-        <v>0.053141583</v>
+        <v>0.049186412</v>
       </c>
       <c r="L49" t="n">
-        <v>0.01465793</v>
+        <v>0.013913054</v>
       </c>
       <c r="M49" t="n">
-        <v>0.004059454</v>
+        <v>0.003973366</v>
       </c>
       <c r="N49" t="n">
-        <v>20203315.2</v>
+        <v>30</v>
       </c>
       <c r="O49" t="n">
-        <v>20209868.8</v>
+        <v>90</v>
       </c>
       <c r="P49" t="n">
-        <v>20206592</v>
+        <v>90</v>
       </c>
       <c r="Q49" t="n">
-        <v>20211302.4</v>
+        <v>174</v>
       </c>
       <c r="R49" t="n">
-        <v>20211302.4</v>
+        <v>2070</v>
       </c>
       <c r="S49" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="T49" t="n">
-        <v>90</v>
+        <v>2250</v>
       </c>
       <c r="U49" t="n">
-        <v>90</v>
+        <v>2250</v>
       </c>
       <c r="V49" t="n">
-        <v>174</v>
-      </c>
-      <c r="W49" t="n">
-        <v>2070</v>
-      </c>
-      <c r="X49" t="n">
-        <v>150</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>2250</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>2250</v>
-      </c>
-      <c r="AA49" t="n">
         <v>444</v>
       </c>
     </row>
@@ -4678,60 +3933,45 @@
         <v>20</v>
       </c>
       <c r="I50" t="n">
-        <v>0.027880969</v>
+        <v>0.024105823</v>
       </c>
       <c r="J50" t="n">
-        <v>0.06307850800000001</v>
+        <v>0.061954389</v>
       </c>
       <c r="K50" t="n">
-        <v>0.101350615</v>
+        <v>0.098765823</v>
       </c>
       <c r="L50" t="n">
-        <v>0.010521551</v>
+        <v>0.009757269000000001</v>
       </c>
       <c r="M50" t="n">
-        <v>0.004080903</v>
+        <v>0.003813085</v>
       </c>
       <c r="N50" t="n">
-        <v>20294246.4</v>
+        <v>30</v>
       </c>
       <c r="O50" t="n">
-        <v>20291788.8</v>
+        <v>90</v>
       </c>
       <c r="P50" t="n">
-        <v>20292812.8</v>
+        <v>90</v>
       </c>
       <c r="Q50" t="n">
-        <v>20352614.4</v>
+        <v>174</v>
       </c>
       <c r="R50" t="n">
-        <v>20352614.4</v>
+        <v>2520</v>
       </c>
       <c r="S50" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="T50" t="n">
-        <v>90</v>
+        <v>5850</v>
       </c>
       <c r="U50" t="n">
-        <v>90</v>
+        <v>5850</v>
       </c>
       <c r="V50" t="n">
-        <v>174</v>
-      </c>
-      <c r="W50" t="n">
-        <v>2520</v>
-      </c>
-      <c r="X50" t="n">
-        <v>150</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>5850</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>5850</v>
-      </c>
-      <c r="AA50" t="n">
         <v>444</v>
       </c>
     </row>
@@ -4763,60 +4003,45 @@
         <v>20</v>
       </c>
       <c r="I51" t="n">
-        <v>0.02727556</v>
+        <v>0.024733367</v>
       </c>
       <c r="J51" t="n">
-        <v>0.051295283</v>
+        <v>0.049345657</v>
       </c>
       <c r="K51" t="n">
-        <v>0.0804589</v>
+        <v>0.075201586</v>
       </c>
       <c r="L51" t="n">
-        <v>0.015154034</v>
+        <v>0.014106157</v>
       </c>
       <c r="M51" t="n">
-        <v>0.004381756</v>
+        <v>0.003976322</v>
       </c>
       <c r="N51" t="n">
-        <v>20295884.8</v>
+        <v>30</v>
       </c>
       <c r="O51" t="n">
-        <v>20290560</v>
+        <v>90</v>
       </c>
       <c r="P51" t="n">
-        <v>20317798.4</v>
+        <v>90</v>
       </c>
       <c r="Q51" t="n">
-        <v>20376985.6</v>
+        <v>174</v>
       </c>
       <c r="R51" t="n">
-        <v>20377395.2</v>
+        <v>2520</v>
       </c>
       <c r="S51" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="T51" t="n">
-        <v>90</v>
+        <v>4050</v>
       </c>
       <c r="U51" t="n">
-        <v>90</v>
+        <v>4050</v>
       </c>
       <c r="V51" t="n">
-        <v>174</v>
-      </c>
-      <c r="W51" t="n">
-        <v>2520</v>
-      </c>
-      <c r="X51" t="n">
-        <v>150</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>4050</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>4050</v>
-      </c>
-      <c r="AA51" t="n">
         <v>444</v>
       </c>
     </row>
@@ -4848,60 +4073,45 @@
         <v>20</v>
       </c>
       <c r="I52" t="n">
-        <v>0.026624064</v>
+        <v>0.024495781</v>
       </c>
       <c r="J52" t="n">
-        <v>0.038860309</v>
+        <v>0.037071195</v>
       </c>
       <c r="K52" t="n">
-        <v>0.056217581</v>
+        <v>0.054314673</v>
       </c>
       <c r="L52" t="n">
-        <v>0.018793568</v>
+        <v>0.018361393</v>
       </c>
       <c r="M52" t="n">
-        <v>0.004074801</v>
+        <v>0.003886973</v>
       </c>
       <c r="N52" t="n">
-        <v>20266803.2</v>
+        <v>30</v>
       </c>
       <c r="O52" t="n">
-        <v>20266803.2</v>
+        <v>90</v>
       </c>
       <c r="P52" t="n">
-        <v>20264550.4</v>
+        <v>90</v>
       </c>
       <c r="Q52" t="n">
-        <v>20271513.6</v>
+        <v>174</v>
       </c>
       <c r="R52" t="n">
-        <v>20271513.6</v>
+        <v>2520</v>
       </c>
       <c r="S52" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="T52" t="n">
-        <v>90</v>
+        <v>2250</v>
       </c>
       <c r="U52" t="n">
-        <v>90</v>
+        <v>2250</v>
       </c>
       <c r="V52" t="n">
-        <v>174</v>
-      </c>
-      <c r="W52" t="n">
-        <v>2520</v>
-      </c>
-      <c r="X52" t="n">
-        <v>150</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>2250</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>2250</v>
-      </c>
-      <c r="AA52" t="n">
         <v>444</v>
       </c>
     </row>
@@ -4933,60 +4143,45 @@
         <v>20</v>
       </c>
       <c r="I53" t="n">
-        <v>0.032424564</v>
+        <v>0.029000584</v>
       </c>
       <c r="J53" t="n">
-        <v>0.083781825</v>
+        <v>0.079650557</v>
       </c>
       <c r="K53" t="n">
-        <v>0.12579752</v>
+        <v>0.123185063</v>
       </c>
       <c r="L53" t="n">
-        <v>0.010095932</v>
+        <v>0.009944362999999999</v>
       </c>
       <c r="M53" t="n">
-        <v>0.00399641</v>
+        <v>0.003905564</v>
       </c>
       <c r="N53" t="n">
-        <v>20389068.8</v>
+        <v>30</v>
       </c>
       <c r="O53" t="n">
-        <v>20386816</v>
+        <v>90</v>
       </c>
       <c r="P53" t="n">
-        <v>20388044.8</v>
+        <v>90</v>
       </c>
       <c r="Q53" t="n">
-        <v>20415078.4</v>
+        <v>174</v>
       </c>
       <c r="R53" t="n">
-        <v>20415078.4</v>
+        <v>2970</v>
       </c>
       <c r="S53" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="T53" t="n">
-        <v>90</v>
+        <v>7650</v>
       </c>
       <c r="U53" t="n">
-        <v>90</v>
+        <v>7650</v>
       </c>
       <c r="V53" t="n">
-        <v>174</v>
-      </c>
-      <c r="W53" t="n">
-        <v>2970</v>
-      </c>
-      <c r="X53" t="n">
-        <v>150</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>7650</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>7650</v>
-      </c>
-      <c r="AA53" t="n">
         <v>444</v>
       </c>
     </row>
@@ -5018,60 +4213,45 @@
         <v>20</v>
       </c>
       <c r="I54" t="n">
-        <v>0.031169846</v>
+        <v>0.028356383</v>
       </c>
       <c r="J54" t="n">
-        <v>0.070408026</v>
+        <v>0.065860452</v>
       </c>
       <c r="K54" t="n">
-        <v>0.107439618</v>
+        <v>0.102047652</v>
       </c>
       <c r="L54" t="n">
-        <v>0.015426134</v>
+        <v>0.01471829</v>
       </c>
       <c r="M54" t="n">
-        <v>0.004068822</v>
+        <v>0.003949461</v>
       </c>
       <c r="N54" t="n">
-        <v>20418560</v>
+        <v>30</v>
       </c>
       <c r="O54" t="n">
-        <v>20418560</v>
+        <v>90</v>
       </c>
       <c r="P54" t="n">
-        <v>20418560</v>
+        <v>90</v>
       </c>
       <c r="Q54" t="n">
-        <v>20418560</v>
+        <v>174</v>
       </c>
       <c r="R54" t="n">
-        <v>20418560</v>
+        <v>2970</v>
       </c>
       <c r="S54" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="T54" t="n">
-        <v>90</v>
+        <v>5850</v>
       </c>
       <c r="U54" t="n">
-        <v>90</v>
+        <v>5850</v>
       </c>
       <c r="V54" t="n">
-        <v>174</v>
-      </c>
-      <c r="W54" t="n">
-        <v>2970</v>
-      </c>
-      <c r="X54" t="n">
-        <v>150</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>5850</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>5850</v>
-      </c>
-      <c r="AA54" t="n">
         <v>444</v>
       </c>
     </row>
@@ -5103,60 +4283,45 @@
         <v>20</v>
       </c>
       <c r="I55" t="n">
-        <v>0.034598179</v>
+        <v>0.028749664</v>
       </c>
       <c r="J55" t="n">
-        <v>0.062186328</v>
+        <v>0.05441048</v>
       </c>
       <c r="K55" t="n">
-        <v>0.09371183900000001</v>
+        <v>0.080400022</v>
       </c>
       <c r="L55" t="n">
-        <v>0.022359197</v>
+        <v>0.01820697</v>
       </c>
       <c r="M55" t="n">
-        <v>0.004525415</v>
+        <v>0.003889753</v>
       </c>
       <c r="N55" t="n">
-        <v>20418560</v>
+        <v>30</v>
       </c>
       <c r="O55" t="n">
-        <v>20418560</v>
+        <v>90</v>
       </c>
       <c r="P55" t="n">
-        <v>20418560</v>
+        <v>90</v>
       </c>
       <c r="Q55" t="n">
-        <v>20418560</v>
+        <v>174</v>
       </c>
       <c r="R55" t="n">
-        <v>20418560</v>
+        <v>2970</v>
       </c>
       <c r="S55" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="T55" t="n">
-        <v>90</v>
+        <v>4050</v>
       </c>
       <c r="U55" t="n">
-        <v>90</v>
+        <v>4050</v>
       </c>
       <c r="V55" t="n">
-        <v>174</v>
-      </c>
-      <c r="W55" t="n">
-        <v>2970</v>
-      </c>
-      <c r="X55" t="n">
-        <v>150</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>4050</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>4050</v>
-      </c>
-      <c r="AA55" t="n">
         <v>444</v>
       </c>
     </row>
@@ -5188,60 +4353,45 @@
         <v>20</v>
       </c>
       <c r="I56" t="n">
-        <v>0.031875509</v>
+        <v>0.029243002</v>
       </c>
       <c r="J56" t="n">
-        <v>0.043475041</v>
+        <v>0.040751523</v>
       </c>
       <c r="K56" t="n">
-        <v>0.064792935</v>
+        <v>0.060859653</v>
       </c>
       <c r="L56" t="n">
-        <v>0.024848288</v>
+        <v>0.022886602</v>
       </c>
       <c r="M56" t="n">
-        <v>0.004109091</v>
+        <v>0.004013186</v>
       </c>
       <c r="N56" t="n">
-        <v>20418560</v>
+        <v>30</v>
       </c>
       <c r="O56" t="n">
-        <v>20418560</v>
+        <v>90</v>
       </c>
       <c r="P56" t="n">
-        <v>20418560</v>
+        <v>90</v>
       </c>
       <c r="Q56" t="n">
-        <v>20418560</v>
+        <v>174</v>
       </c>
       <c r="R56" t="n">
-        <v>20418560</v>
+        <v>2970</v>
       </c>
       <c r="S56" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="T56" t="n">
-        <v>90</v>
+        <v>2250</v>
       </c>
       <c r="U56" t="n">
-        <v>90</v>
+        <v>2250</v>
       </c>
       <c r="V56" t="n">
-        <v>174</v>
-      </c>
-      <c r="W56" t="n">
-        <v>2970</v>
-      </c>
-      <c r="X56" t="n">
-        <v>150</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>2250</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>2250</v>
-      </c>
-      <c r="AA56" t="n">
         <v>444</v>
       </c>
     </row>
@@ -5273,60 +4423,45 @@
         <v>20</v>
       </c>
       <c r="I57" t="n">
-        <v>0.037408437</v>
+        <v>0.032656716</v>
       </c>
       <c r="J57" t="n">
-        <v>0.105644704</v>
+        <v>0.096716307</v>
       </c>
       <c r="K57" t="n">
-        <v>0.169703801</v>
+        <v>0.147397455</v>
       </c>
       <c r="L57" t="n">
-        <v>0.011376236</v>
+        <v>0.010028715</v>
       </c>
       <c r="M57" t="n">
-        <v>0.004567393</v>
+        <v>0.004002965</v>
       </c>
       <c r="N57" t="n">
-        <v>20418560</v>
+        <v>30</v>
       </c>
       <c r="O57" t="n">
-        <v>20418560</v>
+        <v>90</v>
       </c>
       <c r="P57" t="n">
-        <v>20418560</v>
+        <v>90</v>
       </c>
       <c r="Q57" t="n">
-        <v>20418560</v>
+        <v>174</v>
       </c>
       <c r="R57" t="n">
-        <v>20418560</v>
+        <v>3420</v>
       </c>
       <c r="S57" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="T57" t="n">
-        <v>90</v>
+        <v>9450</v>
       </c>
       <c r="U57" t="n">
-        <v>90</v>
+        <v>9450</v>
       </c>
       <c r="V57" t="n">
-        <v>174</v>
-      </c>
-      <c r="W57" t="n">
-        <v>3420</v>
-      </c>
-      <c r="X57" t="n">
-        <v>150</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>9450</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>9450</v>
-      </c>
-      <c r="AA57" t="n">
         <v>444</v>
       </c>
     </row>
@@ -5358,60 +4493,45 @@
         <v>20</v>
       </c>
       <c r="I58" t="n">
-        <v>0.038516086</v>
+        <v>0.033190686</v>
       </c>
       <c r="J58" t="n">
-        <v>0.091496072</v>
+        <v>0.083748316</v>
       </c>
       <c r="K58" t="n">
-        <v>0.135573377</v>
+        <v>0.125302097</v>
       </c>
       <c r="L58" t="n">
-        <v>0.015053752</v>
+        <v>0.013958285</v>
       </c>
       <c r="M58" t="n">
-        <v>0.004127179</v>
+        <v>0.003877608</v>
       </c>
       <c r="N58" t="n">
-        <v>20401561.6</v>
+        <v>30</v>
       </c>
       <c r="O58" t="n">
-        <v>20401561.6</v>
+        <v>90</v>
       </c>
       <c r="P58" t="n">
-        <v>20396032</v>
+        <v>90</v>
       </c>
       <c r="Q58" t="n">
-        <v>20396032</v>
+        <v>174</v>
       </c>
       <c r="R58" t="n">
-        <v>20396032</v>
+        <v>3420</v>
       </c>
       <c r="S58" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="T58" t="n">
-        <v>90</v>
+        <v>7650</v>
       </c>
       <c r="U58" t="n">
-        <v>90</v>
+        <v>7650</v>
       </c>
       <c r="V58" t="n">
-        <v>174</v>
-      </c>
-      <c r="W58" t="n">
-        <v>3420</v>
-      </c>
-      <c r="X58" t="n">
-        <v>150</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>7650</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>7650</v>
-      </c>
-      <c r="AA58" t="n">
         <v>444</v>
       </c>
     </row>
@@ -5443,60 +4563,45 @@
         <v>20</v>
       </c>
       <c r="I59" t="n">
-        <v>0.037640097</v>
+        <v>0.033026218</v>
       </c>
       <c r="J59" t="n">
-        <v>0.079365768</v>
+        <v>0.069022214</v>
       </c>
       <c r="K59" t="n">
-        <v>0.120000528</v>
+        <v>0.105214821</v>
       </c>
       <c r="L59" t="n">
-        <v>0.020341214</v>
+        <v>0.018366947</v>
       </c>
       <c r="M59" t="n">
-        <v>0.004151655</v>
+        <v>0.003909527</v>
       </c>
       <c r="N59" t="n">
-        <v>20368179.2</v>
+        <v>30</v>
       </c>
       <c r="O59" t="n">
-        <v>20368179.2</v>
+        <v>90</v>
       </c>
       <c r="P59" t="n">
-        <v>20376780.8</v>
+        <v>90</v>
       </c>
       <c r="Q59" t="n">
-        <v>20404019.2</v>
+        <v>174</v>
       </c>
       <c r="R59" t="n">
-        <v>20404019.2</v>
+        <v>3420</v>
       </c>
       <c r="S59" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="T59" t="n">
-        <v>90</v>
+        <v>5850</v>
       </c>
       <c r="U59" t="n">
-        <v>90</v>
+        <v>5850</v>
       </c>
       <c r="V59" t="n">
-        <v>174</v>
-      </c>
-      <c r="W59" t="n">
-        <v>3420</v>
-      </c>
-      <c r="X59" t="n">
-        <v>150</v>
-      </c>
-      <c r="Y59" t="n">
-        <v>5850</v>
-      </c>
-      <c r="Z59" t="n">
-        <v>5850</v>
-      </c>
-      <c r="AA59" t="n">
         <v>444</v>
       </c>
     </row>
@@ -5528,60 +4633,45 @@
         <v>20</v>
       </c>
       <c r="I60" t="n">
-        <v>0.036433928</v>
+        <v>0.033501708</v>
       </c>
       <c r="J60" t="n">
-        <v>0.059246706</v>
+        <v>0.057724209</v>
       </c>
       <c r="K60" t="n">
-        <v>0.087065643</v>
+        <v>0.083334517</v>
       </c>
       <c r="L60" t="n">
-        <v>0.023274311</v>
+        <v>0.022647967</v>
       </c>
       <c r="M60" t="n">
-        <v>0.004165033</v>
+        <v>0.003899474</v>
       </c>
       <c r="N60" t="n">
-        <v>20439040</v>
+        <v>30</v>
       </c>
       <c r="O60" t="n">
-        <v>20439040</v>
+        <v>90</v>
       </c>
       <c r="P60" t="n">
-        <v>20439040</v>
+        <v>90</v>
       </c>
       <c r="Q60" t="n">
-        <v>20439040</v>
+        <v>174</v>
       </c>
       <c r="R60" t="n">
-        <v>20439040</v>
+        <v>3420</v>
       </c>
       <c r="S60" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="T60" t="n">
-        <v>90</v>
+        <v>4050</v>
       </c>
       <c r="U60" t="n">
-        <v>90</v>
+        <v>4050</v>
       </c>
       <c r="V60" t="n">
-        <v>174</v>
-      </c>
-      <c r="W60" t="n">
-        <v>3420</v>
-      </c>
-      <c r="X60" t="n">
-        <v>150</v>
-      </c>
-      <c r="Y60" t="n">
-        <v>4050</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>4050</v>
-      </c>
-      <c r="AA60" t="n">
         <v>444</v>
       </c>
     </row>
@@ -5613,60 +4703,45 @@
         <v>20</v>
       </c>
       <c r="I61" t="n">
-        <v>0.035610187</v>
+        <v>0.033838357</v>
       </c>
       <c r="J61" t="n">
-        <v>0.04654718</v>
+        <v>0.046298364</v>
       </c>
       <c r="K61" t="n">
-        <v>0.06642585099999999</v>
+        <v>0.065435489</v>
       </c>
       <c r="L61" t="n">
-        <v>0.026561156</v>
+        <v>0.026715906</v>
       </c>
       <c r="M61" t="n">
-        <v>0.004172932</v>
+        <v>0.003961654</v>
       </c>
       <c r="N61" t="n">
-        <v>20439040</v>
+        <v>30</v>
       </c>
       <c r="O61" t="n">
-        <v>20439040</v>
+        <v>90</v>
       </c>
       <c r="P61" t="n">
-        <v>20439040</v>
+        <v>90</v>
       </c>
       <c r="Q61" t="n">
-        <v>20439040</v>
+        <v>174</v>
       </c>
       <c r="R61" t="n">
-        <v>20439040</v>
+        <v>3420</v>
       </c>
       <c r="S61" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="T61" t="n">
-        <v>90</v>
+        <v>2250</v>
       </c>
       <c r="U61" t="n">
-        <v>90</v>
+        <v>2250</v>
       </c>
       <c r="V61" t="n">
-        <v>174</v>
-      </c>
-      <c r="W61" t="n">
-        <v>3420</v>
-      </c>
-      <c r="X61" t="n">
-        <v>150</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>2250</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>2250</v>
-      </c>
-      <c r="AA61" t="n">
         <v>444</v>
       </c>
     </row>

--- a/SchemeHIBME/SchemeAnonymousME.xlsx
+++ b/SchemeHIBME/SchemeAnonymousME.xlsx
@@ -573,19 +573,19 @@
         <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>0.038878854</v>
+        <v>0.031853963</v>
       </c>
       <c r="J2" t="n">
-        <v>0.081069237</v>
+        <v>0.06975695</v>
       </c>
       <c r="K2" t="n">
-        <v>0.134022723</v>
+        <v>0.114656278</v>
       </c>
       <c r="L2" t="n">
-        <v>0.024045199</v>
+        <v>0.013535132</v>
       </c>
       <c r="M2" t="n">
-        <v>0.012342408</v>
+        <v>3.3615e-05</v>
       </c>
       <c r="N2" t="n">
         <v>30</v>
@@ -643,19 +643,19 @@
         <v>20</v>
       </c>
       <c r="I3" t="n">
-        <v>0.050931762</v>
+        <v>0.042997044</v>
       </c>
       <c r="J3" t="n">
-        <v>0.131351091</v>
+        <v>0.112243665</v>
       </c>
       <c r="K3" t="n">
-        <v>0.21133871</v>
+        <v>0.178684098</v>
       </c>
       <c r="L3" t="n">
-        <v>0.023262143</v>
+        <v>0.013598561</v>
       </c>
       <c r="M3" t="n">
-        <v>0.012006803</v>
+        <v>3.7867e-05</v>
       </c>
       <c r="N3" t="n">
         <v>30</v>
@@ -713,19 +713,19 @@
         <v>20</v>
       </c>
       <c r="I4" t="n">
-        <v>0.055332356</v>
+        <v>0.043414935</v>
       </c>
       <c r="J4" t="n">
-        <v>0.100544719</v>
+        <v>0.08125030900000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.157969828</v>
+        <v>0.127245726</v>
       </c>
       <c r="L4" t="n">
-        <v>0.038302894</v>
+        <v>0.024262688</v>
       </c>
       <c r="M4" t="n">
-        <v>0.013057911</v>
+        <v>3.763e-05</v>
       </c>
       <c r="N4" t="n">
         <v>30</v>
@@ -783,19 +783,19 @@
         <v>20</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06620793799999999</v>
+        <v>0.055933032</v>
       </c>
       <c r="J5" t="n">
-        <v>0.184503289</v>
+        <v>0.163212965</v>
       </c>
       <c r="K5" t="n">
-        <v>0.289180688</v>
+        <v>0.255291914</v>
       </c>
       <c r="L5" t="n">
-        <v>0.024256564</v>
+        <v>0.015066296</v>
       </c>
       <c r="M5" t="n">
-        <v>0.012758481</v>
+        <v>4.2532e-05</v>
       </c>
       <c r="N5" t="n">
         <v>30</v>
@@ -853,19 +853,19 @@
         <v>20</v>
       </c>
       <c r="I6" t="n">
-        <v>0.065416988</v>
+        <v>0.055977047</v>
       </c>
       <c r="J6" t="n">
-        <v>0.145311383</v>
+        <v>0.129337946</v>
       </c>
       <c r="K6" t="n">
-        <v>0.226133874</v>
+        <v>0.199520136</v>
       </c>
       <c r="L6" t="n">
-        <v>0.036565842</v>
+        <v>0.025803247</v>
       </c>
       <c r="M6" t="n">
-        <v>0.012164765</v>
+        <v>5.2975e-05</v>
       </c>
       <c r="N6" t="n">
         <v>30</v>
@@ -923,19 +923,19 @@
         <v>20</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06363220999999999</v>
+        <v>0.056422062</v>
       </c>
       <c r="J7" t="n">
-        <v>0.109704208</v>
+        <v>0.09743206</v>
       </c>
       <c r="K7" t="n">
-        <v>0.16349525</v>
+        <v>0.142452429</v>
       </c>
       <c r="L7" t="n">
-        <v>0.049493762</v>
+        <v>0.037396121</v>
       </c>
       <c r="M7" t="n">
-        <v>0.012553376</v>
+        <v>4.6977e-05</v>
       </c>
       <c r="N7" t="n">
         <v>30</v>
@@ -993,19 +993,19 @@
         <v>20</v>
       </c>
       <c r="I8" t="n">
-        <v>0.078797829</v>
+        <v>0.066207275</v>
       </c>
       <c r="J8" t="n">
-        <v>0.241681917</v>
+        <v>0.203232177</v>
       </c>
       <c r="K8" t="n">
-        <v>0.36922511</v>
+        <v>0.312716709</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02461319</v>
+        <v>0.014004342</v>
       </c>
       <c r="M8" t="n">
-        <v>0.012268905</v>
+        <v>4.4066e-05</v>
       </c>
       <c r="N8" t="n">
         <v>30</v>
@@ -1063,19 +1063,19 @@
         <v>20</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07434840600000001</v>
+        <v>0.06460115399999999</v>
       </c>
       <c r="J9" t="n">
-        <v>0.195826694</v>
+        <v>0.165689455</v>
       </c>
       <c r="K9" t="n">
-        <v>0.290444819</v>
+        <v>0.253410972</v>
       </c>
       <c r="L9" t="n">
-        <v>0.034975813</v>
+        <v>0.024370505</v>
       </c>
       <c r="M9" t="n">
-        <v>0.011823633</v>
+        <v>4.164e-05</v>
       </c>
       <c r="N9" t="n">
         <v>30</v>
@@ -1133,19 +1133,19 @@
         <v>20</v>
       </c>
       <c r="I10" t="n">
-        <v>0.075994009</v>
+        <v>0.067237228</v>
       </c>
       <c r="J10" t="n">
-        <v>0.158759414</v>
+        <v>0.136359404</v>
       </c>
       <c r="K10" t="n">
-        <v>0.240861907</v>
+        <v>0.204068645</v>
       </c>
       <c r="L10" t="n">
-        <v>0.049477523</v>
+        <v>0.035958238</v>
       </c>
       <c r="M10" t="n">
-        <v>0.012318493</v>
+        <v>4.4058e-05</v>
       </c>
       <c r="N10" t="n">
         <v>30</v>
@@ -1203,19 +1203,19 @@
         <v>20</v>
       </c>
       <c r="I11" t="n">
-        <v>0.076214666</v>
+        <v>0.06696737</v>
       </c>
       <c r="J11" t="n">
-        <v>0.12045157</v>
+        <v>0.105878934</v>
       </c>
       <c r="K11" t="n">
-        <v>0.175187564</v>
+        <v>0.15580466</v>
       </c>
       <c r="L11" t="n">
-        <v>0.060459047</v>
+        <v>0.047901035</v>
       </c>
       <c r="M11" t="n">
-        <v>0.012070115</v>
+        <v>4.0848e-05</v>
       </c>
       <c r="N11" t="n">
         <v>30</v>
@@ -1273,19 +1273,19 @@
         <v>20</v>
       </c>
       <c r="I12" t="n">
-        <v>0.092185139</v>
+        <v>0.075258241</v>
       </c>
       <c r="J12" t="n">
-        <v>0.291800587</v>
+        <v>0.242910426</v>
       </c>
       <c r="K12" t="n">
-        <v>0.445521471</v>
+        <v>0.375741377</v>
       </c>
       <c r="L12" t="n">
-        <v>0.023829695</v>
+        <v>0.013707151</v>
       </c>
       <c r="M12" t="n">
-        <v>0.012425164</v>
+        <v>4.3503e-05</v>
       </c>
       <c r="N12" t="n">
         <v>30</v>
@@ -1343,19 +1343,19 @@
         <v>20</v>
       </c>
       <c r="I13" t="n">
-        <v>0.094919746</v>
+        <v>0.07519071500000001</v>
       </c>
       <c r="J13" t="n">
-        <v>0.257109592</v>
+        <v>0.208474243</v>
       </c>
       <c r="K13" t="n">
-        <v>0.390413876</v>
+        <v>0.314706125</v>
       </c>
       <c r="L13" t="n">
-        <v>0.039326445</v>
+        <v>0.024324409</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01346326</v>
+        <v>4.5633e-05</v>
       </c>
       <c r="N13" t="n">
         <v>30</v>
@@ -1413,19 +1413,19 @@
         <v>20</v>
       </c>
       <c r="I14" t="n">
-        <v>0.091063427</v>
+        <v>0.0760029</v>
       </c>
       <c r="J14" t="n">
-        <v>0.210503769</v>
+        <v>0.178820749</v>
       </c>
       <c r="K14" t="n">
-        <v>0.316279066</v>
+        <v>0.268852284</v>
       </c>
       <c r="L14" t="n">
-        <v>0.049305941</v>
+        <v>0.035411747</v>
       </c>
       <c r="M14" t="n">
-        <v>0.012611179</v>
+        <v>4.3165e-05</v>
       </c>
       <c r="N14" t="n">
         <v>30</v>
@@ -1483,19 +1483,19 @@
         <v>20</v>
       </c>
       <c r="I15" t="n">
-        <v>0.091771876</v>
+        <v>0.075162013</v>
       </c>
       <c r="J15" t="n">
-        <v>0.173973771</v>
+        <v>0.146344142</v>
       </c>
       <c r="K15" t="n">
-        <v>0.25463121</v>
+        <v>0.212787134</v>
       </c>
       <c r="L15" t="n">
-        <v>0.06492569300000001</v>
+        <v>0.045344629</v>
       </c>
       <c r="M15" t="n">
-        <v>0.013039675</v>
+        <v>3.7265e-05</v>
       </c>
       <c r="N15" t="n">
         <v>30</v>
@@ -1553,19 +1553,19 @@
         <v>20</v>
       </c>
       <c r="I16" t="n">
-        <v>0.090746774</v>
+        <v>0.074382749</v>
       </c>
       <c r="J16" t="n">
-        <v>0.136145079</v>
+        <v>0.113464419</v>
       </c>
       <c r="K16" t="n">
-        <v>0.193423689</v>
+        <v>0.159472349</v>
       </c>
       <c r="L16" t="n">
-        <v>0.07428757900000001</v>
+        <v>0.056348091</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01207999</v>
+        <v>3.9235e-05</v>
       </c>
       <c r="N16" t="n">
         <v>30</v>
@@ -1623,19 +1623,19 @@
         <v>20</v>
       </c>
       <c r="I17" t="n">
-        <v>0.051901048</v>
+        <v>0.042328198</v>
       </c>
       <c r="J17" t="n">
-        <v>0.11147283</v>
+        <v>0.09200747500000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.17953678</v>
+        <v>0.150518829</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0317225</v>
+        <v>0.017661939</v>
       </c>
       <c r="M17" t="n">
-        <v>0.016331852</v>
+        <v>3.602e-05</v>
       </c>
       <c r="N17" t="n">
         <v>34</v>
@@ -1693,19 +1693,19 @@
         <v>20</v>
       </c>
       <c r="I18" t="n">
-        <v>0.068511012</v>
+        <v>0.056450649</v>
       </c>
       <c r="J18" t="n">
-        <v>0.177399134</v>
+        <v>0.149336722</v>
       </c>
       <c r="K18" t="n">
-        <v>0.284808225</v>
+        <v>0.236343809</v>
       </c>
       <c r="L18" t="n">
-        <v>0.032289041</v>
+        <v>0.017600613</v>
       </c>
       <c r="M18" t="n">
-        <v>0.016534312</v>
+        <v>4.037e-05</v>
       </c>
       <c r="N18" t="n">
         <v>34</v>
@@ -1763,19 +1763,19 @@
         <v>20</v>
       </c>
       <c r="I19" t="n">
-        <v>0.073052268</v>
+        <v>0.056174543</v>
       </c>
       <c r="J19" t="n">
-        <v>0.138056779</v>
+        <v>0.105271159</v>
       </c>
       <c r="K19" t="n">
-        <v>0.212748455</v>
+        <v>0.16400878</v>
       </c>
       <c r="L19" t="n">
-        <v>0.052738977</v>
+        <v>0.031607593</v>
       </c>
       <c r="M19" t="n">
-        <v>0.017651153</v>
+        <v>3.7073e-05</v>
       </c>
       <c r="N19" t="n">
         <v>34</v>
@@ -1833,19 +1833,19 @@
         <v>20</v>
       </c>
       <c r="I20" t="n">
-        <v>0.090997236</v>
+        <v>0.07078896599999999</v>
       </c>
       <c r="J20" t="n">
-        <v>0.252241237</v>
+        <v>0.205412841</v>
       </c>
       <c r="K20" t="n">
-        <v>0.395623773</v>
+        <v>0.316650697</v>
       </c>
       <c r="L20" t="n">
-        <v>0.033517001</v>
+        <v>0.017872391</v>
       </c>
       <c r="M20" t="n">
-        <v>0.017340017</v>
+        <v>4.3317e-05</v>
       </c>
       <c r="N20" t="n">
         <v>34</v>
@@ -1903,19 +1903,19 @@
         <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>0.09016318199999999</v>
+        <v>0.071070149</v>
       </c>
       <c r="J21" t="n">
-        <v>0.20417634</v>
+        <v>0.162039215</v>
       </c>
       <c r="K21" t="n">
-        <v>0.310940177</v>
+        <v>0.247897632</v>
       </c>
       <c r="L21" t="n">
-        <v>0.050870122</v>
+        <v>0.031450159</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01716938</v>
+        <v>3.9787e-05</v>
       </c>
       <c r="N21" t="n">
         <v>34</v>
@@ -1973,19 +1973,19 @@
         <v>20</v>
       </c>
       <c r="I22" t="n">
-        <v>0.085711284</v>
+        <v>0.06949391000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>0.147368263</v>
+        <v>0.119226697</v>
       </c>
       <c r="K22" t="n">
-        <v>0.216174252</v>
+        <v>0.175367391</v>
       </c>
       <c r="L22" t="n">
-        <v>0.067125346</v>
+        <v>0.045114194</v>
       </c>
       <c r="M22" t="n">
-        <v>0.017043824</v>
+        <v>3.7288e-05</v>
       </c>
       <c r="N22" t="n">
         <v>34</v>
@@ -2043,19 +2043,19 @@
         <v>20</v>
       </c>
       <c r="I23" t="n">
-        <v>0.103625297</v>
+        <v>0.083971487</v>
       </c>
       <c r="J23" t="n">
-        <v>0.323009709</v>
+        <v>0.259211801</v>
       </c>
       <c r="K23" t="n">
-        <v>0.486667657</v>
+        <v>0.400239917</v>
       </c>
       <c r="L23" t="n">
-        <v>0.033118739</v>
+        <v>0.017707153</v>
       </c>
       <c r="M23" t="n">
-        <v>0.017538575</v>
+        <v>4.5366e-05</v>
       </c>
       <c r="N23" t="n">
         <v>34</v>
@@ -2113,19 +2113,19 @@
         <v>20</v>
       </c>
       <c r="I24" t="n">
-        <v>0.102876529</v>
+        <v>0.08529956599999999</v>
       </c>
       <c r="J24" t="n">
-        <v>0.265148767</v>
+        <v>0.217177127</v>
       </c>
       <c r="K24" t="n">
-        <v>0.401897314</v>
+        <v>0.334002559</v>
       </c>
       <c r="L24" t="n">
-        <v>0.048962665</v>
+        <v>0.031858578</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01701154</v>
+        <v>4.3404e-05</v>
       </c>
       <c r="N24" t="n">
         <v>34</v>
@@ -2183,19 +2183,19 @@
         <v>20</v>
       </c>
       <c r="I25" t="n">
-        <v>0.103571155</v>
+        <v>0.085069175</v>
       </c>
       <c r="J25" t="n">
-        <v>0.214118175</v>
+        <v>0.177398619</v>
       </c>
       <c r="K25" t="n">
-        <v>0.317655644</v>
+        <v>0.262502181</v>
       </c>
       <c r="L25" t="n">
-        <v>0.065972451</v>
+        <v>0.04594072</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01660843</v>
+        <v>4.2281e-05</v>
       </c>
       <c r="N25" t="n">
         <v>34</v>
@@ -2253,19 +2253,19 @@
         <v>20</v>
       </c>
       <c r="I26" t="n">
-        <v>0.103915826</v>
+        <v>0.085473718</v>
       </c>
       <c r="J26" t="n">
-        <v>0.164154323</v>
+        <v>0.135656143</v>
       </c>
       <c r="K26" t="n">
-        <v>0.23509112</v>
+        <v>0.194054531</v>
       </c>
       <c r="L26" t="n">
-        <v>0.08211874299999999</v>
+        <v>0.059715154</v>
       </c>
       <c r="M26" t="n">
-        <v>0.016607665</v>
+        <v>4.5094e-05</v>
       </c>
       <c r="N26" t="n">
         <v>34</v>
@@ -2323,19 +2323,19 @@
         <v>20</v>
       </c>
       <c r="I27" t="n">
-        <v>0.121566214</v>
+        <v>0.101095851</v>
       </c>
       <c r="J27" t="n">
-        <v>0.37687142</v>
+        <v>0.325569162</v>
       </c>
       <c r="K27" t="n">
-        <v>0.575348097</v>
+        <v>0.498336843</v>
       </c>
       <c r="L27" t="n">
-        <v>0.032148357</v>
+        <v>0.018077384</v>
       </c>
       <c r="M27" t="n">
-        <v>0.016653412</v>
+        <v>5.4252e-05</v>
       </c>
       <c r="N27" t="n">
         <v>34</v>
@@ -2393,19 +2393,19 @@
         <v>20</v>
       </c>
       <c r="I28" t="n">
-        <v>0.122812626</v>
+        <v>0.102633326</v>
       </c>
       <c r="J28" t="n">
-        <v>0.336112659</v>
+        <v>0.28650648</v>
       </c>
       <c r="K28" t="n">
-        <v>0.500654858</v>
+        <v>0.435771383</v>
       </c>
       <c r="L28" t="n">
-        <v>0.049148576</v>
+        <v>0.032669339</v>
       </c>
       <c r="M28" t="n">
-        <v>0.016670926</v>
+        <v>5.0974e-05</v>
       </c>
       <c r="N28" t="n">
         <v>34</v>
@@ -2463,19 +2463,19 @@
         <v>20</v>
       </c>
       <c r="I29" t="n">
-        <v>0.120658695</v>
+        <v>0.101023536</v>
       </c>
       <c r="J29" t="n">
-        <v>0.282341664</v>
+        <v>0.240433809</v>
       </c>
       <c r="K29" t="n">
-        <v>0.420635814</v>
+        <v>0.34941732</v>
       </c>
       <c r="L29" t="n">
-        <v>0.06564661199999999</v>
+        <v>0.046401653</v>
       </c>
       <c r="M29" t="n">
-        <v>0.016156571</v>
+        <v>4.6833e-05</v>
       </c>
       <c r="N29" t="n">
         <v>34</v>
@@ -2533,19 +2533,19 @@
         <v>20</v>
       </c>
       <c r="I30" t="n">
-        <v>0.121307693</v>
+        <v>0.10103356</v>
       </c>
       <c r="J30" t="n">
-        <v>0.230450208</v>
+        <v>0.194646611</v>
       </c>
       <c r="K30" t="n">
-        <v>0.337030793</v>
+        <v>0.283578076</v>
       </c>
       <c r="L30" t="n">
-        <v>0.084387666</v>
+        <v>0.060925321</v>
       </c>
       <c r="M30" t="n">
-        <v>0.016508807</v>
+        <v>4.499e-05</v>
       </c>
       <c r="N30" t="n">
         <v>34</v>
@@ -2603,19 +2603,19 @@
         <v>20</v>
       </c>
       <c r="I31" t="n">
-        <v>0.121853602</v>
+        <v>0.101151892</v>
       </c>
       <c r="J31" t="n">
-        <v>0.184957807</v>
+        <v>0.155054212</v>
       </c>
       <c r="K31" t="n">
-        <v>0.254193614</v>
+        <v>0.210754994</v>
       </c>
       <c r="L31" t="n">
-        <v>0.100704729</v>
+        <v>0.076559036</v>
       </c>
       <c r="M31" t="n">
-        <v>0.017070649</v>
+        <v>4.7281e-05</v>
       </c>
       <c r="N31" t="n">
         <v>34</v>
@@ -2673,19 +2673,19 @@
         <v>20</v>
       </c>
       <c r="I32" t="n">
-        <v>0.067189242</v>
+        <v>0.052837565</v>
       </c>
       <c r="J32" t="n">
-        <v>0.13948425</v>
+        <v>0.116575626</v>
       </c>
       <c r="K32" t="n">
-        <v>0.228209573</v>
+        <v>0.19099569</v>
       </c>
       <c r="L32" t="n">
-        <v>0.039886035</v>
+        <v>0.022394382</v>
       </c>
       <c r="M32" t="n">
-        <v>0.02025325</v>
+        <v>4.444e-05</v>
       </c>
       <c r="N32" t="n">
         <v>42</v>
@@ -2743,19 +2743,19 @@
         <v>20</v>
       </c>
       <c r="I33" t="n">
-        <v>0.086303034</v>
+        <v>0.07134679200000001</v>
       </c>
       <c r="J33" t="n">
-        <v>0.223262367</v>
+        <v>0.188467516</v>
       </c>
       <c r="K33" t="n">
-        <v>0.356823302</v>
+        <v>0.298063851</v>
       </c>
       <c r="L33" t="n">
-        <v>0.039768634</v>
+        <v>0.022394981</v>
       </c>
       <c r="M33" t="n">
-        <v>0.020328254</v>
+        <v>4.2914e-05</v>
       </c>
       <c r="N33" t="n">
         <v>42</v>
@@ -2813,19 +2813,19 @@
         <v>20</v>
       </c>
       <c r="I34" t="n">
-        <v>0.087149824</v>
+        <v>0.07049573200000001</v>
       </c>
       <c r="J34" t="n">
-        <v>0.164762016</v>
+        <v>0.135195031</v>
       </c>
       <c r="K34" t="n">
-        <v>0.251824975</v>
+        <v>0.210606666</v>
       </c>
       <c r="L34" t="n">
-        <v>0.060507107</v>
+        <v>0.039986399</v>
       </c>
       <c r="M34" t="n">
-        <v>0.020746094</v>
+        <v>4.0851e-05</v>
       </c>
       <c r="N34" t="n">
         <v>42</v>
@@ -2883,19 +2883,19 @@
         <v>20</v>
       </c>
       <c r="I35" t="n">
-        <v>0.109016772</v>
+        <v>0.088329699</v>
       </c>
       <c r="J35" t="n">
-        <v>0.313691206</v>
+        <v>0.254980941</v>
       </c>
       <c r="K35" t="n">
-        <v>0.486483178</v>
+        <v>0.399894504</v>
       </c>
       <c r="L35" t="n">
-        <v>0.040783618</v>
+        <v>0.022087296</v>
       </c>
       <c r="M35" t="n">
-        <v>0.020869432</v>
+        <v>5.0888e-05</v>
       </c>
       <c r="N35" t="n">
         <v>42</v>
@@ -2953,19 +2953,19 @@
         <v>20</v>
       </c>
       <c r="I36" t="n">
-        <v>0.107491673</v>
+        <v>0.087586969</v>
       </c>
       <c r="J36" t="n">
-        <v>0.247422295</v>
+        <v>0.200702391</v>
       </c>
       <c r="K36" t="n">
-        <v>0.374762863</v>
+        <v>0.306843001</v>
       </c>
       <c r="L36" t="n">
-        <v>0.060349132</v>
+        <v>0.038747569</v>
       </c>
       <c r="M36" t="n">
-        <v>0.020188399</v>
+        <v>4.1822e-05</v>
       </c>
       <c r="N36" t="n">
         <v>42</v>
@@ -3023,19 +3023,19 @@
         <v>20</v>
       </c>
       <c r="I37" t="n">
-        <v>0.10547498</v>
+        <v>0.092291182</v>
       </c>
       <c r="J37" t="n">
-        <v>0.182765196</v>
+        <v>0.155032493</v>
       </c>
       <c r="K37" t="n">
-        <v>0.269529934</v>
+        <v>0.233797216</v>
       </c>
       <c r="L37" t="n">
-        <v>0.081917373</v>
+        <v>0.059718959</v>
       </c>
       <c r="M37" t="n">
-        <v>0.020763674</v>
+        <v>4.5169e-05</v>
       </c>
       <c r="N37" t="n">
         <v>42</v>
@@ -3093,19 +3093,19 @@
         <v>20</v>
       </c>
       <c r="I38" t="n">
-        <v>0.128607018</v>
+        <v>0.108738182</v>
       </c>
       <c r="J38" t="n">
-        <v>0.389227989</v>
+        <v>0.337621567</v>
       </c>
       <c r="K38" t="n">
-        <v>0.59411832</v>
+        <v>0.511974775</v>
       </c>
       <c r="L38" t="n">
-        <v>0.039246156</v>
+        <v>0.022731222</v>
       </c>
       <c r="M38" t="n">
-        <v>0.020428751</v>
+        <v>5.2271e-05</v>
       </c>
       <c r="N38" t="n">
         <v>42</v>
@@ -3163,19 +3163,19 @@
         <v>20</v>
       </c>
       <c r="I39" t="n">
-        <v>0.123491975</v>
+        <v>0.105751308</v>
       </c>
       <c r="J39" t="n">
-        <v>0.315577076</v>
+        <v>0.272586102</v>
       </c>
       <c r="K39" t="n">
-        <v>0.493369714</v>
+        <v>0.415428117</v>
       </c>
       <c r="L39" t="n">
-        <v>0.058041736</v>
+        <v>0.03939429</v>
       </c>
       <c r="M39" t="n">
-        <v>0.019639139</v>
+        <v>4.4452e-05</v>
       </c>
       <c r="N39" t="n">
         <v>42</v>
@@ -3233,19 +3233,19 @@
         <v>20</v>
       </c>
       <c r="I40" t="n">
-        <v>0.137849503</v>
+        <v>0.107941206</v>
       </c>
       <c r="J40" t="n">
-        <v>0.2849201</v>
+        <v>0.226777307</v>
       </c>
       <c r="K40" t="n">
-        <v>0.404878651</v>
+        <v>0.34169838</v>
       </c>
       <c r="L40" t="n">
-        <v>0.084481602</v>
+        <v>0.059451672</v>
       </c>
       <c r="M40" t="n">
-        <v>0.021431289</v>
+        <v>4.672e-05</v>
       </c>
       <c r="N40" t="n">
         <v>42</v>
@@ -3303,19 +3303,19 @@
         <v>20</v>
       </c>
       <c r="I41" t="n">
-        <v>0.13176274</v>
+        <v>0.107811747</v>
       </c>
       <c r="J41" t="n">
-        <v>0.205917623</v>
+        <v>0.171788619</v>
       </c>
       <c r="K41" t="n">
-        <v>0.298072212</v>
+        <v>0.249933268</v>
       </c>
       <c r="L41" t="n">
-        <v>0.10434382</v>
+        <v>0.076839612</v>
       </c>
       <c r="M41" t="n">
-        <v>0.020427078</v>
+        <v>3.9566e-05</v>
       </c>
       <c r="N41" t="n">
         <v>42</v>
@@ -3373,19 +3373,19 @@
         <v>20</v>
       </c>
       <c r="I42" t="n">
-        <v>0.14888703</v>
+        <v>0.123349453</v>
       </c>
       <c r="J42" t="n">
-        <v>0.480028774</v>
+        <v>0.400835353</v>
       </c>
       <c r="K42" t="n">
-        <v>0.740322764</v>
+        <v>0.61778141</v>
       </c>
       <c r="L42" t="n">
-        <v>0.039734372</v>
+        <v>0.022234297</v>
       </c>
       <c r="M42" t="n">
-        <v>0.020846286</v>
+        <v>5.3444e-05</v>
       </c>
       <c r="N42" t="n">
         <v>42</v>
@@ -3443,19 +3443,19 @@
         <v>20</v>
       </c>
       <c r="I43" t="n">
-        <v>0.151677314</v>
+        <v>0.126794352</v>
       </c>
       <c r="J43" t="n">
-        <v>0.420588421</v>
+        <v>0.348675182</v>
       </c>
       <c r="K43" t="n">
-        <v>0.641301119</v>
+        <v>0.530625402</v>
       </c>
       <c r="L43" t="n">
-        <v>0.059660157</v>
+        <v>0.04002003</v>
       </c>
       <c r="M43" t="n">
-        <v>0.020712815</v>
+        <v>6.161200000000001e-05</v>
       </c>
       <c r="N43" t="n">
         <v>42</v>
@@ -3513,19 +3513,19 @@
         <v>20</v>
       </c>
       <c r="I44" t="n">
-        <v>0.150257472</v>
+        <v>0.123060476</v>
       </c>
       <c r="J44" t="n">
-        <v>0.354604262</v>
+        <v>0.292528603</v>
       </c>
       <c r="K44" t="n">
-        <v>0.527056887</v>
+        <v>0.439623978</v>
       </c>
       <c r="L44" t="n">
-        <v>0.08048559600000001</v>
+        <v>0.056255811</v>
       </c>
       <c r="M44" t="n">
-        <v>0.020626149</v>
+        <v>4.6595e-05</v>
       </c>
       <c r="N44" t="n">
         <v>42</v>
@@ -3583,19 +3583,19 @@
         <v>20</v>
       </c>
       <c r="I45" t="n">
-        <v>0.154670768</v>
+        <v>0.124531361</v>
       </c>
       <c r="J45" t="n">
-        <v>0.289552487</v>
+        <v>0.240691602</v>
       </c>
       <c r="K45" t="n">
-        <v>0.422055345</v>
+        <v>0.348659834</v>
       </c>
       <c r="L45" t="n">
-        <v>0.105170552</v>
+        <v>0.076433998</v>
       </c>
       <c r="M45" t="n">
-        <v>0.021253105</v>
+        <v>4.404e-05</v>
       </c>
       <c r="N45" t="n">
         <v>42</v>
@@ -3653,19 +3653,19 @@
         <v>20</v>
       </c>
       <c r="I46" t="n">
-        <v>0.151728457</v>
+        <v>0.120950253</v>
       </c>
       <c r="J46" t="n">
-        <v>0.228717447</v>
+        <v>0.184284643</v>
       </c>
       <c r="K46" t="n">
-        <v>0.316103803</v>
+        <v>0.2584865</v>
       </c>
       <c r="L46" t="n">
-        <v>0.123342572</v>
+        <v>0.090993991</v>
       </c>
       <c r="M46" t="n">
-        <v>0.020128645</v>
+        <v>3.8921e-05</v>
       </c>
       <c r="N46" t="n">
         <v>42</v>
@@ -3723,19 +3723,19 @@
         <v>20</v>
       </c>
       <c r="I47" t="n">
-        <v>0.016796289</v>
+        <v>0.010908125</v>
       </c>
       <c r="J47" t="n">
-        <v>0.029045458</v>
+        <v>0.024244793</v>
       </c>
       <c r="K47" t="n">
-        <v>0.047505434</v>
+        <v>0.03887208</v>
       </c>
       <c r="L47" t="n">
-        <v>0.010234057</v>
+        <v>0.00457444</v>
       </c>
       <c r="M47" t="n">
-        <v>0.004019263</v>
+        <v>1.9858e-05</v>
       </c>
       <c r="N47" t="n">
         <v>30</v>
@@ -3793,19 +3793,19 @@
         <v>20</v>
       </c>
       <c r="I48" t="n">
-        <v>0.020399973</v>
+        <v>0.015081897</v>
       </c>
       <c r="J48" t="n">
-        <v>0.044405393</v>
+        <v>0.03893336</v>
       </c>
       <c r="K48" t="n">
-        <v>0.07220154099999999</v>
+        <v>0.06195058</v>
       </c>
       <c r="L48" t="n">
-        <v>0.009916786</v>
+        <v>0.004611105</v>
       </c>
       <c r="M48" t="n">
-        <v>0.003923251</v>
+        <v>2.3425e-05</v>
       </c>
       <c r="N48" t="n">
         <v>30</v>
@@ -3863,19 +3863,19 @@
         <v>20</v>
       </c>
       <c r="I49" t="n">
-        <v>0.020225592</v>
+        <v>0.014613855</v>
       </c>
       <c r="J49" t="n">
-        <v>0.032270943</v>
+        <v>0.027486571</v>
       </c>
       <c r="K49" t="n">
-        <v>0.049186412</v>
+        <v>0.043104302</v>
       </c>
       <c r="L49" t="n">
-        <v>0.013913054</v>
+        <v>0.008090587999999999</v>
       </c>
       <c r="M49" t="n">
-        <v>0.003973366</v>
+        <v>2.1115e-05</v>
       </c>
       <c r="N49" t="n">
         <v>30</v>
@@ -3933,19 +3933,19 @@
         <v>20</v>
       </c>
       <c r="I50" t="n">
-        <v>0.024105823</v>
+        <v>0.017871559</v>
       </c>
       <c r="J50" t="n">
-        <v>0.061954389</v>
+        <v>0.051627684</v>
       </c>
       <c r="K50" t="n">
-        <v>0.098765823</v>
+        <v>0.08146935199999999</v>
       </c>
       <c r="L50" t="n">
-        <v>0.009757269000000001</v>
+        <v>0.004416054</v>
       </c>
       <c r="M50" t="n">
-        <v>0.003813085</v>
+        <v>2.0743e-05</v>
       </c>
       <c r="N50" t="n">
         <v>30</v>
@@ -4003,19 +4003,19 @@
         <v>20</v>
       </c>
       <c r="I51" t="n">
-        <v>0.024733367</v>
+        <v>0.017970788</v>
       </c>
       <c r="J51" t="n">
-        <v>0.049345657</v>
+        <v>0.041636938</v>
       </c>
       <c r="K51" t="n">
-        <v>0.075201586</v>
+        <v>0.06368599699999999</v>
       </c>
       <c r="L51" t="n">
-        <v>0.014106157</v>
+        <v>0.008182039</v>
       </c>
       <c r="M51" t="n">
-        <v>0.003976322</v>
+        <v>2.2154e-05</v>
       </c>
       <c r="N51" t="n">
         <v>30</v>
@@ -4073,19 +4073,19 @@
         <v>20</v>
       </c>
       <c r="I52" t="n">
-        <v>0.024495781</v>
+        <v>0.017941556</v>
       </c>
       <c r="J52" t="n">
-        <v>0.037071195</v>
+        <v>0.030544827</v>
       </c>
       <c r="K52" t="n">
-        <v>0.054314673</v>
+        <v>0.045542174</v>
       </c>
       <c r="L52" t="n">
-        <v>0.018361393</v>
+        <v>0.011625856</v>
       </c>
       <c r="M52" t="n">
-        <v>0.003886973</v>
+        <v>1.9526e-05</v>
       </c>
       <c r="N52" t="n">
         <v>30</v>
@@ -4143,19 +4143,19 @@
         <v>20</v>
       </c>
       <c r="I53" t="n">
-        <v>0.029000584</v>
+        <v>0.021807494</v>
       </c>
       <c r="J53" t="n">
-        <v>0.079650557</v>
+        <v>0.06736858699999999</v>
       </c>
       <c r="K53" t="n">
-        <v>0.123185063</v>
+        <v>0.103989492</v>
       </c>
       <c r="L53" t="n">
-        <v>0.009944362999999999</v>
+        <v>0.004494576</v>
       </c>
       <c r="M53" t="n">
-        <v>0.003905564</v>
+        <v>2.3273e-05</v>
       </c>
       <c r="N53" t="n">
         <v>30</v>
@@ -4213,19 +4213,19 @@
         <v>20</v>
       </c>
       <c r="I54" t="n">
-        <v>0.028356383</v>
+        <v>0.023797281</v>
       </c>
       <c r="J54" t="n">
-        <v>0.065860452</v>
+        <v>0.060481909</v>
       </c>
       <c r="K54" t="n">
-        <v>0.102047652</v>
+        <v>0.09273561</v>
       </c>
       <c r="L54" t="n">
-        <v>0.01471829</v>
+        <v>0.008505547</v>
       </c>
       <c r="M54" t="n">
-        <v>0.003949461</v>
+        <v>3.0649e-05</v>
       </c>
       <c r="N54" t="n">
         <v>30</v>
@@ -4283,19 +4283,19 @@
         <v>20</v>
       </c>
       <c r="I55" t="n">
-        <v>0.028749664</v>
+        <v>0.021891005</v>
       </c>
       <c r="J55" t="n">
-        <v>0.05441048</v>
+        <v>0.046378829</v>
       </c>
       <c r="K55" t="n">
-        <v>0.080400022</v>
+        <v>0.06811658900000001</v>
       </c>
       <c r="L55" t="n">
-        <v>0.01820697</v>
+        <v>0.011573812</v>
       </c>
       <c r="M55" t="n">
-        <v>0.003889753</v>
+        <v>2.1449e-05</v>
       </c>
       <c r="N55" t="n">
         <v>30</v>
@@ -4353,19 +4353,19 @@
         <v>20</v>
       </c>
       <c r="I56" t="n">
-        <v>0.029243002</v>
+        <v>0.023940441</v>
       </c>
       <c r="J56" t="n">
-        <v>0.040751523</v>
+        <v>0.039075743</v>
       </c>
       <c r="K56" t="n">
-        <v>0.060859653</v>
+        <v>0.054400444</v>
       </c>
       <c r="L56" t="n">
-        <v>0.022886602</v>
+        <v>0.017272596</v>
       </c>
       <c r="M56" t="n">
-        <v>0.004013186</v>
+        <v>2.5838e-05</v>
       </c>
       <c r="N56" t="n">
         <v>30</v>
@@ -4423,19 +4423,19 @@
         <v>20</v>
       </c>
       <c r="I57" t="n">
-        <v>0.032656716</v>
+        <v>0.027952788</v>
       </c>
       <c r="J57" t="n">
-        <v>0.096716307</v>
+        <v>0.089168962</v>
       </c>
       <c r="K57" t="n">
-        <v>0.147397455</v>
+        <v>0.139000948</v>
       </c>
       <c r="L57" t="n">
-        <v>0.010028715</v>
+        <v>0.004987452</v>
       </c>
       <c r="M57" t="n">
-        <v>0.004002965</v>
+        <v>3.2248e-05</v>
       </c>
       <c r="N57" t="n">
         <v>30</v>
@@ -4493,19 +4493,19 @@
         <v>20</v>
       </c>
       <c r="I58" t="n">
-        <v>0.033190686</v>
+        <v>0.028493881</v>
       </c>
       <c r="J58" t="n">
-        <v>0.083748316</v>
+        <v>0.07783496299999999</v>
       </c>
       <c r="K58" t="n">
-        <v>0.125302097</v>
+        <v>0.122751571</v>
       </c>
       <c r="L58" t="n">
-        <v>0.013958285</v>
+        <v>0.008990054000000001</v>
       </c>
       <c r="M58" t="n">
-        <v>0.003877608</v>
+        <v>3.7612e-05</v>
       </c>
       <c r="N58" t="n">
         <v>30</v>
@@ -4563,19 +4563,19 @@
         <v>20</v>
       </c>
       <c r="I59" t="n">
-        <v>0.033026218</v>
+        <v>0.026130778</v>
       </c>
       <c r="J59" t="n">
-        <v>0.069022214</v>
+        <v>0.06119258</v>
       </c>
       <c r="K59" t="n">
-        <v>0.105214821</v>
+        <v>0.091950554</v>
       </c>
       <c r="L59" t="n">
-        <v>0.018366947</v>
+        <v>0.011996731</v>
       </c>
       <c r="M59" t="n">
-        <v>0.003909527</v>
+        <v>2.5675e-05</v>
       </c>
       <c r="N59" t="n">
         <v>30</v>
@@ -4633,19 +4633,19 @@
         <v>20</v>
       </c>
       <c r="I60" t="n">
-        <v>0.033501708</v>
+        <v>0.026685105</v>
       </c>
       <c r="J60" t="n">
-        <v>0.057724209</v>
+        <v>0.051376583</v>
       </c>
       <c r="K60" t="n">
-        <v>0.083334517</v>
+        <v>0.074159819</v>
       </c>
       <c r="L60" t="n">
-        <v>0.022647967</v>
+        <v>0.01593814</v>
       </c>
       <c r="M60" t="n">
-        <v>0.003899474</v>
+        <v>2.4581e-05</v>
       </c>
       <c r="N60" t="n">
         <v>30</v>
@@ -4703,19 +4703,19 @@
         <v>20</v>
       </c>
       <c r="I61" t="n">
-        <v>0.033838357</v>
+        <v>0.027600043</v>
       </c>
       <c r="J61" t="n">
-        <v>0.046298364</v>
+        <v>0.041134509</v>
       </c>
       <c r="K61" t="n">
-        <v>0.065435489</v>
+        <v>0.056847954</v>
       </c>
       <c r="L61" t="n">
-        <v>0.026715906</v>
+        <v>0.020866262</v>
       </c>
       <c r="M61" t="n">
-        <v>0.003961654</v>
+        <v>3.1862e-05</v>
       </c>
       <c r="N61" t="n">
         <v>30</v>

--- a/SchemeHIBME/SchemeAnonymousME.xlsx
+++ b/SchemeHIBME/SchemeAnonymousME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V61"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,19 +573,19 @@
         <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>0.031853963</v>
+        <v>0.031425212</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06975695</v>
+        <v>0.068652476</v>
       </c>
       <c r="K2" t="n">
-        <v>0.114656278</v>
+        <v>0.112140693</v>
       </c>
       <c r="L2" t="n">
-        <v>0.013535132</v>
+        <v>0.013042367</v>
       </c>
       <c r="M2" t="n">
-        <v>3.3615e-05</v>
+        <v>3.4406e-05</v>
       </c>
       <c r="N2" t="n">
         <v>30</v>
@@ -643,19 +643,19 @@
         <v>20</v>
       </c>
       <c r="I3" t="n">
-        <v>0.042997044</v>
+        <v>0.041088414</v>
       </c>
       <c r="J3" t="n">
-        <v>0.112243665</v>
+        <v>0.108823901</v>
       </c>
       <c r="K3" t="n">
-        <v>0.178684098</v>
+        <v>0.16924383</v>
       </c>
       <c r="L3" t="n">
-        <v>0.013598561</v>
+        <v>0.01295054</v>
       </c>
       <c r="M3" t="n">
-        <v>3.7867e-05</v>
+        <v>3.5231e-05</v>
       </c>
       <c r="N3" t="n">
         <v>30</v>
@@ -713,19 +713,19 @@
         <v>20</v>
       </c>
       <c r="I4" t="n">
-        <v>0.043414935</v>
+        <v>0.041568509</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08125030900000001</v>
+        <v>0.07785677100000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.127245726</v>
+        <v>0.121902835</v>
       </c>
       <c r="L4" t="n">
-        <v>0.024262688</v>
+        <v>0.023377978</v>
       </c>
       <c r="M4" t="n">
-        <v>3.763e-05</v>
+        <v>3.7986e-05</v>
       </c>
       <c r="N4" t="n">
         <v>30</v>
@@ -783,19 +783,19 @@
         <v>20</v>
       </c>
       <c r="I5" t="n">
-        <v>0.055933032</v>
+        <v>0.051885036</v>
       </c>
       <c r="J5" t="n">
-        <v>0.163212965</v>
+        <v>0.148930892</v>
       </c>
       <c r="K5" t="n">
-        <v>0.255291914</v>
+        <v>0.233339418</v>
       </c>
       <c r="L5" t="n">
-        <v>0.015066296</v>
+        <v>0.013138712</v>
       </c>
       <c r="M5" t="n">
-        <v>4.2532e-05</v>
+        <v>3.8495e-05</v>
       </c>
       <c r="N5" t="n">
         <v>30</v>
@@ -853,19 +853,19 @@
         <v>20</v>
       </c>
       <c r="I6" t="n">
-        <v>0.055977047</v>
+        <v>0.053930291</v>
       </c>
       <c r="J6" t="n">
-        <v>0.129337946</v>
+        <v>0.12322473</v>
       </c>
       <c r="K6" t="n">
-        <v>0.199520136</v>
+        <v>0.186667778</v>
       </c>
       <c r="L6" t="n">
-        <v>0.025803247</v>
+        <v>0.023977367</v>
       </c>
       <c r="M6" t="n">
-        <v>5.2975e-05</v>
+        <v>3.6569e-05</v>
       </c>
       <c r="N6" t="n">
         <v>30</v>
@@ -923,19 +923,19 @@
         <v>20</v>
       </c>
       <c r="I7" t="n">
-        <v>0.056422062</v>
+        <v>0.055017468</v>
       </c>
       <c r="J7" t="n">
-        <v>0.09743206</v>
+        <v>0.093153344</v>
       </c>
       <c r="K7" t="n">
-        <v>0.142452429</v>
+        <v>0.138238054</v>
       </c>
       <c r="L7" t="n">
-        <v>0.037396121</v>
+        <v>0.034919944</v>
       </c>
       <c r="M7" t="n">
-        <v>4.6977e-05</v>
+        <v>3.5943e-05</v>
       </c>
       <c r="N7" t="n">
         <v>30</v>
@@ -993,19 +993,19 @@
         <v>20</v>
       </c>
       <c r="I8" t="n">
-        <v>0.066207275</v>
+        <v>0.063365243</v>
       </c>
       <c r="J8" t="n">
-        <v>0.203232177</v>
+        <v>0.193660839</v>
       </c>
       <c r="K8" t="n">
-        <v>0.312716709</v>
+        <v>0.300280849</v>
       </c>
       <c r="L8" t="n">
-        <v>0.014004342</v>
+        <v>0.013242311</v>
       </c>
       <c r="M8" t="n">
-        <v>4.4066e-05</v>
+        <v>4.1288e-05</v>
       </c>
       <c r="N8" t="n">
         <v>30</v>
@@ -1063,19 +1063,19 @@
         <v>20</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06460115399999999</v>
+        <v>0.064978616</v>
       </c>
       <c r="J9" t="n">
-        <v>0.165689455</v>
+        <v>0.165620157</v>
       </c>
       <c r="K9" t="n">
-        <v>0.253410972</v>
+        <v>0.250819019</v>
       </c>
       <c r="L9" t="n">
-        <v>0.024370505</v>
+        <v>0.024446539</v>
       </c>
       <c r="M9" t="n">
-        <v>4.164e-05</v>
+        <v>4.1302e-05</v>
       </c>
       <c r="N9" t="n">
         <v>30</v>
@@ -1133,19 +1133,19 @@
         <v>20</v>
       </c>
       <c r="I10" t="n">
-        <v>0.067237228</v>
+        <v>0.062876986</v>
       </c>
       <c r="J10" t="n">
-        <v>0.136359404</v>
+        <v>0.130649588</v>
       </c>
       <c r="K10" t="n">
-        <v>0.204068645</v>
+        <v>0.193365205</v>
       </c>
       <c r="L10" t="n">
-        <v>0.035958238</v>
+        <v>0.034055301</v>
       </c>
       <c r="M10" t="n">
-        <v>4.4058e-05</v>
+        <v>3.8335e-05</v>
       </c>
       <c r="N10" t="n">
         <v>30</v>
@@ -1203,19 +1203,19 @@
         <v>20</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06696737</v>
+        <v>0.06416134800000001</v>
       </c>
       <c r="J11" t="n">
-        <v>0.105878934</v>
+        <v>0.101850701</v>
       </c>
       <c r="K11" t="n">
-        <v>0.15580466</v>
+        <v>0.147025144</v>
       </c>
       <c r="L11" t="n">
-        <v>0.047901035</v>
+        <v>0.044576094</v>
       </c>
       <c r="M11" t="n">
-        <v>4.0848e-05</v>
+        <v>3.5964e-05</v>
       </c>
       <c r="N11" t="n">
         <v>30</v>
@@ -1273,19 +1273,19 @@
         <v>20</v>
       </c>
       <c r="I12" t="n">
-        <v>0.075258241</v>
+        <v>0.07720293</v>
       </c>
       <c r="J12" t="n">
-        <v>0.242910426</v>
+        <v>0.244018429</v>
       </c>
       <c r="K12" t="n">
-        <v>0.375741377</v>
+        <v>0.371402173</v>
       </c>
       <c r="L12" t="n">
-        <v>0.013707151</v>
+        <v>0.013896462</v>
       </c>
       <c r="M12" t="n">
-        <v>4.3503e-05</v>
+        <v>4.4321e-05</v>
       </c>
       <c r="N12" t="n">
         <v>30</v>
@@ -1343,19 +1343,19 @@
         <v>20</v>
       </c>
       <c r="I13" t="n">
-        <v>0.07519071500000001</v>
+        <v>0.078026663</v>
       </c>
       <c r="J13" t="n">
-        <v>0.208474243</v>
+        <v>0.213372936</v>
       </c>
       <c r="K13" t="n">
-        <v>0.314706125</v>
+        <v>0.329694806</v>
       </c>
       <c r="L13" t="n">
-        <v>0.024324409</v>
+        <v>0.024621362</v>
       </c>
       <c r="M13" t="n">
-        <v>4.5633e-05</v>
+        <v>4.541e-05</v>
       </c>
       <c r="N13" t="n">
         <v>30</v>
@@ -1413,19 +1413,19 @@
         <v>20</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0760029</v>
+        <v>0.07605279700000001</v>
       </c>
       <c r="J14" t="n">
-        <v>0.178820749</v>
+        <v>0.179035315</v>
       </c>
       <c r="K14" t="n">
-        <v>0.268852284</v>
+        <v>0.272721412</v>
       </c>
       <c r="L14" t="n">
-        <v>0.035411747</v>
+        <v>0.035210001</v>
       </c>
       <c r="M14" t="n">
-        <v>4.3165e-05</v>
+        <v>4.1253e-05</v>
       </c>
       <c r="N14" t="n">
         <v>30</v>
@@ -1483,19 +1483,19 @@
         <v>20</v>
       </c>
       <c r="I15" t="n">
-        <v>0.075162013</v>
+        <v>0.07469811799999999</v>
       </c>
       <c r="J15" t="n">
-        <v>0.146344142</v>
+        <v>0.14278155</v>
       </c>
       <c r="K15" t="n">
-        <v>0.212787134</v>
+        <v>0.207726615</v>
       </c>
       <c r="L15" t="n">
-        <v>0.045344629</v>
+        <v>0.044750491</v>
       </c>
       <c r="M15" t="n">
-        <v>3.7265e-05</v>
+        <v>3.8177e-05</v>
       </c>
       <c r="N15" t="n">
         <v>30</v>
@@ -1553,19 +1553,19 @@
         <v>20</v>
       </c>
       <c r="I16" t="n">
-        <v>0.074382749</v>
+        <v>0.07331357400000001</v>
       </c>
       <c r="J16" t="n">
-        <v>0.113464419</v>
+        <v>0.110316078</v>
       </c>
       <c r="K16" t="n">
-        <v>0.159472349</v>
+        <v>0.153604544</v>
       </c>
       <c r="L16" t="n">
-        <v>0.056348091</v>
+        <v>0.054871437</v>
       </c>
       <c r="M16" t="n">
-        <v>3.9235e-05</v>
+        <v>3.524e-05</v>
       </c>
       <c r="N16" t="n">
         <v>30</v>
@@ -1623,19 +1623,19 @@
         <v>20</v>
       </c>
       <c r="I17" t="n">
-        <v>0.042328198</v>
+        <v>0.040677288</v>
       </c>
       <c r="J17" t="n">
-        <v>0.09200747500000001</v>
+        <v>0.08929091</v>
       </c>
       <c r="K17" t="n">
-        <v>0.150518829</v>
+        <v>0.148303777</v>
       </c>
       <c r="L17" t="n">
-        <v>0.017661939</v>
+        <v>0.017185764</v>
       </c>
       <c r="M17" t="n">
-        <v>3.602e-05</v>
+        <v>3.3585e-05</v>
       </c>
       <c r="N17" t="n">
         <v>34</v>
@@ -1693,19 +1693,19 @@
         <v>20</v>
       </c>
       <c r="I18" t="n">
-        <v>0.056450649</v>
+        <v>0.055012951</v>
       </c>
       <c r="J18" t="n">
-        <v>0.149336722</v>
+        <v>0.143684914</v>
       </c>
       <c r="K18" t="n">
-        <v>0.236343809</v>
+        <v>0.227691376</v>
       </c>
       <c r="L18" t="n">
-        <v>0.017600613</v>
+        <v>0.01724348</v>
       </c>
       <c r="M18" t="n">
-        <v>4.037e-05</v>
+        <v>3.8642e-05</v>
       </c>
       <c r="N18" t="n">
         <v>34</v>
@@ -1763,19 +1763,19 @@
         <v>20</v>
       </c>
       <c r="I19" t="n">
-        <v>0.056174543</v>
+        <v>0.054526236</v>
       </c>
       <c r="J19" t="n">
-        <v>0.105271159</v>
+        <v>0.102910904</v>
       </c>
       <c r="K19" t="n">
-        <v>0.16400878</v>
+        <v>0.159071958</v>
       </c>
       <c r="L19" t="n">
-        <v>0.031607593</v>
+        <v>0.030685695</v>
       </c>
       <c r="M19" t="n">
-        <v>3.7073e-05</v>
+        <v>3.5356e-05</v>
       </c>
       <c r="N19" t="n">
         <v>34</v>
@@ -1833,19 +1833,19 @@
         <v>20</v>
       </c>
       <c r="I20" t="n">
-        <v>0.07078896599999999</v>
+        <v>0.067331717</v>
       </c>
       <c r="J20" t="n">
-        <v>0.205412841</v>
+        <v>0.197229205</v>
       </c>
       <c r="K20" t="n">
-        <v>0.316650697</v>
+        <v>0.307514561</v>
       </c>
       <c r="L20" t="n">
-        <v>0.017872391</v>
+        <v>0.017314468</v>
       </c>
       <c r="M20" t="n">
-        <v>4.3317e-05</v>
+        <v>3.9168e-05</v>
       </c>
       <c r="N20" t="n">
         <v>34</v>
@@ -1903,19 +1903,19 @@
         <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>0.071070149</v>
+        <v>0.068013903</v>
       </c>
       <c r="J21" t="n">
-        <v>0.162039215</v>
+        <v>0.157056646</v>
       </c>
       <c r="K21" t="n">
-        <v>0.247897632</v>
+        <v>0.241120293</v>
       </c>
       <c r="L21" t="n">
-        <v>0.031450159</v>
+        <v>0.030872419</v>
       </c>
       <c r="M21" t="n">
-        <v>3.9787e-05</v>
+        <v>3.7563e-05</v>
       </c>
       <c r="N21" t="n">
         <v>34</v>
@@ -1973,19 +1973,19 @@
         <v>20</v>
       </c>
       <c r="I22" t="n">
-        <v>0.06949391000000001</v>
+        <v>0.067900478</v>
       </c>
       <c r="J22" t="n">
-        <v>0.119226697</v>
+        <v>0.116644564</v>
       </c>
       <c r="K22" t="n">
-        <v>0.175367391</v>
+        <v>0.172724914</v>
       </c>
       <c r="L22" t="n">
-        <v>0.045114194</v>
+        <v>0.043797203</v>
       </c>
       <c r="M22" t="n">
-        <v>3.7288e-05</v>
+        <v>3.5602e-05</v>
       </c>
       <c r="N22" t="n">
         <v>34</v>
@@ -2043,19 +2043,19 @@
         <v>20</v>
       </c>
       <c r="I23" t="n">
-        <v>0.083971487</v>
+        <v>0.081826252</v>
       </c>
       <c r="J23" t="n">
-        <v>0.259211801</v>
+        <v>0.250415268</v>
       </c>
       <c r="K23" t="n">
-        <v>0.400239917</v>
+        <v>0.385374884</v>
       </c>
       <c r="L23" t="n">
-        <v>0.017707153</v>
+        <v>0.016852782</v>
       </c>
       <c r="M23" t="n">
-        <v>4.5366e-05</v>
+        <v>4.1066e-05</v>
       </c>
       <c r="N23" t="n">
         <v>34</v>
@@ -2113,19 +2113,19 @@
         <v>20</v>
       </c>
       <c r="I24" t="n">
-        <v>0.08529956599999999</v>
+        <v>0.081545518</v>
       </c>
       <c r="J24" t="n">
-        <v>0.217177127</v>
+        <v>0.210173302</v>
       </c>
       <c r="K24" t="n">
-        <v>0.334002559</v>
+        <v>0.322731847</v>
       </c>
       <c r="L24" t="n">
-        <v>0.031858578</v>
+        <v>0.031289624</v>
       </c>
       <c r="M24" t="n">
-        <v>4.3404e-05</v>
+        <v>4.1259e-05</v>
       </c>
       <c r="N24" t="n">
         <v>34</v>
@@ -2183,19 +2183,19 @@
         <v>20</v>
       </c>
       <c r="I25" t="n">
-        <v>0.085069175</v>
+        <v>0.081955391</v>
       </c>
       <c r="J25" t="n">
-        <v>0.177398619</v>
+        <v>0.170143689</v>
       </c>
       <c r="K25" t="n">
-        <v>0.262502181</v>
+        <v>0.254781134</v>
       </c>
       <c r="L25" t="n">
-        <v>0.04594072</v>
+        <v>0.044128998</v>
       </c>
       <c r="M25" t="n">
-        <v>4.2281e-05</v>
+        <v>3.6903e-05</v>
       </c>
       <c r="N25" t="n">
         <v>34</v>
@@ -2253,19 +2253,19 @@
         <v>20</v>
       </c>
       <c r="I26" t="n">
-        <v>0.085473718</v>
+        <v>0.082776927</v>
       </c>
       <c r="J26" t="n">
-        <v>0.135656143</v>
+        <v>0.132303159</v>
       </c>
       <c r="K26" t="n">
-        <v>0.194054531</v>
+        <v>0.189372091</v>
       </c>
       <c r="L26" t="n">
-        <v>0.059715154</v>
+        <v>0.058317924</v>
       </c>
       <c r="M26" t="n">
-        <v>4.5094e-05</v>
+        <v>3.7185e-05</v>
       </c>
       <c r="N26" t="n">
         <v>34</v>
@@ -2323,19 +2323,19 @@
         <v>20</v>
       </c>
       <c r="I27" t="n">
-        <v>0.101095851</v>
+        <v>0.09908257199999999</v>
       </c>
       <c r="J27" t="n">
-        <v>0.325569162</v>
+        <v>0.311968353</v>
       </c>
       <c r="K27" t="n">
-        <v>0.498336843</v>
+        <v>0.480246823</v>
       </c>
       <c r="L27" t="n">
-        <v>0.018077384</v>
+        <v>0.017793477</v>
       </c>
       <c r="M27" t="n">
-        <v>5.4252e-05</v>
+        <v>4.5354e-05</v>
       </c>
       <c r="N27" t="n">
         <v>34</v>
@@ -2393,19 +2393,19 @@
         <v>20</v>
       </c>
       <c r="I28" t="n">
-        <v>0.102633326</v>
+        <v>0.096300437</v>
       </c>
       <c r="J28" t="n">
-        <v>0.28650648</v>
+        <v>0.265939679</v>
       </c>
       <c r="K28" t="n">
-        <v>0.435771383</v>
+        <v>0.403265714</v>
       </c>
       <c r="L28" t="n">
-        <v>0.032669339</v>
+        <v>0.030599288</v>
       </c>
       <c r="M28" t="n">
-        <v>5.0974e-05</v>
+        <v>4.3744e-05</v>
       </c>
       <c r="N28" t="n">
         <v>34</v>
@@ -2463,19 +2463,19 @@
         <v>20</v>
       </c>
       <c r="I29" t="n">
-        <v>0.101023536</v>
+        <v>0.10229363</v>
       </c>
       <c r="J29" t="n">
-        <v>0.240433809</v>
+        <v>0.242495497</v>
       </c>
       <c r="K29" t="n">
-        <v>0.34941732</v>
+        <v>0.365268632</v>
       </c>
       <c r="L29" t="n">
-        <v>0.046401653</v>
+        <v>0.047951537</v>
       </c>
       <c r="M29" t="n">
-        <v>4.6833e-05</v>
+        <v>4.8955e-05</v>
       </c>
       <c r="N29" t="n">
         <v>34</v>
@@ -2533,19 +2533,19 @@
         <v>20</v>
       </c>
       <c r="I30" t="n">
-        <v>0.10103356</v>
+        <v>0.098584795</v>
       </c>
       <c r="J30" t="n">
-        <v>0.194646611</v>
+        <v>0.191013014</v>
       </c>
       <c r="K30" t="n">
-        <v>0.283578076</v>
+        <v>0.275928179</v>
       </c>
       <c r="L30" t="n">
-        <v>0.060925321</v>
+        <v>0.060775298</v>
       </c>
       <c r="M30" t="n">
-        <v>4.499e-05</v>
+        <v>4.3556e-05</v>
       </c>
       <c r="N30" t="n">
         <v>34</v>
@@ -2603,19 +2603,19 @@
         <v>20</v>
       </c>
       <c r="I31" t="n">
-        <v>0.101151892</v>
+        <v>0.09763788299999999</v>
       </c>
       <c r="J31" t="n">
-        <v>0.155054212</v>
+        <v>0.148346801</v>
       </c>
       <c r="K31" t="n">
-        <v>0.210754994</v>
+        <v>0.20563237</v>
       </c>
       <c r="L31" t="n">
-        <v>0.076559036</v>
+        <v>0.07339773600000001</v>
       </c>
       <c r="M31" t="n">
-        <v>4.7281e-05</v>
+        <v>3.6306e-05</v>
       </c>
       <c r="N31" t="n">
         <v>34</v>
@@ -2673,19 +2673,19 @@
         <v>20</v>
       </c>
       <c r="I32" t="n">
-        <v>0.052837565</v>
+        <v>0.052358586</v>
       </c>
       <c r="J32" t="n">
-        <v>0.116575626</v>
+        <v>0.115270467</v>
       </c>
       <c r="K32" t="n">
-        <v>0.19099569</v>
+        <v>0.187235655</v>
       </c>
       <c r="L32" t="n">
-        <v>0.022394382</v>
+        <v>0.021981611</v>
       </c>
       <c r="M32" t="n">
-        <v>4.444e-05</v>
+        <v>3.7832e-05</v>
       </c>
       <c r="N32" t="n">
         <v>42</v>
@@ -2743,19 +2743,19 @@
         <v>20</v>
       </c>
       <c r="I33" t="n">
-        <v>0.07134679200000001</v>
+        <v>0.07044849</v>
       </c>
       <c r="J33" t="n">
-        <v>0.188467516</v>
+        <v>0.184315128</v>
       </c>
       <c r="K33" t="n">
-        <v>0.298063851</v>
+        <v>0.293111415</v>
       </c>
       <c r="L33" t="n">
-        <v>0.022394981</v>
+        <v>0.02230978</v>
       </c>
       <c r="M33" t="n">
-        <v>4.2914e-05</v>
+        <v>4.262e-05</v>
       </c>
       <c r="N33" t="n">
         <v>42</v>
@@ -2813,19 +2813,19 @@
         <v>20</v>
       </c>
       <c r="I34" t="n">
-        <v>0.07049573200000001</v>
+        <v>0.07194313200000001</v>
       </c>
       <c r="J34" t="n">
-        <v>0.135195031</v>
+        <v>0.136554971</v>
       </c>
       <c r="K34" t="n">
-        <v>0.210606666</v>
+        <v>0.211863952</v>
       </c>
       <c r="L34" t="n">
-        <v>0.039986399</v>
+        <v>0.040280072</v>
       </c>
       <c r="M34" t="n">
-        <v>4.0851e-05</v>
+        <v>4.585e-05</v>
       </c>
       <c r="N34" t="n">
         <v>42</v>
@@ -2883,19 +2883,19 @@
         <v>20</v>
       </c>
       <c r="I35" t="n">
-        <v>0.088329699</v>
+        <v>0.092742907</v>
       </c>
       <c r="J35" t="n">
-        <v>0.254980941</v>
+        <v>0.272330216</v>
       </c>
       <c r="K35" t="n">
-        <v>0.399894504</v>
+        <v>0.421116791</v>
       </c>
       <c r="L35" t="n">
-        <v>0.022087296</v>
+        <v>0.022869334</v>
       </c>
       <c r="M35" t="n">
-        <v>5.0888e-05</v>
+        <v>4.8145e-05</v>
       </c>
       <c r="N35" t="n">
         <v>42</v>
@@ -2953,19 +2953,19 @@
         <v>20</v>
       </c>
       <c r="I36" t="n">
-        <v>0.087586969</v>
+        <v>0.093682952</v>
       </c>
       <c r="J36" t="n">
-        <v>0.200702391</v>
+        <v>0.217335903</v>
       </c>
       <c r="K36" t="n">
-        <v>0.306843001</v>
+        <v>0.327484163</v>
       </c>
       <c r="L36" t="n">
-        <v>0.038747569</v>
+        <v>0.043314053</v>
       </c>
       <c r="M36" t="n">
-        <v>4.1822e-05</v>
+        <v>5.0644e-05</v>
       </c>
       <c r="N36" t="n">
         <v>42</v>
@@ -3023,19 +3023,19 @@
         <v>20</v>
       </c>
       <c r="I37" t="n">
-        <v>0.092291182</v>
+        <v>0.09660413700000001</v>
       </c>
       <c r="J37" t="n">
-        <v>0.155032493</v>
+        <v>0.1664429</v>
       </c>
       <c r="K37" t="n">
-        <v>0.233797216</v>
+        <v>0.249535626</v>
       </c>
       <c r="L37" t="n">
-        <v>0.059718959</v>
+        <v>0.063312202</v>
       </c>
       <c r="M37" t="n">
-        <v>4.5169e-05</v>
+        <v>4.7038e-05</v>
       </c>
       <c r="N37" t="n">
         <v>42</v>
@@ -3093,19 +3093,19 @@
         <v>20</v>
       </c>
       <c r="I38" t="n">
-        <v>0.108738182</v>
+        <v>0.113596622</v>
       </c>
       <c r="J38" t="n">
-        <v>0.337621567</v>
+        <v>0.348394534</v>
       </c>
       <c r="K38" t="n">
-        <v>0.511974775</v>
+        <v>0.5283814449999999</v>
       </c>
       <c r="L38" t="n">
-        <v>0.022731222</v>
+        <v>0.023790459</v>
       </c>
       <c r="M38" t="n">
-        <v>5.2271e-05</v>
+        <v>5.2635e-05</v>
       </c>
       <c r="N38" t="n">
         <v>42</v>
@@ -3163,19 +3163,19 @@
         <v>20</v>
       </c>
       <c r="I39" t="n">
-        <v>0.105751308</v>
+        <v>0.110465058</v>
       </c>
       <c r="J39" t="n">
-        <v>0.272586102</v>
+        <v>0.287661507</v>
       </c>
       <c r="K39" t="n">
-        <v>0.415428117</v>
+        <v>0.431377875</v>
       </c>
       <c r="L39" t="n">
-        <v>0.03939429</v>
+        <v>0.041908387</v>
       </c>
       <c r="M39" t="n">
-        <v>4.4452e-05</v>
+        <v>5.1305e-05</v>
       </c>
       <c r="N39" t="n">
         <v>42</v>
@@ -3233,19 +3233,19 @@
         <v>20</v>
       </c>
       <c r="I40" t="n">
-        <v>0.107941206</v>
+        <v>0.107682342</v>
       </c>
       <c r="J40" t="n">
-        <v>0.226777307</v>
+        <v>0.227472691</v>
       </c>
       <c r="K40" t="n">
-        <v>0.34169838</v>
+        <v>0.340841457</v>
       </c>
       <c r="L40" t="n">
-        <v>0.059451672</v>
+        <v>0.057565392</v>
       </c>
       <c r="M40" t="n">
-        <v>4.672e-05</v>
+        <v>4.2109e-05</v>
       </c>
       <c r="N40" t="n">
         <v>42</v>
@@ -3303,19 +3303,19 @@
         <v>20</v>
       </c>
       <c r="I41" t="n">
-        <v>0.107811747</v>
+        <v>0.110144729</v>
       </c>
       <c r="J41" t="n">
-        <v>0.171788619</v>
+        <v>0.172316921</v>
       </c>
       <c r="K41" t="n">
-        <v>0.249933268</v>
+        <v>0.247324374</v>
       </c>
       <c r="L41" t="n">
-        <v>0.076839612</v>
+        <v>0.07724249499999999</v>
       </c>
       <c r="M41" t="n">
-        <v>3.9566e-05</v>
+        <v>4.1242e-05</v>
       </c>
       <c r="N41" t="n">
         <v>42</v>
@@ -3373,19 +3373,19 @@
         <v>20</v>
       </c>
       <c r="I42" t="n">
-        <v>0.123349453</v>
+        <v>0.123883162</v>
       </c>
       <c r="J42" t="n">
-        <v>0.400835353</v>
+        <v>0.4005556</v>
       </c>
       <c r="K42" t="n">
-        <v>0.61778141</v>
+        <v>0.609370185</v>
       </c>
       <c r="L42" t="n">
-        <v>0.022234297</v>
+        <v>0.022073028</v>
       </c>
       <c r="M42" t="n">
-        <v>5.3444e-05</v>
+        <v>4.8119e-05</v>
       </c>
       <c r="N42" t="n">
         <v>42</v>
@@ -3443,19 +3443,19 @@
         <v>20</v>
       </c>
       <c r="I43" t="n">
-        <v>0.126794352</v>
+        <v>0.122021468</v>
       </c>
       <c r="J43" t="n">
-        <v>0.348675182</v>
+        <v>0.343234653</v>
       </c>
       <c r="K43" t="n">
-        <v>0.530625402</v>
+        <v>0.518905315</v>
       </c>
       <c r="L43" t="n">
-        <v>0.04002003</v>
+        <v>0.039113536</v>
       </c>
       <c r="M43" t="n">
-        <v>6.161200000000001e-05</v>
+        <v>4.5552e-05</v>
       </c>
       <c r="N43" t="n">
         <v>42</v>
@@ -3513,19 +3513,19 @@
         <v>20</v>
       </c>
       <c r="I44" t="n">
-        <v>0.123060476</v>
+        <v>0.120277</v>
       </c>
       <c r="J44" t="n">
-        <v>0.292528603</v>
+        <v>0.292159409</v>
       </c>
       <c r="K44" t="n">
-        <v>0.439623978</v>
+        <v>0.432547233</v>
       </c>
       <c r="L44" t="n">
-        <v>0.056255811</v>
+        <v>0.056727595</v>
       </c>
       <c r="M44" t="n">
-        <v>4.6595e-05</v>
+        <v>4.1666e-05</v>
       </c>
       <c r="N44" t="n">
         <v>42</v>
@@ -3583,19 +3583,19 @@
         <v>20</v>
       </c>
       <c r="I45" t="n">
-        <v>0.124531361</v>
+        <v>0.124851952</v>
       </c>
       <c r="J45" t="n">
-        <v>0.240691602</v>
+        <v>0.237014372</v>
       </c>
       <c r="K45" t="n">
-        <v>0.348659834</v>
+        <v>0.347115128</v>
       </c>
       <c r="L45" t="n">
-        <v>0.076433998</v>
+        <v>0.074264961</v>
       </c>
       <c r="M45" t="n">
-        <v>4.404e-05</v>
+        <v>4.0646e-05</v>
       </c>
       <c r="N45" t="n">
         <v>42</v>
@@ -3653,19 +3653,19 @@
         <v>20</v>
       </c>
       <c r="I46" t="n">
-        <v>0.120950253</v>
+        <v>0.121975362</v>
       </c>
       <c r="J46" t="n">
-        <v>0.184284643</v>
+        <v>0.181639916</v>
       </c>
       <c r="K46" t="n">
-        <v>0.2584865</v>
+        <v>0.254630537</v>
       </c>
       <c r="L46" t="n">
-        <v>0.090993991</v>
+        <v>0.092359103</v>
       </c>
       <c r="M46" t="n">
-        <v>3.8921e-05</v>
+        <v>3.7877e-05</v>
       </c>
       <c r="N46" t="n">
         <v>42</v>
@@ -3698,7 +3698,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SS512</t>
+          <t>BN254</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3723,1026 +3723,46 @@
         <v>20</v>
       </c>
       <c r="I47" t="n">
-        <v>0.010908125</v>
+        <v>0.015823449</v>
       </c>
       <c r="J47" t="n">
-        <v>0.024244793</v>
+        <v>0.033888927</v>
       </c>
       <c r="K47" t="n">
-        <v>0.03887208</v>
+        <v>0.056235463</v>
       </c>
       <c r="L47" t="n">
-        <v>0.00457444</v>
+        <v>0.011975117</v>
       </c>
       <c r="M47" t="n">
-        <v>1.9858e-05</v>
+        <v>8.217500000000001e-05</v>
       </c>
       <c r="N47" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="O47" t="n">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="P47" t="n">
         <v>90</v>
       </c>
       <c r="Q47" t="n">
-        <v>174</v>
+        <v>514</v>
       </c>
       <c r="R47" t="n">
-        <v>1620</v>
+        <v>1444</v>
       </c>
       <c r="S47" t="n">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="T47" t="n">
-        <v>2250</v>
+        <v>2206</v>
       </c>
       <c r="U47" t="n">
-        <v>2250</v>
+        <v>2206</v>
       </c>
       <c r="V47" t="n">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>SS512</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>512</v>
-      </c>
-      <c r="C48" t="n">
-        <v>15</v>
-      </c>
-      <c r="D48" t="n">
-        <v>5</v>
-      </c>
-      <c r="E48" t="n">
-        <v>20</v>
-      </c>
-      <c r="F48" t="n">
-        <v>20</v>
-      </c>
-      <c r="G48" t="n">
-        <v>20</v>
-      </c>
-      <c r="H48" t="n">
-        <v>20</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.015081897</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.03893336</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.06195058</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.004611105</v>
-      </c>
-      <c r="M48" t="n">
-        <v>2.3425e-05</v>
-      </c>
-      <c r="N48" t="n">
-        <v>30</v>
-      </c>
-      <c r="O48" t="n">
-        <v>90</v>
-      </c>
-      <c r="P48" t="n">
-        <v>90</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>174</v>
-      </c>
-      <c r="R48" t="n">
-        <v>2070</v>
-      </c>
-      <c r="S48" t="n">
-        <v>150</v>
-      </c>
-      <c r="T48" t="n">
-        <v>4050</v>
-      </c>
-      <c r="U48" t="n">
-        <v>4050</v>
-      </c>
-      <c r="V48" t="n">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>SS512</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>512</v>
-      </c>
-      <c r="C49" t="n">
-        <v>15</v>
-      </c>
-      <c r="D49" t="n">
-        <v>10</v>
-      </c>
-      <c r="E49" t="n">
-        <v>20</v>
-      </c>
-      <c r="F49" t="n">
-        <v>20</v>
-      </c>
-      <c r="G49" t="n">
-        <v>20</v>
-      </c>
-      <c r="H49" t="n">
-        <v>20</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.014613855</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.027486571</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.043104302</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.008090587999999999</v>
-      </c>
-      <c r="M49" t="n">
-        <v>2.1115e-05</v>
-      </c>
-      <c r="N49" t="n">
-        <v>30</v>
-      </c>
-      <c r="O49" t="n">
-        <v>90</v>
-      </c>
-      <c r="P49" t="n">
-        <v>90</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>174</v>
-      </c>
-      <c r="R49" t="n">
-        <v>2070</v>
-      </c>
-      <c r="S49" t="n">
-        <v>150</v>
-      </c>
-      <c r="T49" t="n">
-        <v>2250</v>
-      </c>
-      <c r="U49" t="n">
-        <v>2250</v>
-      </c>
-      <c r="V49" t="n">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>SS512</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>512</v>
-      </c>
-      <c r="C50" t="n">
-        <v>20</v>
-      </c>
-      <c r="D50" t="n">
-        <v>5</v>
-      </c>
-      <c r="E50" t="n">
-        <v>20</v>
-      </c>
-      <c r="F50" t="n">
-        <v>20</v>
-      </c>
-      <c r="G50" t="n">
-        <v>20</v>
-      </c>
-      <c r="H50" t="n">
-        <v>20</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.017871559</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.051627684</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.08146935199999999</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.004416054</v>
-      </c>
-      <c r="M50" t="n">
-        <v>2.0743e-05</v>
-      </c>
-      <c r="N50" t="n">
-        <v>30</v>
-      </c>
-      <c r="O50" t="n">
-        <v>90</v>
-      </c>
-      <c r="P50" t="n">
-        <v>90</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>174</v>
-      </c>
-      <c r="R50" t="n">
-        <v>2520</v>
-      </c>
-      <c r="S50" t="n">
-        <v>150</v>
-      </c>
-      <c r="T50" t="n">
-        <v>5850</v>
-      </c>
-      <c r="U50" t="n">
-        <v>5850</v>
-      </c>
-      <c r="V50" t="n">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>SS512</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>512</v>
-      </c>
-      <c r="C51" t="n">
-        <v>20</v>
-      </c>
-      <c r="D51" t="n">
-        <v>10</v>
-      </c>
-      <c r="E51" t="n">
-        <v>20</v>
-      </c>
-      <c r="F51" t="n">
-        <v>20</v>
-      </c>
-      <c r="G51" t="n">
-        <v>20</v>
-      </c>
-      <c r="H51" t="n">
-        <v>20</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.017970788</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.041636938</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.06368599699999999</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0.008182039</v>
-      </c>
-      <c r="M51" t="n">
-        <v>2.2154e-05</v>
-      </c>
-      <c r="N51" t="n">
-        <v>30</v>
-      </c>
-      <c r="O51" t="n">
-        <v>90</v>
-      </c>
-      <c r="P51" t="n">
-        <v>90</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>174</v>
-      </c>
-      <c r="R51" t="n">
-        <v>2520</v>
-      </c>
-      <c r="S51" t="n">
-        <v>150</v>
-      </c>
-      <c r="T51" t="n">
-        <v>4050</v>
-      </c>
-      <c r="U51" t="n">
-        <v>4050</v>
-      </c>
-      <c r="V51" t="n">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>SS512</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>512</v>
-      </c>
-      <c r="C52" t="n">
-        <v>20</v>
-      </c>
-      <c r="D52" t="n">
-        <v>15</v>
-      </c>
-      <c r="E52" t="n">
-        <v>20</v>
-      </c>
-      <c r="F52" t="n">
-        <v>20</v>
-      </c>
-      <c r="G52" t="n">
-        <v>20</v>
-      </c>
-      <c r="H52" t="n">
-        <v>20</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.017941556</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.030544827</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.045542174</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0.011625856</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.9526e-05</v>
-      </c>
-      <c r="N52" t="n">
-        <v>30</v>
-      </c>
-      <c r="O52" t="n">
-        <v>90</v>
-      </c>
-      <c r="P52" t="n">
-        <v>90</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>174</v>
-      </c>
-      <c r="R52" t="n">
-        <v>2520</v>
-      </c>
-      <c r="S52" t="n">
-        <v>150</v>
-      </c>
-      <c r="T52" t="n">
-        <v>2250</v>
-      </c>
-      <c r="U52" t="n">
-        <v>2250</v>
-      </c>
-      <c r="V52" t="n">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>SS512</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>512</v>
-      </c>
-      <c r="C53" t="n">
-        <v>25</v>
-      </c>
-      <c r="D53" t="n">
-        <v>5</v>
-      </c>
-      <c r="E53" t="n">
-        <v>20</v>
-      </c>
-      <c r="F53" t="n">
-        <v>20</v>
-      </c>
-      <c r="G53" t="n">
-        <v>20</v>
-      </c>
-      <c r="H53" t="n">
-        <v>20</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.021807494</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.06736858699999999</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.103989492</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0.004494576</v>
-      </c>
-      <c r="M53" t="n">
-        <v>2.3273e-05</v>
-      </c>
-      <c r="N53" t="n">
-        <v>30</v>
-      </c>
-      <c r="O53" t="n">
-        <v>90</v>
-      </c>
-      <c r="P53" t="n">
-        <v>90</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>174</v>
-      </c>
-      <c r="R53" t="n">
-        <v>2970</v>
-      </c>
-      <c r="S53" t="n">
-        <v>150</v>
-      </c>
-      <c r="T53" t="n">
-        <v>7650</v>
-      </c>
-      <c r="U53" t="n">
-        <v>7650</v>
-      </c>
-      <c r="V53" t="n">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>SS512</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>512</v>
-      </c>
-      <c r="C54" t="n">
-        <v>25</v>
-      </c>
-      <c r="D54" t="n">
-        <v>10</v>
-      </c>
-      <c r="E54" t="n">
-        <v>20</v>
-      </c>
-      <c r="F54" t="n">
-        <v>20</v>
-      </c>
-      <c r="G54" t="n">
-        <v>20</v>
-      </c>
-      <c r="H54" t="n">
-        <v>20</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0.023797281</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.060481909</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.09273561</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0.008505547</v>
-      </c>
-      <c r="M54" t="n">
-        <v>3.0649e-05</v>
-      </c>
-      <c r="N54" t="n">
-        <v>30</v>
-      </c>
-      <c r="O54" t="n">
-        <v>90</v>
-      </c>
-      <c r="P54" t="n">
-        <v>90</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>174</v>
-      </c>
-      <c r="R54" t="n">
-        <v>2970</v>
-      </c>
-      <c r="S54" t="n">
-        <v>150</v>
-      </c>
-      <c r="T54" t="n">
-        <v>5850</v>
-      </c>
-      <c r="U54" t="n">
-        <v>5850</v>
-      </c>
-      <c r="V54" t="n">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>SS512</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>512</v>
-      </c>
-      <c r="C55" t="n">
-        <v>25</v>
-      </c>
-      <c r="D55" t="n">
-        <v>15</v>
-      </c>
-      <c r="E55" t="n">
-        <v>20</v>
-      </c>
-      <c r="F55" t="n">
-        <v>20</v>
-      </c>
-      <c r="G55" t="n">
-        <v>20</v>
-      </c>
-      <c r="H55" t="n">
-        <v>20</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.021891005</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.046378829</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.06811658900000001</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0.011573812</v>
-      </c>
-      <c r="M55" t="n">
-        <v>2.1449e-05</v>
-      </c>
-      <c r="N55" t="n">
-        <v>30</v>
-      </c>
-      <c r="O55" t="n">
-        <v>90</v>
-      </c>
-      <c r="P55" t="n">
-        <v>90</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>174</v>
-      </c>
-      <c r="R55" t="n">
-        <v>2970</v>
-      </c>
-      <c r="S55" t="n">
-        <v>150</v>
-      </c>
-      <c r="T55" t="n">
-        <v>4050</v>
-      </c>
-      <c r="U55" t="n">
-        <v>4050</v>
-      </c>
-      <c r="V55" t="n">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>SS512</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>512</v>
-      </c>
-      <c r="C56" t="n">
-        <v>25</v>
-      </c>
-      <c r="D56" t="n">
-        <v>20</v>
-      </c>
-      <c r="E56" t="n">
-        <v>20</v>
-      </c>
-      <c r="F56" t="n">
-        <v>20</v>
-      </c>
-      <c r="G56" t="n">
-        <v>20</v>
-      </c>
-      <c r="H56" t="n">
-        <v>20</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.023940441</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.039075743</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.054400444</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0.017272596</v>
-      </c>
-      <c r="M56" t="n">
-        <v>2.5838e-05</v>
-      </c>
-      <c r="N56" t="n">
-        <v>30</v>
-      </c>
-      <c r="O56" t="n">
-        <v>90</v>
-      </c>
-      <c r="P56" t="n">
-        <v>90</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>174</v>
-      </c>
-      <c r="R56" t="n">
-        <v>2970</v>
-      </c>
-      <c r="S56" t="n">
-        <v>150</v>
-      </c>
-      <c r="T56" t="n">
-        <v>2250</v>
-      </c>
-      <c r="U56" t="n">
-        <v>2250</v>
-      </c>
-      <c r="V56" t="n">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>SS512</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>512</v>
-      </c>
-      <c r="C57" t="n">
-        <v>30</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5</v>
-      </c>
-      <c r="E57" t="n">
-        <v>20</v>
-      </c>
-      <c r="F57" t="n">
-        <v>20</v>
-      </c>
-      <c r="G57" t="n">
-        <v>20</v>
-      </c>
-      <c r="H57" t="n">
-        <v>20</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0.027952788</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.089168962</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.139000948</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0.004987452</v>
-      </c>
-      <c r="M57" t="n">
-        <v>3.2248e-05</v>
-      </c>
-      <c r="N57" t="n">
-        <v>30</v>
-      </c>
-      <c r="O57" t="n">
-        <v>90</v>
-      </c>
-      <c r="P57" t="n">
-        <v>90</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>174</v>
-      </c>
-      <c r="R57" t="n">
-        <v>3420</v>
-      </c>
-      <c r="S57" t="n">
-        <v>150</v>
-      </c>
-      <c r="T57" t="n">
-        <v>9450</v>
-      </c>
-      <c r="U57" t="n">
-        <v>9450</v>
-      </c>
-      <c r="V57" t="n">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>SS512</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>512</v>
-      </c>
-      <c r="C58" t="n">
-        <v>30</v>
-      </c>
-      <c r="D58" t="n">
-        <v>10</v>
-      </c>
-      <c r="E58" t="n">
-        <v>20</v>
-      </c>
-      <c r="F58" t="n">
-        <v>20</v>
-      </c>
-      <c r="G58" t="n">
-        <v>20</v>
-      </c>
-      <c r="H58" t="n">
-        <v>20</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0.028493881</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.07783496299999999</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.122751571</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0.008990054000000001</v>
-      </c>
-      <c r="M58" t="n">
-        <v>3.7612e-05</v>
-      </c>
-      <c r="N58" t="n">
-        <v>30</v>
-      </c>
-      <c r="O58" t="n">
-        <v>90</v>
-      </c>
-      <c r="P58" t="n">
-        <v>90</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>174</v>
-      </c>
-      <c r="R58" t="n">
-        <v>3420</v>
-      </c>
-      <c r="S58" t="n">
-        <v>150</v>
-      </c>
-      <c r="T58" t="n">
-        <v>7650</v>
-      </c>
-      <c r="U58" t="n">
-        <v>7650</v>
-      </c>
-      <c r="V58" t="n">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>SS512</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>512</v>
-      </c>
-      <c r="C59" t="n">
-        <v>30</v>
-      </c>
-      <c r="D59" t="n">
-        <v>15</v>
-      </c>
-      <c r="E59" t="n">
-        <v>20</v>
-      </c>
-      <c r="F59" t="n">
-        <v>20</v>
-      </c>
-      <c r="G59" t="n">
-        <v>20</v>
-      </c>
-      <c r="H59" t="n">
-        <v>20</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0.026130778</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.06119258</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.091950554</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0.011996731</v>
-      </c>
-      <c r="M59" t="n">
-        <v>2.5675e-05</v>
-      </c>
-      <c r="N59" t="n">
-        <v>30</v>
-      </c>
-      <c r="O59" t="n">
-        <v>90</v>
-      </c>
-      <c r="P59" t="n">
-        <v>90</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>174</v>
-      </c>
-      <c r="R59" t="n">
-        <v>3420</v>
-      </c>
-      <c r="S59" t="n">
-        <v>150</v>
-      </c>
-      <c r="T59" t="n">
-        <v>5850</v>
-      </c>
-      <c r="U59" t="n">
-        <v>5850</v>
-      </c>
-      <c r="V59" t="n">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>SS512</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>512</v>
-      </c>
-      <c r="C60" t="n">
-        <v>30</v>
-      </c>
-      <c r="D60" t="n">
-        <v>20</v>
-      </c>
-      <c r="E60" t="n">
-        <v>20</v>
-      </c>
-      <c r="F60" t="n">
-        <v>20</v>
-      </c>
-      <c r="G60" t="n">
-        <v>20</v>
-      </c>
-      <c r="H60" t="n">
-        <v>20</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0.026685105</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.051376583</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.074159819</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0.01593814</v>
-      </c>
-      <c r="M60" t="n">
-        <v>2.4581e-05</v>
-      </c>
-      <c r="N60" t="n">
-        <v>30</v>
-      </c>
-      <c r="O60" t="n">
-        <v>90</v>
-      </c>
-      <c r="P60" t="n">
-        <v>90</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>174</v>
-      </c>
-      <c r="R60" t="n">
-        <v>3420</v>
-      </c>
-      <c r="S60" t="n">
-        <v>150</v>
-      </c>
-      <c r="T60" t="n">
-        <v>4050</v>
-      </c>
-      <c r="U60" t="n">
-        <v>4050</v>
-      </c>
-      <c r="V60" t="n">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>SS512</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>512</v>
-      </c>
-      <c r="C61" t="n">
-        <v>30</v>
-      </c>
-      <c r="D61" t="n">
-        <v>25</v>
-      </c>
-      <c r="E61" t="n">
-        <v>20</v>
-      </c>
-      <c r="F61" t="n">
-        <v>20</v>
-      </c>
-      <c r="G61" t="n">
-        <v>20</v>
-      </c>
-      <c r="H61" t="n">
-        <v>20</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0.027600043</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.041134509</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.056847954</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0.020866262</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3.1862e-05</v>
-      </c>
-      <c r="N61" t="n">
-        <v>30</v>
-      </c>
-      <c r="O61" t="n">
-        <v>90</v>
-      </c>
-      <c r="P61" t="n">
-        <v>90</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>174</v>
-      </c>
-      <c r="R61" t="n">
-        <v>3420</v>
-      </c>
-      <c r="S61" t="n">
-        <v>150</v>
-      </c>
-      <c r="T61" t="n">
-        <v>2250</v>
-      </c>
-      <c r="U61" t="n">
-        <v>2250</v>
-      </c>
-      <c r="V61" t="n">
-        <v>444</v>
+        <v>696</v>
       </c>
     </row>
   </sheetData>

--- a/SchemeHIBME/SchemeAnonymousME.xlsx
+++ b/SchemeHIBME/SchemeAnonymousME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V47"/>
+  <dimension ref="A1:V151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3723,19 +3723,19 @@
         <v>20</v>
       </c>
       <c r="I47" t="n">
-        <v>0.015823449</v>
+        <v>0.015513655</v>
       </c>
       <c r="J47" t="n">
-        <v>0.033888927</v>
+        <v>0.03383153</v>
       </c>
       <c r="K47" t="n">
-        <v>0.056235463</v>
+        <v>0.055679132</v>
       </c>
       <c r="L47" t="n">
-        <v>0.011975117</v>
+        <v>0.011570647</v>
       </c>
       <c r="M47" t="n">
-        <v>8.217500000000001e-05</v>
+        <v>7.804e-05</v>
       </c>
       <c r="N47" t="n">
         <v>46</v>
@@ -3763,6 +3763,7286 @@
       </c>
       <c r="V47" t="n">
         <v>696</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>BN254</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>512</v>
+      </c>
+      <c r="C48" t="n">
+        <v>15</v>
+      </c>
+      <c r="D48" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" t="n">
+        <v>20</v>
+      </c>
+      <c r="F48" t="n">
+        <v>20</v>
+      </c>
+      <c r="G48" t="n">
+        <v>20</v>
+      </c>
+      <c r="H48" t="n">
+        <v>20</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.021327822</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.056250822</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.08953989599999999</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.011770134</v>
+      </c>
+      <c r="M48" t="n">
+        <v>8.6037e-05</v>
+      </c>
+      <c r="N48" t="n">
+        <v>46</v>
+      </c>
+      <c r="O48" t="n">
+        <v>46</v>
+      </c>
+      <c r="P48" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>514</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1894</v>
+      </c>
+      <c r="S48" t="n">
+        <v>182</v>
+      </c>
+      <c r="T48" t="n">
+        <v>4006</v>
+      </c>
+      <c r="U48" t="n">
+        <v>4006</v>
+      </c>
+      <c r="V48" t="n">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>BN254</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>512</v>
+      </c>
+      <c r="C49" t="n">
+        <v>15</v>
+      </c>
+      <c r="D49" t="n">
+        <v>10</v>
+      </c>
+      <c r="E49" t="n">
+        <v>20</v>
+      </c>
+      <c r="F49" t="n">
+        <v>20</v>
+      </c>
+      <c r="G49" t="n">
+        <v>20</v>
+      </c>
+      <c r="H49" t="n">
+        <v>20</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.022466531</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.04215214</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.06577475300000001</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.017907212</v>
+      </c>
+      <c r="M49" t="n">
+        <v>9.4437e-05</v>
+      </c>
+      <c r="N49" t="n">
+        <v>46</v>
+      </c>
+      <c r="O49" t="n">
+        <v>46</v>
+      </c>
+      <c r="P49" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>514</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1894</v>
+      </c>
+      <c r="S49" t="n">
+        <v>182</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2206</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2206</v>
+      </c>
+      <c r="V49" t="n">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>BN254</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>512</v>
+      </c>
+      <c r="C50" t="n">
+        <v>20</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5</v>
+      </c>
+      <c r="E50" t="n">
+        <v>20</v>
+      </c>
+      <c r="F50" t="n">
+        <v>20</v>
+      </c>
+      <c r="G50" t="n">
+        <v>20</v>
+      </c>
+      <c r="H50" t="n">
+        <v>20</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.027128237</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.076763279</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.121587578</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.011898927</v>
+      </c>
+      <c r="M50" t="n">
+        <v>8.8384e-05</v>
+      </c>
+      <c r="N50" t="n">
+        <v>46</v>
+      </c>
+      <c r="O50" t="n">
+        <v>46</v>
+      </c>
+      <c r="P50" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>514</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2344</v>
+      </c>
+      <c r="S50" t="n">
+        <v>182</v>
+      </c>
+      <c r="T50" t="n">
+        <v>5806</v>
+      </c>
+      <c r="U50" t="n">
+        <v>5806</v>
+      </c>
+      <c r="V50" t="n">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>BN254</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>512</v>
+      </c>
+      <c r="C51" t="n">
+        <v>20</v>
+      </c>
+      <c r="D51" t="n">
+        <v>10</v>
+      </c>
+      <c r="E51" t="n">
+        <v>20</v>
+      </c>
+      <c r="F51" t="n">
+        <v>20</v>
+      </c>
+      <c r="G51" t="n">
+        <v>20</v>
+      </c>
+      <c r="H51" t="n">
+        <v>20</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.026972685</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.062051788</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.093287942</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.017388024</v>
+      </c>
+      <c r="M51" t="n">
+        <v>8.926e-05</v>
+      </c>
+      <c r="N51" t="n">
+        <v>46</v>
+      </c>
+      <c r="O51" t="n">
+        <v>46</v>
+      </c>
+      <c r="P51" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>514</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2344</v>
+      </c>
+      <c r="S51" t="n">
+        <v>182</v>
+      </c>
+      <c r="T51" t="n">
+        <v>4006</v>
+      </c>
+      <c r="U51" t="n">
+        <v>4006</v>
+      </c>
+      <c r="V51" t="n">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>BN254</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>512</v>
+      </c>
+      <c r="C52" t="n">
+        <v>20</v>
+      </c>
+      <c r="D52" t="n">
+        <v>15</v>
+      </c>
+      <c r="E52" t="n">
+        <v>20</v>
+      </c>
+      <c r="F52" t="n">
+        <v>20</v>
+      </c>
+      <c r="G52" t="n">
+        <v>20</v>
+      </c>
+      <c r="H52" t="n">
+        <v>20</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.026792935</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.045737673</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.06864455699999999</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.022615793</v>
+      </c>
+      <c r="M52" t="n">
+        <v>8.731e-05</v>
+      </c>
+      <c r="N52" t="n">
+        <v>46</v>
+      </c>
+      <c r="O52" t="n">
+        <v>46</v>
+      </c>
+      <c r="P52" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>514</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2344</v>
+      </c>
+      <c r="S52" t="n">
+        <v>182</v>
+      </c>
+      <c r="T52" t="n">
+        <v>2206</v>
+      </c>
+      <c r="U52" t="n">
+        <v>2206</v>
+      </c>
+      <c r="V52" t="n">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>BN254</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>512</v>
+      </c>
+      <c r="C53" t="n">
+        <v>25</v>
+      </c>
+      <c r="D53" t="n">
+        <v>5</v>
+      </c>
+      <c r="E53" t="n">
+        <v>20</v>
+      </c>
+      <c r="F53" t="n">
+        <v>20</v>
+      </c>
+      <c r="G53" t="n">
+        <v>20</v>
+      </c>
+      <c r="H53" t="n">
+        <v>20</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.031960087</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.09767730600000001</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.151779982</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.011810034</v>
+      </c>
+      <c r="M53" t="n">
+        <v>9.012e-05</v>
+      </c>
+      <c r="N53" t="n">
+        <v>46</v>
+      </c>
+      <c r="O53" t="n">
+        <v>46</v>
+      </c>
+      <c r="P53" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>514</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2794</v>
+      </c>
+      <c r="S53" t="n">
+        <v>182</v>
+      </c>
+      <c r="T53" t="n">
+        <v>7606</v>
+      </c>
+      <c r="U53" t="n">
+        <v>7606</v>
+      </c>
+      <c r="V53" t="n">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>BN254</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>512</v>
+      </c>
+      <c r="C54" t="n">
+        <v>25</v>
+      </c>
+      <c r="D54" t="n">
+        <v>10</v>
+      </c>
+      <c r="E54" t="n">
+        <v>20</v>
+      </c>
+      <c r="F54" t="n">
+        <v>20</v>
+      </c>
+      <c r="G54" t="n">
+        <v>20</v>
+      </c>
+      <c r="H54" t="n">
+        <v>20</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.032237584</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.081794066</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.125231451</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.017552715</v>
+      </c>
+      <c r="M54" t="n">
+        <v>9.0422e-05</v>
+      </c>
+      <c r="N54" t="n">
+        <v>46</v>
+      </c>
+      <c r="O54" t="n">
+        <v>46</v>
+      </c>
+      <c r="P54" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>514</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2794</v>
+      </c>
+      <c r="S54" t="n">
+        <v>182</v>
+      </c>
+      <c r="T54" t="n">
+        <v>5806</v>
+      </c>
+      <c r="U54" t="n">
+        <v>5806</v>
+      </c>
+      <c r="V54" t="n">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>BN254</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>512</v>
+      </c>
+      <c r="C55" t="n">
+        <v>25</v>
+      </c>
+      <c r="D55" t="n">
+        <v>15</v>
+      </c>
+      <c r="E55" t="n">
+        <v>20</v>
+      </c>
+      <c r="F55" t="n">
+        <v>20</v>
+      </c>
+      <c r="G55" t="n">
+        <v>20</v>
+      </c>
+      <c r="H55" t="n">
+        <v>20</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.032138017</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.06710121500000001</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.100288723</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.022963918</v>
+      </c>
+      <c r="M55" t="n">
+        <v>8.685400000000001e-05</v>
+      </c>
+      <c r="N55" t="n">
+        <v>46</v>
+      </c>
+      <c r="O55" t="n">
+        <v>46</v>
+      </c>
+      <c r="P55" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>514</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2794</v>
+      </c>
+      <c r="S55" t="n">
+        <v>182</v>
+      </c>
+      <c r="T55" t="n">
+        <v>4006</v>
+      </c>
+      <c r="U55" t="n">
+        <v>4006</v>
+      </c>
+      <c r="V55" t="n">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>BN254</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>512</v>
+      </c>
+      <c r="C56" t="n">
+        <v>25</v>
+      </c>
+      <c r="D56" t="n">
+        <v>20</v>
+      </c>
+      <c r="E56" t="n">
+        <v>20</v>
+      </c>
+      <c r="F56" t="n">
+        <v>20</v>
+      </c>
+      <c r="G56" t="n">
+        <v>20</v>
+      </c>
+      <c r="H56" t="n">
+        <v>20</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.031863615</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.050822709</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.07339246200000001</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.027376643</v>
+      </c>
+      <c r="M56" t="n">
+        <v>8.493800000000001e-05</v>
+      </c>
+      <c r="N56" t="n">
+        <v>46</v>
+      </c>
+      <c r="O56" t="n">
+        <v>46</v>
+      </c>
+      <c r="P56" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>514</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2794</v>
+      </c>
+      <c r="S56" t="n">
+        <v>182</v>
+      </c>
+      <c r="T56" t="n">
+        <v>2206</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2206</v>
+      </c>
+      <c r="V56" t="n">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>BN254</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>512</v>
+      </c>
+      <c r="C57" t="n">
+        <v>30</v>
+      </c>
+      <c r="D57" t="n">
+        <v>5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>20</v>
+      </c>
+      <c r="F57" t="n">
+        <v>20</v>
+      </c>
+      <c r="G57" t="n">
+        <v>20</v>
+      </c>
+      <c r="H57" t="n">
+        <v>20</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.037166434</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.117679222</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.181488744</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.012119616</v>
+      </c>
+      <c r="M57" t="n">
+        <v>8.7218e-05</v>
+      </c>
+      <c r="N57" t="n">
+        <v>46</v>
+      </c>
+      <c r="O57" t="n">
+        <v>46</v>
+      </c>
+      <c r="P57" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>514</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3244</v>
+      </c>
+      <c r="S57" t="n">
+        <v>182</v>
+      </c>
+      <c r="T57" t="n">
+        <v>9406</v>
+      </c>
+      <c r="U57" t="n">
+        <v>9406</v>
+      </c>
+      <c r="V57" t="n">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>BN254</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>512</v>
+      </c>
+      <c r="C58" t="n">
+        <v>30</v>
+      </c>
+      <c r="D58" t="n">
+        <v>10</v>
+      </c>
+      <c r="E58" t="n">
+        <v>20</v>
+      </c>
+      <c r="F58" t="n">
+        <v>20</v>
+      </c>
+      <c r="G58" t="n">
+        <v>20</v>
+      </c>
+      <c r="H58" t="n">
+        <v>20</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.036346499</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.10057001</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.153303047</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.016924929</v>
+      </c>
+      <c r="M58" t="n">
+        <v>9.1444e-05</v>
+      </c>
+      <c r="N58" t="n">
+        <v>46</v>
+      </c>
+      <c r="O58" t="n">
+        <v>46</v>
+      </c>
+      <c r="P58" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>514</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3244</v>
+      </c>
+      <c r="S58" t="n">
+        <v>182</v>
+      </c>
+      <c r="T58" t="n">
+        <v>7606</v>
+      </c>
+      <c r="U58" t="n">
+        <v>7606</v>
+      </c>
+      <c r="V58" t="n">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>BN254</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>512</v>
+      </c>
+      <c r="C59" t="n">
+        <v>30</v>
+      </c>
+      <c r="D59" t="n">
+        <v>15</v>
+      </c>
+      <c r="E59" t="n">
+        <v>20</v>
+      </c>
+      <c r="F59" t="n">
+        <v>20</v>
+      </c>
+      <c r="G59" t="n">
+        <v>20</v>
+      </c>
+      <c r="H59" t="n">
+        <v>20</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.036395002</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.085030878</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.126868278</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.022169924</v>
+      </c>
+      <c r="M59" t="n">
+        <v>8.6098e-05</v>
+      </c>
+      <c r="N59" t="n">
+        <v>46</v>
+      </c>
+      <c r="O59" t="n">
+        <v>46</v>
+      </c>
+      <c r="P59" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>514</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3244</v>
+      </c>
+      <c r="S59" t="n">
+        <v>182</v>
+      </c>
+      <c r="T59" t="n">
+        <v>5806</v>
+      </c>
+      <c r="U59" t="n">
+        <v>5806</v>
+      </c>
+      <c r="V59" t="n">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>BN254</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>512</v>
+      </c>
+      <c r="C60" t="n">
+        <v>30</v>
+      </c>
+      <c r="D60" t="n">
+        <v>20</v>
+      </c>
+      <c r="E60" t="n">
+        <v>20</v>
+      </c>
+      <c r="F60" t="n">
+        <v>20</v>
+      </c>
+      <c r="G60" t="n">
+        <v>20</v>
+      </c>
+      <c r="H60" t="n">
+        <v>20</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.036595581</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.069879159</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.102306398</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.027195038</v>
+      </c>
+      <c r="M60" t="n">
+        <v>8.4733e-05</v>
+      </c>
+      <c r="N60" t="n">
+        <v>46</v>
+      </c>
+      <c r="O60" t="n">
+        <v>46</v>
+      </c>
+      <c r="P60" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>514</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3244</v>
+      </c>
+      <c r="S60" t="n">
+        <v>182</v>
+      </c>
+      <c r="T60" t="n">
+        <v>4006</v>
+      </c>
+      <c r="U60" t="n">
+        <v>4006</v>
+      </c>
+      <c r="V60" t="n">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>BN254</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>512</v>
+      </c>
+      <c r="C61" t="n">
+        <v>30</v>
+      </c>
+      <c r="D61" t="n">
+        <v>25</v>
+      </c>
+      <c r="E61" t="n">
+        <v>20</v>
+      </c>
+      <c r="F61" t="n">
+        <v>20</v>
+      </c>
+      <c r="G61" t="n">
+        <v>20</v>
+      </c>
+      <c r="H61" t="n">
+        <v>20</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.036830616</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.055551428</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.077123013</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.032202526</v>
+      </c>
+      <c r="M61" t="n">
+        <v>9.3929e-05</v>
+      </c>
+      <c r="N61" t="n">
+        <v>46</v>
+      </c>
+      <c r="O61" t="n">
+        <v>46</v>
+      </c>
+      <c r="P61" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>514</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3244</v>
+      </c>
+      <c r="S61" t="n">
+        <v>182</v>
+      </c>
+      <c r="T61" t="n">
+        <v>2206</v>
+      </c>
+      <c r="U61" t="n">
+        <v>2206</v>
+      </c>
+      <c r="V61" t="n">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>128</v>
+      </c>
+      <c r="C62" t="n">
+        <v>10</v>
+      </c>
+      <c r="D62" t="n">
+        <v>5</v>
+      </c>
+      <c r="E62" t="n">
+        <v>20</v>
+      </c>
+      <c r="F62" t="n">
+        <v>20</v>
+      </c>
+      <c r="G62" t="n">
+        <v>20</v>
+      </c>
+      <c r="H62" t="n">
+        <v>20</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.010576182</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.023262521</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.037887315</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.004323165</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.686e-05</v>
+      </c>
+      <c r="N62" t="n">
+        <v>30</v>
+      </c>
+      <c r="O62" t="n">
+        <v>90</v>
+      </c>
+      <c r="P62" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>174</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1620</v>
+      </c>
+      <c r="S62" t="n">
+        <v>150</v>
+      </c>
+      <c r="T62" t="n">
+        <v>2250</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2250</v>
+      </c>
+      <c r="V62" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>128</v>
+      </c>
+      <c r="C63" t="n">
+        <v>15</v>
+      </c>
+      <c r="D63" t="n">
+        <v>5</v>
+      </c>
+      <c r="E63" t="n">
+        <v>20</v>
+      </c>
+      <c r="F63" t="n">
+        <v>20</v>
+      </c>
+      <c r="G63" t="n">
+        <v>20</v>
+      </c>
+      <c r="H63" t="n">
+        <v>20</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.014322356</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.037841017</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.059912131</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.004399166</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2.0005e-05</v>
+      </c>
+      <c r="N63" t="n">
+        <v>30</v>
+      </c>
+      <c r="O63" t="n">
+        <v>90</v>
+      </c>
+      <c r="P63" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>174</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2070</v>
+      </c>
+      <c r="S63" t="n">
+        <v>150</v>
+      </c>
+      <c r="T63" t="n">
+        <v>4050</v>
+      </c>
+      <c r="U63" t="n">
+        <v>4050</v>
+      </c>
+      <c r="V63" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>128</v>
+      </c>
+      <c r="C64" t="n">
+        <v>15</v>
+      </c>
+      <c r="D64" t="n">
+        <v>10</v>
+      </c>
+      <c r="E64" t="n">
+        <v>20</v>
+      </c>
+      <c r="F64" t="n">
+        <v>20</v>
+      </c>
+      <c r="G64" t="n">
+        <v>20</v>
+      </c>
+      <c r="H64" t="n">
+        <v>20</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.014331268</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.027081914</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.042338309</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.008146838999999999</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1.9065e-05</v>
+      </c>
+      <c r="N64" t="n">
+        <v>30</v>
+      </c>
+      <c r="O64" t="n">
+        <v>90</v>
+      </c>
+      <c r="P64" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>174</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2070</v>
+      </c>
+      <c r="S64" t="n">
+        <v>150</v>
+      </c>
+      <c r="T64" t="n">
+        <v>2250</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2250</v>
+      </c>
+      <c r="V64" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>128</v>
+      </c>
+      <c r="C65" t="n">
+        <v>20</v>
+      </c>
+      <c r="D65" t="n">
+        <v>5</v>
+      </c>
+      <c r="E65" t="n">
+        <v>20</v>
+      </c>
+      <c r="F65" t="n">
+        <v>20</v>
+      </c>
+      <c r="G65" t="n">
+        <v>20</v>
+      </c>
+      <c r="H65" t="n">
+        <v>20</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.018409168</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.05377711</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.083673422</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.004591496</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2.4227e-05</v>
+      </c>
+      <c r="N65" t="n">
+        <v>30</v>
+      </c>
+      <c r="O65" t="n">
+        <v>90</v>
+      </c>
+      <c r="P65" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>174</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2520</v>
+      </c>
+      <c r="S65" t="n">
+        <v>150</v>
+      </c>
+      <c r="T65" t="n">
+        <v>5850</v>
+      </c>
+      <c r="U65" t="n">
+        <v>5850</v>
+      </c>
+      <c r="V65" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>128</v>
+      </c>
+      <c r="C66" t="n">
+        <v>20</v>
+      </c>
+      <c r="D66" t="n">
+        <v>10</v>
+      </c>
+      <c r="E66" t="n">
+        <v>20</v>
+      </c>
+      <c r="F66" t="n">
+        <v>20</v>
+      </c>
+      <c r="G66" t="n">
+        <v>20</v>
+      </c>
+      <c r="H66" t="n">
+        <v>20</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.017734955</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.040817842</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.062367252</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.007796027</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1.745e-05</v>
+      </c>
+      <c r="N66" t="n">
+        <v>30</v>
+      </c>
+      <c r="O66" t="n">
+        <v>90</v>
+      </c>
+      <c r="P66" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>174</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2520</v>
+      </c>
+      <c r="S66" t="n">
+        <v>150</v>
+      </c>
+      <c r="T66" t="n">
+        <v>4050</v>
+      </c>
+      <c r="U66" t="n">
+        <v>4050</v>
+      </c>
+      <c r="V66" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>128</v>
+      </c>
+      <c r="C67" t="n">
+        <v>20</v>
+      </c>
+      <c r="D67" t="n">
+        <v>15</v>
+      </c>
+      <c r="E67" t="n">
+        <v>20</v>
+      </c>
+      <c r="F67" t="n">
+        <v>20</v>
+      </c>
+      <c r="G67" t="n">
+        <v>20</v>
+      </c>
+      <c r="H67" t="n">
+        <v>20</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.017855705</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.030283583</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.044776483</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.011273582</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1.7484e-05</v>
+      </c>
+      <c r="N67" t="n">
+        <v>30</v>
+      </c>
+      <c r="O67" t="n">
+        <v>90</v>
+      </c>
+      <c r="P67" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>174</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2520</v>
+      </c>
+      <c r="S67" t="n">
+        <v>150</v>
+      </c>
+      <c r="T67" t="n">
+        <v>2250</v>
+      </c>
+      <c r="U67" t="n">
+        <v>2250</v>
+      </c>
+      <c r="V67" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>128</v>
+      </c>
+      <c r="C68" t="n">
+        <v>25</v>
+      </c>
+      <c r="D68" t="n">
+        <v>5</v>
+      </c>
+      <c r="E68" t="n">
+        <v>20</v>
+      </c>
+      <c r="F68" t="n">
+        <v>20</v>
+      </c>
+      <c r="G68" t="n">
+        <v>20</v>
+      </c>
+      <c r="H68" t="n">
+        <v>20</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.021478603</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.066797736</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.10255211</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.00438547</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2.3723e-05</v>
+      </c>
+      <c r="N68" t="n">
+        <v>30</v>
+      </c>
+      <c r="O68" t="n">
+        <v>90</v>
+      </c>
+      <c r="P68" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>174</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2970</v>
+      </c>
+      <c r="S68" t="n">
+        <v>150</v>
+      </c>
+      <c r="T68" t="n">
+        <v>7650</v>
+      </c>
+      <c r="U68" t="n">
+        <v>7650</v>
+      </c>
+      <c r="V68" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>128</v>
+      </c>
+      <c r="C69" t="n">
+        <v>25</v>
+      </c>
+      <c r="D69" t="n">
+        <v>10</v>
+      </c>
+      <c r="E69" t="n">
+        <v>20</v>
+      </c>
+      <c r="F69" t="n">
+        <v>20</v>
+      </c>
+      <c r="G69" t="n">
+        <v>20</v>
+      </c>
+      <c r="H69" t="n">
+        <v>20</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.021143731</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.054611598</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.083442005</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.007976708000000001</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2.0014e-05</v>
+      </c>
+      <c r="N69" t="n">
+        <v>30</v>
+      </c>
+      <c r="O69" t="n">
+        <v>90</v>
+      </c>
+      <c r="P69" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>174</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2970</v>
+      </c>
+      <c r="S69" t="n">
+        <v>150</v>
+      </c>
+      <c r="T69" t="n">
+        <v>5850</v>
+      </c>
+      <c r="U69" t="n">
+        <v>5850</v>
+      </c>
+      <c r="V69" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>128</v>
+      </c>
+      <c r="C70" t="n">
+        <v>25</v>
+      </c>
+      <c r="D70" t="n">
+        <v>15</v>
+      </c>
+      <c r="E70" t="n">
+        <v>20</v>
+      </c>
+      <c r="F70" t="n">
+        <v>20</v>
+      </c>
+      <c r="G70" t="n">
+        <v>20</v>
+      </c>
+      <c r="H70" t="n">
+        <v>20</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.020797901</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.043293772</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.064887843</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.011048204</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1.7387e-05</v>
+      </c>
+      <c r="N70" t="n">
+        <v>30</v>
+      </c>
+      <c r="O70" t="n">
+        <v>90</v>
+      </c>
+      <c r="P70" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>174</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2970</v>
+      </c>
+      <c r="S70" t="n">
+        <v>150</v>
+      </c>
+      <c r="T70" t="n">
+        <v>4050</v>
+      </c>
+      <c r="U70" t="n">
+        <v>4050</v>
+      </c>
+      <c r="V70" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>128</v>
+      </c>
+      <c r="C71" t="n">
+        <v>25</v>
+      </c>
+      <c r="D71" t="n">
+        <v>20</v>
+      </c>
+      <c r="E71" t="n">
+        <v>20</v>
+      </c>
+      <c r="F71" t="n">
+        <v>20</v>
+      </c>
+      <c r="G71" t="n">
+        <v>20</v>
+      </c>
+      <c r="H71" t="n">
+        <v>20</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.021261236</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.033383421</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.047615293</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.01467405</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1.7129e-05</v>
+      </c>
+      <c r="N71" t="n">
+        <v>30</v>
+      </c>
+      <c r="O71" t="n">
+        <v>90</v>
+      </c>
+      <c r="P71" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>174</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2970</v>
+      </c>
+      <c r="S71" t="n">
+        <v>150</v>
+      </c>
+      <c r="T71" t="n">
+        <v>2250</v>
+      </c>
+      <c r="U71" t="n">
+        <v>2250</v>
+      </c>
+      <c r="V71" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>128</v>
+      </c>
+      <c r="C72" t="n">
+        <v>30</v>
+      </c>
+      <c r="D72" t="n">
+        <v>5</v>
+      </c>
+      <c r="E72" t="n">
+        <v>20</v>
+      </c>
+      <c r="F72" t="n">
+        <v>20</v>
+      </c>
+      <c r="G72" t="n">
+        <v>20</v>
+      </c>
+      <c r="H72" t="n">
+        <v>20</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.024555291</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.079121361</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.121114251</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.004291305</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2.2365e-05</v>
+      </c>
+      <c r="N72" t="n">
+        <v>30</v>
+      </c>
+      <c r="O72" t="n">
+        <v>90</v>
+      </c>
+      <c r="P72" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>174</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3420</v>
+      </c>
+      <c r="S72" t="n">
+        <v>150</v>
+      </c>
+      <c r="T72" t="n">
+        <v>9450</v>
+      </c>
+      <c r="U72" t="n">
+        <v>9450</v>
+      </c>
+      <c r="V72" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>128</v>
+      </c>
+      <c r="C73" t="n">
+        <v>30</v>
+      </c>
+      <c r="D73" t="n">
+        <v>10</v>
+      </c>
+      <c r="E73" t="n">
+        <v>20</v>
+      </c>
+      <c r="F73" t="n">
+        <v>20</v>
+      </c>
+      <c r="G73" t="n">
+        <v>20</v>
+      </c>
+      <c r="H73" t="n">
+        <v>20</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.024597189</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.06870842100000001</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.103510297</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.007777876</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2.0771e-05</v>
+      </c>
+      <c r="N73" t="n">
+        <v>30</v>
+      </c>
+      <c r="O73" t="n">
+        <v>90</v>
+      </c>
+      <c r="P73" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>174</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3420</v>
+      </c>
+      <c r="S73" t="n">
+        <v>150</v>
+      </c>
+      <c r="T73" t="n">
+        <v>7650</v>
+      </c>
+      <c r="U73" t="n">
+        <v>7650</v>
+      </c>
+      <c r="V73" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>128</v>
+      </c>
+      <c r="C74" t="n">
+        <v>30</v>
+      </c>
+      <c r="D74" t="n">
+        <v>15</v>
+      </c>
+      <c r="E74" t="n">
+        <v>20</v>
+      </c>
+      <c r="F74" t="n">
+        <v>20</v>
+      </c>
+      <c r="G74" t="n">
+        <v>20</v>
+      </c>
+      <c r="H74" t="n">
+        <v>20</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.024538099</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.058523024</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.087660217</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.011288938</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1.9902e-05</v>
+      </c>
+      <c r="N74" t="n">
+        <v>30</v>
+      </c>
+      <c r="O74" t="n">
+        <v>90</v>
+      </c>
+      <c r="P74" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>174</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3420</v>
+      </c>
+      <c r="S74" t="n">
+        <v>150</v>
+      </c>
+      <c r="T74" t="n">
+        <v>5850</v>
+      </c>
+      <c r="U74" t="n">
+        <v>5850</v>
+      </c>
+      <c r="V74" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>128</v>
+      </c>
+      <c r="C75" t="n">
+        <v>30</v>
+      </c>
+      <c r="D75" t="n">
+        <v>20</v>
+      </c>
+      <c r="E75" t="n">
+        <v>20</v>
+      </c>
+      <c r="F75" t="n">
+        <v>20</v>
+      </c>
+      <c r="G75" t="n">
+        <v>20</v>
+      </c>
+      <c r="H75" t="n">
+        <v>20</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.024524803</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.047650207</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.068552909</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.014677123</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1.9853e-05</v>
+      </c>
+      <c r="N75" t="n">
+        <v>30</v>
+      </c>
+      <c r="O75" t="n">
+        <v>90</v>
+      </c>
+      <c r="P75" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>174</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3420</v>
+      </c>
+      <c r="S75" t="n">
+        <v>150</v>
+      </c>
+      <c r="T75" t="n">
+        <v>4050</v>
+      </c>
+      <c r="U75" t="n">
+        <v>4050</v>
+      </c>
+      <c r="V75" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>128</v>
+      </c>
+      <c r="C76" t="n">
+        <v>30</v>
+      </c>
+      <c r="D76" t="n">
+        <v>25</v>
+      </c>
+      <c r="E76" t="n">
+        <v>20</v>
+      </c>
+      <c r="F76" t="n">
+        <v>20</v>
+      </c>
+      <c r="G76" t="n">
+        <v>20</v>
+      </c>
+      <c r="H76" t="n">
+        <v>20</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.024540085</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.036834901</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.051432501</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.018134376</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1.8126e-05</v>
+      </c>
+      <c r="N76" t="n">
+        <v>30</v>
+      </c>
+      <c r="O76" t="n">
+        <v>90</v>
+      </c>
+      <c r="P76" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>174</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3420</v>
+      </c>
+      <c r="S76" t="n">
+        <v>150</v>
+      </c>
+      <c r="T76" t="n">
+        <v>2250</v>
+      </c>
+      <c r="U76" t="n">
+        <v>2250</v>
+      </c>
+      <c r="V76" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>160</v>
+      </c>
+      <c r="C77" t="n">
+        <v>10</v>
+      </c>
+      <c r="D77" t="n">
+        <v>5</v>
+      </c>
+      <c r="E77" t="n">
+        <v>20</v>
+      </c>
+      <c r="F77" t="n">
+        <v>20</v>
+      </c>
+      <c r="G77" t="n">
+        <v>20</v>
+      </c>
+      <c r="H77" t="n">
+        <v>20</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.010628658</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.023157795</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.038078039</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.004360341</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1.6929e-05</v>
+      </c>
+      <c r="N77" t="n">
+        <v>30</v>
+      </c>
+      <c r="O77" t="n">
+        <v>90</v>
+      </c>
+      <c r="P77" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>174</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1620</v>
+      </c>
+      <c r="S77" t="n">
+        <v>150</v>
+      </c>
+      <c r="T77" t="n">
+        <v>2250</v>
+      </c>
+      <c r="U77" t="n">
+        <v>2250</v>
+      </c>
+      <c r="V77" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>160</v>
+      </c>
+      <c r="C78" t="n">
+        <v>15</v>
+      </c>
+      <c r="D78" t="n">
+        <v>5</v>
+      </c>
+      <c r="E78" t="n">
+        <v>20</v>
+      </c>
+      <c r="F78" t="n">
+        <v>20</v>
+      </c>
+      <c r="G78" t="n">
+        <v>20</v>
+      </c>
+      <c r="H78" t="n">
+        <v>20</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.014129312</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.036967822</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.058360078</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.004349688</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1.8945e-05</v>
+      </c>
+      <c r="N78" t="n">
+        <v>30</v>
+      </c>
+      <c r="O78" t="n">
+        <v>90</v>
+      </c>
+      <c r="P78" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>174</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2070</v>
+      </c>
+      <c r="S78" t="n">
+        <v>150</v>
+      </c>
+      <c r="T78" t="n">
+        <v>4050</v>
+      </c>
+      <c r="U78" t="n">
+        <v>4050</v>
+      </c>
+      <c r="V78" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>160</v>
+      </c>
+      <c r="C79" t="n">
+        <v>15</v>
+      </c>
+      <c r="D79" t="n">
+        <v>10</v>
+      </c>
+      <c r="E79" t="n">
+        <v>20</v>
+      </c>
+      <c r="F79" t="n">
+        <v>20</v>
+      </c>
+      <c r="G79" t="n">
+        <v>20</v>
+      </c>
+      <c r="H79" t="n">
+        <v>20</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.014289409</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.026861081</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.041190697</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.00783765</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1.7928e-05</v>
+      </c>
+      <c r="N79" t="n">
+        <v>30</v>
+      </c>
+      <c r="O79" t="n">
+        <v>90</v>
+      </c>
+      <c r="P79" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>174</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2070</v>
+      </c>
+      <c r="S79" t="n">
+        <v>150</v>
+      </c>
+      <c r="T79" t="n">
+        <v>2250</v>
+      </c>
+      <c r="U79" t="n">
+        <v>2250</v>
+      </c>
+      <c r="V79" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>160</v>
+      </c>
+      <c r="C80" t="n">
+        <v>20</v>
+      </c>
+      <c r="D80" t="n">
+        <v>5</v>
+      </c>
+      <c r="E80" t="n">
+        <v>20</v>
+      </c>
+      <c r="F80" t="n">
+        <v>20</v>
+      </c>
+      <c r="G80" t="n">
+        <v>20</v>
+      </c>
+      <c r="H80" t="n">
+        <v>20</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.018370874</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.051597541</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.080080572</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.004389745</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1.9639e-05</v>
+      </c>
+      <c r="N80" t="n">
+        <v>30</v>
+      </c>
+      <c r="O80" t="n">
+        <v>90</v>
+      </c>
+      <c r="P80" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>174</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2520</v>
+      </c>
+      <c r="S80" t="n">
+        <v>150</v>
+      </c>
+      <c r="T80" t="n">
+        <v>5850</v>
+      </c>
+      <c r="U80" t="n">
+        <v>5850</v>
+      </c>
+      <c r="V80" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>160</v>
+      </c>
+      <c r="C81" t="n">
+        <v>20</v>
+      </c>
+      <c r="D81" t="n">
+        <v>10</v>
+      </c>
+      <c r="E81" t="n">
+        <v>20</v>
+      </c>
+      <c r="F81" t="n">
+        <v>20</v>
+      </c>
+      <c r="G81" t="n">
+        <v>20</v>
+      </c>
+      <c r="H81" t="n">
+        <v>20</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.01775444</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.040707939</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.061756961</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.007833988</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1.8788e-05</v>
+      </c>
+      <c r="N81" t="n">
+        <v>30</v>
+      </c>
+      <c r="O81" t="n">
+        <v>90</v>
+      </c>
+      <c r="P81" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>174</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2520</v>
+      </c>
+      <c r="S81" t="n">
+        <v>150</v>
+      </c>
+      <c r="T81" t="n">
+        <v>4050</v>
+      </c>
+      <c r="U81" t="n">
+        <v>4050</v>
+      </c>
+      <c r="V81" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>160</v>
+      </c>
+      <c r="C82" t="n">
+        <v>20</v>
+      </c>
+      <c r="D82" t="n">
+        <v>15</v>
+      </c>
+      <c r="E82" t="n">
+        <v>20</v>
+      </c>
+      <c r="F82" t="n">
+        <v>20</v>
+      </c>
+      <c r="G82" t="n">
+        <v>20</v>
+      </c>
+      <c r="H82" t="n">
+        <v>20</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.017403688</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.029936347</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.044558893</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.011212841</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1.6446e-05</v>
+      </c>
+      <c r="N82" t="n">
+        <v>30</v>
+      </c>
+      <c r="O82" t="n">
+        <v>90</v>
+      </c>
+      <c r="P82" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>174</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2520</v>
+      </c>
+      <c r="S82" t="n">
+        <v>150</v>
+      </c>
+      <c r="T82" t="n">
+        <v>2250</v>
+      </c>
+      <c r="U82" t="n">
+        <v>2250</v>
+      </c>
+      <c r="V82" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>160</v>
+      </c>
+      <c r="C83" t="n">
+        <v>25</v>
+      </c>
+      <c r="D83" t="n">
+        <v>5</v>
+      </c>
+      <c r="E83" t="n">
+        <v>20</v>
+      </c>
+      <c r="F83" t="n">
+        <v>20</v>
+      </c>
+      <c r="G83" t="n">
+        <v>20</v>
+      </c>
+      <c r="H83" t="n">
+        <v>20</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.021191725</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.064715014</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.099813358</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.004344796</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2.0778e-05</v>
+      </c>
+      <c r="N83" t="n">
+        <v>30</v>
+      </c>
+      <c r="O83" t="n">
+        <v>90</v>
+      </c>
+      <c r="P83" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>174</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2970</v>
+      </c>
+      <c r="S83" t="n">
+        <v>150</v>
+      </c>
+      <c r="T83" t="n">
+        <v>7650</v>
+      </c>
+      <c r="U83" t="n">
+        <v>7650</v>
+      </c>
+      <c r="V83" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>160</v>
+      </c>
+      <c r="C84" t="n">
+        <v>25</v>
+      </c>
+      <c r="D84" t="n">
+        <v>10</v>
+      </c>
+      <c r="E84" t="n">
+        <v>20</v>
+      </c>
+      <c r="F84" t="n">
+        <v>20</v>
+      </c>
+      <c r="G84" t="n">
+        <v>20</v>
+      </c>
+      <c r="H84" t="n">
+        <v>20</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.021243397</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.054909474</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.083059229</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.007823818</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2.0032e-05</v>
+      </c>
+      <c r="N84" t="n">
+        <v>30</v>
+      </c>
+      <c r="O84" t="n">
+        <v>90</v>
+      </c>
+      <c r="P84" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>174</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2970</v>
+      </c>
+      <c r="S84" t="n">
+        <v>150</v>
+      </c>
+      <c r="T84" t="n">
+        <v>5850</v>
+      </c>
+      <c r="U84" t="n">
+        <v>5850</v>
+      </c>
+      <c r="V84" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>160</v>
+      </c>
+      <c r="C85" t="n">
+        <v>25</v>
+      </c>
+      <c r="D85" t="n">
+        <v>15</v>
+      </c>
+      <c r="E85" t="n">
+        <v>20</v>
+      </c>
+      <c r="F85" t="n">
+        <v>20</v>
+      </c>
+      <c r="G85" t="n">
+        <v>20</v>
+      </c>
+      <c r="H85" t="n">
+        <v>20</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.021156597</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.044041908</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.066140459</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.011436356</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2.0399e-05</v>
+      </c>
+      <c r="N85" t="n">
+        <v>30</v>
+      </c>
+      <c r="O85" t="n">
+        <v>90</v>
+      </c>
+      <c r="P85" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>174</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2970</v>
+      </c>
+      <c r="S85" t="n">
+        <v>150</v>
+      </c>
+      <c r="T85" t="n">
+        <v>4050</v>
+      </c>
+      <c r="U85" t="n">
+        <v>4050</v>
+      </c>
+      <c r="V85" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>160</v>
+      </c>
+      <c r="C86" t="n">
+        <v>25</v>
+      </c>
+      <c r="D86" t="n">
+        <v>20</v>
+      </c>
+      <c r="E86" t="n">
+        <v>20</v>
+      </c>
+      <c r="F86" t="n">
+        <v>20</v>
+      </c>
+      <c r="G86" t="n">
+        <v>20</v>
+      </c>
+      <c r="H86" t="n">
+        <v>20</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.021363162</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.034063128</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.048456177</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.014852103</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1.6812e-05</v>
+      </c>
+      <c r="N86" t="n">
+        <v>30</v>
+      </c>
+      <c r="O86" t="n">
+        <v>90</v>
+      </c>
+      <c r="P86" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>174</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2970</v>
+      </c>
+      <c r="S86" t="n">
+        <v>150</v>
+      </c>
+      <c r="T86" t="n">
+        <v>2250</v>
+      </c>
+      <c r="U86" t="n">
+        <v>2250</v>
+      </c>
+      <c r="V86" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>160</v>
+      </c>
+      <c r="C87" t="n">
+        <v>30</v>
+      </c>
+      <c r="D87" t="n">
+        <v>5</v>
+      </c>
+      <c r="E87" t="n">
+        <v>20</v>
+      </c>
+      <c r="F87" t="n">
+        <v>20</v>
+      </c>
+      <c r="G87" t="n">
+        <v>20</v>
+      </c>
+      <c r="H87" t="n">
+        <v>20</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.024632807</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.07851211700000001</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.120832435</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.004315348</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2.1241e-05</v>
+      </c>
+      <c r="N87" t="n">
+        <v>30</v>
+      </c>
+      <c r="O87" t="n">
+        <v>90</v>
+      </c>
+      <c r="P87" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>174</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3420</v>
+      </c>
+      <c r="S87" t="n">
+        <v>150</v>
+      </c>
+      <c r="T87" t="n">
+        <v>9450</v>
+      </c>
+      <c r="U87" t="n">
+        <v>9450</v>
+      </c>
+      <c r="V87" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>160</v>
+      </c>
+      <c r="C88" t="n">
+        <v>30</v>
+      </c>
+      <c r="D88" t="n">
+        <v>10</v>
+      </c>
+      <c r="E88" t="n">
+        <v>20</v>
+      </c>
+      <c r="F88" t="n">
+        <v>20</v>
+      </c>
+      <c r="G88" t="n">
+        <v>20</v>
+      </c>
+      <c r="H88" t="n">
+        <v>20</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.024946566</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.068961958</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.104157716</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.007920925000000001</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2.3278e-05</v>
+      </c>
+      <c r="N88" t="n">
+        <v>30</v>
+      </c>
+      <c r="O88" t="n">
+        <v>90</v>
+      </c>
+      <c r="P88" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>174</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3420</v>
+      </c>
+      <c r="S88" t="n">
+        <v>150</v>
+      </c>
+      <c r="T88" t="n">
+        <v>7650</v>
+      </c>
+      <c r="U88" t="n">
+        <v>7650</v>
+      </c>
+      <c r="V88" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>160</v>
+      </c>
+      <c r="C89" t="n">
+        <v>30</v>
+      </c>
+      <c r="D89" t="n">
+        <v>15</v>
+      </c>
+      <c r="E89" t="n">
+        <v>20</v>
+      </c>
+      <c r="F89" t="n">
+        <v>20</v>
+      </c>
+      <c r="G89" t="n">
+        <v>20</v>
+      </c>
+      <c r="H89" t="n">
+        <v>20</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.025123811</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.059009813</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.08842362500000001</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.011455438</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1.9493e-05</v>
+      </c>
+      <c r="N89" t="n">
+        <v>30</v>
+      </c>
+      <c r="O89" t="n">
+        <v>90</v>
+      </c>
+      <c r="P89" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>174</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3420</v>
+      </c>
+      <c r="S89" t="n">
+        <v>150</v>
+      </c>
+      <c r="T89" t="n">
+        <v>5850</v>
+      </c>
+      <c r="U89" t="n">
+        <v>5850</v>
+      </c>
+      <c r="V89" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>160</v>
+      </c>
+      <c r="C90" t="n">
+        <v>30</v>
+      </c>
+      <c r="D90" t="n">
+        <v>20</v>
+      </c>
+      <c r="E90" t="n">
+        <v>20</v>
+      </c>
+      <c r="F90" t="n">
+        <v>20</v>
+      </c>
+      <c r="G90" t="n">
+        <v>20</v>
+      </c>
+      <c r="H90" t="n">
+        <v>20</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.025366064</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.048950598</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.071232464</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.01523769</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2.2623e-05</v>
+      </c>
+      <c r="N90" t="n">
+        <v>30</v>
+      </c>
+      <c r="O90" t="n">
+        <v>90</v>
+      </c>
+      <c r="P90" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>174</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3420</v>
+      </c>
+      <c r="S90" t="n">
+        <v>150</v>
+      </c>
+      <c r="T90" t="n">
+        <v>4050</v>
+      </c>
+      <c r="U90" t="n">
+        <v>4050</v>
+      </c>
+      <c r="V90" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>160</v>
+      </c>
+      <c r="C91" t="n">
+        <v>30</v>
+      </c>
+      <c r="D91" t="n">
+        <v>25</v>
+      </c>
+      <c r="E91" t="n">
+        <v>20</v>
+      </c>
+      <c r="F91" t="n">
+        <v>20</v>
+      </c>
+      <c r="G91" t="n">
+        <v>20</v>
+      </c>
+      <c r="H91" t="n">
+        <v>20</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.025963163</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.039333959</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.054462533</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.019098315</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1.9994e-05</v>
+      </c>
+      <c r="N91" t="n">
+        <v>30</v>
+      </c>
+      <c r="O91" t="n">
+        <v>90</v>
+      </c>
+      <c r="P91" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>174</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3420</v>
+      </c>
+      <c r="S91" t="n">
+        <v>150</v>
+      </c>
+      <c r="T91" t="n">
+        <v>2250</v>
+      </c>
+      <c r="U91" t="n">
+        <v>2250</v>
+      </c>
+      <c r="V91" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>224</v>
+      </c>
+      <c r="C92" t="n">
+        <v>10</v>
+      </c>
+      <c r="D92" t="n">
+        <v>5</v>
+      </c>
+      <c r="E92" t="n">
+        <v>20</v>
+      </c>
+      <c r="F92" t="n">
+        <v>20</v>
+      </c>
+      <c r="G92" t="n">
+        <v>20</v>
+      </c>
+      <c r="H92" t="n">
+        <v>20</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.010767525</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.02331891</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.038416036</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.004407615</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1.7913e-05</v>
+      </c>
+      <c r="N92" t="n">
+        <v>30</v>
+      </c>
+      <c r="O92" t="n">
+        <v>90</v>
+      </c>
+      <c r="P92" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>174</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1620</v>
+      </c>
+      <c r="S92" t="n">
+        <v>150</v>
+      </c>
+      <c r="T92" t="n">
+        <v>2250</v>
+      </c>
+      <c r="U92" t="n">
+        <v>2250</v>
+      </c>
+      <c r="V92" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>224</v>
+      </c>
+      <c r="C93" t="n">
+        <v>15</v>
+      </c>
+      <c r="D93" t="n">
+        <v>5</v>
+      </c>
+      <c r="E93" t="n">
+        <v>20</v>
+      </c>
+      <c r="F93" t="n">
+        <v>20</v>
+      </c>
+      <c r="G93" t="n">
+        <v>20</v>
+      </c>
+      <c r="H93" t="n">
+        <v>20</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.014209428</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.037326427</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.058906773</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.004431172</v>
+      </c>
+      <c r="M93" t="n">
+        <v>2.023e-05</v>
+      </c>
+      <c r="N93" t="n">
+        <v>30</v>
+      </c>
+      <c r="O93" t="n">
+        <v>90</v>
+      </c>
+      <c r="P93" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>174</v>
+      </c>
+      <c r="R93" t="n">
+        <v>2070</v>
+      </c>
+      <c r="S93" t="n">
+        <v>150</v>
+      </c>
+      <c r="T93" t="n">
+        <v>4050</v>
+      </c>
+      <c r="U93" t="n">
+        <v>4050</v>
+      </c>
+      <c r="V93" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>224</v>
+      </c>
+      <c r="C94" t="n">
+        <v>15</v>
+      </c>
+      <c r="D94" t="n">
+        <v>10</v>
+      </c>
+      <c r="E94" t="n">
+        <v>20</v>
+      </c>
+      <c r="F94" t="n">
+        <v>20</v>
+      </c>
+      <c r="G94" t="n">
+        <v>20</v>
+      </c>
+      <c r="H94" t="n">
+        <v>20</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.014219632</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.026524951</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.041397818</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.007896735</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1.8114e-05</v>
+      </c>
+      <c r="N94" t="n">
+        <v>30</v>
+      </c>
+      <c r="O94" t="n">
+        <v>90</v>
+      </c>
+      <c r="P94" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>174</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2070</v>
+      </c>
+      <c r="S94" t="n">
+        <v>150</v>
+      </c>
+      <c r="T94" t="n">
+        <v>2250</v>
+      </c>
+      <c r="U94" t="n">
+        <v>2250</v>
+      </c>
+      <c r="V94" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>224</v>
+      </c>
+      <c r="C95" t="n">
+        <v>20</v>
+      </c>
+      <c r="D95" t="n">
+        <v>5</v>
+      </c>
+      <c r="E95" t="n">
+        <v>20</v>
+      </c>
+      <c r="F95" t="n">
+        <v>20</v>
+      </c>
+      <c r="G95" t="n">
+        <v>20</v>
+      </c>
+      <c r="H95" t="n">
+        <v>20</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.017443227</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.051281574</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.079497337</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.004325617</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1.8651e-05</v>
+      </c>
+      <c r="N95" t="n">
+        <v>30</v>
+      </c>
+      <c r="O95" t="n">
+        <v>90</v>
+      </c>
+      <c r="P95" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>174</v>
+      </c>
+      <c r="R95" t="n">
+        <v>2520</v>
+      </c>
+      <c r="S95" t="n">
+        <v>150</v>
+      </c>
+      <c r="T95" t="n">
+        <v>5850</v>
+      </c>
+      <c r="U95" t="n">
+        <v>5850</v>
+      </c>
+      <c r="V95" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>224</v>
+      </c>
+      <c r="C96" t="n">
+        <v>20</v>
+      </c>
+      <c r="D96" t="n">
+        <v>10</v>
+      </c>
+      <c r="E96" t="n">
+        <v>20</v>
+      </c>
+      <c r="F96" t="n">
+        <v>20</v>
+      </c>
+      <c r="G96" t="n">
+        <v>20</v>
+      </c>
+      <c r="H96" t="n">
+        <v>20</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.017468235</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.040338798</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.06223736</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.007829311</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1.7189e-05</v>
+      </c>
+      <c r="N96" t="n">
+        <v>30</v>
+      </c>
+      <c r="O96" t="n">
+        <v>90</v>
+      </c>
+      <c r="P96" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>174</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2520</v>
+      </c>
+      <c r="S96" t="n">
+        <v>150</v>
+      </c>
+      <c r="T96" t="n">
+        <v>4050</v>
+      </c>
+      <c r="U96" t="n">
+        <v>4050</v>
+      </c>
+      <c r="V96" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>224</v>
+      </c>
+      <c r="C97" t="n">
+        <v>20</v>
+      </c>
+      <c r="D97" t="n">
+        <v>15</v>
+      </c>
+      <c r="E97" t="n">
+        <v>20</v>
+      </c>
+      <c r="F97" t="n">
+        <v>20</v>
+      </c>
+      <c r="G97" t="n">
+        <v>20</v>
+      </c>
+      <c r="H97" t="n">
+        <v>20</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.017683317</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.030521521</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.044946465</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.011484229</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1.6338e-05</v>
+      </c>
+      <c r="N97" t="n">
+        <v>30</v>
+      </c>
+      <c r="O97" t="n">
+        <v>90</v>
+      </c>
+      <c r="P97" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>174</v>
+      </c>
+      <c r="R97" t="n">
+        <v>2520</v>
+      </c>
+      <c r="S97" t="n">
+        <v>150</v>
+      </c>
+      <c r="T97" t="n">
+        <v>2250</v>
+      </c>
+      <c r="U97" t="n">
+        <v>2250</v>
+      </c>
+      <c r="V97" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>224</v>
+      </c>
+      <c r="C98" t="n">
+        <v>25</v>
+      </c>
+      <c r="D98" t="n">
+        <v>5</v>
+      </c>
+      <c r="E98" t="n">
+        <v>20</v>
+      </c>
+      <c r="F98" t="n">
+        <v>20</v>
+      </c>
+      <c r="G98" t="n">
+        <v>20</v>
+      </c>
+      <c r="H98" t="n">
+        <v>20</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.0211157</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.06556292800000001</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.101289493</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.004402093</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1.9627e-05</v>
+      </c>
+      <c r="N98" t="n">
+        <v>30</v>
+      </c>
+      <c r="O98" t="n">
+        <v>90</v>
+      </c>
+      <c r="P98" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>174</v>
+      </c>
+      <c r="R98" t="n">
+        <v>2970</v>
+      </c>
+      <c r="S98" t="n">
+        <v>150</v>
+      </c>
+      <c r="T98" t="n">
+        <v>7650</v>
+      </c>
+      <c r="U98" t="n">
+        <v>7650</v>
+      </c>
+      <c r="V98" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>224</v>
+      </c>
+      <c r="C99" t="n">
+        <v>25</v>
+      </c>
+      <c r="D99" t="n">
+        <v>10</v>
+      </c>
+      <c r="E99" t="n">
+        <v>20</v>
+      </c>
+      <c r="F99" t="n">
+        <v>20</v>
+      </c>
+      <c r="G99" t="n">
+        <v>20</v>
+      </c>
+      <c r="H99" t="n">
+        <v>20</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.020925039</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.053594238</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.082274386</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.007759051</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1.8409e-05</v>
+      </c>
+      <c r="N99" t="n">
+        <v>30</v>
+      </c>
+      <c r="O99" t="n">
+        <v>90</v>
+      </c>
+      <c r="P99" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>174</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2970</v>
+      </c>
+      <c r="S99" t="n">
+        <v>150</v>
+      </c>
+      <c r="T99" t="n">
+        <v>5850</v>
+      </c>
+      <c r="U99" t="n">
+        <v>5850</v>
+      </c>
+      <c r="V99" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>224</v>
+      </c>
+      <c r="C100" t="n">
+        <v>25</v>
+      </c>
+      <c r="D100" t="n">
+        <v>15</v>
+      </c>
+      <c r="E100" t="n">
+        <v>20</v>
+      </c>
+      <c r="F100" t="n">
+        <v>20</v>
+      </c>
+      <c r="G100" t="n">
+        <v>20</v>
+      </c>
+      <c r="H100" t="n">
+        <v>20</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.020933938</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.044133758</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.06553745</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.011279141</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1.8039e-05</v>
+      </c>
+      <c r="N100" t="n">
+        <v>30</v>
+      </c>
+      <c r="O100" t="n">
+        <v>90</v>
+      </c>
+      <c r="P100" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>174</v>
+      </c>
+      <c r="R100" t="n">
+        <v>2970</v>
+      </c>
+      <c r="S100" t="n">
+        <v>150</v>
+      </c>
+      <c r="T100" t="n">
+        <v>4050</v>
+      </c>
+      <c r="U100" t="n">
+        <v>4050</v>
+      </c>
+      <c r="V100" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>224</v>
+      </c>
+      <c r="C101" t="n">
+        <v>25</v>
+      </c>
+      <c r="D101" t="n">
+        <v>20</v>
+      </c>
+      <c r="E101" t="n">
+        <v>20</v>
+      </c>
+      <c r="F101" t="n">
+        <v>20</v>
+      </c>
+      <c r="G101" t="n">
+        <v>20</v>
+      </c>
+      <c r="H101" t="n">
+        <v>20</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.021483217</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.033956629</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.048659019</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.014832367</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1.6988e-05</v>
+      </c>
+      <c r="N101" t="n">
+        <v>30</v>
+      </c>
+      <c r="O101" t="n">
+        <v>90</v>
+      </c>
+      <c r="P101" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>174</v>
+      </c>
+      <c r="R101" t="n">
+        <v>2970</v>
+      </c>
+      <c r="S101" t="n">
+        <v>150</v>
+      </c>
+      <c r="T101" t="n">
+        <v>2250</v>
+      </c>
+      <c r="U101" t="n">
+        <v>2250</v>
+      </c>
+      <c r="V101" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>224</v>
+      </c>
+      <c r="C102" t="n">
+        <v>30</v>
+      </c>
+      <c r="D102" t="n">
+        <v>5</v>
+      </c>
+      <c r="E102" t="n">
+        <v>20</v>
+      </c>
+      <c r="F102" t="n">
+        <v>20</v>
+      </c>
+      <c r="G102" t="n">
+        <v>20</v>
+      </c>
+      <c r="H102" t="n">
+        <v>20</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.025048707</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.079290872</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.121358451</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.004362273</v>
+      </c>
+      <c r="M102" t="n">
+        <v>2.1894e-05</v>
+      </c>
+      <c r="N102" t="n">
+        <v>30</v>
+      </c>
+      <c r="O102" t="n">
+        <v>90</v>
+      </c>
+      <c r="P102" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>174</v>
+      </c>
+      <c r="R102" t="n">
+        <v>3420</v>
+      </c>
+      <c r="S102" t="n">
+        <v>150</v>
+      </c>
+      <c r="T102" t="n">
+        <v>9450</v>
+      </c>
+      <c r="U102" t="n">
+        <v>9450</v>
+      </c>
+      <c r="V102" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>224</v>
+      </c>
+      <c r="C103" t="n">
+        <v>30</v>
+      </c>
+      <c r="D103" t="n">
+        <v>10</v>
+      </c>
+      <c r="E103" t="n">
+        <v>20</v>
+      </c>
+      <c r="F103" t="n">
+        <v>20</v>
+      </c>
+      <c r="G103" t="n">
+        <v>20</v>
+      </c>
+      <c r="H103" t="n">
+        <v>20</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.024648336</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.068263457</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.103303903</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0.007836986000000001</v>
+      </c>
+      <c r="M103" t="n">
+        <v>2.1593e-05</v>
+      </c>
+      <c r="N103" t="n">
+        <v>30</v>
+      </c>
+      <c r="O103" t="n">
+        <v>90</v>
+      </c>
+      <c r="P103" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>174</v>
+      </c>
+      <c r="R103" t="n">
+        <v>3420</v>
+      </c>
+      <c r="S103" t="n">
+        <v>150</v>
+      </c>
+      <c r="T103" t="n">
+        <v>7650</v>
+      </c>
+      <c r="U103" t="n">
+        <v>7650</v>
+      </c>
+      <c r="V103" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>224</v>
+      </c>
+      <c r="C104" t="n">
+        <v>30</v>
+      </c>
+      <c r="D104" t="n">
+        <v>15</v>
+      </c>
+      <c r="E104" t="n">
+        <v>20</v>
+      </c>
+      <c r="F104" t="n">
+        <v>20</v>
+      </c>
+      <c r="G104" t="n">
+        <v>20</v>
+      </c>
+      <c r="H104" t="n">
+        <v>20</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.024693191</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.058457408</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.086773367</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0.011295787</v>
+      </c>
+      <c r="M104" t="n">
+        <v>2.0258e-05</v>
+      </c>
+      <c r="N104" t="n">
+        <v>30</v>
+      </c>
+      <c r="O104" t="n">
+        <v>90</v>
+      </c>
+      <c r="P104" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>174</v>
+      </c>
+      <c r="R104" t="n">
+        <v>3420</v>
+      </c>
+      <c r="S104" t="n">
+        <v>150</v>
+      </c>
+      <c r="T104" t="n">
+        <v>5850</v>
+      </c>
+      <c r="U104" t="n">
+        <v>5850</v>
+      </c>
+      <c r="V104" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>224</v>
+      </c>
+      <c r="C105" t="n">
+        <v>30</v>
+      </c>
+      <c r="D105" t="n">
+        <v>20</v>
+      </c>
+      <c r="E105" t="n">
+        <v>20</v>
+      </c>
+      <c r="F105" t="n">
+        <v>20</v>
+      </c>
+      <c r="G105" t="n">
+        <v>20</v>
+      </c>
+      <c r="H105" t="n">
+        <v>20</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.024587405</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.047554268</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.069396346</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0.014998881</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1.8878e-05</v>
+      </c>
+      <c r="N105" t="n">
+        <v>30</v>
+      </c>
+      <c r="O105" t="n">
+        <v>90</v>
+      </c>
+      <c r="P105" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>174</v>
+      </c>
+      <c r="R105" t="n">
+        <v>3420</v>
+      </c>
+      <c r="S105" t="n">
+        <v>150</v>
+      </c>
+      <c r="T105" t="n">
+        <v>4050</v>
+      </c>
+      <c r="U105" t="n">
+        <v>4050</v>
+      </c>
+      <c r="V105" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>224</v>
+      </c>
+      <c r="C106" t="n">
+        <v>30</v>
+      </c>
+      <c r="D106" t="n">
+        <v>25</v>
+      </c>
+      <c r="E106" t="n">
+        <v>20</v>
+      </c>
+      <c r="F106" t="n">
+        <v>20</v>
+      </c>
+      <c r="G106" t="n">
+        <v>20</v>
+      </c>
+      <c r="H106" t="n">
+        <v>20</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.024798456</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.037410097</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.051198664</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.018132263</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1.7539e-05</v>
+      </c>
+      <c r="N106" t="n">
+        <v>30</v>
+      </c>
+      <c r="O106" t="n">
+        <v>90</v>
+      </c>
+      <c r="P106" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>174</v>
+      </c>
+      <c r="R106" t="n">
+        <v>3420</v>
+      </c>
+      <c r="S106" t="n">
+        <v>150</v>
+      </c>
+      <c r="T106" t="n">
+        <v>2250</v>
+      </c>
+      <c r="U106" t="n">
+        <v>2250</v>
+      </c>
+      <c r="V106" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>256</v>
+      </c>
+      <c r="C107" t="n">
+        <v>10</v>
+      </c>
+      <c r="D107" t="n">
+        <v>5</v>
+      </c>
+      <c r="E107" t="n">
+        <v>20</v>
+      </c>
+      <c r="F107" t="n">
+        <v>20</v>
+      </c>
+      <c r="G107" t="n">
+        <v>20</v>
+      </c>
+      <c r="H107" t="n">
+        <v>20</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.01078377</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.023306131</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.038222885</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0.004419952</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1.737e-05</v>
+      </c>
+      <c r="N107" t="n">
+        <v>30</v>
+      </c>
+      <c r="O107" t="n">
+        <v>90</v>
+      </c>
+      <c r="P107" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>174</v>
+      </c>
+      <c r="R107" t="n">
+        <v>1620</v>
+      </c>
+      <c r="S107" t="n">
+        <v>150</v>
+      </c>
+      <c r="T107" t="n">
+        <v>2250</v>
+      </c>
+      <c r="U107" t="n">
+        <v>2250</v>
+      </c>
+      <c r="V107" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>256</v>
+      </c>
+      <c r="C108" t="n">
+        <v>15</v>
+      </c>
+      <c r="D108" t="n">
+        <v>5</v>
+      </c>
+      <c r="E108" t="n">
+        <v>20</v>
+      </c>
+      <c r="F108" t="n">
+        <v>20</v>
+      </c>
+      <c r="G108" t="n">
+        <v>20</v>
+      </c>
+      <c r="H108" t="n">
+        <v>20</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.014051625</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.037065761</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.059191476</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.004325897</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1.7075e-05</v>
+      </c>
+      <c r="N108" t="n">
+        <v>30</v>
+      </c>
+      <c r="O108" t="n">
+        <v>90</v>
+      </c>
+      <c r="P108" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>174</v>
+      </c>
+      <c r="R108" t="n">
+        <v>2070</v>
+      </c>
+      <c r="S108" t="n">
+        <v>150</v>
+      </c>
+      <c r="T108" t="n">
+        <v>4050</v>
+      </c>
+      <c r="U108" t="n">
+        <v>4050</v>
+      </c>
+      <c r="V108" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>256</v>
+      </c>
+      <c r="C109" t="n">
+        <v>15</v>
+      </c>
+      <c r="D109" t="n">
+        <v>10</v>
+      </c>
+      <c r="E109" t="n">
+        <v>20</v>
+      </c>
+      <c r="F109" t="n">
+        <v>20</v>
+      </c>
+      <c r="G109" t="n">
+        <v>20</v>
+      </c>
+      <c r="H109" t="n">
+        <v>20</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.014140423</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.026699878</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.041292797</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.007823904</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1.6059e-05</v>
+      </c>
+      <c r="N109" t="n">
+        <v>30</v>
+      </c>
+      <c r="O109" t="n">
+        <v>90</v>
+      </c>
+      <c r="P109" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>174</v>
+      </c>
+      <c r="R109" t="n">
+        <v>2070</v>
+      </c>
+      <c r="S109" t="n">
+        <v>150</v>
+      </c>
+      <c r="T109" t="n">
+        <v>2250</v>
+      </c>
+      <c r="U109" t="n">
+        <v>2250</v>
+      </c>
+      <c r="V109" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>256</v>
+      </c>
+      <c r="C110" t="n">
+        <v>20</v>
+      </c>
+      <c r="D110" t="n">
+        <v>5</v>
+      </c>
+      <c r="E110" t="n">
+        <v>20</v>
+      </c>
+      <c r="F110" t="n">
+        <v>20</v>
+      </c>
+      <c r="G110" t="n">
+        <v>20</v>
+      </c>
+      <c r="H110" t="n">
+        <v>20</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.017597364</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.051713394</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.079858176</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.004351789</v>
+      </c>
+      <c r="M110" t="n">
+        <v>2.0233e-05</v>
+      </c>
+      <c r="N110" t="n">
+        <v>30</v>
+      </c>
+      <c r="O110" t="n">
+        <v>90</v>
+      </c>
+      <c r="P110" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>174</v>
+      </c>
+      <c r="R110" t="n">
+        <v>2520</v>
+      </c>
+      <c r="S110" t="n">
+        <v>150</v>
+      </c>
+      <c r="T110" t="n">
+        <v>5850</v>
+      </c>
+      <c r="U110" t="n">
+        <v>5850</v>
+      </c>
+      <c r="V110" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>256</v>
+      </c>
+      <c r="C111" t="n">
+        <v>20</v>
+      </c>
+      <c r="D111" t="n">
+        <v>10</v>
+      </c>
+      <c r="E111" t="n">
+        <v>20</v>
+      </c>
+      <c r="F111" t="n">
+        <v>20</v>
+      </c>
+      <c r="G111" t="n">
+        <v>20</v>
+      </c>
+      <c r="H111" t="n">
+        <v>20</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.017598863</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.040364556</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.0622357</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.007843467999999999</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1.9291e-05</v>
+      </c>
+      <c r="N111" t="n">
+        <v>30</v>
+      </c>
+      <c r="O111" t="n">
+        <v>90</v>
+      </c>
+      <c r="P111" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>174</v>
+      </c>
+      <c r="R111" t="n">
+        <v>2520</v>
+      </c>
+      <c r="S111" t="n">
+        <v>150</v>
+      </c>
+      <c r="T111" t="n">
+        <v>4050</v>
+      </c>
+      <c r="U111" t="n">
+        <v>4050</v>
+      </c>
+      <c r="V111" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>256</v>
+      </c>
+      <c r="C112" t="n">
+        <v>20</v>
+      </c>
+      <c r="D112" t="n">
+        <v>15</v>
+      </c>
+      <c r="E112" t="n">
+        <v>20</v>
+      </c>
+      <c r="F112" t="n">
+        <v>20</v>
+      </c>
+      <c r="G112" t="n">
+        <v>20</v>
+      </c>
+      <c r="H112" t="n">
+        <v>20</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.017690476</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.030115207</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.044770998</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.011274734</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1.7528e-05</v>
+      </c>
+      <c r="N112" t="n">
+        <v>30</v>
+      </c>
+      <c r="O112" t="n">
+        <v>90</v>
+      </c>
+      <c r="P112" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>174</v>
+      </c>
+      <c r="R112" t="n">
+        <v>2520</v>
+      </c>
+      <c r="S112" t="n">
+        <v>150</v>
+      </c>
+      <c r="T112" t="n">
+        <v>2250</v>
+      </c>
+      <c r="U112" t="n">
+        <v>2250</v>
+      </c>
+      <c r="V112" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>256</v>
+      </c>
+      <c r="C113" t="n">
+        <v>25</v>
+      </c>
+      <c r="D113" t="n">
+        <v>5</v>
+      </c>
+      <c r="E113" t="n">
+        <v>20</v>
+      </c>
+      <c r="F113" t="n">
+        <v>20</v>
+      </c>
+      <c r="G113" t="n">
+        <v>20</v>
+      </c>
+      <c r="H113" t="n">
+        <v>20</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.021042079</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.06436075600000001</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.099764716</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.004354084</v>
+      </c>
+      <c r="M113" t="n">
+        <v>2.1083e-05</v>
+      </c>
+      <c r="N113" t="n">
+        <v>30</v>
+      </c>
+      <c r="O113" t="n">
+        <v>90</v>
+      </c>
+      <c r="P113" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>174</v>
+      </c>
+      <c r="R113" t="n">
+        <v>2970</v>
+      </c>
+      <c r="S113" t="n">
+        <v>150</v>
+      </c>
+      <c r="T113" t="n">
+        <v>7650</v>
+      </c>
+      <c r="U113" t="n">
+        <v>7650</v>
+      </c>
+      <c r="V113" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>256</v>
+      </c>
+      <c r="C114" t="n">
+        <v>25</v>
+      </c>
+      <c r="D114" t="n">
+        <v>10</v>
+      </c>
+      <c r="E114" t="n">
+        <v>20</v>
+      </c>
+      <c r="F114" t="n">
+        <v>20</v>
+      </c>
+      <c r="G114" t="n">
+        <v>20</v>
+      </c>
+      <c r="H114" t="n">
+        <v>20</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.021248986</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.054311796</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.08388854699999999</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.007859401</v>
+      </c>
+      <c r="M114" t="n">
+        <v>2.0453e-05</v>
+      </c>
+      <c r="N114" t="n">
+        <v>30</v>
+      </c>
+      <c r="O114" t="n">
+        <v>90</v>
+      </c>
+      <c r="P114" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>174</v>
+      </c>
+      <c r="R114" t="n">
+        <v>2970</v>
+      </c>
+      <c r="S114" t="n">
+        <v>150</v>
+      </c>
+      <c r="T114" t="n">
+        <v>5850</v>
+      </c>
+      <c r="U114" t="n">
+        <v>5850</v>
+      </c>
+      <c r="V114" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>256</v>
+      </c>
+      <c r="C115" t="n">
+        <v>25</v>
+      </c>
+      <c r="D115" t="n">
+        <v>15</v>
+      </c>
+      <c r="E115" t="n">
+        <v>20</v>
+      </c>
+      <c r="F115" t="n">
+        <v>20</v>
+      </c>
+      <c r="G115" t="n">
+        <v>20</v>
+      </c>
+      <c r="H115" t="n">
+        <v>20</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.021085463</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.044250862</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.065703417</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.011357189</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1.9856e-05</v>
+      </c>
+      <c r="N115" t="n">
+        <v>30</v>
+      </c>
+      <c r="O115" t="n">
+        <v>90</v>
+      </c>
+      <c r="P115" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>174</v>
+      </c>
+      <c r="R115" t="n">
+        <v>2970</v>
+      </c>
+      <c r="S115" t="n">
+        <v>150</v>
+      </c>
+      <c r="T115" t="n">
+        <v>4050</v>
+      </c>
+      <c r="U115" t="n">
+        <v>4050</v>
+      </c>
+      <c r="V115" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>256</v>
+      </c>
+      <c r="C116" t="n">
+        <v>25</v>
+      </c>
+      <c r="D116" t="n">
+        <v>20</v>
+      </c>
+      <c r="E116" t="n">
+        <v>20</v>
+      </c>
+      <c r="F116" t="n">
+        <v>20</v>
+      </c>
+      <c r="G116" t="n">
+        <v>20</v>
+      </c>
+      <c r="H116" t="n">
+        <v>20</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.020899784</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.033209885</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.047732145</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0.014757888</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1.6806e-05</v>
+      </c>
+      <c r="N116" t="n">
+        <v>30</v>
+      </c>
+      <c r="O116" t="n">
+        <v>90</v>
+      </c>
+      <c r="P116" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>174</v>
+      </c>
+      <c r="R116" t="n">
+        <v>2970</v>
+      </c>
+      <c r="S116" t="n">
+        <v>150</v>
+      </c>
+      <c r="T116" t="n">
+        <v>2250</v>
+      </c>
+      <c r="U116" t="n">
+        <v>2250</v>
+      </c>
+      <c r="V116" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>256</v>
+      </c>
+      <c r="C117" t="n">
+        <v>30</v>
+      </c>
+      <c r="D117" t="n">
+        <v>5</v>
+      </c>
+      <c r="E117" t="n">
+        <v>20</v>
+      </c>
+      <c r="F117" t="n">
+        <v>20</v>
+      </c>
+      <c r="G117" t="n">
+        <v>20</v>
+      </c>
+      <c r="H117" t="n">
+        <v>20</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.024532254</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.078537539</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.121898539</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0.004314418</v>
+      </c>
+      <c r="M117" t="n">
+        <v>2.0368e-05</v>
+      </c>
+      <c r="N117" t="n">
+        <v>30</v>
+      </c>
+      <c r="O117" t="n">
+        <v>90</v>
+      </c>
+      <c r="P117" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>174</v>
+      </c>
+      <c r="R117" t="n">
+        <v>3420</v>
+      </c>
+      <c r="S117" t="n">
+        <v>150</v>
+      </c>
+      <c r="T117" t="n">
+        <v>9450</v>
+      </c>
+      <c r="U117" t="n">
+        <v>9450</v>
+      </c>
+      <c r="V117" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>256</v>
+      </c>
+      <c r="C118" t="n">
+        <v>30</v>
+      </c>
+      <c r="D118" t="n">
+        <v>10</v>
+      </c>
+      <c r="E118" t="n">
+        <v>20</v>
+      </c>
+      <c r="F118" t="n">
+        <v>20</v>
+      </c>
+      <c r="G118" t="n">
+        <v>20</v>
+      </c>
+      <c r="H118" t="n">
+        <v>20</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.02634982</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.070960943</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.10923445</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0.008518915</v>
+      </c>
+      <c r="M118" t="n">
+        <v>2.6248e-05</v>
+      </c>
+      <c r="N118" t="n">
+        <v>30</v>
+      </c>
+      <c r="O118" t="n">
+        <v>90</v>
+      </c>
+      <c r="P118" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>174</v>
+      </c>
+      <c r="R118" t="n">
+        <v>3420</v>
+      </c>
+      <c r="S118" t="n">
+        <v>150</v>
+      </c>
+      <c r="T118" t="n">
+        <v>7650</v>
+      </c>
+      <c r="U118" t="n">
+        <v>7650</v>
+      </c>
+      <c r="V118" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>256</v>
+      </c>
+      <c r="C119" t="n">
+        <v>30</v>
+      </c>
+      <c r="D119" t="n">
+        <v>15</v>
+      </c>
+      <c r="E119" t="n">
+        <v>20</v>
+      </c>
+      <c r="F119" t="n">
+        <v>20</v>
+      </c>
+      <c r="G119" t="n">
+        <v>20</v>
+      </c>
+      <c r="H119" t="n">
+        <v>20</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.024462407</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.058066571</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.086832386</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0.011323068</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1.9427e-05</v>
+      </c>
+      <c r="N119" t="n">
+        <v>30</v>
+      </c>
+      <c r="O119" t="n">
+        <v>90</v>
+      </c>
+      <c r="P119" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>174</v>
+      </c>
+      <c r="R119" t="n">
+        <v>3420</v>
+      </c>
+      <c r="S119" t="n">
+        <v>150</v>
+      </c>
+      <c r="T119" t="n">
+        <v>5850</v>
+      </c>
+      <c r="U119" t="n">
+        <v>5850</v>
+      </c>
+      <c r="V119" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>256</v>
+      </c>
+      <c r="C120" t="n">
+        <v>30</v>
+      </c>
+      <c r="D120" t="n">
+        <v>20</v>
+      </c>
+      <c r="E120" t="n">
+        <v>20</v>
+      </c>
+      <c r="F120" t="n">
+        <v>20</v>
+      </c>
+      <c r="G120" t="n">
+        <v>20</v>
+      </c>
+      <c r="H120" t="n">
+        <v>20</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.024538323</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.047356498</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.068485593</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0.014765023</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1.8375e-05</v>
+      </c>
+      <c r="N120" t="n">
+        <v>30</v>
+      </c>
+      <c r="O120" t="n">
+        <v>90</v>
+      </c>
+      <c r="P120" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>174</v>
+      </c>
+      <c r="R120" t="n">
+        <v>3420</v>
+      </c>
+      <c r="S120" t="n">
+        <v>150</v>
+      </c>
+      <c r="T120" t="n">
+        <v>4050</v>
+      </c>
+      <c r="U120" t="n">
+        <v>4050</v>
+      </c>
+      <c r="V120" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>256</v>
+      </c>
+      <c r="C121" t="n">
+        <v>30</v>
+      </c>
+      <c r="D121" t="n">
+        <v>25</v>
+      </c>
+      <c r="E121" t="n">
+        <v>20</v>
+      </c>
+      <c r="F121" t="n">
+        <v>20</v>
+      </c>
+      <c r="G121" t="n">
+        <v>20</v>
+      </c>
+      <c r="H121" t="n">
+        <v>20</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.025588721</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.038173223</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.054156139</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0.019103934</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1.9973e-05</v>
+      </c>
+      <c r="N121" t="n">
+        <v>30</v>
+      </c>
+      <c r="O121" t="n">
+        <v>90</v>
+      </c>
+      <c r="P121" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>174</v>
+      </c>
+      <c r="R121" t="n">
+        <v>3420</v>
+      </c>
+      <c r="S121" t="n">
+        <v>150</v>
+      </c>
+      <c r="T121" t="n">
+        <v>2250</v>
+      </c>
+      <c r="U121" t="n">
+        <v>2250</v>
+      </c>
+      <c r="V121" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>384</v>
+      </c>
+      <c r="C122" t="n">
+        <v>10</v>
+      </c>
+      <c r="D122" t="n">
+        <v>5</v>
+      </c>
+      <c r="E122" t="n">
+        <v>20</v>
+      </c>
+      <c r="F122" t="n">
+        <v>20</v>
+      </c>
+      <c r="G122" t="n">
+        <v>20</v>
+      </c>
+      <c r="H122" t="n">
+        <v>20</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.010923856</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.023148381</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.03839295</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.00438407</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1.6179e-05</v>
+      </c>
+      <c r="N122" t="n">
+        <v>30</v>
+      </c>
+      <c r="O122" t="n">
+        <v>90</v>
+      </c>
+      <c r="P122" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>174</v>
+      </c>
+      <c r="R122" t="n">
+        <v>1620</v>
+      </c>
+      <c r="S122" t="n">
+        <v>150</v>
+      </c>
+      <c r="T122" t="n">
+        <v>2250</v>
+      </c>
+      <c r="U122" t="n">
+        <v>2250</v>
+      </c>
+      <c r="V122" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>384</v>
+      </c>
+      <c r="C123" t="n">
+        <v>15</v>
+      </c>
+      <c r="D123" t="n">
+        <v>5</v>
+      </c>
+      <c r="E123" t="n">
+        <v>20</v>
+      </c>
+      <c r="F123" t="n">
+        <v>20</v>
+      </c>
+      <c r="G123" t="n">
+        <v>20</v>
+      </c>
+      <c r="H123" t="n">
+        <v>20</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.014302242</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.036840115</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.058737871</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0.004388716</v>
+      </c>
+      <c r="M123" t="n">
+        <v>1.6781e-05</v>
+      </c>
+      <c r="N123" t="n">
+        <v>30</v>
+      </c>
+      <c r="O123" t="n">
+        <v>90</v>
+      </c>
+      <c r="P123" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>174</v>
+      </c>
+      <c r="R123" t="n">
+        <v>2070</v>
+      </c>
+      <c r="S123" t="n">
+        <v>150</v>
+      </c>
+      <c r="T123" t="n">
+        <v>4050</v>
+      </c>
+      <c r="U123" t="n">
+        <v>4050</v>
+      </c>
+      <c r="V123" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>384</v>
+      </c>
+      <c r="C124" t="n">
+        <v>15</v>
+      </c>
+      <c r="D124" t="n">
+        <v>10</v>
+      </c>
+      <c r="E124" t="n">
+        <v>20</v>
+      </c>
+      <c r="F124" t="n">
+        <v>20</v>
+      </c>
+      <c r="G124" t="n">
+        <v>20</v>
+      </c>
+      <c r="H124" t="n">
+        <v>20</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.014535055</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.027072162</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.042417155</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0.007915972</v>
+      </c>
+      <c r="M124" t="n">
+        <v>1.7314e-05</v>
+      </c>
+      <c r="N124" t="n">
+        <v>30</v>
+      </c>
+      <c r="O124" t="n">
+        <v>90</v>
+      </c>
+      <c r="P124" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>174</v>
+      </c>
+      <c r="R124" t="n">
+        <v>2070</v>
+      </c>
+      <c r="S124" t="n">
+        <v>150</v>
+      </c>
+      <c r="T124" t="n">
+        <v>2250</v>
+      </c>
+      <c r="U124" t="n">
+        <v>2250</v>
+      </c>
+      <c r="V124" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>384</v>
+      </c>
+      <c r="C125" t="n">
+        <v>20</v>
+      </c>
+      <c r="D125" t="n">
+        <v>5</v>
+      </c>
+      <c r="E125" t="n">
+        <v>20</v>
+      </c>
+      <c r="F125" t="n">
+        <v>20</v>
+      </c>
+      <c r="G125" t="n">
+        <v>20</v>
+      </c>
+      <c r="H125" t="n">
+        <v>20</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.018154534</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.051660336</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.081803241</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0.004425247</v>
+      </c>
+      <c r="M125" t="n">
+        <v>1.9999e-05</v>
+      </c>
+      <c r="N125" t="n">
+        <v>30</v>
+      </c>
+      <c r="O125" t="n">
+        <v>90</v>
+      </c>
+      <c r="P125" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>174</v>
+      </c>
+      <c r="R125" t="n">
+        <v>2520</v>
+      </c>
+      <c r="S125" t="n">
+        <v>150</v>
+      </c>
+      <c r="T125" t="n">
+        <v>5850</v>
+      </c>
+      <c r="U125" t="n">
+        <v>5850</v>
+      </c>
+      <c r="V125" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>384</v>
+      </c>
+      <c r="C126" t="n">
+        <v>20</v>
+      </c>
+      <c r="D126" t="n">
+        <v>10</v>
+      </c>
+      <c r="E126" t="n">
+        <v>20</v>
+      </c>
+      <c r="F126" t="n">
+        <v>20</v>
+      </c>
+      <c r="G126" t="n">
+        <v>20</v>
+      </c>
+      <c r="H126" t="n">
+        <v>20</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.018164862</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.041653318</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.063917817</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0.008061343</v>
+      </c>
+      <c r="M126" t="n">
+        <v>1.8704e-05</v>
+      </c>
+      <c r="N126" t="n">
+        <v>30</v>
+      </c>
+      <c r="O126" t="n">
+        <v>90</v>
+      </c>
+      <c r="P126" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>174</v>
+      </c>
+      <c r="R126" t="n">
+        <v>2520</v>
+      </c>
+      <c r="S126" t="n">
+        <v>150</v>
+      </c>
+      <c r="T126" t="n">
+        <v>4050</v>
+      </c>
+      <c r="U126" t="n">
+        <v>4050</v>
+      </c>
+      <c r="V126" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>384</v>
+      </c>
+      <c r="C127" t="n">
+        <v>20</v>
+      </c>
+      <c r="D127" t="n">
+        <v>15</v>
+      </c>
+      <c r="E127" t="n">
+        <v>20</v>
+      </c>
+      <c r="F127" t="n">
+        <v>20</v>
+      </c>
+      <c r="G127" t="n">
+        <v>20</v>
+      </c>
+      <c r="H127" t="n">
+        <v>20</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.017727252</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.030272491</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.044798123</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.011472886</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1.7333e-05</v>
+      </c>
+      <c r="N127" t="n">
+        <v>30</v>
+      </c>
+      <c r="O127" t="n">
+        <v>90</v>
+      </c>
+      <c r="P127" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>174</v>
+      </c>
+      <c r="R127" t="n">
+        <v>2520</v>
+      </c>
+      <c r="S127" t="n">
+        <v>150</v>
+      </c>
+      <c r="T127" t="n">
+        <v>2250</v>
+      </c>
+      <c r="U127" t="n">
+        <v>2250</v>
+      </c>
+      <c r="V127" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>384</v>
+      </c>
+      <c r="C128" t="n">
+        <v>25</v>
+      </c>
+      <c r="D128" t="n">
+        <v>5</v>
+      </c>
+      <c r="E128" t="n">
+        <v>20</v>
+      </c>
+      <c r="F128" t="n">
+        <v>20</v>
+      </c>
+      <c r="G128" t="n">
+        <v>20</v>
+      </c>
+      <c r="H128" t="n">
+        <v>20</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.021848028</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.06685327200000001</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.10249138</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0.004502134</v>
+      </c>
+      <c r="M128" t="n">
+        <v>2.3889e-05</v>
+      </c>
+      <c r="N128" t="n">
+        <v>30</v>
+      </c>
+      <c r="O128" t="n">
+        <v>90</v>
+      </c>
+      <c r="P128" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>174</v>
+      </c>
+      <c r="R128" t="n">
+        <v>2970</v>
+      </c>
+      <c r="S128" t="n">
+        <v>150</v>
+      </c>
+      <c r="T128" t="n">
+        <v>7650</v>
+      </c>
+      <c r="U128" t="n">
+        <v>7650</v>
+      </c>
+      <c r="V128" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>384</v>
+      </c>
+      <c r="C129" t="n">
+        <v>25</v>
+      </c>
+      <c r="D129" t="n">
+        <v>10</v>
+      </c>
+      <c r="E129" t="n">
+        <v>20</v>
+      </c>
+      <c r="F129" t="n">
+        <v>20</v>
+      </c>
+      <c r="G129" t="n">
+        <v>20</v>
+      </c>
+      <c r="H129" t="n">
+        <v>20</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.021217679</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.055909006</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.085277643</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0.008017619</v>
+      </c>
+      <c r="M129" t="n">
+        <v>2.1794e-05</v>
+      </c>
+      <c r="N129" t="n">
+        <v>30</v>
+      </c>
+      <c r="O129" t="n">
+        <v>90</v>
+      </c>
+      <c r="P129" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>174</v>
+      </c>
+      <c r="R129" t="n">
+        <v>2970</v>
+      </c>
+      <c r="S129" t="n">
+        <v>150</v>
+      </c>
+      <c r="T129" t="n">
+        <v>5850</v>
+      </c>
+      <c r="U129" t="n">
+        <v>5850</v>
+      </c>
+      <c r="V129" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>384</v>
+      </c>
+      <c r="C130" t="n">
+        <v>25</v>
+      </c>
+      <c r="D130" t="n">
+        <v>15</v>
+      </c>
+      <c r="E130" t="n">
+        <v>20</v>
+      </c>
+      <c r="F130" t="n">
+        <v>20</v>
+      </c>
+      <c r="G130" t="n">
+        <v>20</v>
+      </c>
+      <c r="H130" t="n">
+        <v>20</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.022045628</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.045639322</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.067469826</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0.01179094</v>
+      </c>
+      <c r="M130" t="n">
+        <v>2.4168e-05</v>
+      </c>
+      <c r="N130" t="n">
+        <v>30</v>
+      </c>
+      <c r="O130" t="n">
+        <v>90</v>
+      </c>
+      <c r="P130" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>174</v>
+      </c>
+      <c r="R130" t="n">
+        <v>2970</v>
+      </c>
+      <c r="S130" t="n">
+        <v>150</v>
+      </c>
+      <c r="T130" t="n">
+        <v>4050</v>
+      </c>
+      <c r="U130" t="n">
+        <v>4050</v>
+      </c>
+      <c r="V130" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>384</v>
+      </c>
+      <c r="C131" t="n">
+        <v>25</v>
+      </c>
+      <c r="D131" t="n">
+        <v>20</v>
+      </c>
+      <c r="E131" t="n">
+        <v>20</v>
+      </c>
+      <c r="F131" t="n">
+        <v>20</v>
+      </c>
+      <c r="G131" t="n">
+        <v>20</v>
+      </c>
+      <c r="H131" t="n">
+        <v>20</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.021889117</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.03506715</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.050001003</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0.015210768</v>
+      </c>
+      <c r="M131" t="n">
+        <v>2.0678e-05</v>
+      </c>
+      <c r="N131" t="n">
+        <v>30</v>
+      </c>
+      <c r="O131" t="n">
+        <v>90</v>
+      </c>
+      <c r="P131" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>174</v>
+      </c>
+      <c r="R131" t="n">
+        <v>2970</v>
+      </c>
+      <c r="S131" t="n">
+        <v>150</v>
+      </c>
+      <c r="T131" t="n">
+        <v>2250</v>
+      </c>
+      <c r="U131" t="n">
+        <v>2250</v>
+      </c>
+      <c r="V131" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>384</v>
+      </c>
+      <c r="C132" t="n">
+        <v>30</v>
+      </c>
+      <c r="D132" t="n">
+        <v>5</v>
+      </c>
+      <c r="E132" t="n">
+        <v>20</v>
+      </c>
+      <c r="F132" t="n">
+        <v>20</v>
+      </c>
+      <c r="G132" t="n">
+        <v>20</v>
+      </c>
+      <c r="H132" t="n">
+        <v>20</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.025391029</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.082056515</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.126086292</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0.004707019</v>
+      </c>
+      <c r="M132" t="n">
+        <v>2.9325e-05</v>
+      </c>
+      <c r="N132" t="n">
+        <v>30</v>
+      </c>
+      <c r="O132" t="n">
+        <v>90</v>
+      </c>
+      <c r="P132" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>174</v>
+      </c>
+      <c r="R132" t="n">
+        <v>3420</v>
+      </c>
+      <c r="S132" t="n">
+        <v>150</v>
+      </c>
+      <c r="T132" t="n">
+        <v>9450</v>
+      </c>
+      <c r="U132" t="n">
+        <v>9450</v>
+      </c>
+      <c r="V132" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>384</v>
+      </c>
+      <c r="C133" t="n">
+        <v>30</v>
+      </c>
+      <c r="D133" t="n">
+        <v>10</v>
+      </c>
+      <c r="E133" t="n">
+        <v>20</v>
+      </c>
+      <c r="F133" t="n">
+        <v>20</v>
+      </c>
+      <c r="G133" t="n">
+        <v>20</v>
+      </c>
+      <c r="H133" t="n">
+        <v>20</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.026329919</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.071026881</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.109032031</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0.008369852000000001</v>
+      </c>
+      <c r="M133" t="n">
+        <v>2.6703e-05</v>
+      </c>
+      <c r="N133" t="n">
+        <v>30</v>
+      </c>
+      <c r="O133" t="n">
+        <v>90</v>
+      </c>
+      <c r="P133" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>174</v>
+      </c>
+      <c r="R133" t="n">
+        <v>3420</v>
+      </c>
+      <c r="S133" t="n">
+        <v>150</v>
+      </c>
+      <c r="T133" t="n">
+        <v>7650</v>
+      </c>
+      <c r="U133" t="n">
+        <v>7650</v>
+      </c>
+      <c r="V133" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>384</v>
+      </c>
+      <c r="C134" t="n">
+        <v>30</v>
+      </c>
+      <c r="D134" t="n">
+        <v>15</v>
+      </c>
+      <c r="E134" t="n">
+        <v>20</v>
+      </c>
+      <c r="F134" t="n">
+        <v>20</v>
+      </c>
+      <c r="G134" t="n">
+        <v>20</v>
+      </c>
+      <c r="H134" t="n">
+        <v>20</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.02564789</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.060014809</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.09035942600000001</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0.011841184</v>
+      </c>
+      <c r="M134" t="n">
+        <v>2.7915e-05</v>
+      </c>
+      <c r="N134" t="n">
+        <v>30</v>
+      </c>
+      <c r="O134" t="n">
+        <v>90</v>
+      </c>
+      <c r="P134" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>174</v>
+      </c>
+      <c r="R134" t="n">
+        <v>3420</v>
+      </c>
+      <c r="S134" t="n">
+        <v>150</v>
+      </c>
+      <c r="T134" t="n">
+        <v>5850</v>
+      </c>
+      <c r="U134" t="n">
+        <v>5850</v>
+      </c>
+      <c r="V134" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>384</v>
+      </c>
+      <c r="C135" t="n">
+        <v>30</v>
+      </c>
+      <c r="D135" t="n">
+        <v>20</v>
+      </c>
+      <c r="E135" t="n">
+        <v>20</v>
+      </c>
+      <c r="F135" t="n">
+        <v>20</v>
+      </c>
+      <c r="G135" t="n">
+        <v>20</v>
+      </c>
+      <c r="H135" t="n">
+        <v>20</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.025049672</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.048324029</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.070713047</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0.014972009</v>
+      </c>
+      <c r="M135" t="n">
+        <v>2.19e-05</v>
+      </c>
+      <c r="N135" t="n">
+        <v>30</v>
+      </c>
+      <c r="O135" t="n">
+        <v>90</v>
+      </c>
+      <c r="P135" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>174</v>
+      </c>
+      <c r="R135" t="n">
+        <v>3420</v>
+      </c>
+      <c r="S135" t="n">
+        <v>150</v>
+      </c>
+      <c r="T135" t="n">
+        <v>4050</v>
+      </c>
+      <c r="U135" t="n">
+        <v>4050</v>
+      </c>
+      <c r="V135" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>384</v>
+      </c>
+      <c r="C136" t="n">
+        <v>30</v>
+      </c>
+      <c r="D136" t="n">
+        <v>25</v>
+      </c>
+      <c r="E136" t="n">
+        <v>20</v>
+      </c>
+      <c r="F136" t="n">
+        <v>20</v>
+      </c>
+      <c r="G136" t="n">
+        <v>20</v>
+      </c>
+      <c r="H136" t="n">
+        <v>20</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.024975087</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.037656604</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.052321841</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0.018578398</v>
+      </c>
+      <c r="M136" t="n">
+        <v>1.7904e-05</v>
+      </c>
+      <c r="N136" t="n">
+        <v>30</v>
+      </c>
+      <c r="O136" t="n">
+        <v>90</v>
+      </c>
+      <c r="P136" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>174</v>
+      </c>
+      <c r="R136" t="n">
+        <v>3420</v>
+      </c>
+      <c r="S136" t="n">
+        <v>150</v>
+      </c>
+      <c r="T136" t="n">
+        <v>2250</v>
+      </c>
+      <c r="U136" t="n">
+        <v>2250</v>
+      </c>
+      <c r="V136" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>512</v>
+      </c>
+      <c r="C137" t="n">
+        <v>10</v>
+      </c>
+      <c r="D137" t="n">
+        <v>5</v>
+      </c>
+      <c r="E137" t="n">
+        <v>20</v>
+      </c>
+      <c r="F137" t="n">
+        <v>20</v>
+      </c>
+      <c r="G137" t="n">
+        <v>20</v>
+      </c>
+      <c r="H137" t="n">
+        <v>20</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.010939701</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.023880285</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.038828056</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0.004521632</v>
+      </c>
+      <c r="M137" t="n">
+        <v>1.8769e-05</v>
+      </c>
+      <c r="N137" t="n">
+        <v>30</v>
+      </c>
+      <c r="O137" t="n">
+        <v>90</v>
+      </c>
+      <c r="P137" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>174</v>
+      </c>
+      <c r="R137" t="n">
+        <v>1620</v>
+      </c>
+      <c r="S137" t="n">
+        <v>150</v>
+      </c>
+      <c r="T137" t="n">
+        <v>2250</v>
+      </c>
+      <c r="U137" t="n">
+        <v>2250</v>
+      </c>
+      <c r="V137" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>512</v>
+      </c>
+      <c r="C138" t="n">
+        <v>15</v>
+      </c>
+      <c r="D138" t="n">
+        <v>5</v>
+      </c>
+      <c r="E138" t="n">
+        <v>20</v>
+      </c>
+      <c r="F138" t="n">
+        <v>20</v>
+      </c>
+      <c r="G138" t="n">
+        <v>20</v>
+      </c>
+      <c r="H138" t="n">
+        <v>20</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.014635685</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.038185438</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.060644746</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0.00456072</v>
+      </c>
+      <c r="M138" t="n">
+        <v>2.2223e-05</v>
+      </c>
+      <c r="N138" t="n">
+        <v>30</v>
+      </c>
+      <c r="O138" t="n">
+        <v>90</v>
+      </c>
+      <c r="P138" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>174</v>
+      </c>
+      <c r="R138" t="n">
+        <v>2070</v>
+      </c>
+      <c r="S138" t="n">
+        <v>150</v>
+      </c>
+      <c r="T138" t="n">
+        <v>4050</v>
+      </c>
+      <c r="U138" t="n">
+        <v>4050</v>
+      </c>
+      <c r="V138" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>512</v>
+      </c>
+      <c r="C139" t="n">
+        <v>15</v>
+      </c>
+      <c r="D139" t="n">
+        <v>10</v>
+      </c>
+      <c r="E139" t="n">
+        <v>20</v>
+      </c>
+      <c r="F139" t="n">
+        <v>20</v>
+      </c>
+      <c r="G139" t="n">
+        <v>20</v>
+      </c>
+      <c r="H139" t="n">
+        <v>20</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.014534397</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.027254573</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.042606056</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0.00819345</v>
+      </c>
+      <c r="M139" t="n">
+        <v>1.9547e-05</v>
+      </c>
+      <c r="N139" t="n">
+        <v>30</v>
+      </c>
+      <c r="O139" t="n">
+        <v>90</v>
+      </c>
+      <c r="P139" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>174</v>
+      </c>
+      <c r="R139" t="n">
+        <v>2070</v>
+      </c>
+      <c r="S139" t="n">
+        <v>150</v>
+      </c>
+      <c r="T139" t="n">
+        <v>2250</v>
+      </c>
+      <c r="U139" t="n">
+        <v>2250</v>
+      </c>
+      <c r="V139" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>512</v>
+      </c>
+      <c r="C140" t="n">
+        <v>20</v>
+      </c>
+      <c r="D140" t="n">
+        <v>5</v>
+      </c>
+      <c r="E140" t="n">
+        <v>20</v>
+      </c>
+      <c r="F140" t="n">
+        <v>20</v>
+      </c>
+      <c r="G140" t="n">
+        <v>20</v>
+      </c>
+      <c r="H140" t="n">
+        <v>20</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.018404896</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.053316396</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.083502177</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0.004598808</v>
+      </c>
+      <c r="M140" t="n">
+        <v>2.4481e-05</v>
+      </c>
+      <c r="N140" t="n">
+        <v>30</v>
+      </c>
+      <c r="O140" t="n">
+        <v>90</v>
+      </c>
+      <c r="P140" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>174</v>
+      </c>
+      <c r="R140" t="n">
+        <v>2520</v>
+      </c>
+      <c r="S140" t="n">
+        <v>150</v>
+      </c>
+      <c r="T140" t="n">
+        <v>5850</v>
+      </c>
+      <c r="U140" t="n">
+        <v>5850</v>
+      </c>
+      <c r="V140" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>512</v>
+      </c>
+      <c r="C141" t="n">
+        <v>20</v>
+      </c>
+      <c r="D141" t="n">
+        <v>10</v>
+      </c>
+      <c r="E141" t="n">
+        <v>20</v>
+      </c>
+      <c r="F141" t="n">
+        <v>20</v>
+      </c>
+      <c r="G141" t="n">
+        <v>20</v>
+      </c>
+      <c r="H141" t="n">
+        <v>20</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.018293073</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.042358969</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0.06375161</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0.008061779</v>
+      </c>
+      <c r="M141" t="n">
+        <v>2.4272e-05</v>
+      </c>
+      <c r="N141" t="n">
+        <v>30</v>
+      </c>
+      <c r="O141" t="n">
+        <v>90</v>
+      </c>
+      <c r="P141" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>174</v>
+      </c>
+      <c r="R141" t="n">
+        <v>2520</v>
+      </c>
+      <c r="S141" t="n">
+        <v>150</v>
+      </c>
+      <c r="T141" t="n">
+        <v>4050</v>
+      </c>
+      <c r="U141" t="n">
+        <v>4050</v>
+      </c>
+      <c r="V141" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>512</v>
+      </c>
+      <c r="C142" t="n">
+        <v>20</v>
+      </c>
+      <c r="D142" t="n">
+        <v>15</v>
+      </c>
+      <c r="E142" t="n">
+        <v>20</v>
+      </c>
+      <c r="F142" t="n">
+        <v>20</v>
+      </c>
+      <c r="G142" t="n">
+        <v>20</v>
+      </c>
+      <c r="H142" t="n">
+        <v>20</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.018214026</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.03089279</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0.045692601</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0.011633546</v>
+      </c>
+      <c r="M142" t="n">
+        <v>1.9924e-05</v>
+      </c>
+      <c r="N142" t="n">
+        <v>30</v>
+      </c>
+      <c r="O142" t="n">
+        <v>90</v>
+      </c>
+      <c r="P142" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>174</v>
+      </c>
+      <c r="R142" t="n">
+        <v>2520</v>
+      </c>
+      <c r="S142" t="n">
+        <v>150</v>
+      </c>
+      <c r="T142" t="n">
+        <v>2250</v>
+      </c>
+      <c r="U142" t="n">
+        <v>2250</v>
+      </c>
+      <c r="V142" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>512</v>
+      </c>
+      <c r="C143" t="n">
+        <v>25</v>
+      </c>
+      <c r="D143" t="n">
+        <v>5</v>
+      </c>
+      <c r="E143" t="n">
+        <v>20</v>
+      </c>
+      <c r="F143" t="n">
+        <v>20</v>
+      </c>
+      <c r="G143" t="n">
+        <v>20</v>
+      </c>
+      <c r="H143" t="n">
+        <v>20</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0.021805472</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.06661341699999999</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0.103700928</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0.004545199</v>
+      </c>
+      <c r="M143" t="n">
+        <v>2.3986e-05</v>
+      </c>
+      <c r="N143" t="n">
+        <v>30</v>
+      </c>
+      <c r="O143" t="n">
+        <v>90</v>
+      </c>
+      <c r="P143" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>174</v>
+      </c>
+      <c r="R143" t="n">
+        <v>2970</v>
+      </c>
+      <c r="S143" t="n">
+        <v>150</v>
+      </c>
+      <c r="T143" t="n">
+        <v>7650</v>
+      </c>
+      <c r="U143" t="n">
+        <v>7650</v>
+      </c>
+      <c r="V143" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>512</v>
+      </c>
+      <c r="C144" t="n">
+        <v>25</v>
+      </c>
+      <c r="D144" t="n">
+        <v>10</v>
+      </c>
+      <c r="E144" t="n">
+        <v>20</v>
+      </c>
+      <c r="F144" t="n">
+        <v>20</v>
+      </c>
+      <c r="G144" t="n">
+        <v>20</v>
+      </c>
+      <c r="H144" t="n">
+        <v>20</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.021779355</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.056271811</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.08557885799999999</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0.008109053</v>
+      </c>
+      <c r="M144" t="n">
+        <v>2.3186e-05</v>
+      </c>
+      <c r="N144" t="n">
+        <v>30</v>
+      </c>
+      <c r="O144" t="n">
+        <v>90</v>
+      </c>
+      <c r="P144" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>174</v>
+      </c>
+      <c r="R144" t="n">
+        <v>2970</v>
+      </c>
+      <c r="S144" t="n">
+        <v>150</v>
+      </c>
+      <c r="T144" t="n">
+        <v>5850</v>
+      </c>
+      <c r="U144" t="n">
+        <v>5850</v>
+      </c>
+      <c r="V144" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>512</v>
+      </c>
+      <c r="C145" t="n">
+        <v>25</v>
+      </c>
+      <c r="D145" t="n">
+        <v>15</v>
+      </c>
+      <c r="E145" t="n">
+        <v>20</v>
+      </c>
+      <c r="F145" t="n">
+        <v>20</v>
+      </c>
+      <c r="G145" t="n">
+        <v>20</v>
+      </c>
+      <c r="H145" t="n">
+        <v>20</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.021499411</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.044517168</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.066454016</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0.011527901</v>
+      </c>
+      <c r="M145" t="n">
+        <v>2.5135e-05</v>
+      </c>
+      <c r="N145" t="n">
+        <v>30</v>
+      </c>
+      <c r="O145" t="n">
+        <v>90</v>
+      </c>
+      <c r="P145" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>174</v>
+      </c>
+      <c r="R145" t="n">
+        <v>2970</v>
+      </c>
+      <c r="S145" t="n">
+        <v>150</v>
+      </c>
+      <c r="T145" t="n">
+        <v>4050</v>
+      </c>
+      <c r="U145" t="n">
+        <v>4050</v>
+      </c>
+      <c r="V145" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>512</v>
+      </c>
+      <c r="C146" t="n">
+        <v>25</v>
+      </c>
+      <c r="D146" t="n">
+        <v>20</v>
+      </c>
+      <c r="E146" t="n">
+        <v>20</v>
+      </c>
+      <c r="F146" t="n">
+        <v>20</v>
+      </c>
+      <c r="G146" t="n">
+        <v>20</v>
+      </c>
+      <c r="H146" t="n">
+        <v>20</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.021697814</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.034154844</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0.049059963</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0.015216168</v>
+      </c>
+      <c r="M146" t="n">
+        <v>1.7835e-05</v>
+      </c>
+      <c r="N146" t="n">
+        <v>30</v>
+      </c>
+      <c r="O146" t="n">
+        <v>90</v>
+      </c>
+      <c r="P146" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>174</v>
+      </c>
+      <c r="R146" t="n">
+        <v>2970</v>
+      </c>
+      <c r="S146" t="n">
+        <v>150</v>
+      </c>
+      <c r="T146" t="n">
+        <v>2250</v>
+      </c>
+      <c r="U146" t="n">
+        <v>2250</v>
+      </c>
+      <c r="V146" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>512</v>
+      </c>
+      <c r="C147" t="n">
+        <v>30</v>
+      </c>
+      <c r="D147" t="n">
+        <v>5</v>
+      </c>
+      <c r="E147" t="n">
+        <v>20</v>
+      </c>
+      <c r="F147" t="n">
+        <v>20</v>
+      </c>
+      <c r="G147" t="n">
+        <v>20</v>
+      </c>
+      <c r="H147" t="n">
+        <v>20</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0.025212961</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.080098246</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0.12365245</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0.004592699</v>
+      </c>
+      <c r="M147" t="n">
+        <v>2.9161e-05</v>
+      </c>
+      <c r="N147" t="n">
+        <v>30</v>
+      </c>
+      <c r="O147" t="n">
+        <v>90</v>
+      </c>
+      <c r="P147" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>174</v>
+      </c>
+      <c r="R147" t="n">
+        <v>3420</v>
+      </c>
+      <c r="S147" t="n">
+        <v>150</v>
+      </c>
+      <c r="T147" t="n">
+        <v>9450</v>
+      </c>
+      <c r="U147" t="n">
+        <v>9450</v>
+      </c>
+      <c r="V147" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>512</v>
+      </c>
+      <c r="C148" t="n">
+        <v>30</v>
+      </c>
+      <c r="D148" t="n">
+        <v>10</v>
+      </c>
+      <c r="E148" t="n">
+        <v>20</v>
+      </c>
+      <c r="F148" t="n">
+        <v>20</v>
+      </c>
+      <c r="G148" t="n">
+        <v>20</v>
+      </c>
+      <c r="H148" t="n">
+        <v>20</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0.025101781</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.06927923699999999</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0.106178333</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0.008060642999999999</v>
+      </c>
+      <c r="M148" t="n">
+        <v>2.4203e-05</v>
+      </c>
+      <c r="N148" t="n">
+        <v>30</v>
+      </c>
+      <c r="O148" t="n">
+        <v>90</v>
+      </c>
+      <c r="P148" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>174</v>
+      </c>
+      <c r="R148" t="n">
+        <v>3420</v>
+      </c>
+      <c r="S148" t="n">
+        <v>150</v>
+      </c>
+      <c r="T148" t="n">
+        <v>7650</v>
+      </c>
+      <c r="U148" t="n">
+        <v>7650</v>
+      </c>
+      <c r="V148" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>512</v>
+      </c>
+      <c r="C149" t="n">
+        <v>30</v>
+      </c>
+      <c r="D149" t="n">
+        <v>15</v>
+      </c>
+      <c r="E149" t="n">
+        <v>20</v>
+      </c>
+      <c r="F149" t="n">
+        <v>20</v>
+      </c>
+      <c r="G149" t="n">
+        <v>20</v>
+      </c>
+      <c r="H149" t="n">
+        <v>20</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0.025625971</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.060541209</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0.089415966</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0.011661816</v>
+      </c>
+      <c r="M149" t="n">
+        <v>2.3636e-05</v>
+      </c>
+      <c r="N149" t="n">
+        <v>30</v>
+      </c>
+      <c r="O149" t="n">
+        <v>90</v>
+      </c>
+      <c r="P149" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>174</v>
+      </c>
+      <c r="R149" t="n">
+        <v>3420</v>
+      </c>
+      <c r="S149" t="n">
+        <v>150</v>
+      </c>
+      <c r="T149" t="n">
+        <v>5850</v>
+      </c>
+      <c r="U149" t="n">
+        <v>5850</v>
+      </c>
+      <c r="V149" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>512</v>
+      </c>
+      <c r="C150" t="n">
+        <v>30</v>
+      </c>
+      <c r="D150" t="n">
+        <v>20</v>
+      </c>
+      <c r="E150" t="n">
+        <v>20</v>
+      </c>
+      <c r="F150" t="n">
+        <v>20</v>
+      </c>
+      <c r="G150" t="n">
+        <v>20</v>
+      </c>
+      <c r="H150" t="n">
+        <v>20</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.026008294</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.050027764</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0.072815386</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0.015526187</v>
+      </c>
+      <c r="M150" t="n">
+        <v>2.1607e-05</v>
+      </c>
+      <c r="N150" t="n">
+        <v>30</v>
+      </c>
+      <c r="O150" t="n">
+        <v>90</v>
+      </c>
+      <c r="P150" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>174</v>
+      </c>
+      <c r="R150" t="n">
+        <v>3420</v>
+      </c>
+      <c r="S150" t="n">
+        <v>150</v>
+      </c>
+      <c r="T150" t="n">
+        <v>4050</v>
+      </c>
+      <c r="U150" t="n">
+        <v>4050</v>
+      </c>
+      <c r="V150" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>512</v>
+      </c>
+      <c r="C151" t="n">
+        <v>30</v>
+      </c>
+      <c r="D151" t="n">
+        <v>25</v>
+      </c>
+      <c r="E151" t="n">
+        <v>20</v>
+      </c>
+      <c r="F151" t="n">
+        <v>20</v>
+      </c>
+      <c r="G151" t="n">
+        <v>20</v>
+      </c>
+      <c r="H151" t="n">
+        <v>20</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0.025660841</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.039060066</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0.054570182</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0.019129146</v>
+      </c>
+      <c r="M151" t="n">
+        <v>2.0377e-05</v>
+      </c>
+      <c r="N151" t="n">
+        <v>30</v>
+      </c>
+      <c r="O151" t="n">
+        <v>90</v>
+      </c>
+      <c r="P151" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>174</v>
+      </c>
+      <c r="R151" t="n">
+        <v>3420</v>
+      </c>
+      <c r="S151" t="n">
+        <v>150</v>
+      </c>
+      <c r="T151" t="n">
+        <v>2250</v>
+      </c>
+      <c r="U151" t="n">
+        <v>2250</v>
+      </c>
+      <c r="V151" t="n">
+        <v>444</v>
       </c>
     </row>
   </sheetData>

--- a/SchemeHIBME/SchemeAnonymousME.xlsx
+++ b/SchemeHIBME/SchemeAnonymousME.xlsx
@@ -561,31 +561,31 @@
         <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>0.031425212</v>
+        <v>0.028637096</v>
       </c>
       <c r="J2" t="n">
-        <v>0.068652476</v>
+        <v>0.062373896</v>
       </c>
       <c r="K2" t="n">
-        <v>0.112140693</v>
+        <v>0.100874923</v>
       </c>
       <c r="L2" t="n">
-        <v>0.013042367</v>
+        <v>0.011994559</v>
       </c>
       <c r="M2" t="n">
-        <v>3.4406e-05</v>
+        <v>3.5587e-05</v>
       </c>
       <c r="N2" t="n">
         <v>30</v>
@@ -631,31 +631,31 @@
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>0.041088414</v>
+        <v>0.036753302</v>
       </c>
       <c r="J3" t="n">
-        <v>0.108823901</v>
+        <v>0.100920564</v>
       </c>
       <c r="K3" t="n">
-        <v>0.16924383</v>
+        <v>0.155756797</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01295054</v>
+        <v>0.012239182</v>
       </c>
       <c r="M3" t="n">
-        <v>3.5231e-05</v>
+        <v>3.4968e-05</v>
       </c>
       <c r="N3" t="n">
         <v>30</v>
@@ -701,31 +701,31 @@
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>0.041568509</v>
+        <v>0.03790399</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07785677100000001</v>
+        <v>0.07182041</v>
       </c>
       <c r="K4" t="n">
-        <v>0.121902835</v>
+        <v>0.111032735</v>
       </c>
       <c r="L4" t="n">
-        <v>0.023377978</v>
+        <v>0.021537902</v>
       </c>
       <c r="M4" t="n">
-        <v>3.7986e-05</v>
+        <v>4.1615e-05</v>
       </c>
       <c r="N4" t="n">
         <v>30</v>
@@ -771,31 +771,31 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>0.051885036</v>
+        <v>0.047965988</v>
       </c>
       <c r="J5" t="n">
-        <v>0.148930892</v>
+        <v>0.140874383</v>
       </c>
       <c r="K5" t="n">
-        <v>0.233339418</v>
+        <v>0.217916282</v>
       </c>
       <c r="L5" t="n">
-        <v>0.013138712</v>
+        <v>0.012036188</v>
       </c>
       <c r="M5" t="n">
-        <v>3.8495e-05</v>
+        <v>3.1908e-05</v>
       </c>
       <c r="N5" t="n">
         <v>30</v>
@@ -841,31 +841,31 @@
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I6" t="n">
-        <v>0.053930291</v>
+        <v>0.047771774</v>
       </c>
       <c r="J6" t="n">
-        <v>0.12322473</v>
+        <v>0.110586579</v>
       </c>
       <c r="K6" t="n">
-        <v>0.186667778</v>
+        <v>0.168513227</v>
       </c>
       <c r="L6" t="n">
-        <v>0.023977367</v>
+        <v>0.021559081</v>
       </c>
       <c r="M6" t="n">
-        <v>3.6569e-05</v>
+        <v>3.5192e-05</v>
       </c>
       <c r="N6" t="n">
         <v>30</v>
@@ -911,31 +911,31 @@
         <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I7" t="n">
-        <v>0.055017468</v>
+        <v>0.048920428</v>
       </c>
       <c r="J7" t="n">
-        <v>0.093153344</v>
+        <v>0.08180137799999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.138238054</v>
+        <v>0.12095172</v>
       </c>
       <c r="L7" t="n">
-        <v>0.034919944</v>
+        <v>0.031360114</v>
       </c>
       <c r="M7" t="n">
-        <v>3.5943e-05</v>
+        <v>3.5202e-05</v>
       </c>
       <c r="N7" t="n">
         <v>30</v>
@@ -981,31 +981,31 @@
         <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H8" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I8" t="n">
-        <v>0.063365243</v>
+        <v>0.057057538</v>
       </c>
       <c r="J8" t="n">
-        <v>0.193660839</v>
+        <v>0.17532656</v>
       </c>
       <c r="K8" t="n">
-        <v>0.300280849</v>
+        <v>0.271405842</v>
       </c>
       <c r="L8" t="n">
-        <v>0.013242311</v>
+        <v>0.011911583</v>
       </c>
       <c r="M8" t="n">
-        <v>4.1288e-05</v>
+        <v>3.8174e-05</v>
       </c>
       <c r="N8" t="n">
         <v>30</v>
@@ -1051,31 +1051,31 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H9" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I9" t="n">
-        <v>0.064978616</v>
+        <v>0.058118751</v>
       </c>
       <c r="J9" t="n">
-        <v>0.165620157</v>
+        <v>0.150813114</v>
       </c>
       <c r="K9" t="n">
-        <v>0.250819019</v>
+        <v>0.2279642</v>
       </c>
       <c r="L9" t="n">
-        <v>0.024446539</v>
+        <v>0.021630809</v>
       </c>
       <c r="M9" t="n">
-        <v>4.1302e-05</v>
+        <v>3.3254e-05</v>
       </c>
       <c r="N9" t="n">
         <v>30</v>
@@ -1121,31 +1121,31 @@
         <v>15</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H10" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I10" t="n">
-        <v>0.062876986</v>
+        <v>0.05837486</v>
       </c>
       <c r="J10" t="n">
-        <v>0.130649588</v>
+        <v>0.122254232</v>
       </c>
       <c r="K10" t="n">
-        <v>0.193365205</v>
+        <v>0.180598051</v>
       </c>
       <c r="L10" t="n">
-        <v>0.034055301</v>
+        <v>0.031041964</v>
       </c>
       <c r="M10" t="n">
-        <v>3.8335e-05</v>
+        <v>4.4394e-05</v>
       </c>
       <c r="N10" t="n">
         <v>30</v>
@@ -1191,31 +1191,31 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F11" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H11" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06416134800000001</v>
+        <v>0.058772336</v>
       </c>
       <c r="J11" t="n">
-        <v>0.101850701</v>
+        <v>0.09366152</v>
       </c>
       <c r="K11" t="n">
-        <v>0.147025144</v>
+        <v>0.137985829</v>
       </c>
       <c r="L11" t="n">
-        <v>0.044576094</v>
+        <v>0.04364986</v>
       </c>
       <c r="M11" t="n">
-        <v>3.5964e-05</v>
+        <v>3.1474e-05</v>
       </c>
       <c r="N11" t="n">
         <v>30</v>
@@ -1261,31 +1261,31 @@
         <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F12" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H12" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I12" t="n">
-        <v>0.07720293</v>
+        <v>0.069167148</v>
       </c>
       <c r="J12" t="n">
-        <v>0.244018429</v>
+        <v>0.215880759</v>
       </c>
       <c r="K12" t="n">
-        <v>0.371402173</v>
+        <v>0.332654054</v>
       </c>
       <c r="L12" t="n">
-        <v>0.013896462</v>
+        <v>0.01201689</v>
       </c>
       <c r="M12" t="n">
-        <v>4.4321e-05</v>
+        <v>3.6471e-05</v>
       </c>
       <c r="N12" t="n">
         <v>30</v>
@@ -1331,31 +1331,31 @@
         <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F13" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H13" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I13" t="n">
-        <v>0.078026663</v>
+        <v>0.066632104</v>
       </c>
       <c r="J13" t="n">
-        <v>0.213372936</v>
+        <v>0.193238805</v>
       </c>
       <c r="K13" t="n">
-        <v>0.329694806</v>
+        <v>0.29345945</v>
       </c>
       <c r="L13" t="n">
-        <v>0.024621362</v>
+        <v>0.022061078</v>
       </c>
       <c r="M13" t="n">
-        <v>4.541e-05</v>
+        <v>3.5888e-05</v>
       </c>
       <c r="N13" t="n">
         <v>30</v>
@@ -1401,31 +1401,31 @@
         <v>15</v>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F14" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H14" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07605279700000001</v>
+        <v>0.07029851300000001</v>
       </c>
       <c r="J14" t="n">
-        <v>0.179035315</v>
+        <v>0.16188097</v>
       </c>
       <c r="K14" t="n">
-        <v>0.272721412</v>
+        <v>0.235357211</v>
       </c>
       <c r="L14" t="n">
-        <v>0.035210001</v>
+        <v>0.032075585</v>
       </c>
       <c r="M14" t="n">
-        <v>4.1253e-05</v>
+        <v>3.5484e-05</v>
       </c>
       <c r="N14" t="n">
         <v>30</v>
@@ -1471,31 +1471,31 @@
         <v>20</v>
       </c>
       <c r="E15" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F15" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H15" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07469811799999999</v>
+        <v>0.06975846600000001</v>
       </c>
       <c r="J15" t="n">
-        <v>0.14278155</v>
+        <v>0.138577275</v>
       </c>
       <c r="K15" t="n">
-        <v>0.207726615</v>
+        <v>0.201776706</v>
       </c>
       <c r="L15" t="n">
-        <v>0.044750491</v>
+        <v>0.053147027</v>
       </c>
       <c r="M15" t="n">
-        <v>3.8177e-05</v>
+        <v>3.5818e-05</v>
       </c>
       <c r="N15" t="n">
         <v>30</v>
@@ -1541,31 +1541,31 @@
         <v>25</v>
       </c>
       <c r="E16" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F16" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G16" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H16" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I16" t="n">
-        <v>0.07331357400000001</v>
+        <v>0.06798705100000001</v>
       </c>
       <c r="J16" t="n">
-        <v>0.110316078</v>
+        <v>0.09995435599999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.153604544</v>
+        <v>0.144514962</v>
       </c>
       <c r="L16" t="n">
-        <v>0.054871437</v>
+        <v>0.051497517</v>
       </c>
       <c r="M16" t="n">
-        <v>3.524e-05</v>
+        <v>4.7484e-05</v>
       </c>
       <c r="N16" t="n">
         <v>30</v>
@@ -1611,31 +1611,31 @@
         <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F17" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H17" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I17" t="n">
-        <v>0.040677288</v>
+        <v>0.037781349</v>
       </c>
       <c r="J17" t="n">
-        <v>0.08929091</v>
+        <v>0.08558993099999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.148303777</v>
+        <v>0.137360813</v>
       </c>
       <c r="L17" t="n">
-        <v>0.017185764</v>
+        <v>0.015597149</v>
       </c>
       <c r="M17" t="n">
-        <v>3.3585e-05</v>
+        <v>3.2121e-05</v>
       </c>
       <c r="N17" t="n">
         <v>34</v>
@@ -1681,31 +1681,31 @@
         <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F18" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G18" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H18" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I18" t="n">
-        <v>0.055012951</v>
+        <v>0.051464724</v>
       </c>
       <c r="J18" t="n">
-        <v>0.143684914</v>
+        <v>0.133186721</v>
       </c>
       <c r="K18" t="n">
-        <v>0.227691376</v>
+        <v>0.207890001</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01724348</v>
+        <v>0.015443446</v>
       </c>
       <c r="M18" t="n">
-        <v>3.8642e-05</v>
+        <v>3.3544e-05</v>
       </c>
       <c r="N18" t="n">
         <v>34</v>
@@ -1751,31 +1751,31 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F19" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G19" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H19" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I19" t="n">
-        <v>0.054526236</v>
+        <v>0.049576583</v>
       </c>
       <c r="J19" t="n">
-        <v>0.102910904</v>
+        <v>0.096353391</v>
       </c>
       <c r="K19" t="n">
-        <v>0.159071958</v>
+        <v>0.148252444</v>
       </c>
       <c r="L19" t="n">
-        <v>0.030685695</v>
+        <v>0.028136506</v>
       </c>
       <c r="M19" t="n">
-        <v>3.5356e-05</v>
+        <v>3.1765e-05</v>
       </c>
       <c r="N19" t="n">
         <v>34</v>
@@ -1821,31 +1821,31 @@
         <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G20" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H20" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I20" t="n">
-        <v>0.067331717</v>
+        <v>0.064285145</v>
       </c>
       <c r="J20" t="n">
-        <v>0.197229205</v>
+        <v>0.184197878</v>
       </c>
       <c r="K20" t="n">
-        <v>0.307514561</v>
+        <v>0.287920182</v>
       </c>
       <c r="L20" t="n">
-        <v>0.017314468</v>
+        <v>0.016732269</v>
       </c>
       <c r="M20" t="n">
-        <v>3.9168e-05</v>
+        <v>3.5836e-05</v>
       </c>
       <c r="N20" t="n">
         <v>34</v>
@@ -1891,31 +1891,31 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F21" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G21" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H21" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I21" t="n">
-        <v>0.068013903</v>
+        <v>0.06888372800000001</v>
       </c>
       <c r="J21" t="n">
-        <v>0.157056646</v>
+        <v>0.144568353</v>
       </c>
       <c r="K21" t="n">
-        <v>0.241120293</v>
+        <v>0.224689024</v>
       </c>
       <c r="L21" t="n">
-        <v>0.030872419</v>
+        <v>0.029220805</v>
       </c>
       <c r="M21" t="n">
-        <v>3.7563e-05</v>
+        <v>3.4291e-05</v>
       </c>
       <c r="N21" t="n">
         <v>34</v>
@@ -1961,31 +1961,31 @@
         <v>15</v>
       </c>
       <c r="E22" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F22" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G22" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H22" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I22" t="n">
-        <v>0.067900478</v>
+        <v>0.06295294</v>
       </c>
       <c r="J22" t="n">
-        <v>0.116644564</v>
+        <v>0.106895449</v>
       </c>
       <c r="K22" t="n">
-        <v>0.172724914</v>
+        <v>0.158716753</v>
       </c>
       <c r="L22" t="n">
-        <v>0.043797203</v>
+        <v>0.039985871</v>
       </c>
       <c r="M22" t="n">
-        <v>3.5602e-05</v>
+        <v>3.1494e-05</v>
       </c>
       <c r="N22" t="n">
         <v>34</v>
@@ -2031,31 +2031,31 @@
         <v>5</v>
       </c>
       <c r="E23" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F23" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G23" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H23" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I23" t="n">
-        <v>0.081826252</v>
+        <v>0.076176116</v>
       </c>
       <c r="J23" t="n">
-        <v>0.250415268</v>
+        <v>0.239706475</v>
       </c>
       <c r="K23" t="n">
-        <v>0.385374884</v>
+        <v>0.36217396</v>
       </c>
       <c r="L23" t="n">
-        <v>0.016852782</v>
+        <v>0.016440354</v>
       </c>
       <c r="M23" t="n">
-        <v>4.1066e-05</v>
+        <v>4.9299e-05</v>
       </c>
       <c r="N23" t="n">
         <v>34</v>
@@ -2101,31 +2101,31 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F24" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G24" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H24" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I24" t="n">
-        <v>0.081545518</v>
+        <v>0.081814784</v>
       </c>
       <c r="J24" t="n">
-        <v>0.210173302</v>
+        <v>0.205440267</v>
       </c>
       <c r="K24" t="n">
-        <v>0.322731847</v>
+        <v>0.295050215</v>
       </c>
       <c r="L24" t="n">
-        <v>0.031289624</v>
+        <v>0.027967841</v>
       </c>
       <c r="M24" t="n">
-        <v>4.1259e-05</v>
+        <v>3.5107e-05</v>
       </c>
       <c r="N24" t="n">
         <v>34</v>
@@ -2171,31 +2171,31 @@
         <v>15</v>
       </c>
       <c r="E25" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F25" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G25" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H25" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I25" t="n">
-        <v>0.081955391</v>
+        <v>0.07500923</v>
       </c>
       <c r="J25" t="n">
-        <v>0.170143689</v>
+        <v>0.155857673</v>
       </c>
       <c r="K25" t="n">
-        <v>0.254781134</v>
+        <v>0.232261855</v>
       </c>
       <c r="L25" t="n">
-        <v>0.044128998</v>
+        <v>0.040595191</v>
       </c>
       <c r="M25" t="n">
-        <v>3.6903e-05</v>
+        <v>5.7772e-05</v>
       </c>
       <c r="N25" t="n">
         <v>34</v>
@@ -2241,31 +2241,31 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F26" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G26" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H26" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I26" t="n">
-        <v>0.082776927</v>
+        <v>0.07538008</v>
       </c>
       <c r="J26" t="n">
-        <v>0.132303159</v>
+        <v>0.118965568</v>
       </c>
       <c r="K26" t="n">
-        <v>0.189372091</v>
+        <v>0.17337752</v>
       </c>
       <c r="L26" t="n">
-        <v>0.058317924</v>
+        <v>0.054339007</v>
       </c>
       <c r="M26" t="n">
-        <v>3.7185e-05</v>
+        <v>3.4211e-05</v>
       </c>
       <c r="N26" t="n">
         <v>34</v>
@@ -2311,31 +2311,31 @@
         <v>5</v>
       </c>
       <c r="E27" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F27" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G27" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H27" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I27" t="n">
-        <v>0.09908257199999999</v>
+        <v>0.090215538</v>
       </c>
       <c r="J27" t="n">
-        <v>0.311968353</v>
+        <v>0.281372298</v>
       </c>
       <c r="K27" t="n">
-        <v>0.480246823</v>
+        <v>0.435891476</v>
       </c>
       <c r="L27" t="n">
-        <v>0.017793477</v>
+        <v>0.016379769</v>
       </c>
       <c r="M27" t="n">
-        <v>4.5354e-05</v>
+        <v>4.9842e-05</v>
       </c>
       <c r="N27" t="n">
         <v>34</v>
@@ -2381,31 +2381,31 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F28" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G28" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H28" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I28" t="n">
-        <v>0.096300437</v>
+        <v>0.088859171</v>
       </c>
       <c r="J28" t="n">
-        <v>0.265939679</v>
+        <v>0.252177336</v>
       </c>
       <c r="K28" t="n">
-        <v>0.403265714</v>
+        <v>0.38644226</v>
       </c>
       <c r="L28" t="n">
-        <v>0.030599288</v>
+        <v>0.028049034</v>
       </c>
       <c r="M28" t="n">
-        <v>4.3744e-05</v>
+        <v>4.6505e-05</v>
       </c>
       <c r="N28" t="n">
         <v>34</v>
@@ -2451,31 +2451,31 @@
         <v>15</v>
       </c>
       <c r="E29" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F29" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G29" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H29" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I29" t="n">
-        <v>0.10229363</v>
+        <v>0.090516022</v>
       </c>
       <c r="J29" t="n">
-        <v>0.242495497</v>
+        <v>0.214139923</v>
       </c>
       <c r="K29" t="n">
-        <v>0.365268632</v>
+        <v>0.326980652</v>
       </c>
       <c r="L29" t="n">
-        <v>0.047951537</v>
+        <v>0.040214392</v>
       </c>
       <c r="M29" t="n">
-        <v>4.8955e-05</v>
+        <v>4.5841e-05</v>
       </c>
       <c r="N29" t="n">
         <v>34</v>
@@ -2521,31 +2521,31 @@
         <v>20</v>
       </c>
       <c r="E30" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F30" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G30" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H30" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I30" t="n">
-        <v>0.098584795</v>
+        <v>0.088268891</v>
       </c>
       <c r="J30" t="n">
-        <v>0.191013014</v>
+        <v>0.168914358</v>
       </c>
       <c r="K30" t="n">
-        <v>0.275928179</v>
+        <v>0.245441859</v>
       </c>
       <c r="L30" t="n">
-        <v>0.060775298</v>
+        <v>0.052063643</v>
       </c>
       <c r="M30" t="n">
-        <v>4.3556e-05</v>
+        <v>3.5649e-05</v>
       </c>
       <c r="N30" t="n">
         <v>34</v>
@@ -2591,31 +2591,31 @@
         <v>25</v>
       </c>
       <c r="E31" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F31" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G31" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H31" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I31" t="n">
-        <v>0.09763788299999999</v>
+        <v>0.092423068</v>
       </c>
       <c r="J31" t="n">
-        <v>0.148346801</v>
+        <v>0.146765999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.20563237</v>
+        <v>0.199477545</v>
       </c>
       <c r="L31" t="n">
-        <v>0.07339773600000001</v>
+        <v>0.070262196</v>
       </c>
       <c r="M31" t="n">
-        <v>3.6306e-05</v>
+        <v>3.489e-05</v>
       </c>
       <c r="N31" t="n">
         <v>34</v>
@@ -2661,31 +2661,31 @@
         <v>5</v>
       </c>
       <c r="E32" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F32" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G32" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H32" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I32" t="n">
-        <v>0.052358586</v>
+        <v>0.052075874</v>
       </c>
       <c r="J32" t="n">
-        <v>0.115270467</v>
+        <v>0.111057966</v>
       </c>
       <c r="K32" t="n">
-        <v>0.187235655</v>
+        <v>0.18126718</v>
       </c>
       <c r="L32" t="n">
-        <v>0.021981611</v>
+        <v>0.021694055</v>
       </c>
       <c r="M32" t="n">
-        <v>3.7832e-05</v>
+        <v>3.3025e-05</v>
       </c>
       <c r="N32" t="n">
         <v>42</v>
@@ -2731,31 +2731,31 @@
         <v>5</v>
       </c>
       <c r="E33" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F33" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G33" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H33" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I33" t="n">
-        <v>0.07044849</v>
+        <v>0.06905204199999999</v>
       </c>
       <c r="J33" t="n">
-        <v>0.184315128</v>
+        <v>0.178960771</v>
       </c>
       <c r="K33" t="n">
-        <v>0.293111415</v>
+        <v>0.284652654</v>
       </c>
       <c r="L33" t="n">
-        <v>0.02230978</v>
+        <v>0.021309352</v>
       </c>
       <c r="M33" t="n">
-        <v>4.262e-05</v>
+        <v>3.6393e-05</v>
       </c>
       <c r="N33" t="n">
         <v>42</v>
@@ -2801,31 +2801,31 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F34" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G34" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H34" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I34" t="n">
-        <v>0.07194313200000001</v>
+        <v>0.068257442</v>
       </c>
       <c r="J34" t="n">
-        <v>0.136554971</v>
+        <v>0.119198363</v>
       </c>
       <c r="K34" t="n">
-        <v>0.211863952</v>
+        <v>0.188032</v>
       </c>
       <c r="L34" t="n">
-        <v>0.040280072</v>
+        <v>0.034324092</v>
       </c>
       <c r="M34" t="n">
-        <v>4.585e-05</v>
+        <v>3.2844e-05</v>
       </c>
       <c r="N34" t="n">
         <v>42</v>
@@ -2871,31 +2871,31 @@
         <v>5</v>
       </c>
       <c r="E35" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F35" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G35" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H35" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I35" t="n">
-        <v>0.092742907</v>
+        <v>0.07963115699999999</v>
       </c>
       <c r="J35" t="n">
-        <v>0.272330216</v>
+        <v>0.228977096</v>
       </c>
       <c r="K35" t="n">
-        <v>0.421116791</v>
+        <v>0.34997574</v>
       </c>
       <c r="L35" t="n">
-        <v>0.022869334</v>
+        <v>0.0197117</v>
       </c>
       <c r="M35" t="n">
-        <v>4.8145e-05</v>
+        <v>3.5398e-05</v>
       </c>
       <c r="N35" t="n">
         <v>42</v>
@@ -2941,31 +2941,31 @@
         <v>10</v>
       </c>
       <c r="E36" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F36" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G36" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H36" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I36" t="n">
-        <v>0.093682952</v>
+        <v>0.077160587</v>
       </c>
       <c r="J36" t="n">
-        <v>0.217335903</v>
+        <v>0.181699646</v>
       </c>
       <c r="K36" t="n">
-        <v>0.327484163</v>
+        <v>0.281560744</v>
       </c>
       <c r="L36" t="n">
-        <v>0.043314053</v>
+        <v>0.034688814</v>
       </c>
       <c r="M36" t="n">
-        <v>5.0644e-05</v>
+        <v>3.5703e-05</v>
       </c>
       <c r="N36" t="n">
         <v>42</v>
@@ -3011,31 +3011,31 @@
         <v>15</v>
       </c>
       <c r="E37" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F37" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G37" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H37" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I37" t="n">
-        <v>0.09660413700000001</v>
+        <v>0.078013949</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1664429</v>
+        <v>0.133855445</v>
       </c>
       <c r="K37" t="n">
-        <v>0.249535626</v>
+        <v>0.199326974</v>
       </c>
       <c r="L37" t="n">
-        <v>0.063312202</v>
+        <v>0.053376015</v>
       </c>
       <c r="M37" t="n">
-        <v>4.7038e-05</v>
+        <v>3.6923e-05</v>
       </c>
       <c r="N37" t="n">
         <v>42</v>
@@ -3081,31 +3081,31 @@
         <v>5</v>
       </c>
       <c r="E38" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F38" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G38" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H38" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I38" t="n">
-        <v>0.113596622</v>
+        <v>0.092779314</v>
       </c>
       <c r="J38" t="n">
-        <v>0.348394534</v>
+        <v>0.287570311</v>
       </c>
       <c r="K38" t="n">
-        <v>0.5283814449999999</v>
+        <v>0.440687519</v>
       </c>
       <c r="L38" t="n">
-        <v>0.023790459</v>
+        <v>0.019288301</v>
       </c>
       <c r="M38" t="n">
-        <v>5.2635e-05</v>
+        <v>3.8025e-05</v>
       </c>
       <c r="N38" t="n">
         <v>42</v>
@@ -3151,31 +3151,31 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F39" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G39" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H39" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I39" t="n">
-        <v>0.110465058</v>
+        <v>0.093301711</v>
       </c>
       <c r="J39" t="n">
-        <v>0.287661507</v>
+        <v>0.257560295</v>
       </c>
       <c r="K39" t="n">
-        <v>0.431377875</v>
+        <v>0.374705663</v>
       </c>
       <c r="L39" t="n">
-        <v>0.041908387</v>
+        <v>0.035893755</v>
       </c>
       <c r="M39" t="n">
-        <v>5.1305e-05</v>
+        <v>3.9268e-05</v>
       </c>
       <c r="N39" t="n">
         <v>42</v>
@@ -3221,31 +3221,31 @@
         <v>15</v>
       </c>
       <c r="E40" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F40" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G40" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H40" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I40" t="n">
-        <v>0.107682342</v>
+        <v>0.094707972</v>
       </c>
       <c r="J40" t="n">
-        <v>0.227472691</v>
+        <v>0.198365727</v>
       </c>
       <c r="K40" t="n">
-        <v>0.340841457</v>
+        <v>0.298954359</v>
       </c>
       <c r="L40" t="n">
-        <v>0.057565392</v>
+        <v>0.052065179</v>
       </c>
       <c r="M40" t="n">
-        <v>4.2109e-05</v>
+        <v>4.2001e-05</v>
       </c>
       <c r="N40" t="n">
         <v>42</v>
@@ -3291,31 +3291,31 @@
         <v>20</v>
       </c>
       <c r="E41" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F41" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G41" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H41" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I41" t="n">
-        <v>0.110144729</v>
+        <v>0.105073851</v>
       </c>
       <c r="J41" t="n">
-        <v>0.172316921</v>
+        <v>0.166661975</v>
       </c>
       <c r="K41" t="n">
-        <v>0.247324374</v>
+        <v>0.214838106</v>
       </c>
       <c r="L41" t="n">
-        <v>0.07724249499999999</v>
+        <v>0.06540122700000001</v>
       </c>
       <c r="M41" t="n">
-        <v>4.1242e-05</v>
+        <v>3.2863e-05</v>
       </c>
       <c r="N41" t="n">
         <v>42</v>
@@ -3361,31 +3361,31 @@
         <v>5</v>
       </c>
       <c r="E42" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F42" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G42" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H42" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I42" t="n">
-        <v>0.123883162</v>
+        <v>0.108826612</v>
       </c>
       <c r="J42" t="n">
-        <v>0.4005556</v>
+        <v>0.356061286</v>
       </c>
       <c r="K42" t="n">
-        <v>0.609370185</v>
+        <v>0.533409557</v>
       </c>
       <c r="L42" t="n">
-        <v>0.022073028</v>
+        <v>0.019114503</v>
       </c>
       <c r="M42" t="n">
-        <v>4.8119e-05</v>
+        <v>3.9505e-05</v>
       </c>
       <c r="N42" t="n">
         <v>42</v>
@@ -3431,31 +3431,31 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F43" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G43" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H43" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I43" t="n">
-        <v>0.122021468</v>
+        <v>0.111113301</v>
       </c>
       <c r="J43" t="n">
-        <v>0.343234653</v>
+        <v>0.332322401</v>
       </c>
       <c r="K43" t="n">
-        <v>0.518905315</v>
+        <v>0.5012059800000001</v>
       </c>
       <c r="L43" t="n">
-        <v>0.039113536</v>
+        <v>0.038088708</v>
       </c>
       <c r="M43" t="n">
-        <v>4.5552e-05</v>
+        <v>4.0901e-05</v>
       </c>
       <c r="N43" t="n">
         <v>42</v>
@@ -3501,31 +3501,31 @@
         <v>15</v>
       </c>
       <c r="E44" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F44" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G44" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H44" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I44" t="n">
-        <v>0.120277</v>
+        <v>0.12332878</v>
       </c>
       <c r="J44" t="n">
-        <v>0.292159409</v>
+        <v>0.291161566</v>
       </c>
       <c r="K44" t="n">
-        <v>0.432547233</v>
+        <v>0.446145394</v>
       </c>
       <c r="L44" t="n">
-        <v>0.056727595</v>
+        <v>0.052077156</v>
       </c>
       <c r="M44" t="n">
-        <v>4.1666e-05</v>
+        <v>3.7185e-05</v>
       </c>
       <c r="N44" t="n">
         <v>42</v>
@@ -3571,31 +3571,31 @@
         <v>20</v>
       </c>
       <c r="E45" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F45" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G45" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H45" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I45" t="n">
-        <v>0.124851952</v>
+        <v>0.113784975</v>
       </c>
       <c r="J45" t="n">
-        <v>0.237014372</v>
+        <v>0.219861038</v>
       </c>
       <c r="K45" t="n">
-        <v>0.347115128</v>
+        <v>0.306103992</v>
       </c>
       <c r="L45" t="n">
-        <v>0.074264961</v>
+        <v>0.06609314600000001</v>
       </c>
       <c r="M45" t="n">
-        <v>4.0646e-05</v>
+        <v>5.0896e-05</v>
       </c>
       <c r="N45" t="n">
         <v>42</v>
@@ -3641,31 +3641,31 @@
         <v>25</v>
       </c>
       <c r="E46" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F46" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G46" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H46" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I46" t="n">
-        <v>0.121975362</v>
+        <v>0.120403623</v>
       </c>
       <c r="J46" t="n">
-        <v>0.181639916</v>
+        <v>0.17065694</v>
       </c>
       <c r="K46" t="n">
-        <v>0.254630537</v>
+        <v>0.23096339</v>
       </c>
       <c r="L46" t="n">
-        <v>0.092359103</v>
+        <v>0.081089278</v>
       </c>
       <c r="M46" t="n">
-        <v>3.7877e-05</v>
+        <v>3.4611e-05</v>
       </c>
       <c r="N46" t="n">
         <v>42</v>
@@ -3711,31 +3711,31 @@
         <v>5</v>
       </c>
       <c r="E47" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F47" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G47" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H47" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I47" t="n">
-        <v>0.015513655</v>
+        <v>0.013790099</v>
       </c>
       <c r="J47" t="n">
-        <v>0.03383153</v>
+        <v>0.03001868</v>
       </c>
       <c r="K47" t="n">
-        <v>0.055679132</v>
+        <v>0.04979536</v>
       </c>
       <c r="L47" t="n">
-        <v>0.011570647</v>
+        <v>0.01011044</v>
       </c>
       <c r="M47" t="n">
-        <v>7.804e-05</v>
+        <v>6.5064e-05</v>
       </c>
       <c r="N47" t="n">
         <v>46</v>
@@ -3781,31 +3781,31 @@
         <v>5</v>
       </c>
       <c r="E48" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F48" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G48" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H48" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I48" t="n">
-        <v>0.021327822</v>
+        <v>0.018459156</v>
       </c>
       <c r="J48" t="n">
-        <v>0.056250822</v>
+        <v>0.04870228</v>
       </c>
       <c r="K48" t="n">
-        <v>0.08953989599999999</v>
+        <v>0.077237773</v>
       </c>
       <c r="L48" t="n">
-        <v>0.011770134</v>
+        <v>0.010324072</v>
       </c>
       <c r="M48" t="n">
-        <v>8.6037e-05</v>
+        <v>6.890500000000001e-05</v>
       </c>
       <c r="N48" t="n">
         <v>46</v>
@@ -3851,31 +3851,31 @@
         <v>10</v>
       </c>
       <c r="E49" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F49" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G49" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H49" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I49" t="n">
-        <v>0.022466531</v>
+        <v>0.018571496</v>
       </c>
       <c r="J49" t="n">
-        <v>0.04215214</v>
+        <v>0.034708072</v>
       </c>
       <c r="K49" t="n">
-        <v>0.06577475300000001</v>
+        <v>0.055065125</v>
       </c>
       <c r="L49" t="n">
-        <v>0.017907212</v>
+        <v>0.014910446</v>
       </c>
       <c r="M49" t="n">
-        <v>9.4437e-05</v>
+        <v>7.0769e-05</v>
       </c>
       <c r="N49" t="n">
         <v>46</v>
@@ -3921,31 +3921,31 @@
         <v>5</v>
       </c>
       <c r="E50" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F50" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G50" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H50" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I50" t="n">
-        <v>0.027128237</v>
+        <v>0.022984934</v>
       </c>
       <c r="J50" t="n">
-        <v>0.076763279</v>
+        <v>0.06776786799999999</v>
       </c>
       <c r="K50" t="n">
-        <v>0.121587578</v>
+        <v>0.103978832</v>
       </c>
       <c r="L50" t="n">
-        <v>0.011898927</v>
+        <v>0.010459411</v>
       </c>
       <c r="M50" t="n">
-        <v>8.8384e-05</v>
+        <v>7.2988e-05</v>
       </c>
       <c r="N50" t="n">
         <v>46</v>
@@ -3991,31 +3991,31 @@
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F51" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H51" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I51" t="n">
-        <v>0.026972685</v>
+        <v>0.02355045</v>
       </c>
       <c r="J51" t="n">
-        <v>0.062051788</v>
+        <v>0.056620891</v>
       </c>
       <c r="K51" t="n">
-        <v>0.093287942</v>
+        <v>0.08105452</v>
       </c>
       <c r="L51" t="n">
-        <v>0.017388024</v>
+        <v>0.014769334</v>
       </c>
       <c r="M51" t="n">
-        <v>8.926e-05</v>
+        <v>6.904100000000001e-05</v>
       </c>
       <c r="N51" t="n">
         <v>46</v>
@@ -4061,31 +4061,31 @@
         <v>15</v>
       </c>
       <c r="E52" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F52" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H52" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I52" t="n">
-        <v>0.026792935</v>
+        <v>0.023517882</v>
       </c>
       <c r="J52" t="n">
-        <v>0.045737673</v>
+        <v>0.039935137</v>
       </c>
       <c r="K52" t="n">
-        <v>0.06864455699999999</v>
+        <v>0.061505052</v>
       </c>
       <c r="L52" t="n">
-        <v>0.022615793</v>
+        <v>0.019437727</v>
       </c>
       <c r="M52" t="n">
-        <v>8.731e-05</v>
+        <v>7.0838e-05</v>
       </c>
       <c r="N52" t="n">
         <v>46</v>
@@ -4131,31 +4131,31 @@
         <v>5</v>
       </c>
       <c r="E53" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F53" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G53" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H53" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I53" t="n">
-        <v>0.031960087</v>
+        <v>0.027358276</v>
       </c>
       <c r="J53" t="n">
-        <v>0.09767730600000001</v>
+        <v>0.084947339</v>
       </c>
       <c r="K53" t="n">
-        <v>0.151779982</v>
+        <v>0.132314437</v>
       </c>
       <c r="L53" t="n">
-        <v>0.011810034</v>
+        <v>0.010389561</v>
       </c>
       <c r="M53" t="n">
-        <v>9.012e-05</v>
+        <v>7.4353e-05</v>
       </c>
       <c r="N53" t="n">
         <v>46</v>
@@ -4201,31 +4201,31 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F54" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G54" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H54" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I54" t="n">
-        <v>0.032237584</v>
+        <v>0.02834801</v>
       </c>
       <c r="J54" t="n">
-        <v>0.081794066</v>
+        <v>0.071403341</v>
       </c>
       <c r="K54" t="n">
-        <v>0.125231451</v>
+        <v>0.112433704</v>
       </c>
       <c r="L54" t="n">
-        <v>0.017552715</v>
+        <v>0.015928326</v>
       </c>
       <c r="M54" t="n">
-        <v>9.0422e-05</v>
+        <v>7.186699999999999e-05</v>
       </c>
       <c r="N54" t="n">
         <v>46</v>
@@ -4271,31 +4271,31 @@
         <v>15</v>
       </c>
       <c r="E55" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F55" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G55" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H55" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I55" t="n">
-        <v>0.032138017</v>
+        <v>0.028202024</v>
       </c>
       <c r="J55" t="n">
-        <v>0.06710121500000001</v>
+        <v>0.057408333</v>
       </c>
       <c r="K55" t="n">
-        <v>0.100288723</v>
+        <v>0.085650985</v>
       </c>
       <c r="L55" t="n">
-        <v>0.022963918</v>
+        <v>0.019451467</v>
       </c>
       <c r="M55" t="n">
-        <v>8.685400000000001e-05</v>
+        <v>7.7341e-05</v>
       </c>
       <c r="N55" t="n">
         <v>46</v>
@@ -4341,31 +4341,31 @@
         <v>20</v>
       </c>
       <c r="E56" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F56" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G56" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H56" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I56" t="n">
-        <v>0.031863615</v>
+        <v>0.027642244</v>
       </c>
       <c r="J56" t="n">
-        <v>0.050822709</v>
+        <v>0.043903679</v>
       </c>
       <c r="K56" t="n">
-        <v>0.07339246200000001</v>
+        <v>0.06301820599999999</v>
       </c>
       <c r="L56" t="n">
-        <v>0.027376643</v>
+        <v>0.024341182</v>
       </c>
       <c r="M56" t="n">
-        <v>8.493800000000001e-05</v>
+        <v>7.2959e-05</v>
       </c>
       <c r="N56" t="n">
         <v>46</v>
@@ -4411,31 +4411,31 @@
         <v>5</v>
       </c>
       <c r="E57" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F57" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G57" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H57" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I57" t="n">
-        <v>0.037166434</v>
+        <v>0.032756302</v>
       </c>
       <c r="J57" t="n">
-        <v>0.117679222</v>
+        <v>0.105569223</v>
       </c>
       <c r="K57" t="n">
-        <v>0.181488744</v>
+        <v>0.160395944</v>
       </c>
       <c r="L57" t="n">
-        <v>0.012119616</v>
+        <v>0.010478316</v>
       </c>
       <c r="M57" t="n">
-        <v>8.7218e-05</v>
+        <v>9.0862e-05</v>
       </c>
       <c r="N57" t="n">
         <v>46</v>
@@ -4481,31 +4481,31 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F58" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G58" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H58" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I58" t="n">
-        <v>0.036346499</v>
+        <v>0.03218063</v>
       </c>
       <c r="J58" t="n">
-        <v>0.10057001</v>
+        <v>0.09213929899999999</v>
       </c>
       <c r="K58" t="n">
-        <v>0.153303047</v>
+        <v>0.138331811</v>
       </c>
       <c r="L58" t="n">
-        <v>0.016924929</v>
+        <v>0.014958202</v>
       </c>
       <c r="M58" t="n">
-        <v>9.1444e-05</v>
+        <v>7.603e-05</v>
       </c>
       <c r="N58" t="n">
         <v>46</v>
@@ -4551,31 +4551,31 @@
         <v>15</v>
       </c>
       <c r="E59" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F59" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G59" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H59" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I59" t="n">
-        <v>0.036395002</v>
+        <v>0.0322967</v>
       </c>
       <c r="J59" t="n">
-        <v>0.085030878</v>
+        <v>0.075796006</v>
       </c>
       <c r="K59" t="n">
-        <v>0.126868278</v>
+        <v>0.11550583</v>
       </c>
       <c r="L59" t="n">
-        <v>0.022169924</v>
+        <v>0.020130016</v>
       </c>
       <c r="M59" t="n">
-        <v>8.6098e-05</v>
+        <v>7.5091e-05</v>
       </c>
       <c r="N59" t="n">
         <v>46</v>
@@ -4621,31 +4621,31 @@
         <v>20</v>
       </c>
       <c r="E60" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F60" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G60" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H60" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I60" t="n">
-        <v>0.036595581</v>
+        <v>0.033617089</v>
       </c>
       <c r="J60" t="n">
-        <v>0.069879159</v>
+        <v>0.061949747</v>
       </c>
       <c r="K60" t="n">
-        <v>0.102306398</v>
+        <v>0.08975770499999999</v>
       </c>
       <c r="L60" t="n">
-        <v>0.027195038</v>
+        <v>0.0241058</v>
       </c>
       <c r="M60" t="n">
-        <v>8.4733e-05</v>
+        <v>7.218199999999999e-05</v>
       </c>
       <c r="N60" t="n">
         <v>46</v>
@@ -4691,31 +4691,31 @@
         <v>25</v>
       </c>
       <c r="E61" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F61" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G61" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H61" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I61" t="n">
-        <v>0.036830616</v>
+        <v>0.032757784</v>
       </c>
       <c r="J61" t="n">
-        <v>0.055551428</v>
+        <v>0.050090257</v>
       </c>
       <c r="K61" t="n">
-        <v>0.077123013</v>
+        <v>0.06676306999999999</v>
       </c>
       <c r="L61" t="n">
-        <v>0.032202526</v>
+        <v>0.029932724</v>
       </c>
       <c r="M61" t="n">
-        <v>9.3929e-05</v>
+        <v>7.334900000000001e-05</v>
       </c>
       <c r="N61" t="n">
         <v>46</v>
@@ -4761,31 +4761,31 @@
         <v>5</v>
       </c>
       <c r="E62" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F62" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G62" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H62" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I62" t="n">
-        <v>0.010576182</v>
+        <v>0.009645285999999999</v>
       </c>
       <c r="J62" t="n">
-        <v>0.023262521</v>
+        <v>0.020956314</v>
       </c>
       <c r="K62" t="n">
-        <v>0.037887315</v>
+        <v>0.036902486</v>
       </c>
       <c r="L62" t="n">
-        <v>0.004323165</v>
+        <v>0.003919394</v>
       </c>
       <c r="M62" t="n">
-        <v>1.686e-05</v>
+        <v>1.4195e-05</v>
       </c>
       <c r="N62" t="n">
         <v>30</v>
@@ -4831,31 +4831,31 @@
         <v>5</v>
       </c>
       <c r="E63" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F63" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G63" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H63" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I63" t="n">
-        <v>0.014322356</v>
+        <v>0.012773075</v>
       </c>
       <c r="J63" t="n">
-        <v>0.037841017</v>
+        <v>0.033966696</v>
       </c>
       <c r="K63" t="n">
-        <v>0.059912131</v>
+        <v>0.052457285</v>
       </c>
       <c r="L63" t="n">
-        <v>0.004399166</v>
+        <v>0.004091739</v>
       </c>
       <c r="M63" t="n">
-        <v>2.0005e-05</v>
+        <v>1.7438e-05</v>
       </c>
       <c r="N63" t="n">
         <v>30</v>
@@ -4901,31 +4901,31 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F64" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G64" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H64" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I64" t="n">
-        <v>0.014331268</v>
+        <v>0.012785244</v>
       </c>
       <c r="J64" t="n">
-        <v>0.027081914</v>
+        <v>0.024269614</v>
       </c>
       <c r="K64" t="n">
-        <v>0.042338309</v>
+        <v>0.036808612</v>
       </c>
       <c r="L64" t="n">
-        <v>0.008146838999999999</v>
+        <v>0.007145164</v>
       </c>
       <c r="M64" t="n">
-        <v>1.9065e-05</v>
+        <v>1.4873e-05</v>
       </c>
       <c r="N64" t="n">
         <v>30</v>
@@ -4971,31 +4971,31 @@
         <v>5</v>
       </c>
       <c r="E65" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F65" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G65" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H65" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I65" t="n">
-        <v>0.018409168</v>
+        <v>0.015896063</v>
       </c>
       <c r="J65" t="n">
-        <v>0.05377711</v>
+        <v>0.045828033</v>
       </c>
       <c r="K65" t="n">
-        <v>0.083673422</v>
+        <v>0.073284852</v>
       </c>
       <c r="L65" t="n">
-        <v>0.004591496</v>
+        <v>0.004013711</v>
       </c>
       <c r="M65" t="n">
-        <v>2.4227e-05</v>
+        <v>1.6224e-05</v>
       </c>
       <c r="N65" t="n">
         <v>30</v>
@@ -5041,31 +5041,31 @@
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F66" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G66" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H66" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I66" t="n">
-        <v>0.017734955</v>
+        <v>0.015987823</v>
       </c>
       <c r="J66" t="n">
-        <v>0.040817842</v>
+        <v>0.037142137</v>
       </c>
       <c r="K66" t="n">
-        <v>0.062367252</v>
+        <v>0.057234439</v>
       </c>
       <c r="L66" t="n">
-        <v>0.007796027</v>
+        <v>0.007027423</v>
       </c>
       <c r="M66" t="n">
-        <v>1.745e-05</v>
+        <v>1.5505e-05</v>
       </c>
       <c r="N66" t="n">
         <v>30</v>
@@ -5111,31 +5111,31 @@
         <v>15</v>
       </c>
       <c r="E67" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F67" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G67" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H67" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I67" t="n">
-        <v>0.017855705</v>
+        <v>0.017090837</v>
       </c>
       <c r="J67" t="n">
-        <v>0.030283583</v>
+        <v>0.027503046</v>
       </c>
       <c r="K67" t="n">
-        <v>0.044776483</v>
+        <v>0.041007045</v>
       </c>
       <c r="L67" t="n">
-        <v>0.011273582</v>
+        <v>0.010482174</v>
       </c>
       <c r="M67" t="n">
-        <v>1.7484e-05</v>
+        <v>1.5766e-05</v>
       </c>
       <c r="N67" t="n">
         <v>30</v>
@@ -5181,31 +5181,31 @@
         <v>5</v>
       </c>
       <c r="E68" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F68" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G68" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H68" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I68" t="n">
-        <v>0.021478603</v>
+        <v>0.019922245</v>
       </c>
       <c r="J68" t="n">
-        <v>0.066797736</v>
+        <v>0.060511846</v>
       </c>
       <c r="K68" t="n">
-        <v>0.10255211</v>
+        <v>0.092293313</v>
       </c>
       <c r="L68" t="n">
-        <v>0.00438547</v>
+        <v>0.003952204</v>
       </c>
       <c r="M68" t="n">
-        <v>2.3723e-05</v>
+        <v>1.7483e-05</v>
       </c>
       <c r="N68" t="n">
         <v>30</v>
@@ -5251,31 +5251,31 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F69" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G69" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H69" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I69" t="n">
-        <v>0.021143731</v>
+        <v>0.020069395</v>
       </c>
       <c r="J69" t="n">
-        <v>0.054611598</v>
+        <v>0.051122733</v>
       </c>
       <c r="K69" t="n">
-        <v>0.083442005</v>
+        <v>0.07553807</v>
       </c>
       <c r="L69" t="n">
-        <v>0.007976708000000001</v>
+        <v>0.006975859</v>
       </c>
       <c r="M69" t="n">
-        <v>2.0014e-05</v>
+        <v>1.8846e-05</v>
       </c>
       <c r="N69" t="n">
         <v>30</v>
@@ -5321,31 +5321,31 @@
         <v>15</v>
       </c>
       <c r="E70" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F70" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G70" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H70" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I70" t="n">
-        <v>0.020797901</v>
+        <v>0.019963268</v>
       </c>
       <c r="J70" t="n">
-        <v>0.043293772</v>
+        <v>0.040895461</v>
       </c>
       <c r="K70" t="n">
-        <v>0.064887843</v>
+        <v>0.059450275</v>
       </c>
       <c r="L70" t="n">
-        <v>0.011048204</v>
+        <v>0.010285046</v>
       </c>
       <c r="M70" t="n">
-        <v>1.7387e-05</v>
+        <v>1.7661e-05</v>
       </c>
       <c r="N70" t="n">
         <v>30</v>
@@ -5391,31 +5391,31 @@
         <v>20</v>
       </c>
       <c r="E71" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F71" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G71" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H71" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I71" t="n">
-        <v>0.021261236</v>
+        <v>0.019093757</v>
       </c>
       <c r="J71" t="n">
-        <v>0.033383421</v>
+        <v>0.030495413</v>
       </c>
       <c r="K71" t="n">
-        <v>0.047615293</v>
+        <v>0.043788209</v>
       </c>
       <c r="L71" t="n">
-        <v>0.01467405</v>
+        <v>0.013532806</v>
       </c>
       <c r="M71" t="n">
-        <v>1.7129e-05</v>
+        <v>1.5317e-05</v>
       </c>
       <c r="N71" t="n">
         <v>30</v>
@@ -5461,31 +5461,31 @@
         <v>5</v>
       </c>
       <c r="E72" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F72" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G72" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H72" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I72" t="n">
-        <v>0.024555291</v>
+        <v>0.022229212</v>
       </c>
       <c r="J72" t="n">
-        <v>0.079121361</v>
+        <v>0.075506222</v>
       </c>
       <c r="K72" t="n">
-        <v>0.121114251</v>
+        <v>0.120853791</v>
       </c>
       <c r="L72" t="n">
-        <v>0.004291305</v>
+        <v>0.004277916</v>
       </c>
       <c r="M72" t="n">
-        <v>2.2365e-05</v>
+        <v>2.7664e-05</v>
       </c>
       <c r="N72" t="n">
         <v>30</v>
@@ -5531,31 +5531,31 @@
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F73" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G73" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H73" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I73" t="n">
-        <v>0.024597189</v>
+        <v>0.024465504</v>
       </c>
       <c r="J73" t="n">
-        <v>0.06870842100000001</v>
+        <v>0.06788271999999999</v>
       </c>
       <c r="K73" t="n">
-        <v>0.103510297</v>
+        <v>0.102622597</v>
       </c>
       <c r="L73" t="n">
-        <v>0.007777876</v>
+        <v>0.008052449999999999</v>
       </c>
       <c r="M73" t="n">
-        <v>2.0771e-05</v>
+        <v>2.0822e-05</v>
       </c>
       <c r="N73" t="n">
         <v>30</v>
@@ -5601,31 +5601,31 @@
         <v>15</v>
       </c>
       <c r="E74" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F74" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G74" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H74" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I74" t="n">
-        <v>0.024538099</v>
+        <v>0.025721093</v>
       </c>
       <c r="J74" t="n">
-        <v>0.058523024</v>
+        <v>0.059978296</v>
       </c>
       <c r="K74" t="n">
-        <v>0.087660217</v>
+        <v>0.08694626</v>
       </c>
       <c r="L74" t="n">
-        <v>0.011288938</v>
+        <v>0.011193944</v>
       </c>
       <c r="M74" t="n">
-        <v>1.9902e-05</v>
+        <v>1.8759e-05</v>
       </c>
       <c r="N74" t="n">
         <v>30</v>
@@ -5671,31 +5671,31 @@
         <v>20</v>
       </c>
       <c r="E75" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F75" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G75" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H75" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I75" t="n">
-        <v>0.024524803</v>
+        <v>0.024130043</v>
       </c>
       <c r="J75" t="n">
-        <v>0.047650207</v>
+        <v>0.04688864</v>
       </c>
       <c r="K75" t="n">
-        <v>0.068552909</v>
+        <v>0.069114566</v>
       </c>
       <c r="L75" t="n">
-        <v>0.014677123</v>
+        <v>0.014603547</v>
       </c>
       <c r="M75" t="n">
-        <v>1.9853e-05</v>
+        <v>1.9424e-05</v>
       </c>
       <c r="N75" t="n">
         <v>30</v>
@@ -5741,31 +5741,31 @@
         <v>25</v>
       </c>
       <c r="E76" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F76" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G76" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H76" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I76" t="n">
-        <v>0.024540085</v>
+        <v>0.024761987</v>
       </c>
       <c r="J76" t="n">
-        <v>0.036834901</v>
+        <v>0.036896123</v>
       </c>
       <c r="K76" t="n">
-        <v>0.051432501</v>
+        <v>0.052161656</v>
       </c>
       <c r="L76" t="n">
-        <v>0.018134376</v>
+        <v>0.018844254</v>
       </c>
       <c r="M76" t="n">
-        <v>1.8126e-05</v>
+        <v>1.8405e-05</v>
       </c>
       <c r="N76" t="n">
         <v>30</v>
@@ -5811,31 +5811,31 @@
         <v>5</v>
       </c>
       <c r="E77" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F77" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G77" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H77" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I77" t="n">
-        <v>0.010628658</v>
+        <v>0.010512572</v>
       </c>
       <c r="J77" t="n">
-        <v>0.023157795</v>
+        <v>0.022754769</v>
       </c>
       <c r="K77" t="n">
-        <v>0.038078039</v>
+        <v>0.036949992</v>
       </c>
       <c r="L77" t="n">
-        <v>0.004360341</v>
+        <v>0.004325885</v>
       </c>
       <c r="M77" t="n">
-        <v>1.6929e-05</v>
+        <v>1.6141e-05</v>
       </c>
       <c r="N77" t="n">
         <v>30</v>
@@ -5881,31 +5881,31 @@
         <v>5</v>
       </c>
       <c r="E78" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F78" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G78" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H78" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I78" t="n">
-        <v>0.014129312</v>
+        <v>0.014005155</v>
       </c>
       <c r="J78" t="n">
-        <v>0.036967822</v>
+        <v>0.038551832</v>
       </c>
       <c r="K78" t="n">
-        <v>0.058360078</v>
+        <v>0.059117398</v>
       </c>
       <c r="L78" t="n">
-        <v>0.004349688</v>
+        <v>0.004280215</v>
       </c>
       <c r="M78" t="n">
-        <v>1.8945e-05</v>
+        <v>2.0975e-05</v>
       </c>
       <c r="N78" t="n">
         <v>30</v>
@@ -5951,31 +5951,31 @@
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F79" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G79" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H79" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I79" t="n">
-        <v>0.014289409</v>
+        <v>0.015792669</v>
       </c>
       <c r="J79" t="n">
-        <v>0.026861081</v>
+        <v>0.026122601</v>
       </c>
       <c r="K79" t="n">
-        <v>0.041190697</v>
+        <v>0.040425171</v>
       </c>
       <c r="L79" t="n">
-        <v>0.00783765</v>
+        <v>0.007732245</v>
       </c>
       <c r="M79" t="n">
-        <v>1.7928e-05</v>
+        <v>1.8047e-05</v>
       </c>
       <c r="N79" t="n">
         <v>30</v>
@@ -6021,31 +6021,31 @@
         <v>5</v>
       </c>
       <c r="E80" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F80" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G80" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H80" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I80" t="n">
-        <v>0.018370874</v>
+        <v>0.017557784</v>
       </c>
       <c r="J80" t="n">
-        <v>0.051597541</v>
+        <v>0.056249127</v>
       </c>
       <c r="K80" t="n">
-        <v>0.080080572</v>
+        <v>0.078607568</v>
       </c>
       <c r="L80" t="n">
-        <v>0.004389745</v>
+        <v>0.004610913</v>
       </c>
       <c r="M80" t="n">
-        <v>1.9639e-05</v>
+        <v>2.1313e-05</v>
       </c>
       <c r="N80" t="n">
         <v>30</v>
@@ -6091,31 +6091,31 @@
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F81" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G81" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H81" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I81" t="n">
-        <v>0.01775444</v>
+        <v>0.017312791</v>
       </c>
       <c r="J81" t="n">
-        <v>0.040707939</v>
+        <v>0.043831325</v>
       </c>
       <c r="K81" t="n">
-        <v>0.061756961</v>
+        <v>0.062875527</v>
       </c>
       <c r="L81" t="n">
-        <v>0.007833988</v>
+        <v>0.008008059999999999</v>
       </c>
       <c r="M81" t="n">
-        <v>1.8788e-05</v>
+        <v>1.8084e-05</v>
       </c>
       <c r="N81" t="n">
         <v>30</v>
@@ -6161,31 +6161,31 @@
         <v>15</v>
       </c>
       <c r="E82" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F82" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G82" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H82" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I82" t="n">
-        <v>0.017403688</v>
+        <v>0.017956923</v>
       </c>
       <c r="J82" t="n">
-        <v>0.029936347</v>
+        <v>0.03106982</v>
       </c>
       <c r="K82" t="n">
-        <v>0.044558893</v>
+        <v>0.04625192</v>
       </c>
       <c r="L82" t="n">
-        <v>0.011212841</v>
+        <v>0.011761264</v>
       </c>
       <c r="M82" t="n">
-        <v>1.6446e-05</v>
+        <v>2.0933e-05</v>
       </c>
       <c r="N82" t="n">
         <v>30</v>
@@ -6231,31 +6231,31 @@
         <v>5</v>
       </c>
       <c r="E83" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F83" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G83" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H83" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I83" t="n">
-        <v>0.021191725</v>
+        <v>0.02114834</v>
       </c>
       <c r="J83" t="n">
-        <v>0.064715014</v>
+        <v>0.063650401</v>
       </c>
       <c r="K83" t="n">
-        <v>0.099813358</v>
+        <v>0.09917456500000001</v>
       </c>
       <c r="L83" t="n">
-        <v>0.004344796</v>
+        <v>0.00433191</v>
       </c>
       <c r="M83" t="n">
-        <v>2.0778e-05</v>
+        <v>2.4812e-05</v>
       </c>
       <c r="N83" t="n">
         <v>30</v>
@@ -6301,31 +6301,31 @@
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F84" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G84" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H84" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I84" t="n">
-        <v>0.021243397</v>
+        <v>0.02056257</v>
       </c>
       <c r="J84" t="n">
-        <v>0.054909474</v>
+        <v>0.053174344</v>
       </c>
       <c r="K84" t="n">
-        <v>0.083059229</v>
+        <v>0.076912431</v>
       </c>
       <c r="L84" t="n">
-        <v>0.007823818</v>
+        <v>0.007152364</v>
       </c>
       <c r="M84" t="n">
-        <v>2.0032e-05</v>
+        <v>1.7016e-05</v>
       </c>
       <c r="N84" t="n">
         <v>30</v>
@@ -6371,31 +6371,31 @@
         <v>15</v>
       </c>
       <c r="E85" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F85" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G85" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H85" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I85" t="n">
-        <v>0.021156597</v>
+        <v>0.019221053</v>
       </c>
       <c r="J85" t="n">
-        <v>0.044041908</v>
+        <v>0.040130961</v>
       </c>
       <c r="K85" t="n">
-        <v>0.066140459</v>
+        <v>0.059201696</v>
       </c>
       <c r="L85" t="n">
-        <v>0.011436356</v>
+        <v>0.010185614</v>
       </c>
       <c r="M85" t="n">
-        <v>2.0399e-05</v>
+        <v>1.6361e-05</v>
       </c>
       <c r="N85" t="n">
         <v>30</v>
@@ -6441,31 +6441,31 @@
         <v>20</v>
       </c>
       <c r="E86" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F86" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G86" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H86" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I86" t="n">
-        <v>0.021363162</v>
+        <v>0.018937787</v>
       </c>
       <c r="J86" t="n">
-        <v>0.034063128</v>
+        <v>0.030021063</v>
       </c>
       <c r="K86" t="n">
-        <v>0.048456177</v>
+        <v>0.043392911</v>
       </c>
       <c r="L86" t="n">
-        <v>0.014852103</v>
+        <v>0.013429453</v>
       </c>
       <c r="M86" t="n">
-        <v>1.6812e-05</v>
+        <v>1.5256e-05</v>
       </c>
       <c r="N86" t="n">
         <v>30</v>
@@ -6511,31 +6511,31 @@
         <v>5</v>
       </c>
       <c r="E87" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F87" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G87" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H87" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I87" t="n">
-        <v>0.024632807</v>
+        <v>0.027549275</v>
       </c>
       <c r="J87" t="n">
-        <v>0.07851211700000001</v>
+        <v>0.07203063799999999</v>
       </c>
       <c r="K87" t="n">
-        <v>0.120832435</v>
+        <v>0.112416422</v>
       </c>
       <c r="L87" t="n">
-        <v>0.004315348</v>
+        <v>0.004075976</v>
       </c>
       <c r="M87" t="n">
-        <v>2.1241e-05</v>
+        <v>2.2057e-05</v>
       </c>
       <c r="N87" t="n">
         <v>30</v>
@@ -6581,31 +6581,31 @@
         <v>10</v>
       </c>
       <c r="E88" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F88" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G88" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H88" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I88" t="n">
-        <v>0.024946566</v>
+        <v>0.022599266</v>
       </c>
       <c r="J88" t="n">
-        <v>0.068961958</v>
+        <v>0.062975541</v>
       </c>
       <c r="K88" t="n">
-        <v>0.104157716</v>
+        <v>0.095646382</v>
       </c>
       <c r="L88" t="n">
-        <v>0.007920925000000001</v>
+        <v>0.007151607</v>
       </c>
       <c r="M88" t="n">
-        <v>2.3278e-05</v>
+        <v>1.8873e-05</v>
       </c>
       <c r="N88" t="n">
         <v>30</v>
@@ -6651,31 +6651,31 @@
         <v>15</v>
       </c>
       <c r="E89" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F89" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G89" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H89" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I89" t="n">
-        <v>0.025123811</v>
+        <v>0.022590318</v>
       </c>
       <c r="J89" t="n">
-        <v>0.059009813</v>
+        <v>0.053130883</v>
       </c>
       <c r="K89" t="n">
-        <v>0.08842362500000001</v>
+        <v>0.08409006500000001</v>
       </c>
       <c r="L89" t="n">
-        <v>0.011455438</v>
+        <v>0.011152544</v>
       </c>
       <c r="M89" t="n">
-        <v>1.9493e-05</v>
+        <v>2.0946e-05</v>
       </c>
       <c r="N89" t="n">
         <v>30</v>
@@ -6721,31 +6721,31 @@
         <v>20</v>
       </c>
       <c r="E90" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F90" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G90" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H90" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I90" t="n">
-        <v>0.025366064</v>
+        <v>0.024014555</v>
       </c>
       <c r="J90" t="n">
-        <v>0.048950598</v>
+        <v>0.044059339</v>
       </c>
       <c r="K90" t="n">
-        <v>0.071232464</v>
+        <v>0.063084218</v>
       </c>
       <c r="L90" t="n">
-        <v>0.01523769</v>
+        <v>0.013296397</v>
       </c>
       <c r="M90" t="n">
-        <v>2.2623e-05</v>
+        <v>1.5822e-05</v>
       </c>
       <c r="N90" t="n">
         <v>30</v>
@@ -6791,31 +6791,31 @@
         <v>25</v>
       </c>
       <c r="E91" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F91" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G91" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H91" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I91" t="n">
-        <v>0.025963163</v>
+        <v>0.022486855</v>
       </c>
       <c r="J91" t="n">
-        <v>0.039333959</v>
+        <v>0.033702803</v>
       </c>
       <c r="K91" t="n">
-        <v>0.054462533</v>
+        <v>0.047292968</v>
       </c>
       <c r="L91" t="n">
-        <v>0.019098315</v>
+        <v>0.01729155</v>
       </c>
       <c r="M91" t="n">
-        <v>1.9994e-05</v>
+        <v>1.5698e-05</v>
       </c>
       <c r="N91" t="n">
         <v>30</v>
@@ -6861,31 +6861,31 @@
         <v>5</v>
       </c>
       <c r="E92" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F92" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G92" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H92" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I92" t="n">
-        <v>0.010767525</v>
+        <v>0.00964197</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02331891</v>
+        <v>0.021161173</v>
       </c>
       <c r="K92" t="n">
-        <v>0.038416036</v>
+        <v>0.034095868</v>
       </c>
       <c r="L92" t="n">
-        <v>0.004407615</v>
+        <v>0.003919848</v>
       </c>
       <c r="M92" t="n">
-        <v>1.7913e-05</v>
+        <v>1.4751e-05</v>
       </c>
       <c r="N92" t="n">
         <v>30</v>
@@ -6931,31 +6931,31 @@
         <v>5</v>
       </c>
       <c r="E93" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F93" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G93" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H93" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I93" t="n">
-        <v>0.014209428</v>
+        <v>0.012721849</v>
       </c>
       <c r="J93" t="n">
-        <v>0.037326427</v>
+        <v>0.033891825</v>
       </c>
       <c r="K93" t="n">
-        <v>0.058906773</v>
+        <v>0.052688249</v>
       </c>
       <c r="L93" t="n">
-        <v>0.004431172</v>
+        <v>0.004240138</v>
       </c>
       <c r="M93" t="n">
-        <v>2.023e-05</v>
+        <v>2.0956e-05</v>
       </c>
       <c r="N93" t="n">
         <v>30</v>
@@ -7001,31 +7001,31 @@
         <v>10</v>
       </c>
       <c r="E94" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F94" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G94" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H94" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I94" t="n">
-        <v>0.014219632</v>
+        <v>0.013928783</v>
       </c>
       <c r="J94" t="n">
-        <v>0.026524951</v>
+        <v>0.026437979</v>
       </c>
       <c r="K94" t="n">
-        <v>0.041397818</v>
+        <v>0.039946369</v>
       </c>
       <c r="L94" t="n">
-        <v>0.007896735</v>
+        <v>0.00745352</v>
       </c>
       <c r="M94" t="n">
-        <v>1.8114e-05</v>
+        <v>1.9418e-05</v>
       </c>
       <c r="N94" t="n">
         <v>30</v>
@@ -7071,31 +7071,31 @@
         <v>5</v>
       </c>
       <c r="E95" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F95" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G95" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H95" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I95" t="n">
-        <v>0.017443227</v>
+        <v>0.016680244</v>
       </c>
       <c r="J95" t="n">
-        <v>0.051281574</v>
+        <v>0.047728175</v>
       </c>
       <c r="K95" t="n">
-        <v>0.079497337</v>
+        <v>0.078155479</v>
       </c>
       <c r="L95" t="n">
-        <v>0.004325617</v>
+        <v>0.004230736</v>
       </c>
       <c r="M95" t="n">
-        <v>1.8651e-05</v>
+        <v>2.5597e-05</v>
       </c>
       <c r="N95" t="n">
         <v>30</v>
@@ -7141,31 +7141,31 @@
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F96" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G96" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H96" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I96" t="n">
-        <v>0.017468235</v>
+        <v>0.016477157</v>
       </c>
       <c r="J96" t="n">
-        <v>0.040338798</v>
+        <v>0.038342572</v>
       </c>
       <c r="K96" t="n">
-        <v>0.06223736</v>
+        <v>0.058047319</v>
       </c>
       <c r="L96" t="n">
-        <v>0.007829311</v>
+        <v>0.007181576</v>
       </c>
       <c r="M96" t="n">
-        <v>1.7189e-05</v>
+        <v>1.9778e-05</v>
       </c>
       <c r="N96" t="n">
         <v>30</v>
@@ -7211,31 +7211,31 @@
         <v>15</v>
       </c>
       <c r="E97" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F97" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G97" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H97" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I97" t="n">
-        <v>0.017683317</v>
+        <v>0.016039479</v>
       </c>
       <c r="J97" t="n">
-        <v>0.030521521</v>
+        <v>0.027225142</v>
       </c>
       <c r="K97" t="n">
-        <v>0.044946465</v>
+        <v>0.042482182</v>
       </c>
       <c r="L97" t="n">
-        <v>0.011484229</v>
+        <v>0.010371037</v>
       </c>
       <c r="M97" t="n">
-        <v>1.6338e-05</v>
+        <v>1.638e-05</v>
       </c>
       <c r="N97" t="n">
         <v>30</v>
@@ -7281,31 +7281,31 @@
         <v>5</v>
       </c>
       <c r="E98" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F98" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G98" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H98" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I98" t="n">
-        <v>0.0211157</v>
+        <v>0.019304725</v>
       </c>
       <c r="J98" t="n">
-        <v>0.06556292800000001</v>
+        <v>0.059176474</v>
       </c>
       <c r="K98" t="n">
-        <v>0.101289493</v>
+        <v>0.091779953</v>
       </c>
       <c r="L98" t="n">
-        <v>0.004402093</v>
+        <v>0.003975089</v>
       </c>
       <c r="M98" t="n">
-        <v>1.9627e-05</v>
+        <v>2.032e-05</v>
       </c>
       <c r="N98" t="n">
         <v>30</v>
@@ -7351,31 +7351,31 @@
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F99" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G99" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H99" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I99" t="n">
-        <v>0.020925039</v>
+        <v>0.019329399</v>
       </c>
       <c r="J99" t="n">
-        <v>0.053594238</v>
+        <v>0.050427481</v>
       </c>
       <c r="K99" t="n">
-        <v>0.082274386</v>
+        <v>0.07574726</v>
       </c>
       <c r="L99" t="n">
-        <v>0.007759051</v>
+        <v>0.007145709</v>
       </c>
       <c r="M99" t="n">
-        <v>1.8409e-05</v>
+        <v>1.8942e-05</v>
       </c>
       <c r="N99" t="n">
         <v>30</v>
@@ -7421,31 +7421,31 @@
         <v>15</v>
       </c>
       <c r="E100" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F100" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G100" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H100" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I100" t="n">
-        <v>0.020933938</v>
+        <v>0.019322129</v>
       </c>
       <c r="J100" t="n">
-        <v>0.044133758</v>
+        <v>0.040127634</v>
       </c>
       <c r="K100" t="n">
-        <v>0.06553745</v>
+        <v>0.059792832</v>
       </c>
       <c r="L100" t="n">
-        <v>0.011279141</v>
+        <v>0.010496313</v>
       </c>
       <c r="M100" t="n">
-        <v>1.8039e-05</v>
+        <v>1.7461e-05</v>
       </c>
       <c r="N100" t="n">
         <v>30</v>
@@ -7491,31 +7491,31 @@
         <v>20</v>
       </c>
       <c r="E101" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F101" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G101" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H101" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I101" t="n">
-        <v>0.021483217</v>
+        <v>0.019516714</v>
       </c>
       <c r="J101" t="n">
-        <v>0.033956629</v>
+        <v>0.030900215</v>
       </c>
       <c r="K101" t="n">
-        <v>0.048659019</v>
+        <v>0.04392317</v>
       </c>
       <c r="L101" t="n">
-        <v>0.014832367</v>
+        <v>0.013735695</v>
       </c>
       <c r="M101" t="n">
-        <v>1.6988e-05</v>
+        <v>1.6599e-05</v>
       </c>
       <c r="N101" t="n">
         <v>30</v>
@@ -7561,31 +7561,31 @@
         <v>5</v>
       </c>
       <c r="E102" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F102" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G102" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H102" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I102" t="n">
-        <v>0.025048707</v>
+        <v>0.023677905</v>
       </c>
       <c r="J102" t="n">
-        <v>0.079290872</v>
+        <v>0.073290048</v>
       </c>
       <c r="K102" t="n">
-        <v>0.121358451</v>
+        <v>0.110036236</v>
       </c>
       <c r="L102" t="n">
-        <v>0.004362273</v>
+        <v>0.003891627</v>
       </c>
       <c r="M102" t="n">
-        <v>2.1894e-05</v>
+        <v>1.9359e-05</v>
       </c>
       <c r="N102" t="n">
         <v>30</v>
@@ -7631,31 +7631,31 @@
         <v>10</v>
       </c>
       <c r="E103" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F103" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G103" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H103" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I103" t="n">
-        <v>0.024648336</v>
+        <v>0.022278517</v>
       </c>
       <c r="J103" t="n">
-        <v>0.068263457</v>
+        <v>0.063274385</v>
       </c>
       <c r="K103" t="n">
-        <v>0.103303903</v>
+        <v>0.096383788</v>
       </c>
       <c r="L103" t="n">
-        <v>0.007836986000000001</v>
+        <v>0.007298352</v>
       </c>
       <c r="M103" t="n">
-        <v>2.1593e-05</v>
+        <v>2.1491e-05</v>
       </c>
       <c r="N103" t="n">
         <v>30</v>
@@ -7701,31 +7701,31 @@
         <v>15</v>
       </c>
       <c r="E104" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F104" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G104" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H104" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I104" t="n">
-        <v>0.024693191</v>
+        <v>0.022428296</v>
       </c>
       <c r="J104" t="n">
-        <v>0.058457408</v>
+        <v>0.05304315</v>
       </c>
       <c r="K104" t="n">
-        <v>0.086773367</v>
+        <v>0.080866708</v>
       </c>
       <c r="L104" t="n">
-        <v>0.011295787</v>
+        <v>0.010366591</v>
       </c>
       <c r="M104" t="n">
-        <v>2.0258e-05</v>
+        <v>1.8159e-05</v>
       </c>
       <c r="N104" t="n">
         <v>30</v>
@@ -7771,31 +7771,31 @@
         <v>20</v>
       </c>
       <c r="E105" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F105" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G105" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H105" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I105" t="n">
-        <v>0.024587405</v>
+        <v>0.022687563</v>
       </c>
       <c r="J105" t="n">
-        <v>0.047554268</v>
+        <v>0.043328778</v>
       </c>
       <c r="K105" t="n">
-        <v>0.069396346</v>
+        <v>0.063516906</v>
       </c>
       <c r="L105" t="n">
-        <v>0.014998881</v>
+        <v>0.013644962</v>
       </c>
       <c r="M105" t="n">
-        <v>1.8878e-05</v>
+        <v>1.7507e-05</v>
       </c>
       <c r="N105" t="n">
         <v>30</v>
@@ -7841,31 +7841,31 @@
         <v>25</v>
       </c>
       <c r="E106" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F106" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G106" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H106" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I106" t="n">
-        <v>0.024798456</v>
+        <v>0.022921701</v>
       </c>
       <c r="J106" t="n">
-        <v>0.037410097</v>
+        <v>0.035035261</v>
       </c>
       <c r="K106" t="n">
-        <v>0.051198664</v>
+        <v>0.049556651</v>
       </c>
       <c r="L106" t="n">
-        <v>0.018132263</v>
+        <v>0.017662974</v>
       </c>
       <c r="M106" t="n">
-        <v>1.7539e-05</v>
+        <v>1.7044e-05</v>
       </c>
       <c r="N106" t="n">
         <v>30</v>
@@ -7911,31 +7911,31 @@
         <v>5</v>
       </c>
       <c r="E107" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F107" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G107" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H107" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I107" t="n">
-        <v>0.01078377</v>
+        <v>0.009657004</v>
       </c>
       <c r="J107" t="n">
-        <v>0.023306131</v>
+        <v>0.020895863</v>
       </c>
       <c r="K107" t="n">
-        <v>0.038222885</v>
+        <v>0.034246308</v>
       </c>
       <c r="L107" t="n">
-        <v>0.004419952</v>
+        <v>0.003906757</v>
       </c>
       <c r="M107" t="n">
-        <v>1.737e-05</v>
+        <v>1.4914e-05</v>
       </c>
       <c r="N107" t="n">
         <v>30</v>
@@ -7981,31 +7981,31 @@
         <v>5</v>
       </c>
       <c r="E108" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F108" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G108" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H108" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I108" t="n">
-        <v>0.014051625</v>
+        <v>0.012930838</v>
       </c>
       <c r="J108" t="n">
-        <v>0.037065761</v>
+        <v>0.033967218</v>
       </c>
       <c r="K108" t="n">
-        <v>0.059191476</v>
+        <v>0.053018209</v>
       </c>
       <c r="L108" t="n">
-        <v>0.004325897</v>
+        <v>0.003929473</v>
       </c>
       <c r="M108" t="n">
-        <v>1.7075e-05</v>
+        <v>2.4945e-05</v>
       </c>
       <c r="N108" t="n">
         <v>30</v>
@@ -8051,31 +8051,31 @@
         <v>10</v>
       </c>
       <c r="E109" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F109" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G109" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H109" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I109" t="n">
-        <v>0.014140423</v>
+        <v>0.012782772</v>
       </c>
       <c r="J109" t="n">
-        <v>0.026699878</v>
+        <v>0.025121114</v>
       </c>
       <c r="K109" t="n">
-        <v>0.041292797</v>
+        <v>0.037480233</v>
       </c>
       <c r="L109" t="n">
-        <v>0.007823904</v>
+        <v>0.006959342</v>
       </c>
       <c r="M109" t="n">
-        <v>1.6059e-05</v>
+        <v>1.4807e-05</v>
       </c>
       <c r="N109" t="n">
         <v>30</v>
@@ -8121,31 +8121,31 @@
         <v>5</v>
       </c>
       <c r="E110" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F110" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G110" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H110" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I110" t="n">
-        <v>0.017597364</v>
+        <v>0.015913254</v>
       </c>
       <c r="J110" t="n">
-        <v>0.051713394</v>
+        <v>0.046186088</v>
       </c>
       <c r="K110" t="n">
-        <v>0.079858176</v>
+        <v>0.07573622100000001</v>
       </c>
       <c r="L110" t="n">
-        <v>0.004351789</v>
+        <v>0.00392164</v>
       </c>
       <c r="M110" t="n">
-        <v>2.0233e-05</v>
+        <v>1.7977e-05</v>
       </c>
       <c r="N110" t="n">
         <v>30</v>
@@ -8191,31 +8191,31 @@
         <v>10</v>
       </c>
       <c r="E111" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F111" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G111" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H111" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I111" t="n">
-        <v>0.017598863</v>
+        <v>0.015931219</v>
       </c>
       <c r="J111" t="n">
-        <v>0.040364556</v>
+        <v>0.037195249</v>
       </c>
       <c r="K111" t="n">
-        <v>0.0622357</v>
+        <v>0.057122015</v>
       </c>
       <c r="L111" t="n">
-        <v>0.007843467999999999</v>
+        <v>0.007338611</v>
       </c>
       <c r="M111" t="n">
-        <v>1.9291e-05</v>
+        <v>1.7657e-05</v>
       </c>
       <c r="N111" t="n">
         <v>30</v>
@@ -8261,31 +8261,31 @@
         <v>15</v>
       </c>
       <c r="E112" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F112" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G112" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H112" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I112" t="n">
-        <v>0.017690476</v>
+        <v>0.016312686</v>
       </c>
       <c r="J112" t="n">
-        <v>0.030115207</v>
+        <v>0.028043051</v>
       </c>
       <c r="K112" t="n">
-        <v>0.044770998</v>
+        <v>0.040767796</v>
       </c>
       <c r="L112" t="n">
-        <v>0.011274734</v>
+        <v>0.010283262</v>
       </c>
       <c r="M112" t="n">
-        <v>1.7528e-05</v>
+        <v>1.566e-05</v>
       </c>
       <c r="N112" t="n">
         <v>30</v>
@@ -8331,31 +8331,31 @@
         <v>5</v>
       </c>
       <c r="E113" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F113" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G113" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H113" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I113" t="n">
-        <v>0.021042079</v>
+        <v>0.019575859</v>
       </c>
       <c r="J113" t="n">
-        <v>0.06436075600000001</v>
+        <v>0.059617159</v>
       </c>
       <c r="K113" t="n">
-        <v>0.099764716</v>
+        <v>0.092207445</v>
       </c>
       <c r="L113" t="n">
-        <v>0.004354084</v>
+        <v>0.004126646</v>
       </c>
       <c r="M113" t="n">
-        <v>2.1083e-05</v>
+        <v>2.5062e-05</v>
       </c>
       <c r="N113" t="n">
         <v>30</v>
@@ -8401,31 +8401,31 @@
         <v>10</v>
       </c>
       <c r="E114" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F114" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G114" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H114" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I114" t="n">
-        <v>0.021248986</v>
+        <v>0.019581572</v>
       </c>
       <c r="J114" t="n">
-        <v>0.054311796</v>
+        <v>0.052001413</v>
       </c>
       <c r="K114" t="n">
-        <v>0.08388854699999999</v>
+        <v>0.07501730700000001</v>
       </c>
       <c r="L114" t="n">
-        <v>0.007859401</v>
+        <v>0.007146008</v>
       </c>
       <c r="M114" t="n">
-        <v>2.0453e-05</v>
+        <v>1.8525e-05</v>
       </c>
       <c r="N114" t="n">
         <v>30</v>
@@ -8471,31 +8471,31 @@
         <v>15</v>
       </c>
       <c r="E115" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F115" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G115" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H115" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I115" t="n">
-        <v>0.021085463</v>
+        <v>0.019976421</v>
       </c>
       <c r="J115" t="n">
-        <v>0.044250862</v>
+        <v>0.040279049</v>
       </c>
       <c r="K115" t="n">
-        <v>0.065703417</v>
+        <v>0.060937185</v>
       </c>
       <c r="L115" t="n">
-        <v>0.011357189</v>
+        <v>0.010327401</v>
       </c>
       <c r="M115" t="n">
-        <v>1.9856e-05</v>
+        <v>1.5252e-05</v>
       </c>
       <c r="N115" t="n">
         <v>30</v>
@@ -8541,31 +8541,31 @@
         <v>20</v>
       </c>
       <c r="E116" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F116" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G116" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H116" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I116" t="n">
-        <v>0.020899784</v>
+        <v>0.019229749</v>
       </c>
       <c r="J116" t="n">
-        <v>0.033209885</v>
+        <v>0.030757431</v>
       </c>
       <c r="K116" t="n">
-        <v>0.047732145</v>
+        <v>0.044415047</v>
       </c>
       <c r="L116" t="n">
-        <v>0.014757888</v>
+        <v>0.013590093</v>
       </c>
       <c r="M116" t="n">
-        <v>1.6806e-05</v>
+        <v>1.8474e-05</v>
       </c>
       <c r="N116" t="n">
         <v>30</v>
@@ -8611,31 +8611,31 @@
         <v>5</v>
       </c>
       <c r="E117" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F117" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G117" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H117" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I117" t="n">
-        <v>0.024532254</v>
+        <v>0.022921068</v>
       </c>
       <c r="J117" t="n">
-        <v>0.078537539</v>
+        <v>0.073739191</v>
       </c>
       <c r="K117" t="n">
-        <v>0.121898539</v>
+        <v>0.112316143</v>
       </c>
       <c r="L117" t="n">
-        <v>0.004314418</v>
+        <v>0.00399821</v>
       </c>
       <c r="M117" t="n">
-        <v>2.0368e-05</v>
+        <v>2.2217e-05</v>
       </c>
       <c r="N117" t="n">
         <v>30</v>
@@ -8681,31 +8681,31 @@
         <v>10</v>
       </c>
       <c r="E118" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F118" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G118" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H118" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I118" t="n">
-        <v>0.02634982</v>
+        <v>0.022588416</v>
       </c>
       <c r="J118" t="n">
-        <v>0.070960943</v>
+        <v>0.062640328</v>
       </c>
       <c r="K118" t="n">
-        <v>0.10923445</v>
+        <v>0.095137608</v>
       </c>
       <c r="L118" t="n">
-        <v>0.008518915</v>
+        <v>0.007417338</v>
       </c>
       <c r="M118" t="n">
-        <v>2.6248e-05</v>
+        <v>2.2481e-05</v>
       </c>
       <c r="N118" t="n">
         <v>30</v>
@@ -8751,31 +8751,31 @@
         <v>15</v>
       </c>
       <c r="E119" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F119" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G119" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H119" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I119" t="n">
-        <v>0.024462407</v>
+        <v>0.022764358</v>
       </c>
       <c r="J119" t="n">
-        <v>0.058066571</v>
+        <v>0.053623545</v>
       </c>
       <c r="K119" t="n">
-        <v>0.086832386</v>
+        <v>0.08331063700000001</v>
       </c>
       <c r="L119" t="n">
-        <v>0.011323068</v>
+        <v>0.010876562</v>
       </c>
       <c r="M119" t="n">
-        <v>1.9427e-05</v>
+        <v>2.4828e-05</v>
       </c>
       <c r="N119" t="n">
         <v>30</v>
@@ -8821,31 +8821,31 @@
         <v>20</v>
       </c>
       <c r="E120" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F120" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G120" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H120" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I120" t="n">
-        <v>0.024538323</v>
+        <v>0.023531768</v>
       </c>
       <c r="J120" t="n">
-        <v>0.047356498</v>
+        <v>0.04546181</v>
       </c>
       <c r="K120" t="n">
-        <v>0.068485593</v>
+        <v>0.068568341</v>
       </c>
       <c r="L120" t="n">
-        <v>0.014765023</v>
+        <v>0.013719838</v>
       </c>
       <c r="M120" t="n">
-        <v>1.8375e-05</v>
+        <v>2.3142e-05</v>
       </c>
       <c r="N120" t="n">
         <v>30</v>
@@ -8891,31 +8891,31 @@
         <v>25</v>
       </c>
       <c r="E121" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F121" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G121" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H121" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I121" t="n">
-        <v>0.025588721</v>
+        <v>0.022583859</v>
       </c>
       <c r="J121" t="n">
-        <v>0.038173223</v>
+        <v>0.033590818</v>
       </c>
       <c r="K121" t="n">
-        <v>0.054156139</v>
+        <v>0.047022971</v>
       </c>
       <c r="L121" t="n">
-        <v>0.019103934</v>
+        <v>0.017019716</v>
       </c>
       <c r="M121" t="n">
-        <v>1.9973e-05</v>
+        <v>2.0367e-05</v>
       </c>
       <c r="N121" t="n">
         <v>30</v>
@@ -8961,31 +8961,31 @@
         <v>5</v>
       </c>
       <c r="E122" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F122" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G122" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H122" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I122" t="n">
-        <v>0.010923856</v>
+        <v>0.010177763</v>
       </c>
       <c r="J122" t="n">
-        <v>0.023148381</v>
+        <v>0.021958696</v>
       </c>
       <c r="K122" t="n">
-        <v>0.03839295</v>
+        <v>0.036110444</v>
       </c>
       <c r="L122" t="n">
-        <v>0.00438407</v>
+        <v>0.004142634</v>
       </c>
       <c r="M122" t="n">
-        <v>1.6179e-05</v>
+        <v>1.6384e-05</v>
       </c>
       <c r="N122" t="n">
         <v>30</v>
@@ -9031,31 +9031,31 @@
         <v>5</v>
       </c>
       <c r="E123" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F123" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G123" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H123" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I123" t="n">
-        <v>0.014302242</v>
+        <v>0.013841232</v>
       </c>
       <c r="J123" t="n">
-        <v>0.036840115</v>
+        <v>0.035347772</v>
       </c>
       <c r="K123" t="n">
-        <v>0.058737871</v>
+        <v>0.05430467</v>
       </c>
       <c r="L123" t="n">
-        <v>0.004388716</v>
+        <v>0.004066377</v>
       </c>
       <c r="M123" t="n">
-        <v>1.6781e-05</v>
+        <v>1.8007e-05</v>
       </c>
       <c r="N123" t="n">
         <v>30</v>
@@ -9101,31 +9101,31 @@
         <v>10</v>
       </c>
       <c r="E124" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F124" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G124" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H124" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I124" t="n">
-        <v>0.014535055</v>
+        <v>0.01278679</v>
       </c>
       <c r="J124" t="n">
-        <v>0.027072162</v>
+        <v>0.024369928</v>
       </c>
       <c r="K124" t="n">
-        <v>0.042417155</v>
+        <v>0.038175141</v>
       </c>
       <c r="L124" t="n">
-        <v>0.007915972</v>
+        <v>0.007193087</v>
       </c>
       <c r="M124" t="n">
-        <v>1.7314e-05</v>
+        <v>1.4736e-05</v>
       </c>
       <c r="N124" t="n">
         <v>30</v>
@@ -9171,31 +9171,31 @@
         <v>5</v>
       </c>
       <c r="E125" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F125" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G125" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H125" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I125" t="n">
-        <v>0.018154534</v>
+        <v>0.016235547</v>
       </c>
       <c r="J125" t="n">
-        <v>0.051660336</v>
+        <v>0.047284323</v>
       </c>
       <c r="K125" t="n">
-        <v>0.081803241</v>
+        <v>0.073540884</v>
       </c>
       <c r="L125" t="n">
-        <v>0.004425247</v>
+        <v>0.003992181</v>
       </c>
       <c r="M125" t="n">
-        <v>1.9999e-05</v>
+        <v>1.7548e-05</v>
       </c>
       <c r="N125" t="n">
         <v>30</v>
@@ -9241,31 +9241,31 @@
         <v>10</v>
       </c>
       <c r="E126" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F126" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G126" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H126" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I126" t="n">
-        <v>0.018164862</v>
+        <v>0.016177132</v>
       </c>
       <c r="J126" t="n">
-        <v>0.041653318</v>
+        <v>0.037017776</v>
       </c>
       <c r="K126" t="n">
-        <v>0.063917817</v>
+        <v>0.059037285</v>
       </c>
       <c r="L126" t="n">
-        <v>0.008061343</v>
+        <v>0.007059787</v>
       </c>
       <c r="M126" t="n">
-        <v>1.8704e-05</v>
+        <v>1.5958e-05</v>
       </c>
       <c r="N126" t="n">
         <v>30</v>
@@ -9311,31 +9311,31 @@
         <v>15</v>
       </c>
       <c r="E127" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F127" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G127" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H127" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I127" t="n">
-        <v>0.017727252</v>
+        <v>0.016138603</v>
       </c>
       <c r="J127" t="n">
-        <v>0.030272491</v>
+        <v>0.028676311</v>
       </c>
       <c r="K127" t="n">
-        <v>0.044798123</v>
+        <v>0.043501</v>
       </c>
       <c r="L127" t="n">
-        <v>0.011472886</v>
+        <v>0.01105685</v>
       </c>
       <c r="M127" t="n">
-        <v>1.7333e-05</v>
+        <v>1.9304e-05</v>
       </c>
       <c r="N127" t="n">
         <v>30</v>
@@ -9381,31 +9381,31 @@
         <v>5</v>
       </c>
       <c r="E128" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F128" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G128" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H128" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I128" t="n">
-        <v>0.021848028</v>
+        <v>0.020125911</v>
       </c>
       <c r="J128" t="n">
-        <v>0.06685327200000001</v>
+        <v>0.061776847</v>
       </c>
       <c r="K128" t="n">
-        <v>0.10249138</v>
+        <v>0.09387543499999999</v>
       </c>
       <c r="L128" t="n">
-        <v>0.004502134</v>
+        <v>0.003910874</v>
       </c>
       <c r="M128" t="n">
-        <v>2.3889e-05</v>
+        <v>1.8772e-05</v>
       </c>
       <c r="N128" t="n">
         <v>30</v>
@@ -9451,31 +9451,31 @@
         <v>10</v>
       </c>
       <c r="E129" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F129" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G129" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H129" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I129" t="n">
-        <v>0.021217679</v>
+        <v>0.019100233</v>
       </c>
       <c r="J129" t="n">
-        <v>0.055909006</v>
+        <v>0.049738426</v>
       </c>
       <c r="K129" t="n">
-        <v>0.085277643</v>
+        <v>0.07620094299999999</v>
       </c>
       <c r="L129" t="n">
-        <v>0.008017619</v>
+        <v>0.007127932</v>
       </c>
       <c r="M129" t="n">
-        <v>2.1794e-05</v>
+        <v>1.6583e-05</v>
       </c>
       <c r="N129" t="n">
         <v>30</v>
@@ -9521,31 +9521,31 @@
         <v>15</v>
       </c>
       <c r="E130" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F130" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G130" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H130" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I130" t="n">
-        <v>0.022045628</v>
+        <v>0.019841922</v>
       </c>
       <c r="J130" t="n">
-        <v>0.045639322</v>
+        <v>0.040929654</v>
       </c>
       <c r="K130" t="n">
-        <v>0.067469826</v>
+        <v>0.063332397</v>
       </c>
       <c r="L130" t="n">
-        <v>0.01179094</v>
+        <v>0.010507621</v>
       </c>
       <c r="M130" t="n">
-        <v>2.4168e-05</v>
+        <v>2.1792e-05</v>
       </c>
       <c r="N130" t="n">
         <v>30</v>
@@ -9591,31 +9591,31 @@
         <v>20</v>
       </c>
       <c r="E131" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F131" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G131" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H131" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I131" t="n">
-        <v>0.021889117</v>
+        <v>0.019877979</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03506715</v>
+        <v>0.032160385</v>
       </c>
       <c r="K131" t="n">
-        <v>0.050001003</v>
+        <v>0.046417656</v>
       </c>
       <c r="L131" t="n">
-        <v>0.015210768</v>
+        <v>0.013699015</v>
       </c>
       <c r="M131" t="n">
-        <v>2.0678e-05</v>
+        <v>1.748e-05</v>
       </c>
       <c r="N131" t="n">
         <v>30</v>
@@ -9661,31 +9661,31 @@
         <v>5</v>
       </c>
       <c r="E132" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F132" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G132" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H132" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I132" t="n">
-        <v>0.025391029</v>
+        <v>0.024041962</v>
       </c>
       <c r="J132" t="n">
-        <v>0.082056515</v>
+        <v>0.07979225199999999</v>
       </c>
       <c r="K132" t="n">
-        <v>0.126086292</v>
+        <v>0.112629822</v>
       </c>
       <c r="L132" t="n">
-        <v>0.004707019</v>
+        <v>0.003977439</v>
       </c>
       <c r="M132" t="n">
-        <v>2.9325e-05</v>
+        <v>2.3221e-05</v>
       </c>
       <c r="N132" t="n">
         <v>30</v>
@@ -9731,31 +9731,31 @@
         <v>10</v>
       </c>
       <c r="E133" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F133" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G133" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H133" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I133" t="n">
-        <v>0.026329919</v>
+        <v>0.022256876</v>
       </c>
       <c r="J133" t="n">
-        <v>0.071026881</v>
+        <v>0.061566414</v>
       </c>
       <c r="K133" t="n">
-        <v>0.109032031</v>
+        <v>0.095511416</v>
       </c>
       <c r="L133" t="n">
-        <v>0.008369852000000001</v>
+        <v>0.007339484</v>
       </c>
       <c r="M133" t="n">
-        <v>2.6703e-05</v>
+        <v>1.9042e-05</v>
       </c>
       <c r="N133" t="n">
         <v>30</v>
@@ -9801,31 +9801,31 @@
         <v>15</v>
       </c>
       <c r="E134" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F134" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G134" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H134" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I134" t="n">
-        <v>0.02564789</v>
+        <v>0.022995446</v>
       </c>
       <c r="J134" t="n">
-        <v>0.060014809</v>
+        <v>0.055070748</v>
       </c>
       <c r="K134" t="n">
-        <v>0.09035942600000001</v>
+        <v>0.081630197</v>
       </c>
       <c r="L134" t="n">
-        <v>0.011841184</v>
+        <v>0.010642029</v>
       </c>
       <c r="M134" t="n">
-        <v>2.7915e-05</v>
+        <v>2.0758e-05</v>
       </c>
       <c r="N134" t="n">
         <v>30</v>
@@ -9871,31 +9871,31 @@
         <v>20</v>
       </c>
       <c r="E135" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F135" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G135" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H135" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I135" t="n">
-        <v>0.025049672</v>
+        <v>0.02300652</v>
       </c>
       <c r="J135" t="n">
-        <v>0.048324029</v>
+        <v>0.044238702</v>
       </c>
       <c r="K135" t="n">
-        <v>0.070713047</v>
+        <v>0.06547555400000001</v>
       </c>
       <c r="L135" t="n">
-        <v>0.014972009</v>
+        <v>0.013922227</v>
       </c>
       <c r="M135" t="n">
-        <v>2.19e-05</v>
+        <v>3.0216e-05</v>
       </c>
       <c r="N135" t="n">
         <v>30</v>
@@ -9941,31 +9941,31 @@
         <v>25</v>
       </c>
       <c r="E136" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F136" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G136" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H136" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I136" t="n">
-        <v>0.024975087</v>
+        <v>0.023324725</v>
       </c>
       <c r="J136" t="n">
-        <v>0.037656604</v>
+        <v>0.034592664</v>
       </c>
       <c r="K136" t="n">
-        <v>0.052321841</v>
+        <v>0.047578986</v>
       </c>
       <c r="L136" t="n">
-        <v>0.018578398</v>
+        <v>0.016818067</v>
       </c>
       <c r="M136" t="n">
-        <v>1.7904e-05</v>
+        <v>1.7066e-05</v>
       </c>
       <c r="N136" t="n">
         <v>30</v>
@@ -10011,31 +10011,31 @@
         <v>5</v>
       </c>
       <c r="E137" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F137" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G137" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H137" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I137" t="n">
-        <v>0.010939701</v>
+        <v>0.009771553000000001</v>
       </c>
       <c r="J137" t="n">
-        <v>0.023880285</v>
+        <v>0.021767161</v>
       </c>
       <c r="K137" t="n">
-        <v>0.038828056</v>
+        <v>0.034308617</v>
       </c>
       <c r="L137" t="n">
-        <v>0.004521632</v>
+        <v>0.004008055</v>
       </c>
       <c r="M137" t="n">
-        <v>1.8769e-05</v>
+        <v>1.4688e-05</v>
       </c>
       <c r="N137" t="n">
         <v>30</v>
@@ -10081,31 +10081,31 @@
         <v>5</v>
       </c>
       <c r="E138" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F138" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G138" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H138" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I138" t="n">
-        <v>0.014635685</v>
+        <v>0.013589067</v>
       </c>
       <c r="J138" t="n">
-        <v>0.038185438</v>
+        <v>0.033668632</v>
       </c>
       <c r="K138" t="n">
-        <v>0.060644746</v>
+        <v>0.056107355</v>
       </c>
       <c r="L138" t="n">
-        <v>0.00456072</v>
+        <v>0.004067984</v>
       </c>
       <c r="M138" t="n">
-        <v>2.2223e-05</v>
+        <v>1.7811e-05</v>
       </c>
       <c r="N138" t="n">
         <v>30</v>
@@ -10151,31 +10151,31 @@
         <v>10</v>
       </c>
       <c r="E139" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F139" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G139" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H139" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I139" t="n">
-        <v>0.014534397</v>
+        <v>0.012825644</v>
       </c>
       <c r="J139" t="n">
-        <v>0.027254573</v>
+        <v>0.02437602</v>
       </c>
       <c r="K139" t="n">
-        <v>0.042606056</v>
+        <v>0.040040652</v>
       </c>
       <c r="L139" t="n">
-        <v>0.00819345</v>
+        <v>0.007399028</v>
       </c>
       <c r="M139" t="n">
-        <v>1.9547e-05</v>
+        <v>1.6084e-05</v>
       </c>
       <c r="N139" t="n">
         <v>30</v>
@@ -10221,31 +10221,31 @@
         <v>5</v>
       </c>
       <c r="E140" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F140" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G140" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H140" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I140" t="n">
-        <v>0.018404896</v>
+        <v>0.017307272</v>
       </c>
       <c r="J140" t="n">
-        <v>0.053316396</v>
+        <v>0.049941147</v>
       </c>
       <c r="K140" t="n">
-        <v>0.083502177</v>
+        <v>0.07601878400000001</v>
       </c>
       <c r="L140" t="n">
-        <v>0.004598808</v>
+        <v>0.004316653</v>
       </c>
       <c r="M140" t="n">
-        <v>2.4481e-05</v>
+        <v>2.192e-05</v>
       </c>
       <c r="N140" t="n">
         <v>30</v>
@@ -10291,31 +10291,31 @@
         <v>10</v>
       </c>
       <c r="E141" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F141" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G141" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H141" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I141" t="n">
-        <v>0.018293073</v>
+        <v>0.017297369</v>
       </c>
       <c r="J141" t="n">
-        <v>0.042358969</v>
+        <v>0.039962247</v>
       </c>
       <c r="K141" t="n">
-        <v>0.06375161</v>
+        <v>0.063009199</v>
       </c>
       <c r="L141" t="n">
-        <v>0.008061779</v>
+        <v>0.007758849</v>
       </c>
       <c r="M141" t="n">
-        <v>2.4272e-05</v>
+        <v>2.4947e-05</v>
       </c>
       <c r="N141" t="n">
         <v>30</v>
@@ -10361,31 +10361,31 @@
         <v>15</v>
       </c>
       <c r="E142" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F142" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G142" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H142" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I142" t="n">
-        <v>0.018214026</v>
+        <v>0.017155084</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03089279</v>
+        <v>0.028866229</v>
       </c>
       <c r="K142" t="n">
-        <v>0.045692601</v>
+        <v>0.04249548</v>
       </c>
       <c r="L142" t="n">
-        <v>0.011633546</v>
+        <v>0.010603959</v>
       </c>
       <c r="M142" t="n">
-        <v>1.9924e-05</v>
+        <v>2.0833e-05</v>
       </c>
       <c r="N142" t="n">
         <v>30</v>
@@ -10431,31 +10431,31 @@
         <v>5</v>
       </c>
       <c r="E143" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F143" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G143" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H143" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I143" t="n">
-        <v>0.021805472</v>
+        <v>0.019368123</v>
       </c>
       <c r="J143" t="n">
-        <v>0.06661341699999999</v>
+        <v>0.059443495</v>
       </c>
       <c r="K143" t="n">
-        <v>0.103700928</v>
+        <v>0.093387418</v>
       </c>
       <c r="L143" t="n">
-        <v>0.004545199</v>
+        <v>0.003985845</v>
       </c>
       <c r="M143" t="n">
-        <v>2.3986e-05</v>
+        <v>2.1575e-05</v>
       </c>
       <c r="N143" t="n">
         <v>30</v>
@@ -10501,31 +10501,31 @@
         <v>10</v>
       </c>
       <c r="E144" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F144" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G144" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H144" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I144" t="n">
-        <v>0.021779355</v>
+        <v>0.019188897</v>
       </c>
       <c r="J144" t="n">
-        <v>0.056271811</v>
+        <v>0.049173186</v>
       </c>
       <c r="K144" t="n">
-        <v>0.08557885799999999</v>
+        <v>0.076675682</v>
       </c>
       <c r="L144" t="n">
-        <v>0.008109053</v>
+        <v>0.007234275</v>
       </c>
       <c r="M144" t="n">
-        <v>2.3186e-05</v>
+        <v>2.6343e-05</v>
       </c>
       <c r="N144" t="n">
         <v>30</v>
@@ -10571,31 +10571,31 @@
         <v>15</v>
       </c>
       <c r="E145" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F145" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G145" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H145" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I145" t="n">
-        <v>0.021499411</v>
+        <v>0.021275064</v>
       </c>
       <c r="J145" t="n">
-        <v>0.044517168</v>
+        <v>0.040391547</v>
       </c>
       <c r="K145" t="n">
-        <v>0.066454016</v>
+        <v>0.059875954</v>
       </c>
       <c r="L145" t="n">
-        <v>0.011527901</v>
+        <v>0.010277419</v>
       </c>
       <c r="M145" t="n">
-        <v>2.5135e-05</v>
+        <v>1.741e-05</v>
       </c>
       <c r="N145" t="n">
         <v>30</v>
@@ -10641,31 +10641,31 @@
         <v>20</v>
       </c>
       <c r="E146" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F146" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G146" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H146" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I146" t="n">
-        <v>0.021697814</v>
+        <v>0.019219907</v>
       </c>
       <c r="J146" t="n">
-        <v>0.034154844</v>
+        <v>0.030675267</v>
       </c>
       <c r="K146" t="n">
-        <v>0.049059963</v>
+        <v>0.045513947</v>
       </c>
       <c r="L146" t="n">
-        <v>0.015216168</v>
+        <v>0.013701695</v>
       </c>
       <c r="M146" t="n">
-        <v>1.7835e-05</v>
+        <v>2.0722e-05</v>
       </c>
       <c r="N146" t="n">
         <v>30</v>
@@ -10711,31 +10711,31 @@
         <v>5</v>
       </c>
       <c r="E147" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F147" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G147" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H147" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I147" t="n">
-        <v>0.025212961</v>
+        <v>0.022610027</v>
       </c>
       <c r="J147" t="n">
-        <v>0.080098246</v>
+        <v>0.074938212</v>
       </c>
       <c r="K147" t="n">
-        <v>0.12365245</v>
+        <v>0.114991085</v>
       </c>
       <c r="L147" t="n">
-        <v>0.004592699</v>
+        <v>0.003979303</v>
       </c>
       <c r="M147" t="n">
-        <v>2.9161e-05</v>
+        <v>2.2775e-05</v>
       </c>
       <c r="N147" t="n">
         <v>30</v>
@@ -10781,31 +10781,31 @@
         <v>10</v>
       </c>
       <c r="E148" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F148" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G148" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H148" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I148" t="n">
-        <v>0.025101781</v>
+        <v>0.023303105</v>
       </c>
       <c r="J148" t="n">
-        <v>0.06927923699999999</v>
+        <v>0.06474265999999999</v>
       </c>
       <c r="K148" t="n">
-        <v>0.106178333</v>
+        <v>0.100353666</v>
       </c>
       <c r="L148" t="n">
-        <v>0.008060642999999999</v>
+        <v>0.007699914</v>
       </c>
       <c r="M148" t="n">
-        <v>2.4203e-05</v>
+        <v>2.4601e-05</v>
       </c>
       <c r="N148" t="n">
         <v>30</v>
@@ -10851,31 +10851,31 @@
         <v>15</v>
       </c>
       <c r="E149" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F149" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G149" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H149" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I149" t="n">
-        <v>0.025625971</v>
+        <v>0.023672943</v>
       </c>
       <c r="J149" t="n">
-        <v>0.060541209</v>
+        <v>0.054606223</v>
       </c>
       <c r="K149" t="n">
-        <v>0.089415966</v>
+        <v>0.08303252</v>
       </c>
       <c r="L149" t="n">
-        <v>0.011661816</v>
+        <v>0.011135187</v>
       </c>
       <c r="M149" t="n">
-        <v>2.3636e-05</v>
+        <v>2.6697e-05</v>
       </c>
       <c r="N149" t="n">
         <v>30</v>
@@ -10921,31 +10921,31 @@
         <v>20</v>
       </c>
       <c r="E150" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F150" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G150" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H150" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I150" t="n">
-        <v>0.026008294</v>
+        <v>0.023424693</v>
       </c>
       <c r="J150" t="n">
-        <v>0.050027764</v>
+        <v>0.045854514</v>
       </c>
       <c r="K150" t="n">
-        <v>0.072815386</v>
+        <v>0.065887918</v>
       </c>
       <c r="L150" t="n">
-        <v>0.015526187</v>
+        <v>0.014447663</v>
       </c>
       <c r="M150" t="n">
-        <v>2.1607e-05</v>
+        <v>3.7013e-05</v>
       </c>
       <c r="N150" t="n">
         <v>30</v>
@@ -10991,31 +10991,31 @@
         <v>25</v>
       </c>
       <c r="E151" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F151" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G151" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H151" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I151" t="n">
-        <v>0.025660841</v>
+        <v>0.023368888</v>
       </c>
       <c r="J151" t="n">
-        <v>0.039060066</v>
+        <v>0.035870095</v>
       </c>
       <c r="K151" t="n">
-        <v>0.054570182</v>
+        <v>0.049290465</v>
       </c>
       <c r="L151" t="n">
-        <v>0.019129146</v>
+        <v>0.017966545</v>
       </c>
       <c r="M151" t="n">
-        <v>2.0377e-05</v>
+        <v>2.2693e-05</v>
       </c>
       <c r="N151" t="n">
         <v>30</v>
